--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -7401,7 +7401,11 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K127" s="19" t="n"/>
+      <c r="K127" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
+        </is>
+      </c>
       <c r="L127" s="19" t="inlineStr">
         <is>
           <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>

--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -22080,7 +22080,11 @@
         </is>
       </c>
       <c r="J416" s="13" t="n"/>
-      <c r="K416" s="19" t="n"/>
+      <c r="K416" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | mv-expand properties.managedRules.managedRuleSets | project id, rulesettype = properties_managedRules_managedRuleSets.ruleSetType | extend compliant1 = (rulesettype == 'Microsoft_BotManagerRuleSet') | project id, compliant1 | summarize compliant = max(compliant1) by id</t>
+        </is>
+      </c>
       <c r="L416" s="19" t="inlineStr">
         <is>
           <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
@@ -22864,28 +22868,28 @@
     <row r="432">
       <c r="A432" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B432" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C432" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D432" s="18" t="inlineStr">
         <is>
-          <t>AKS Windows 워크로드에 필요한 경우 HostProcess 컨테이너를 사용할 수 있습니다.</t>
+          <t>원본이 Azure Front Door 인스턴스의 트래픽만 가져와야 합니다.</t>
         </is>
       </c>
       <c r="E432" s="18" t="n"/>
       <c r="F432" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
@@ -22903,7 +22907,7 @@
       <c r="K432" s="19" t="n"/>
       <c r="L432" s="19" t="inlineStr">
         <is>
-          <t>ab5351f6-383a-45ed-9c5e-b143b16db40a</t>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
         </is>
       </c>
       <c r="M432" s="20" t="n"/>
@@ -22915,28 +22919,28 @@
     <row r="433">
       <c r="A433" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B433" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C433" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D433" s="18" t="inlineStr">
         <is>
-          <t>이벤트 기반 워크로드를 실행하는 경우 KEDA 사용Use KEDA if running event-driven workloads</t>
+          <t>백 엔드 서버에 대한 트래픽을 암호화해야 합니다.</t>
         </is>
       </c>
       <c r="E433" s="18" t="n"/>
       <c r="F433" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
@@ -22954,7 +22958,7 @@
       <c r="K433" s="19" t="n"/>
       <c r="L433" s="19" t="inlineStr">
         <is>
-          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
+          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
         </is>
       </c>
       <c r="M433" s="20" t="n"/>
@@ -22966,28 +22970,28 @@
     <row r="434">
       <c r="A434" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B434" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C434" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D434" s="18" t="inlineStr">
         <is>
-          <t>Dapr을 사용하여 마이크로 서비스 개발 용이</t>
+          <t>웹 응용 프로그램 방화벽을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="E434" s="18" t="n"/>
       <c r="F434" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -23005,7 +23009,7 @@
       <c r="K434" s="19" t="n"/>
       <c r="L434" s="19" t="inlineStr">
         <is>
-          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
+          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
         </is>
       </c>
       <c r="M434" s="20" t="n"/>
@@ -23017,28 +23021,28 @@
     <row r="435">
       <c r="A435" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B435" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C435" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D435" s="18" t="inlineStr">
         <is>
-          <t>SLA 지원 AKS 제품 사용</t>
+          <t>HTTP를 HTTPS로 리디렉션</t>
         </is>
       </c>
       <c r="E435" s="18" t="n"/>
       <c r="F435" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
@@ -23053,14 +23057,10 @@
         </is>
       </c>
       <c r="J435" s="13" t="n"/>
-      <c r="K435" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (sku.tier=='Paid') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K435" s="19" t="n"/>
       <c r="L435" s="19" t="inlineStr">
         <is>
-          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
+          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
         </is>
       </c>
       <c r="M435" s="20" t="n"/>
@@ -23087,7 +23087,7 @@
       </c>
       <c r="D436" s="18" t="inlineStr">
         <is>
-          <t>Pod 및 배포 정의에서 중단 예산 사용Use Disruption Budgets in your pod and deployment definitions</t>
+          <t>AKS Windows 워크로드에 필요한 경우 HostProcess 컨테이너를 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="E436" s="18" t="n"/>
@@ -23111,7 +23111,7 @@
       <c r="K436" s="19" t="n"/>
       <c r="L436" s="19" t="inlineStr">
         <is>
-          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
+          <t>ab5351f6-383a-45ed-9c5e-b143b16db40a</t>
         </is>
       </c>
       <c r="M436" s="20" t="n"/>
@@ -23128,23 +23128,23 @@
       </c>
       <c r="B437" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C437" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D437" s="18" t="inlineStr">
         <is>
-          <t>개인 레지스트리를 사용하는 경우 여러 지역에 이미지를 저장하도록 지역 복제를 구성합니다</t>
+          <t>이벤트 기반 워크로드를 실행하는 경우 KEDA 사용Use KEDA if running event-driven workloads</t>
         </is>
       </c>
       <c r="E437" s="18" t="n"/>
       <c r="F437" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
@@ -23162,7 +23162,7 @@
       <c r="K437" s="19" t="n"/>
       <c r="L437" s="19" t="inlineStr">
         <is>
-          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
+          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
         </is>
       </c>
       <c r="M437" s="20" t="n"/>
@@ -23179,7 +23179,7 @@
       </c>
       <c r="B438" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C438" s="18" t="inlineStr">
@@ -23189,7 +23189,7 @@
       </c>
       <c r="D438" s="18" t="inlineStr">
         <is>
-          <t>kubecost와 같은 외부 애플리케이션을 사용하여 다른 사용자에게 비용 할당</t>
+          <t>Dapr을 사용하여 마이크로 서비스 개발 용이</t>
         </is>
       </c>
       <c r="E438" s="18" t="n"/>
@@ -23213,7 +23213,7 @@
       <c r="K438" s="19" t="n"/>
       <c r="L438" s="19" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
         </is>
       </c>
       <c r="M438" s="20" t="n"/>
@@ -23230,7 +23230,7 @@
       </c>
       <c r="B439" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C439" s="18" t="inlineStr">
@@ -23240,13 +23240,13 @@
       </c>
       <c r="D439" s="18" t="inlineStr">
         <is>
-          <t>축소 모드를 사용하여 노드 삭제/할당 취소</t>
+          <t>SLA 지원 AKS 제품 사용</t>
         </is>
       </c>
       <c r="E439" s="18" t="n"/>
       <c r="F439" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
@@ -23261,10 +23261,14 @@
         </is>
       </c>
       <c r="J439" s="13" t="n"/>
-      <c r="K439" s="19" t="n"/>
+      <c r="K439" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (sku.tier=='Paid') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L439" s="19" t="inlineStr">
         <is>
-          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
+          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
         </is>
       </c>
       <c r="M439" s="20" t="n"/>
@@ -23281,7 +23285,7 @@
       </c>
       <c r="B440" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C440" s="18" t="inlineStr">
@@ -23291,13 +23295,13 @@
       </c>
       <c r="D440" s="18" t="inlineStr">
         <is>
-          <t>필요한 경우 AKS 클러스터에서 다중 인스턴스 분할 GPU 사용</t>
+          <t>Pod 및 배포 정의에서 중단 예산 사용Use Disruption Budgets in your pod and deployment definitions</t>
         </is>
       </c>
       <c r="E440" s="18" t="n"/>
       <c r="F440" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
@@ -23315,7 +23319,7 @@
       <c r="K440" s="19" t="n"/>
       <c r="L440" s="19" t="inlineStr">
         <is>
-          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
+          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
         </is>
       </c>
       <c r="M440" s="20" t="n"/>
@@ -23332,23 +23336,23 @@
       </c>
       <c r="B441" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C441" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D441" s="18" t="inlineStr">
         <is>
-          <t>개발/테스트 클러스터를 실행하는 경우 NodePool 시작/중지를 사용합니다.</t>
+          <t>개인 레지스트리를 사용하는 경우 여러 지역에 이미지를 저장하도록 지역 복제를 구성합니다</t>
         </is>
       </c>
       <c r="E441" s="18" t="n"/>
       <c r="F441" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
@@ -23366,7 +23370,7 @@
       <c r="K441" s="19" t="n"/>
       <c r="L441" s="19" t="inlineStr">
         <is>
-          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
+          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
         </is>
       </c>
       <c r="M441" s="20" t="n"/>
@@ -23383,7 +23387,7 @@
       </c>
       <c r="B442" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C442" s="18" t="inlineStr">
@@ -23393,13 +23397,13 @@
       </c>
       <c r="D442" s="18" t="inlineStr">
         <is>
-          <t>Kubernetes용 Azure Policy를 사용하여 클러스터 규정 준수 보장</t>
+          <t>kubecost와 같은 외부 애플리케이션을 사용하여 다른 사용자에게 비용 할당</t>
         </is>
       </c>
       <c r="E442" s="18" t="n"/>
       <c r="F442" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
@@ -23414,14 +23418,10 @@
         </is>
       </c>
       <c r="J442" s="13" t="n"/>
-      <c r="K442" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.azurepolicy) and properties.addonProfiles.azurepolicy.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K442" s="19" t="n"/>
       <c r="L442" s="19" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M442" s="20" t="n"/>
@@ -23438,7 +23438,7 @@
       </c>
       <c r="B443" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C443" s="18" t="inlineStr">
@@ -23448,13 +23448,13 @@
       </c>
       <c r="D443" s="18" t="inlineStr">
         <is>
-          <t>사용자/시스템 노드 풀이 있는 컨트롤 플레인에서 응용 프로그램 분리</t>
+          <t>축소 모드를 사용하여 노드 삭제/할당 취소</t>
         </is>
       </c>
       <c r="E443" s="18" t="n"/>
       <c r="F443" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
@@ -23469,14 +23469,10 @@
         </is>
       </c>
       <c r="J443" s="13" t="n"/>
-      <c r="K443" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | project id,name,resourceGroup,poolcount=array_length(pools) | extend compliant = (poolcount &gt; 1)</t>
-        </is>
-      </c>
+      <c r="K443" s="19" t="n"/>
       <c r="L443" s="19" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
         </is>
       </c>
       <c r="M443" s="20" t="n"/>
@@ -23493,7 +23489,7 @@
       </c>
       <c r="B444" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C444" s="18" t="inlineStr">
@@ -23503,13 +23499,13 @@
       </c>
       <c r="D444" s="18" t="inlineStr">
         <is>
-          <t>시스템 nodepool에 taint를 추가하여 전용으로 만듭니다.</t>
+          <t>필요한 경우 AKS 클러스터에서 다중 인스턴스 분할 GPU 사용</t>
         </is>
       </c>
       <c r="E444" s="18" t="n"/>
       <c r="F444" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
@@ -23527,7 +23523,7 @@
       <c r="K444" s="19" t="n"/>
       <c r="L444" s="19" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
         </is>
       </c>
       <c r="M444" s="20" t="n"/>
@@ -23544,7 +23540,7 @@
       </c>
       <c r="B445" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C445" s="18" t="inlineStr">
@@ -23554,13 +23550,13 @@
       </c>
       <c r="D445" s="18" t="inlineStr">
         <is>
-          <t>이미지에 개인 레지스트리(예: ACR) 사용</t>
+          <t>개발/테스트 클러스터를 실행하는 경우 NodePool 시작/중지를 사용합니다.</t>
         </is>
       </c>
       <c r="E445" s="18" t="n"/>
       <c r="F445" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
@@ -23578,7 +23574,7 @@
       <c r="K445" s="19" t="n"/>
       <c r="L445" s="19" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
         </is>
       </c>
       <c r="M445" s="20" t="n"/>
@@ -23600,12 +23596,12 @@
       </c>
       <c r="C446" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D446" s="18" t="inlineStr">
         <is>
-          <t>이미지에서 취약성 검사</t>
+          <t>Kubernetes용 Azure Policy를 사용하여 클러스터 규정 준수 보장</t>
         </is>
       </c>
       <c r="E446" s="18" t="n"/>
@@ -23626,10 +23622,14 @@
         </is>
       </c>
       <c r="J446" s="13" t="n"/>
-      <c r="K446" s="19" t="n"/>
+      <c r="K446" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.azurepolicy) and properties.addonProfiles.azurepolicy.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L446" s="19" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M446" s="20" t="n"/>
@@ -23656,13 +23656,13 @@
       </c>
       <c r="D447" s="18" t="inlineStr">
         <is>
-          <t>앱 분리 요구 사항 정의(네임스페이스/노드 풀/클러스터)</t>
+          <t>사용자/시스템 노드 풀이 있는 컨트롤 플레인에서 응용 프로그램 분리</t>
         </is>
       </c>
       <c r="E447" s="18" t="n"/>
       <c r="F447" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
@@ -23677,10 +23677,14 @@
         </is>
       </c>
       <c r="J447" s="13" t="n"/>
-      <c r="K447" s="19" t="n"/>
+      <c r="K447" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | project id,name,resourceGroup,poolcount=array_length(pools) | extend compliant = (poolcount &gt; 1)</t>
+        </is>
+      </c>
       <c r="L447" s="19" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M447" s="20" t="n"/>
@@ -23707,13 +23711,13 @@
       </c>
       <c r="D448" s="18" t="inlineStr">
         <is>
-          <t>CSI 비밀 저장소 드라이버를 사용하여 Azure Key Vault에 비밀 저장</t>
+          <t>시스템 nodepool에 taint를 추가하여 전용으로 만듭니다.</t>
         </is>
       </c>
       <c r="E448" s="18" t="n"/>
       <c r="F448" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
@@ -23731,7 +23735,7 @@
       <c r="K448" s="19" t="n"/>
       <c r="L448" s="19" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M448" s="20" t="n"/>
@@ -23758,13 +23762,13 @@
       </c>
       <c r="D449" s="18" t="inlineStr">
         <is>
-          <t>클러스터에 서비스 주체를 사용하는 경우 주기적으로(예: 분기별) 자격 증명을 새로 고칩니다</t>
+          <t>이미지에 개인 레지스트리(예: ACR) 사용</t>
         </is>
       </c>
       <c r="E449" s="18" t="n"/>
       <c r="F449" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -23782,7 +23786,7 @@
       <c r="K449" s="19" t="n"/>
       <c r="L449" s="19" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M449" s="20" t="n"/>
@@ -23804,12 +23808,12 @@
       </c>
       <c r="C450" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D450" s="18" t="inlineStr">
         <is>
-          <t>필요한 경우 키 관리 서비스 etcd 암호화를 추가합니다.</t>
+          <t>이미지에서 취약성 검사</t>
         </is>
       </c>
       <c r="E450" s="18" t="n"/>
@@ -23833,7 +23837,7 @@
       <c r="K450" s="19" t="n"/>
       <c r="L450" s="19" t="inlineStr">
         <is>
-          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M450" s="20" t="n"/>
@@ -23860,13 +23864,13 @@
       </c>
       <c r="D451" s="18" t="inlineStr">
         <is>
-          <t>필요한 경우 AKS용 기밀 컴퓨팅을 사용하는 것이 좋습니다.</t>
+          <t>앱 분리 요구 사항 정의(네임스페이스/노드 풀/클러스터)</t>
         </is>
       </c>
       <c r="E451" s="18" t="n"/>
       <c r="F451" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
@@ -23884,7 +23888,7 @@
       <c r="K451" s="19" t="n"/>
       <c r="L451" s="19" t="inlineStr">
         <is>
-          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M451" s="20" t="n"/>
@@ -23911,7 +23915,7 @@
       </c>
       <c r="D452" s="18" t="inlineStr">
         <is>
-          <t>컨테이너용 Defender 사용 고려</t>
+          <t>CSI 비밀 저장소 드라이버를 사용하여 Azure Key Vault에 비밀 저장</t>
         </is>
       </c>
       <c r="E452" s="18" t="n"/>
@@ -23935,7 +23939,7 @@
       <c r="K452" s="19" t="n"/>
       <c r="L452" s="19" t="inlineStr">
         <is>
-          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M452" s="20" t="n"/>
@@ -23962,7 +23966,7 @@
       </c>
       <c r="D453" s="18" t="inlineStr">
         <is>
-          <t>서비스 주체 대신 관리 ID 사용</t>
+          <t>클러스터에 서비스 주체를 사용하는 경우 주기적으로(예: 분기별) 자격 증명을 새로 고칩니다</t>
         </is>
       </c>
       <c r="E453" s="18" t="n"/>
@@ -23983,14 +23987,10 @@
         </is>
       </c>
       <c r="J453" s="13" t="n"/>
-      <c r="K453" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.servicePrincipalProfile.clientId=='msi') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K453" s="19" t="n"/>
       <c r="L453" s="19" t="inlineStr">
         <is>
-          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M453" s="20" t="n"/>
@@ -24017,7 +24017,7 @@
       </c>
       <c r="D454" s="18" t="inlineStr">
         <is>
-          <t>AAD와 인증 통합(관리형 통합 사용)</t>
+          <t>필요한 경우 키 관리 서비스 etcd 암호화를 추가합니다.</t>
         </is>
       </c>
       <c r="E454" s="18" t="n"/>
@@ -24038,14 +24038,10 @@
         </is>
       </c>
       <c r="J454" s="13" t="n"/>
-      <c r="K454" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.aadProfile) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K454" s="19" t="n"/>
       <c r="L454" s="19" t="inlineStr">
         <is>
-          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
+          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
         </is>
       </c>
       <c r="M454" s="20" t="n"/>
@@ -24072,13 +24068,13 @@
       </c>
       <c r="D455" s="18" t="inlineStr">
         <is>
-          <t>관리자 kubeconfig에 대한 액세스 제한(get-credentials --admin)</t>
+          <t>필요한 경우 AKS용 기밀 컴퓨팅을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E455" s="18" t="n"/>
       <c r="F455" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
@@ -24096,7 +24092,7 @@
       <c r="K455" s="19" t="n"/>
       <c r="L455" s="19" t="inlineStr">
         <is>
-          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
+          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
         </is>
       </c>
       <c r="M455" s="20" t="n"/>
@@ -24123,7 +24119,7 @@
       </c>
       <c r="D456" s="18" t="inlineStr">
         <is>
-          <t>AAD RBAC와 권한 부여 통합</t>
+          <t>컨테이너용 Defender 사용 고려</t>
         </is>
       </c>
       <c r="E456" s="18" t="n"/>
@@ -24147,7 +24143,7 @@
       <c r="K456" s="19" t="n"/>
       <c r="L456" s="19" t="inlineStr">
         <is>
-          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
+          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
         </is>
       </c>
       <c r="M456" s="20" t="n"/>
@@ -24174,7 +24170,7 @@
       </c>
       <c r="D457" s="18" t="inlineStr">
         <is>
-          <t>쿠버네티스에서 RBAC 권한을 제한하기 위해 네임스페이스 사용</t>
+          <t>서비스 주체 대신 관리 ID 사용</t>
         </is>
       </c>
       <c r="E457" s="18" t="n"/>
@@ -24195,10 +24191,14 @@
         </is>
       </c>
       <c r="J457" s="13" t="n"/>
-      <c r="K457" s="19" t="n"/>
+      <c r="K457" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.servicePrincipalProfile.clientId=='msi') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L457" s="19" t="inlineStr">
         <is>
-          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
+          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
         </is>
       </c>
       <c r="M457" s="20" t="n"/>
@@ -24225,7 +24225,7 @@
       </c>
       <c r="D458" s="18" t="inlineStr">
         <is>
-          <t>Pod ID 액세스 관리의 경우 Azure AD 워크로드 ID(미리 보기)를 사용합니다.</t>
+          <t>AAD와 인증 통합(관리형 통합 사용)</t>
         </is>
       </c>
       <c r="E458" s="18" t="n"/>
@@ -24246,10 +24246,14 @@
         </is>
       </c>
       <c r="J458" s="13" t="n"/>
-      <c r="K458" s="19" t="n"/>
+      <c r="K458" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.aadProfile) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L458" s="19" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
         </is>
       </c>
       <c r="M458" s="20" t="n"/>
@@ -24276,7 +24280,7 @@
       </c>
       <c r="D459" s="18" t="inlineStr">
         <is>
-          <t>AKS 비대화형 로그인의 경우 kubelogin(미리 보기)을 사용합니다.</t>
+          <t>관리자 kubeconfig에 대한 액세스 제한(get-credentials --admin)</t>
         </is>
       </c>
       <c r="E459" s="18" t="n"/>
@@ -24300,7 +24304,7 @@
       <c r="K459" s="19" t="n"/>
       <c r="L459" s="19" t="inlineStr">
         <is>
-          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
+          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
         </is>
       </c>
       <c r="M459" s="20" t="n"/>
@@ -24327,7 +24331,7 @@
       </c>
       <c r="D460" s="18" t="inlineStr">
         <is>
-          <t>AKS 로컬 계정 사용 안 함</t>
+          <t>AAD RBAC와 권한 부여 통합</t>
         </is>
       </c>
       <c r="E460" s="18" t="n"/>
@@ -24348,14 +24352,10 @@
         </is>
       </c>
       <c r="J460" s="13" t="n"/>
-      <c r="K460" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.disableLocalAccounts==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K460" s="19" t="n"/>
       <c r="L460" s="19" t="inlineStr">
         <is>
-          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
+          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
         </is>
       </c>
       <c r="M460" s="20" t="n"/>
@@ -24382,13 +24382,13 @@
       </c>
       <c r="D461" s="18" t="inlineStr">
         <is>
-          <t>필요한 경우 Just-in-time 클러스터 액세스 구성</t>
+          <t>쿠버네티스에서 RBAC 권한을 제한하기 위해 네임스페이스 사용</t>
         </is>
       </c>
       <c r="E461" s="18" t="n"/>
       <c r="F461" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
@@ -24406,7 +24406,7 @@
       <c r="K461" s="19" t="n"/>
       <c r="L461" s="19" t="inlineStr">
         <is>
-          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
+          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
         </is>
       </c>
       <c r="M461" s="20" t="n"/>
@@ -24433,13 +24433,13 @@
       </c>
       <c r="D462" s="18" t="inlineStr">
         <is>
-          <t>AKS에 필요한 경우 AAD 조건부 액세스 구성</t>
+          <t>Pod ID 액세스 관리의 경우 Azure AD 워크로드 ID(미리 보기)를 사용합니다.</t>
         </is>
       </c>
       <c r="E462" s="18" t="n"/>
       <c r="F462" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
@@ -24457,7 +24457,7 @@
       <c r="K462" s="19" t="n"/>
       <c r="L462" s="19" t="inlineStr">
         <is>
-          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M462" s="20" t="n"/>
@@ -24484,13 +24484,13 @@
       </c>
       <c r="D463" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Windows AKS 워크로드에 필요한 경우 gMSA를 구성합니다. </t>
+          <t>AKS 비대화형 로그인의 경우 kubelogin(미리 보기)을 사용합니다.</t>
         </is>
       </c>
       <c r="E463" s="18" t="n"/>
       <c r="F463" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
@@ -24508,7 +24508,7 @@
       <c r="K463" s="19" t="n"/>
       <c r="L463" s="19" t="inlineStr">
         <is>
-          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
+          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
         </is>
       </c>
       <c r="M463" s="20" t="n"/>
@@ -24535,7 +24535,7 @@
       </c>
       <c r="D464" s="18" t="inlineStr">
         <is>
-          <t>더 세밀하게 제어하려면 관리형 Kubelet ID를 사용하는 것이 좋습니다.</t>
+          <t>AKS 로컬 계정 사용 안 함</t>
         </is>
       </c>
       <c r="E464" s="18" t="n"/>
@@ -24556,10 +24556,14 @@
         </is>
       </c>
       <c r="J464" s="13" t="n"/>
-      <c r="K464" s="19" t="n"/>
+      <c r="K464" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.disableLocalAccounts==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L464" s="19" t="inlineStr">
         <is>
-          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
+          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
         </is>
       </c>
       <c r="M464" s="20" t="n"/>
@@ -24576,7 +24580,7 @@
       </c>
       <c r="B465" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C465" s="18" t="inlineStr">
@@ -24586,13 +24590,13 @@
       </c>
       <c r="D465" s="18" t="inlineStr">
         <is>
-          <t>AGIC를 사용하는 경우 클러스터 간에 AppGW를 공유하지 마세요</t>
+          <t>필요한 경우 Just-in-time 클러스터 액세스 구성</t>
         </is>
       </c>
       <c r="E465" s="18" t="n"/>
       <c r="F465" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
@@ -24610,7 +24614,7 @@
       <c r="K465" s="19" t="n"/>
       <c r="L465" s="19" t="inlineStr">
         <is>
-          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
+          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
         </is>
       </c>
       <c r="M465" s="20" t="n"/>
@@ -24627,7 +24631,7 @@
       </c>
       <c r="B466" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C466" s="18" t="inlineStr">
@@ -24637,13 +24641,13 @@
       </c>
       <c r="D466" s="18" t="inlineStr">
         <is>
-          <t>AKS HTTP 라우팅 추가 기능을 사용하지 말고, 애플리케이션 라우팅 추가 기능과 함께 관리되는 NGINX 수신을 대신 사용합니다.</t>
+          <t>AKS에 필요한 경우 AAD 조건부 액세스 구성</t>
         </is>
       </c>
       <c r="E466" s="18" t="n"/>
       <c r="F466" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
@@ -24658,14 +24662,10 @@
         </is>
       </c>
       <c r="J466" s="13" t="n"/>
-      <c r="K466" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K466" s="19" t="n"/>
       <c r="L466" s="19" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
         </is>
       </c>
       <c r="M466" s="20" t="n"/>
@@ -24682,7 +24682,7 @@
       </c>
       <c r="B467" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C467" s="18" t="inlineStr">
@@ -24692,13 +24692,13 @@
       </c>
       <c r="D467" s="18" t="inlineStr">
         <is>
-          <t>Windows 워크로드의 경우 가속화된 네트워킹을 사용합니다.</t>
+          <t xml:space="preserve">Windows AKS 워크로드에 필요한 경우 gMSA를 구성합니다. </t>
         </is>
       </c>
       <c r="E467" s="18" t="n"/>
       <c r="F467" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
@@ -24716,7 +24716,7 @@
       <c r="K467" s="19" t="n"/>
       <c r="L467" s="19" t="inlineStr">
         <is>
-          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
+          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
         </is>
       </c>
       <c r="M467" s="20" t="n"/>
@@ -24733,7 +24733,7 @@
       </c>
       <c r="B468" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C468" s="18" t="inlineStr">
@@ -24743,13 +24743,13 @@
       </c>
       <c r="D468" s="18" t="inlineStr">
         <is>
-          <t>표준 ALB 사용(기본 ALB와 반대)</t>
+          <t>더 세밀하게 제어하려면 관리형 Kubelet ID를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E468" s="18" t="n"/>
       <c r="F468" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
@@ -24764,14 +24764,10 @@
         </is>
       </c>
       <c r="J468" s="13" t="n"/>
-      <c r="K468" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (tolower(properties.networkProfile.loadBalancerSku)=='standard') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K468" s="19" t="n"/>
       <c r="L468" s="19" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
         </is>
       </c>
       <c r="M468" s="20" t="n"/>
@@ -24788,7 +24784,7 @@
       </c>
       <c r="B469" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C469" s="18" t="inlineStr">
@@ -24798,7 +24794,7 @@
       </c>
       <c r="D469" s="18" t="inlineStr">
         <is>
-          <t>Azure CNI를 사용하는 경우 NodePools에 다른 서브넷을 사용하는 것이 좋습니다.</t>
+          <t>AGIC를 사용하는 경우 클러스터 간에 AppGW를 공유하지 마세요</t>
         </is>
       </c>
       <c r="E469" s="18" t="n"/>
@@ -24822,7 +24818,7 @@
       <c r="K469" s="19" t="n"/>
       <c r="L469" s="19" t="inlineStr">
         <is>
-          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M469" s="20" t="n"/>
@@ -24839,7 +24835,7 @@
       </c>
       <c r="B470" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C470" s="18" t="inlineStr">
@@ -24849,13 +24845,13 @@
       </c>
       <c r="D470" s="18" t="inlineStr">
         <is>
-          <t>프라이빗 엔드포인트(기본 설정) 또는 Virtual Network 서비스 엔드포인트를 사용하여 클러스터에서 PaaS 서비스에 액세스</t>
+          <t>AKS HTTP 라우팅 추가 기능을 사용하지 말고, 애플리케이션 라우팅 추가 기능과 함께 관리되는 NGINX 수신을 대신 사용합니다.</t>
         </is>
       </c>
       <c r="E470" s="18" t="n"/>
       <c r="F470" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
@@ -24870,10 +24866,14 @@
         </is>
       </c>
       <c r="J470" s="13" t="n"/>
-      <c r="K470" s="19" t="n"/>
+      <c r="K470" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L470" s="19" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M470" s="20" t="n"/>
@@ -24890,7 +24890,7 @@
       </c>
       <c r="B471" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C471" s="18" t="inlineStr">
@@ -24900,13 +24900,13 @@
       </c>
       <c r="D471" s="18" t="inlineStr">
         <is>
-          <t>요구 사항에 가장 적합한 CNI 네트워크 플러그 인 선택(Azure CNI 권장)</t>
+          <t>Windows 워크로드의 경우 가속화된 네트워킹을 사용합니다.</t>
         </is>
       </c>
       <c r="E471" s="18" t="n"/>
       <c r="F471" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
@@ -24921,14 +24921,10 @@
         </is>
       </c>
       <c r="J471" s="13" t="n"/>
-      <c r="K471" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.networkPlugin=='azure') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K471" s="19" t="n"/>
       <c r="L471" s="19" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
         </is>
       </c>
       <c r="M471" s="20" t="n"/>
@@ -24945,7 +24941,7 @@
       </c>
       <c r="B472" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C472" s="18" t="inlineStr">
@@ -24955,7 +24951,7 @@
       </c>
       <c r="D472" s="18" t="inlineStr">
         <is>
-          <t>Azure CNI를 사용하는 경우 노드당 최대 Pod 수를 고려하여 서브넷 크기를 적절하게 조정합니다</t>
+          <t>표준 ALB 사용(기본 ALB와 반대)</t>
         </is>
       </c>
       <c r="E472" s="18" t="n"/>
@@ -24976,10 +24972,14 @@
         </is>
       </c>
       <c r="J472" s="13" t="n"/>
-      <c r="K472" s="19" t="n"/>
+      <c r="K472" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (tolower(properties.networkProfile.loadBalancerSku)=='standard') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L472" s="19" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M472" s="20" t="n"/>
@@ -24996,7 +24996,7 @@
       </c>
       <c r="B473" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C473" s="18" t="inlineStr">
@@ -25006,13 +25006,13 @@
       </c>
       <c r="D473" s="18" t="inlineStr">
         <is>
-          <t>Azure CNI를 사용하는 경우 최대 Pod/노드(기본값 30)를 확인합니다.</t>
+          <t>Azure CNI를 사용하는 경우 NodePools에 다른 서브넷을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E473" s="18" t="n"/>
       <c r="F473" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
@@ -25030,7 +25030,7 @@
       <c r="K473" s="19" t="n"/>
       <c r="L473" s="19" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
         </is>
       </c>
       <c r="M473" s="20" t="n"/>
@@ -25057,17 +25057,13 @@
       </c>
       <c r="D474" s="18" t="inlineStr">
         <is>
-          <t>개인 IP LoadBalancer 서비스를 사용하는 경우 AKS 서브넷이 아닌 전용 서브넷을 사용합니다</t>
-        </is>
-      </c>
-      <c r="E474" s="18" t="inlineStr">
-        <is>
-          <t>내부 앱의 경우 조직은 방화벽에서 전체 AKS 서브넷을 여는 경우가 많습니다. 이렇게 하면 노드에 대한 네트워크 액세스도 열리고 잠재적으로 Pod에 대한 액세스도 열립니다(Azure CNI를 사용하는 경우). LoadBalancer IP가 다른 서브넷에 있는 경우 앱 클라이언트에서 이 IP만 사용할 수 있어야 합니다. 또 다른 이유는 AKS 서브넷의 IP 주소가 부족한 리소스인 경우 서비스에 해당 IP 주소를 사용하면 클러스터의 최대 확장성이 감소하기 때문입니다.</t>
-        </is>
-      </c>
+          <t>프라이빗 엔드포인트(기본 설정) 또는 Virtual Network 서비스 엔드포인트를 사용하여 클러스터에서 PaaS 서비스에 액세스</t>
+        </is>
+      </c>
+      <c r="E474" s="18" t="n"/>
       <c r="F474" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
@@ -25085,7 +25081,7 @@
       <c r="K474" s="19" t="n"/>
       <c r="L474" s="19" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M474" s="20" t="n"/>
@@ -25112,7 +25108,7 @@
       </c>
       <c r="D475" s="18" t="inlineStr">
         <is>
-          <t>그에 따라 서비스 IP 주소 범위의 크기를 조정합니다(클러스터 확장성이 제한됨).</t>
+          <t>요구 사항에 가장 적합한 CNI 네트워크 플러그 인 선택(Azure CNI 권장)</t>
         </is>
       </c>
       <c r="E475" s="18" t="n"/>
@@ -25133,10 +25129,14 @@
         </is>
       </c>
       <c r="J475" s="13" t="n"/>
-      <c r="K475" s="19" t="n"/>
+      <c r="K475" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.networkPlugin=='azure') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L475" s="19" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M475" s="20" t="n"/>
@@ -25153,7 +25153,7 @@
       </c>
       <c r="B476" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C476" s="18" t="inlineStr">
@@ -25163,13 +25163,13 @@
       </c>
       <c r="D476" s="18" t="inlineStr">
         <is>
-          <t>필요한 경우 자체 CNI 플러그인을 추가합니다.</t>
+          <t>Azure CNI를 사용하는 경우 노드당 최대 Pod 수를 고려하여 서브넷 크기를 적절하게 조정합니다</t>
         </is>
       </c>
       <c r="E476" s="18" t="n"/>
       <c r="F476" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -25187,7 +25187,7 @@
       <c r="K476" s="19" t="n"/>
       <c r="L476" s="19" t="inlineStr">
         <is>
-          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M476" s="20" t="n"/>
@@ -25214,13 +25214,13 @@
       </c>
       <c r="D477" s="18" t="inlineStr">
         <is>
-          <t>필요한 경우 AKS에서 노드당 공용 IP 구성</t>
+          <t>Azure CNI를 사용하는 경우 최대 Pod/노드(기본값 30)를 확인합니다.</t>
         </is>
       </c>
       <c r="E477" s="18" t="n"/>
       <c r="F477" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
@@ -25238,7 +25238,7 @@
       <c r="K477" s="19" t="n"/>
       <c r="L477" s="19" t="inlineStr">
         <is>
-          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M477" s="20" t="n"/>
@@ -25255,7 +25255,7 @@
       </c>
       <c r="B478" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C478" s="18" t="inlineStr">
@@ -25265,13 +25265,17 @@
       </c>
       <c r="D478" s="18" t="inlineStr">
         <is>
-          <t>수신 컨트롤러를 사용하여 LoadBalancer 유형 서비스를 사용하여 노출하는 대신 웹 기반 앱을 노출합니다</t>
-        </is>
-      </c>
-      <c r="E478" s="18" t="n"/>
+          <t>개인 IP LoadBalancer 서비스를 사용하는 경우 AKS 서브넷이 아닌 전용 서브넷을 사용합니다</t>
+        </is>
+      </c>
+      <c r="E478" s="18" t="inlineStr">
+        <is>
+          <t>내부 앱의 경우 조직은 방화벽에서 전체 AKS 서브넷을 여는 경우가 많습니다. 이렇게 하면 노드에 대한 네트워크 액세스도 열리고 잠재적으로 Pod에 대한 액세스도 열립니다(Azure CNI를 사용하는 경우). LoadBalancer IP가 다른 서브넷에 있는 경우 앱 클라이언트에서 이 IP만 사용할 수 있어야 합니다. 또 다른 이유는 AKS 서브넷의 IP 주소가 부족한 리소스인 경우 서비스에 해당 IP 주소를 사용하면 클러스터의 최대 확장성이 감소하기 때문입니다.</t>
+        </is>
+      </c>
       <c r="F478" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
@@ -25289,7 +25293,7 @@
       <c r="K478" s="19" t="n"/>
       <c r="L478" s="19" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M478" s="20" t="n"/>
@@ -25316,13 +25320,13 @@
       </c>
       <c r="D479" s="18" t="inlineStr">
         <is>
-          <t>송신 트래픽 크기 조정을 위해 Azure NAT Gateway를 outboundType으로 사용</t>
+          <t>그에 따라 서비스 IP 주소 범위의 크기를 조정합니다(클러스터 확장성이 제한됨).</t>
         </is>
       </c>
       <c r="E479" s="18" t="n"/>
       <c r="F479" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
@@ -25340,7 +25344,7 @@
       <c r="K479" s="19" t="n"/>
       <c r="L479" s="19" t="inlineStr">
         <is>
-          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M479" s="20" t="n"/>
@@ -25357,7 +25361,7 @@
       </c>
       <c r="B480" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C480" s="18" t="inlineStr">
@@ -25367,13 +25371,13 @@
       </c>
       <c r="D480" s="18" t="inlineStr">
         <is>
-          <t>Azure CNI IP 소모를 방지하기 위해 IP의 동적 할당 사용</t>
+          <t>필요한 경우 자체 CNI 플러그인을 추가합니다.</t>
         </is>
       </c>
       <c r="E480" s="18" t="n"/>
       <c r="F480" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G480" t="inlineStr">
@@ -25391,7 +25395,7 @@
       <c r="K480" s="19" t="n"/>
       <c r="L480" s="19" t="inlineStr">
         <is>
-          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
+          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
         </is>
       </c>
       <c r="M480" s="20" t="n"/>
@@ -25408,7 +25412,7 @@
       </c>
       <c r="B481" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C481" s="18" t="inlineStr">
@@ -25418,13 +25422,13 @@
       </c>
       <c r="D481" s="18" t="inlineStr">
         <is>
-          <t>보안 요구 사항에 필요한 경우 AzFW/NVA를 사용하여 송신 트래픽 필터링</t>
+          <t>필요한 경우 AKS에서 노드당 공용 IP 구성</t>
         </is>
       </c>
       <c r="E481" s="18" t="n"/>
       <c r="F481" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
@@ -25439,14 +25443,10 @@
         </is>
       </c>
       <c r="J481" s="13" t="n"/>
-      <c r="K481" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.outboundType=='userDefinedRouting') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K481" s="19" t="n"/>
       <c r="L481" s="19" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
         </is>
       </c>
       <c r="M481" s="20" t="n"/>
@@ -25463,7 +25463,7 @@
       </c>
       <c r="B482" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C482" s="18" t="inlineStr">
@@ -25473,7 +25473,7 @@
       </c>
       <c r="D482" s="18" t="inlineStr">
         <is>
-          <t>퍼블릭 API 엔드포인트를 사용하는 경우 액세스할 수 있는 IP 주소를 제한합니다</t>
+          <t>수신 컨트롤러를 사용하여 LoadBalancer 유형 서비스를 사용하여 노출하는 대신 웹 기반 앱을 노출합니다</t>
         </is>
       </c>
       <c r="E482" s="18" t="n"/>
@@ -25494,14 +25494,10 @@
         </is>
       </c>
       <c r="J482" s="13" t="n"/>
-      <c r="K482" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = ((isnull(properties.apiServerAccessProfile.enablePrivateCluster) or properties.apiServerAccessProfile.enablePrivateCluster==false) and isnotnull(properties.apiServerAccessProfile.authorizedIPRanges)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K482" s="19" t="n"/>
       <c r="L482" s="19" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M482" s="20" t="n"/>
@@ -25518,7 +25514,7 @@
       </c>
       <c r="B483" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C483" s="18" t="inlineStr">
@@ -25528,13 +25524,13 @@
       </c>
       <c r="D483" s="18" t="inlineStr">
         <is>
-          <t>요구 사항에 따라 개인 클러스터를 사용합니다</t>
+          <t>송신 트래픽 크기 조정을 위해 Azure NAT Gateway를 outboundType으로 사용</t>
         </is>
       </c>
       <c r="E483" s="18" t="n"/>
       <c r="F483" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
@@ -25549,14 +25545,10 @@
         </is>
       </c>
       <c r="J483" s="13" t="n"/>
-      <c r="K483" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K483" s="19" t="n"/>
       <c r="L483" s="19" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
         </is>
       </c>
       <c r="M483" s="20" t="n"/>
@@ -25573,7 +25565,7 @@
       </c>
       <c r="B484" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C484" s="18" t="inlineStr">
@@ -25583,7 +25575,7 @@
       </c>
       <c r="D484" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Windows 2019 및 2022 AKS 노드의 경우 Calico 네트워크 정책을 사용할 수 있습니다. </t>
+          <t>Azure CNI IP 소모를 방지하기 위해 IP의 동적 할당 사용</t>
         </is>
       </c>
       <c r="E484" s="18" t="n"/>
@@ -25604,14 +25596,10 @@
         </is>
       </c>
       <c r="J484" s="13" t="n"/>
-      <c r="K484" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K484" s="19" t="n"/>
       <c r="L484" s="19" t="inlineStr">
         <is>
-          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
+          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
         </is>
       </c>
       <c r="M484" s="20" t="n"/>
@@ -25638,7 +25626,7 @@
       </c>
       <c r="D485" s="18" t="inlineStr">
         <is>
-          <t>Kubernetes 네트워크 정책 옵션 사용(Calico/Azure)</t>
+          <t>보안 요구 사항에 필요한 경우 AzFW/NVA를 사용하여 송신 트래픽 필터링</t>
         </is>
       </c>
       <c r="E485" s="18" t="n"/>
@@ -25661,12 +25649,12 @@
       <c r="J485" s="13" t="n"/>
       <c r="K485" s="19" t="inlineStr">
         <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.networkProfile.networkPolicy) | distinct id,compliant</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.outboundType=='userDefinedRouting') | distinct id,compliant</t>
         </is>
       </c>
       <c r="L485" s="19" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M485" s="20" t="n"/>
@@ -25693,13 +25681,13 @@
       </c>
       <c r="D486" s="18" t="inlineStr">
         <is>
-          <t>쿠버네티스 네트워크 정책을 사용하여 클러스터 내 보안 강화</t>
+          <t>퍼블릭 API 엔드포인트를 사용하는 경우 액세스할 수 있는 IP 주소를 제한합니다</t>
         </is>
       </c>
       <c r="E486" s="18" t="n"/>
       <c r="F486" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
@@ -25714,10 +25702,14 @@
         </is>
       </c>
       <c r="J486" s="13" t="n"/>
-      <c r="K486" s="19" t="n"/>
+      <c r="K486" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = ((isnull(properties.apiServerAccessProfile.enablePrivateCluster) or properties.apiServerAccessProfile.enablePrivateCluster==false) and isnotnull(properties.apiServerAccessProfile.authorizedIPRanges)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L486" s="19" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M486" s="20" t="n"/>
@@ -25744,7 +25736,7 @@
       </c>
       <c r="D487" s="18" t="inlineStr">
         <is>
-          <t>웹 워크로드(UI 또는 API)에 WAF 사용Use a WAF for web workloads (UIs or APIs)</t>
+          <t>요구 사항에 따라 개인 클러스터를 사용합니다</t>
         </is>
       </c>
       <c r="E487" s="18" t="n"/>
@@ -25765,10 +25757,14 @@
         </is>
       </c>
       <c r="J487" s="13" t="n"/>
-      <c r="K487" s="19" t="n"/>
+      <c r="K487" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L487" s="19" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M487" s="20" t="n"/>
@@ -25795,7 +25791,7 @@
       </c>
       <c r="D488" s="18" t="inlineStr">
         <is>
-          <t>AKS Virtual Network에서 DDoS 표준 사용Use DDoS Standard in the AKS Virtual Network</t>
+          <t xml:space="preserve">Windows 2019 및 2022 AKS 노드의 경우 Calico 네트워크 정책을 사용할 수 있습니다. </t>
         </is>
       </c>
       <c r="E488" s="18" t="n"/>
@@ -25818,12 +25814,12 @@
       <c r="J488" s="13" t="n"/>
       <c r="K488" s="19" t="inlineStr">
         <is>
-          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
         </is>
       </c>
       <c r="L488" s="19" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
         </is>
       </c>
       <c r="M488" s="20" t="n"/>
@@ -25850,13 +25846,13 @@
       </c>
       <c r="D489" s="18" t="inlineStr">
         <is>
-          <t>필요한 경우 회사 HTTP 프록시를 추가합니다.</t>
+          <t>Kubernetes 네트워크 정책 옵션 사용(Calico/Azure)</t>
         </is>
       </c>
       <c r="E489" s="18" t="n"/>
       <c r="F489" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
@@ -25873,12 +25869,12 @@
       <c r="J489" s="13" t="n"/>
       <c r="K489" s="19" t="inlineStr">
         <is>
-          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.networkProfile.networkPolicy) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L489" s="19" t="inlineStr">
         <is>
-          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M489" s="20" t="n"/>
@@ -25905,13 +25901,13 @@
       </c>
       <c r="D490" s="18" t="inlineStr">
         <is>
-          <t>고급 마이크로서비스 통신 관리를 위해 서비스 메시를 사용하는 것이 좋습니다</t>
+          <t>쿠버네티스 네트워크 정책을 사용하여 클러스터 내 보안 강화</t>
         </is>
       </c>
       <c r="E490" s="18" t="n"/>
       <c r="F490" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
@@ -25929,7 +25925,7 @@
       <c r="K490" s="19" t="n"/>
       <c r="L490" s="19" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M490" s="20" t="n"/>
@@ -25946,7 +25942,7 @@
       </c>
       <c r="B491" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C491" s="18" t="inlineStr">
@@ -25956,7 +25952,7 @@
       </c>
       <c r="D491" s="18" t="inlineStr">
         <is>
-          <t>가장 중요한 메트릭에 대한 경고 구성(권장 사항은 Container Insights 참조)</t>
+          <t>웹 워크로드(UI 또는 API)에 WAF 사용Use a WAF for web workloads (UIs or APIs)</t>
         </is>
       </c>
       <c r="E491" s="18" t="n"/>
@@ -25980,7 +25976,7 @@
       <c r="K491" s="19" t="n"/>
       <c r="L491" s="19" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M491" s="20" t="n"/>
@@ -25997,7 +25993,7 @@
       </c>
       <c r="B492" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C492" s="18" t="inlineStr">
@@ -26007,13 +26003,13 @@
       </c>
       <c r="D492" s="18" t="inlineStr">
         <is>
-          <t>Azure Advisor에서 클러스터에 대한 권장 사항을 정기적으로 확인합니다.</t>
+          <t>AKS Virtual Network에서 DDoS 표준 사용Use DDoS Standard in the AKS Virtual Network</t>
         </is>
       </c>
       <c r="E492" s="18" t="n"/>
       <c r="F492" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
@@ -26028,10 +26024,14 @@
         </is>
       </c>
       <c r="J492" s="13" t="n"/>
-      <c r="K492" s="19" t="n"/>
+      <c r="K492" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+        </is>
+      </c>
       <c r="L492" s="19" t="inlineStr">
         <is>
-          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M492" s="20" t="n"/>
@@ -26048,7 +26048,7 @@
       </c>
       <c r="B493" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C493" s="18" t="inlineStr">
@@ -26058,7 +26058,7 @@
       </c>
       <c r="D493" s="18" t="inlineStr">
         <is>
-          <t>AKS 자동 인증서 회전 사용</t>
+          <t>필요한 경우 회사 HTTP 프록시를 추가합니다.</t>
         </is>
       </c>
       <c r="E493" s="18" t="n"/>
@@ -26079,10 +26079,14 @@
         </is>
       </c>
       <c r="J493" s="13" t="n"/>
-      <c r="K493" s="19" t="n"/>
+      <c r="K493" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+        </is>
+      </c>
       <c r="L493" s="19" t="inlineStr">
         <is>
-          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
+          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
         </is>
       </c>
       <c r="M493" s="20" t="n"/>
@@ -26099,7 +26103,7 @@
       </c>
       <c r="B494" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C494" s="18" t="inlineStr">
@@ -26109,13 +26113,13 @@
       </c>
       <c r="D494" s="18" t="inlineStr">
         <is>
-          <t>kubernetes 버전을 주기적으로(예: 분기별) 업그레이드하거나 AKS 자동 업그레이드 기능을 사용하는 정기적인 프로세스가 있습니다.</t>
+          <t>고급 마이크로서비스 통신 관리를 위해 서비스 메시를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="E494" s="18" t="n"/>
       <c r="F494" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
@@ -26133,7 +26137,7 @@
       <c r="K494" s="19" t="n"/>
       <c r="L494" s="19" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M494" s="20" t="n"/>
@@ -26160,7 +26164,7 @@
       </c>
       <c r="D495" s="18" t="inlineStr">
         <is>
-          <t>node-image upgrade를 사용하지 않는 경우 Linux 노드 업그레이드에 kured를 사용합니다.</t>
+          <t>가장 중요한 메트릭에 대한 경고 구성(권장 사항은 Container Insights 참조)</t>
         </is>
       </c>
       <c r="E495" s="18" t="n"/>
@@ -26184,7 +26188,7 @@
       <c r="K495" s="19" t="n"/>
       <c r="L495" s="19" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M495" s="20" t="n"/>
@@ -26211,13 +26215,13 @@
       </c>
       <c r="D496" s="18" t="inlineStr">
         <is>
-          <t>클러스터 노드 이미지를 주기적으로(예: 매주) 업그레이드하는 정기적인 프로세스가 있습니다.</t>
+          <t>Azure Advisor에서 클러스터에 대한 권장 사항을 정기적으로 확인합니다.</t>
         </is>
       </c>
       <c r="E496" s="18" t="n"/>
       <c r="F496" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G496" t="inlineStr">
@@ -26235,7 +26239,7 @@
       <c r="K496" s="19" t="n"/>
       <c r="L496" s="19" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
         </is>
       </c>
       <c r="M496" s="20" t="n"/>
@@ -26262,7 +26266,7 @@
       </c>
       <c r="D497" s="18" t="inlineStr">
         <is>
-          <t>gitops를 고려하여 애플리케이션 또는 클러스터 구성을 여러 클러스터에 배포합니다.</t>
+          <t>AKS 자동 인증서 회전 사용</t>
         </is>
       </c>
       <c r="E497" s="18" t="n"/>
@@ -26286,7 +26290,7 @@
       <c r="K497" s="19" t="n"/>
       <c r="L497" s="19" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
         </is>
       </c>
       <c r="M497" s="20" t="n"/>
@@ -26313,13 +26317,13 @@
       </c>
       <c r="D498" s="18" t="inlineStr">
         <is>
-          <t>프라이빗 클러스터에서 AKS 명령 호출을 사용하는 것이 좋습니다.</t>
+          <t>kubernetes 버전을 주기적으로(예: 분기별) 업그레이드하거나 AKS 자동 업그레이드 기능을 사용하는 정기적인 프로세스가 있습니다.</t>
         </is>
       </c>
       <c r="E498" s="18" t="n"/>
       <c r="F498" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G498" t="inlineStr">
@@ -26337,7 +26341,7 @@
       <c r="K498" s="19" t="n"/>
       <c r="L498" s="19" t="inlineStr">
         <is>
-          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M498" s="20" t="n"/>
@@ -26364,13 +26368,13 @@
       </c>
       <c r="D499" s="18" t="inlineStr">
         <is>
-          <t>계획된 이벤트의 경우 노드 자동 드레인 사용을 고려하십시오.</t>
+          <t>node-image upgrade를 사용하지 않는 경우 Linux 노드 업그레이드에 kured를 사용합니다.</t>
         </is>
       </c>
       <c r="E499" s="18" t="n"/>
       <c r="F499" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G499" t="inlineStr">
@@ -26388,7 +26392,7 @@
       <c r="K499" s="19" t="n"/>
       <c r="L499" s="19" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M499" s="20" t="n"/>
@@ -26415,7 +26419,7 @@
       </c>
       <c r="D500" s="18" t="inlineStr">
         <is>
-          <t>노드 RG(일명 '인프라 RG')의 운영자가 변경을 수행하지 않도록 자체 거버넌스 관행을 개발합니다.</t>
+          <t>클러스터 노드 이미지를 주기적으로(예: 매주) 업그레이드하는 정기적인 프로세스가 있습니다.</t>
         </is>
       </c>
       <c r="E500" s="18" t="n"/>
@@ -26439,7 +26443,7 @@
       <c r="K500" s="19" t="n"/>
       <c r="L500" s="19" t="inlineStr">
         <is>
-          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M500" s="20" t="n"/>
@@ -26466,7 +26470,7 @@
       </c>
       <c r="D501" s="18" t="inlineStr">
         <is>
-          <t>사용자 정의 노드 RG (일명 '인프라 RG') 이름 사용</t>
+          <t>gitops를 고려하여 애플리케이션 또는 클러스터 구성을 여러 클러스터에 배포합니다.</t>
         </is>
       </c>
       <c r="E501" s="18" t="n"/>
@@ -26487,14 +26491,10 @@
         </is>
       </c>
       <c r="J501" s="13" t="n"/>
-      <c r="K501" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.nodeResourceGroup !startswith 'MC_') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K501" s="19" t="n"/>
       <c r="L501" s="19" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M501" s="20" t="n"/>
@@ -26521,13 +26521,13 @@
       </c>
       <c r="D502" s="18" t="inlineStr">
         <is>
-          <t>YAML 매니페스트에서 더 이상 사용되지 않는 Kubernetes API를 사용하지 마십시오.</t>
+          <t>프라이빗 클러스터에서 AKS 명령 호출을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E502" s="18" t="n"/>
       <c r="F502" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
@@ -26545,7 +26545,7 @@
       <c r="K502" s="19" t="n"/>
       <c r="L502" s="19" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
         </is>
       </c>
       <c r="M502" s="20" t="n"/>
@@ -26572,7 +26572,7 @@
       </c>
       <c r="D503" s="18" t="inlineStr">
         <is>
-          <t>테인트 Windows 노드</t>
+          <t>계획된 이벤트의 경우 노드 자동 드레인 사용을 고려하십시오.</t>
         </is>
       </c>
       <c r="E503" s="18" t="n"/>
@@ -26596,7 +26596,7 @@
       <c r="K503" s="19" t="n"/>
       <c r="L503" s="19" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M503" s="20" t="n"/>
@@ -26623,13 +26623,13 @@
       </c>
       <c r="D504" s="18" t="inlineStr">
         <is>
-          <t>Windows 컨테이너 패치 수준을 호스트 패치 수준과 동기화된 상태로 유지</t>
+          <t>노드 RG(일명 '인프라 RG')의 운영자가 변경을 수행하지 않도록 자체 거버넌스 관행을 개발합니다.</t>
         </is>
       </c>
       <c r="E504" s="18" t="n"/>
       <c r="F504" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
@@ -26647,7 +26647,7 @@
       <c r="K504" s="19" t="n"/>
       <c r="L504" s="19" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
         </is>
       </c>
       <c r="M504" s="20" t="n"/>
@@ -26674,14 +26674,10 @@
       </c>
       <c r="D505" s="18" t="inlineStr">
         <is>
-          <t>마스터 로그(즉, API 로그)를 Azure Monitor 또는 기본 로그 관리 솔루션으로 보냅니다</t>
-        </is>
-      </c>
-      <c r="E505" s="18" t="inlineStr">
-        <is>
-          <t>클러스터 수준의 진단 설정을 통해Via Diagnostic Settings at the cluster level</t>
-        </is>
-      </c>
+          <t>사용자 정의 노드 RG (일명 '인프라 RG') 이름 사용</t>
+        </is>
+      </c>
+      <c r="E505" s="18" t="n"/>
       <c r="F505" s="18" t="inlineStr">
         <is>
           <t>낮다</t>
@@ -26699,10 +26695,14 @@
         </is>
       </c>
       <c r="J505" s="13" t="n"/>
-      <c r="K505" s="19" t="n"/>
+      <c r="K505" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.nodeResourceGroup !startswith 'MC_') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L505" s="19" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M505" s="20" t="n"/>
@@ -26719,7 +26719,7 @@
       </c>
       <c r="B506" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C506" s="18" t="inlineStr">
@@ -26729,13 +26729,13 @@
       </c>
       <c r="D506" s="18" t="inlineStr">
         <is>
-          <t>필요한 경우 nodePool 스냅샷을 사용합니다.</t>
+          <t>YAML 매니페스트에서 더 이상 사용되지 않는 Kubernetes API를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="E506" s="18" t="n"/>
       <c r="F506" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G506" t="inlineStr">
@@ -26753,7 +26753,7 @@
       <c r="K506" s="19" t="n"/>
       <c r="L506" s="19" t="inlineStr">
         <is>
-          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M506" s="20" t="n"/>
@@ -26780,7 +26780,7 @@
       </c>
       <c r="D507" s="18" t="inlineStr">
         <is>
-          <t>시간에 민감하지 않은 워크로드에 대한 스폿 노드 풀 고려</t>
+          <t>테인트 Windows 노드</t>
         </is>
       </c>
       <c r="E507" s="18" t="n"/>
@@ -26804,7 +26804,7 @@
       <c r="K507" s="19" t="n"/>
       <c r="L507" s="19" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M507" s="20" t="n"/>
@@ -26831,7 +26831,7 @@
       </c>
       <c r="D508" s="18" t="inlineStr">
         <is>
-          <t>빠른 버스팅을 위해 AKS 가상 노드 고려</t>
+          <t>Windows 컨테이너 패치 수준을 호스트 패치 수준과 동기화된 상태로 유지</t>
         </is>
       </c>
       <c r="E508" s="18" t="n"/>
@@ -26852,14 +26852,10 @@
         </is>
       </c>
       <c r="J508" s="13" t="n"/>
-      <c r="K508" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.aciConnectorLinux) and properties.addonProfiles.aciConnectorLinux.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K508" s="19" t="n"/>
       <c r="L508" s="19" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M508" s="20" t="n"/>
@@ -26886,13 +26882,17 @@
       </c>
       <c r="D509" s="18" t="inlineStr">
         <is>
-          <t>Container Insights(또는 Prometheus와 같은 다른 도구)를 사용하여 클러스터 지표 모니터링</t>
-        </is>
-      </c>
-      <c r="E509" s="18" t="n"/>
+          <t>마스터 로그(즉, API 로그)를 Azure Monitor 또는 기본 로그 관리 솔루션으로 보냅니다</t>
+        </is>
+      </c>
+      <c r="E509" s="18" t="inlineStr">
+        <is>
+          <t>클러스터 수준의 진단 설정을 통해Via Diagnostic Settings at the cluster level</t>
+        </is>
+      </c>
       <c r="F509" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
@@ -26910,7 +26910,7 @@
       <c r="K509" s="19" t="n"/>
       <c r="L509" s="19" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M509" s="20" t="n"/>
@@ -26927,7 +26927,7 @@
       </c>
       <c r="B510" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C510" s="18" t="inlineStr">
@@ -26937,13 +26937,13 @@
       </c>
       <c r="D510" s="18" t="inlineStr">
         <is>
-          <t>Container Insights(또는 Telegraf/ElasticSearch와 같은 다른 도구)를 사용하여 클러스터 로그를 저장하고 분석합니다.</t>
+          <t>필요한 경우 nodePool 스냅샷을 사용합니다.</t>
         </is>
       </c>
       <c r="E510" s="18" t="n"/>
       <c r="F510" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
@@ -26958,14 +26958,10 @@
         </is>
       </c>
       <c r="J510" s="13" t="n"/>
-      <c r="K510" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.omsagent) and properties.addonProfiles.omsagent.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K510" s="19" t="n"/>
       <c r="L510" s="19" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
         </is>
       </c>
       <c r="M510" s="20" t="n"/>
@@ -26992,13 +26988,13 @@
       </c>
       <c r="D511" s="18" t="inlineStr">
         <is>
-          <t>노드의 CPU 및 메모리 사용률 모니터링</t>
+          <t>시간에 민감하지 않은 워크로드에 대한 스폿 노드 풀 고려</t>
         </is>
       </c>
       <c r="E511" s="18" t="n"/>
       <c r="F511" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
@@ -27016,7 +27012,7 @@
       <c r="K511" s="19" t="n"/>
       <c r="L511" s="19" t="inlineStr">
         <is>
-          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M511" s="20" t="n"/>
@@ -27043,13 +27039,13 @@
       </c>
       <c r="D512" s="18" t="inlineStr">
         <is>
-          <t>Azure CNI를 사용하는 경우 노드당 사용되는 Pod IP의 %를 모니터링합니다.</t>
+          <t>빠른 버스팅을 위해 AKS 가상 노드 고려</t>
         </is>
       </c>
       <c r="E512" s="18" t="n"/>
       <c r="F512" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
@@ -27064,10 +27060,14 @@
         </is>
       </c>
       <c r="J512" s="13" t="n"/>
-      <c r="K512" s="19" t="n"/>
+      <c r="K512" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.aciConnectorLinux) and properties.addonProfiles.aciConnectorLinux.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L512" s="19" t="inlineStr">
         <is>
-          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M512" s="20" t="n"/>
@@ -27094,17 +27094,13 @@
       </c>
       <c r="D513" s="18" t="inlineStr">
         <is>
-          <t>노드에서 OS 디스크 큐 크기 모니터링Monitor OS disk queue depth in nodes</t>
-        </is>
-      </c>
-      <c r="E513" s="18" t="inlineStr">
-        <is>
-          <t>OS 디스크의 I/O는 중요한 리소스입니다. 노드의 OS가 I/O에서 제한되면 예측할 수 없는 동작이 발생할 수 있으며, 일반적으로 노드가 NotReady로 선언됩니다</t>
-        </is>
-      </c>
+          <t>Container Insights(또는 Prometheus와 같은 다른 도구)를 사용하여 클러스터 지표 모니터링</t>
+        </is>
+      </c>
+      <c r="E513" s="18" t="n"/>
       <c r="F513" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
@@ -27122,7 +27118,7 @@
       <c r="K513" s="19" t="n"/>
       <c r="L513" s="19" t="inlineStr">
         <is>
-          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M513" s="20" t="n"/>
@@ -27149,13 +27145,13 @@
       </c>
       <c r="D514" s="18" t="inlineStr">
         <is>
-          <t>AzFW/NVA에서 송신 필터링을 사용하지 않는 경우 표준 ALB 할당 SNAT 포트를 모니터링합니다</t>
+          <t>Container Insights(또는 Telegraf/ElasticSearch와 같은 다른 도구)를 사용하여 클러스터 로그를 저장하고 분석합니다.</t>
         </is>
       </c>
       <c r="E514" s="18" t="n"/>
       <c r="F514" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
@@ -27170,10 +27166,14 @@
         </is>
       </c>
       <c r="J514" s="13" t="n"/>
-      <c r="K514" s="19" t="n"/>
+      <c r="K514" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.omsagent) and properties.addonProfiles.omsagent.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L514" s="19" t="inlineStr">
         <is>
-          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M514" s="20" t="n"/>
@@ -27200,7 +27200,7 @@
       </c>
       <c r="D515" s="18" t="inlineStr">
         <is>
-          <t>AKS 클러스터에 대한 Resource Health 알림 구독Subscribe to resource health notifications for your AKS cluster</t>
+          <t>노드의 CPU 및 메모리 사용률 모니터링</t>
         </is>
       </c>
       <c r="E515" s="18" t="n"/>
@@ -27224,7 +27224,7 @@
       <c r="K515" s="19" t="n"/>
       <c r="L515" s="19" t="inlineStr">
         <is>
-          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
+          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
         </is>
       </c>
       <c r="M515" s="20" t="n"/>
@@ -27251,13 +27251,13 @@
       </c>
       <c r="D516" s="18" t="inlineStr">
         <is>
-          <t>Pod 규격에서 요청 및 제한 구성</t>
+          <t>Azure CNI를 사용하는 경우 노드당 사용되는 Pod IP의 %를 모니터링합니다.</t>
         </is>
       </c>
       <c r="E516" s="18" t="n"/>
       <c r="F516" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
@@ -27275,7 +27275,7 @@
       <c r="K516" s="19" t="n"/>
       <c r="L516" s="19" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M516" s="20" t="n"/>
@@ -27302,10 +27302,14 @@
       </c>
       <c r="D517" s="18" t="inlineStr">
         <is>
-          <t>네임스페이스에 대한 리소스 할당량 적용Enforce resource quotas for namespaces</t>
-        </is>
-      </c>
-      <c r="E517" s="18" t="n"/>
+          <t>노드에서 OS 디스크 큐 크기 모니터링Monitor OS disk queue depth in nodes</t>
+        </is>
+      </c>
+      <c r="E517" s="18" t="inlineStr">
+        <is>
+          <t>OS 디스크의 I/O는 중요한 리소스입니다. 노드의 OS가 I/O에서 제한되면 예측할 수 없는 동작이 발생할 수 있으며, 일반적으로 노드가 NotReady로 선언됩니다</t>
+        </is>
+      </c>
       <c r="F517" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -27326,7 +27330,7 @@
       <c r="K517" s="19" t="n"/>
       <c r="L517" s="19" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
         </is>
       </c>
       <c r="M517" s="20" t="n"/>
@@ -27353,13 +27357,13 @@
       </c>
       <c r="D518" s="18" t="inlineStr">
         <is>
-          <t>구독에 노드 풀을 확장할 수 있는 충분한 할당량이 있는지 확인합니다.</t>
+          <t>AzFW/NVA에서 송신 필터링을 사용하지 않는 경우 표준 ALB 할당 SNAT 포트를 모니터링합니다</t>
         </is>
       </c>
       <c r="E518" s="18" t="n"/>
       <c r="F518" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
@@ -27377,7 +27381,7 @@
       <c r="K518" s="19" t="n"/>
       <c r="L518" s="19" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
         </is>
       </c>
       <c r="M518" s="20" t="n"/>
@@ -27394,7 +27398,7 @@
       </c>
       <c r="B519" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C519" s="18" t="inlineStr">
@@ -27404,7 +27408,7 @@
       </c>
       <c r="D519" s="18" t="inlineStr">
         <is>
-          <t>Cluster Autoscaler 사용</t>
+          <t>AKS 클러스터에 대한 Resource Health 알림 구독Subscribe to resource health notifications for your AKS cluster</t>
         </is>
       </c>
       <c r="E519" s="18" t="n"/>
@@ -27425,14 +27429,10 @@
         </is>
       </c>
       <c r="J519" s="13" t="n"/>
-      <c r="K519" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.autoScalerProfile)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K519" s="19" t="n"/>
       <c r="L519" s="19" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
         </is>
       </c>
       <c r="M519" s="20" t="n"/>
@@ -27449,7 +27449,7 @@
       </c>
       <c r="B520" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C520" s="18" t="inlineStr">
@@ -27459,13 +27459,13 @@
       </c>
       <c r="D520" s="18" t="inlineStr">
         <is>
-          <t>AKS 노드 풀에 대한 노드 구성 사용자 지정</t>
+          <t>Pod 규격에서 요청 및 제한 구성</t>
         </is>
       </c>
       <c r="E520" s="18" t="n"/>
       <c r="F520" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
@@ -27480,14 +27480,10 @@
         </is>
       </c>
       <c r="J520" s="13" t="n"/>
-      <c r="K520" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.austoscalerProfile)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K520" s="19" t="n"/>
       <c r="L520" s="19" t="inlineStr">
         <is>
-          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M520" s="20" t="n"/>
@@ -27504,7 +27500,7 @@
       </c>
       <c r="B521" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C521" s="18" t="inlineStr">
@@ -27514,7 +27510,7 @@
       </c>
       <c r="D521" s="18" t="inlineStr">
         <is>
-          <t>필요한 경우 Horizontal Pod Autoscaler 사용</t>
+          <t>네임스페이스에 대한 리소스 할당량 적용Enforce resource quotas for namespaces</t>
         </is>
       </c>
       <c r="E521" s="18" t="n"/>
@@ -27538,7 +27534,7 @@
       <c r="K521" s="19" t="n"/>
       <c r="L521" s="19" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M521" s="20" t="n"/>
@@ -27555,7 +27551,7 @@
       </c>
       <c r="B522" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C522" s="18" t="inlineStr">
@@ -27565,14 +27561,10 @@
       </c>
       <c r="D522" s="18" t="inlineStr">
         <is>
-          <t>너무 크거나 너무 작지 않은 적절한 노드 크기를 고려합니다</t>
-        </is>
-      </c>
-      <c r="E522" s="18" t="inlineStr">
-        <is>
-          <t>노드가 클수록 임시 디스크 및 가속화된 네트워킹과 같은 더 높은 성능과 기능을 제공하지만 폭발 반경이 증가하고 크기 조정 세분성이 감소합니다</t>
-        </is>
-      </c>
+          <t>구독에 노드 풀을 확장할 수 있는 충분한 할당량이 있는지 확인합니다.</t>
+        </is>
+      </c>
+      <c r="E522" s="18" t="n"/>
       <c r="F522" s="18" t="inlineStr">
         <is>
           <t>높다</t>
@@ -27593,7 +27585,7 @@
       <c r="K522" s="19" t="n"/>
       <c r="L522" s="19" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M522" s="20" t="n"/>
@@ -27620,13 +27612,13 @@
       </c>
       <c r="D523" s="18" t="inlineStr">
         <is>
-          <t>확장성을 위해 5,000개 이상의 노드가 필요한 경우 추가 AKS 클러스터를 사용하는 것이 좋습니다</t>
+          <t>Cluster Autoscaler 사용</t>
         </is>
       </c>
       <c r="E523" s="18" t="n"/>
       <c r="F523" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
@@ -27641,10 +27633,14 @@
         </is>
       </c>
       <c r="J523" s="13" t="n"/>
-      <c r="K523" s="19" t="n"/>
+      <c r="K523" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.autoScalerProfile)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L523" s="19" t="inlineStr">
         <is>
-          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M523" s="20" t="n"/>
@@ -27671,7 +27667,7 @@
       </c>
       <c r="D524" s="18" t="inlineStr">
         <is>
-          <t>AKS 자동화를 위해 EventGrid 이벤트를 구독하는 것이 좋습니다.</t>
+          <t>AKS 노드 풀에 대한 노드 구성 사용자 지정</t>
         </is>
       </c>
       <c r="E524" s="18" t="n"/>
@@ -27692,10 +27688,14 @@
         </is>
       </c>
       <c r="J524" s="13" t="n"/>
-      <c r="K524" s="19" t="n"/>
+      <c r="K524" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.austoscalerProfile)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L524" s="19" t="inlineStr">
         <is>
-          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
+          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
         </is>
       </c>
       <c r="M524" s="20" t="n"/>
@@ -27722,13 +27722,13 @@
       </c>
       <c r="D525" s="18" t="inlineStr">
         <is>
-          <t>AKS 클러스터에서 장기 실행 작업의 경우 이벤트 종료를 고려합니다.</t>
+          <t>필요한 경우 Horizontal Pod Autoscaler 사용</t>
         </is>
       </c>
       <c r="E525" s="18" t="n"/>
       <c r="F525" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
@@ -27746,7 +27746,7 @@
       <c r="K525" s="19" t="n"/>
       <c r="L525" s="19" t="inlineStr">
         <is>
-          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M525" s="20" t="n"/>
@@ -27773,13 +27773,17 @@
       </c>
       <c r="D526" s="18" t="inlineStr">
         <is>
-          <t>필요한 경우 AKS 노드에 Azure Dedicated Host를 사용하는 것이 좋습니다</t>
-        </is>
-      </c>
-      <c r="E526" s="18" t="n"/>
+          <t>너무 크거나 너무 작지 않은 적절한 노드 크기를 고려합니다</t>
+        </is>
+      </c>
+      <c r="E526" s="18" t="inlineStr">
+        <is>
+          <t>노드가 클수록 임시 디스크 및 가속화된 네트워킹과 같은 더 높은 성능과 기능을 제공하지만 폭발 반경이 증가하고 크기 조정 세분성이 감소합니다</t>
+        </is>
+      </c>
       <c r="F526" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
@@ -27797,7 +27801,7 @@
       <c r="K526" s="19" t="n"/>
       <c r="L526" s="19" t="inlineStr">
         <is>
-          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M526" s="20" t="n"/>
@@ -27824,13 +27828,13 @@
       </c>
       <c r="D527" s="18" t="inlineStr">
         <is>
-          <t>임시 OS 디스크 사용</t>
+          <t>확장성을 위해 5,000개 이상의 노드가 필요한 경우 추가 AKS 클러스터를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="E527" s="18" t="n"/>
       <c r="F527" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
@@ -27845,14 +27849,10 @@
         </is>
       </c>
       <c r="J527" s="13" t="n"/>
-      <c r="K527" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | mvexpand pools | extend compliant = (pools.osDiskType=='Ephemeral') | project id,name=strcat(name,'-',pools.name), resourceGroup, compliant</t>
-        </is>
-      </c>
+      <c r="K527" s="19" t="n"/>
       <c r="L527" s="19" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M527" s="20" t="n"/>
@@ -27879,13 +27879,13 @@
       </c>
       <c r="D528" s="18" t="inlineStr">
         <is>
-          <t>임시 디스크가 아닌 디스크의 경우 여러 Pod를 실행하는 데 고성능이 필요하고 기본 AKS 로그 회전 임계값을 사용하여 대규모 로그를 생성하므로 많은 Pod/노드를 실행할 때 노드에 높은 IOPS 및 더 큰 OS 디스크를 사용합니다</t>
+          <t>AKS 자동화를 위해 EventGrid 이벤트를 구독하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E528" s="18" t="n"/>
       <c r="F528" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
@@ -27903,7 +27903,7 @@
       <c r="K528" s="19" t="n"/>
       <c r="L528" s="19" t="inlineStr">
         <is>
-          <t>f0ce315f-1120-4166-8206-94f2cf3a4d07</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M528" s="20" t="n"/>
@@ -27930,7 +27930,7 @@
       </c>
       <c r="D529" s="18" t="inlineStr">
         <is>
-          <t>고성능 스토리지 옵션의 경우 AKS에서 Ultra Disks를 사용합니다.</t>
+          <t>AKS 클러스터에서 장기 실행 작업의 경우 이벤트 종료를 고려합니다.</t>
         </is>
       </c>
       <c r="E529" s="18" t="n"/>
@@ -27954,7 +27954,7 @@
       <c r="K529" s="19" t="n"/>
       <c r="L529" s="19" t="inlineStr">
         <is>
-          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M529" s="20" t="n"/>
@@ -27981,13 +27981,13 @@
       </c>
       <c r="D530" s="18" t="inlineStr">
         <is>
-          <t>클러스터에서 상태를 유지하지 않고 외부(AzStorage, AzSQL, Cosmos 등)에 데이터를 저장합니다.</t>
+          <t>필요한 경우 AKS 노드에 Azure Dedicated Host를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="E530" s="18" t="n"/>
       <c r="F530" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
@@ -28005,7 +28005,7 @@
       <c r="K530" s="19" t="n"/>
       <c r="L530" s="19" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M530" s="20" t="n"/>
@@ -28032,13 +28032,13 @@
       </c>
       <c r="D531" s="18" t="inlineStr">
         <is>
-          <t>AzFiles 표준을 사용하는 경우 성능상의 이유로 AzFiles 프리미엄 및/또는 ANF를 고려합니다</t>
+          <t>임시 OS 디스크 사용</t>
         </is>
       </c>
       <c r="E531" s="18" t="n"/>
       <c r="F531" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
@@ -28053,10 +28053,14 @@
         </is>
       </c>
       <c r="J531" s="13" t="n"/>
-      <c r="K531" s="19" t="n"/>
+      <c r="K531" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | mvexpand pools | extend compliant = (pools.osDiskType=='Ephemeral') | project id,name=strcat(name,'-',pools.name), resourceGroup, compliant</t>
+        </is>
+      </c>
       <c r="L531" s="19" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M531" s="20" t="n"/>
@@ -28083,13 +28087,13 @@
       </c>
       <c r="D532" s="18" t="inlineStr">
         <is>
-          <t>Azure 디스크 및 AZ를 사용하는 경우 올바른 영역에 스토리지를 프로비전하기 위해 VolumeBindingMode::WaitForFirstConsumer를 사용하여 LRS 디스크의 영역 내에 노드 풀을 사용하거나 여러 영역에 걸쳐 있는 노드 풀에 ZRS 디스크를 사용하는 것이 좋습니다</t>
+          <t>임시 디스크가 아닌 디스크의 경우 여러 Pod를 실행하는 데 고성능이 필요하고 기본 AKS 로그 회전 임계값을 사용하여 대규모 로그를 생성하므로 많은 Pod/노드를 실행할 때 노드에 높은 IOPS 및 더 큰 OS 디스크를 사용합니다</t>
         </is>
       </c>
       <c r="E532" s="18" t="n"/>
       <c r="F532" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
@@ -28107,7 +28111,7 @@
       <c r="K532" s="19" t="n"/>
       <c r="L532" s="19" t="inlineStr">
         <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
+          <t>f0ce315f-1120-4166-8206-94f2cf3a4d07</t>
         </is>
       </c>
       <c r="M532" s="20" t="n"/>
@@ -28117,17 +28121,50 @@
       <c r="Q532" s="20" t="n"/>
     </row>
     <row r="533">
-      <c r="A533" s="18" t="n"/>
-      <c r="B533" s="18" t="n"/>
-      <c r="C533" s="18" t="n"/>
-      <c r="D533" s="18" t="n"/>
+      <c r="A533" s="18" t="inlineStr">
+        <is>
+          <t>Azure AKS Review</t>
+        </is>
+      </c>
+      <c r="B533" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C533" s="18" t="inlineStr">
+        <is>
+          <t>AKS</t>
+        </is>
+      </c>
+      <c r="D533" s="18" t="inlineStr">
+        <is>
+          <t>고성능 스토리지 옵션의 경우 AKS에서 Ultra Disks를 사용합니다.</t>
+        </is>
+      </c>
       <c r="E533" s="18" t="n"/>
-      <c r="F533" s="18" t="n"/>
+      <c r="F533" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H533" s="18" t="n"/>
-      <c r="I533" s="13" t="n"/>
+      <c r="I533" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J533" s="13" t="n"/>
       <c r="K533" s="19" t="n"/>
-      <c r="L533" s="19" t="n"/>
+      <c r="L533" s="19" t="inlineStr">
+        <is>
+          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
+        </is>
+      </c>
       <c r="M533" s="20" t="n"/>
       <c r="N533" s="20" t="n"/>
       <c r="O533" s="20" t="n"/>
@@ -28135,17 +28172,50 @@
       <c r="Q533" s="20" t="n"/>
     </row>
     <row r="534">
-      <c r="A534" s="18" t="n"/>
-      <c r="B534" s="18" t="n"/>
-      <c r="C534" s="18" t="n"/>
-      <c r="D534" s="18" t="n"/>
+      <c r="A534" s="18" t="inlineStr">
+        <is>
+          <t>Azure AKS Review</t>
+        </is>
+      </c>
+      <c r="B534" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C534" s="18" t="inlineStr">
+        <is>
+          <t>AKS</t>
+        </is>
+      </c>
+      <c r="D534" s="18" t="inlineStr">
+        <is>
+          <t>클러스터에서 상태를 유지하지 않고 외부(AzStorage, AzSQL, Cosmos 등)에 데이터를 저장합니다.</t>
+        </is>
+      </c>
       <c r="E534" s="18" t="n"/>
-      <c r="F534" s="18" t="n"/>
+      <c r="F534" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H534" s="18" t="n"/>
-      <c r="I534" s="13" t="n"/>
+      <c r="I534" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J534" s="13" t="n"/>
       <c r="K534" s="19" t="n"/>
-      <c r="L534" s="19" t="n"/>
+      <c r="L534" s="19" t="inlineStr">
+        <is>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+        </is>
+      </c>
       <c r="M534" s="20" t="n"/>
       <c r="N534" s="20" t="n"/>
       <c r="O534" s="20" t="n"/>
@@ -28153,17 +28223,50 @@
       <c r="Q534" s="20" t="n"/>
     </row>
     <row r="535">
-      <c r="A535" s="18" t="n"/>
-      <c r="B535" s="18" t="n"/>
-      <c r="C535" s="18" t="n"/>
-      <c r="D535" s="18" t="n"/>
+      <c r="A535" s="18" t="inlineStr">
+        <is>
+          <t>Azure AKS Review</t>
+        </is>
+      </c>
+      <c r="B535" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C535" s="18" t="inlineStr">
+        <is>
+          <t>AKS</t>
+        </is>
+      </c>
+      <c r="D535" s="18" t="inlineStr">
+        <is>
+          <t>AzFiles 표준을 사용하는 경우 성능상의 이유로 AzFiles 프리미엄 및/또는 ANF를 고려합니다</t>
+        </is>
+      </c>
       <c r="E535" s="18" t="n"/>
-      <c r="F535" s="18" t="n"/>
+      <c r="F535" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H535" s="18" t="n"/>
-      <c r="I535" s="13" t="n"/>
+      <c r="I535" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J535" s="13" t="n"/>
       <c r="K535" s="19" t="n"/>
-      <c r="L535" s="19" t="n"/>
+      <c r="L535" s="19" t="inlineStr">
+        <is>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+        </is>
+      </c>
       <c r="M535" s="20" t="n"/>
       <c r="N535" s="20" t="n"/>
       <c r="O535" s="20" t="n"/>
@@ -28171,17 +28274,50 @@
       <c r="Q535" s="20" t="n"/>
     </row>
     <row r="536">
-      <c r="A536" s="18" t="n"/>
-      <c r="B536" s="18" t="n"/>
-      <c r="C536" s="18" t="n"/>
-      <c r="D536" s="18" t="n"/>
+      <c r="A536" s="18" t="inlineStr">
+        <is>
+          <t>Azure AKS Review</t>
+        </is>
+      </c>
+      <c r="B536" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C536" s="18" t="inlineStr">
+        <is>
+          <t>AKS</t>
+        </is>
+      </c>
+      <c r="D536" s="18" t="inlineStr">
+        <is>
+          <t>Azure 디스크 및 AZ를 사용하는 경우 올바른 영역에 스토리지를 프로비전하기 위해 VolumeBindingMode::WaitForFirstConsumer를 사용하여 LRS 디스크의 영역 내에 노드 풀을 사용하거나 여러 영역에 걸쳐 있는 노드 풀에 ZRS 디스크를 사용하는 것이 좋습니다</t>
+        </is>
+      </c>
       <c r="E536" s="18" t="n"/>
-      <c r="F536" s="18" t="n"/>
+      <c r="F536" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H536" s="18" t="n"/>
-      <c r="I536" s="13" t="n"/>
+      <c r="I536" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J536" s="13" t="n"/>
       <c r="K536" s="19" t="n"/>
-      <c r="L536" s="19" t="n"/>
+      <c r="L536" s="19" t="inlineStr">
+        <is>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
+        </is>
+      </c>
       <c r="M536" s="20" t="n"/>
       <c r="N536" s="20" t="n"/>
       <c r="O536" s="20" t="n"/>
@@ -40375,7 +40511,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G533" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G537" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -40807,6 +40943,10 @@
     <hyperlink ref="I530" r:id="rId425"/>
     <hyperlink ref="I531" r:id="rId426"/>
     <hyperlink ref="I532" r:id="rId427"/>
+    <hyperlink ref="I533" r:id="rId428"/>
+    <hyperlink ref="I534" r:id="rId429"/>
+    <hyperlink ref="I535" r:id="rId430"/>
+    <hyperlink ref="I536" r:id="rId431"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -16421,7 +16421,7 @@
     <row r="315">
       <c r="A315" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B315" s="18" t="inlineStr">
@@ -16431,16 +16431,20 @@
       </c>
       <c r="C315" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D315" s="18" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis는 프리미엄 및 엔터프라이즈 계층에서 영역 중복 구성을 지원합니다. 영역 중복 캐시는 동일한 지역의 여러 Azure 가용성 영역에 노드를 배치할 수 있습니다. 데이터 센터 또는 AZ 중단을 단일 장애 지점으로 제거하고 캐시의 전반적인 가용성을 높입니다.</t>
+          <t>비즈니스 및 SLO 요구 사항에 따라 올바른 Logic App 호스팅 계획 선택Select the right Logic App hosting plan based on your business &amp; SLO requirements</t>
         </is>
       </c>
       <c r="E315" s="18" t="n"/>
-      <c r="F315" s="18" t="n"/>
+      <c r="F315" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
       <c r="G315" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -16456,7 +16460,7 @@
       <c r="K315" s="19" t="n"/>
       <c r="L315" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
         </is>
       </c>
       <c r="M315" s="20" t="n"/>
@@ -16468,7 +16472,7 @@
     <row r="316">
       <c r="A316" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B316" s="18" t="inlineStr">
@@ -16478,16 +16482,20 @@
       </c>
       <c r="C316" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D316" s="18" t="inlineStr">
         <is>
-          <t>캐시 데이터는 메모리에 저장되기 때문에 드물게 계획되지 않은 여러 노드의 오류로 인해 모든 데이터가 삭제될 수 있습니다. 데이터가 완전히 손실되는 것을 방지하기 위해 Redis 지속성을 사용하면 메모리 내 데이터의 주기적인 스냅숏을 만들어 저장소 계정에 저장할 수 있습니다.</t>
+          <t>영역 중복 및 가용성 영역을 사용하여 지역 오류로부터 논리 앱 보호Protect logic apps from region failures with zone redundancy and availability zones</t>
         </is>
       </c>
       <c r="E316" s="18" t="n"/>
-      <c r="F316" s="18" t="n"/>
+      <c r="F316" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
       <c r="G316" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -16503,7 +16511,7 @@
       <c r="K316" s="19" t="n"/>
       <c r="L316" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
         </is>
       </c>
       <c r="M316" s="20" t="n"/>
@@ -16515,7 +16523,7 @@
     <row r="317">
       <c r="A317" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B317" s="18" t="inlineStr">
@@ -16525,16 +16533,20 @@
       </c>
       <c r="C317" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D317" s="18" t="inlineStr">
         <is>
-          <t>지역 중복 스토리지 계정을 사용하여 Azure Cache for Redis 데이터를 유지하거나 지역 중복을 사용할 수 없는 경우 영역 중복을 유지합니다</t>
+          <t>중요한 워크로드에 대한 지역 간 DR 전략 고려</t>
         </is>
       </c>
       <c r="E317" s="18" t="n"/>
-      <c r="F317" s="18" t="n"/>
+      <c r="F317" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
       <c r="G317" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -16550,7 +16562,7 @@
       <c r="K317" s="19" t="n"/>
       <c r="L317" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
         </is>
       </c>
       <c r="M317" s="20" t="n"/>
@@ -16562,7 +16574,7 @@
     <row r="318">
       <c r="A318" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B318" s="18" t="inlineStr">
@@ -16572,16 +16584,20 @@
       </c>
       <c r="C318" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D318" s="18" t="inlineStr">
         <is>
-          <t>지역에서 복제는 일반적으로 두 개의 Azure 지역에 걸쳐 있는 둘 이상의 Azure Cache for Redis 인스턴스를 연결하는 메커니즘입니다. 지역에서 복제는 주로 지역 간 재해 복구를 위해 설계되었습니다. 두 개의 프리미엄 계층 캐시 인스턴스는 주 캐시에 대한 읽기 및 쓰기를 제공하는 방식으로 지역 복제를 통해 연결되며, 해당 데이터는 보조 캐시에 복제됩니다.</t>
+          <t>격리된 환경에 배포하는 경우 ASE(App Service Environment) v3을 사용하거나 마이그레이션합니다</t>
         </is>
       </c>
       <c r="E318" s="18" t="n"/>
-      <c r="F318" s="18" t="n"/>
+      <c r="F318" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
       <c r="G318" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -16597,7 +16613,7 @@
       <c r="K318" s="19" t="n"/>
       <c r="L318" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
         </is>
       </c>
       <c r="M318" s="20" t="n"/>
@@ -16609,7 +16625,7 @@
     <row r="319">
       <c r="A319" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B319" s="18" t="inlineStr">
@@ -16619,12 +16635,12 @@
       </c>
       <c r="C319" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D319" s="18" t="inlineStr">
         <is>
-          <t>다중 테넌트에 대한 명확한 규정 또는 비즈니스 요구 사항이 없는 한 Azure 리소스를 관리하기 위해 하나의 Entra 테넌트를 사용합니다.</t>
+          <t>Azure DevOps 또는 GitHub를 활용하여 CI/CD를 간소화하고 논리 앱 코드를 보호합니다.</t>
         </is>
       </c>
       <c r="E319" s="18" t="n"/>
@@ -16648,7 +16664,7 @@
       <c r="K319" s="19" t="n"/>
       <c r="L319" s="19" t="inlineStr">
         <is>
-          <t>70c15989-c726-42c7-b0d3-24b7375b9201</t>
+          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
         </is>
       </c>
       <c r="M319" s="20" t="n"/>
@@ -16660,30 +16676,26 @@
     <row r="320">
       <c r="A320" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B320" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C320" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D320" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 테넌트를 관리하기 위한 다중 테넌트 자동화 접근 방식이 있는지 확인합니다.</t>
+          <t>Azure Cache for Redis는 프리미엄 및 엔터프라이즈 계층에서 영역 중복 구성을 지원합니다. 영역 중복 캐시는 동일한 지역의 여러 Azure 가용성 영역에 노드를 배치할 수 있습니다. 데이터 센터 또는 AZ 중단을 단일 장애 지점으로 제거하고 캐시의 전반적인 가용성을 높입니다.</t>
         </is>
       </c>
       <c r="E320" s="18" t="n"/>
-      <c r="F320" s="18" t="inlineStr">
-        <is>
-          <t>낮다</t>
-        </is>
-      </c>
+      <c r="F320" s="18" t="n"/>
       <c r="G320" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -16699,7 +16711,7 @@
       <c r="K320" s="19" t="n"/>
       <c r="L320" s="19" t="inlineStr">
         <is>
-          <t>6309957b-821a-43d1-b9d9-7fcf1802b747</t>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
         </is>
       </c>
       <c r="M320" s="20" t="n"/>
@@ -16711,30 +16723,26 @@
     <row r="321">
       <c r="A321" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B321" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C321" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D321" s="18" t="inlineStr">
         <is>
-          <t>다중 테넌트 관리를 위해 Azure Lighthouse 활용</t>
+          <t>캐시 데이터는 메모리에 저장되기 때문에 드물게 계획되지 않은 여러 노드의 오류로 인해 모든 데이터가 삭제될 수 있습니다. 데이터가 완전히 손실되는 것을 방지하기 위해 Redis 지속성을 사용하면 메모리 내 데이터의 주기적인 스냅숏을 만들어 저장소 계정에 저장할 수 있습니다.</t>
         </is>
       </c>
       <c r="E321" s="18" t="n"/>
-      <c r="F321" s="18" t="inlineStr">
-        <is>
-          <t>낮다</t>
-        </is>
-      </c>
+      <c r="F321" s="18" t="n"/>
       <c r="G321" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -16750,7 +16758,7 @@
       <c r="K321" s="19" t="n"/>
       <c r="L321" s="19" t="inlineStr">
         <is>
-          <t>78e11934-499a-45ed-8ef7-aae5578f0ecf</t>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
         </is>
       </c>
       <c r="M321" s="20" t="n"/>
@@ -16762,30 +16770,26 @@
     <row r="322">
       <c r="A322" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B322" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C322" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D322" s="18" t="inlineStr">
         <is>
-          <t>Azure Lighthouse가 파트너별로 테넌트를 관리하는 데 사용되는지 확인합니다.</t>
+          <t>지역 중복 스토리지 계정을 사용하여 Azure Cache for Redis 데이터를 유지하거나 지역 중복을 사용할 수 없는 경우 영역 중복을 유지합니다</t>
         </is>
       </c>
       <c r="E322" s="18" t="n"/>
-      <c r="F322" s="18" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
+      <c r="F322" s="18" t="n"/>
       <c r="G322" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -16801,7 +16805,7 @@
       <c r="K322" s="19" t="n"/>
       <c r="L322" s="19" t="inlineStr">
         <is>
-          <t>5d82e6df-6f61-42f2-82e2-3132d293be3d</t>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
         </is>
       </c>
       <c r="M322" s="20" t="n"/>
@@ -16813,30 +16817,26 @@
     <row r="323">
       <c r="A323" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B323" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C323" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D323" s="18" t="inlineStr">
         <is>
-          <t>테넌트 전체 계정 잠금을 방지하기 위해 긴급 액세스 또는 비상 계정을 구현합니다</t>
+          <t>지역에서 복제는 일반적으로 두 개의 Azure 지역에 걸쳐 있는 둘 이상의 Azure Cache for Redis 인스턴스를 연결하는 메커니즘입니다. 지역에서 복제는 주로 지역 간 재해 복구를 위해 설계되었습니다. 두 개의 프리미엄 계층 캐시 인스턴스는 주 캐시에 대한 읽기 및 쓰기를 제공하는 방식으로 지역 복제를 통해 연결되며, 해당 데이터는 보조 캐시에 복제됩니다.</t>
         </is>
       </c>
       <c r="E323" s="18" t="n"/>
-      <c r="F323" s="18" t="inlineStr">
-        <is>
-          <t>높다</t>
-        </is>
-      </c>
+      <c r="F323" s="18" t="n"/>
       <c r="G323" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -16848,15 +16848,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J323" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+      <c r="J323" s="13" t="n"/>
       <c r="K323" s="19" t="n"/>
       <c r="L323" s="19" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
         </is>
       </c>
       <c r="M323" s="20" t="n"/>
@@ -16873,7 +16869,7 @@
       </c>
       <c r="B324" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C324" s="18" t="inlineStr">
@@ -16883,7 +16879,7 @@
       </c>
       <c r="D324" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 로그를 플랫폼 중앙 Azure Monitor와 통합합니다. Azure Monitor를 사용하면 Azure의 로그 및 모니터링 데이터에 대한 단일 정보 원본을 사용할 수 있으므로 조직에 로그 수집 및 보존에 대한 요구 사항을 충족할 수 있는 클라우드 네이티브 옵션을 제공합니다.</t>
+          <t>다중 테넌트에 대한 명확한 규정 또는 비즈니스 요구 사항이 없는 한 Azure 리소스를 관리하기 위해 하나의 Entra 테넌트를 사용합니다.</t>
         </is>
       </c>
       <c r="E324" s="18" t="n"/>
@@ -16907,7 +16903,7 @@
       <c r="K324" s="19" t="n"/>
       <c r="L324" s="19" t="inlineStr">
         <is>
-          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
+          <t>70c15989-c726-42c7-b0d3-24b7375b9201</t>
         </is>
       </c>
       <c r="M324" s="20" t="n"/>
@@ -16924,7 +16920,7 @@
       </c>
       <c r="B325" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C325" s="18" t="inlineStr">
@@ -16934,13 +16930,13 @@
       </c>
       <c r="D325" s="18" t="inlineStr">
         <is>
-          <t>클라우드 운영 모델에 맞는 RBAC 모델을 적용합니다. 관리 그룹 및 구독에서 범위 지정 및 할당Scope and Assign across Management Groups and Subscriptions.</t>
+          <t>Microsoft Entra ID 테넌트를 관리하기 위한 다중 테넌트 자동화 접근 방식이 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E325" s="18" t="n"/>
       <c r="F325" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -16954,15 +16950,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J325" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="J325" s="13" t="n"/>
       <c r="K325" s="19" t="n"/>
       <c r="L325" s="19" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>6309957b-821a-43d1-b9d9-7fcf1802b747</t>
         </is>
       </c>
       <c r="M325" s="20" t="n"/>
@@ -16979,7 +16971,7 @@
       </c>
       <c r="B326" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C326" s="18" t="inlineStr">
@@ -16989,7 +16981,7 @@
       </c>
       <c r="D326" s="18" t="inlineStr">
         <is>
-          <t>Azure 환경에 대한 권한이 있는 모든 사용자에 대해 Microsoft Entra ID 조건부 액세스 정책 적용</t>
+          <t>다중 테넌트 관리를 위해 Azure Lighthouse 활용</t>
         </is>
       </c>
       <c r="E326" s="18" t="n"/>
@@ -17009,15 +17001,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J326" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+      <c r="J326" s="13" t="n"/>
       <c r="K326" s="19" t="n"/>
       <c r="L326" s="19" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>78e11934-499a-45ed-8ef7-aae5578f0ecf</t>
         </is>
       </c>
       <c r="M326" s="20" t="n"/>
@@ -17034,7 +17022,7 @@
       </c>
       <c r="B327" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C327" s="18" t="inlineStr">
@@ -17044,13 +17032,13 @@
       </c>
       <c r="D327" s="18" t="inlineStr">
         <is>
-          <t>Azure 환경에 대한 권한이 있는 모든 사용자에 대해 다단계 인증 적용</t>
+          <t>Azure Lighthouse가 파트너별로 테넌트를 관리하는 데 사용되는지 확인합니다.</t>
         </is>
       </c>
       <c r="E327" s="18" t="n"/>
       <c r="F327" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -17064,15 +17052,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J327" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
-        </is>
-      </c>
+      <c r="J327" s="13" t="n"/>
       <c r="K327" s="19" t="n"/>
       <c r="L327" s="19" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>5d82e6df-6f61-42f2-82e2-3132d293be3d</t>
         </is>
       </c>
       <c r="M327" s="20" t="n"/>
@@ -17099,13 +17083,13 @@
       </c>
       <c r="D328" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID PIM(Privileged Identity Management)을 적용하여 제로 스탠딩 액세스 및 최소 권한 설정</t>
+          <t>테넌트 전체 계정 잠금을 방지하기 위해 긴급 액세스 또는 비상 계정을 구현합니다</t>
         </is>
       </c>
       <c r="E328" s="18" t="n"/>
       <c r="F328" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -17127,7 +17111,7 @@
       <c r="K328" s="19" t="n"/>
       <c r="L328" s="19" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M328" s="20" t="n"/>
@@ -17154,13 +17138,13 @@
       </c>
       <c r="D329" s="18" t="inlineStr">
         <is>
-          <t>모든 계정 유형에 대해 인증 유형 회사 또는 학교 계정만 사용합니다. Microsoft 계정 사용 금지</t>
+          <t>Microsoft Entra ID 로그를 플랫폼 중앙 Azure Monitor와 통합합니다. Azure Monitor를 사용하면 Azure의 로그 및 모니터링 데이터에 대한 단일 정보 원본을 사용할 수 있으므로 조직에 로그 수집 및 보존에 대한 요구 사항을 충족할 수 있는 클라우드 네이티브 옵션을 제공합니다.</t>
         </is>
       </c>
       <c r="E329" s="18" t="n"/>
       <c r="F329" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -17174,15 +17158,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J329" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
+      <c r="J329" s="13" t="n"/>
       <c r="K329" s="19" t="n"/>
       <c r="L329" s="19" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
         </is>
       </c>
       <c r="M329" s="20" t="n"/>
@@ -17209,13 +17189,13 @@
       </c>
       <c r="D330" s="18" t="inlineStr">
         <is>
-          <t>그룹만 사용하여 권한을 할당합니다. 그룹 관리 시스템이 이미 있는 경우 Azure-AD 전용 그룹에 온-프레미스 그룹을 추가합니다.</t>
+          <t>클라우드 운영 모델에 맞는 RBAC 모델을 적용합니다. 관리 그룹 및 구독에서 범위 지정 및 할당Scope and Assign across Management Groups and Subscriptions.</t>
         </is>
       </c>
       <c r="E330" s="18" t="n"/>
       <c r="F330" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -17231,13 +17211,13 @@
       </c>
       <c r="J330" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="K330" s="19" t="n"/>
       <c r="L330" s="19" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M330" s="20" t="n"/>
@@ -17264,13 +17244,13 @@
       </c>
       <c r="D331" s="18" t="inlineStr">
         <is>
-          <t>Entra Domain Services를 사용 중인 경우 모든 워크로드의 호환성을 평가합니다</t>
+          <t>Azure 환경에 대한 권한이 있는 모든 사용자에 대해 Microsoft Entra ID 조건부 액세스 정책 적용</t>
         </is>
       </c>
       <c r="E331" s="18" t="n"/>
       <c r="F331" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -17286,13 +17266,13 @@
       </c>
       <c r="J331" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="K331" s="19" t="n"/>
       <c r="L331" s="19" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M331" s="20" t="n"/>
@@ -17319,13 +17299,13 @@
       </c>
       <c r="D332" s="18" t="inlineStr">
         <is>
-          <t>필요한 경우 Microsoft Entra ID 애플리케이션 프록시를 사용하여 원격 사용자에게 내부 애플리케이션(클라우드 또는 온-프레미스에서 호스트됨)에 대한 안전하고 인증된 액세스를 제공합니다.</t>
+          <t>Azure 환경에 대한 권한이 있는 모든 사용자에 대해 다단계 인증 적용</t>
         </is>
       </c>
       <c r="E332" s="18" t="n"/>
       <c r="F332" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -17341,13 +17321,13 @@
       </c>
       <c r="J332" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="K332" s="19" t="n"/>
       <c r="L332" s="19" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M332" s="20" t="n"/>
@@ -17374,7 +17354,7 @@
       </c>
       <c r="D333" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 역할 할당에 온-프레미스 동기화된 계정을 사용하지 마세요.</t>
+          <t>Microsoft Entra ID PIM(Privileged Identity Management)을 적용하여 제로 스탠딩 액세스 및 최소 권한 설정</t>
         </is>
       </c>
       <c r="E333" s="18" t="n"/>
@@ -17396,13 +17376,13 @@
       </c>
       <c r="J333" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="K333" s="19" t="n"/>
       <c r="L333" s="19" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M333" s="20" t="n"/>
@@ -17424,18 +17404,18 @@
       </c>
       <c r="C334" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D334" s="18" t="inlineStr">
         <is>
-          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
+          <t>모든 계정 유형에 대해 인증 유형 회사 또는 학교 계정만 사용합니다. Microsoft 계정 사용 금지</t>
         </is>
       </c>
       <c r="E334" s="18" t="n"/>
       <c r="F334" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -17451,13 +17431,13 @@
       </c>
       <c r="J334" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="K334" s="19" t="n"/>
       <c r="L334" s="19" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M334" s="20" t="n"/>
@@ -17479,12 +17459,12 @@
       </c>
       <c r="C335" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D335" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 흐름에서 이 암호화를 보여 줍니다.</t>
+          <t>그룹만 사용하여 권한을 할당합니다. 그룹 관리 시스템이 이미 있는 경우 Azure-AD 전용 그룹에 온-프레미스 그룹을 추가합니다.</t>
         </is>
       </c>
       <c r="E335" s="18" t="n"/>
@@ -17504,11 +17484,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J335" s="13" t="n"/>
+      <c r="J335" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+        </is>
+      </c>
       <c r="K335" s="19" t="n"/>
       <c r="L335" s="19" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M335" s="20" t="n"/>
@@ -17530,18 +17514,18 @@
       </c>
       <c r="C336" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D336" s="18" t="inlineStr">
         <is>
-          <t>MACsec을 사용할 수 없는 시나리오(예: ExpressRoute Direct를 사용하지 않는 경우)의 경우 VPN Gateway를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다.</t>
+          <t>Entra Domain Services를 사용 중인 경우 모든 워크로드의 호환성을 평가합니다</t>
         </is>
       </c>
       <c r="E336" s="18" t="n"/>
       <c r="F336" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -17557,13 +17541,13 @@
       </c>
       <c r="J336" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="K336" s="19" t="n"/>
       <c r="L336" s="19" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M336" s="20" t="n"/>
@@ -17585,12 +17569,12 @@
       </c>
       <c r="C337" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D337" s="18" t="inlineStr">
         <is>
-          <t>최대한의 유연성이 필요한 네트워크 시나리오를 위해 기존의 허브 앤 스포크(hub-and-spoke) 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 활용합니다.</t>
+          <t>필요한 경우 Microsoft Entra ID 애플리케이션 프록시를 사용하여 원격 사용자에게 내부 애플리케이션(클라우드 또는 온-프레미스에서 호스트됨)에 대한 안전하고 인증된 액세스를 제공합니다.</t>
         </is>
       </c>
       <c r="E337" s="18" t="n"/>
@@ -17612,13 +17596,13 @@
       </c>
       <c r="J337" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="K337" s="19" t="n"/>
       <c r="L337" s="19" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M337" s="20" t="n"/>
@@ -17635,23 +17619,23 @@
       </c>
       <c r="B338" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C338" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D338" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute 게이트웨이, VPN 게이트웨이 및 Azure Firewall 또는 중앙 허브 가상 네트워크의 파트너 NVA를 포함한 공유 네트워킹 서비스를 확인합니다. 필요한 경우 DNS 서버도 배포합니다.</t>
+          <t>Microsoft Entra ID 역할 할당에 온-프레미스 동기화된 계정을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="E338" s="18" t="n"/>
       <c r="F338" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -17665,11 +17649,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J338" s="13" t="n"/>
+      <c r="J338" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+        </is>
+      </c>
       <c r="K338" s="19" t="n"/>
       <c r="L338" s="19" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M338" s="20" t="n"/>
@@ -17686,17 +17674,17 @@
       </c>
       <c r="B339" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C339" s="18" t="inlineStr">
         <is>
-          <t>NVA</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D339" s="18" t="inlineStr">
         <is>
-          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따릅니다</t>
+          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
         </is>
       </c>
       <c r="E339" s="18" t="n"/>
@@ -17716,11 +17704,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J339" s="13" t="n"/>
+      <c r="J339" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K339" s="19" t="n"/>
       <c r="L339" s="19" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M339" s="20" t="n"/>
@@ -17747,13 +17739,13 @@
       </c>
       <c r="D340" s="18" t="inlineStr">
         <is>
-          <t>허브 및 스포크 시나리오에서 ExpressRoute와 VPN 게이트웨이 간의 전송이 필요한 경우 Azure Route Server를 사용합니다.</t>
+          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 흐름에서 이 암호화를 보여 줍니다.</t>
         </is>
       </c>
       <c r="E340" s="18" t="n"/>
       <c r="F340" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -17771,7 +17763,7 @@
       <c r="K340" s="19" t="n"/>
       <c r="L340" s="19" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M340" s="20" t="n"/>
@@ -17793,12 +17785,12 @@
       </c>
       <c r="C341" s="18" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D341" s="18" t="inlineStr">
         <is>
-          <t>Route Server를 사용하는 경우 Route Server 서브넷에 /27 접두사를 사용합니다.</t>
+          <t>MACsec을 사용할 수 없는 시나리오(예: ExpressRoute Direct를 사용하지 않는 경우)의 경우 VPN Gateway를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다.</t>
         </is>
       </c>
       <c r="E341" s="18" t="n"/>
@@ -17818,15 +17810,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J341" s="13" t="n"/>
-      <c r="K341" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J341" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
+      <c r="K341" s="19" t="n"/>
       <c r="L341" s="19" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M341" s="20" t="n"/>
@@ -17843,7 +17835,7 @@
       </c>
       <c r="B342" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C342" s="18" t="inlineStr">
@@ -17853,7 +17845,7 @@
       </c>
       <c r="D342" s="18" t="inlineStr">
         <is>
-          <t>Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간에 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다.</t>
+          <t>최대한의 유연성이 필요한 네트워크 시나리오를 위해 기존의 허브 앤 스포크(hub-and-spoke) 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 활용합니다.</t>
         </is>
       </c>
       <c r="E342" s="18" t="n"/>
@@ -17875,13 +17867,13 @@
       </c>
       <c r="J342" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K342" s="19" t="n"/>
       <c r="L342" s="19" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M342" s="20" t="n"/>
@@ -17898,7 +17890,7 @@
       </c>
       <c r="B343" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C343" s="18" t="inlineStr">
@@ -17908,13 +17900,13 @@
       </c>
       <c r="D343" s="18" t="inlineStr">
         <is>
-          <t>네트워크용 Azure Monitor를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
+          <t>ExpressRoute 게이트웨이, VPN 게이트웨이 및 Azure Firewall 또는 중앙 허브 가상 네트워크의 파트너 NVA를 포함한 공유 네트워킹 서비스를 확인합니다. 필요한 경우 DNS 서버도 배포합니다.</t>
         </is>
       </c>
       <c r="E343" s="18" t="n"/>
       <c r="F343" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -17928,15 +17920,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J343" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+      <c r="J343" s="13" t="n"/>
       <c r="K343" s="19" t="n"/>
       <c r="L343" s="19" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M343" s="20" t="n"/>
@@ -17958,12 +17946,12 @@
       </c>
       <c r="C344" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>NVA</t>
         </is>
       </c>
       <c r="D344" s="18" t="inlineStr">
         <is>
-          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 ExpressRoute를 통해 보급할 수 있는 최대 접두사 수(1000)인 VNet 피어링 제한(500)을 고려합니다</t>
+          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따릅니다</t>
         </is>
       </c>
       <c r="E344" s="18" t="n"/>
@@ -17984,14 +17972,10 @@
         </is>
       </c>
       <c r="J344" s="13" t="n"/>
-      <c r="K344" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K344" s="19" t="n"/>
       <c r="L344" s="19" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M344" s="20" t="n"/>
@@ -18008,23 +17992,23 @@
       </c>
       <c r="B345" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C345" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D345" s="18" t="inlineStr">
         <is>
-          <t>경로 테이블당 경로 제한(400)을 고려합니다.</t>
+          <t>허브 및 스포크 시나리오에서 ExpressRoute와 VPN 게이트웨이 간의 전송이 필요한 경우 Azure Route Server를 사용합니다.</t>
         </is>
       </c>
       <c r="E345" s="18" t="n"/>
       <c r="F345" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -18039,14 +18023,10 @@
         </is>
       </c>
       <c r="J345" s="13" t="n"/>
-      <c r="K345" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K345" s="19" t="n"/>
       <c r="L345" s="19" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M345" s="20" t="n"/>
@@ -18063,23 +18043,23 @@
       </c>
       <c r="B346" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C346" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="D346" s="18" t="inlineStr">
         <is>
-          <t>VNet 피어링을 구성할 때 '원격 가상 네트워크에 대한 트래픽 허용' 설정을 사용합니다</t>
+          <t>Route Server를 사용하는 경우 Route Server 서브넷에 /27 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="E346" s="18" t="n"/>
       <c r="F346" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -18096,12 +18076,12 @@
       <c r="J346" s="13" t="n"/>
       <c r="K346" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
         </is>
       </c>
       <c r="L346" s="19" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M346" s="20" t="n"/>
@@ -18123,12 +18103,12 @@
       </c>
       <c r="C347" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D347" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute를 Azure에 대한 기본 연결로 사용할 수 있는지 조사했는지 확인합니다.</t>
+          <t>Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간에 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다.</t>
         </is>
       </c>
       <c r="E347" s="18" t="n"/>
@@ -18150,13 +18130,13 @@
       </c>
       <c r="J347" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="K347" s="19" t="n"/>
       <c r="L347" s="19" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M347" s="20" t="n"/>
@@ -18173,24 +18153,20 @@
       </c>
       <c r="B348" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C348" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D348" s="18" t="inlineStr">
         <is>
-          <t>여러 ExpressRoute 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로를 선호하는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
-        </is>
-      </c>
-      <c r="E348" s="18" t="inlineStr">
-        <is>
-          <t>AS-path 접두사 및 연결 가중치를 사용하여 Azure에서 온-프레미스로의 트래픽에 영향을 주고, 자체 라우터의 전체 BGP 특성 범위를 사용하여 온-프레미스에서 Azure로의 트래픽에 영향을 줄 수 있습니다.</t>
-        </is>
-      </c>
+          <t>네트워크용 Azure Monitor를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
+        </is>
+      </c>
+      <c r="E348" s="18" t="n"/>
       <c r="F348" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -18209,13 +18185,13 @@
       </c>
       <c r="J348" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="K348" s="19" t="n"/>
       <c r="L348" s="19" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M348" s="20" t="n"/>
@@ -18232,17 +18208,17 @@
       </c>
       <c r="B349" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C349" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D349" s="18" t="inlineStr">
         <is>
-          <t>대역폭 및 성능 요구 사항에 따라 ExpressRoute/VPN 게이트웨이에 적합한 SKU를 사용하고 있는지 확인합니다.</t>
+          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 ExpressRoute를 통해 보급할 수 있는 최대 접두사 수(1000)인 VNet 피어링 제한(500)을 고려합니다</t>
         </is>
       </c>
       <c r="E349" s="18" t="n"/>
@@ -18262,19 +18238,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J349" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+      <c r="J349" s="13" t="n"/>
       <c r="K349" s="19" t="inlineStr">
         <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L349" s="19" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M349" s="20" t="n"/>
@@ -18291,23 +18263,23 @@
       </c>
       <c r="B350" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C350" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D350" s="18" t="inlineStr">
         <is>
-          <t>비용을 정당화하는 대역폭에 도달하는 경우에만 무제한 데이터 ExpressRoute 회로를 사용해야 합니다.</t>
+          <t>경로 테이블당 경로 제한(400)을 고려합니다.</t>
         </is>
       </c>
       <c r="E350" s="18" t="n"/>
       <c r="F350" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -18324,12 +18296,12 @@
       <c r="J350" s="13" t="n"/>
       <c r="K350" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
+          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L350" s="19" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M350" s="20" t="n"/>
@@ -18346,17 +18318,17 @@
       </c>
       <c r="B351" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C351" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D351" s="18" t="inlineStr">
         <is>
-          <t>회로의 피어링 위치가 로컬 SKU에 대한 Azure 지역을 지원하는 경우 ExpressRoute의 로컬 SKU를 활용하여 회로 비용을 줄입니다.</t>
+          <t>VNet 피어링을 구성할 때 '원격 가상 네트워크에 대한 트래픽 허용' 설정을 사용합니다</t>
         </is>
       </c>
       <c r="E351" s="18" t="n"/>
@@ -18379,12 +18351,12 @@
       <c r="J351" s="13" t="n"/>
       <c r="K351" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
         </is>
       </c>
       <c r="L351" s="19" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M351" s="20" t="n"/>
@@ -18401,7 +18373,7 @@
       </c>
       <c r="B352" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C352" s="18" t="inlineStr">
@@ -18411,7 +18383,7 @@
       </c>
       <c r="D352" s="18" t="inlineStr">
         <is>
-          <t>지원되는 Azure 지역에 영역 중복 ExpressRoute 게이트웨이를 배포합니다.</t>
+          <t>ExpressRoute를 Azure에 대한 기본 연결로 사용할 수 있는지 조사했는지 확인합니다.</t>
         </is>
       </c>
       <c r="E352" s="18" t="n"/>
@@ -18436,14 +18408,10 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K352" s="19" t="inlineStr">
-        <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
-        </is>
-      </c>
+      <c r="K352" s="19" t="n"/>
       <c r="L352" s="19" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M352" s="20" t="n"/>
@@ -18460,7 +18428,7 @@
       </c>
       <c r="B353" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C353" s="18" t="inlineStr">
@@ -18470,10 +18438,14 @@
       </c>
       <c r="D353" s="18" t="inlineStr">
         <is>
-          <t>10Gbps보다 높은 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 ExpressRoute Direct를 사용합니다.</t>
-        </is>
-      </c>
-      <c r="E353" s="18" t="n"/>
+          <t>여러 ExpressRoute 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로를 선호하는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
+        </is>
+      </c>
+      <c r="E353" s="18" t="inlineStr">
+        <is>
+          <t>AS-path 접두사 및 연결 가중치를 사용하여 Azure에서 온-프레미스로의 트래픽에 영향을 주고, 자체 라우터의 전체 BGP 특성 범위를 사용하여 온-프레미스에서 Azure로의 트래픽에 영향을 줄 수 있습니다.</t>
+        </is>
+      </c>
       <c r="F353" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -18498,7 +18470,7 @@
       <c r="K353" s="19" t="n"/>
       <c r="L353" s="19" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M353" s="20" t="n"/>
@@ -18525,7 +18497,7 @@
       </c>
       <c r="D354" s="18" t="inlineStr">
         <is>
-          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath를 사용하여 데이터 경로에서 ExpressRoute 게이트웨이를 우회합니다.</t>
+          <t>대역폭 및 성능 요구 사항에 따라 ExpressRoute/VPN 게이트웨이에 적합한 SKU를 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E354" s="18" t="n"/>
@@ -18550,10 +18522,14 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K354" s="19" t="n"/>
+      <c r="K354" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
+        </is>
+      </c>
       <c r="L354" s="19" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M354" s="20" t="n"/>
@@ -18570,23 +18546,23 @@
       </c>
       <c r="B355" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C355" s="18" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D355" s="18" t="inlineStr">
         <is>
-          <t>영역 중복 VPN Gateway를 사용하여 분기 또는 원격 위치를 Azure(사용 가능한 경우)에 연결합니다.</t>
+          <t>비용을 정당화하는 대역폭에 도달하는 경우에만 무제한 데이터 ExpressRoute 회로를 사용해야 합니다.</t>
         </is>
       </c>
       <c r="E355" s="18" t="n"/>
       <c r="F355" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -18600,19 +18576,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J355" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
-        </is>
-      </c>
+      <c r="J355" s="13" t="n"/>
       <c r="K355" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
+          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
         </is>
       </c>
       <c r="L355" s="19" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M355" s="20" t="n"/>
@@ -18629,23 +18601,23 @@
       </c>
       <c r="B356" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C356" s="18" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D356" s="18" t="inlineStr">
         <is>
-          <t>온-프레미스에서 중복 VPN 어플라이언스(활성/활성 또는 활성/수동)를 사용합니다.</t>
+          <t>회로의 피어링 위치가 로컬 SKU에 대한 Azure 지역을 지원하는 경우 ExpressRoute의 로컬 SKU를 활용하여 회로 비용을 줄입니다.</t>
         </is>
       </c>
       <c r="E356" s="18" t="n"/>
       <c r="F356" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -18659,15 +18631,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J356" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
-        </is>
-      </c>
-      <c r="K356" s="19" t="n"/>
+      <c r="J356" s="13" t="n"/>
+      <c r="K356" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
+        </is>
+      </c>
       <c r="L356" s="19" t="inlineStr">
         <is>
-          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M356" s="20" t="n"/>
@@ -18684,7 +18656,7 @@
       </c>
       <c r="B357" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C357" s="18" t="inlineStr">
@@ -18694,13 +18666,13 @@
       </c>
       <c r="D357" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 비용을 절감하기 위해 로컬 Azure 지역에 대한 ExpressRoute 로컬 회로를 사용하는 것이 좋습니다</t>
+          <t>지원되는 Azure 지역에 영역 중복 ExpressRoute 게이트웨이를 배포합니다.</t>
         </is>
       </c>
       <c r="E357" s="18" t="n"/>
       <c r="F357" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
@@ -18719,10 +18691,14 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K357" s="19" t="n"/>
+      <c r="K357" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
+        </is>
+      </c>
       <c r="L357" s="19" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M357" s="20" t="n"/>
@@ -18739,7 +18715,7 @@
       </c>
       <c r="B358" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C358" s="18" t="inlineStr">
@@ -18749,7 +18725,7 @@
       </c>
       <c r="D358" s="18" t="inlineStr">
         <is>
-          <t>트래픽 격리 또는 전용 대역폭이 필요한 경우(예: 프로덕션 환경과 비프로덕션 환경을 분리하기 위해) 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
+          <t>10Gbps보다 높은 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 ExpressRoute Direct를 사용합니다.</t>
         </is>
       </c>
       <c r="E358" s="18" t="n"/>
@@ -18777,7 +18753,7 @@
       <c r="K358" s="19" t="n"/>
       <c r="L358" s="19" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M358" s="20" t="n"/>
@@ -18794,7 +18770,7 @@
       </c>
       <c r="B359" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C359" s="18" t="inlineStr">
@@ -18804,7 +18780,7 @@
       </c>
       <c r="D359" s="18" t="inlineStr">
         <is>
-          <t>기본 제공 Express Route Insights를 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
+          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath를 사용하여 데이터 경로에서 ExpressRoute 게이트웨이를 우회합니다.</t>
         </is>
       </c>
       <c r="E359" s="18" t="n"/>
@@ -18832,7 +18808,7 @@
       <c r="K359" s="19" t="n"/>
       <c r="L359" s="19" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M359" s="20" t="n"/>
@@ -18849,17 +18825,17 @@
       </c>
       <c r="B360" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C360" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D360" s="18" t="inlineStr">
         <is>
-          <t>네트워크 전체, 특히 온-프레미스와 Azure 간의 연결을 모니터링하려면 연결 모니터를 사용합니다.</t>
+          <t>영역 중복 VPN Gateway를 사용하여 분기 또는 원격 위치를 Azure(사용 가능한 경우)에 연결합니다.</t>
         </is>
       </c>
       <c r="E360" s="18" t="n"/>
@@ -18881,13 +18857,17 @@
       </c>
       <c r="J360" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K360" s="19" t="n"/>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+        </is>
+      </c>
+      <c r="K360" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L360" s="19" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M360" s="20" t="n"/>
@@ -18909,12 +18889,12 @@
       </c>
       <c r="C361" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D361" s="18" t="inlineStr">
         <is>
-          <t>중복성을 위해 서로 다른 피어링 위치의 ExpressRoute 회로를 사용합니다.</t>
+          <t>온-프레미스에서 중복 VPN 어플라이언스(활성/활성 또는 활성/수동)를 사용합니다.</t>
         </is>
       </c>
       <c r="E361" s="18" t="n"/>
@@ -18936,17 +18916,13 @@
       </c>
       <c r="J361" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K361" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+        </is>
+      </c>
+      <c r="K361" s="19" t="n"/>
       <c r="L361" s="19" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
         </is>
       </c>
       <c r="M361" s="20" t="n"/>
@@ -18963,7 +18939,7 @@
       </c>
       <c r="B362" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C362" s="18" t="inlineStr">
@@ -18973,13 +18949,13 @@
       </c>
       <c r="D362" s="18" t="inlineStr">
         <is>
-          <t>특히 단일 ExpressRoute 회로만 사용하는 경우 사이트 간 VPN을 ExpressRoute의 장애 조치(failover)로 사용합니다.</t>
+          <t>ExpressRoute Direct를 사용하는 경우 비용을 절감하기 위해 로컬 Azure 지역에 대한 ExpressRoute 로컬 회로를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="E362" s="18" t="n"/>
       <c r="F362" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -18993,11 +18969,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J362" s="13" t="n"/>
+      <c r="J362" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K362" s="19" t="n"/>
       <c r="L362" s="19" t="inlineStr">
         <is>
-          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M362" s="20" t="n"/>
@@ -19014,7 +18994,7 @@
       </c>
       <c r="B363" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C363" s="18" t="inlineStr">
@@ -19024,13 +19004,13 @@
       </c>
       <c r="D363" s="18" t="inlineStr">
         <is>
-          <t>GatewaySubnet에서 경로 테이블을 사용하는 경우 게이트웨이 경로가 전파되었는지 확인합니다.</t>
+          <t>트래픽 격리 또는 전용 대역폭이 필요한 경우(예: 프로덕션 환경과 비프로덕션 환경을 분리하기 위해) 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="E363" s="18" t="n"/>
       <c r="F363" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -19044,15 +19024,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J363" s="13" t="n"/>
-      <c r="K363" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
-        </is>
-      </c>
+      <c r="J363" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K363" s="19" t="n"/>
       <c r="L363" s="19" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M363" s="20" t="n"/>
@@ -19069,7 +19049,7 @@
       </c>
       <c r="B364" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C364" s="18" t="inlineStr">
@@ -19079,13 +19059,13 @@
       </c>
       <c r="D364" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute를 사용하는 경우 온-프레미스 라우팅은 동적이어야 하며, 연결 오류가 발생할 경우 회로의 나머지 연결로 수렴되어야 합니다. 로드는 두 연결 모두에서 이상적으로는 액티브/액티브로 공유되어야 하지만 액티브/패시브도 지원됩니다.</t>
+          <t>기본 제공 Express Route Insights를 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
         </is>
       </c>
       <c r="E364" s="18" t="n"/>
       <c r="F364" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
@@ -19099,11 +19079,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J364" s="13" t="n"/>
+      <c r="J364" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K364" s="19" t="n"/>
       <c r="L364" s="19" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M364" s="20" t="n"/>
@@ -19120,7 +19104,7 @@
       </c>
       <c r="B365" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C365" s="18" t="inlineStr">
@@ -19130,13 +19114,13 @@
       </c>
       <c r="D365" s="18" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
+          <t>네트워크 전체, 특히 온-프레미스와 Azure 간의 연결을 모니터링하려면 연결 모니터를 사용합니다.</t>
         </is>
       </c>
       <c r="E365" s="18" t="n"/>
       <c r="F365" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -19152,13 +19136,13 @@
       </c>
       <c r="J365" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K365" s="19" t="n"/>
       <c r="L365" s="19" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M365" s="20" t="n"/>
@@ -19175,23 +19159,23 @@
       </c>
       <c r="B366" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C366" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D366" s="18" t="inlineStr">
         <is>
-          <t>개인 인터넷에 대한 주소 할당 범위의 IP 주소를 사용합니다(RFC 1918).</t>
+          <t>중복성을 위해 서로 다른 피어링 위치의 ExpressRoute 회로를 사용합니다.</t>
         </is>
       </c>
       <c r="E366" s="18" t="n"/>
       <c r="F366" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -19207,17 +19191,17 @@
       </c>
       <c r="J366" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K366" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
         </is>
       </c>
       <c r="L366" s="19" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M366" s="20" t="n"/>
@@ -19234,23 +19218,23 @@
       </c>
       <c r="B367" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C367" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D367" s="18" t="inlineStr">
         <is>
-          <t>IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요.</t>
+          <t>특히 단일 ExpressRoute 회로만 사용하는 경우 사이트 간 VPN을 ExpressRoute의 장애 조치(failover)로 사용합니다.</t>
         </is>
       </c>
       <c r="E367" s="18" t="n"/>
       <c r="F367" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -19264,19 +19248,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J367" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K367" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
-        </is>
-      </c>
+      <c r="J367" s="13" t="n"/>
+      <c r="K367" s="19" t="n"/>
       <c r="L367" s="19" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
         </is>
       </c>
       <c r="M367" s="20" t="n"/>
@@ -19298,12 +19274,12 @@
       </c>
       <c r="C368" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D368" s="18" t="inlineStr">
         <is>
-          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t>GatewaySubnet에서 경로 테이블을 사용하는 경우 게이트웨이 경로가 전파되었는지 확인합니다.</t>
         </is>
       </c>
       <c r="E368" s="18" t="n"/>
@@ -19323,15 +19299,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J368" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
-      <c r="K368" s="19" t="n"/>
+      <c r="J368" s="13" t="n"/>
+      <c r="K368" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
+        </is>
+      </c>
       <c r="L368" s="19" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M368" s="20" t="n"/>
@@ -19348,23 +19324,23 @@
       </c>
       <c r="B369" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C369" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D369" s="18" t="inlineStr">
         <is>
-          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 사용하여 확인을 위해 Azure 프라이빗 DNS를 사용합니다.</t>
+          <t>ExpressRoute를 사용하는 경우 온-프레미스 라우팅은 동적이어야 하며, 연결 오류가 발생할 경우 회로의 나머지 연결로 수렴되어야 합니다. 로드는 두 연결 모두에서 이상적으로는 액티브/액티브로 공유되어야 하지만 액티브/패시브도 지원됩니다.</t>
         </is>
       </c>
       <c r="E369" s="18" t="n"/>
       <c r="F369" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -19378,15 +19354,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J369" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+      <c r="J369" s="13" t="n"/>
       <c r="K369" s="19" t="n"/>
       <c r="L369" s="19" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M369" s="20" t="n"/>
@@ -19408,18 +19380,18 @@
       </c>
       <c r="C370" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D370" s="18" t="inlineStr">
         <is>
-          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="E370" s="18" t="n"/>
       <c r="F370" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -19435,13 +19407,13 @@
       </c>
       <c r="J370" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K370" s="19" t="n"/>
       <c r="L370" s="19" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M370" s="20" t="n"/>
@@ -19458,17 +19430,17 @@
       </c>
       <c r="B371" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C371" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D371" s="18" t="inlineStr">
         <is>
-          <t>자체 DNS(예: Red Hat OpenShift)를 요구하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
+          <t>개인 인터넷에 대한 주소 할당 범위의 IP 주소를 사용합니다(RFC 1918).</t>
         </is>
       </c>
       <c r="E371" s="18" t="n"/>
@@ -19488,11 +19460,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J371" s="13" t="n"/>
-      <c r="K371" s="19" t="n"/>
+      <c r="J371" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K371" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
+        </is>
+      </c>
       <c r="L371" s="19" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M371" s="20" t="n"/>
@@ -19509,17 +19489,17 @@
       </c>
       <c r="B372" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C372" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D372" s="18" t="inlineStr">
         <is>
-          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
+          <t>IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요.</t>
         </is>
       </c>
       <c r="E372" s="18" t="n"/>
@@ -19541,13 +19521,17 @@
       </c>
       <c r="J372" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
-      <c r="K372" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K372" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
+        </is>
+      </c>
       <c r="L372" s="19" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M372" s="20" t="n"/>
@@ -19564,23 +19548,23 @@
       </c>
       <c r="B373" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C373" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D373" s="18" t="inlineStr">
         <is>
-          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
+          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="E373" s="18" t="n"/>
       <c r="F373" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -19594,11 +19578,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J373" s="13" t="n"/>
+      <c r="J373" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K373" s="19" t="n"/>
       <c r="L373" s="19" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M373" s="20" t="n"/>
@@ -19615,17 +19603,17 @@
       </c>
       <c r="B374" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C374" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D374" s="18" t="inlineStr">
         <is>
-          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
+          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 사용하여 확인을 위해 Azure 프라이빗 DNS를 사용합니다.</t>
         </is>
       </c>
       <c r="E374" s="18" t="n"/>
@@ -19645,15 +19633,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J374" s="13" t="n"/>
-      <c r="K374" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J374" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
+      <c r="K374" s="19" t="n"/>
       <c r="L374" s="19" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M374" s="20" t="n"/>
@@ -19675,18 +19663,18 @@
       </c>
       <c r="C375" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D375" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
+          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E375" s="18" t="n"/>
       <c r="F375" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -19702,13 +19690,13 @@
       </c>
       <c r="J375" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="K375" s="19" t="n"/>
       <c r="L375" s="19" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M375" s="20" t="n"/>
@@ -19725,23 +19713,23 @@
       </c>
       <c r="B376" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C376" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D376" s="18" t="inlineStr">
         <is>
-          <t>글로벌 Azure Firewall 정책을 만들어 글로벌 네트워크 환경에서 보안 태세를 제어하고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
+          <t>자체 DNS(예: Red Hat OpenShift)를 요구하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="E376" s="18" t="n"/>
       <c r="F376" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -19755,15 +19743,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J376" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J376" s="13" t="n"/>
       <c r="K376" s="19" t="n"/>
       <c r="L376" s="19" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M376" s="20" t="n"/>
@@ -19780,23 +19764,23 @@
       </c>
       <c r="B377" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C377" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D377" s="18" t="inlineStr">
         <is>
-          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
+          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
         </is>
       </c>
       <c r="E377" s="18" t="n"/>
       <c r="F377" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -19812,13 +19796,13 @@
       </c>
       <c r="J377" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="K377" s="19" t="n"/>
       <c r="L377" s="19" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M377" s="20" t="n"/>
@@ -19840,12 +19824,12 @@
       </c>
       <c r="C378" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D378" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
+          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E378" s="18" t="n"/>
@@ -19865,15 +19849,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J378" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+      <c r="J378" s="13" t="n"/>
       <c r="K378" s="19" t="n"/>
       <c r="L378" s="19" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M378" s="20" t="n"/>
@@ -19895,18 +19875,18 @@
       </c>
       <c r="C379" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D379" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
+          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
         </is>
       </c>
       <c r="E379" s="18" t="n"/>
       <c r="F379" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
@@ -19920,15 +19900,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J379" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K379" s="19" t="n"/>
+      <c r="J379" s="13" t="n"/>
+      <c r="K379" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L379" s="19" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M379" s="20" t="n"/>
@@ -19950,12 +19930,12 @@
       </c>
       <c r="C380" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D380" s="18" t="inlineStr">
         <is>
-          <t>WAF 및 기타 역방향 프록시 배포는 인바운드 HTTP/S 연결에 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
+          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
         </is>
       </c>
       <c r="E380" s="18" t="n"/>
@@ -19977,13 +19957,13 @@
       </c>
       <c r="J380" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K380" s="19" t="n"/>
       <c r="L380" s="19" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M380" s="20" t="n"/>
@@ -20005,18 +19985,18 @@
       </c>
       <c r="C381" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D381" s="18" t="inlineStr">
         <is>
-          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
+          <t>글로벌 Azure Firewall 정책을 만들어 글로벌 네트워크 환경에서 보안 태세를 제어하고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
         </is>
       </c>
       <c r="E381" s="18" t="n"/>
       <c r="F381" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -20038,7 +20018,7 @@
       <c r="K381" s="19" t="n"/>
       <c r="L381" s="19" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M381" s="20" t="n"/>
@@ -20065,13 +20045,13 @@
       </c>
       <c r="D382" s="18" t="inlineStr">
         <is>
-          <t>FQDN 기반 네트워크 규칙 및 DNS 프록시와 함께 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 프로토콜을 통해 인터넷으로의 송신 트래픽을 필터링합니다.</t>
+          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
         </is>
       </c>
       <c r="E382" s="18" t="n"/>
       <c r="F382" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
@@ -20085,15 +20065,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J382" s="13" t="n"/>
-      <c r="K382" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.dnsSettings.enableProxy == true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J382" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K382" s="19" t="n"/>
       <c r="L382" s="19" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M382" s="20" t="n"/>
@@ -20115,18 +20095,18 @@
       </c>
       <c r="C383" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D383" s="18" t="inlineStr">
         <is>
-          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="E383" s="18" t="n"/>
       <c r="F383" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -20140,15 +20120,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J383" s="13" t="n"/>
-      <c r="K383" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.sku.tier == 'Premium') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J383" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K383" s="19" t="n"/>
       <c r="L383" s="19" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M383" s="20" t="n"/>
@@ -20170,18 +20150,18 @@
       </c>
       <c r="C384" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D384" s="18" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="E384" s="18" t="n"/>
       <c r="F384" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -20195,15 +20175,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J384" s="13" t="n"/>
-      <c r="K384" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.threatIntelMode == 'Deny') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J384" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K384" s="19" t="n"/>
       <c r="L384" s="19" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M384" s="20" t="n"/>
@@ -20225,12 +20205,12 @@
       </c>
       <c r="C385" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D385" s="18" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
+          <t>WAF 및 기타 역방향 프록시 배포는 인바운드 HTTP/S 연결에 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
         </is>
       </c>
       <c r="E385" s="18" t="n"/>
@@ -20250,15 +20230,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J385" s="13" t="n"/>
-      <c r="K385" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.intrusionDetection.mode == 'Deny') | project id, compliant</t>
-        </is>
-      </c>
+      <c r="J385" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K385" s="19" t="n"/>
       <c r="L385" s="19" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M385" s="20" t="n"/>
@@ -20280,12 +20260,12 @@
       </c>
       <c r="C386" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D386" s="18" t="inlineStr">
         <is>
-          <t>Virtual WAN에 연결되지 않은 VNet의 서브넷의 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
+          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="E386" s="18" t="n"/>
@@ -20305,15 +20285,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J386" s="13" t="n"/>
-      <c r="K386" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetId=tostring(subnets.id), subnetName=tostring(subnets.name),subnetRT=subnets.properties.routeTable.id | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend hasRT = isnotnull(subnetRT) | distinct id, hasRT, subnetId | join kind=fullouter (resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | extend isVWAN=(tolower(split(properties_virtualNetworkPeerings.name, '_')[0]) == 'remotevnettohubpeering') | mv-expand properties.subnets | project id, isVWAN, name, subnetId=tostring(properties_subnets.id), subnetName=tostring(properties_subnets.name) | summarize PeeredToVWAN=max(isVWAN) by id, subnetId | project id, subnetId, isVWANpeer = (PeeredToVWAN == true)) on subnetId | project id=iff(isnotempty(id), id, id1), subnetId=iff(isnotempty(subnetId), subnetId, subnetId1), hasRT, isVWANpeer | extend compliant = (hasRT==true or isVWANpeer==true) | distinct id, subnetId, compliant</t>
-        </is>
-      </c>
+      <c r="J386" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K386" s="19" t="n"/>
       <c r="L386" s="19" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M386" s="20" t="n"/>
@@ -20330,17 +20310,17 @@
       </c>
       <c r="B387" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C387" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D387" s="18" t="inlineStr">
         <is>
-          <t>예정된 호환성이 손상되는 변경 전에 네트워크 아웃바운드 트래픽 구성 및 전략을 평가하고 검토합니다. 2025년 9월 30일에 새 배포에 대한 기본 아웃바운드 액세스가 사용 중지되고 명시적 액세스 구성만 허용됩니다</t>
+          <t>FQDN 기반 네트워크 규칙 및 DNS 프록시와 함께 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 프로토콜을 통해 인터넷으로의 송신 트래픽을 필터링합니다.</t>
         </is>
       </c>
       <c r="E387" s="18" t="n"/>
@@ -20361,10 +20341,14 @@
         </is>
       </c>
       <c r="J387" s="13" t="n"/>
-      <c r="K387" s="19" t="n"/>
+      <c r="K387" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.dnsSettings.enableProxy == true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L387" s="19" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M387" s="20" t="n"/>
@@ -20386,12 +20370,12 @@
       </c>
       <c r="C388" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D388" s="18" t="inlineStr">
         <is>
-          <t>보호된 모든 공용 IP 주소(DDoS IP 또는 네트워크 보호)에 대한 DDoS 관련 로그를 저장하는 진단 설정을 추가합니다.</t>
+          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
         </is>
       </c>
       <c r="E388" s="18" t="n"/>
@@ -20411,15 +20395,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J388" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K388" s="19" t="n"/>
+      <c r="J388" s="13" t="n"/>
+      <c r="K388" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.sku.tier == 'Premium') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L388" s="19" t="inlineStr">
         <is>
-          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M388" s="20" t="n"/>
@@ -20436,7 +20420,7 @@
       </c>
       <c r="B389" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C389" s="18" t="inlineStr">
@@ -20446,13 +20430,13 @@
       </c>
       <c r="D389" s="18" t="inlineStr">
         <is>
-          <t>모든 Azure Firewall 배포에 대해 리소스별 대상 테이블을 사용하여 로그를 저장하는 진단 설정을 추가합니다.</t>
+          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="E389" s="18" t="n"/>
       <c r="F389" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -20466,15 +20450,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J389" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K389" s="19" t="n"/>
+      <c r="J389" s="13" t="n"/>
+      <c r="K389" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.threatIntelMode == 'Deny') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L389" s="19" t="inlineStr">
         <is>
-          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M389" s="20" t="n"/>
@@ -20491,7 +20475,7 @@
       </c>
       <c r="B390" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C390" s="18" t="inlineStr">
@@ -20501,13 +20485,13 @@
       </c>
       <c r="D390" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall 클래식 규칙(있는 경우)에서 방화벽 정책으로 마이그레이션합니다.</t>
+          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="E390" s="18" t="n"/>
       <c r="F390" s="18" t="inlineStr">
         <is>
-          <t>중요하다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
@@ -20521,15 +20505,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J390" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K390" s="19" t="n"/>
+      <c r="J390" s="13" t="n"/>
+      <c r="K390" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.intrusionDetection.mode == 'Deny') | project id, compliant</t>
+        </is>
+      </c>
       <c r="L390" s="19" t="inlineStr">
         <is>
-          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M390" s="20" t="n"/>
@@ -20551,12 +20535,12 @@
       </c>
       <c r="C391" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D391" s="18" t="inlineStr">
         <is>
-          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 중단되지 않았는지 확인합니다(예: 0.0.0.0/0 경로 또는 컨트롤 플레인 트래픽을 차단하는 NSG 규칙).</t>
+          <t>Virtual WAN에 연결되지 않은 VNet의 서브넷의 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
         </is>
       </c>
       <c r="E391" s="18" t="n"/>
@@ -20576,15 +20560,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J391" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
-      <c r="K391" s="19" t="n"/>
+      <c r="J391" s="13" t="n"/>
+      <c r="K391" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetId=tostring(subnets.id), subnetName=tostring(subnets.name),subnetRT=subnets.properties.routeTable.id | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend hasRT = isnotnull(subnetRT) | distinct id, hasRT, subnetId | join kind=fullouter (resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | extend isVWAN=(tolower(split(properties_virtualNetworkPeerings.name, '_')[0]) == 'remotevnettohubpeering') | mv-expand properties.subnets | project id, isVWAN, name, subnetId=tostring(properties_subnets.id), subnetName=tostring(properties_subnets.name) | summarize PeeredToVWAN=max(isVWAN) by id, subnetId | project id, subnetId, isVWANpeer = (PeeredToVWAN == true)) on subnetId | project id=iff(isnotempty(id), id, id1), subnetId=iff(isnotempty(subnetId), subnetId, subnetId1), hasRT, isVWANpeer | extend compliant = (hasRT==true or isVWANpeer==true) | distinct id, subnetId, compliant</t>
+        </is>
+      </c>
       <c r="L391" s="19" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M391" s="20" t="n"/>
@@ -20601,23 +20585,23 @@
       </c>
       <c r="B392" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C392" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D392" s="18" t="inlineStr">
         <is>
-          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
+          <t>예정된 호환성이 손상되는 변경 전에 네트워크 아웃바운드 트래픽 구성 및 전략을 평가하고 검토합니다. 2025년 9월 30일에 새 배포에 대한 기본 아웃바운드 액세스가 사용 중지되고 명시적 액세스 구성만 허용됩니다</t>
         </is>
       </c>
       <c r="E392" s="18" t="n"/>
       <c r="F392" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -20631,15 +20615,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J392" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+      <c r="J392" s="13" t="n"/>
       <c r="K392" s="19" t="n"/>
       <c r="L392" s="19" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M392" s="20" t="n"/>
@@ -20666,13 +20646,13 @@
       </c>
       <c r="D393" s="18" t="inlineStr">
         <is>
-          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
+          <t>보호된 모든 공용 IP 주소(DDoS IP 또는 네트워크 보호)에 대한 DDoS 관련 로그를 저장하는 진단 설정을 추가합니다.</t>
         </is>
       </c>
       <c r="E393" s="18" t="n"/>
       <c r="F393" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -20688,17 +20668,13 @@
       </c>
       <c r="J393" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
-      <c r="K393" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets = properties.subnets | mv-expand subnets | project id = subnets.id, resourceGroup, VNet = name, serviceEndpoints = subnets.properties.serviceEndpoints, compliant = (isnull(subnets.properties.serviceEndpoints) or array_length(subnets.properties.serviceEndpoints) == 0) | order by compliant asc</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K393" s="19" t="n"/>
       <c r="L393" s="19" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M393" s="20" t="n"/>
@@ -20715,7 +20691,7 @@
       </c>
       <c r="B394" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C394" s="18" t="inlineStr">
@@ -20725,7 +20701,7 @@
       </c>
       <c r="D394" s="18" t="inlineStr">
         <is>
-          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스에 대한 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
+          <t>모든 Azure Firewall 배포에 대해 리소스별 대상 테이블을 사용하여 로그를 저장하는 진단 설정을 추가합니다.</t>
         </is>
       </c>
       <c r="E394" s="18" t="n"/>
@@ -20747,13 +20723,13 @@
       </c>
       <c r="J394" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K394" s="19" t="n"/>
       <c r="L394" s="19" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
         </is>
       </c>
       <c r="M394" s="20" t="n"/>
@@ -20770,7 +20746,7 @@
       </c>
       <c r="B395" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C395" s="18" t="inlineStr">
@@ -20780,13 +20756,13 @@
       </c>
       <c r="D395" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
+          <t>Azure Firewall 클래식 규칙(있는 경우)에서 방화벽 정책으로 마이그레이션합니다.</t>
         </is>
       </c>
       <c r="E395" s="18" t="n"/>
       <c r="F395" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>중요하다</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -20800,15 +20776,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J395" s="13" t="n"/>
-      <c r="K395" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureFirewallSubnet' | extend compliant = (subnetPrefixLength == 26) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J395" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K395" s="19" t="n"/>
       <c r="L395" s="19" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
         </is>
       </c>
       <c r="M395" s="20" t="n"/>
@@ -20830,12 +20806,12 @@
       </c>
       <c r="C396" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D396" s="18" t="inlineStr">
         <is>
-          <t>게이트웨이 서브넷에 /27 이상의 접두사를 사용합니다</t>
+          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 중단되지 않았는지 확인합니다(예: 0.0.0.0/0 경로 또는 컨트롤 플레인 트래픽을 차단하는 NSG 규칙).</t>
         </is>
       </c>
       <c r="E396" s="18" t="n"/>
@@ -20855,15 +20831,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J396" s="13" t="n"/>
-      <c r="K396" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'GatewaySubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J396" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
+      <c r="K396" s="19" t="n"/>
       <c r="L396" s="19" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M396" s="20" t="n"/>
@@ -20885,12 +20861,12 @@
       </c>
       <c r="C397" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D397" s="18" t="inlineStr">
         <is>
-          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
+          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="E397" s="18" t="n"/>
@@ -20910,15 +20886,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J397" s="13" t="n"/>
-      <c r="K397" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/networksecuritygroups' | mvexpand properties.securityRules | project id,name,ruleAction=properties_securityRules.properties.access,rulePriority=properties_securityRules.properties.priority,ruleDst=properties_securityRules.properties.destinationAddressPrefix,ruleSrc=properties_securityRules.properties.sourceAddressPrefix,ruleProt=properties_securityRules.properties.protocol,ruleDirection=properties_securityRules.properties.direction,rulePort=properties_securityRules.properties.destinationPortRange | summarize StarDenies=countif(ruleAction=='Deny' and ruleDst=='*' and ruleSrc=='*' and ruleProt=='*' and rulePort=='*') by id,tostring(ruleDirection) | where ruleDirection == 'Inbound' | project id,compliant=(StarDenies&gt;0) | union (resources | where type=='microsoft.network/networksecuritygroups' | where array_length(properties.securityRules)==0 | extend compliant=false | project id,compliant)</t>
-        </is>
-      </c>
+      <c r="J397" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K397" s="19" t="n"/>
       <c r="L397" s="19" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M397" s="20" t="n"/>
@@ -20940,12 +20916,12 @@
       </c>
       <c r="C398" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D398" s="18" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 서브넷 간의 트래픽과 플랫폼 전체의 East/West 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
+          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
         </is>
       </c>
       <c r="E398" s="18" t="n"/>
@@ -20967,13 +20943,17 @@
       </c>
       <c r="J398" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
-      <c r="K398" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
+      <c r="K398" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets = properties.subnets | mv-expand subnets | project id = subnets.id, resourceGroup, VNet = name, serviceEndpoints = subnets.properties.serviceEndpoints, compliant = (isnull(subnets.properties.serviceEndpoints) or array_length(subnets.properties.serviceEndpoints) == 0) | order by compliant asc</t>
+        </is>
+      </c>
       <c r="L398" s="19" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M398" s="20" t="n"/>
@@ -20995,12 +20975,12 @@
       </c>
       <c r="C399" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D399" s="18" t="inlineStr">
         <is>
-          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
+          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스에 대한 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
         </is>
       </c>
       <c r="E399" s="18" t="n"/>
@@ -21015,20 +20995,20 @@
         </is>
       </c>
       <c r="H399" s="18" t="n"/>
-      <c r="I399" s="13" t="n"/>
+      <c r="I399" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J399" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
-      <c r="K399" s="19" t="inlineStr">
-        <is>
-          <t>Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetName=subnets.name,subnetNsg=subnets.properties.networkSecurityGroup | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend compliant = isnotnull(subnetNsg)</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
+      <c r="K399" s="19" t="n"/>
       <c r="L399" s="19" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M399" s="20" t="n"/>
@@ -21050,18 +21030,18 @@
       </c>
       <c r="C400" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D400" s="18" t="inlineStr">
         <is>
-          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
+          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="E400" s="18" t="n"/>
       <c r="F400" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
@@ -21075,15 +21055,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J400" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
-      <c r="K400" s="19" t="n"/>
+      <c r="J400" s="13" t="n"/>
+      <c r="K400" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureFirewallSubnet' | extend compliant = (subnetPrefixLength == 26) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L400" s="19" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M400" s="20" t="n"/>
@@ -21105,18 +21085,18 @@
       </c>
       <c r="C401" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D401" s="18" t="inlineStr">
         <is>
-          <t>VNet 흐름 로그를 사용하도록 설정하고 트래픽 분석에 제공하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
+          <t>게이트웨이 서브넷에 /27 이상의 접두사를 사용합니다</t>
         </is>
       </c>
       <c r="E401" s="18" t="n"/>
       <c r="F401" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -21130,15 +21110,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J401" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
-      <c r="K401" s="19" t="n"/>
+      <c r="J401" s="13" t="n"/>
+      <c r="K401" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'GatewaySubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L401" s="19" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M401" s="20" t="n"/>
@@ -21155,7 +21135,7 @@
       </c>
       <c r="B402" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C402" s="18" t="inlineStr">
@@ -21165,7 +21145,7 @@
       </c>
       <c r="D402" s="18" t="inlineStr">
         <is>
-          <t>NSG당 NSG 규칙의 제한(1000)을 고려합니다.</t>
+          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="E402" s="18" t="n"/>
@@ -21185,19 +21165,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J402" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="J402" s="13" t="n"/>
       <c r="K402" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/networksecuritygroups' | project id, rules = array_length(properties.securityRules) | project id, compliant = (rules &lt; 900)</t>
+          <t>resources | where type=='microsoft.network/networksecuritygroups' | mvexpand properties.securityRules | project id,name,ruleAction=properties_securityRules.properties.access,rulePriority=properties_securityRules.properties.priority,ruleDst=properties_securityRules.properties.destinationAddressPrefix,ruleSrc=properties_securityRules.properties.sourceAddressPrefix,ruleProt=properties_securityRules.properties.protocol,ruleDirection=properties_securityRules.properties.direction,rulePort=properties_securityRules.properties.destinationPortRange | summarize StarDenies=countif(ruleAction=='Deny' and ruleDst=='*' and ruleSrc=='*' and ruleProt=='*' and rulePort=='*') by id,tostring(ruleDirection) | where ruleDirection == 'Inbound' | project id,compliant=(StarDenies&gt;0) | union (resources | where type=='microsoft.network/networksecuritygroups' | where array_length(properties.securityRules)==0 | extend compliant=false | project id,compliant)</t>
         </is>
       </c>
       <c r="L402" s="19" t="inlineStr">
         <is>
-          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M402" s="20" t="n"/>
@@ -21214,17 +21190,17 @@
       </c>
       <c r="B403" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C403" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D403" s="18" t="inlineStr">
         <is>
-          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
+          <t>NSG를 사용하여 서브넷 간의 트래픽과 플랫폼 전체의 East/West 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="E403" s="18" t="n"/>
@@ -21246,13 +21222,13 @@
       </c>
       <c r="J403" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="K403" s="19" t="n"/>
       <c r="L403" s="19" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M403" s="20" t="n"/>
@@ -21269,17 +21245,17 @@
       </c>
       <c r="B404" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C404" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D404" s="18" t="inlineStr">
         <is>
-          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
+          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
         </is>
       </c>
       <c r="E404" s="18" t="n"/>
@@ -21294,16 +21270,20 @@
         </is>
       </c>
       <c r="H404" s="18" t="n"/>
-      <c r="I404" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
-      <c r="J404" s="13" t="n"/>
-      <c r="K404" s="19" t="n"/>
+      <c r="I404" s="13" t="n"/>
+      <c r="J404" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
+      <c r="K404" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetName=subnets.name,subnetNsg=subnets.properties.networkSecurityGroup | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend compliant = isnotnull(subnetNsg)</t>
+        </is>
+      </c>
       <c r="L404" s="19" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M404" s="20" t="n"/>
@@ -21320,23 +21300,23 @@
       </c>
       <c r="B405" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C405" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D405" s="18" t="inlineStr">
         <is>
-          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽은 Azure에 유지' 원칙에 따라</t>
+          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="E405" s="18" t="n"/>
       <c r="F405" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -21350,11 +21330,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J405" s="13" t="n"/>
+      <c r="J405" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="K405" s="19" t="n"/>
       <c r="L405" s="19" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M405" s="20" t="n"/>
@@ -21376,12 +21360,12 @@
       </c>
       <c r="C406" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D406" s="18" t="inlineStr">
         <is>
-          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 보안 허브에 Azure Firewall을 배포합니다</t>
+          <t>VNet 흐름 로그를 사용하도록 설정하고 트래픽 분석에 제공하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
         </is>
       </c>
       <c r="E406" s="18" t="n"/>
@@ -21403,17 +21387,13 @@
       </c>
       <c r="J406" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K406" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualhubs' | extend compliant = isnotnull(properties.azureFirewall.id) | project id, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
+      <c r="K406" s="19" t="n"/>
       <c r="L406" s="19" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M406" s="20" t="n"/>
@@ -21435,12 +21415,12 @@
       </c>
       <c r="C407" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D407" s="18" t="inlineStr">
         <is>
-          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
+          <t>NSG당 NSG 규칙의 제한(1000)을 고려합니다.</t>
         </is>
       </c>
       <c r="E407" s="18" t="n"/>
@@ -21460,11 +21440,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J407" s="13" t="n"/>
-      <c r="K407" s="19" t="n"/>
+      <c r="J407" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="K407" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/networksecuritygroups' | project id, rules = array_length(properties.securityRules) | project id, compliant = (rules &lt; 900)</t>
+        </is>
+      </c>
       <c r="L407" s="19" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
         </is>
       </c>
       <c r="M407" s="20" t="n"/>
@@ -21491,7 +21479,7 @@
       </c>
       <c r="D408" s="18" t="inlineStr">
         <is>
-          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
+          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
         </is>
       </c>
       <c r="E408" s="18" t="n"/>
@@ -21511,11 +21499,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J408" s="13" t="n"/>
+      <c r="J408" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K408" s="19" t="n"/>
       <c r="L408" s="19" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M408" s="20" t="n"/>
@@ -21532,7 +21524,7 @@
       </c>
       <c r="B409" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C409" s="18" t="inlineStr">
@@ -21542,7 +21534,7 @@
       </c>
       <c r="D409" s="18" t="inlineStr">
         <is>
-          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
+          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
         </is>
       </c>
       <c r="E409" s="18" t="n"/>
@@ -21566,7 +21558,7 @@
       <c r="K409" s="19" t="n"/>
       <c r="L409" s="19" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M409" s="20" t="n"/>
@@ -21583,7 +21575,7 @@
       </c>
       <c r="B410" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C410" s="18" t="inlineStr">
@@ -21593,13 +21585,13 @@
       </c>
       <c r="D410" s="18" t="inlineStr">
         <is>
-          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
+          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽은 Azure에 유지' 원칙에 따라</t>
         </is>
       </c>
       <c r="E410" s="18" t="n"/>
       <c r="F410" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
@@ -21617,7 +21609,7 @@
       <c r="K410" s="19" t="n"/>
       <c r="L410" s="19" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M410" s="20" t="n"/>
@@ -21634,7 +21626,7 @@
       </c>
       <c r="B411" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C411" s="18" t="inlineStr">
@@ -21644,7 +21636,7 @@
       </c>
       <c r="D411" s="18" t="inlineStr">
         <is>
-          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하는지 확인하며, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
+          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 보안 허브에 Azure Firewall을 배포합니다</t>
         </is>
       </c>
       <c r="E411" s="18" t="n"/>
@@ -21664,11 +21656,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J411" s="13" t="n"/>
-      <c r="K411" s="19" t="n"/>
+      <c r="J411" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K411" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualhubs' | extend compliant = isnotnull(properties.azureFirewall.id) | project id, compliant</t>
+        </is>
+      </c>
       <c r="L411" s="19" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M411" s="20" t="n"/>
@@ -21695,13 +21695,13 @@
       </c>
       <c r="D412" s="18" t="inlineStr">
         <is>
-          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
+          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E412" s="18" t="n"/>
       <c r="F412" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
@@ -21719,7 +21719,7 @@
       <c r="K412" s="19" t="n"/>
       <c r="L412" s="19" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M412" s="20" t="n"/>
@@ -21736,23 +21736,23 @@
       </c>
       <c r="B413" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C413" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D413" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 관련 정책을 그룹화하고, 환경에 대한 컨트롤을 정의합니다.</t>
+          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
         </is>
       </c>
       <c r="E413" s="18" t="n"/>
       <c r="F413" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
@@ -21770,7 +21770,7 @@
       <c r="K413" s="19" t="n"/>
       <c r="L413" s="19" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M413" s="20" t="n"/>
@@ -21787,17 +21787,17 @@
       </c>
       <c r="B414" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C414" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D414" s="18" t="inlineStr">
         <is>
-          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용을 적용합니다.</t>
+          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="E414" s="18" t="n"/>
@@ -21821,7 +21821,7 @@
       <c r="K414" s="19" t="n"/>
       <c r="L414" s="19" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M414" s="20" t="n"/>
@@ -21838,17 +21838,17 @@
       </c>
       <c r="B415" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C415" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D415" s="18" t="inlineStr">
         <is>
-          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
+          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
         </is>
       </c>
       <c r="E415" s="18" t="n"/>
@@ -21872,7 +21872,7 @@
       <c r="K415" s="19" t="n"/>
       <c r="L415" s="19" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M415" s="20" t="n"/>
@@ -21889,17 +21889,17 @@
       </c>
       <c r="B416" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C416" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D416" s="18" t="inlineStr">
         <is>
-          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
+          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하는지 확인하며, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
         </is>
       </c>
       <c r="E416" s="18" t="n"/>
@@ -21923,7 +21923,7 @@
       <c r="K416" s="19" t="n"/>
       <c r="L416" s="19" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M416" s="20" t="n"/>
@@ -21940,23 +21940,23 @@
       </c>
       <c r="B417" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C417" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D417" s="18" t="inlineStr">
         <is>
-          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
+          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
         </is>
       </c>
       <c r="E417" s="18" t="n"/>
       <c r="F417" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
@@ -21974,7 +21974,7 @@
       <c r="K417" s="19" t="n"/>
       <c r="L417" s="19" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M417" s="20" t="n"/>
@@ -22001,13 +22001,13 @@
       </c>
       <c r="D418" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
+          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 관련 정책을 그룹화하고, 환경에 대한 컨트롤을 정의합니다.</t>
         </is>
       </c>
       <c r="E418" s="18" t="n"/>
       <c r="F418" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
@@ -22025,7 +22025,7 @@
       <c r="K418" s="19" t="n"/>
       <c r="L418" s="19" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M418" s="20" t="n"/>
@@ -22052,7 +22052,7 @@
       </c>
       <c r="D419" s="18" t="inlineStr">
         <is>
-          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
+          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용을 적용합니다.</t>
         </is>
       </c>
       <c r="E419" s="18" t="n"/>
@@ -22076,7 +22076,7 @@
       <c r="K419" s="19" t="n"/>
       <c r="L419" s="19" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M419" s="20" t="n"/>
@@ -22103,14 +22103,10 @@
       </c>
       <c r="D420" s="18" t="inlineStr">
         <is>
-          <t>특정 범위에서 기본 제공 Resource Policy 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
-        </is>
-      </c>
-      <c r="E420" s="18" t="inlineStr">
-        <is>
-          <t>특정 범위에 Resource Policy Contributor 역할을 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 응용 프로그램 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하는 분산 거버넌스를 가능하게 할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
+        </is>
+      </c>
+      <c r="E420" s="18" t="n"/>
       <c r="F420" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -22131,7 +22127,7 @@
       <c r="K420" s="19" t="n"/>
       <c r="L420" s="19" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M420" s="20" t="n"/>
@@ -22158,7 +22154,7 @@
       </c>
       <c r="D421" s="18" t="inlineStr">
         <is>
-          <t>상속된 범위에서 제외를 통해 관리하지 않도록 루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한합니다.</t>
+          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
         </is>
       </c>
       <c r="E421" s="18" t="n"/>
@@ -22182,7 +22178,7 @@
       <c r="K421" s="19" t="n"/>
       <c r="L421" s="19" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M421" s="20" t="n"/>
@@ -22209,7 +22205,7 @@
       </c>
       <c r="D422" s="18" t="inlineStr">
         <is>
-          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
+          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
         </is>
       </c>
       <c r="E422" s="18" t="n"/>
@@ -22229,15 +22225,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J422" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+      <c r="J422" s="13" t="n"/>
       <c r="K422" s="19" t="n"/>
       <c r="L422" s="19" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M422" s="20" t="n"/>
@@ -22264,13 +22256,13 @@
       </c>
       <c r="D423" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 주권 정책 기준의 정책 이니셔티브가 배포되고 올바른 MG 수준에서 할당됩니다.</t>
+          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
         </is>
       </c>
       <c r="E423" s="18" t="n"/>
       <c r="F423" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
@@ -22288,7 +22280,7 @@
       <c r="K423" s="19" t="n"/>
       <c r="L423" s="19" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M423" s="20" t="n"/>
@@ -22315,7 +22307,7 @@
       </c>
       <c r="D424" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 정책 매핑에 대한 주권 제어 목표가 문서화되어 있습니다.</t>
+          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
         </is>
       </c>
       <c r="E424" s="18" t="n"/>
@@ -22339,7 +22331,7 @@
       <c r="K424" s="19" t="n"/>
       <c r="L424" s="19" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M424" s="20" t="n"/>
@@ -22366,10 +22358,14 @@
       </c>
       <c r="D425" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 '정책 매핑에 대한 Sovereign Control 목표'의 CRUD에 대한 프로세스가 마련되어 있습니다.</t>
-        </is>
-      </c>
-      <c r="E425" s="18" t="n"/>
+          <t>특정 범위에서 기본 제공 Resource Policy 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
+        </is>
+      </c>
+      <c r="E425" s="18" t="inlineStr">
+        <is>
+          <t>특정 범위에 Resource Policy Contributor 역할을 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 응용 프로그램 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하는 분산 거버넌스를 가능하게 할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="F425" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -22381,12 +22377,16 @@
         </is>
       </c>
       <c r="H425" s="18" t="n"/>
-      <c r="I425" s="13" t="n"/>
+      <c r="I425" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J425" s="13" t="n"/>
       <c r="K425" s="19" t="n"/>
       <c r="L425" s="19" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M425" s="20" t="n"/>
@@ -22408,18 +22408,18 @@
       </c>
       <c r="C426" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D426" s="18" t="inlineStr">
         <is>
-          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
+          <t>상속된 범위에서 제외를 통해 관리하지 않도록 루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한합니다.</t>
         </is>
       </c>
       <c r="E426" s="18" t="n"/>
       <c r="F426" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
@@ -22437,7 +22437,7 @@
       <c r="K426" s="19" t="n"/>
       <c r="L426" s="19" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M426" s="20" t="n"/>
@@ -22454,17 +22454,17 @@
       </c>
       <c r="B427" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C427" s="18" t="inlineStr">
         <is>
-          <t>VMSS</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D427" s="18" t="inlineStr">
         <is>
-          <t>Azure Virtual Machine Scale Sets를 활용하여 부하에 따라 스케일 인 및 스케일 아웃합니다.</t>
+          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
         </is>
       </c>
       <c r="E427" s="18" t="n"/>
@@ -22484,11 +22484,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J427" s="13" t="n"/>
+      <c r="J427" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+        </is>
+      </c>
       <c r="K427" s="19" t="n"/>
       <c r="L427" s="19" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M427" s="20" t="n"/>
@@ -22505,23 +22509,23 @@
       </c>
       <c r="B428" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C428" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D428" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 WAF 로그를 저장하는 진단 설정을 추가합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
+          <t>Sovereign Landing Zone의 경우 주권 정책 기준의 정책 이니셔티브가 배포되고 올바른 MG 수준에서 할당됩니다.</t>
         </is>
       </c>
       <c r="E428" s="18" t="n"/>
       <c r="F428" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
@@ -22539,7 +22543,7 @@
       <c r="K428" s="19" t="n"/>
       <c r="L428" s="19" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M428" s="20" t="n"/>
@@ -22556,17 +22560,17 @@
       </c>
       <c r="B429" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C429" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D429" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 Microsoft Sentinel로 WAF 로그를 보냅니다. 공격을 감지하고 WAF 원격 분석을 전체 Azure 환경에 통합합니다.</t>
+          <t>Sovereign Landing Zone의 경우 정책 매핑에 대한 주권 제어 목표가 문서화되어 있습니다.</t>
         </is>
       </c>
       <c r="E429" s="18" t="n"/>
@@ -22590,7 +22594,7 @@
       <c r="K429" s="19" t="n"/>
       <c r="L429" s="19" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M429" s="20" t="n"/>
@@ -22607,17 +22611,17 @@
       </c>
       <c r="B430" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C430" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D430" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup을 사용하는 경우 기본 설정은 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
+          <t>Sovereign Landing Zone의 경우 '정책 매핑에 대한 Sovereign Control 목표'의 CRUD에 대한 프로세스가 마련되어 있습니다.</t>
         </is>
       </c>
       <c r="E430" s="18" t="n"/>
@@ -22632,16 +22636,12 @@
         </is>
       </c>
       <c r="H430" s="18" t="n"/>
-      <c r="I430" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I430" s="13" t="n"/>
       <c r="J430" s="13" t="n"/>
       <c r="K430" s="19" t="n"/>
       <c r="L430" s="19" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M430" s="20" t="n"/>
@@ -22658,23 +22658,23 @@
       </c>
       <c r="B431" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C431" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D431" s="18" t="inlineStr">
         <is>
-          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
+          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E431" s="18" t="n"/>
       <c r="F431" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
@@ -22688,15 +22688,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J431" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="J431" s="13" t="n"/>
       <c r="K431" s="19" t="n"/>
       <c r="L431" s="19" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M431" s="20" t="n"/>
@@ -22713,17 +22709,17 @@
       </c>
       <c r="B432" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C432" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VMSS</t>
         </is>
       </c>
       <c r="D432" s="18" t="inlineStr">
         <is>
-          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 보관된 상태로 데이터를 보관할 수 있습니다.</t>
+          <t>Azure Virtual Machine Scale Sets를 활용하여 부하에 따라 스케일 인 및 스케일 아웃합니다.</t>
         </is>
       </c>
       <c r="E432" s="18" t="n"/>
@@ -22743,15 +22739,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J432" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="J432" s="13" t="n"/>
       <c r="K432" s="19" t="n"/>
       <c r="L432" s="19" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M432" s="20" t="n"/>
@@ -22773,18 +22765,18 @@
       </c>
       <c r="C433" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D433" s="18" t="inlineStr">
         <is>
-          <t>액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 WAF 로그를 저장하는 진단 설정을 추가합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
         </is>
       </c>
       <c r="E433" s="18" t="n"/>
       <c r="F433" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
@@ -22798,15 +22790,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J433" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
-        </is>
-      </c>
+      <c r="J433" s="13" t="n"/>
       <c r="K433" s="19" t="n"/>
       <c r="L433" s="19" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M433" s="20" t="n"/>
@@ -22828,12 +22816,12 @@
       </c>
       <c r="C434" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D434" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 Microsoft Sentinel로 WAF 로그를 보냅니다. 공격을 감지하고 WAF 원격 분석을 전체 Azure 환경에 통합합니다.</t>
         </is>
       </c>
       <c r="E434" s="18" t="n"/>
@@ -22853,15 +22841,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J434" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="J434" s="13" t="n"/>
       <c r="K434" s="19" t="n"/>
       <c r="L434" s="19" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M434" s="20" t="n"/>
@@ -22878,17 +22862,17 @@
       </c>
       <c r="B435" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C435" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D435" s="18" t="inlineStr">
         <is>
-          <t>Azure에서 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다.</t>
+          <t>Azure Backup을 사용하는 경우 기본 설정은 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
         </is>
       </c>
       <c r="E435" s="18" t="n"/>
@@ -22908,15 +22892,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J435" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
+      <c r="J435" s="13" t="n"/>
       <c r="K435" s="19" t="n"/>
       <c r="L435" s="19" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M435" s="20" t="n"/>
@@ -22938,12 +22918,12 @@
       </c>
       <c r="C436" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D436" s="18" t="inlineStr">
         <is>
-          <t>Azure Arc를 사용하여 Azure 외부의 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다.</t>
+          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
         </is>
       </c>
       <c r="E436" s="18" t="n"/>
@@ -22965,13 +22945,13 @@
       </c>
       <c r="J436" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="K436" s="19" t="n"/>
       <c r="L436" s="19" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M436" s="20" t="n"/>
@@ -22993,12 +22973,12 @@
       </c>
       <c r="C437" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D437" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
+          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 보관된 상태로 데이터를 보관할 수 있습니다.</t>
         </is>
       </c>
       <c r="E437" s="18" t="n"/>
@@ -23020,13 +23000,13 @@
       </c>
       <c r="J437" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="K437" s="19" t="n"/>
       <c r="L437" s="19" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M437" s="20" t="n"/>
@@ -23048,12 +23028,12 @@
       </c>
       <c r="C438" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D438" s="18" t="inlineStr">
         <is>
-          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
+          <t>액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다.</t>
         </is>
       </c>
       <c r="E438" s="18" t="n"/>
@@ -23073,11 +23053,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J438" s="13" t="n"/>
+      <c r="J438" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+        </is>
+      </c>
       <c r="K438" s="19" t="n"/>
       <c r="L438" s="19" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M438" s="20" t="n"/>
@@ -23099,12 +23083,12 @@
       </c>
       <c r="C439" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D439" s="18" t="inlineStr">
         <is>
-          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
+          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="E439" s="18" t="n"/>
@@ -23124,11 +23108,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J439" s="13" t="n"/>
+      <c r="J439" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K439" s="19" t="n"/>
       <c r="L439" s="19" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M439" s="20" t="n"/>
@@ -23150,12 +23138,12 @@
       </c>
       <c r="C440" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D440" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
+          <t>Azure에서 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다.</t>
         </is>
       </c>
       <c r="E440" s="18" t="n"/>
@@ -23175,11 +23163,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J440" s="13" t="n"/>
+      <c r="J440" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+        </is>
+      </c>
       <c r="K440" s="19" t="n"/>
       <c r="L440" s="19" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M440" s="20" t="n"/>
@@ -23201,12 +23193,12 @@
       </c>
       <c r="C441" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D441" s="18" t="inlineStr">
         <is>
-          <t>Azure Automation 계정을 통해 변경 및 인벤토리 추적을 사용하는 경우 Log Analytics 작업 영역과 자동화 계정을 함께 연결하기 위해 지원되는 지역을 선택했는지 확인합니다.</t>
+          <t>Azure Arc를 사용하여 Azure 외부의 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다.</t>
         </is>
       </c>
       <c r="E441" s="18" t="n"/>
@@ -23226,11 +23218,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J441" s="13" t="n"/>
+      <c r="J441" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+        </is>
+      </c>
       <c r="K441" s="19" t="n"/>
       <c r="L441" s="19" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M441" s="20" t="n"/>
@@ -23247,17 +23243,17 @@
       </c>
       <c r="B442" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C442" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Network Watcher</t>
         </is>
       </c>
       <c r="D442" s="18" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
+          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
         </is>
       </c>
       <c r="E442" s="18" t="n"/>
@@ -23277,11 +23273,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J442" s="13" t="n"/>
+      <c r="J442" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+        </is>
+      </c>
       <c r="K442" s="19" t="n"/>
       <c r="L442" s="19" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M442" s="20" t="n"/>
@@ -23298,24 +23298,20 @@
       </c>
       <c r="B443" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C443" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D443" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
-        </is>
-      </c>
-      <c r="E443" s="18" t="inlineStr">
-        <is>
-          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
+        </is>
+      </c>
+      <c r="E443" s="18" t="n"/>
       <c r="F443" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -23336,7 +23332,7 @@
       <c r="K443" s="19" t="n"/>
       <c r="L443" s="19" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M443" s="20" t="n"/>
@@ -23358,12 +23354,12 @@
       </c>
       <c r="C444" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D444" s="18" t="inlineStr">
         <is>
-          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
+          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
         </is>
       </c>
       <c r="E444" s="18" t="n"/>
@@ -23387,7 +23383,7 @@
       <c r="K444" s="19" t="n"/>
       <c r="L444" s="19" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M444" s="20" t="n"/>
@@ -23409,12 +23405,12 @@
       </c>
       <c r="C445" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D445" s="18" t="inlineStr">
         <is>
-          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
+          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
         </is>
       </c>
       <c r="E445" s="18" t="n"/>
@@ -23438,7 +23434,7 @@
       <c r="K445" s="19" t="n"/>
       <c r="L445" s="19" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M445" s="20" t="n"/>
@@ -23455,23 +23451,23 @@
       </c>
       <c r="B446" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C446" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D446" s="18" t="inlineStr">
         <is>
-          <t>VM이 지원되는 지역에서 VM에 대한 가용성 영역을 활용합니다.</t>
+          <t>Azure Automation 계정을 통해 변경 및 인벤토리 추적을 사용하는 경우 Log Analytics 작업 영역과 자동화 계정을 함께 연결하기 위해 지원되는 지역을 선택했는지 확인합니다.</t>
         </is>
       </c>
       <c r="E446" s="18" t="n"/>
       <c r="F446" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
@@ -23489,7 +23485,7 @@
       <c r="K446" s="19" t="n"/>
       <c r="L446" s="19" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M446" s="20" t="n"/>
@@ -23506,7 +23502,7 @@
       </c>
       <c r="B447" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C447" s="18" t="inlineStr">
@@ -23516,13 +23512,13 @@
       </c>
       <c r="D447" s="18" t="inlineStr">
         <is>
-          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="E447" s="18" t="n"/>
       <c r="F447" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
@@ -23540,7 +23536,7 @@
       <c r="K447" s="19" t="n"/>
       <c r="L447" s="19" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M447" s="20" t="n"/>
@@ -23557,7 +23553,7 @@
       </c>
       <c r="B448" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C448" s="18" t="inlineStr">
@@ -23567,10 +23563,14 @@
       </c>
       <c r="D448" s="18" t="inlineStr">
         <is>
-          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
-        </is>
-      </c>
-      <c r="E448" s="18" t="n"/>
+          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+        </is>
+      </c>
+      <c r="E448" s="18" t="inlineStr">
+        <is>
+          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="F448" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -23591,7 +23591,7 @@
       <c r="K448" s="19" t="n"/>
       <c r="L448" s="19" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M448" s="20" t="n"/>
@@ -23608,23 +23608,23 @@
       </c>
       <c r="B449" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C449" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D449" s="18" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
         </is>
       </c>
       <c r="E449" s="18" t="n"/>
       <c r="F449" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -23642,7 +23642,7 @@
       <c r="K449" s="19" t="n"/>
       <c r="L449" s="19" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M449" s="20" t="n"/>
@@ -23659,17 +23659,17 @@
       </c>
       <c r="B450" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C450" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D450" s="18" t="inlineStr">
         <is>
-          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
+          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
         </is>
       </c>
       <c r="E450" s="18" t="n"/>
@@ -23690,14 +23690,10 @@
         </is>
       </c>
       <c r="J450" s="13" t="n"/>
-      <c r="K450" s="19" t="inlineStr">
-        <is>
-          <t>ResourceContainers | where type=='microsoft.resources/subscriptions'| parse id with '/subscriptions/' SubscriptionID| project subscriptionId, SubscriptionName = name| join kind=leftouter (Resources| where type == 'microsoft.keyvault/vaults'| project id, name, subscriptionId) on subscriptionId| join kind= leftouter (Resources| where type == 'microsoft.keyvault/vaults'| summarize ResourceCount = count() by subscriptionId) on subscriptionId| extend RCount = iff(isnull(ResourceCount), 0, ResourceCount)| project-away ResourceCount| extend compliant = (RCount &lt;&gt; 1)</t>
-        </is>
-      </c>
+      <c r="K450" s="19" t="n"/>
       <c r="L450" s="19" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M450" s="20" t="n"/>
@@ -23714,23 +23710,23 @@
       </c>
       <c r="B451" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C451" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D451" s="18" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
+          <t>VM이 지원되는 지역에서 VM에 대한 가용성 영역을 활용합니다.</t>
         </is>
       </c>
       <c r="E451" s="18" t="n"/>
       <c r="F451" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
@@ -23748,7 +23744,7 @@
       <c r="K451" s="19" t="n"/>
       <c r="L451" s="19" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M451" s="20" t="n"/>
@@ -23765,23 +23761,23 @@
       </c>
       <c r="B452" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C452" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D452" s="18" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
         </is>
       </c>
       <c r="E452" s="18" t="n"/>
       <c r="F452" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
@@ -23799,7 +23795,7 @@
       <c r="K452" s="19" t="n"/>
       <c r="L452" s="19" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M452" s="20" t="n"/>
@@ -23816,17 +23812,17 @@
       </c>
       <c r="B453" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C453" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D453" s="18" t="inlineStr">
         <is>
-          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
+          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
         </is>
       </c>
       <c r="E453" s="18" t="n"/>
@@ -23850,7 +23846,7 @@
       <c r="K453" s="19" t="n"/>
       <c r="L453" s="19" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M453" s="20" t="n"/>
@@ -23877,13 +23873,13 @@
       </c>
       <c r="D454" s="18" t="inlineStr">
         <is>
-          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="E454" s="18" t="n"/>
       <c r="F454" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
@@ -23901,7 +23897,7 @@
       <c r="K454" s="19" t="n"/>
       <c r="L454" s="19" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M454" s="20" t="n"/>
@@ -23928,7 +23924,7 @@
       </c>
       <c r="D455" s="18" t="inlineStr">
         <is>
-          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
+          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
         </is>
       </c>
       <c r="E455" s="18" t="n"/>
@@ -23949,10 +23945,14 @@
         </is>
       </c>
       <c r="J455" s="13" t="n"/>
-      <c r="K455" s="19" t="n"/>
+      <c r="K455" s="19" t="inlineStr">
+        <is>
+          <t>ResourceContainers | where type=='microsoft.resources/subscriptions'| parse id with '/subscriptions/' SubscriptionID| project subscriptionId, SubscriptionName = name| join kind=leftouter (Resources| where type == 'microsoft.keyvault/vaults'| project id, name, subscriptionId) on subscriptionId| join kind= leftouter (Resources| where type == 'microsoft.keyvault/vaults'| summarize ResourceCount = count() by subscriptionId) on subscriptionId| extend RCount = iff(isnull(ResourceCount), 0, ResourceCount)| project-away ResourceCount| extend compliant = (RCount &lt;&gt; 1)</t>
+        </is>
+      </c>
       <c r="L455" s="19" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M455" s="20" t="n"/>
@@ -23979,7 +23979,7 @@
       </c>
       <c r="D456" s="18" t="inlineStr">
         <is>
-          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
         </is>
       </c>
       <c r="E456" s="18" t="n"/>
@@ -24003,7 +24003,7 @@
       <c r="K456" s="19" t="n"/>
       <c r="L456" s="19" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M456" s="20" t="n"/>
@@ -24030,7 +24030,7 @@
       </c>
       <c r="D457" s="18" t="inlineStr">
         <is>
-          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
+          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="E457" s="18" t="n"/>
@@ -24054,7 +24054,7 @@
       <c r="K457" s="19" t="n"/>
       <c r="L457" s="19" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M457" s="20" t="n"/>
@@ -24081,7 +24081,7 @@
       </c>
       <c r="D458" s="18" t="inlineStr">
         <is>
-          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
         </is>
       </c>
       <c r="E458" s="18" t="n"/>
@@ -24105,7 +24105,7 @@
       <c r="K458" s="19" t="n"/>
       <c r="L458" s="19" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M458" s="20" t="n"/>
@@ -24132,7 +24132,7 @@
       </c>
       <c r="D459" s="18" t="inlineStr">
         <is>
-          <t>자체 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
+          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="E459" s="18" t="n"/>
@@ -24156,7 +24156,7 @@
       <c r="K459" s="19" t="n"/>
       <c r="L459" s="19" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M459" s="20" t="n"/>
@@ -24183,7 +24183,7 @@
       </c>
       <c r="D460" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Azure Key Vault 관리형 HSM을 사용하여 비밀 및 자격 증명을 저장합니다.</t>
+          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="E460" s="18" t="n"/>
@@ -24207,7 +24207,7 @@
       <c r="K460" s="19" t="n"/>
       <c r="L460" s="19" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M460" s="20" t="n"/>
@@ -24229,12 +24229,12 @@
       </c>
       <c r="C461" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D461" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
+          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
         </is>
       </c>
       <c r="E461" s="18" t="n"/>
@@ -24258,7 +24258,7 @@
       <c r="K461" s="19" t="n"/>
       <c r="L461" s="19" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M461" s="20" t="n"/>
@@ -24280,18 +24280,18 @@
       </c>
       <c r="C462" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D462" s="18" t="inlineStr">
         <is>
-          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
+          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="E462" s="18" t="n"/>
       <c r="F462" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
@@ -24309,7 +24309,7 @@
       <c r="K462" s="19" t="n"/>
       <c r="L462" s="19" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M462" s="20" t="n"/>
@@ -24331,18 +24331,18 @@
       </c>
       <c r="C463" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D463" s="18" t="inlineStr">
         <is>
-          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
         </is>
       </c>
       <c r="E463" s="18" t="n"/>
       <c r="F463" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
@@ -24360,7 +24360,7 @@
       <c r="K463" s="19" t="n"/>
       <c r="L463" s="19" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M463" s="20" t="n"/>
@@ -24382,18 +24382,18 @@
       </c>
       <c r="C464" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D464" s="18" t="inlineStr">
         <is>
-          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>자체 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
         </is>
       </c>
       <c r="E464" s="18" t="n"/>
       <c r="F464" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
@@ -24411,7 +24411,7 @@
       <c r="K464" s="19" t="n"/>
       <c r="L464" s="19" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M464" s="20" t="n"/>
@@ -24433,18 +24433,18 @@
       </c>
       <c r="C465" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D465" s="18" t="inlineStr">
         <is>
-          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
+          <t>Sovereign Landing Zone의 경우 Azure Key Vault 관리형 HSM을 사용하여 비밀 및 자격 증명을 저장합니다.</t>
         </is>
       </c>
       <c r="E465" s="18" t="n"/>
       <c r="F465" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
@@ -24462,7 +24462,7 @@
       <c r="K465" s="19" t="n"/>
       <c r="L465" s="19" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M465" s="20" t="n"/>
@@ -24484,12 +24484,12 @@
       </c>
       <c r="C466" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D466" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
+          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
         </is>
       </c>
       <c r="E466" s="18" t="n"/>
@@ -24513,7 +24513,7 @@
       <c r="K466" s="19" t="n"/>
       <c r="L466" s="19" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M466" s="20" t="n"/>
@@ -24535,18 +24535,18 @@
       </c>
       <c r="C467" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D467" s="18" t="inlineStr">
         <is>
-          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
+          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="E467" s="18" t="n"/>
       <c r="F467" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
@@ -24564,7 +24564,7 @@
       <c r="K467" s="19" t="n"/>
       <c r="L467" s="19" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M467" s="20" t="n"/>
@@ -24586,18 +24586,18 @@
       </c>
       <c r="C468" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D468" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 투명 로그가 사용하도록 설정됩니다.</t>
+          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="E468" s="18" t="n"/>
       <c r="F468" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
@@ -24615,7 +24615,7 @@
       <c r="K468" s="19" t="n"/>
       <c r="L468" s="19" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M468" s="20" t="n"/>
@@ -24637,18 +24637,18 @@
       </c>
       <c r="C469" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D469" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 고객 Lockbox를 사용할 수 있습니다.</t>
+          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="E469" s="18" t="n"/>
       <c r="F469" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
@@ -24666,7 +24666,7 @@
       <c r="K469" s="19" t="n"/>
       <c r="L469" s="19" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M469" s="20" t="n"/>
@@ -24688,12 +24688,12 @@
       </c>
       <c r="C470" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D470" s="18" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대한 보안 전송을 사용하도록 설정해야 함</t>
+          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="E470" s="18" t="n"/>
@@ -24717,7 +24717,7 @@
       <c r="K470" s="19" t="n"/>
       <c r="L470" s="19" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M470" s="20" t="n"/>
@@ -24739,18 +24739,18 @@
       </c>
       <c r="C471" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D471" s="18" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너와 해당 콘텐츠를 복구합니다.</t>
+          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="E471" s="18" t="n"/>
       <c r="F471" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
@@ -24768,7 +24768,7 @@
       <c r="K471" s="19" t="n"/>
       <c r="L471" s="19" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M471" s="20" t="n"/>
@@ -24785,23 +24785,23 @@
       </c>
       <c r="B472" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C472" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D472" s="18" t="inlineStr">
         <is>
-          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
+          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
         </is>
       </c>
       <c r="E472" s="18" t="n"/>
       <c r="F472" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
@@ -24819,7 +24819,7 @@
       <c r="K472" s="19" t="n"/>
       <c r="L472" s="19" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M472" s="20" t="n"/>
@@ -24831,28 +24831,28 @@
     <row r="473">
       <c r="A473" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B473" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C473" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D473" s="18" t="inlineStr">
         <is>
-          <t>모범 사례는 기준 고가용성 영역 중복 웹 애플리케이션 아키텍처를 참조하세요.</t>
+          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 투명 로그가 사용하도록 설정됩니다.</t>
         </is>
       </c>
       <c r="E473" s="18" t="n"/>
       <c r="F473" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
@@ -24870,7 +24870,7 @@
       <c r="K473" s="19" t="n"/>
       <c r="L473" s="19" t="inlineStr">
         <is>
-          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M473" s="20" t="n"/>
@@ -24882,22 +24882,22 @@
     <row r="474">
       <c r="A474" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B474" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C474" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D474" s="18" t="inlineStr">
         <is>
-          <t>프리미엄 및 표준 계층을 사용합니다. 이러한 계층은 스테이징 슬롯 및 자동 백업을 지원합니다.</t>
+          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 고객 Lockbox를 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="E474" s="18" t="n"/>
@@ -24921,7 +24921,7 @@
       <c r="K474" s="19" t="n"/>
       <c r="L474" s="19" t="inlineStr">
         <is>
-          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M474" s="20" t="n"/>
@@ -24933,22 +24933,22 @@
     <row r="475">
       <c r="A475" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B475" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C475" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D475" s="18" t="inlineStr">
         <is>
-          <t>지역적으로 적용 가능한 경우 가용성 영역 활용(프리미엄 v2 또는 v3 계층 필요)</t>
+          <t>스토리지 계정에 대한 보안 전송을 사용하도록 설정해야 함</t>
         </is>
       </c>
       <c r="E475" s="18" t="n"/>
@@ -24972,7 +24972,7 @@
       <c r="K475" s="19" t="n"/>
       <c r="L475" s="19" t="inlineStr">
         <is>
-          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M475" s="20" t="n"/>
@@ -24984,28 +24984,28 @@
     <row r="476">
       <c r="A476" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B476" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C476" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D476" s="18" t="inlineStr">
         <is>
-          <t>상태 확인 구현</t>
+          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너와 해당 콘텐츠를 복구합니다.</t>
         </is>
       </c>
       <c r="E476" s="18" t="n"/>
       <c r="F476" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -25023,7 +25023,7 @@
       <c r="K476" s="19" t="n"/>
       <c r="L476" s="19" t="inlineStr">
         <is>
-          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M476" s="20" t="n"/>
@@ -25035,22 +25035,22 @@
     <row r="477">
       <c r="A477" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B477" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C477" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D477" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service에 대한 백업 및 복원 모범 사례를 참조하세요.</t>
+          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="E477" s="18" t="n"/>
@@ -25074,7 +25074,7 @@
       <c r="K477" s="19" t="n"/>
       <c r="L477" s="19" t="inlineStr">
         <is>
-          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M477" s="20" t="n"/>
@@ -25101,13 +25101,13 @@
       </c>
       <c r="D478" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service 안정성 모범 사례 구현</t>
+          <t>모범 사례는 기준 고가용성 영역 중복 웹 애플리케이션 아키텍처를 참조하세요.</t>
         </is>
       </c>
       <c r="E478" s="18" t="n"/>
       <c r="F478" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
@@ -25125,7 +25125,7 @@
       <c r="K478" s="19" t="n"/>
       <c r="L478" s="19" t="inlineStr">
         <is>
-          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
+          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
         </is>
       </c>
       <c r="M478" s="20" t="n"/>
@@ -25152,13 +25152,13 @@
       </c>
       <c r="D479" s="18" t="inlineStr">
         <is>
-          <t>App Service 앱을 다른 지역으로 이동하는 방법을 숙지합니다. 재해가 발생하는 동안</t>
+          <t>프리미엄 및 표준 계층을 사용합니다. 이러한 계층은 스테이징 슬롯 및 자동 백업을 지원합니다.</t>
         </is>
       </c>
       <c r="E479" s="18" t="n"/>
       <c r="F479" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
@@ -25176,7 +25176,7 @@
       <c r="K479" s="19" t="n"/>
       <c r="L479" s="19" t="inlineStr">
         <is>
-          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
+          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
         </is>
       </c>
       <c r="M479" s="20" t="n"/>
@@ -25203,7 +25203,7 @@
       </c>
       <c r="D480" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service의 안정성 지원 숙지</t>
+          <t>지역적으로 적용 가능한 경우 가용성 영역 활용(프리미엄 v2 또는 v3 계층 필요)</t>
         </is>
       </c>
       <c r="E480" s="18" t="n"/>
@@ -25227,7 +25227,7 @@
       <c r="K480" s="19" t="n"/>
       <c r="L480" s="19" t="inlineStr">
         <is>
-          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
+          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
         </is>
       </c>
       <c r="M480" s="20" t="n"/>
@@ -25254,7 +25254,7 @@
       </c>
       <c r="D481" s="18" t="inlineStr">
         <is>
-          <t>App Service 계획에서 실행되는 Function Apps에 대해 "Always On"이 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>상태 확인 구현</t>
         </is>
       </c>
       <c r="E481" s="18" t="n"/>
@@ -25278,7 +25278,7 @@
       <c r="K481" s="19" t="n"/>
       <c r="L481" s="19" t="inlineStr">
         <is>
-          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
+          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
         </is>
       </c>
       <c r="M481" s="20" t="n"/>
@@ -25305,13 +25305,13 @@
       </c>
       <c r="D482" s="18" t="inlineStr">
         <is>
-          <t>상태 검사를 사용하여 App Service 인스턴스 모니터링Monitor App Service instances using Health checks</t>
+          <t>Azure App Service에 대한 백업 및 복원 모범 사례를 참조하세요.</t>
         </is>
       </c>
       <c r="E482" s="18" t="n"/>
       <c r="F482" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
@@ -25329,7 +25329,7 @@
       <c r="K482" s="19" t="n"/>
       <c r="L482" s="19" t="inlineStr">
         <is>
-          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
+          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
         </is>
       </c>
       <c r="M482" s="20" t="n"/>
@@ -25356,13 +25356,13 @@
       </c>
       <c r="D483" s="18" t="inlineStr">
         <is>
-          <t>Application Insights 가용성 테스트를 사용하여 웹앱 또는 웹 사이트의 가용성 및 응답성 모니터링</t>
+          <t>Azure App Service 안정성 모범 사례 구현</t>
         </is>
       </c>
       <c r="E483" s="18" t="n"/>
       <c r="F483" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
@@ -25380,7 +25380,7 @@
       <c r="K483" s="19" t="n"/>
       <c r="L483" s="19" t="inlineStr">
         <is>
-          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
+          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
         </is>
       </c>
       <c r="M483" s="20" t="n"/>
@@ -25407,7 +25407,7 @@
       </c>
       <c r="D484" s="18" t="inlineStr">
         <is>
-          <t>Application Insights 표준 테스트를 사용하여 웹앱 또는 웹 사이트의 가용성 및 응답성 모니터링</t>
+          <t>App Service 앱을 다른 지역으로 이동하는 방법을 숙지합니다. 재해가 발생하는 동안</t>
         </is>
       </c>
       <c r="E484" s="18" t="n"/>
@@ -25431,7 +25431,7 @@
       <c r="K484" s="19" t="n"/>
       <c r="L484" s="19" t="inlineStr">
         <is>
-          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
+          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
         </is>
       </c>
       <c r="M484" s="20" t="n"/>
@@ -25448,7 +25448,7 @@
       </c>
       <c r="B485" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C485" s="18" t="inlineStr">
@@ -25458,14 +25458,10 @@
       </c>
       <c r="D485" s="18" t="inlineStr">
         <is>
-          <t>Key Vault를 사용하여 비밀 저장</t>
-        </is>
-      </c>
-      <c r="E485" s="18" t="inlineStr">
-        <is>
-          <t>Azure Key Vault를 사용하여 애플리케이션에 필요한 모든 비밀을 저장합니다.  Key Vault는 비밀을 저장하기 위한 안전하고 감사된 환경을 제공하며 Key Vault SDK 또는 App Service Key Vault 참조를 통해 App Service와 잘 통합됩니다.</t>
-        </is>
-      </c>
+          <t>Azure App Service의 안정성 지원 숙지</t>
+        </is>
+      </c>
+      <c r="E485" s="18" t="n"/>
       <c r="F485" s="18" t="inlineStr">
         <is>
           <t>높다</t>
@@ -25486,7 +25482,7 @@
       <c r="K485" s="19" t="n"/>
       <c r="L485" s="19" t="inlineStr">
         <is>
-          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
+          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
         </is>
       </c>
       <c r="M485" s="20" t="n"/>
@@ -25503,7 +25499,7 @@
       </c>
       <c r="B486" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C486" s="18" t="inlineStr">
@@ -25513,17 +25509,13 @@
       </c>
       <c r="D486" s="18" t="inlineStr">
         <is>
-          <t>관리 ID를 사용하여 Key Vault에 연결</t>
-        </is>
-      </c>
-      <c r="E486" s="18" t="inlineStr">
-        <is>
-          <t>관리 ID를 사용하여 Key Vault SDK를 사용하거나 App Service Key Vault 참조를 통해 Key Vault에 연결합니다.</t>
-        </is>
-      </c>
+          <t>App Service 계획에서 실행되는 Function Apps에 대해 "Always On"이 사용하도록 설정되어 있는지 확인합니다.</t>
+        </is>
+      </c>
+      <c r="E486" s="18" t="n"/>
       <c r="F486" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
@@ -25541,7 +25533,7 @@
       <c r="K486" s="19" t="n"/>
       <c r="L486" s="19" t="inlineStr">
         <is>
-          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
+          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
         </is>
       </c>
       <c r="M486" s="20" t="n"/>
@@ -25558,7 +25550,7 @@
       </c>
       <c r="B487" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C487" s="18" t="inlineStr">
@@ -25568,17 +25560,13 @@
       </c>
       <c r="D487" s="18" t="inlineStr">
         <is>
-          <t>Key Vault를 사용하여 TLS 인증서를 저장합니다.</t>
-        </is>
-      </c>
-      <c r="E487" s="18" t="inlineStr">
-        <is>
-          <t>App Service TLS 인증서를 Key Vault에 저장합니다.</t>
-        </is>
-      </c>
+          <t>상태 검사를 사용하여 App Service 인스턴스 모니터링Monitor App Service instances using Health checks</t>
+        </is>
+      </c>
+      <c r="E487" s="18" t="n"/>
       <c r="F487" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
@@ -25596,7 +25584,7 @@
       <c r="K487" s="19" t="n"/>
       <c r="L487" s="19" t="inlineStr">
         <is>
-          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
+          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
         </is>
       </c>
       <c r="M487" s="20" t="n"/>
@@ -25613,7 +25601,7 @@
       </c>
       <c r="B488" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C488" s="18" t="inlineStr">
@@ -25623,14 +25611,10 @@
       </c>
       <c r="D488" s="18" t="inlineStr">
         <is>
-          <t>민감한 정보를 처리하는 시스템 격리</t>
-        </is>
-      </c>
-      <c r="E488" s="18" t="inlineStr">
-        <is>
-          <t>중요한 정보를 처리하는 시스템은 격리해야 합니다.  이렇게 하려면 별도의 App Service 계획 또는 App Service Environment를 사용하고 다른 구독 또는 관리 그룹을 사용하는 것이 좋습니다.</t>
-        </is>
-      </c>
+          <t>Application Insights 가용성 테스트를 사용하여 웹앱 또는 웹 사이트의 가용성 및 응답성 모니터링</t>
+        </is>
+      </c>
+      <c r="E488" s="18" t="n"/>
       <c r="F488" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -25651,7 +25635,7 @@
       <c r="K488" s="19" t="n"/>
       <c r="L488" s="19" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
+          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
         </is>
       </c>
       <c r="M488" s="20" t="n"/>
@@ -25668,7 +25652,7 @@
       </c>
       <c r="B489" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C489" s="18" t="inlineStr">
@@ -25678,17 +25662,13 @@
       </c>
       <c r="D489" s="18" t="inlineStr">
         <is>
-          <t>로컬 디스크에 중요한 데이터를 저장하지 마십시오.</t>
-        </is>
-      </c>
-      <c r="E489" s="18" t="inlineStr">
-        <is>
-          <t>App Service의 로컬 디스크는 암호화되지 않으며 중요한 데이터를 저장해서는 안 됩니다.  (예: D:\\Local and %TMP%).</t>
-        </is>
-      </c>
+          <t>Application Insights 표준 테스트를 사용하여 웹앱 또는 웹 사이트의 가용성 및 응답성 모니터링</t>
+        </is>
+      </c>
+      <c r="E489" s="18" t="n"/>
       <c r="F489" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
@@ -25706,7 +25686,7 @@
       <c r="K489" s="19" t="n"/>
       <c r="L489" s="19" t="inlineStr">
         <is>
-          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
+          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
         </is>
       </c>
       <c r="M489" s="20" t="n"/>
@@ -25733,17 +25713,17 @@
       </c>
       <c r="D490" s="18" t="inlineStr">
         <is>
-          <t>인증에 설정된 ID 공급자 사용</t>
+          <t>Key Vault를 사용하여 비밀 저장</t>
         </is>
       </c>
       <c r="E490" s="18" t="inlineStr">
         <is>
-          <t>인증된 웹 애플리케이션의 경우 Azure AD 또는 Azure AD B2C와 같이 잘 설정된 ID 공급자를 사용합니다.  선택한 애플리케이션 프레임워크를 활용하여 이 공급자와 통합하거나 App Service 인증/권한 부여 기능을 사용합니다.</t>
+          <t>Azure Key Vault를 사용하여 애플리케이션에 필요한 모든 비밀을 저장합니다.  Key Vault는 비밀을 저장하기 위한 안전하고 감사된 환경을 제공하며 Key Vault SDK 또는 App Service Key Vault 참조를 통해 App Service와 잘 통합됩니다.</t>
         </is>
       </c>
       <c r="F490" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
@@ -25761,7 +25741,7 @@
       <c r="K490" s="19" t="n"/>
       <c r="L490" s="19" t="inlineStr">
         <is>
-          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
+          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
         </is>
       </c>
       <c r="M490" s="20" t="n"/>
@@ -25788,12 +25768,12 @@
       </c>
       <c r="D491" s="18" t="inlineStr">
         <is>
-          <t>신뢰할 수 있는 환경에서 배포</t>
+          <t>관리 ID를 사용하여 Key Vault에 연결</t>
         </is>
       </c>
       <c r="E491" s="18" t="inlineStr">
         <is>
-          <t>잘 관리되고 안전한 DevOps 배포 파이프라인과 같이 제어되고 신뢰할 수 있는 환경에서 App Service에 코드를 배포합니다. 이렇게 하면 버전이 제어되지 않고 악성 호스트에서 배포되는 것으로 확인되지 않은 코드를 방지할 수 있습니다.</t>
+          <t>관리 ID를 사용하여 Key Vault SDK를 사용하거나 App Service Key Vault 참조를 통해 Key Vault에 연결합니다.</t>
         </is>
       </c>
       <c r="F491" s="18" t="inlineStr">
@@ -25816,7 +25796,7 @@
       <c r="K491" s="19" t="n"/>
       <c r="L491" s="19" t="inlineStr">
         <is>
-          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
+          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
         </is>
       </c>
       <c r="M491" s="20" t="n"/>
@@ -25843,12 +25823,12 @@
       </c>
       <c r="D492" s="18" t="inlineStr">
         <is>
-          <t>기본 인증 사용 안 함</t>
+          <t>Key Vault를 사용하여 TLS 인증서를 저장합니다.</t>
         </is>
       </c>
       <c r="E492" s="18" t="inlineStr">
         <is>
-          <t>FTP/FTPS 및 WebDeploy/SCM 모두에 대한 기본 인증을 사용 안함으로 설정합니다.  이렇게 하면 이러한 서비스에 대한 액세스가 비활성화되고 배포에 Azure AD 보안 엔드포인트가 사용됩니다.  SCM 사이트는 Azure AD 자격 증명을 사용하여 열 수도 있습니다.</t>
+          <t>App Service TLS 인증서를 Key Vault에 저장합니다.</t>
         </is>
       </c>
       <c r="F492" s="18" t="inlineStr">
@@ -25871,7 +25851,7 @@
       <c r="K492" s="19" t="n"/>
       <c r="L492" s="19" t="inlineStr">
         <is>
-          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
+          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
         </is>
       </c>
       <c r="M492" s="20" t="n"/>
@@ -25898,17 +25878,17 @@
       </c>
       <c r="D493" s="18" t="inlineStr">
         <is>
-          <t>관리 ID를 사용하여 리소스에 연결</t>
+          <t>민감한 정보를 처리하는 시스템 격리</t>
         </is>
       </c>
       <c r="E493" s="18" t="inlineStr">
         <is>
-          <t>가능한 경우 관리 ID를 사용하여 Azure AD 보안 리소스에 연결합니다.  이렇게 할 수 없는 경우 Key Vault에 비밀을 저장하고 대신 관리 ID를 사용하여 Key Vault에 연결합니다.</t>
+          <t>중요한 정보를 처리하는 시스템은 격리해야 합니다.  이렇게 하려면 별도의 App Service 계획 또는 App Service Environment를 사용하고 다른 구독 또는 관리 그룹을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="F493" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
@@ -25926,7 +25906,7 @@
       <c r="K493" s="19" t="n"/>
       <c r="L493" s="19" t="inlineStr">
         <is>
-          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
+          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
         </is>
       </c>
       <c r="M493" s="20" t="n"/>
@@ -25953,17 +25933,17 @@
       </c>
       <c r="D494" s="18" t="inlineStr">
         <is>
-          <t>관리 ID를 사용하여 컨테이너 끌어오기</t>
+          <t>로컬 디스크에 중요한 데이터를 저장하지 마십시오.</t>
         </is>
       </c>
       <c r="E494" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry에 저장된 이미지를 사용하는 경우 관리 ID를 사용하여 끌어옵니다.</t>
+          <t>App Service의 로컬 디스크는 암호화되지 않으며 중요한 데이터를 저장해서는 안 됩니다.  (예: D:\\Local and %TMP%).</t>
         </is>
       </c>
       <c r="F494" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
@@ -25981,7 +25961,7 @@
       <c r="K494" s="19" t="n"/>
       <c r="L494" s="19" t="inlineStr">
         <is>
-          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
+          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M494" s="20" t="n"/>
@@ -26008,12 +25988,12 @@
       </c>
       <c r="D495" s="18" t="inlineStr">
         <is>
-          <t>Log Analytics에 App Service 런타임 로그 보내기Send App Service runtime logs to Log Analytics</t>
+          <t>인증에 설정된 ID 공급자 사용</t>
         </is>
       </c>
       <c r="E495" s="18" t="inlineStr">
         <is>
-          <t>App Service의 진단 설정을 구성하면 모든 원격 분석을 로깅 및 모니터링의 중앙 대상으로 Log Analytics에 보낼 수 있습니다. 이를 통해 HTTP 로그, 애플리케이션 로그, 플랫폼 로그 등과 같은 App Service의 런타임 활동을 모니터링할 수 있습니다.</t>
+          <t>인증된 웹 애플리케이션의 경우 Azure AD 또는 Azure AD B2C와 같이 잘 설정된 ID 공급자를 사용합니다.  선택한 애플리케이션 프레임워크를 활용하여 이 공급자와 통합하거나 App Service 인증/권한 부여 기능을 사용합니다.</t>
         </is>
       </c>
       <c r="F495" s="18" t="inlineStr">
@@ -26036,7 +26016,7 @@
       <c r="K495" s="19" t="n"/>
       <c r="L495" s="19" t="inlineStr">
         <is>
-          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
+          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
         </is>
       </c>
       <c r="M495" s="20" t="n"/>
@@ -26063,17 +26043,17 @@
       </c>
       <c r="D496" s="18" t="inlineStr">
         <is>
-          <t>Log Analytics에 App Service 활동 로그 보내기Send App Service activity logs to Log Analytics</t>
+          <t>신뢰할 수 있는 환경에서 배포</t>
         </is>
       </c>
       <c r="E496" s="18" t="inlineStr">
         <is>
-          <t>활동 로그를 Log Analytics에 로깅 및 모니터링의 중앙 대상으로 보내도록 진단 설정을 지정합니다. 이렇게 하면 App Service 리소스 자체에서 컨트롤 플레인 작업을 모니터링할 수 있습니다.</t>
+          <t>잘 관리되고 안전한 DevOps 배포 파이프라인과 같이 제어되고 신뢰할 수 있는 환경에서 App Service에 코드를 배포합니다. 이렇게 하면 버전이 제어되지 않고 악성 호스트에서 배포되는 것으로 확인되지 않은 코드를 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="F496" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G496" t="inlineStr">
@@ -26091,7 +26071,7 @@
       <c r="K496" s="19" t="n"/>
       <c r="L496" s="19" t="inlineStr">
         <is>
-          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
+          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
         </is>
       </c>
       <c r="M496" s="20" t="n"/>
@@ -26118,17 +26098,17 @@
       </c>
       <c r="D497" s="18" t="inlineStr">
         <is>
-          <t>아웃바운드 네트워크 액세스를 제어해야 함</t>
+          <t>기본 인증 사용 안 함</t>
         </is>
       </c>
       <c r="E497" s="18" t="inlineStr">
         <is>
-          <t>지역 VNet 통합, 네트워크 보안 그룹 및 UDR의 조합을 사용하여 아웃바운드 네트워크 액세스를 제어합니다.  트래픽은 Azure Firewall과 같은 NVA로 라우팅되어야 합니다.  방화벽의 로그를 모니터링해야 합니다.</t>
+          <t>FTP/FTPS 및 WebDeploy/SCM 모두에 대한 기본 인증을 사용 안함으로 설정합니다.  이렇게 하면 이러한 서비스에 대한 액세스가 비활성화되고 배포에 Azure AD 보안 엔드포인트가 사용됩니다.  SCM 사이트는 Azure AD 자격 증명을 사용하여 열 수도 있습니다.</t>
         </is>
       </c>
       <c r="F497" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G497" t="inlineStr">
@@ -26146,7 +26126,7 @@
       <c r="K497" s="19" t="n"/>
       <c r="L497" s="19" t="inlineStr">
         <is>
-          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
+          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
         </is>
       </c>
       <c r="M497" s="20" t="n"/>
@@ -26173,17 +26153,17 @@
       </c>
       <c r="D498" s="18" t="inlineStr">
         <is>
-          <t>인터넷 주소에 대한 아웃바운드 통신을 위한 안정적인 IP 보장</t>
+          <t>관리 ID를 사용하여 리소스에 연결</t>
         </is>
       </c>
       <c r="E498" s="18" t="inlineStr">
         <is>
-          <t>VNet 통합을 사용하고 VNet NAT Gateway 또는 NVA와 같은 Azure Firewall을 사용하여 안정적인 아웃바운드 IP를 제공할 수 있습니다.  이렇게 하면 필요한 경우 수신 당사자가 IP를 기반으로 허용 목록을 만들 수 있습니다.  Azure 서비스에 대한 통신의 경우 IP 주소에 의존할 필요가 없는 경우가 많으며 서비스 엔드포인트와 같은 메커니즘을 대신 사용해야 합니다.  (또한 수신 끝에서 프라이빗 엔드포인트를 사용하면 SNAT가 발생하지 않고 안정적인 아웃바운드 IP 범위를 제공합니다.)</t>
+          <t>가능한 경우 관리 ID를 사용하여 Azure AD 보안 리소스에 연결합니다.  이렇게 할 수 없는 경우 Key Vault에 비밀을 저장하고 대신 관리 ID를 사용하여 Key Vault에 연결합니다.</t>
         </is>
       </c>
       <c r="F498" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G498" t="inlineStr">
@@ -26201,7 +26181,7 @@
       <c r="K498" s="19" t="n"/>
       <c r="L498" s="19" t="inlineStr">
         <is>
-          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
+          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
         </is>
       </c>
       <c r="M498" s="20" t="n"/>
@@ -26228,12 +26208,12 @@
       </c>
       <c r="D499" s="18" t="inlineStr">
         <is>
-          <t>인바운드 네트워크 액세스를 제어해야 합니다.</t>
+          <t>관리 ID를 사용하여 컨테이너 끌어오기</t>
         </is>
       </c>
       <c r="E499" s="18" t="inlineStr">
         <is>
-          <t>App Service 액세스 제한, 서비스 엔드포인트 또는 프라이빗 엔드포인트의 조합을 사용하여 인바운드 네트워크 액세스를 제어합니다. 웹앱 자체 및 SCM 사이트에 대해 서로 다른 액세스 제한이 필요하고 구성될 수 있습니다.</t>
+          <t>Azure Container Registry에 저장된 이미지를 사용하는 경우 관리 ID를 사용하여 끌어옵니다.</t>
         </is>
       </c>
       <c r="F499" s="18" t="inlineStr">
@@ -26256,7 +26236,7 @@
       <c r="K499" s="19" t="n"/>
       <c r="L499" s="19" t="inlineStr">
         <is>
-          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
+          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
         </is>
       </c>
       <c r="M499" s="20" t="n"/>
@@ -26283,17 +26263,17 @@
       </c>
       <c r="D500" s="18" t="inlineStr">
         <is>
-          <t>App Service 앞에서 WAF 사용Use a WAF in front of App Service</t>
+          <t>Log Analytics에 App Service 런타임 로그 보내기Send App Service runtime logs to Log Analytics</t>
         </is>
       </c>
       <c r="E500" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway 또는 Azure Front Door와 같은 Web Application Firewall을 사용하여 악의적인 인바운드 트래픽으로부터 보호합니다.  WAF의 로그를 모니터링해야 합니다.</t>
+          <t>App Service의 진단 설정을 구성하면 모든 원격 분석을 로깅 및 모니터링의 중앙 대상으로 Log Analytics에 보낼 수 있습니다. 이를 통해 HTTP 로그, 애플리케이션 로그, 플랫폼 로그 등과 같은 App Service의 런타임 활동을 모니터링할 수 있습니다.</t>
         </is>
       </c>
       <c r="F500" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
@@ -26311,7 +26291,7 @@
       <c r="K500" s="19" t="n"/>
       <c r="L500" s="19" t="inlineStr">
         <is>
-          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
+          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
         </is>
       </c>
       <c r="M500" s="20" t="n"/>
@@ -26338,17 +26318,17 @@
       </c>
       <c r="D501" s="18" t="inlineStr">
         <is>
-          <t>WAF가 우회되지 않도록 방지</t>
+          <t>Log Analytics에 App Service 활동 로그 보내기Send App Service activity logs to Log Analytics</t>
         </is>
       </c>
       <c r="E501" s="18" t="inlineStr">
         <is>
-          <t>WAF에 대한 액세스만 잠궈 WAF를 우회할 수 없는지 확인합니다.  액세스 제한, 서비스 엔드포인트 및 프라이빗 엔드포인트의 조합을 사용합니다.</t>
+          <t>활동 로그를 Log Analytics에 로깅 및 모니터링의 중앙 대상으로 보내도록 진단 설정을 지정합니다. 이렇게 하면 App Service 리소스 자체에서 컨트롤 플레인 작업을 모니터링할 수 있습니다.</t>
         </is>
       </c>
       <c r="F501" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
@@ -26366,7 +26346,7 @@
       <c r="K501" s="19" t="n"/>
       <c r="L501" s="19" t="inlineStr">
         <is>
-          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
+          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
         </is>
       </c>
       <c r="M501" s="20" t="n"/>
@@ -26393,12 +26373,12 @@
       </c>
       <c r="D502" s="18" t="inlineStr">
         <is>
-          <t>최소 TLS 정책을 1.2로 설정합니다.</t>
+          <t>아웃바운드 네트워크 액세스를 제어해야 함</t>
         </is>
       </c>
       <c r="E502" s="18" t="inlineStr">
         <is>
-          <t>App Service 구성에서 최소 TLS 정책을 1.2로 설정합니다.</t>
+          <t>지역 VNet 통합, 네트워크 보안 그룹 및 UDR의 조합을 사용하여 아웃바운드 네트워크 액세스를 제어합니다.  트래픽은 Azure Firewall과 같은 NVA로 라우팅되어야 합니다.  방화벽의 로그를 모니터링해야 합니다.</t>
         </is>
       </c>
       <c r="F502" s="18" t="inlineStr">
@@ -26418,14 +26398,10 @@
         </is>
       </c>
       <c r="J502" s="13" t="n"/>
-      <c r="K502" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K502" s="19" t="n"/>
       <c r="L502" s="19" t="inlineStr">
         <is>
-          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
+          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
         </is>
       </c>
       <c r="M502" s="20" t="n"/>
@@ -26452,17 +26428,17 @@
       </c>
       <c r="D503" s="18" t="inlineStr">
         <is>
-          <t>HTTPS만 사용</t>
+          <t>인터넷 주소에 대한 아웃바운드 통신을 위한 안정적인 IP 보장</t>
         </is>
       </c>
       <c r="E503" s="18" t="inlineStr">
         <is>
-          <t>HTTPS만 사용하도록 App Service를 구성합니다.  이로 인해 App Service가 HTTP에서 HTTPS로 리디렉션됩니다.  코드 또는 WAF에서 HSTS(HTTP Strict Transport Security)를 사용하여 HTTPS를 통해서만 사이트에 액세스해야 함을 브라우저에 알리는 것이 좋습니다.</t>
+          <t>VNet 통합을 사용하고 VNet NAT Gateway 또는 NVA와 같은 Azure Firewall을 사용하여 안정적인 아웃바운드 IP를 제공할 수 있습니다.  이렇게 하면 필요한 경우 수신 당사자가 IP를 기반으로 허용 목록을 만들 수 있습니다.  Azure 서비스에 대한 통신의 경우 IP 주소에 의존할 필요가 없는 경우가 많으며 서비스 엔드포인트와 같은 메커니즘을 대신 사용해야 합니다.  (또한 수신 끝에서 프라이빗 엔드포인트를 사용하면 SNAT가 발생하지 않고 안정적인 아웃바운드 IP 범위를 제공합니다.)</t>
         </is>
       </c>
       <c r="F503" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
@@ -26477,14 +26453,10 @@
         </is>
       </c>
       <c r="J503" s="13" t="n"/>
-      <c r="K503" s="19" t="inlineStr">
-        <is>
-          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K503" s="19" t="n"/>
       <c r="L503" s="19" t="inlineStr">
         <is>
-          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
+          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
         </is>
       </c>
       <c r="M503" s="20" t="n"/>
@@ -26511,12 +26483,12 @@
       </c>
       <c r="D504" s="18" t="inlineStr">
         <is>
-          <t>와일드카드는 CORS에 사용할 수 없습니다.</t>
+          <t>인바운드 네트워크 액세스를 제어해야 합니다.</t>
         </is>
       </c>
       <c r="E504" s="18" t="inlineStr">
         <is>
-          <t>CORS 구성에서 와일드카드를 사용하면 모든 원본이 서비스에 액세스할 수 있으므로 CORS의 목적에 어긋나므로 사용하지 마세요. 특히 서비스에 액세스할 수 있을 것으로 예상되는 원본만 허용합니다.</t>
+          <t>App Service 액세스 제한, 서비스 엔드포인트 또는 프라이빗 엔드포인트의 조합을 사용하여 인바운드 네트워크 액세스를 제어합니다. 웹앱 자체 및 SCM 사이트에 대해 서로 다른 액세스 제한이 필요하고 구성될 수 있습니다.</t>
         </is>
       </c>
       <c r="F504" s="18" t="inlineStr">
@@ -26539,7 +26511,7 @@
       <c r="K504" s="19" t="n"/>
       <c r="L504" s="19" t="inlineStr">
         <is>
-          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
+          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
         </is>
       </c>
       <c r="M504" s="20" t="n"/>
@@ -26566,12 +26538,12 @@
       </c>
       <c r="D505" s="18" t="inlineStr">
         <is>
-          <t>원격 디버깅 끄기</t>
+          <t>App Service 앞에서 WAF 사용Use a WAF in front of App Service</t>
         </is>
       </c>
       <c r="E505" s="18" t="inlineStr">
         <is>
-          <t>원격 디버깅은 서비스에서 추가 포트를 열어 공격 노출 영역을 증가시키므로 프로덕션에서 켜면 안 됩니다. 서비스는 48시간 후에 자동으로 원격 디버깅을 설정합니다.</t>
+          <t>Application Gateway 또는 Azure Front Door와 같은 Web Application Firewall을 사용하여 악의적인 인바운드 트래픽으로부터 보호합니다.  WAF의 로그를 모니터링해야 합니다.</t>
         </is>
       </c>
       <c r="F505" s="18" t="inlineStr">
@@ -26591,14 +26563,10 @@
         </is>
       </c>
       <c r="J505" s="13" t="n"/>
-      <c r="K505" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K505" s="19" t="n"/>
       <c r="L505" s="19" t="inlineStr">
         <is>
-          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
+          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
         </is>
       </c>
       <c r="M505" s="20" t="n"/>
@@ -26625,17 +26593,17 @@
       </c>
       <c r="D506" s="18" t="inlineStr">
         <is>
-          <t>클라우드용 Defender 사용 - App Service용 Defender</t>
+          <t>WAF가 우회되지 않도록 방지</t>
         </is>
       </c>
       <c r="E506" s="18" t="inlineStr">
         <is>
-          <t>App Service용 Defender를 사용하도록 설정합니다.  이는 다른 위협 중에서도 알려진 악성 IP 주소에 대한 통신을 탐지합니다.  작업의 일부로 App Service용 Defender의 권장 사항을 검토합니다.</t>
+          <t>WAF에 대한 액세스만 잠궈 WAF를 우회할 수 없는지 확인합니다.  액세스 제한, 서비스 엔드포인트 및 프라이빗 엔드포인트의 조합을 사용합니다.</t>
         </is>
       </c>
       <c r="F506" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G506" t="inlineStr">
@@ -26653,7 +26621,7 @@
       <c r="K506" s="19" t="n"/>
       <c r="L506" s="19" t="inlineStr">
         <is>
-          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
+          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
         </is>
       </c>
       <c r="M506" s="20" t="n"/>
@@ -26680,12 +26648,12 @@
       </c>
       <c r="D507" s="18" t="inlineStr">
         <is>
-          <t>WAF VNet에서 DDOS 보호 표준 사용Enable DDOS Protection Standard on the WAF VNet</t>
+          <t>최소 TLS 정책을 1.2로 설정합니다.</t>
         </is>
       </c>
       <c r="E507" s="18" t="inlineStr">
         <is>
-          <t>Azure는 네트워크에서 DDoS 기본 보호를 제공하며, 정상적인 트래픽 패턴을 학습하고 비정상적인 동작을 감지할 수 있는 지능형 DDoS 표준 기능으로 개선할 수 있습니다. DDoS 표준은 Virtual Network에 적용되므로 Application Gateway 또는 NVA와 같은 앱 앞의 네트워크 리소스에 대해 구성해야 합니다.</t>
+          <t>App Service 구성에서 최소 TLS 정책을 1.2로 설정합니다.</t>
         </is>
       </c>
       <c r="F507" s="18" t="inlineStr">
@@ -26705,10 +26673,14 @@
         </is>
       </c>
       <c r="J507" s="13" t="n"/>
-      <c r="K507" s="19" t="n"/>
+      <c r="K507" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L507" s="19" t="inlineStr">
         <is>
-          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
+          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
         </is>
       </c>
       <c r="M507" s="20" t="n"/>
@@ -26735,17 +26707,17 @@
       </c>
       <c r="D508" s="18" t="inlineStr">
         <is>
-          <t>Virtual Network를 통해 컨테이너 끌어오기</t>
+          <t>HTTPS만 사용</t>
         </is>
       </c>
       <c r="E508" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry에 저장된 이미지를 사용하는 경우 프라이빗 엔드포인트 및 앱 설정 'WEBSITE_PULL_IMAGE_OVER_VNET'를 사용하여 Azure Container Registry에서 가상 네트워크를 통해 끌어옵니다.</t>
+          <t>HTTPS만 사용하도록 App Service를 구성합니다.  이로 인해 App Service가 HTTP에서 HTTPS로 리디렉션됩니다.  코드 또는 WAF에서 HSTS(HTTP Strict Transport Security)를 사용하여 HTTPS를 통해서만 사이트에 액세스해야 함을 브라우저에 알리는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="F508" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
@@ -26760,10 +26732,14 @@
         </is>
       </c>
       <c r="J508" s="13" t="n"/>
-      <c r="K508" s="19" t="n"/>
+      <c r="K508" s="19" t="inlineStr">
+        <is>
+          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L508" s="19" t="inlineStr">
         <is>
-          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
+          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
         </is>
       </c>
       <c r="M508" s="20" t="n"/>
@@ -26790,17 +26766,17 @@
       </c>
       <c r="D509" s="18" t="inlineStr">
         <is>
-          <t>침투 테스트 수행</t>
+          <t>와일드카드는 CORS에 사용할 수 없습니다.</t>
         </is>
       </c>
       <c r="E509" s="18" t="inlineStr">
         <is>
-          <t>참여의 침투 테스트 규칙에 따라 웹 응용 프로그램에 대한 침투 테스트를 수행합니다.</t>
+          <t>CORS 구성에서 와일드카드를 사용하면 모든 원본이 서비스에 액세스할 수 있으므로 CORS의 목적에 어긋나므로 사용하지 마세요. 특히 서비스에 액세스할 수 있을 것으로 예상되는 원본만 허용합니다.</t>
         </is>
       </c>
       <c r="F509" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
@@ -26818,7 +26794,7 @@
       <c r="K509" s="19" t="n"/>
       <c r="L509" s="19" t="inlineStr">
         <is>
-          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
+          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
         </is>
       </c>
       <c r="M509" s="20" t="n"/>
@@ -26845,17 +26821,17 @@
       </c>
       <c r="D510" s="18" t="inlineStr">
         <is>
-          <t>유효성이 검사된 코드 배포</t>
+          <t>원격 디버깅 끄기</t>
         </is>
       </c>
       <c r="E510" s="18" t="inlineStr">
         <is>
-          <t>DevSecOps 사례에 따라 취약성을 검증하고 검사한 신뢰할 수 있는 코드를 배포합니다.</t>
+          <t>원격 디버깅은 서비스에서 추가 포트를 열어 공격 노출 영역을 증가시키므로 프로덕션에서 켜면 안 됩니다. 서비스는 48시간 후에 자동으로 원격 디버깅을 설정합니다.</t>
         </is>
       </c>
       <c r="F510" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
@@ -26870,10 +26846,14 @@
         </is>
       </c>
       <c r="J510" s="13" t="n"/>
-      <c r="K510" s="19" t="n"/>
+      <c r="K510" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L510" s="19" t="inlineStr">
         <is>
-          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
         </is>
       </c>
       <c r="M510" s="20" t="n"/>
@@ -26900,17 +26880,17 @@
       </c>
       <c r="D511" s="18" t="inlineStr">
         <is>
-          <t>최신 플랫폼, 언어, 프로토콜 및 프레임워크 사용</t>
+          <t>클라우드용 Defender 사용 - App Service용 Defender</t>
         </is>
       </c>
       <c r="E511" s="18" t="inlineStr">
         <is>
-          <t>지원되는 플랫폼, 프로그래밍 언어, 프로토콜 및 프레임워크의 최신 버전을 사용합니다.</t>
+          <t>App Service용 Defender를 사용하도록 설정합니다.  이는 다른 위협 중에서도 알려진 악성 IP 주소에 대한 통신을 탐지합니다.  작업의 일부로 App Service용 Defender의 권장 사항을 검토합니다.</t>
         </is>
       </c>
       <c r="F511" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
@@ -26928,7 +26908,7 @@
       <c r="K511" s="19" t="n"/>
       <c r="L511" s="19" t="inlineStr">
         <is>
-          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
         </is>
       </c>
       <c r="M511" s="20" t="n"/>
@@ -26940,7 +26920,7 @@
     <row r="512">
       <c r="A512" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B512" s="18" t="inlineStr">
@@ -26950,17 +26930,17 @@
       </c>
       <c r="C512" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D512" s="18" t="inlineStr">
         <is>
-          <t>'스토리지에 대한 Azure 보안 기준' 고려</t>
+          <t>WAF VNet에서 DDOS 보호 표준 사용Enable DDOS Protection Standard on the WAF VNet</t>
         </is>
       </c>
       <c r="E512" s="18" t="inlineStr">
         <is>
-          <t>스토리지와 관련된 Microsoft 클라우드 보안 벤치마크의 지침 적용</t>
+          <t>Azure는 네트워크에서 DDoS 기본 보호를 제공하며, 정상적인 트래픽 패턴을 학습하고 비정상적인 동작을 감지할 수 있는 지능형 DDoS 표준 기능으로 개선할 수 있습니다. DDoS 표준은 Virtual Network에 적용되므로 Application Gateway 또는 NVA와 같은 앱 앞의 네트워크 리소스에 대해 구성해야 합니다.</t>
         </is>
       </c>
       <c r="F512" s="18" t="inlineStr">
@@ -26983,7 +26963,7 @@
       <c r="K512" s="19" t="n"/>
       <c r="L512" s="19" t="inlineStr">
         <is>
-          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
+          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
         </is>
       </c>
       <c r="M512" s="20" t="n"/>
@@ -26995,7 +26975,7 @@
     <row r="513">
       <c r="A513" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B513" s="18" t="inlineStr">
@@ -27005,22 +26985,22 @@
       </c>
       <c r="C513" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D513" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage에 프라이빗 엔드포인트를 사용하는 것이 좋습니다.</t>
+          <t>Virtual Network를 통해 컨테이너 끌어오기</t>
         </is>
       </c>
       <c r="E513" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage는 기본적으로 공용 IP 주소를 가지며 인터넷에 연결할 수 있습니다. 프라이빗 엔드포인트를 사용하면 액세스가 필요한 Azure Compute 리소스에만 Azure Storage를 안전하게 노출할 수 있으므로 공용 인터넷에 노출되지 않습니다</t>
+          <t>Azure Container Registry에 저장된 이미지를 사용하는 경우 프라이빗 엔드포인트 및 앱 설정 'WEBSITE_PULL_IMAGE_OVER_VNET'를 사용하여 Azure Container Registry에서 가상 네트워크를 통해 끌어옵니다.</t>
         </is>
       </c>
       <c r="F513" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
@@ -27038,7 +27018,7 @@
       <c r="K513" s="19" t="n"/>
       <c r="L513" s="19" t="inlineStr">
         <is>
-          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
+          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
         </is>
       </c>
       <c r="M513" s="20" t="n"/>
@@ -27050,7 +27030,7 @@
     <row r="514">
       <c r="A514" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B514" s="18" t="inlineStr">
@@ -27060,17 +27040,17 @@
       </c>
       <c r="C514" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D514" s="18" t="inlineStr">
         <is>
-          <t>이전 스토리지 계정이 '클래식 배포 모델'을 사용하지 않는지 확인</t>
+          <t>침투 테스트 수행</t>
         </is>
       </c>
       <c r="E514" s="18" t="inlineStr">
         <is>
-          <t>새로 만든 저장소 계정은 ARM 배포 모델을 사용하여 만들어지므로 RBAC, 감사 등을 모두 사용할 수 있습니다. 구독에 클래식 배포 모델이 있는 이전 저장소 계정이 없는지 확인합니다.</t>
+          <t>참여의 침투 테스트 규칙에 따라 웹 응용 프로그램에 대한 침투 테스트를 수행합니다.</t>
         </is>
       </c>
       <c r="F514" s="18" t="inlineStr">
@@ -27093,7 +27073,7 @@
       <c r="K514" s="19" t="n"/>
       <c r="L514" s="19" t="inlineStr">
         <is>
-          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
+          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
         </is>
       </c>
       <c r="M514" s="20" t="n"/>
@@ -27105,7 +27085,7 @@
     <row r="515">
       <c r="A515" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B515" s="18" t="inlineStr">
@@ -27115,22 +27095,22 @@
       </c>
       <c r="C515" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D515" s="18" t="inlineStr">
         <is>
-          <t>모든 스토리지 계정에 대해 Microsoft Defender 사용</t>
+          <t>유효성이 검사된 코드 배포</t>
         </is>
       </c>
       <c r="E515" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Defender를 활용하여 의심스러운 활동 및 잘못된 구성에 대해 알아봅니다.</t>
+          <t>DevSecOps 사례에 따라 취약성을 검증하고 검사한 신뢰할 수 있는 코드를 배포합니다.</t>
         </is>
       </c>
       <c r="F515" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
@@ -27148,7 +27128,7 @@
       <c r="K515" s="19" t="n"/>
       <c r="L515" s="19" t="inlineStr">
         <is>
-          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
+          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
         </is>
       </c>
       <c r="M515" s="20" t="n"/>
@@ -27160,7 +27140,7 @@
     <row r="516">
       <c r="A516" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B516" s="18" t="inlineStr">
@@ -27170,22 +27150,22 @@
       </c>
       <c r="C516" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D516" s="18" t="inlineStr">
         <is>
-          <t>Blob에 대해 '일시 삭제' 사용Enable 'soft delete' for blobs</t>
+          <t>최신 플랫폼, 언어, 프로토콜 및 프레임워크 사용</t>
         </is>
       </c>
       <c r="E516" s="18" t="inlineStr">
         <is>
-          <t>일시 삭제 메커니즘을 사용하면 실수로 삭제된 Blob을 복구할 수 있습니다.</t>
+          <t>지원되는 플랫폼, 프로그래밍 언어, 프로토콜 및 프레임워크의 최신 버전을 사용합니다.</t>
         </is>
       </c>
       <c r="F516" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
@@ -27203,7 +27183,7 @@
       <c r="K516" s="19" t="n"/>
       <c r="L516" s="19" t="inlineStr">
         <is>
-          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
+          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
         </is>
       </c>
       <c r="M516" s="20" t="n"/>
@@ -27230,12 +27210,12 @@
       </c>
       <c r="D517" s="18" t="inlineStr">
         <is>
-          <t>Blob에 대해 '일시 삭제' 사용 안 함</t>
+          <t>'스토리지에 대한 Azure 보안 기준' 고려</t>
         </is>
       </c>
       <c r="E517" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">예를 들어 애플리케이션이 기밀성, 개인 정보 보호 또는 규정 준수를 위해 삭제된 정보가 즉시 삭제되도록 해야 하는 경우와 같이 특정 Blob 컨테이너에 대해 '일시 삭제'를 선택적으로 사용하지 않도록 설정하는 것이 좋습니다. </t>
+          <t>스토리지와 관련된 Microsoft 클라우드 보안 벤치마크의 지침 적용</t>
         </is>
       </c>
       <c r="F517" s="18" t="inlineStr">
@@ -27258,7 +27238,7 @@
       <c r="K517" s="19" t="n"/>
       <c r="L517" s="19" t="inlineStr">
         <is>
-          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
+          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
         </is>
       </c>
       <c r="M517" s="20" t="n"/>
@@ -27285,12 +27265,12 @@
       </c>
       <c r="D518" s="18" t="inlineStr">
         <is>
-          <t>컨테이너에 대해 '일시 삭제' 사용Enable 'soft delete' for containers</t>
+          <t>Azure Storage에 프라이빗 엔드포인트를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E518" s="18" t="inlineStr">
         <is>
-          <t>컨테이너에 대한 일시 삭제를 사용하면 컨테이너가 삭제된 후 컨테이너를 복구할 수 있습니다(예: 실수로 인한 삭제 작업에서 복구).</t>
+          <t>Azure Storage는 기본적으로 공용 IP 주소를 가지며 인터넷에 연결할 수 있습니다. 프라이빗 엔드포인트를 사용하면 액세스가 필요한 Azure Compute 리소스에만 Azure Storage를 안전하게 노출할 수 있으므로 공용 인터넷에 노출되지 않습니다</t>
         </is>
       </c>
       <c r="F518" s="18" t="inlineStr">
@@ -27313,7 +27293,7 @@
       <c r="K518" s="19" t="n"/>
       <c r="L518" s="19" t="inlineStr">
         <is>
-          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
+          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
         </is>
       </c>
       <c r="M518" s="20" t="n"/>
@@ -27340,12 +27320,12 @@
       </c>
       <c r="D519" s="18" t="inlineStr">
         <is>
-          <t>컨테이너에 대해 '일시 삭제' 사용 안 함</t>
+          <t>이전 스토리지 계정이 '클래식 배포 모델'을 사용하지 않는지 확인</t>
         </is>
       </c>
       <c r="E519" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">예를 들어 애플리케이션이 기밀성, 개인 정보 보호 또는 규정 준수를 위해 삭제된 정보가 즉시 삭제되도록 해야 하는 경우와 같이 특정 Blob 컨테이너에 대해 '일시 삭제'를 선택적으로 사용하지 않도록 설정하는 것이 좋습니다. </t>
+          <t>새로 만든 저장소 계정은 ARM 배포 모델을 사용하여 만들어지므로 RBAC, 감사 등을 모두 사용할 수 있습니다. 구독에 클래식 배포 모델이 있는 이전 저장소 계정이 없는지 확인합니다.</t>
         </is>
       </c>
       <c r="F519" s="18" t="inlineStr">
@@ -27368,7 +27348,7 @@
       <c r="K519" s="19" t="n"/>
       <c r="L519" s="19" t="inlineStr">
         <is>
-          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
+          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
         </is>
       </c>
       <c r="M519" s="20" t="n"/>
@@ -27395,12 +27375,12 @@
       </c>
       <c r="D520" s="18" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대한 리소스 잠금 사용Enable resource locks on storage accounts</t>
+          <t>모든 스토리지 계정에 대해 Microsoft Defender 사용</t>
         </is>
       </c>
       <c r="E520" s="18" t="inlineStr">
         <is>
-          <t>사용자가 삭제하기 전에 먼저 삭제 잠금을 제거하도록 강제하여 저장소 계정이 실수로 삭제되는 것을 방지합니다.</t>
+          <t>Microsoft Defender를 활용하여 의심스러운 활동 및 잘못된 구성에 대해 알아봅니다.</t>
         </is>
       </c>
       <c r="F520" s="18" t="inlineStr">
@@ -27423,7 +27403,7 @@
       <c r="K520" s="19" t="n"/>
       <c r="L520" s="19" t="inlineStr">
         <is>
-          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
+          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
         </is>
       </c>
       <c r="M520" s="20" t="n"/>
@@ -27450,17 +27430,17 @@
       </c>
       <c r="D521" s="18" t="inlineStr">
         <is>
-          <t>변경할 수 없는 Blob 고려</t>
+          <t>Blob에 대해 '일시 삭제' 사용Enable 'soft delete' for blobs</t>
         </is>
       </c>
       <c r="E521" s="18" t="inlineStr">
         <is>
-          <t>Blob에 대한 '법적 보존' 또는 '시간 기반 보존' 정책을 고려하면 Blob, 컨테이너 또는 스토리지 계정을 삭제할 수 없습니다. '불가능'은 실제로 '불가능'을 의미합니다. 스토리지 계정에 변경할 수 없는 Blob이 포함된 경우 해당 스토리지 계정을 '제거'하는 유일한 방법은 Azure 구독을 취소하는 것입니다.</t>
+          <t>일시 삭제 메커니즘을 사용하면 실수로 삭제된 Blob을 복구할 수 있습니다.</t>
         </is>
       </c>
       <c r="F521" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
@@ -27478,7 +27458,7 @@
       <c r="K521" s="19" t="n"/>
       <c r="L521" s="19" t="inlineStr">
         <is>
-          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
+          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
         </is>
       </c>
       <c r="M521" s="20" t="n"/>
@@ -27505,17 +27485,17 @@
       </c>
       <c r="D522" s="18" t="inlineStr">
         <is>
-          <t>HTTPS 필요, 즉 스토리지 계정에서 포트 80 사용 안 함Require HTTPS, i.e. disable port 80 on the storage account</t>
+          <t>Blob에 대해 '일시 삭제' 사용 안 함</t>
         </is>
       </c>
       <c r="E522" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">모든 데이터 전송이 암호화되고, 무결성이 보호되고, 서버가 인증되도록 스토리지 계정에 대한 보호되지 않는 HTTP/80 액세스를 사용하지 않도록 설정하는 것이 좋습니다. </t>
+          <t xml:space="preserve">예를 들어 애플리케이션이 기밀성, 개인 정보 보호 또는 규정 준수를 위해 삭제된 정보가 즉시 삭제되도록 해야 하는 경우와 같이 특정 Blob 컨테이너에 대해 '일시 삭제'를 선택적으로 사용하지 않도록 설정하는 것이 좋습니다. </t>
         </is>
       </c>
       <c r="F522" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
@@ -27533,7 +27513,7 @@
       <c r="K522" s="19" t="n"/>
       <c r="L522" s="19" t="inlineStr">
         <is>
-          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
+          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
         </is>
       </c>
       <c r="M522" s="20" t="n"/>
@@ -27560,12 +27540,12 @@
       </c>
       <c r="D523" s="18" t="inlineStr">
         <is>
-          <t>HTTPS를 적용할 때(HTTP 사용 안 함) 스토리지 계정에 사용자 지정 도메인(CNAME)을 사용하지 않는지 확인합니다.</t>
+          <t>컨테이너에 대해 '일시 삭제' 사용Enable 'soft delete' for containers</t>
         </is>
       </c>
       <c r="E523" s="18" t="inlineStr">
         <is>
-          <t>스토리지 계정에서 사용자 지정 도메인(호스트 이름)을 구성할 때 TLS/HTTPS가 필요한지 여부를 확인합니다. 이 경우 저장소 계정 앞에 Azure CDN을 배치해야 할 수 있습니다.</t>
+          <t>컨테이너에 대한 일시 삭제를 사용하면 컨테이너가 삭제된 후 컨테이너를 복구할 수 있습니다(예: 실수로 인한 삭제 작업에서 복구).</t>
         </is>
       </c>
       <c r="F523" s="18" t="inlineStr">
@@ -27588,7 +27568,7 @@
       <c r="K523" s="19" t="n"/>
       <c r="L523" s="19" t="inlineStr">
         <is>
-          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
+          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
         </is>
       </c>
       <c r="M523" s="20" t="n"/>
@@ -27615,12 +27595,12 @@
       </c>
       <c r="D524" s="18" t="inlineStr">
         <is>
-          <t>SAS(공유 액세스 서명) 토큰을 HTTPS 연결로만 제한</t>
+          <t>컨테이너에 대해 '일시 삭제' 사용 안 함</t>
         </is>
       </c>
       <c r="E524" s="18" t="inlineStr">
         <is>
-          <t>클라이언트가 SAS 토큰을 사용하여 Blob 데이터에 액세스할 때 HTTPS를 요구하면 자격 증명 손실 위험을 최소화하는 데 도움이 됩니다.</t>
+          <t xml:space="preserve">예를 들어 애플리케이션이 기밀성, 개인 정보 보호 또는 규정 준수를 위해 삭제된 정보가 즉시 삭제되도록 해야 하는 경우와 같이 특정 Blob 컨테이너에 대해 '일시 삭제'를 선택적으로 사용하지 않도록 설정하는 것이 좋습니다. </t>
         </is>
       </c>
       <c r="F524" s="18" t="inlineStr">
@@ -27643,7 +27623,7 @@
       <c r="K524" s="19" t="n"/>
       <c r="L524" s="19" t="inlineStr">
         <is>
-          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
+          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
         </is>
       </c>
       <c r="M524" s="20" t="n"/>
@@ -27670,12 +27650,12 @@
       </c>
       <c r="D525" s="18" t="inlineStr">
         <is>
-          <t>Blob 액세스에 Azure AD(Azure Active Directory) 토큰 사용Use Azure Active Directory (Azure AD) tokens for blob access</t>
+          <t>스토리지 계정에 대한 리소스 잠금 사용Enable resource locks on storage accounts</t>
         </is>
       </c>
       <c r="E525" s="18" t="inlineStr">
         <is>
-          <t>AAD 토큰은 가능한 경우 공유 액세스 서명보다 우선해야 합니다</t>
+          <t>사용자가 삭제하기 전에 먼저 삭제 잠금을 제거하도록 강제하여 저장소 계정이 실수로 삭제되는 것을 방지합니다.</t>
         </is>
       </c>
       <c r="F525" s="18" t="inlineStr">
@@ -27698,7 +27678,7 @@
       <c r="K525" s="19" t="n"/>
       <c r="L525" s="19" t="inlineStr">
         <is>
-          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
+          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
         </is>
       </c>
       <c r="M525" s="20" t="n"/>
@@ -27725,17 +27705,17 @@
       </c>
       <c r="D526" s="18" t="inlineStr">
         <is>
-          <t>IaM 권한의 최소 권한</t>
+          <t>변경할 수 없는 Blob 고려</t>
         </is>
       </c>
       <c r="E526" s="18" t="inlineStr">
         <is>
-          <t>사용자, 그룹 또는 응용 프로그램에 역할을 할당할 때 해당 보안 주체가 작업을 수행하는 데 필요한 권한만 부여합니다. 리소스에 대한 액세스를 제한하면 의도하지 않은 데이터 오용과 악의적인 데이터 오용을 모두 방지할 수 있습니다.</t>
+          <t>Blob에 대한 '법적 보존' 또는 '시간 기반 보존' 정책을 고려하면 Blob, 컨테이너 또는 스토리지 계정을 삭제할 수 없습니다. '불가능'은 실제로 '불가능'을 의미합니다. 스토리지 계정에 변경할 수 없는 Blob이 포함된 경우 해당 스토리지 계정을 '제거'하는 유일한 방법은 Azure 구독을 취소하는 것입니다.</t>
         </is>
       </c>
       <c r="F526" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
@@ -27744,12 +27724,16 @@
         </is>
       </c>
       <c r="H526" s="18" t="n"/>
-      <c r="I526" s="13" t="n"/>
+      <c r="I526" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J526" s="13" t="n"/>
       <c r="K526" s="19" t="n"/>
       <c r="L526" s="19" t="inlineStr">
         <is>
-          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
+          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
         </is>
       </c>
       <c r="M526" s="20" t="n"/>
@@ -27776,12 +27760,12 @@
       </c>
       <c r="D527" s="18" t="inlineStr">
         <is>
-          <t>SAS를 사용하는 경우 스토리지 계정 키 기반 SAS보다 '사용자 위임 SAS'를 선호합니다.</t>
+          <t>HTTPS 필요, 즉 스토리지 계정에서 포트 80 사용 안 함Require HTTPS, i.e. disable port 80 on the storage account</t>
         </is>
       </c>
       <c r="E527" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">사용자 위임 SAS는 Azure AD(Azure Active Directory) 자격 증명과 SAS에 지정된 권한으로 보호됩니다. 사용자 위임 SAS는 범위와 기능 측면에서 서비스 SAS와 유사하지만 서비스 SAS에 비해 보안상의 이점을 제공합니다. </t>
+          <t xml:space="preserve">모든 데이터 전송이 암호화되고, 무결성이 보호되고, 서버가 인증되도록 스토리지 계정에 대한 보호되지 않는 HTTP/80 액세스를 사용하지 않도록 설정하는 것이 좋습니다. </t>
         </is>
       </c>
       <c r="F527" s="18" t="inlineStr">
@@ -27804,7 +27788,7 @@
       <c r="K527" s="19" t="n"/>
       <c r="L527" s="19" t="inlineStr">
         <is>
-          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
+          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
         </is>
       </c>
       <c r="M527" s="20" t="n"/>
@@ -27831,12 +27815,12 @@
       </c>
       <c r="D528" s="18" t="inlineStr">
         <is>
-          <t>AAD 액세스(및 사용자 위임 SAS)만 지원되도록 스토리지 계정 키를 사용하지 않도록 설정하는 것이 좋습니다.</t>
+          <t>HTTPS를 적용할 때(HTTP 사용 안 함) 스토리지 계정에 사용자 지정 도메인(CNAME)을 사용하지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="E528" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">스토리지 계정 키('공유 키')에는 감사 기능이 거의 없습니다. 누가/언제 키 사본을 가져왔는지 모니터링할 수 있지만, 키가 여러 사람의 손에 들어가면 특정 사용자의 사용을 귀속시키는 것은 불가능합니다. AAD 인증에만 의존하면 스토리지 액세스를 사용자에게 더 쉽게 연결할 수 있습니다. </t>
+          <t>스토리지 계정에서 사용자 지정 도메인(호스트 이름)을 구성할 때 TLS/HTTPS가 필요한지 여부를 확인합니다. 이 경우 저장소 계정 앞에 Azure CDN을 배치해야 할 수 있습니다.</t>
         </is>
       </c>
       <c r="F528" s="18" t="inlineStr">
@@ -27859,7 +27843,7 @@
       <c r="K528" s="19" t="n"/>
       <c r="L528" s="19" t="inlineStr">
         <is>
-          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
+          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
         </is>
       </c>
       <c r="M528" s="20" t="n"/>
@@ -27886,17 +27870,17 @@
       </c>
       <c r="D529" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor를 사용하여 스토리지 계정에 대한 컨트롤 플레인 작업을 감사하는 것이 좋습니다.</t>
+          <t>SAS(공유 액세스 서명) 토큰을 HTTPS 연결로만 제한</t>
         </is>
       </c>
       <c r="E529" s="18" t="inlineStr">
         <is>
-          <t>활동 로그 데이터를 사용하여 스토리지 계정의 보안을 보거나 변경하는 '시기', '누가', '무엇을' 및 '방법'(예: 스토리지 계정 키, 액세스 정책 등)을 식별합니다.</t>
+          <t>클라이언트가 SAS 토큰을 사용하여 Blob 데이터에 액세스할 때 HTTPS를 요구하면 자격 증명 손실 위험을 최소화하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="F529" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
@@ -27914,7 +27898,7 @@
       <c r="K529" s="19" t="n"/>
       <c r="L529" s="19" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
         </is>
       </c>
       <c r="M529" s="20" t="n"/>
@@ -27941,17 +27925,17 @@
       </c>
       <c r="D530" s="18" t="inlineStr">
         <is>
-          <t>스토리지 계정 키를 사용하는 경우 '키 만료 정책'을 사용하도록 설정하는 것이 좋습니다</t>
+          <t>Blob 액세스에 Azure AD(Azure Active Directory) 토큰 사용Use Azure Active Directory (Azure AD) tokens for blob access</t>
         </is>
       </c>
       <c r="E530" s="18" t="inlineStr">
         <is>
-          <t>키 만료 정책을 사용하면 계정 액세스 키 교체에 대한 미리 알림을 설정할 수 있습니다. 지정된 간격이 경과하고 키가 아직 회전되지 않은 경우 알림이 표시됩니다.</t>
+          <t>AAD 토큰은 가능한 경우 공유 액세스 서명보다 우선해야 합니다</t>
         </is>
       </c>
       <c r="F530" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
@@ -27969,7 +27953,7 @@
       <c r="K530" s="19" t="n"/>
       <c r="L530" s="19" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
         </is>
       </c>
       <c r="M530" s="20" t="n"/>
@@ -27996,12 +27980,12 @@
       </c>
       <c r="D531" s="18" t="inlineStr">
         <is>
-          <t>SAS 만료 정책 구성 고려</t>
+          <t>IaM 권한의 최소 권한</t>
         </is>
       </c>
       <c r="E531" s="18" t="inlineStr">
         <is>
-          <t>SAS 만료 정책은 SAS가 유효한 권장 간격을 지정합니다. SAS 만료 정책은 서비스 SAS 또는 계정 SAS에 적용됩니다. 사용자가 권장 간격보다 큰 유효 간격을 사용하여 서비스 SAS 또는 계정 SAS를 생성하면 경고가 표시됩니다.</t>
+          <t>사용자, 그룹 또는 응용 프로그램에 역할을 할당할 때 해당 보안 주체가 작업을 수행하는 데 필요한 권한만 부여합니다. 리소스에 대한 액세스를 제한하면 의도하지 않은 데이터 오용과 악의적인 데이터 오용을 모두 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="F531" s="18" t="inlineStr">
@@ -28015,16 +27999,12 @@
         </is>
       </c>
       <c r="H531" s="18" t="n"/>
-      <c r="I531" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I531" s="13" t="n"/>
       <c r="J531" s="13" t="n"/>
       <c r="K531" s="19" t="n"/>
       <c r="L531" s="19" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
+          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
         </is>
       </c>
       <c r="M531" s="20" t="n"/>
@@ -28051,17 +28031,17 @@
       </c>
       <c r="D532" s="18" t="inlineStr">
         <is>
-          <t>SAS를 저장된 액세스 정책에 연결하는 것이 좋습니다.</t>
+          <t>SAS를 사용하는 경우 스토리지 계정 키 기반 SAS보다 '사용자 위임 SAS'를 선호합니다.</t>
         </is>
       </c>
       <c r="E532" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">저장된 액세스 정책은 스토리지 계정 키를 다시 생성할 필요 없이 서비스 SAS에 대한 권한을 취소하는 옵션을 제공합니다. </t>
+          <t xml:space="preserve">사용자 위임 SAS는 Azure AD(Azure Active Directory) 자격 증명과 SAS에 지정된 권한으로 보호됩니다. 사용자 위임 SAS는 범위와 기능 측면에서 서비스 SAS와 유사하지만 서비스 SAS에 비해 보안상의 이점을 제공합니다. </t>
         </is>
       </c>
       <c r="F532" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
@@ -28079,7 +28059,7 @@
       <c r="K532" s="19" t="n"/>
       <c r="L532" s="19" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
+          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
         </is>
       </c>
       <c r="M532" s="20" t="n"/>
@@ -28106,13 +28086,17 @@
       </c>
       <c r="D533" s="18" t="inlineStr">
         <is>
-          <t>체크 인된 연결 문자열 및 저장소 계정 키를 검색하도록 응용 프로그램의 소스 코드 리포지토리를 구성하는 것이 좋습니다.</t>
-        </is>
-      </c>
-      <c r="E533" s="18" t="n"/>
+          <t>AAD 액세스(및 사용자 위임 SAS)만 지원되도록 스토리지 계정 키를 사용하지 않도록 설정하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="E533" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">스토리지 계정 키('공유 키')에는 감사 기능이 거의 없습니다. 누가/언제 키 사본을 가져왔는지 모니터링할 수 있지만, 키가 여러 사람의 손에 들어가면 특정 사용자의 사용을 귀속시키는 것은 불가능합니다. AAD 인증에만 의존하면 스토리지 액세스를 사용자에게 더 쉽게 연결할 수 있습니다. </t>
+        </is>
+      </c>
       <c r="F533" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G533" t="inlineStr">
@@ -28130,7 +28114,7 @@
       <c r="K533" s="19" t="n"/>
       <c r="L533" s="19" t="inlineStr">
         <is>
-          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
+          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
         </is>
       </c>
       <c r="M533" s="20" t="n"/>
@@ -28157,12 +28141,12 @@
       </c>
       <c r="D534" s="18" t="inlineStr">
         <is>
-          <t>Azure KeyVault에 연결 문자열을 저장하는 것이 좋습니다(관리 ID를 사용할 수 없는 시나리오에서).</t>
+          <t>Azure Monitor를 사용하여 스토리지 계정에 대한 컨트롤 플레인 작업을 감사하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E534" s="18" t="inlineStr">
         <is>
-          <t>이상적으로 애플리케이션은 관리 ID를 사용하여 Azure Storage에 인증해야 합니다. 이렇게 할 수 없는 경우 Azure KeyVault 또는 동등한 서비스에 스토리지 자격 증명(연결 문자열, 스토리지 계정 키, SAS, 서비스 주체 자격 증명)을 사용하는 것이 좋습니다.</t>
+          <t>활동 로그 데이터를 사용하여 스토리지 계정의 보안을 보거나 변경하는 '시기', '누가', '무엇을' 및 '방법'(예: 스토리지 계정 키, 액세스 정책 등)을 식별합니다.</t>
         </is>
       </c>
       <c r="F534" s="18" t="inlineStr">
@@ -28185,7 +28169,7 @@
       <c r="K534" s="19" t="n"/>
       <c r="L534" s="19" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
         </is>
       </c>
       <c r="M534" s="20" t="n"/>
@@ -28212,17 +28196,17 @@
       </c>
       <c r="D535" s="18" t="inlineStr">
         <is>
-          <t>임시 SAS의 유효 기간을 단축하기 위해 노력</t>
+          <t>스토리지 계정 키를 사용하는 경우 '키 만료 정책'을 사용하도록 설정하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="E535" s="18" t="inlineStr">
         <is>
-          <t>임시 SAS 서비스 SAS 또는 계정 SAS에서 단기 만료 시간을 사용합니다. 이러한 방식으로 SAS가 손상되더라도 짧은 시간 동안만 유효합니다. 이 방법은 저장된 액세스 정책을 참조할 수 없는 경우에 특히 중요합니다. 또한 단기 만료 시간은 업로드에 사용할 수 있는 시간을 제한하여 Blob에 쓸 수 있는 데이터의 양을 제한합니다.</t>
+          <t>키 만료 정책을 사용하면 계정 액세스 키 교체에 대한 미리 알림을 설정할 수 있습니다. 지정된 간격이 경과하고 키가 아직 회전되지 않은 경우 알림이 표시됩니다.</t>
         </is>
       </c>
       <c r="F535" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G535" t="inlineStr">
@@ -28240,7 +28224,7 @@
       <c r="K535" s="19" t="n"/>
       <c r="L535" s="19" t="inlineStr">
         <is>
-          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
         </is>
       </c>
       <c r="M535" s="20" t="n"/>
@@ -28267,12 +28251,12 @@
       </c>
       <c r="D536" s="18" t="inlineStr">
         <is>
-          <t>SAS에 좁은 범위 적용</t>
+          <t>SAS 만료 정책 구성 고려</t>
         </is>
       </c>
       <c r="E536" s="18" t="inlineStr">
         <is>
-          <t>SAS를 만들 때는 가능한 한 구체적이고 제한적이어야 합니다. 훨씬 더 광범위한 액세스를 제공하는 SAS보다 단일 리소스 및 작업에 대해 SAS를 선호합니다.</t>
+          <t>SAS 만료 정책은 SAS가 유효한 권장 간격을 지정합니다. SAS 만료 정책은 서비스 SAS 또는 계정 SAS에 적용됩니다. 사용자가 권장 간격보다 큰 유효 간격을 사용하여 서비스 SAS 또는 계정 SAS를 생성하면 경고가 표시됩니다.</t>
         </is>
       </c>
       <c r="F536" s="18" t="inlineStr">
@@ -28295,7 +28279,7 @@
       <c r="K536" s="19" t="n"/>
       <c r="L536" s="19" t="inlineStr">
         <is>
-          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
+          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
         </is>
       </c>
       <c r="M536" s="20" t="n"/>
@@ -28322,12 +28306,12 @@
       </c>
       <c r="D537" s="18" t="inlineStr">
         <is>
-          <t>가능한 경우 SAS의 범위를 특정 클라이언트 IP 주소로 지정하는 것이 좋습니다</t>
+          <t>SAS를 저장된 액세스 정책에 연결하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E537" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAS에는 SAS를 사용하여 리소스를 요청할 수 있는 권한이 있는 클라이언트 IP 주소 또는 주소 범위에 대한 매개 변수가 포함될 수 있습니다. </t>
+          <t xml:space="preserve">저장된 액세스 정책은 스토리지 계정 키를 다시 생성할 필요 없이 서비스 SAS에 대한 권한을 취소하는 옵션을 제공합니다. </t>
         </is>
       </c>
       <c r="F537" s="18" t="inlineStr">
@@ -28350,7 +28334,7 @@
       <c r="K537" s="19" t="n"/>
       <c r="L537" s="19" t="inlineStr">
         <is>
-          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
+          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
         </is>
       </c>
       <c r="M537" s="20" t="n"/>
@@ -28377,17 +28361,13 @@
       </c>
       <c r="D538" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">클라이언트가 SAS를 사용하여 파일을 업로드한 후 업로드된 데이터를 확인하는 것이 좋습니다. </t>
-        </is>
-      </c>
-      <c r="E538" s="18" t="inlineStr">
-        <is>
-          <t>SAS는 클라이언트가 업로드하는 데이터의 양을 제한할 수 없습니다. 시간 경과에 따른 스토리지 양의 가격 책정 모델을 고려할 때 클라이언트가 악의적으로 큰 콘텐츠를 업로드했는지 여부를 확인하는 것이 합리적일 수 있습니다.</t>
-        </is>
-      </c>
+          <t>체크 인된 연결 문자열 및 저장소 계정 키를 검색하도록 응용 프로그램의 소스 코드 리포지토리를 구성하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="E538" s="18" t="n"/>
       <c r="F538" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
@@ -28396,12 +28376,16 @@
         </is>
       </c>
       <c r="H538" s="18" t="n"/>
-      <c r="I538" s="13" t="n"/>
+      <c r="I538" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J538" s="13" t="n"/>
       <c r="K538" s="19" t="n"/>
       <c r="L538" s="19" t="inlineStr">
         <is>
-          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
+          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
         </is>
       </c>
       <c r="M538" s="20" t="n"/>
@@ -28428,12 +28412,12 @@
       </c>
       <c r="D539" s="18" t="inlineStr">
         <is>
-          <t>SFTP: SFTP 액세스에 대한 '로컬 사용자'의 수를 제한하고 시간이 지남에 따라 액세스가 필요한지 여부를 감사합니다.</t>
+          <t>Azure KeyVault에 연결 문자열을 저장하는 것이 좋습니다(관리 ID를 사용할 수 없는 시나리오에서).</t>
         </is>
       </c>
       <c r="E539" s="18" t="inlineStr">
         <is>
-          <t>'로컬 사용자 계정'을 사용하여 SFTP를 통해 Blob Storage에 액세스하는 경우 '일반적인' RBAC 컨트롤이 적용되지 않습니다. NFS 또는 REST를 통한 Blob 액세스는 SFTP 액세스보다 더 제한적일 수 있습니다. 안타깝게도 2023년 초부터 로컬 사용자는 현재 SFTP 엔드포인트에 대해 지원되는 유일한 ID 관리 형태입니다</t>
+          <t>이상적으로 애플리케이션은 관리 ID를 사용하여 Azure Storage에 인증해야 합니다. 이렇게 할 수 없는 경우 Azure KeyVault 또는 동등한 서비스에 스토리지 자격 증명(연결 문자열, 스토리지 계정 키, SAS, 서비스 주체 자격 증명)을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="F539" s="18" t="inlineStr">
@@ -28456,7 +28440,7 @@
       <c r="K539" s="19" t="n"/>
       <c r="L539" s="19" t="inlineStr">
         <is>
-          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
+          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
         </is>
       </c>
       <c r="M539" s="20" t="n"/>
@@ -28483,13 +28467,17 @@
       </c>
       <c r="D540" s="18" t="inlineStr">
         <is>
-          <t>SFTP: SFTP 엔드포인트는 POSIX와 유사한 ACL을 지원하지 않습니다.</t>
-        </is>
-      </c>
-      <c r="E540" s="18" t="n"/>
+          <t>임시 SAS의 유효 기간을 단축하기 위해 노력</t>
+        </is>
+      </c>
+      <c r="E540" s="18" t="inlineStr">
+        <is>
+          <t>임시 SAS 서비스 SAS 또는 계정 SAS에서 단기 만료 시간을 사용합니다. 이러한 방식으로 SAS가 손상되더라도 짧은 시간 동안만 유효합니다. 이 방법은 저장된 액세스 정책을 참조할 수 없는 경우에 특히 중요합니다. 또한 단기 만료 시간은 업로드에 사용할 수 있는 시간을 제한하여 Blob에 쓸 수 있는 데이터의 양을 제한합니다.</t>
+        </is>
+      </c>
       <c r="F540" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G540" t="inlineStr">
@@ -28507,7 +28495,7 @@
       <c r="K540" s="19" t="n"/>
       <c r="L540" s="19" t="inlineStr">
         <is>
-          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
+          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
         </is>
       </c>
       <c r="M540" s="20" t="n"/>
@@ -28534,17 +28522,17 @@
       </c>
       <c r="D541" s="18" t="inlineStr">
         <is>
-          <t>지나치게 광범위한 CORS 정책 방지</t>
+          <t>SAS에 좁은 범위 적용</t>
         </is>
       </c>
       <c r="E541" s="18" t="inlineStr">
         <is>
-          <t>스토리지는 CORS(Cross-Origin Resource Sharing), 즉 다른 도메인의 웹앱이 동일 출처 정책을 완화할 수 있도록 하는 HTTP 기능을 지원합니다. CORS를 사용하도록 설정할 때 CorsRules를 최소 권한으로 유지합니다.</t>
+          <t>SAS를 만들 때는 가능한 한 구체적이고 제한적이어야 합니다. 훨씬 더 광범위한 액세스를 제공하는 SAS보다 단일 리소스 및 작업에 대해 SAS를 선호합니다.</t>
         </is>
       </c>
       <c r="F541" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G541" t="inlineStr">
@@ -28562,7 +28550,7 @@
       <c r="K541" s="19" t="n"/>
       <c r="L541" s="19" t="inlineStr">
         <is>
-          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
         </is>
       </c>
       <c r="M541" s="20" t="n"/>
@@ -28589,17 +28577,17 @@
       </c>
       <c r="D542" s="18" t="inlineStr">
         <is>
-          <t>미사용 데이터를 암호화하는 방법을 결정합니다. 데이터에 대한 스레드 모델을 이해합니다.</t>
+          <t>가능한 경우 SAS의 범위를 특정 클라이언트 IP 주소로 지정하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="E542" s="18" t="inlineStr">
         <is>
-          <t>미사용 데이터는 항상 서버 쪽에서 암호화되며 클라이언트 쪽에서도 암호화될 수 있습니다. 서버 쪽 암호화는 플랫폼 관리형 키(기본값) 또는 고객 관리형 키를 사용하여 발생할 수 있습니다. 클라이언트 쪽 암호화는 클라이언트가 Azure Storage에 Blob별로 암호화/암호 해독 키를 제공하거나 클라이언트 쪽에서 암호화를 완전히 처리하여 발생할 수 있습니다. 따라서 기밀성 보장을 위해 Azure Storage에 전혀 의존하지 않습니다.</t>
+          <t xml:space="preserve">SAS에는 SAS를 사용하여 리소스를 요청할 수 있는 권한이 있는 클라이언트 IP 주소 또는 주소 범위에 대한 매개 변수가 포함될 수 있습니다. </t>
         </is>
       </c>
       <c r="F542" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G542" t="inlineStr">
@@ -28617,7 +28605,7 @@
       <c r="K542" s="19" t="n"/>
       <c r="L542" s="19" t="inlineStr">
         <is>
-          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
         </is>
       </c>
       <c r="M542" s="20" t="n"/>
@@ -28644,13 +28632,17 @@
       </c>
       <c r="D543" s="18" t="inlineStr">
         <is>
-          <t>사용해야 하는 플랫폼 암호화를 결정합니다.</t>
-        </is>
-      </c>
-      <c r="E543" s="18" t="n"/>
+          <t xml:space="preserve">클라이언트가 SAS를 사용하여 파일을 업로드한 후 업로드된 데이터를 확인하는 것이 좋습니다. </t>
+        </is>
+      </c>
+      <c r="E543" s="18" t="inlineStr">
+        <is>
+          <t>SAS는 클라이언트가 업로드하는 데이터의 양을 제한할 수 없습니다. 시간 경과에 따른 스토리지 양의 가격 책정 모델을 고려할 때 클라이언트가 악의적으로 큰 콘텐츠를 업로드했는지 여부를 확인하는 것이 합리적일 수 있습니다.</t>
+        </is>
+      </c>
       <c r="F543" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G543" t="inlineStr">
@@ -28659,16 +28651,12 @@
         </is>
       </c>
       <c r="H543" s="18" t="n"/>
-      <c r="I543" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I543" s="13" t="n"/>
       <c r="J543" s="13" t="n"/>
       <c r="K543" s="19" t="n"/>
       <c r="L543" s="19" t="inlineStr">
         <is>
-          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
         </is>
       </c>
       <c r="M543" s="20" t="n"/>
@@ -28695,13 +28683,17 @@
       </c>
       <c r="D544" s="18" t="inlineStr">
         <is>
-          <t>사용해야 하는 클라이언트 쪽 암호화를 결정합니다.</t>
-        </is>
-      </c>
-      <c r="E544" s="18" t="n"/>
+          <t>SFTP: SFTP 액세스에 대한 '로컬 사용자'의 수를 제한하고 시간이 지남에 따라 액세스가 필요한지 여부를 감사합니다.</t>
+        </is>
+      </c>
+      <c r="E544" s="18" t="inlineStr">
+        <is>
+          <t>'로컬 사용자 계정'을 사용하여 SFTP를 통해 Blob Storage에 액세스하는 경우 '일반적인' RBAC 컨트롤이 적용되지 않습니다. NFS 또는 REST를 통한 Blob 액세스는 SFTP 액세스보다 더 제한적일 수 있습니다. 안타깝게도 2023년 초부터 로컬 사용자는 현재 SFTP 엔드포인트에 대해 지원되는 유일한 ID 관리 형태입니다</t>
+        </is>
+      </c>
       <c r="F544" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G544" t="inlineStr">
@@ -28719,7 +28711,7 @@
       <c r="K544" s="19" t="n"/>
       <c r="L544" s="19" t="inlineStr">
         <is>
-          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
         </is>
       </c>
       <c r="M544" s="20" t="n"/>
@@ -28746,17 +28738,13 @@
       </c>
       <c r="D545" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">공용 Blob 액세스가 필요한지 또는 특정 스토리지 계정에 대해 사용하지 않도록 설정할 수 있는지 여부를 고려합니다. </t>
-        </is>
-      </c>
-      <c r="E545" s="18" t="inlineStr">
-        <is>
-          <t>Resource Graph Explorer(resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true)를 활용하여 익명 Blob 액세스를 허용하는 스토리지 계정을 찾습니다.</t>
-        </is>
-      </c>
+          <t>SFTP: SFTP 엔드포인트는 POSIX와 유사한 ACL을 지원하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="E545" s="18" t="n"/>
       <c r="F545" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G545" t="inlineStr">
@@ -28774,7 +28762,7 @@
       <c r="K545" s="19" t="n"/>
       <c r="L545" s="19" t="inlineStr">
         <is>
-          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
         </is>
       </c>
       <c r="M545" s="20" t="n"/>
@@ -28784,17 +28772,54 @@
       <c r="Q545" s="20" t="n"/>
     </row>
     <row r="546">
-      <c r="A546" s="18" t="n"/>
-      <c r="B546" s="18" t="n"/>
-      <c r="C546" s="18" t="n"/>
-      <c r="D546" s="18" t="n"/>
-      <c r="E546" s="18" t="n"/>
-      <c r="F546" s="18" t="n"/>
+      <c r="A546" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B546" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C546" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D546" s="18" t="inlineStr">
+        <is>
+          <t>지나치게 광범위한 CORS 정책 방지</t>
+        </is>
+      </c>
+      <c r="E546" s="18" t="inlineStr">
+        <is>
+          <t>스토리지는 CORS(Cross-Origin Resource Sharing), 즉 다른 도메인의 웹앱이 동일 출처 정책을 완화할 수 있도록 하는 HTTP 기능을 지원합니다. CORS를 사용하도록 설정할 때 CorsRules를 최소 권한으로 유지합니다.</t>
+        </is>
+      </c>
+      <c r="F546" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H546" s="18" t="n"/>
-      <c r="I546" s="13" t="n"/>
+      <c r="I546" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J546" s="13" t="n"/>
       <c r="K546" s="19" t="n"/>
-      <c r="L546" s="19" t="n"/>
+      <c r="L546" s="19" t="inlineStr">
+        <is>
+          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+        </is>
+      </c>
       <c r="M546" s="20" t="n"/>
       <c r="N546" s="20" t="n"/>
       <c r="O546" s="20" t="n"/>
@@ -28802,17 +28827,54 @@
       <c r="Q546" s="20" t="n"/>
     </row>
     <row r="547">
-      <c r="A547" s="18" t="n"/>
-      <c r="B547" s="18" t="n"/>
-      <c r="C547" s="18" t="n"/>
-      <c r="D547" s="18" t="n"/>
-      <c r="E547" s="18" t="n"/>
-      <c r="F547" s="18" t="n"/>
+      <c r="A547" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B547" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C547" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D547" s="18" t="inlineStr">
+        <is>
+          <t>미사용 데이터를 암호화하는 방법을 결정합니다. 데이터에 대한 스레드 모델을 이해합니다.</t>
+        </is>
+      </c>
+      <c r="E547" s="18" t="inlineStr">
+        <is>
+          <t>미사용 데이터는 항상 서버 쪽에서 암호화되며 클라이언트 쪽에서도 암호화될 수 있습니다. 서버 쪽 암호화는 플랫폼 관리형 키(기본값) 또는 고객 관리형 키를 사용하여 발생할 수 있습니다. 클라이언트 쪽 암호화는 클라이언트가 Azure Storage에 Blob별로 암호화/암호 해독 키를 제공하거나 클라이언트 쪽에서 암호화를 완전히 처리하여 발생할 수 있습니다. 따라서 기밀성 보장을 위해 Azure Storage에 전혀 의존하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F547" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H547" s="18" t="n"/>
-      <c r="I547" s="13" t="n"/>
+      <c r="I547" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J547" s="13" t="n"/>
       <c r="K547" s="19" t="n"/>
-      <c r="L547" s="19" t="n"/>
+      <c r="L547" s="19" t="inlineStr">
+        <is>
+          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+        </is>
+      </c>
       <c r="M547" s="20" t="n"/>
       <c r="N547" s="20" t="n"/>
       <c r="O547" s="20" t="n"/>
@@ -28820,17 +28882,50 @@
       <c r="Q547" s="20" t="n"/>
     </row>
     <row r="548">
-      <c r="A548" s="18" t="n"/>
-      <c r="B548" s="18" t="n"/>
-      <c r="C548" s="18" t="n"/>
-      <c r="D548" s="18" t="n"/>
+      <c r="A548" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B548" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C548" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D548" s="18" t="inlineStr">
+        <is>
+          <t>사용해야 하는 플랫폼 암호화를 결정합니다.</t>
+        </is>
+      </c>
       <c r="E548" s="18" t="n"/>
-      <c r="F548" s="18" t="n"/>
+      <c r="F548" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H548" s="18" t="n"/>
-      <c r="I548" s="13" t="n"/>
+      <c r="I548" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J548" s="13" t="n"/>
       <c r="K548" s="19" t="n"/>
-      <c r="L548" s="19" t="n"/>
+      <c r="L548" s="19" t="inlineStr">
+        <is>
+          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+        </is>
+      </c>
       <c r="M548" s="20" t="n"/>
       <c r="N548" s="20" t="n"/>
       <c r="O548" s="20" t="n"/>
@@ -28838,17 +28933,50 @@
       <c r="Q548" s="20" t="n"/>
     </row>
     <row r="549">
-      <c r="A549" s="18" t="n"/>
-      <c r="B549" s="18" t="n"/>
-      <c r="C549" s="18" t="n"/>
-      <c r="D549" s="18" t="n"/>
+      <c r="A549" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B549" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C549" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D549" s="18" t="inlineStr">
+        <is>
+          <t>사용해야 하는 클라이언트 쪽 암호화를 결정합니다.</t>
+        </is>
+      </c>
       <c r="E549" s="18" t="n"/>
-      <c r="F549" s="18" t="n"/>
+      <c r="F549" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H549" s="18" t="n"/>
-      <c r="I549" s="13" t="n"/>
+      <c r="I549" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J549" s="13" t="n"/>
       <c r="K549" s="19" t="n"/>
-      <c r="L549" s="19" t="n"/>
+      <c r="L549" s="19" t="inlineStr">
+        <is>
+          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+        </is>
+      </c>
       <c r="M549" s="20" t="n"/>
       <c r="N549" s="20" t="n"/>
       <c r="O549" s="20" t="n"/>
@@ -28856,17 +28984,54 @@
       <c r="Q549" s="20" t="n"/>
     </row>
     <row r="550">
-      <c r="A550" s="18" t="n"/>
-      <c r="B550" s="18" t="n"/>
-      <c r="C550" s="18" t="n"/>
-      <c r="D550" s="18" t="n"/>
-      <c r="E550" s="18" t="n"/>
-      <c r="F550" s="18" t="n"/>
+      <c r="A550" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B550" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C550" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D550" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">공용 Blob 액세스가 필요한지 또는 특정 스토리지 계정에 대해 사용하지 않도록 설정할 수 있는지 여부를 고려합니다. </t>
+        </is>
+      </c>
+      <c r="E550" s="18" t="inlineStr">
+        <is>
+          <t>Resource Graph Explorer(resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true)를 활용하여 익명 Blob 액세스를 허용하는 스토리지 계정을 찾습니다.</t>
+        </is>
+      </c>
+      <c r="F550" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H550" s="18" t="n"/>
-      <c r="I550" s="13" t="n"/>
+      <c r="I550" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J550" s="13" t="n"/>
       <c r="K550" s="19" t="n"/>
-      <c r="L550" s="19" t="n"/>
+      <c r="L550" s="19" t="inlineStr">
+        <is>
+          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+        </is>
+      </c>
       <c r="M550" s="20" t="n"/>
       <c r="N550" s="20" t="n"/>
       <c r="O550" s="20" t="n"/>
@@ -40808,7 +40973,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G546" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G551" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -41110,11 +41275,11 @@
     <hyperlink ref="I396" r:id="rId295"/>
     <hyperlink ref="I397" r:id="rId296"/>
     <hyperlink ref="I398" r:id="rId297"/>
-    <hyperlink ref="I400" r:id="rId298"/>
-    <hyperlink ref="I401" r:id="rId299"/>
-    <hyperlink ref="I402" r:id="rId300"/>
-    <hyperlink ref="I403" r:id="rId301"/>
-    <hyperlink ref="I404" r:id="rId302"/>
+    <hyperlink ref="I399" r:id="rId298"/>
+    <hyperlink ref="I400" r:id="rId299"/>
+    <hyperlink ref="I401" r:id="rId300"/>
+    <hyperlink ref="I402" r:id="rId301"/>
+    <hyperlink ref="I403" r:id="rId302"/>
     <hyperlink ref="I405" r:id="rId303"/>
     <hyperlink ref="I406" r:id="rId304"/>
     <hyperlink ref="I407" r:id="rId305"/>
@@ -41135,11 +41300,11 @@
     <hyperlink ref="I422" r:id="rId320"/>
     <hyperlink ref="I423" r:id="rId321"/>
     <hyperlink ref="I424" r:id="rId322"/>
-    <hyperlink ref="I426" r:id="rId323"/>
-    <hyperlink ref="I427" r:id="rId324"/>
-    <hyperlink ref="I428" r:id="rId325"/>
-    <hyperlink ref="I429" r:id="rId326"/>
-    <hyperlink ref="I430" r:id="rId327"/>
+    <hyperlink ref="I425" r:id="rId323"/>
+    <hyperlink ref="I426" r:id="rId324"/>
+    <hyperlink ref="I427" r:id="rId325"/>
+    <hyperlink ref="I428" r:id="rId326"/>
+    <hyperlink ref="I429" r:id="rId327"/>
     <hyperlink ref="I431" r:id="rId328"/>
     <hyperlink ref="I432" r:id="rId329"/>
     <hyperlink ref="I433" r:id="rId330"/>
@@ -41235,24 +41400,29 @@
     <hyperlink ref="I523" r:id="rId420"/>
     <hyperlink ref="I524" r:id="rId421"/>
     <hyperlink ref="I525" r:id="rId422"/>
-    <hyperlink ref="I527" r:id="rId423"/>
-    <hyperlink ref="I528" r:id="rId424"/>
-    <hyperlink ref="I529" r:id="rId425"/>
-    <hyperlink ref="I530" r:id="rId426"/>
-    <hyperlink ref="I531" r:id="rId427"/>
+    <hyperlink ref="I526" r:id="rId423"/>
+    <hyperlink ref="I527" r:id="rId424"/>
+    <hyperlink ref="I528" r:id="rId425"/>
+    <hyperlink ref="I529" r:id="rId426"/>
+    <hyperlink ref="I530" r:id="rId427"/>
     <hyperlink ref="I532" r:id="rId428"/>
     <hyperlink ref="I533" r:id="rId429"/>
     <hyperlink ref="I534" r:id="rId430"/>
     <hyperlink ref="I535" r:id="rId431"/>
     <hyperlink ref="I536" r:id="rId432"/>
     <hyperlink ref="I537" r:id="rId433"/>
-    <hyperlink ref="I539" r:id="rId434"/>
-    <hyperlink ref="I540" r:id="rId435"/>
-    <hyperlink ref="I541" r:id="rId436"/>
-    <hyperlink ref="I542" r:id="rId437"/>
-    <hyperlink ref="I543" r:id="rId438"/>
+    <hyperlink ref="I538" r:id="rId434"/>
+    <hyperlink ref="I539" r:id="rId435"/>
+    <hyperlink ref="I540" r:id="rId436"/>
+    <hyperlink ref="I541" r:id="rId437"/>
+    <hyperlink ref="I542" r:id="rId438"/>
     <hyperlink ref="I544" r:id="rId439"/>
     <hyperlink ref="I545" r:id="rId440"/>
+    <hyperlink ref="I546" r:id="rId441"/>
+    <hyperlink ref="I547" r:id="rId442"/>
+    <hyperlink ref="I548" r:id="rId443"/>
+    <hyperlink ref="I549" r:id="rId444"/>
+    <hyperlink ref="I550" r:id="rId445"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -19375,7 +19375,7 @@
       </c>
       <c r="B370" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C370" s="18" t="inlineStr">
@@ -19385,13 +19385,13 @@
       </c>
       <c r="D370" s="18" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
+          <t>ExpressRoute 회로의 두 물리적 링크가 네트워크에 있는 두 개의 고유한 에지 디바이스에 연결되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E370" s="18" t="n"/>
       <c r="F370" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -19407,13 +19407,13 @@
       </c>
       <c r="J370" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K370" s="19" t="n"/>
       <c r="L370" s="19" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
         </is>
       </c>
       <c r="M370" s="20" t="n"/>
@@ -19430,23 +19430,23 @@
       </c>
       <c r="B371" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C371" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D371" s="18" t="inlineStr">
         <is>
-          <t>개인 인터넷에 대한 주소 할당 범위의 IP 주소를 사용합니다(RFC 1918).</t>
+          <t>BFD(Bidirectional Forwarding Detection)가 고객 또는 프로바이더 에지 라우팅 디바이스에서 활성화되고 구성되도록 보장합니다.</t>
         </is>
       </c>
       <c r="E371" s="18" t="n"/>
       <c r="F371" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -19462,17 +19462,13 @@
       </c>
       <c r="J371" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K371" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K371" s="19" t="n"/>
       <c r="L371" s="19" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
         </is>
       </c>
       <c r="M371" s="20" t="n"/>
@@ -19489,17 +19485,17 @@
       </c>
       <c r="B372" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C372" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D372" s="18" t="inlineStr">
         <is>
-          <t>IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요.</t>
+          <t>복원력을 높이기 위해 서로 다른 피어링 위치에서 둘 이상의 회로에 ExpressRoute 게이트웨이를 연결합니다.</t>
         </is>
       </c>
       <c r="E372" s="18" t="n"/>
@@ -19521,17 +19517,13 @@
       </c>
       <c r="J372" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K372" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K372" s="19" t="n"/>
       <c r="L372" s="19" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
         </is>
       </c>
       <c r="M372" s="20" t="n"/>
@@ -19548,23 +19540,23 @@
       </c>
       <c r="B373" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C373" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D373" s="18" t="inlineStr">
         <is>
-          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t>ExpressRoute 가상 네트워크 게이트웨이에 대한 진단 로그 및 경고를 구성합니다.</t>
         </is>
       </c>
       <c r="E373" s="18" t="n"/>
       <c r="F373" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -19580,13 +19572,13 @@
       </c>
       <c r="J373" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K373" s="19" t="n"/>
       <c r="L373" s="19" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
         </is>
       </c>
       <c r="M373" s="20" t="n"/>
@@ -19603,17 +19595,17 @@
       </c>
       <c r="B374" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C374" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D374" s="18" t="inlineStr">
         <is>
-          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 사용하여 확인을 위해 Azure 프라이빗 DNS를 사용합니다.</t>
+          <t>VNet 간 통신에 ExpressRoute 회로를 사용하지 마세요.</t>
         </is>
       </c>
       <c r="E374" s="18" t="n"/>
@@ -19635,13 +19627,13 @@
       </c>
       <c r="J374" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K374" s="19" t="n"/>
       <c r="L374" s="19" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
         </is>
       </c>
       <c r="M374" s="20" t="n"/>
@@ -19663,18 +19655,18 @@
       </c>
       <c r="C375" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D375" s="18" t="inlineStr">
         <is>
-          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="E375" s="18" t="n"/>
       <c r="F375" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -19690,13 +19682,13 @@
       </c>
       <c r="J375" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K375" s="19" t="n"/>
       <c r="L375" s="19" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M375" s="20" t="n"/>
@@ -19713,17 +19705,17 @@
       </c>
       <c r="B376" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C376" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D376" s="18" t="inlineStr">
         <is>
-          <t>자체 DNS(예: Red Hat OpenShift)를 요구하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
+          <t>개인 인터넷에 대한 주소 할당 범위의 IP 주소를 사용합니다(RFC 1918).</t>
         </is>
       </c>
       <c r="E376" s="18" t="n"/>
@@ -19743,11 +19735,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J376" s="13" t="n"/>
-      <c r="K376" s="19" t="n"/>
+      <c r="J376" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K376" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
+        </is>
+      </c>
       <c r="L376" s="19" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M376" s="20" t="n"/>
@@ -19764,17 +19764,17 @@
       </c>
       <c r="B377" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C377" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D377" s="18" t="inlineStr">
         <is>
-          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
+          <t>IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요.</t>
         </is>
       </c>
       <c r="E377" s="18" t="n"/>
@@ -19796,13 +19796,17 @@
       </c>
       <c r="J377" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
-      <c r="K377" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K377" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
+        </is>
+      </c>
       <c r="L377" s="19" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M377" s="20" t="n"/>
@@ -19819,23 +19823,23 @@
       </c>
       <c r="B378" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C378" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D378" s="18" t="inlineStr">
         <is>
-          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
+          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="E378" s="18" t="n"/>
       <c r="F378" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -19849,11 +19853,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J378" s="13" t="n"/>
+      <c r="J378" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K378" s="19" t="n"/>
       <c r="L378" s="19" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M378" s="20" t="n"/>
@@ -19870,17 +19878,17 @@
       </c>
       <c r="B379" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C379" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D379" s="18" t="inlineStr">
         <is>
-          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
+          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 사용하여 확인을 위해 Azure 프라이빗 DNS를 사용합니다.</t>
         </is>
       </c>
       <c r="E379" s="18" t="n"/>
@@ -19900,15 +19908,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J379" s="13" t="n"/>
-      <c r="K379" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J379" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
+      <c r="K379" s="19" t="n"/>
       <c r="L379" s="19" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M379" s="20" t="n"/>
@@ -19930,18 +19938,18 @@
       </c>
       <c r="C380" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D380" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
+          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E380" s="18" t="n"/>
       <c r="F380" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -19957,13 +19965,13 @@
       </c>
       <c r="J380" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="K380" s="19" t="n"/>
       <c r="L380" s="19" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M380" s="20" t="n"/>
@@ -19980,23 +19988,23 @@
       </c>
       <c r="B381" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C381" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D381" s="18" t="inlineStr">
         <is>
-          <t>글로벌 Azure Firewall 정책을 만들어 글로벌 네트워크 환경에서 보안 태세를 제어하고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
+          <t>자체 DNS(예: Red Hat OpenShift)를 요구하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="E381" s="18" t="n"/>
       <c r="F381" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -20010,15 +20018,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J381" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J381" s="13" t="n"/>
       <c r="K381" s="19" t="n"/>
       <c r="L381" s="19" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M381" s="20" t="n"/>
@@ -20035,23 +20039,23 @@
       </c>
       <c r="B382" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C382" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D382" s="18" t="inlineStr">
         <is>
-          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
+          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
         </is>
       </c>
       <c r="E382" s="18" t="n"/>
       <c r="F382" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
@@ -20067,13 +20071,13 @@
       </c>
       <c r="J382" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="K382" s="19" t="n"/>
       <c r="L382" s="19" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M382" s="20" t="n"/>
@@ -20095,12 +20099,12 @@
       </c>
       <c r="C383" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D383" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
+          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E383" s="18" t="n"/>
@@ -20120,15 +20124,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J383" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+      <c r="J383" s="13" t="n"/>
       <c r="K383" s="19" t="n"/>
       <c r="L383" s="19" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M383" s="20" t="n"/>
@@ -20150,18 +20150,18 @@
       </c>
       <c r="C384" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D384" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
+          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
         </is>
       </c>
       <c r="E384" s="18" t="n"/>
       <c r="F384" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -20175,15 +20175,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J384" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K384" s="19" t="n"/>
+      <c r="J384" s="13" t="n"/>
+      <c r="K384" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L384" s="19" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M384" s="20" t="n"/>
@@ -20205,12 +20205,12 @@
       </c>
       <c r="C385" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D385" s="18" t="inlineStr">
         <is>
-          <t>WAF 및 기타 역방향 프록시 배포는 인바운드 HTTP/S 연결에 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
+          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
         </is>
       </c>
       <c r="E385" s="18" t="n"/>
@@ -20232,13 +20232,13 @@
       </c>
       <c r="J385" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K385" s="19" t="n"/>
       <c r="L385" s="19" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M385" s="20" t="n"/>
@@ -20260,18 +20260,18 @@
       </c>
       <c r="C386" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D386" s="18" t="inlineStr">
         <is>
-          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
+          <t>글로벌 Azure Firewall 정책을 만들어 글로벌 네트워크 환경에서 보안 태세를 제어하고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
         </is>
       </c>
       <c r="E386" s="18" t="n"/>
       <c r="F386" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -20293,7 +20293,7 @@
       <c r="K386" s="19" t="n"/>
       <c r="L386" s="19" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M386" s="20" t="n"/>
@@ -20320,13 +20320,13 @@
       </c>
       <c r="D387" s="18" t="inlineStr">
         <is>
-          <t>FQDN 기반 네트워크 규칙 및 DNS 프록시와 함께 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 프로토콜을 통해 인터넷으로의 송신 트래픽을 필터링합니다.</t>
+          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
         </is>
       </c>
       <c r="E387" s="18" t="n"/>
       <c r="F387" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -20340,15 +20340,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J387" s="13" t="n"/>
-      <c r="K387" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.dnsSettings.enableProxy == true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J387" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K387" s="19" t="n"/>
       <c r="L387" s="19" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M387" s="20" t="n"/>
@@ -20370,18 +20370,18 @@
       </c>
       <c r="C388" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D388" s="18" t="inlineStr">
         <is>
-          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="E388" s="18" t="n"/>
       <c r="F388" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -20395,15 +20395,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J388" s="13" t="n"/>
-      <c r="K388" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.sku.tier == 'Premium') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J388" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K388" s="19" t="n"/>
       <c r="L388" s="19" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M388" s="20" t="n"/>
@@ -20425,18 +20425,18 @@
       </c>
       <c r="C389" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D389" s="18" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="E389" s="18" t="n"/>
       <c r="F389" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -20450,15 +20450,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J389" s="13" t="n"/>
-      <c r="K389" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.threatIntelMode == 'Deny') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J389" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K389" s="19" t="n"/>
       <c r="L389" s="19" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M389" s="20" t="n"/>
@@ -20480,12 +20480,12 @@
       </c>
       <c r="C390" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D390" s="18" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
+          <t>WAF 및 기타 역방향 프록시 배포는 인바운드 HTTP/S 연결에 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
         </is>
       </c>
       <c r="E390" s="18" t="n"/>
@@ -20505,15 +20505,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J390" s="13" t="n"/>
-      <c r="K390" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.intrusionDetection.mode == 'Deny') | project id, compliant</t>
-        </is>
-      </c>
+      <c r="J390" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K390" s="19" t="n"/>
       <c r="L390" s="19" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M390" s="20" t="n"/>
@@ -20535,12 +20535,12 @@
       </c>
       <c r="C391" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D391" s="18" t="inlineStr">
         <is>
-          <t>Virtual WAN에 연결되지 않은 VNet의 서브넷의 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
+          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="E391" s="18" t="n"/>
@@ -20560,15 +20560,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J391" s="13" t="n"/>
-      <c r="K391" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetId=tostring(subnets.id), subnetName=tostring(subnets.name),subnetRT=subnets.properties.routeTable.id | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend hasRT = isnotnull(subnetRT) | distinct id, hasRT, subnetId | join kind=fullouter (resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | extend isVWAN=(tolower(split(properties_virtualNetworkPeerings.name, '_')[0]) == 'remotevnettohubpeering') | mv-expand properties.subnets | project id, isVWAN, name, subnetId=tostring(properties_subnets.id), subnetName=tostring(properties_subnets.name) | summarize PeeredToVWAN=max(isVWAN) by id, subnetId | project id, subnetId, isVWANpeer = (PeeredToVWAN == true)) on subnetId | project id=iff(isnotempty(id), id, id1), subnetId=iff(isnotempty(subnetId), subnetId, subnetId1), hasRT, isVWANpeer | extend compliant = (hasRT==true or isVWANpeer==true) | distinct id, subnetId, compliant</t>
-        </is>
-      </c>
+      <c r="J391" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K391" s="19" t="n"/>
       <c r="L391" s="19" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M391" s="20" t="n"/>
@@ -20585,17 +20585,17 @@
       </c>
       <c r="B392" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C392" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D392" s="18" t="inlineStr">
         <is>
-          <t>예정된 호환성이 손상되는 변경 전에 네트워크 아웃바운드 트래픽 구성 및 전략을 평가하고 검토합니다. 2025년 9월 30일에 새 배포에 대한 기본 아웃바운드 액세스가 사용 중지되고 명시적 액세스 구성만 허용됩니다</t>
+          <t>FQDN 기반 네트워크 규칙 및 DNS 프록시와 함께 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 프로토콜을 통해 인터넷으로의 송신 트래픽을 필터링합니다.</t>
         </is>
       </c>
       <c r="E392" s="18" t="n"/>
@@ -20616,10 +20616,14 @@
         </is>
       </c>
       <c r="J392" s="13" t="n"/>
-      <c r="K392" s="19" t="n"/>
+      <c r="K392" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.dnsSettings.enableProxy == true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L392" s="19" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M392" s="20" t="n"/>
@@ -20641,12 +20645,12 @@
       </c>
       <c r="C393" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D393" s="18" t="inlineStr">
         <is>
-          <t>보호된 모든 공용 IP 주소(DDoS IP 또는 네트워크 보호)에 대한 DDoS 관련 로그를 저장하는 진단 설정을 추가합니다.</t>
+          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
         </is>
       </c>
       <c r="E393" s="18" t="n"/>
@@ -20666,15 +20670,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J393" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K393" s="19" t="n"/>
+      <c r="J393" s="13" t="n"/>
+      <c r="K393" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.sku.tier == 'Premium') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L393" s="19" t="inlineStr">
         <is>
-          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M393" s="20" t="n"/>
@@ -20691,7 +20695,7 @@
       </c>
       <c r="B394" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C394" s="18" t="inlineStr">
@@ -20701,13 +20705,13 @@
       </c>
       <c r="D394" s="18" t="inlineStr">
         <is>
-          <t>모든 Azure Firewall 배포에 대해 리소스별 대상 테이블을 사용하여 로그를 저장하는 진단 설정을 추가합니다.</t>
+          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="E394" s="18" t="n"/>
       <c r="F394" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -20721,15 +20725,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J394" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K394" s="19" t="n"/>
+      <c r="J394" s="13" t="n"/>
+      <c r="K394" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.threatIntelMode == 'Deny') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L394" s="19" t="inlineStr">
         <is>
-          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M394" s="20" t="n"/>
@@ -20746,7 +20750,7 @@
       </c>
       <c r="B395" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C395" s="18" t="inlineStr">
@@ -20756,13 +20760,13 @@
       </c>
       <c r="D395" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall 클래식 규칙(있는 경우)에서 방화벽 정책으로 마이그레이션합니다.</t>
+          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="E395" s="18" t="n"/>
       <c r="F395" s="18" t="inlineStr">
         <is>
-          <t>중요하다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -20776,15 +20780,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J395" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K395" s="19" t="n"/>
+      <c r="J395" s="13" t="n"/>
+      <c r="K395" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.intrusionDetection.mode == 'Deny') | project id, compliant</t>
+        </is>
+      </c>
       <c r="L395" s="19" t="inlineStr">
         <is>
-          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M395" s="20" t="n"/>
@@ -20806,12 +20810,12 @@
       </c>
       <c r="C396" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D396" s="18" t="inlineStr">
         <is>
-          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 중단되지 않았는지 확인합니다(예: 0.0.0.0/0 경로 또는 컨트롤 플레인 트래픽을 차단하는 NSG 규칙).</t>
+          <t>Virtual WAN에 연결되지 않은 VNet의 서브넷의 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
         </is>
       </c>
       <c r="E396" s="18" t="n"/>
@@ -20831,15 +20835,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J396" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
-      <c r="K396" s="19" t="n"/>
+      <c r="J396" s="13" t="n"/>
+      <c r="K396" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetId=tostring(subnets.id), subnetName=tostring(subnets.name),subnetRT=subnets.properties.routeTable.id | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend hasRT = isnotnull(subnetRT) | distinct id, hasRT, subnetId | join kind=fullouter (resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | extend isVWAN=(tolower(split(properties_virtualNetworkPeerings.name, '_')[0]) == 'remotevnettohubpeering') | mv-expand properties.subnets | project id, isVWAN, name, subnetId=tostring(properties_subnets.id), subnetName=tostring(properties_subnets.name) | summarize PeeredToVWAN=max(isVWAN) by id, subnetId | project id, subnetId, isVWANpeer = (PeeredToVWAN == true)) on subnetId | project id=iff(isnotempty(id), id, id1), subnetId=iff(isnotempty(subnetId), subnetId, subnetId1), hasRT, isVWANpeer | extend compliant = (hasRT==true or isVWANpeer==true) | distinct id, subnetId, compliant</t>
+        </is>
+      </c>
       <c r="L396" s="19" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M396" s="20" t="n"/>
@@ -20856,23 +20860,23 @@
       </c>
       <c r="B397" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C397" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D397" s="18" t="inlineStr">
         <is>
-          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
+          <t>예정된 호환성이 손상되는 변경 전에 네트워크 아웃바운드 트래픽 구성 및 전략을 평가하고 검토합니다. 2025년 9월 30일에 새 배포에 대한 기본 아웃바운드 액세스가 사용 중지되고 명시적 액세스 구성만 허용됩니다</t>
         </is>
       </c>
       <c r="E397" s="18" t="n"/>
       <c r="F397" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
@@ -20886,15 +20890,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J397" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+      <c r="J397" s="13" t="n"/>
       <c r="K397" s="19" t="n"/>
       <c r="L397" s="19" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M397" s="20" t="n"/>
@@ -20921,13 +20921,13 @@
       </c>
       <c r="D398" s="18" t="inlineStr">
         <is>
-          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
+          <t>보호된 모든 공용 IP 주소(DDoS IP 또는 네트워크 보호)에 대한 DDoS 관련 로그를 저장하는 진단 설정을 추가합니다.</t>
         </is>
       </c>
       <c r="E398" s="18" t="n"/>
       <c r="F398" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -20943,17 +20943,13 @@
       </c>
       <c r="J398" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
-      <c r="K398" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets = properties.subnets | mv-expand subnets | project id = subnets.id, resourceGroup, VNet = name, serviceEndpoints = subnets.properties.serviceEndpoints, compliant = (isnull(subnets.properties.serviceEndpoints) or array_length(subnets.properties.serviceEndpoints) == 0) | order by compliant asc</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K398" s="19" t="n"/>
       <c r="L398" s="19" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M398" s="20" t="n"/>
@@ -20970,7 +20966,7 @@
       </c>
       <c r="B399" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C399" s="18" t="inlineStr">
@@ -20980,7 +20976,7 @@
       </c>
       <c r="D399" s="18" t="inlineStr">
         <is>
-          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스에 대한 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
+          <t>모든 Azure Firewall 배포에 대해 리소스별 대상 테이블을 사용하여 로그를 저장하는 진단 설정을 추가합니다.</t>
         </is>
       </c>
       <c r="E399" s="18" t="n"/>
@@ -21002,13 +20998,13 @@
       </c>
       <c r="J399" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K399" s="19" t="n"/>
       <c r="L399" s="19" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
         </is>
       </c>
       <c r="M399" s="20" t="n"/>
@@ -21025,7 +21021,7 @@
       </c>
       <c r="B400" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C400" s="18" t="inlineStr">
@@ -21035,13 +21031,13 @@
       </c>
       <c r="D400" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
+          <t>Azure Firewall 클래식 규칙(있는 경우)에서 방화벽 정책으로 마이그레이션합니다.</t>
         </is>
       </c>
       <c r="E400" s="18" t="n"/>
       <c r="F400" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>중요하다</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
@@ -21055,15 +21051,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J400" s="13" t="n"/>
-      <c r="K400" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureFirewallSubnet' | extend compliant = (subnetPrefixLength == 26) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J400" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K400" s="19" t="n"/>
       <c r="L400" s="19" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
         </is>
       </c>
       <c r="M400" s="20" t="n"/>
@@ -21085,12 +21081,12 @@
       </c>
       <c r="C401" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D401" s="18" t="inlineStr">
         <is>
-          <t>게이트웨이 서브넷에 /27 이상의 접두사를 사용합니다</t>
+          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 중단되지 않았는지 확인합니다(예: 0.0.0.0/0 경로 또는 컨트롤 플레인 트래픽을 차단하는 NSG 규칙).</t>
         </is>
       </c>
       <c r="E401" s="18" t="n"/>
@@ -21110,15 +21106,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J401" s="13" t="n"/>
-      <c r="K401" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'GatewaySubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J401" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
+      <c r="K401" s="19" t="n"/>
       <c r="L401" s="19" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M401" s="20" t="n"/>
@@ -21140,12 +21136,12 @@
       </c>
       <c r="C402" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D402" s="18" t="inlineStr">
         <is>
-          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
+          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="E402" s="18" t="n"/>
@@ -21165,15 +21161,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J402" s="13" t="n"/>
-      <c r="K402" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/networksecuritygroups' | mvexpand properties.securityRules | project id,name,ruleAction=properties_securityRules.properties.access,rulePriority=properties_securityRules.properties.priority,ruleDst=properties_securityRules.properties.destinationAddressPrefix,ruleSrc=properties_securityRules.properties.sourceAddressPrefix,ruleProt=properties_securityRules.properties.protocol,ruleDirection=properties_securityRules.properties.direction,rulePort=properties_securityRules.properties.destinationPortRange | summarize StarDenies=countif(ruleAction=='Deny' and ruleDst=='*' and ruleSrc=='*' and ruleProt=='*' and rulePort=='*') by id,tostring(ruleDirection) | where ruleDirection == 'Inbound' | project id,compliant=(StarDenies&gt;0) | union (resources | where type=='microsoft.network/networksecuritygroups' | where array_length(properties.securityRules)==0 | extend compliant=false | project id,compliant)</t>
-        </is>
-      </c>
+      <c r="J402" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K402" s="19" t="n"/>
       <c r="L402" s="19" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M402" s="20" t="n"/>
@@ -21195,12 +21191,12 @@
       </c>
       <c r="C403" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D403" s="18" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 서브넷 간의 트래픽과 플랫폼 전체의 East/West 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
+          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
         </is>
       </c>
       <c r="E403" s="18" t="n"/>
@@ -21222,13 +21218,17 @@
       </c>
       <c r="J403" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
-      <c r="K403" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
+      <c r="K403" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets = properties.subnets | mv-expand subnets | project id = subnets.id, resourceGroup, VNet = name, serviceEndpoints = subnets.properties.serviceEndpoints, compliant = (isnull(subnets.properties.serviceEndpoints) or array_length(subnets.properties.serviceEndpoints) == 0) | order by compliant asc</t>
+        </is>
+      </c>
       <c r="L403" s="19" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M403" s="20" t="n"/>
@@ -21250,12 +21250,12 @@
       </c>
       <c r="C404" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D404" s="18" t="inlineStr">
         <is>
-          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
+          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스에 대한 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
         </is>
       </c>
       <c r="E404" s="18" t="n"/>
@@ -21270,20 +21270,20 @@
         </is>
       </c>
       <c r="H404" s="18" t="n"/>
-      <c r="I404" s="13" t="n"/>
+      <c r="I404" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J404" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
-      <c r="K404" s="19" t="inlineStr">
-        <is>
-          <t>Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetName=subnets.name,subnetNsg=subnets.properties.networkSecurityGroup | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend compliant = isnotnull(subnetNsg)</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
+      <c r="K404" s="19" t="n"/>
       <c r="L404" s="19" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M404" s="20" t="n"/>
@@ -21305,18 +21305,18 @@
       </c>
       <c r="C405" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D405" s="18" t="inlineStr">
         <is>
-          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
+          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="E405" s="18" t="n"/>
       <c r="F405" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -21330,15 +21330,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J405" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
-      <c r="K405" s="19" t="n"/>
+      <c r="J405" s="13" t="n"/>
+      <c r="K405" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureFirewallSubnet' | extend compliant = (subnetPrefixLength == 26) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L405" s="19" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M405" s="20" t="n"/>
@@ -21360,18 +21360,18 @@
       </c>
       <c r="C406" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D406" s="18" t="inlineStr">
         <is>
-          <t>VNet 흐름 로그를 사용하도록 설정하고 트래픽 분석에 제공하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
+          <t>게이트웨이 서브넷에 /27 이상의 접두사를 사용합니다</t>
         </is>
       </c>
       <c r="E406" s="18" t="n"/>
       <c r="F406" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
@@ -21385,15 +21385,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J406" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
-      <c r="K406" s="19" t="n"/>
+      <c r="J406" s="13" t="n"/>
+      <c r="K406" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'GatewaySubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L406" s="19" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M406" s="20" t="n"/>
@@ -21410,7 +21410,7 @@
       </c>
       <c r="B407" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C407" s="18" t="inlineStr">
@@ -21420,7 +21420,7 @@
       </c>
       <c r="D407" s="18" t="inlineStr">
         <is>
-          <t>NSG당 NSG 규칙의 제한(1000)을 고려합니다.</t>
+          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="E407" s="18" t="n"/>
@@ -21440,19 +21440,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J407" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="J407" s="13" t="n"/>
       <c r="K407" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/networksecuritygroups' | project id, rules = array_length(properties.securityRules) | project id, compliant = (rules &lt; 900)</t>
+          <t>resources | where type=='microsoft.network/networksecuritygroups' | mvexpand properties.securityRules | project id,name,ruleAction=properties_securityRules.properties.access,rulePriority=properties_securityRules.properties.priority,ruleDst=properties_securityRules.properties.destinationAddressPrefix,ruleSrc=properties_securityRules.properties.sourceAddressPrefix,ruleProt=properties_securityRules.properties.protocol,ruleDirection=properties_securityRules.properties.direction,rulePort=properties_securityRules.properties.destinationPortRange | summarize StarDenies=countif(ruleAction=='Deny' and ruleDst=='*' and ruleSrc=='*' and ruleProt=='*' and rulePort=='*') by id,tostring(ruleDirection) | where ruleDirection == 'Inbound' | project id,compliant=(StarDenies&gt;0) | union (resources | where type=='microsoft.network/networksecuritygroups' | where array_length(properties.securityRules)==0 | extend compliant=false | project id,compliant)</t>
         </is>
       </c>
       <c r="L407" s="19" t="inlineStr">
         <is>
-          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M407" s="20" t="n"/>
@@ -21469,17 +21465,17 @@
       </c>
       <c r="B408" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C408" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D408" s="18" t="inlineStr">
         <is>
-          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
+          <t>NSG를 사용하여 서브넷 간의 트래픽과 플랫폼 전체의 East/West 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="E408" s="18" t="n"/>
@@ -21501,13 +21497,13 @@
       </c>
       <c r="J408" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="K408" s="19" t="n"/>
       <c r="L408" s="19" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M408" s="20" t="n"/>
@@ -21524,17 +21520,17 @@
       </c>
       <c r="B409" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C409" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D409" s="18" t="inlineStr">
         <is>
-          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
+          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
         </is>
       </c>
       <c r="E409" s="18" t="n"/>
@@ -21549,16 +21545,20 @@
         </is>
       </c>
       <c r="H409" s="18" t="n"/>
-      <c r="I409" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
-      <c r="J409" s="13" t="n"/>
-      <c r="K409" s="19" t="n"/>
+      <c r="I409" s="13" t="n"/>
+      <c r="J409" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
+      <c r="K409" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetName=subnets.name,subnetNsg=subnets.properties.networkSecurityGroup | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend compliant = isnotnull(subnetNsg)</t>
+        </is>
+      </c>
       <c r="L409" s="19" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M409" s="20" t="n"/>
@@ -21575,23 +21575,23 @@
       </c>
       <c r="B410" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C410" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D410" s="18" t="inlineStr">
         <is>
-          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽은 Azure에 유지' 원칙에 따라</t>
+          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="E410" s="18" t="n"/>
       <c r="F410" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
@@ -21605,11 +21605,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J410" s="13" t="n"/>
+      <c r="J410" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="K410" s="19" t="n"/>
       <c r="L410" s="19" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M410" s="20" t="n"/>
@@ -21631,12 +21635,12 @@
       </c>
       <c r="C411" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D411" s="18" t="inlineStr">
         <is>
-          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 보안 허브에 Azure Firewall을 배포합니다</t>
+          <t>VNet 흐름 로그를 사용하도록 설정하고 트래픽 분석에 제공하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
         </is>
       </c>
       <c r="E411" s="18" t="n"/>
@@ -21658,17 +21662,13 @@
       </c>
       <c r="J411" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K411" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualhubs' | extend compliant = isnotnull(properties.azureFirewall.id) | project id, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
+      <c r="K411" s="19" t="n"/>
       <c r="L411" s="19" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M411" s="20" t="n"/>
@@ -21690,12 +21690,12 @@
       </c>
       <c r="C412" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D412" s="18" t="inlineStr">
         <is>
-          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
+          <t>NSG당 NSG 규칙의 제한(1000)을 고려합니다.</t>
         </is>
       </c>
       <c r="E412" s="18" t="n"/>
@@ -21715,11 +21715,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J412" s="13" t="n"/>
-      <c r="K412" s="19" t="n"/>
+      <c r="J412" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="K412" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/networksecuritygroups' | project id, rules = array_length(properties.securityRules) | project id, compliant = (rules &lt; 900)</t>
+        </is>
+      </c>
       <c r="L412" s="19" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
         </is>
       </c>
       <c r="M412" s="20" t="n"/>
@@ -21746,7 +21754,7 @@
       </c>
       <c r="D413" s="18" t="inlineStr">
         <is>
-          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
+          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
         </is>
       </c>
       <c r="E413" s="18" t="n"/>
@@ -21766,11 +21774,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J413" s="13" t="n"/>
+      <c r="J413" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K413" s="19" t="n"/>
       <c r="L413" s="19" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M413" s="20" t="n"/>
@@ -21787,7 +21799,7 @@
       </c>
       <c r="B414" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C414" s="18" t="inlineStr">
@@ -21797,7 +21809,7 @@
       </c>
       <c r="D414" s="18" t="inlineStr">
         <is>
-          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
+          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
         </is>
       </c>
       <c r="E414" s="18" t="n"/>
@@ -21821,7 +21833,7 @@
       <c r="K414" s="19" t="n"/>
       <c r="L414" s="19" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M414" s="20" t="n"/>
@@ -21838,7 +21850,7 @@
       </c>
       <c r="B415" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C415" s="18" t="inlineStr">
@@ -21848,13 +21860,13 @@
       </c>
       <c r="D415" s="18" t="inlineStr">
         <is>
-          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
+          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽은 Azure에 유지' 원칙에 따라</t>
         </is>
       </c>
       <c r="E415" s="18" t="n"/>
       <c r="F415" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
@@ -21872,7 +21884,7 @@
       <c r="K415" s="19" t="n"/>
       <c r="L415" s="19" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M415" s="20" t="n"/>
@@ -21889,7 +21901,7 @@
       </c>
       <c r="B416" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C416" s="18" t="inlineStr">
@@ -21899,7 +21911,7 @@
       </c>
       <c r="D416" s="18" t="inlineStr">
         <is>
-          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하는지 확인하며, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
+          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 보안 허브에 Azure Firewall을 배포합니다</t>
         </is>
       </c>
       <c r="E416" s="18" t="n"/>
@@ -21919,11 +21931,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J416" s="13" t="n"/>
-      <c r="K416" s="19" t="n"/>
+      <c r="J416" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K416" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualhubs' | extend compliant = isnotnull(properties.azureFirewall.id) | project id, compliant</t>
+        </is>
+      </c>
       <c r="L416" s="19" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M416" s="20" t="n"/>
@@ -21950,13 +21970,13 @@
       </c>
       <c r="D417" s="18" t="inlineStr">
         <is>
-          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
+          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E417" s="18" t="n"/>
       <c r="F417" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
@@ -21974,7 +21994,7 @@
       <c r="K417" s="19" t="n"/>
       <c r="L417" s="19" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M417" s="20" t="n"/>
@@ -21991,23 +22011,23 @@
       </c>
       <c r="B418" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C418" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D418" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 관련 정책을 그룹화하고, 환경에 대한 컨트롤을 정의합니다.</t>
+          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
         </is>
       </c>
       <c r="E418" s="18" t="n"/>
       <c r="F418" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
@@ -22025,7 +22045,7 @@
       <c r="K418" s="19" t="n"/>
       <c r="L418" s="19" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M418" s="20" t="n"/>
@@ -22042,17 +22062,17 @@
       </c>
       <c r="B419" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C419" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D419" s="18" t="inlineStr">
         <is>
-          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용을 적용합니다.</t>
+          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="E419" s="18" t="n"/>
@@ -22076,7 +22096,7 @@
       <c r="K419" s="19" t="n"/>
       <c r="L419" s="19" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M419" s="20" t="n"/>
@@ -22093,17 +22113,17 @@
       </c>
       <c r="B420" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C420" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D420" s="18" t="inlineStr">
         <is>
-          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
+          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
         </is>
       </c>
       <c r="E420" s="18" t="n"/>
@@ -22127,7 +22147,7 @@
       <c r="K420" s="19" t="n"/>
       <c r="L420" s="19" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M420" s="20" t="n"/>
@@ -22144,17 +22164,17 @@
       </c>
       <c r="B421" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C421" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D421" s="18" t="inlineStr">
         <is>
-          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
+          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하는지 확인하며, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
         </is>
       </c>
       <c r="E421" s="18" t="n"/>
@@ -22178,7 +22198,7 @@
       <c r="K421" s="19" t="n"/>
       <c r="L421" s="19" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M421" s="20" t="n"/>
@@ -22195,23 +22215,23 @@
       </c>
       <c r="B422" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C422" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D422" s="18" t="inlineStr">
         <is>
-          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
+          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
         </is>
       </c>
       <c r="E422" s="18" t="n"/>
       <c r="F422" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
@@ -22229,7 +22249,7 @@
       <c r="K422" s="19" t="n"/>
       <c r="L422" s="19" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M422" s="20" t="n"/>
@@ -22256,13 +22276,13 @@
       </c>
       <c r="D423" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
+          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 관련 정책을 그룹화하고, 환경에 대한 컨트롤을 정의합니다.</t>
         </is>
       </c>
       <c r="E423" s="18" t="n"/>
       <c r="F423" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
@@ -22280,7 +22300,7 @@
       <c r="K423" s="19" t="n"/>
       <c r="L423" s="19" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M423" s="20" t="n"/>
@@ -22307,7 +22327,7 @@
       </c>
       <c r="D424" s="18" t="inlineStr">
         <is>
-          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
+          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용을 적용합니다.</t>
         </is>
       </c>
       <c r="E424" s="18" t="n"/>
@@ -22331,7 +22351,7 @@
       <c r="K424" s="19" t="n"/>
       <c r="L424" s="19" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M424" s="20" t="n"/>
@@ -22358,14 +22378,10 @@
       </c>
       <c r="D425" s="18" t="inlineStr">
         <is>
-          <t>특정 범위에서 기본 제공 Resource Policy 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
-        </is>
-      </c>
-      <c r="E425" s="18" t="inlineStr">
-        <is>
-          <t>특정 범위에 Resource Policy Contributor 역할을 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 응용 프로그램 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하는 분산 거버넌스를 가능하게 할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
+        </is>
+      </c>
+      <c r="E425" s="18" t="n"/>
       <c r="F425" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -22386,7 +22402,7 @@
       <c r="K425" s="19" t="n"/>
       <c r="L425" s="19" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M425" s="20" t="n"/>
@@ -22413,7 +22429,7 @@
       </c>
       <c r="D426" s="18" t="inlineStr">
         <is>
-          <t>상속된 범위에서 제외를 통해 관리하지 않도록 루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한합니다.</t>
+          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
         </is>
       </c>
       <c r="E426" s="18" t="n"/>
@@ -22437,7 +22453,7 @@
       <c r="K426" s="19" t="n"/>
       <c r="L426" s="19" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M426" s="20" t="n"/>
@@ -22464,7 +22480,7 @@
       </c>
       <c r="D427" s="18" t="inlineStr">
         <is>
-          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
+          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
         </is>
       </c>
       <c r="E427" s="18" t="n"/>
@@ -22484,15 +22500,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J427" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+      <c r="J427" s="13" t="n"/>
       <c r="K427" s="19" t="n"/>
       <c r="L427" s="19" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M427" s="20" t="n"/>
@@ -22519,13 +22531,13 @@
       </c>
       <c r="D428" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 주권 정책 기준의 정책 이니셔티브가 배포되고 올바른 MG 수준에서 할당됩니다.</t>
+          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
         </is>
       </c>
       <c r="E428" s="18" t="n"/>
       <c r="F428" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
@@ -22543,7 +22555,7 @@
       <c r="K428" s="19" t="n"/>
       <c r="L428" s="19" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M428" s="20" t="n"/>
@@ -22570,7 +22582,7 @@
       </c>
       <c r="D429" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 정책 매핑에 대한 주권 제어 목표가 문서화되어 있습니다.</t>
+          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
         </is>
       </c>
       <c r="E429" s="18" t="n"/>
@@ -22594,7 +22606,7 @@
       <c r="K429" s="19" t="n"/>
       <c r="L429" s="19" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M429" s="20" t="n"/>
@@ -22621,10 +22633,14 @@
       </c>
       <c r="D430" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 '정책 매핑에 대한 Sovereign Control 목표'의 CRUD에 대한 프로세스가 마련되어 있습니다.</t>
-        </is>
-      </c>
-      <c r="E430" s="18" t="n"/>
+          <t>특정 범위에서 기본 제공 Resource Policy 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
+        </is>
+      </c>
+      <c r="E430" s="18" t="inlineStr">
+        <is>
+          <t>특정 범위에 Resource Policy Contributor 역할을 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 응용 프로그램 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하는 분산 거버넌스를 가능하게 할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="F430" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -22636,12 +22652,16 @@
         </is>
       </c>
       <c r="H430" s="18" t="n"/>
-      <c r="I430" s="13" t="n"/>
+      <c r="I430" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J430" s="13" t="n"/>
       <c r="K430" s="19" t="n"/>
       <c r="L430" s="19" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M430" s="20" t="n"/>
@@ -22663,18 +22683,18 @@
       </c>
       <c r="C431" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D431" s="18" t="inlineStr">
         <is>
-          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
+          <t>상속된 범위에서 제외를 통해 관리하지 않도록 루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한합니다.</t>
         </is>
       </c>
       <c r="E431" s="18" t="n"/>
       <c r="F431" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
@@ -22692,7 +22712,7 @@
       <c r="K431" s="19" t="n"/>
       <c r="L431" s="19" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M431" s="20" t="n"/>
@@ -22709,17 +22729,17 @@
       </c>
       <c r="B432" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C432" s="18" t="inlineStr">
         <is>
-          <t>VMSS</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D432" s="18" t="inlineStr">
         <is>
-          <t>Azure Virtual Machine Scale Sets를 활용하여 부하에 따라 스케일 인 및 스케일 아웃합니다.</t>
+          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
         </is>
       </c>
       <c r="E432" s="18" t="n"/>
@@ -22739,11 +22759,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J432" s="13" t="n"/>
+      <c r="J432" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+        </is>
+      </c>
       <c r="K432" s="19" t="n"/>
       <c r="L432" s="19" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M432" s="20" t="n"/>
@@ -22760,23 +22784,23 @@
       </c>
       <c r="B433" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C433" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D433" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 WAF 로그를 저장하는 진단 설정을 추가합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
+          <t>Sovereign Landing Zone의 경우 주권 정책 기준의 정책 이니셔티브가 배포되고 올바른 MG 수준에서 할당됩니다.</t>
         </is>
       </c>
       <c r="E433" s="18" t="n"/>
       <c r="F433" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
@@ -22794,7 +22818,7 @@
       <c r="K433" s="19" t="n"/>
       <c r="L433" s="19" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M433" s="20" t="n"/>
@@ -22811,17 +22835,17 @@
       </c>
       <c r="B434" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C434" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D434" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 Microsoft Sentinel로 WAF 로그를 보냅니다. 공격을 감지하고 WAF 원격 분석을 전체 Azure 환경에 통합합니다.</t>
+          <t>Sovereign Landing Zone의 경우 정책 매핑에 대한 주권 제어 목표가 문서화되어 있습니다.</t>
         </is>
       </c>
       <c r="E434" s="18" t="n"/>
@@ -22845,7 +22869,7 @@
       <c r="K434" s="19" t="n"/>
       <c r="L434" s="19" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M434" s="20" t="n"/>
@@ -22862,17 +22886,17 @@
       </c>
       <c r="B435" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C435" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D435" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup을 사용하는 경우 기본 설정은 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
+          <t>Sovereign Landing Zone의 경우 '정책 매핑에 대한 Sovereign Control 목표'의 CRUD에 대한 프로세스가 마련되어 있습니다.</t>
         </is>
       </c>
       <c r="E435" s="18" t="n"/>
@@ -22887,16 +22911,12 @@
         </is>
       </c>
       <c r="H435" s="18" t="n"/>
-      <c r="I435" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I435" s="13" t="n"/>
       <c r="J435" s="13" t="n"/>
       <c r="K435" s="19" t="n"/>
       <c r="L435" s="19" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M435" s="20" t="n"/>
@@ -22913,23 +22933,23 @@
       </c>
       <c r="B436" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C436" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D436" s="18" t="inlineStr">
         <is>
-          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
+          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E436" s="18" t="n"/>
       <c r="F436" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
@@ -22943,15 +22963,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J436" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="J436" s="13" t="n"/>
       <c r="K436" s="19" t="n"/>
       <c r="L436" s="19" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M436" s="20" t="n"/>
@@ -22968,17 +22984,17 @@
       </c>
       <c r="B437" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C437" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VMSS</t>
         </is>
       </c>
       <c r="D437" s="18" t="inlineStr">
         <is>
-          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 보관된 상태로 데이터를 보관할 수 있습니다.</t>
+          <t>Azure Virtual Machine Scale Sets를 활용하여 부하에 따라 스케일 인 및 스케일 아웃합니다.</t>
         </is>
       </c>
       <c r="E437" s="18" t="n"/>
@@ -22998,15 +23014,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J437" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="J437" s="13" t="n"/>
       <c r="K437" s="19" t="n"/>
       <c r="L437" s="19" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M437" s="20" t="n"/>
@@ -23028,18 +23040,18 @@
       </c>
       <c r="C438" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D438" s="18" t="inlineStr">
         <is>
-          <t>액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 WAF 로그를 저장하는 진단 설정을 추가합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
         </is>
       </c>
       <c r="E438" s="18" t="n"/>
       <c r="F438" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
@@ -23053,15 +23065,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J438" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
-        </is>
-      </c>
+      <c r="J438" s="13" t="n"/>
       <c r="K438" s="19" t="n"/>
       <c r="L438" s="19" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M438" s="20" t="n"/>
@@ -23083,12 +23091,12 @@
       </c>
       <c r="C439" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D439" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 Microsoft Sentinel로 WAF 로그를 보냅니다. 공격을 감지하고 WAF 원격 분석을 전체 Azure 환경에 통합합니다.</t>
         </is>
       </c>
       <c r="E439" s="18" t="n"/>
@@ -23108,15 +23116,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J439" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="J439" s="13" t="n"/>
       <c r="K439" s="19" t="n"/>
       <c r="L439" s="19" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M439" s="20" t="n"/>
@@ -23133,17 +23137,17 @@
       </c>
       <c r="B440" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C440" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D440" s="18" t="inlineStr">
         <is>
-          <t>Azure에서 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다.</t>
+          <t>Azure Backup을 사용하는 경우 기본 설정은 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
         </is>
       </c>
       <c r="E440" s="18" t="n"/>
@@ -23163,15 +23167,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J440" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
+      <c r="J440" s="13" t="n"/>
       <c r="K440" s="19" t="n"/>
       <c r="L440" s="19" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M440" s="20" t="n"/>
@@ -23193,12 +23193,12 @@
       </c>
       <c r="C441" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D441" s="18" t="inlineStr">
         <is>
-          <t>Azure Arc를 사용하여 Azure 외부의 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다.</t>
+          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
         </is>
       </c>
       <c r="E441" s="18" t="n"/>
@@ -23220,13 +23220,13 @@
       </c>
       <c r="J441" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="K441" s="19" t="n"/>
       <c r="L441" s="19" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M441" s="20" t="n"/>
@@ -23248,12 +23248,12 @@
       </c>
       <c r="C442" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D442" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
+          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 보관된 상태로 데이터를 보관할 수 있습니다.</t>
         </is>
       </c>
       <c r="E442" s="18" t="n"/>
@@ -23275,13 +23275,13 @@
       </c>
       <c r="J442" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="K442" s="19" t="n"/>
       <c r="L442" s="19" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M442" s="20" t="n"/>
@@ -23303,12 +23303,12 @@
       </c>
       <c r="C443" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D443" s="18" t="inlineStr">
         <is>
-          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
+          <t>액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다.</t>
         </is>
       </c>
       <c r="E443" s="18" t="n"/>
@@ -23328,11 +23328,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J443" s="13" t="n"/>
+      <c r="J443" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+        </is>
+      </c>
       <c r="K443" s="19" t="n"/>
       <c r="L443" s="19" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M443" s="20" t="n"/>
@@ -23354,12 +23358,12 @@
       </c>
       <c r="C444" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D444" s="18" t="inlineStr">
         <is>
-          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
+          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="E444" s="18" t="n"/>
@@ -23379,11 +23383,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J444" s="13" t="n"/>
+      <c r="J444" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K444" s="19" t="n"/>
       <c r="L444" s="19" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M444" s="20" t="n"/>
@@ -23405,12 +23413,12 @@
       </c>
       <c r="C445" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D445" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
+          <t>Azure에서 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다.</t>
         </is>
       </c>
       <c r="E445" s="18" t="n"/>
@@ -23430,11 +23438,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J445" s="13" t="n"/>
+      <c r="J445" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+        </is>
+      </c>
       <c r="K445" s="19" t="n"/>
       <c r="L445" s="19" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M445" s="20" t="n"/>
@@ -23456,12 +23468,12 @@
       </c>
       <c r="C446" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D446" s="18" t="inlineStr">
         <is>
-          <t>Azure Automation 계정을 통해 변경 및 인벤토리 추적을 사용하는 경우 Log Analytics 작업 영역과 자동화 계정을 함께 연결하기 위해 지원되는 지역을 선택했는지 확인합니다.</t>
+          <t>Azure Arc를 사용하여 Azure 외부의 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다.</t>
         </is>
       </c>
       <c r="E446" s="18" t="n"/>
@@ -23481,11 +23493,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J446" s="13" t="n"/>
+      <c r="J446" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+        </is>
+      </c>
       <c r="K446" s="19" t="n"/>
       <c r="L446" s="19" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M446" s="20" t="n"/>
@@ -23502,17 +23518,17 @@
       </c>
       <c r="B447" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C447" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Network Watcher</t>
         </is>
       </c>
       <c r="D447" s="18" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
+          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
         </is>
       </c>
       <c r="E447" s="18" t="n"/>
@@ -23532,11 +23548,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J447" s="13" t="n"/>
+      <c r="J447" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+        </is>
+      </c>
       <c r="K447" s="19" t="n"/>
       <c r="L447" s="19" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M447" s="20" t="n"/>
@@ -23553,24 +23573,20 @@
       </c>
       <c r="B448" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C448" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D448" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
-        </is>
-      </c>
-      <c r="E448" s="18" t="inlineStr">
-        <is>
-          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
+        </is>
+      </c>
+      <c r="E448" s="18" t="n"/>
       <c r="F448" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -23591,7 +23607,7 @@
       <c r="K448" s="19" t="n"/>
       <c r="L448" s="19" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M448" s="20" t="n"/>
@@ -23613,12 +23629,12 @@
       </c>
       <c r="C449" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D449" s="18" t="inlineStr">
         <is>
-          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
+          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
         </is>
       </c>
       <c r="E449" s="18" t="n"/>
@@ -23642,7 +23658,7 @@
       <c r="K449" s="19" t="n"/>
       <c r="L449" s="19" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M449" s="20" t="n"/>
@@ -23664,12 +23680,12 @@
       </c>
       <c r="C450" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D450" s="18" t="inlineStr">
         <is>
-          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
+          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
         </is>
       </c>
       <c r="E450" s="18" t="n"/>
@@ -23693,7 +23709,7 @@
       <c r="K450" s="19" t="n"/>
       <c r="L450" s="19" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M450" s="20" t="n"/>
@@ -23710,23 +23726,23 @@
       </c>
       <c r="B451" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C451" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D451" s="18" t="inlineStr">
         <is>
-          <t>VM이 지원되는 지역에서 VM에 대한 가용성 영역을 활용합니다.</t>
+          <t>Azure Automation 계정을 통해 변경 및 인벤토리 추적을 사용하는 경우 Log Analytics 작업 영역과 자동화 계정을 함께 연결하기 위해 지원되는 지역을 선택했는지 확인합니다.</t>
         </is>
       </c>
       <c r="E451" s="18" t="n"/>
       <c r="F451" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
@@ -23744,7 +23760,7 @@
       <c r="K451" s="19" t="n"/>
       <c r="L451" s="19" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M451" s="20" t="n"/>
@@ -23761,7 +23777,7 @@
       </c>
       <c r="B452" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C452" s="18" t="inlineStr">
@@ -23771,13 +23787,13 @@
       </c>
       <c r="D452" s="18" t="inlineStr">
         <is>
-          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="E452" s="18" t="n"/>
       <c r="F452" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
@@ -23795,7 +23811,7 @@
       <c r="K452" s="19" t="n"/>
       <c r="L452" s="19" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M452" s="20" t="n"/>
@@ -23812,7 +23828,7 @@
       </c>
       <c r="B453" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C453" s="18" t="inlineStr">
@@ -23822,10 +23838,14 @@
       </c>
       <c r="D453" s="18" t="inlineStr">
         <is>
-          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
-        </is>
-      </c>
-      <c r="E453" s="18" t="n"/>
+          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+        </is>
+      </c>
+      <c r="E453" s="18" t="inlineStr">
+        <is>
+          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="F453" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -23846,7 +23866,7 @@
       <c r="K453" s="19" t="n"/>
       <c r="L453" s="19" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M453" s="20" t="n"/>
@@ -23863,23 +23883,23 @@
       </c>
       <c r="B454" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C454" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D454" s="18" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
         </is>
       </c>
       <c r="E454" s="18" t="n"/>
       <c r="F454" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
@@ -23897,7 +23917,7 @@
       <c r="K454" s="19" t="n"/>
       <c r="L454" s="19" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M454" s="20" t="n"/>
@@ -23914,17 +23934,17 @@
       </c>
       <c r="B455" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C455" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D455" s="18" t="inlineStr">
         <is>
-          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
+          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
         </is>
       </c>
       <c r="E455" s="18" t="n"/>
@@ -23945,14 +23965,10 @@
         </is>
       </c>
       <c r="J455" s="13" t="n"/>
-      <c r="K455" s="19" t="inlineStr">
-        <is>
-          <t>ResourceContainers | where type=='microsoft.resources/subscriptions'| parse id with '/subscriptions/' SubscriptionID| project subscriptionId, SubscriptionName = name| join kind=leftouter (Resources| where type == 'microsoft.keyvault/vaults'| project id, name, subscriptionId) on subscriptionId| join kind= leftouter (Resources| where type == 'microsoft.keyvault/vaults'| summarize ResourceCount = count() by subscriptionId) on subscriptionId| extend RCount = iff(isnull(ResourceCount), 0, ResourceCount)| project-away ResourceCount| extend compliant = (RCount &lt;&gt; 1)</t>
-        </is>
-      </c>
+      <c r="K455" s="19" t="n"/>
       <c r="L455" s="19" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M455" s="20" t="n"/>
@@ -23969,23 +23985,23 @@
       </c>
       <c r="B456" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C456" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D456" s="18" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
+          <t>VM이 지원되는 지역에서 VM에 대한 가용성 영역을 활용합니다.</t>
         </is>
       </c>
       <c r="E456" s="18" t="n"/>
       <c r="F456" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
@@ -24003,7 +24019,7 @@
       <c r="K456" s="19" t="n"/>
       <c r="L456" s="19" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M456" s="20" t="n"/>
@@ -24020,23 +24036,23 @@
       </c>
       <c r="B457" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C457" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D457" s="18" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
         </is>
       </c>
       <c r="E457" s="18" t="n"/>
       <c r="F457" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
@@ -24054,7 +24070,7 @@
       <c r="K457" s="19" t="n"/>
       <c r="L457" s="19" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M457" s="20" t="n"/>
@@ -24071,17 +24087,17 @@
       </c>
       <c r="B458" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C458" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D458" s="18" t="inlineStr">
         <is>
-          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
+          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
         </is>
       </c>
       <c r="E458" s="18" t="n"/>
@@ -24105,7 +24121,7 @@
       <c r="K458" s="19" t="n"/>
       <c r="L458" s="19" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M458" s="20" t="n"/>
@@ -24132,13 +24148,13 @@
       </c>
       <c r="D459" s="18" t="inlineStr">
         <is>
-          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="E459" s="18" t="n"/>
       <c r="F459" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -24156,7 +24172,7 @@
       <c r="K459" s="19" t="n"/>
       <c r="L459" s="19" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M459" s="20" t="n"/>
@@ -24183,7 +24199,7 @@
       </c>
       <c r="D460" s="18" t="inlineStr">
         <is>
-          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
+          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
         </is>
       </c>
       <c r="E460" s="18" t="n"/>
@@ -24204,10 +24220,14 @@
         </is>
       </c>
       <c r="J460" s="13" t="n"/>
-      <c r="K460" s="19" t="n"/>
+      <c r="K460" s="19" t="inlineStr">
+        <is>
+          <t>ResourceContainers | where type=='microsoft.resources/subscriptions'| parse id with '/subscriptions/' SubscriptionID| project subscriptionId, SubscriptionName = name| join kind=leftouter (Resources| where type == 'microsoft.keyvault/vaults'| project id, name, subscriptionId) on subscriptionId| join kind= leftouter (Resources| where type == 'microsoft.keyvault/vaults'| summarize ResourceCount = count() by subscriptionId) on subscriptionId| extend RCount = iff(isnull(ResourceCount), 0, ResourceCount)| project-away ResourceCount| extend compliant = (RCount &lt;&gt; 1)</t>
+        </is>
+      </c>
       <c r="L460" s="19" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M460" s="20" t="n"/>
@@ -24234,7 +24254,7 @@
       </c>
       <c r="D461" s="18" t="inlineStr">
         <is>
-          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
         </is>
       </c>
       <c r="E461" s="18" t="n"/>
@@ -24258,7 +24278,7 @@
       <c r="K461" s="19" t="n"/>
       <c r="L461" s="19" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M461" s="20" t="n"/>
@@ -24285,7 +24305,7 @@
       </c>
       <c r="D462" s="18" t="inlineStr">
         <is>
-          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
+          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="E462" s="18" t="n"/>
@@ -24309,7 +24329,7 @@
       <c r="K462" s="19" t="n"/>
       <c r="L462" s="19" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M462" s="20" t="n"/>
@@ -24336,7 +24356,7 @@
       </c>
       <c r="D463" s="18" t="inlineStr">
         <is>
-          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
         </is>
       </c>
       <c r="E463" s="18" t="n"/>
@@ -24360,7 +24380,7 @@
       <c r="K463" s="19" t="n"/>
       <c r="L463" s="19" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M463" s="20" t="n"/>
@@ -24387,7 +24407,7 @@
       </c>
       <c r="D464" s="18" t="inlineStr">
         <is>
-          <t>자체 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
+          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="E464" s="18" t="n"/>
@@ -24411,7 +24431,7 @@
       <c r="K464" s="19" t="n"/>
       <c r="L464" s="19" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M464" s="20" t="n"/>
@@ -24438,7 +24458,7 @@
       </c>
       <c r="D465" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Azure Key Vault 관리형 HSM을 사용하여 비밀 및 자격 증명을 저장합니다.</t>
+          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="E465" s="18" t="n"/>
@@ -24462,7 +24482,7 @@
       <c r="K465" s="19" t="n"/>
       <c r="L465" s="19" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M465" s="20" t="n"/>
@@ -24484,12 +24504,12 @@
       </c>
       <c r="C466" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D466" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
+          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
         </is>
       </c>
       <c r="E466" s="18" t="n"/>
@@ -24513,7 +24533,7 @@
       <c r="K466" s="19" t="n"/>
       <c r="L466" s="19" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M466" s="20" t="n"/>
@@ -24535,18 +24555,18 @@
       </c>
       <c r="C467" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D467" s="18" t="inlineStr">
         <is>
-          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
+          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="E467" s="18" t="n"/>
       <c r="F467" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
@@ -24564,7 +24584,7 @@
       <c r="K467" s="19" t="n"/>
       <c r="L467" s="19" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M467" s="20" t="n"/>
@@ -24586,18 +24606,18 @@
       </c>
       <c r="C468" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D468" s="18" t="inlineStr">
         <is>
-          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
         </is>
       </c>
       <c r="E468" s="18" t="n"/>
       <c r="F468" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
@@ -24615,7 +24635,7 @@
       <c r="K468" s="19" t="n"/>
       <c r="L468" s="19" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M468" s="20" t="n"/>
@@ -24637,18 +24657,18 @@
       </c>
       <c r="C469" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D469" s="18" t="inlineStr">
         <is>
-          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>자체 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
         </is>
       </c>
       <c r="E469" s="18" t="n"/>
       <c r="F469" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
@@ -24666,7 +24686,7 @@
       <c r="K469" s="19" t="n"/>
       <c r="L469" s="19" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M469" s="20" t="n"/>
@@ -24688,18 +24708,18 @@
       </c>
       <c r="C470" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D470" s="18" t="inlineStr">
         <is>
-          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
+          <t>Sovereign Landing Zone의 경우 Azure Key Vault 관리형 HSM을 사용하여 비밀 및 자격 증명을 저장합니다.</t>
         </is>
       </c>
       <c r="E470" s="18" t="n"/>
       <c r="F470" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
@@ -24717,7 +24737,7 @@
       <c r="K470" s="19" t="n"/>
       <c r="L470" s="19" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M470" s="20" t="n"/>
@@ -24739,12 +24759,12 @@
       </c>
       <c r="C471" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D471" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
+          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
         </is>
       </c>
       <c r="E471" s="18" t="n"/>
@@ -24768,7 +24788,7 @@
       <c r="K471" s="19" t="n"/>
       <c r="L471" s="19" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M471" s="20" t="n"/>
@@ -24790,18 +24810,18 @@
       </c>
       <c r="C472" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D472" s="18" t="inlineStr">
         <is>
-          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
+          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="E472" s="18" t="n"/>
       <c r="F472" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
@@ -24819,7 +24839,7 @@
       <c r="K472" s="19" t="n"/>
       <c r="L472" s="19" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M472" s="20" t="n"/>
@@ -24841,18 +24861,18 @@
       </c>
       <c r="C473" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D473" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 투명 로그가 사용하도록 설정됩니다.</t>
+          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="E473" s="18" t="n"/>
       <c r="F473" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
@@ -24870,7 +24890,7 @@
       <c r="K473" s="19" t="n"/>
       <c r="L473" s="19" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M473" s="20" t="n"/>
@@ -24892,18 +24912,18 @@
       </c>
       <c r="C474" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D474" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 고객 Lockbox를 사용할 수 있습니다.</t>
+          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="E474" s="18" t="n"/>
       <c r="F474" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
@@ -24921,7 +24941,7 @@
       <c r="K474" s="19" t="n"/>
       <c r="L474" s="19" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M474" s="20" t="n"/>
@@ -24943,12 +24963,12 @@
       </c>
       <c r="C475" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D475" s="18" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대한 보안 전송을 사용하도록 설정해야 함</t>
+          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="E475" s="18" t="n"/>
@@ -24972,7 +24992,7 @@
       <c r="K475" s="19" t="n"/>
       <c r="L475" s="19" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M475" s="20" t="n"/>
@@ -24994,18 +25014,18 @@
       </c>
       <c r="C476" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D476" s="18" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너와 해당 콘텐츠를 복구합니다.</t>
+          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="E476" s="18" t="n"/>
       <c r="F476" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -25023,7 +25043,7 @@
       <c r="K476" s="19" t="n"/>
       <c r="L476" s="19" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M476" s="20" t="n"/>
@@ -25040,23 +25060,23 @@
       </c>
       <c r="B477" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C477" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D477" s="18" t="inlineStr">
         <is>
-          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
+          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
         </is>
       </c>
       <c r="E477" s="18" t="n"/>
       <c r="F477" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
@@ -25074,7 +25094,7 @@
       <c r="K477" s="19" t="n"/>
       <c r="L477" s="19" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M477" s="20" t="n"/>
@@ -25086,28 +25106,28 @@
     <row r="478">
       <c r="A478" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B478" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C478" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D478" s="18" t="inlineStr">
         <is>
-          <t>모범 사례는 기준 고가용성 영역 중복 웹 애플리케이션 아키텍처를 참조하세요.</t>
+          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 투명 로그가 사용하도록 설정됩니다.</t>
         </is>
       </c>
       <c r="E478" s="18" t="n"/>
       <c r="F478" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
@@ -25125,7 +25145,7 @@
       <c r="K478" s="19" t="n"/>
       <c r="L478" s="19" t="inlineStr">
         <is>
-          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M478" s="20" t="n"/>
@@ -25137,22 +25157,22 @@
     <row r="479">
       <c r="A479" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B479" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C479" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D479" s="18" t="inlineStr">
         <is>
-          <t>프리미엄 및 표준 계층을 사용합니다. 이러한 계층은 스테이징 슬롯 및 자동 백업을 지원합니다.</t>
+          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 고객 Lockbox를 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="E479" s="18" t="n"/>
@@ -25176,7 +25196,7 @@
       <c r="K479" s="19" t="n"/>
       <c r="L479" s="19" t="inlineStr">
         <is>
-          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M479" s="20" t="n"/>
@@ -25188,22 +25208,22 @@
     <row r="480">
       <c r="A480" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B480" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C480" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D480" s="18" t="inlineStr">
         <is>
-          <t>지역적으로 적용 가능한 경우 가용성 영역 활용(프리미엄 v2 또는 v3 계층 필요)</t>
+          <t>스토리지 계정에 대한 보안 전송을 사용하도록 설정해야 함</t>
         </is>
       </c>
       <c r="E480" s="18" t="n"/>
@@ -25227,7 +25247,7 @@
       <c r="K480" s="19" t="n"/>
       <c r="L480" s="19" t="inlineStr">
         <is>
-          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M480" s="20" t="n"/>
@@ -25239,28 +25259,28 @@
     <row r="481">
       <c r="A481" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B481" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C481" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D481" s="18" t="inlineStr">
         <is>
-          <t>상태 확인 구현</t>
+          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너와 해당 콘텐츠를 복구합니다.</t>
         </is>
       </c>
       <c r="E481" s="18" t="n"/>
       <c r="F481" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
@@ -25278,7 +25298,7 @@
       <c r="K481" s="19" t="n"/>
       <c r="L481" s="19" t="inlineStr">
         <is>
-          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M481" s="20" t="n"/>
@@ -25290,22 +25310,22 @@
     <row r="482">
       <c r="A482" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B482" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C482" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D482" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service에 대한 백업 및 복원 모범 사례를 참조하세요.</t>
+          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="E482" s="18" t="n"/>
@@ -25329,7 +25349,7 @@
       <c r="K482" s="19" t="n"/>
       <c r="L482" s="19" t="inlineStr">
         <is>
-          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M482" s="20" t="n"/>
@@ -25356,13 +25376,13 @@
       </c>
       <c r="D483" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service 안정성 모범 사례 구현</t>
+          <t>모범 사례는 기준 고가용성 영역 중복 웹 애플리케이션 아키텍처를 참조하세요.</t>
         </is>
       </c>
       <c r="E483" s="18" t="n"/>
       <c r="F483" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
@@ -25380,7 +25400,7 @@
       <c r="K483" s="19" t="n"/>
       <c r="L483" s="19" t="inlineStr">
         <is>
-          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
+          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
         </is>
       </c>
       <c r="M483" s="20" t="n"/>
@@ -25407,13 +25427,13 @@
       </c>
       <c r="D484" s="18" t="inlineStr">
         <is>
-          <t>App Service 앱을 다른 지역으로 이동하는 방법을 숙지합니다. 재해가 발생하는 동안</t>
+          <t>프리미엄 및 표준 계층을 사용합니다. 이러한 계층은 스테이징 슬롯 및 자동 백업을 지원합니다.</t>
         </is>
       </c>
       <c r="E484" s="18" t="n"/>
       <c r="F484" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
@@ -25431,7 +25451,7 @@
       <c r="K484" s="19" t="n"/>
       <c r="L484" s="19" t="inlineStr">
         <is>
-          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
+          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
         </is>
       </c>
       <c r="M484" s="20" t="n"/>
@@ -25458,7 +25478,7 @@
       </c>
       <c r="D485" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service의 안정성 지원 숙지</t>
+          <t>지역적으로 적용 가능한 경우 가용성 영역 활용(프리미엄 v2 또는 v3 계층 필요)</t>
         </is>
       </c>
       <c r="E485" s="18" t="n"/>
@@ -25482,7 +25502,7 @@
       <c r="K485" s="19" t="n"/>
       <c r="L485" s="19" t="inlineStr">
         <is>
-          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
+          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
         </is>
       </c>
       <c r="M485" s="20" t="n"/>
@@ -25509,7 +25529,7 @@
       </c>
       <c r="D486" s="18" t="inlineStr">
         <is>
-          <t>App Service 계획에서 실행되는 Function Apps에 대해 "Always On"이 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>상태 확인 구현</t>
         </is>
       </c>
       <c r="E486" s="18" t="n"/>
@@ -25533,7 +25553,7 @@
       <c r="K486" s="19" t="n"/>
       <c r="L486" s="19" t="inlineStr">
         <is>
-          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
+          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
         </is>
       </c>
       <c r="M486" s="20" t="n"/>
@@ -25560,13 +25580,13 @@
       </c>
       <c r="D487" s="18" t="inlineStr">
         <is>
-          <t>상태 검사를 사용하여 App Service 인스턴스 모니터링Monitor App Service instances using Health checks</t>
+          <t>Azure App Service에 대한 백업 및 복원 모범 사례를 참조하세요.</t>
         </is>
       </c>
       <c r="E487" s="18" t="n"/>
       <c r="F487" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
@@ -25584,7 +25604,7 @@
       <c r="K487" s="19" t="n"/>
       <c r="L487" s="19" t="inlineStr">
         <is>
-          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
+          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
         </is>
       </c>
       <c r="M487" s="20" t="n"/>
@@ -25611,13 +25631,13 @@
       </c>
       <c r="D488" s="18" t="inlineStr">
         <is>
-          <t>Application Insights 가용성 테스트를 사용하여 웹앱 또는 웹 사이트의 가용성 및 응답성 모니터링</t>
+          <t>Azure App Service 안정성 모범 사례 구현</t>
         </is>
       </c>
       <c r="E488" s="18" t="n"/>
       <c r="F488" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
@@ -25635,7 +25655,7 @@
       <c r="K488" s="19" t="n"/>
       <c r="L488" s="19" t="inlineStr">
         <is>
-          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
+          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
         </is>
       </c>
       <c r="M488" s="20" t="n"/>
@@ -25662,7 +25682,7 @@
       </c>
       <c r="D489" s="18" t="inlineStr">
         <is>
-          <t>Application Insights 표준 테스트를 사용하여 웹앱 또는 웹 사이트의 가용성 및 응답성 모니터링</t>
+          <t>App Service 앱을 다른 지역으로 이동하는 방법을 숙지합니다. 재해가 발생하는 동안</t>
         </is>
       </c>
       <c r="E489" s="18" t="n"/>
@@ -25686,7 +25706,7 @@
       <c r="K489" s="19" t="n"/>
       <c r="L489" s="19" t="inlineStr">
         <is>
-          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
+          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
         </is>
       </c>
       <c r="M489" s="20" t="n"/>
@@ -25703,7 +25723,7 @@
       </c>
       <c r="B490" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C490" s="18" t="inlineStr">
@@ -25713,14 +25733,10 @@
       </c>
       <c r="D490" s="18" t="inlineStr">
         <is>
-          <t>Key Vault를 사용하여 비밀 저장</t>
-        </is>
-      </c>
-      <c r="E490" s="18" t="inlineStr">
-        <is>
-          <t>Azure Key Vault를 사용하여 애플리케이션에 필요한 모든 비밀을 저장합니다.  Key Vault는 비밀을 저장하기 위한 안전하고 감사된 환경을 제공하며 Key Vault SDK 또는 App Service Key Vault 참조를 통해 App Service와 잘 통합됩니다.</t>
-        </is>
-      </c>
+          <t>Azure App Service의 안정성 지원 숙지</t>
+        </is>
+      </c>
+      <c r="E490" s="18" t="n"/>
       <c r="F490" s="18" t="inlineStr">
         <is>
           <t>높다</t>
@@ -25741,7 +25757,7 @@
       <c r="K490" s="19" t="n"/>
       <c r="L490" s="19" t="inlineStr">
         <is>
-          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
+          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
         </is>
       </c>
       <c r="M490" s="20" t="n"/>
@@ -25758,7 +25774,7 @@
       </c>
       <c r="B491" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C491" s="18" t="inlineStr">
@@ -25768,17 +25784,13 @@
       </c>
       <c r="D491" s="18" t="inlineStr">
         <is>
-          <t>관리 ID를 사용하여 Key Vault에 연결</t>
-        </is>
-      </c>
-      <c r="E491" s="18" t="inlineStr">
-        <is>
-          <t>관리 ID를 사용하여 Key Vault SDK를 사용하거나 App Service Key Vault 참조를 통해 Key Vault에 연결합니다.</t>
-        </is>
-      </c>
+          <t>App Service 계획에서 실행되는 Function Apps에 대해 "Always On"이 사용하도록 설정되어 있는지 확인합니다.</t>
+        </is>
+      </c>
+      <c r="E491" s="18" t="n"/>
       <c r="F491" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
@@ -25796,7 +25808,7 @@
       <c r="K491" s="19" t="n"/>
       <c r="L491" s="19" t="inlineStr">
         <is>
-          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
+          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
         </is>
       </c>
       <c r="M491" s="20" t="n"/>
@@ -25813,7 +25825,7 @@
       </c>
       <c r="B492" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C492" s="18" t="inlineStr">
@@ -25823,17 +25835,13 @@
       </c>
       <c r="D492" s="18" t="inlineStr">
         <is>
-          <t>Key Vault를 사용하여 TLS 인증서를 저장합니다.</t>
-        </is>
-      </c>
-      <c r="E492" s="18" t="inlineStr">
-        <is>
-          <t>App Service TLS 인증서를 Key Vault에 저장합니다.</t>
-        </is>
-      </c>
+          <t>상태 검사를 사용하여 App Service 인스턴스 모니터링Monitor App Service instances using Health checks</t>
+        </is>
+      </c>
+      <c r="E492" s="18" t="n"/>
       <c r="F492" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
@@ -25851,7 +25859,7 @@
       <c r="K492" s="19" t="n"/>
       <c r="L492" s="19" t="inlineStr">
         <is>
-          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
+          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
         </is>
       </c>
       <c r="M492" s="20" t="n"/>
@@ -25868,7 +25876,7 @@
       </c>
       <c r="B493" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C493" s="18" t="inlineStr">
@@ -25878,14 +25886,10 @@
       </c>
       <c r="D493" s="18" t="inlineStr">
         <is>
-          <t>민감한 정보를 처리하는 시스템 격리</t>
-        </is>
-      </c>
-      <c r="E493" s="18" t="inlineStr">
-        <is>
-          <t>중요한 정보를 처리하는 시스템은 격리해야 합니다.  이렇게 하려면 별도의 App Service 계획 또는 App Service Environment를 사용하고 다른 구독 또는 관리 그룹을 사용하는 것이 좋습니다.</t>
-        </is>
-      </c>
+          <t>Application Insights 가용성 테스트를 사용하여 웹앱 또는 웹 사이트의 가용성 및 응답성 모니터링</t>
+        </is>
+      </c>
+      <c r="E493" s="18" t="n"/>
       <c r="F493" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -25906,7 +25910,7 @@
       <c r="K493" s="19" t="n"/>
       <c r="L493" s="19" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
+          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
         </is>
       </c>
       <c r="M493" s="20" t="n"/>
@@ -25923,7 +25927,7 @@
       </c>
       <c r="B494" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C494" s="18" t="inlineStr">
@@ -25933,17 +25937,13 @@
       </c>
       <c r="D494" s="18" t="inlineStr">
         <is>
-          <t>로컬 디스크에 중요한 데이터를 저장하지 마십시오.</t>
-        </is>
-      </c>
-      <c r="E494" s="18" t="inlineStr">
-        <is>
-          <t>App Service의 로컬 디스크는 암호화되지 않으며 중요한 데이터를 저장해서는 안 됩니다.  (예: D:\\Local and %TMP%).</t>
-        </is>
-      </c>
+          <t>Application Insights 표준 테스트를 사용하여 웹앱 또는 웹 사이트의 가용성 및 응답성 모니터링</t>
+        </is>
+      </c>
+      <c r="E494" s="18" t="n"/>
       <c r="F494" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
@@ -25961,7 +25961,7 @@
       <c r="K494" s="19" t="n"/>
       <c r="L494" s="19" t="inlineStr">
         <is>
-          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
+          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
         </is>
       </c>
       <c r="M494" s="20" t="n"/>
@@ -25988,17 +25988,17 @@
       </c>
       <c r="D495" s="18" t="inlineStr">
         <is>
-          <t>인증에 설정된 ID 공급자 사용</t>
+          <t>Key Vault를 사용하여 비밀 저장</t>
         </is>
       </c>
       <c r="E495" s="18" t="inlineStr">
         <is>
-          <t>인증된 웹 애플리케이션의 경우 Azure AD 또는 Azure AD B2C와 같이 잘 설정된 ID 공급자를 사용합니다.  선택한 애플리케이션 프레임워크를 활용하여 이 공급자와 통합하거나 App Service 인증/권한 부여 기능을 사용합니다.</t>
+          <t>Azure Key Vault를 사용하여 애플리케이션에 필요한 모든 비밀을 저장합니다.  Key Vault는 비밀을 저장하기 위한 안전하고 감사된 환경을 제공하며 Key Vault SDK 또는 App Service Key Vault 참조를 통해 App Service와 잘 통합됩니다.</t>
         </is>
       </c>
       <c r="F495" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
@@ -26016,7 +26016,7 @@
       <c r="K495" s="19" t="n"/>
       <c r="L495" s="19" t="inlineStr">
         <is>
-          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
+          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
         </is>
       </c>
       <c r="M495" s="20" t="n"/>
@@ -26043,12 +26043,12 @@
       </c>
       <c r="D496" s="18" t="inlineStr">
         <is>
-          <t>신뢰할 수 있는 환경에서 배포</t>
+          <t>관리 ID를 사용하여 Key Vault에 연결</t>
         </is>
       </c>
       <c r="E496" s="18" t="inlineStr">
         <is>
-          <t>잘 관리되고 안전한 DevOps 배포 파이프라인과 같이 제어되고 신뢰할 수 있는 환경에서 App Service에 코드를 배포합니다. 이렇게 하면 버전이 제어되지 않고 악성 호스트에서 배포되는 것으로 확인되지 않은 코드를 방지할 수 있습니다.</t>
+          <t>관리 ID를 사용하여 Key Vault SDK를 사용하거나 App Service Key Vault 참조를 통해 Key Vault에 연결합니다.</t>
         </is>
       </c>
       <c r="F496" s="18" t="inlineStr">
@@ -26071,7 +26071,7 @@
       <c r="K496" s="19" t="n"/>
       <c r="L496" s="19" t="inlineStr">
         <is>
-          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
+          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
         </is>
       </c>
       <c r="M496" s="20" t="n"/>
@@ -26098,12 +26098,12 @@
       </c>
       <c r="D497" s="18" t="inlineStr">
         <is>
-          <t>기본 인증 사용 안 함</t>
+          <t>Key Vault를 사용하여 TLS 인증서를 저장합니다.</t>
         </is>
       </c>
       <c r="E497" s="18" t="inlineStr">
         <is>
-          <t>FTP/FTPS 및 WebDeploy/SCM 모두에 대한 기본 인증을 사용 안함으로 설정합니다.  이렇게 하면 이러한 서비스에 대한 액세스가 비활성화되고 배포에 Azure AD 보안 엔드포인트가 사용됩니다.  SCM 사이트는 Azure AD 자격 증명을 사용하여 열 수도 있습니다.</t>
+          <t>App Service TLS 인증서를 Key Vault에 저장합니다.</t>
         </is>
       </c>
       <c r="F497" s="18" t="inlineStr">
@@ -26126,7 +26126,7 @@
       <c r="K497" s="19" t="n"/>
       <c r="L497" s="19" t="inlineStr">
         <is>
-          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
+          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
         </is>
       </c>
       <c r="M497" s="20" t="n"/>
@@ -26153,17 +26153,17 @@
       </c>
       <c r="D498" s="18" t="inlineStr">
         <is>
-          <t>관리 ID를 사용하여 리소스에 연결</t>
+          <t>민감한 정보를 처리하는 시스템 격리</t>
         </is>
       </c>
       <c r="E498" s="18" t="inlineStr">
         <is>
-          <t>가능한 경우 관리 ID를 사용하여 Azure AD 보안 리소스에 연결합니다.  이렇게 할 수 없는 경우 Key Vault에 비밀을 저장하고 대신 관리 ID를 사용하여 Key Vault에 연결합니다.</t>
+          <t>중요한 정보를 처리하는 시스템은 격리해야 합니다.  이렇게 하려면 별도의 App Service 계획 또는 App Service Environment를 사용하고 다른 구독 또는 관리 그룹을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="F498" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G498" t="inlineStr">
@@ -26181,7 +26181,7 @@
       <c r="K498" s="19" t="n"/>
       <c r="L498" s="19" t="inlineStr">
         <is>
-          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
+          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
         </is>
       </c>
       <c r="M498" s="20" t="n"/>
@@ -26208,17 +26208,17 @@
       </c>
       <c r="D499" s="18" t="inlineStr">
         <is>
-          <t>관리 ID를 사용하여 컨테이너 끌어오기</t>
+          <t>로컬 디스크에 중요한 데이터를 저장하지 마십시오.</t>
         </is>
       </c>
       <c r="E499" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry에 저장된 이미지를 사용하는 경우 관리 ID를 사용하여 끌어옵니다.</t>
+          <t>App Service의 로컬 디스크는 암호화되지 않으며 중요한 데이터를 저장해서는 안 됩니다.  (예: D:\\Local and %TMP%).</t>
         </is>
       </c>
       <c r="F499" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G499" t="inlineStr">
@@ -26236,7 +26236,7 @@
       <c r="K499" s="19" t="n"/>
       <c r="L499" s="19" t="inlineStr">
         <is>
-          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
+          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M499" s="20" t="n"/>
@@ -26263,12 +26263,12 @@
       </c>
       <c r="D500" s="18" t="inlineStr">
         <is>
-          <t>Log Analytics에 App Service 런타임 로그 보내기Send App Service runtime logs to Log Analytics</t>
+          <t>인증에 설정된 ID 공급자 사용</t>
         </is>
       </c>
       <c r="E500" s="18" t="inlineStr">
         <is>
-          <t>App Service의 진단 설정을 구성하면 모든 원격 분석을 로깅 및 모니터링의 중앙 대상으로 Log Analytics에 보낼 수 있습니다. 이를 통해 HTTP 로그, 애플리케이션 로그, 플랫폼 로그 등과 같은 App Service의 런타임 활동을 모니터링할 수 있습니다.</t>
+          <t>인증된 웹 애플리케이션의 경우 Azure AD 또는 Azure AD B2C와 같이 잘 설정된 ID 공급자를 사용합니다.  선택한 애플리케이션 프레임워크를 활용하여 이 공급자와 통합하거나 App Service 인증/권한 부여 기능을 사용합니다.</t>
         </is>
       </c>
       <c r="F500" s="18" t="inlineStr">
@@ -26291,7 +26291,7 @@
       <c r="K500" s="19" t="n"/>
       <c r="L500" s="19" t="inlineStr">
         <is>
-          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
+          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
         </is>
       </c>
       <c r="M500" s="20" t="n"/>
@@ -26318,17 +26318,17 @@
       </c>
       <c r="D501" s="18" t="inlineStr">
         <is>
-          <t>Log Analytics에 App Service 활동 로그 보내기Send App Service activity logs to Log Analytics</t>
+          <t>신뢰할 수 있는 환경에서 배포</t>
         </is>
       </c>
       <c r="E501" s="18" t="inlineStr">
         <is>
-          <t>활동 로그를 Log Analytics에 로깅 및 모니터링의 중앙 대상으로 보내도록 진단 설정을 지정합니다. 이렇게 하면 App Service 리소스 자체에서 컨트롤 플레인 작업을 모니터링할 수 있습니다.</t>
+          <t>잘 관리되고 안전한 DevOps 배포 파이프라인과 같이 제어되고 신뢰할 수 있는 환경에서 App Service에 코드를 배포합니다. 이렇게 하면 버전이 제어되지 않고 악성 호스트에서 배포되는 것으로 확인되지 않은 코드를 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="F501" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
@@ -26346,7 +26346,7 @@
       <c r="K501" s="19" t="n"/>
       <c r="L501" s="19" t="inlineStr">
         <is>
-          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
+          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
         </is>
       </c>
       <c r="M501" s="20" t="n"/>
@@ -26373,17 +26373,17 @@
       </c>
       <c r="D502" s="18" t="inlineStr">
         <is>
-          <t>아웃바운드 네트워크 액세스를 제어해야 함</t>
+          <t>기본 인증 사용 안 함</t>
         </is>
       </c>
       <c r="E502" s="18" t="inlineStr">
         <is>
-          <t>지역 VNet 통합, 네트워크 보안 그룹 및 UDR의 조합을 사용하여 아웃바운드 네트워크 액세스를 제어합니다.  트래픽은 Azure Firewall과 같은 NVA로 라우팅되어야 합니다.  방화벽의 로그를 모니터링해야 합니다.</t>
+          <t>FTP/FTPS 및 WebDeploy/SCM 모두에 대한 기본 인증을 사용 안함으로 설정합니다.  이렇게 하면 이러한 서비스에 대한 액세스가 비활성화되고 배포에 Azure AD 보안 엔드포인트가 사용됩니다.  SCM 사이트는 Azure AD 자격 증명을 사용하여 열 수도 있습니다.</t>
         </is>
       </c>
       <c r="F502" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
@@ -26401,7 +26401,7 @@
       <c r="K502" s="19" t="n"/>
       <c r="L502" s="19" t="inlineStr">
         <is>
-          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
+          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
         </is>
       </c>
       <c r="M502" s="20" t="n"/>
@@ -26428,17 +26428,17 @@
       </c>
       <c r="D503" s="18" t="inlineStr">
         <is>
-          <t>인터넷 주소에 대한 아웃바운드 통신을 위한 안정적인 IP 보장</t>
+          <t>관리 ID를 사용하여 리소스에 연결</t>
         </is>
       </c>
       <c r="E503" s="18" t="inlineStr">
         <is>
-          <t>VNet 통합을 사용하고 VNet NAT Gateway 또는 NVA와 같은 Azure Firewall을 사용하여 안정적인 아웃바운드 IP를 제공할 수 있습니다.  이렇게 하면 필요한 경우 수신 당사자가 IP를 기반으로 허용 목록을 만들 수 있습니다.  Azure 서비스에 대한 통신의 경우 IP 주소에 의존할 필요가 없는 경우가 많으며 서비스 엔드포인트와 같은 메커니즘을 대신 사용해야 합니다.  (또한 수신 끝에서 프라이빗 엔드포인트를 사용하면 SNAT가 발생하지 않고 안정적인 아웃바운드 IP 범위를 제공합니다.)</t>
+          <t>가능한 경우 관리 ID를 사용하여 Azure AD 보안 리소스에 연결합니다.  이렇게 할 수 없는 경우 Key Vault에 비밀을 저장하고 대신 관리 ID를 사용하여 Key Vault에 연결합니다.</t>
         </is>
       </c>
       <c r="F503" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
@@ -26456,7 +26456,7 @@
       <c r="K503" s="19" t="n"/>
       <c r="L503" s="19" t="inlineStr">
         <is>
-          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
+          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
         </is>
       </c>
       <c r="M503" s="20" t="n"/>
@@ -26483,12 +26483,12 @@
       </c>
       <c r="D504" s="18" t="inlineStr">
         <is>
-          <t>인바운드 네트워크 액세스를 제어해야 합니다.</t>
+          <t>관리 ID를 사용하여 컨테이너 끌어오기</t>
         </is>
       </c>
       <c r="E504" s="18" t="inlineStr">
         <is>
-          <t>App Service 액세스 제한, 서비스 엔드포인트 또는 프라이빗 엔드포인트의 조합을 사용하여 인바운드 네트워크 액세스를 제어합니다. 웹앱 자체 및 SCM 사이트에 대해 서로 다른 액세스 제한이 필요하고 구성될 수 있습니다.</t>
+          <t>Azure Container Registry에 저장된 이미지를 사용하는 경우 관리 ID를 사용하여 끌어옵니다.</t>
         </is>
       </c>
       <c r="F504" s="18" t="inlineStr">
@@ -26511,7 +26511,7 @@
       <c r="K504" s="19" t="n"/>
       <c r="L504" s="19" t="inlineStr">
         <is>
-          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
+          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
         </is>
       </c>
       <c r="M504" s="20" t="n"/>
@@ -26538,17 +26538,17 @@
       </c>
       <c r="D505" s="18" t="inlineStr">
         <is>
-          <t>App Service 앞에서 WAF 사용Use a WAF in front of App Service</t>
+          <t>Log Analytics에 App Service 런타임 로그 보내기Send App Service runtime logs to Log Analytics</t>
         </is>
       </c>
       <c r="E505" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway 또는 Azure Front Door와 같은 Web Application Firewall을 사용하여 악의적인 인바운드 트래픽으로부터 보호합니다.  WAF의 로그를 모니터링해야 합니다.</t>
+          <t>App Service의 진단 설정을 구성하면 모든 원격 분석을 로깅 및 모니터링의 중앙 대상으로 Log Analytics에 보낼 수 있습니다. 이를 통해 HTTP 로그, 애플리케이션 로그, 플랫폼 로그 등과 같은 App Service의 런타임 활동을 모니터링할 수 있습니다.</t>
         </is>
       </c>
       <c r="F505" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
@@ -26566,7 +26566,7 @@
       <c r="K505" s="19" t="n"/>
       <c r="L505" s="19" t="inlineStr">
         <is>
-          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
+          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
         </is>
       </c>
       <c r="M505" s="20" t="n"/>
@@ -26593,17 +26593,17 @@
       </c>
       <c r="D506" s="18" t="inlineStr">
         <is>
-          <t>WAF가 우회되지 않도록 방지</t>
+          <t>Log Analytics에 App Service 활동 로그 보내기Send App Service activity logs to Log Analytics</t>
         </is>
       </c>
       <c r="E506" s="18" t="inlineStr">
         <is>
-          <t>WAF에 대한 액세스만 잠궈 WAF를 우회할 수 없는지 확인합니다.  액세스 제한, 서비스 엔드포인트 및 프라이빗 엔드포인트의 조합을 사용합니다.</t>
+          <t>활동 로그를 Log Analytics에 로깅 및 모니터링의 중앙 대상으로 보내도록 진단 설정을 지정합니다. 이렇게 하면 App Service 리소스 자체에서 컨트롤 플레인 작업을 모니터링할 수 있습니다.</t>
         </is>
       </c>
       <c r="F506" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G506" t="inlineStr">
@@ -26621,7 +26621,7 @@
       <c r="K506" s="19" t="n"/>
       <c r="L506" s="19" t="inlineStr">
         <is>
-          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
+          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
         </is>
       </c>
       <c r="M506" s="20" t="n"/>
@@ -26648,12 +26648,12 @@
       </c>
       <c r="D507" s="18" t="inlineStr">
         <is>
-          <t>최소 TLS 정책을 1.2로 설정합니다.</t>
+          <t>아웃바운드 네트워크 액세스를 제어해야 함</t>
         </is>
       </c>
       <c r="E507" s="18" t="inlineStr">
         <is>
-          <t>App Service 구성에서 최소 TLS 정책을 1.2로 설정합니다.</t>
+          <t>지역 VNet 통합, 네트워크 보안 그룹 및 UDR의 조합을 사용하여 아웃바운드 네트워크 액세스를 제어합니다.  트래픽은 Azure Firewall과 같은 NVA로 라우팅되어야 합니다.  방화벽의 로그를 모니터링해야 합니다.</t>
         </is>
       </c>
       <c r="F507" s="18" t="inlineStr">
@@ -26673,14 +26673,10 @@
         </is>
       </c>
       <c r="J507" s="13" t="n"/>
-      <c r="K507" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K507" s="19" t="n"/>
       <c r="L507" s="19" t="inlineStr">
         <is>
-          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
+          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
         </is>
       </c>
       <c r="M507" s="20" t="n"/>
@@ -26707,17 +26703,17 @@
       </c>
       <c r="D508" s="18" t="inlineStr">
         <is>
-          <t>HTTPS만 사용</t>
+          <t>인터넷 주소에 대한 아웃바운드 통신을 위한 안정적인 IP 보장</t>
         </is>
       </c>
       <c r="E508" s="18" t="inlineStr">
         <is>
-          <t>HTTPS만 사용하도록 App Service를 구성합니다.  이로 인해 App Service가 HTTP에서 HTTPS로 리디렉션됩니다.  코드 또는 WAF에서 HSTS(HTTP Strict Transport Security)를 사용하여 HTTPS를 통해서만 사이트에 액세스해야 함을 브라우저에 알리는 것이 좋습니다.</t>
+          <t>VNet 통합을 사용하고 VNet NAT Gateway 또는 NVA와 같은 Azure Firewall을 사용하여 안정적인 아웃바운드 IP를 제공할 수 있습니다.  이렇게 하면 필요한 경우 수신 당사자가 IP를 기반으로 허용 목록을 만들 수 있습니다.  Azure 서비스에 대한 통신의 경우 IP 주소에 의존할 필요가 없는 경우가 많으며 서비스 엔드포인트와 같은 메커니즘을 대신 사용해야 합니다.  (또한 수신 끝에서 프라이빗 엔드포인트를 사용하면 SNAT가 발생하지 않고 안정적인 아웃바운드 IP 범위를 제공합니다.)</t>
         </is>
       </c>
       <c r="F508" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
@@ -26732,14 +26728,10 @@
         </is>
       </c>
       <c r="J508" s="13" t="n"/>
-      <c r="K508" s="19" t="inlineStr">
-        <is>
-          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K508" s="19" t="n"/>
       <c r="L508" s="19" t="inlineStr">
         <is>
-          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
+          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
         </is>
       </c>
       <c r="M508" s="20" t="n"/>
@@ -26766,12 +26758,12 @@
       </c>
       <c r="D509" s="18" t="inlineStr">
         <is>
-          <t>와일드카드는 CORS에 사용할 수 없습니다.</t>
+          <t>인바운드 네트워크 액세스를 제어해야 합니다.</t>
         </is>
       </c>
       <c r="E509" s="18" t="inlineStr">
         <is>
-          <t>CORS 구성에서 와일드카드를 사용하면 모든 원본이 서비스에 액세스할 수 있으므로 CORS의 목적에 어긋나므로 사용하지 마세요. 특히 서비스에 액세스할 수 있을 것으로 예상되는 원본만 허용합니다.</t>
+          <t>App Service 액세스 제한, 서비스 엔드포인트 또는 프라이빗 엔드포인트의 조합을 사용하여 인바운드 네트워크 액세스를 제어합니다. 웹앱 자체 및 SCM 사이트에 대해 서로 다른 액세스 제한이 필요하고 구성될 수 있습니다.</t>
         </is>
       </c>
       <c r="F509" s="18" t="inlineStr">
@@ -26794,7 +26786,7 @@
       <c r="K509" s="19" t="n"/>
       <c r="L509" s="19" t="inlineStr">
         <is>
-          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
+          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
         </is>
       </c>
       <c r="M509" s="20" t="n"/>
@@ -26821,12 +26813,12 @@
       </c>
       <c r="D510" s="18" t="inlineStr">
         <is>
-          <t>원격 디버깅 끄기</t>
+          <t>App Service 앞에서 WAF 사용Use a WAF in front of App Service</t>
         </is>
       </c>
       <c r="E510" s="18" t="inlineStr">
         <is>
-          <t>원격 디버깅은 서비스에서 추가 포트를 열어 공격 노출 영역을 증가시키므로 프로덕션에서 켜면 안 됩니다. 서비스는 48시간 후에 자동으로 원격 디버깅을 설정합니다.</t>
+          <t>Application Gateway 또는 Azure Front Door와 같은 Web Application Firewall을 사용하여 악의적인 인바운드 트래픽으로부터 보호합니다.  WAF의 로그를 모니터링해야 합니다.</t>
         </is>
       </c>
       <c r="F510" s="18" t="inlineStr">
@@ -26846,14 +26838,10 @@
         </is>
       </c>
       <c r="J510" s="13" t="n"/>
-      <c r="K510" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K510" s="19" t="n"/>
       <c r="L510" s="19" t="inlineStr">
         <is>
-          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
+          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
         </is>
       </c>
       <c r="M510" s="20" t="n"/>
@@ -26880,17 +26868,17 @@
       </c>
       <c r="D511" s="18" t="inlineStr">
         <is>
-          <t>클라우드용 Defender 사용 - App Service용 Defender</t>
+          <t>WAF가 우회되지 않도록 방지</t>
         </is>
       </c>
       <c r="E511" s="18" t="inlineStr">
         <is>
-          <t>App Service용 Defender를 사용하도록 설정합니다.  이는 다른 위협 중에서도 알려진 악성 IP 주소에 대한 통신을 탐지합니다.  작업의 일부로 App Service용 Defender의 권장 사항을 검토합니다.</t>
+          <t>WAF에 대한 액세스만 잠궈 WAF를 우회할 수 없는지 확인합니다.  액세스 제한, 서비스 엔드포인트 및 프라이빗 엔드포인트의 조합을 사용합니다.</t>
         </is>
       </c>
       <c r="F511" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
@@ -26908,7 +26896,7 @@
       <c r="K511" s="19" t="n"/>
       <c r="L511" s="19" t="inlineStr">
         <is>
-          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
+          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
         </is>
       </c>
       <c r="M511" s="20" t="n"/>
@@ -26935,12 +26923,12 @@
       </c>
       <c r="D512" s="18" t="inlineStr">
         <is>
-          <t>WAF VNet에서 DDOS 보호 표준 사용Enable DDOS Protection Standard on the WAF VNet</t>
+          <t>최소 TLS 정책을 1.2로 설정합니다.</t>
         </is>
       </c>
       <c r="E512" s="18" t="inlineStr">
         <is>
-          <t>Azure는 네트워크에서 DDoS 기본 보호를 제공하며, 정상적인 트래픽 패턴을 학습하고 비정상적인 동작을 감지할 수 있는 지능형 DDoS 표준 기능으로 개선할 수 있습니다. DDoS 표준은 Virtual Network에 적용되므로 Application Gateway 또는 NVA와 같은 앱 앞의 네트워크 리소스에 대해 구성해야 합니다.</t>
+          <t>App Service 구성에서 최소 TLS 정책을 1.2로 설정합니다.</t>
         </is>
       </c>
       <c r="F512" s="18" t="inlineStr">
@@ -26960,10 +26948,14 @@
         </is>
       </c>
       <c r="J512" s="13" t="n"/>
-      <c r="K512" s="19" t="n"/>
+      <c r="K512" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L512" s="19" t="inlineStr">
         <is>
-          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
+          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
         </is>
       </c>
       <c r="M512" s="20" t="n"/>
@@ -26990,17 +26982,17 @@
       </c>
       <c r="D513" s="18" t="inlineStr">
         <is>
-          <t>Virtual Network를 통해 컨테이너 끌어오기</t>
+          <t>HTTPS만 사용</t>
         </is>
       </c>
       <c r="E513" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry에 저장된 이미지를 사용하는 경우 프라이빗 엔드포인트 및 앱 설정 'WEBSITE_PULL_IMAGE_OVER_VNET'를 사용하여 Azure Container Registry에서 가상 네트워크를 통해 끌어옵니다.</t>
+          <t>HTTPS만 사용하도록 App Service를 구성합니다.  이로 인해 App Service가 HTTP에서 HTTPS로 리디렉션됩니다.  코드 또는 WAF에서 HSTS(HTTP Strict Transport Security)를 사용하여 HTTPS를 통해서만 사이트에 액세스해야 함을 브라우저에 알리는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="F513" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
@@ -27015,10 +27007,14 @@
         </is>
       </c>
       <c r="J513" s="13" t="n"/>
-      <c r="K513" s="19" t="n"/>
+      <c r="K513" s="19" t="inlineStr">
+        <is>
+          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L513" s="19" t="inlineStr">
         <is>
-          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
+          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
         </is>
       </c>
       <c r="M513" s="20" t="n"/>
@@ -27045,17 +27041,17 @@
       </c>
       <c r="D514" s="18" t="inlineStr">
         <is>
-          <t>침투 테스트 수행</t>
+          <t>와일드카드는 CORS에 사용할 수 없습니다.</t>
         </is>
       </c>
       <c r="E514" s="18" t="inlineStr">
         <is>
-          <t>참여의 침투 테스트 규칙에 따라 웹 응용 프로그램에 대한 침투 테스트를 수행합니다.</t>
+          <t>CORS 구성에서 와일드카드를 사용하면 모든 원본이 서비스에 액세스할 수 있으므로 CORS의 목적에 어긋나므로 사용하지 마세요. 특히 서비스에 액세스할 수 있을 것으로 예상되는 원본만 허용합니다.</t>
         </is>
       </c>
       <c r="F514" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
@@ -27073,7 +27069,7 @@
       <c r="K514" s="19" t="n"/>
       <c r="L514" s="19" t="inlineStr">
         <is>
-          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
+          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
         </is>
       </c>
       <c r="M514" s="20" t="n"/>
@@ -27100,17 +27096,17 @@
       </c>
       <c r="D515" s="18" t="inlineStr">
         <is>
-          <t>유효성이 검사된 코드 배포</t>
+          <t>원격 디버깅 끄기</t>
         </is>
       </c>
       <c r="E515" s="18" t="inlineStr">
         <is>
-          <t>DevSecOps 사례에 따라 취약성을 검증하고 검사한 신뢰할 수 있는 코드를 배포합니다.</t>
+          <t>원격 디버깅은 서비스에서 추가 포트를 열어 공격 노출 영역을 증가시키므로 프로덕션에서 켜면 안 됩니다. 서비스는 48시간 후에 자동으로 원격 디버깅을 설정합니다.</t>
         </is>
       </c>
       <c r="F515" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
@@ -27125,10 +27121,14 @@
         </is>
       </c>
       <c r="J515" s="13" t="n"/>
-      <c r="K515" s="19" t="n"/>
+      <c r="K515" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L515" s="19" t="inlineStr">
         <is>
-          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
         </is>
       </c>
       <c r="M515" s="20" t="n"/>
@@ -27155,17 +27155,17 @@
       </c>
       <c r="D516" s="18" t="inlineStr">
         <is>
-          <t>최신 플랫폼, 언어, 프로토콜 및 프레임워크 사용</t>
+          <t>클라우드용 Defender 사용 - App Service용 Defender</t>
         </is>
       </c>
       <c r="E516" s="18" t="inlineStr">
         <is>
-          <t>지원되는 플랫폼, 프로그래밍 언어, 프로토콜 및 프레임워크의 최신 버전을 사용합니다.</t>
+          <t>App Service용 Defender를 사용하도록 설정합니다.  이는 다른 위협 중에서도 알려진 악성 IP 주소에 대한 통신을 탐지합니다.  작업의 일부로 App Service용 Defender의 권장 사항을 검토합니다.</t>
         </is>
       </c>
       <c r="F516" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
@@ -27183,7 +27183,7 @@
       <c r="K516" s="19" t="n"/>
       <c r="L516" s="19" t="inlineStr">
         <is>
-          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
         </is>
       </c>
       <c r="M516" s="20" t="n"/>
@@ -27195,7 +27195,7 @@
     <row r="517">
       <c r="A517" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B517" s="18" t="inlineStr">
@@ -27205,17 +27205,17 @@
       </c>
       <c r="C517" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D517" s="18" t="inlineStr">
         <is>
-          <t>'스토리지에 대한 Azure 보안 기준' 고려</t>
+          <t>WAF VNet에서 DDOS 보호 표준 사용Enable DDOS Protection Standard on the WAF VNet</t>
         </is>
       </c>
       <c r="E517" s="18" t="inlineStr">
         <is>
-          <t>스토리지와 관련된 Microsoft 클라우드 보안 벤치마크의 지침 적용</t>
+          <t>Azure는 네트워크에서 DDoS 기본 보호를 제공하며, 정상적인 트래픽 패턴을 학습하고 비정상적인 동작을 감지할 수 있는 지능형 DDoS 표준 기능으로 개선할 수 있습니다. DDoS 표준은 Virtual Network에 적용되므로 Application Gateway 또는 NVA와 같은 앱 앞의 네트워크 리소스에 대해 구성해야 합니다.</t>
         </is>
       </c>
       <c r="F517" s="18" t="inlineStr">
@@ -27238,7 +27238,7 @@
       <c r="K517" s="19" t="n"/>
       <c r="L517" s="19" t="inlineStr">
         <is>
-          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
+          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
         </is>
       </c>
       <c r="M517" s="20" t="n"/>
@@ -27250,7 +27250,7 @@
     <row r="518">
       <c r="A518" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B518" s="18" t="inlineStr">
@@ -27260,22 +27260,22 @@
       </c>
       <c r="C518" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D518" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage에 프라이빗 엔드포인트를 사용하는 것이 좋습니다.</t>
+          <t>Virtual Network를 통해 컨테이너 끌어오기</t>
         </is>
       </c>
       <c r="E518" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage는 기본적으로 공용 IP 주소를 가지며 인터넷에 연결할 수 있습니다. 프라이빗 엔드포인트를 사용하면 액세스가 필요한 Azure Compute 리소스에만 Azure Storage를 안전하게 노출할 수 있으므로 공용 인터넷에 노출되지 않습니다</t>
+          <t>Azure Container Registry에 저장된 이미지를 사용하는 경우 프라이빗 엔드포인트 및 앱 설정 'WEBSITE_PULL_IMAGE_OVER_VNET'를 사용하여 Azure Container Registry에서 가상 네트워크를 통해 끌어옵니다.</t>
         </is>
       </c>
       <c r="F518" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
@@ -27293,7 +27293,7 @@
       <c r="K518" s="19" t="n"/>
       <c r="L518" s="19" t="inlineStr">
         <is>
-          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
+          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
         </is>
       </c>
       <c r="M518" s="20" t="n"/>
@@ -27305,7 +27305,7 @@
     <row r="519">
       <c r="A519" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B519" s="18" t="inlineStr">
@@ -27315,17 +27315,17 @@
       </c>
       <c r="C519" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D519" s="18" t="inlineStr">
         <is>
-          <t>이전 스토리지 계정이 '클래식 배포 모델'을 사용하지 않는지 확인</t>
+          <t>침투 테스트 수행</t>
         </is>
       </c>
       <c r="E519" s="18" t="inlineStr">
         <is>
-          <t>새로 만든 저장소 계정은 ARM 배포 모델을 사용하여 만들어지므로 RBAC, 감사 등을 모두 사용할 수 있습니다. 구독에 클래식 배포 모델이 있는 이전 저장소 계정이 없는지 확인합니다.</t>
+          <t>참여의 침투 테스트 규칙에 따라 웹 응용 프로그램에 대한 침투 테스트를 수행합니다.</t>
         </is>
       </c>
       <c r="F519" s="18" t="inlineStr">
@@ -27348,7 +27348,7 @@
       <c r="K519" s="19" t="n"/>
       <c r="L519" s="19" t="inlineStr">
         <is>
-          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
+          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
         </is>
       </c>
       <c r="M519" s="20" t="n"/>
@@ -27360,7 +27360,7 @@
     <row r="520">
       <c r="A520" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B520" s="18" t="inlineStr">
@@ -27370,22 +27370,22 @@
       </c>
       <c r="C520" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D520" s="18" t="inlineStr">
         <is>
-          <t>모든 스토리지 계정에 대해 Microsoft Defender 사용</t>
+          <t>유효성이 검사된 코드 배포</t>
         </is>
       </c>
       <c r="E520" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Defender를 활용하여 의심스러운 활동 및 잘못된 구성에 대해 알아봅니다.</t>
+          <t>DevSecOps 사례에 따라 취약성을 검증하고 검사한 신뢰할 수 있는 코드를 배포합니다.</t>
         </is>
       </c>
       <c r="F520" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
@@ -27403,7 +27403,7 @@
       <c r="K520" s="19" t="n"/>
       <c r="L520" s="19" t="inlineStr">
         <is>
-          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
+          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
         </is>
       </c>
       <c r="M520" s="20" t="n"/>
@@ -27415,7 +27415,7 @@
     <row r="521">
       <c r="A521" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B521" s="18" t="inlineStr">
@@ -27425,22 +27425,22 @@
       </c>
       <c r="C521" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D521" s="18" t="inlineStr">
         <is>
-          <t>Blob에 대해 '일시 삭제' 사용Enable 'soft delete' for blobs</t>
+          <t>최신 플랫폼, 언어, 프로토콜 및 프레임워크 사용</t>
         </is>
       </c>
       <c r="E521" s="18" t="inlineStr">
         <is>
-          <t>일시 삭제 메커니즘을 사용하면 실수로 삭제된 Blob을 복구할 수 있습니다.</t>
+          <t>지원되는 플랫폼, 프로그래밍 언어, 프로토콜 및 프레임워크의 최신 버전을 사용합니다.</t>
         </is>
       </c>
       <c r="F521" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
@@ -27458,7 +27458,7 @@
       <c r="K521" s="19" t="n"/>
       <c r="L521" s="19" t="inlineStr">
         <is>
-          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
+          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
         </is>
       </c>
       <c r="M521" s="20" t="n"/>
@@ -27485,12 +27485,12 @@
       </c>
       <c r="D522" s="18" t="inlineStr">
         <is>
-          <t>Blob에 대해 '일시 삭제' 사용 안 함</t>
+          <t>'스토리지에 대한 Azure 보안 기준' 고려</t>
         </is>
       </c>
       <c r="E522" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">예를 들어 애플리케이션이 기밀성, 개인 정보 보호 또는 규정 준수를 위해 삭제된 정보가 즉시 삭제되도록 해야 하는 경우와 같이 특정 Blob 컨테이너에 대해 '일시 삭제'를 선택적으로 사용하지 않도록 설정하는 것이 좋습니다. </t>
+          <t>스토리지와 관련된 Microsoft 클라우드 보안 벤치마크의 지침 적용</t>
         </is>
       </c>
       <c r="F522" s="18" t="inlineStr">
@@ -27513,7 +27513,7 @@
       <c r="K522" s="19" t="n"/>
       <c r="L522" s="19" t="inlineStr">
         <is>
-          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
+          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
         </is>
       </c>
       <c r="M522" s="20" t="n"/>
@@ -27540,12 +27540,12 @@
       </c>
       <c r="D523" s="18" t="inlineStr">
         <is>
-          <t>컨테이너에 대해 '일시 삭제' 사용Enable 'soft delete' for containers</t>
+          <t>Azure Storage에 프라이빗 엔드포인트를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E523" s="18" t="inlineStr">
         <is>
-          <t>컨테이너에 대한 일시 삭제를 사용하면 컨테이너가 삭제된 후 컨테이너를 복구할 수 있습니다(예: 실수로 인한 삭제 작업에서 복구).</t>
+          <t>Azure Storage는 기본적으로 공용 IP 주소를 가지며 인터넷에 연결할 수 있습니다. 프라이빗 엔드포인트를 사용하면 액세스가 필요한 Azure Compute 리소스에만 Azure Storage를 안전하게 노출할 수 있으므로 공용 인터넷에 노출되지 않습니다</t>
         </is>
       </c>
       <c r="F523" s="18" t="inlineStr">
@@ -27568,7 +27568,7 @@
       <c r="K523" s="19" t="n"/>
       <c r="L523" s="19" t="inlineStr">
         <is>
-          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
+          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
         </is>
       </c>
       <c r="M523" s="20" t="n"/>
@@ -27595,12 +27595,12 @@
       </c>
       <c r="D524" s="18" t="inlineStr">
         <is>
-          <t>컨테이너에 대해 '일시 삭제' 사용 안 함</t>
+          <t>이전 스토리지 계정이 '클래식 배포 모델'을 사용하지 않는지 확인</t>
         </is>
       </c>
       <c r="E524" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">예를 들어 애플리케이션이 기밀성, 개인 정보 보호 또는 규정 준수를 위해 삭제된 정보가 즉시 삭제되도록 해야 하는 경우와 같이 특정 Blob 컨테이너에 대해 '일시 삭제'를 선택적으로 사용하지 않도록 설정하는 것이 좋습니다. </t>
+          <t>새로 만든 저장소 계정은 ARM 배포 모델을 사용하여 만들어지므로 RBAC, 감사 등을 모두 사용할 수 있습니다. 구독에 클래식 배포 모델이 있는 이전 저장소 계정이 없는지 확인합니다.</t>
         </is>
       </c>
       <c r="F524" s="18" t="inlineStr">
@@ -27623,7 +27623,7 @@
       <c r="K524" s="19" t="n"/>
       <c r="L524" s="19" t="inlineStr">
         <is>
-          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
+          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
         </is>
       </c>
       <c r="M524" s="20" t="n"/>
@@ -27650,12 +27650,12 @@
       </c>
       <c r="D525" s="18" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대한 리소스 잠금 사용Enable resource locks on storage accounts</t>
+          <t>모든 스토리지 계정에 대해 Microsoft Defender 사용</t>
         </is>
       </c>
       <c r="E525" s="18" t="inlineStr">
         <is>
-          <t>사용자가 삭제하기 전에 먼저 삭제 잠금을 제거하도록 강제하여 저장소 계정이 실수로 삭제되는 것을 방지합니다.</t>
+          <t>Microsoft Defender를 활용하여 의심스러운 활동 및 잘못된 구성에 대해 알아봅니다.</t>
         </is>
       </c>
       <c r="F525" s="18" t="inlineStr">
@@ -27678,7 +27678,7 @@
       <c r="K525" s="19" t="n"/>
       <c r="L525" s="19" t="inlineStr">
         <is>
-          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
+          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
         </is>
       </c>
       <c r="M525" s="20" t="n"/>
@@ -27705,17 +27705,17 @@
       </c>
       <c r="D526" s="18" t="inlineStr">
         <is>
-          <t>변경할 수 없는 Blob 고려</t>
+          <t>Blob에 대해 '일시 삭제' 사용Enable 'soft delete' for blobs</t>
         </is>
       </c>
       <c r="E526" s="18" t="inlineStr">
         <is>
-          <t>Blob에 대한 '법적 보존' 또는 '시간 기반 보존' 정책을 고려하면 Blob, 컨테이너 또는 스토리지 계정을 삭제할 수 없습니다. '불가능'은 실제로 '불가능'을 의미합니다. 스토리지 계정에 변경할 수 없는 Blob이 포함된 경우 해당 스토리지 계정을 '제거'하는 유일한 방법은 Azure 구독을 취소하는 것입니다.</t>
+          <t>일시 삭제 메커니즘을 사용하면 실수로 삭제된 Blob을 복구할 수 있습니다.</t>
         </is>
       </c>
       <c r="F526" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
@@ -27733,7 +27733,7 @@
       <c r="K526" s="19" t="n"/>
       <c r="L526" s="19" t="inlineStr">
         <is>
-          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
+          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
         </is>
       </c>
       <c r="M526" s="20" t="n"/>
@@ -27760,17 +27760,17 @@
       </c>
       <c r="D527" s="18" t="inlineStr">
         <is>
-          <t>HTTPS 필요, 즉 스토리지 계정에서 포트 80 사용 안 함Require HTTPS, i.e. disable port 80 on the storage account</t>
+          <t>Blob에 대해 '일시 삭제' 사용 안 함</t>
         </is>
       </c>
       <c r="E527" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">모든 데이터 전송이 암호화되고, 무결성이 보호되고, 서버가 인증되도록 스토리지 계정에 대한 보호되지 않는 HTTP/80 액세스를 사용하지 않도록 설정하는 것이 좋습니다. </t>
+          <t xml:space="preserve">예를 들어 애플리케이션이 기밀성, 개인 정보 보호 또는 규정 준수를 위해 삭제된 정보가 즉시 삭제되도록 해야 하는 경우와 같이 특정 Blob 컨테이너에 대해 '일시 삭제'를 선택적으로 사용하지 않도록 설정하는 것이 좋습니다. </t>
         </is>
       </c>
       <c r="F527" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
@@ -27788,7 +27788,7 @@
       <c r="K527" s="19" t="n"/>
       <c r="L527" s="19" t="inlineStr">
         <is>
-          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
+          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
         </is>
       </c>
       <c r="M527" s="20" t="n"/>
@@ -27815,12 +27815,12 @@
       </c>
       <c r="D528" s="18" t="inlineStr">
         <is>
-          <t>HTTPS를 적용할 때(HTTP 사용 안 함) 스토리지 계정에 사용자 지정 도메인(CNAME)을 사용하지 않는지 확인합니다.</t>
+          <t>컨테이너에 대해 '일시 삭제' 사용Enable 'soft delete' for containers</t>
         </is>
       </c>
       <c r="E528" s="18" t="inlineStr">
         <is>
-          <t>스토리지 계정에서 사용자 지정 도메인(호스트 이름)을 구성할 때 TLS/HTTPS가 필요한지 여부를 확인합니다. 이 경우 저장소 계정 앞에 Azure CDN을 배치해야 할 수 있습니다.</t>
+          <t>컨테이너에 대한 일시 삭제를 사용하면 컨테이너가 삭제된 후 컨테이너를 복구할 수 있습니다(예: 실수로 인한 삭제 작업에서 복구).</t>
         </is>
       </c>
       <c r="F528" s="18" t="inlineStr">
@@ -27843,7 +27843,7 @@
       <c r="K528" s="19" t="n"/>
       <c r="L528" s="19" t="inlineStr">
         <is>
-          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
+          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
         </is>
       </c>
       <c r="M528" s="20" t="n"/>
@@ -27870,12 +27870,12 @@
       </c>
       <c r="D529" s="18" t="inlineStr">
         <is>
-          <t>SAS(공유 액세스 서명) 토큰을 HTTPS 연결로만 제한</t>
+          <t>컨테이너에 대해 '일시 삭제' 사용 안 함</t>
         </is>
       </c>
       <c r="E529" s="18" t="inlineStr">
         <is>
-          <t>클라이언트가 SAS 토큰을 사용하여 Blob 데이터에 액세스할 때 HTTPS를 요구하면 자격 증명 손실 위험을 최소화하는 데 도움이 됩니다.</t>
+          <t xml:space="preserve">예를 들어 애플리케이션이 기밀성, 개인 정보 보호 또는 규정 준수를 위해 삭제된 정보가 즉시 삭제되도록 해야 하는 경우와 같이 특정 Blob 컨테이너에 대해 '일시 삭제'를 선택적으로 사용하지 않도록 설정하는 것이 좋습니다. </t>
         </is>
       </c>
       <c r="F529" s="18" t="inlineStr">
@@ -27898,7 +27898,7 @@
       <c r="K529" s="19" t="n"/>
       <c r="L529" s="19" t="inlineStr">
         <is>
-          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
+          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
         </is>
       </c>
       <c r="M529" s="20" t="n"/>
@@ -27925,12 +27925,12 @@
       </c>
       <c r="D530" s="18" t="inlineStr">
         <is>
-          <t>Blob 액세스에 Azure AD(Azure Active Directory) 토큰 사용Use Azure Active Directory (Azure AD) tokens for blob access</t>
+          <t>스토리지 계정에 대한 리소스 잠금 사용Enable resource locks on storage accounts</t>
         </is>
       </c>
       <c r="E530" s="18" t="inlineStr">
         <is>
-          <t>AAD 토큰은 가능한 경우 공유 액세스 서명보다 우선해야 합니다</t>
+          <t>사용자가 삭제하기 전에 먼저 삭제 잠금을 제거하도록 강제하여 저장소 계정이 실수로 삭제되는 것을 방지합니다.</t>
         </is>
       </c>
       <c r="F530" s="18" t="inlineStr">
@@ -27953,7 +27953,7 @@
       <c r="K530" s="19" t="n"/>
       <c r="L530" s="19" t="inlineStr">
         <is>
-          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
+          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
         </is>
       </c>
       <c r="M530" s="20" t="n"/>
@@ -27980,17 +27980,17 @@
       </c>
       <c r="D531" s="18" t="inlineStr">
         <is>
-          <t>IaM 권한의 최소 권한</t>
+          <t>변경할 수 없는 Blob 고려</t>
         </is>
       </c>
       <c r="E531" s="18" t="inlineStr">
         <is>
-          <t>사용자, 그룹 또는 응용 프로그램에 역할을 할당할 때 해당 보안 주체가 작업을 수행하는 데 필요한 권한만 부여합니다. 리소스에 대한 액세스를 제한하면 의도하지 않은 데이터 오용과 악의적인 데이터 오용을 모두 방지할 수 있습니다.</t>
+          <t>Blob에 대한 '법적 보존' 또는 '시간 기반 보존' 정책을 고려하면 Blob, 컨테이너 또는 스토리지 계정을 삭제할 수 없습니다. '불가능'은 실제로 '불가능'을 의미합니다. 스토리지 계정에 변경할 수 없는 Blob이 포함된 경우 해당 스토리지 계정을 '제거'하는 유일한 방법은 Azure 구독을 취소하는 것입니다.</t>
         </is>
       </c>
       <c r="F531" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
@@ -27999,12 +27999,16 @@
         </is>
       </c>
       <c r="H531" s="18" t="n"/>
-      <c r="I531" s="13" t="n"/>
+      <c r="I531" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J531" s="13" t="n"/>
       <c r="K531" s="19" t="n"/>
       <c r="L531" s="19" t="inlineStr">
         <is>
-          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
+          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
         </is>
       </c>
       <c r="M531" s="20" t="n"/>
@@ -28031,12 +28035,12 @@
       </c>
       <c r="D532" s="18" t="inlineStr">
         <is>
-          <t>SAS를 사용하는 경우 스토리지 계정 키 기반 SAS보다 '사용자 위임 SAS'를 선호합니다.</t>
+          <t>HTTPS 필요, 즉 스토리지 계정에서 포트 80 사용 안 함Require HTTPS, i.e. disable port 80 on the storage account</t>
         </is>
       </c>
       <c r="E532" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">사용자 위임 SAS는 Azure AD(Azure Active Directory) 자격 증명과 SAS에 지정된 권한으로 보호됩니다. 사용자 위임 SAS는 범위와 기능 측면에서 서비스 SAS와 유사하지만 서비스 SAS에 비해 보안상의 이점을 제공합니다. </t>
+          <t xml:space="preserve">모든 데이터 전송이 암호화되고, 무결성이 보호되고, 서버가 인증되도록 스토리지 계정에 대한 보호되지 않는 HTTP/80 액세스를 사용하지 않도록 설정하는 것이 좋습니다. </t>
         </is>
       </c>
       <c r="F532" s="18" t="inlineStr">
@@ -28059,7 +28063,7 @@
       <c r="K532" s="19" t="n"/>
       <c r="L532" s="19" t="inlineStr">
         <is>
-          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
+          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
         </is>
       </c>
       <c r="M532" s="20" t="n"/>
@@ -28086,12 +28090,12 @@
       </c>
       <c r="D533" s="18" t="inlineStr">
         <is>
-          <t>AAD 액세스(및 사용자 위임 SAS)만 지원되도록 스토리지 계정 키를 사용하지 않도록 설정하는 것이 좋습니다.</t>
+          <t>HTTPS를 적용할 때(HTTP 사용 안 함) 스토리지 계정에 사용자 지정 도메인(CNAME)을 사용하지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="E533" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">스토리지 계정 키('공유 키')에는 감사 기능이 거의 없습니다. 누가/언제 키 사본을 가져왔는지 모니터링할 수 있지만, 키가 여러 사람의 손에 들어가면 특정 사용자의 사용을 귀속시키는 것은 불가능합니다. AAD 인증에만 의존하면 스토리지 액세스를 사용자에게 더 쉽게 연결할 수 있습니다. </t>
+          <t>스토리지 계정에서 사용자 지정 도메인(호스트 이름)을 구성할 때 TLS/HTTPS가 필요한지 여부를 확인합니다. 이 경우 저장소 계정 앞에 Azure CDN을 배치해야 할 수 있습니다.</t>
         </is>
       </c>
       <c r="F533" s="18" t="inlineStr">
@@ -28114,7 +28118,7 @@
       <c r="K533" s="19" t="n"/>
       <c r="L533" s="19" t="inlineStr">
         <is>
-          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
+          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
         </is>
       </c>
       <c r="M533" s="20" t="n"/>
@@ -28141,17 +28145,17 @@
       </c>
       <c r="D534" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor를 사용하여 스토리지 계정에 대한 컨트롤 플레인 작업을 감사하는 것이 좋습니다.</t>
+          <t>SAS(공유 액세스 서명) 토큰을 HTTPS 연결로만 제한</t>
         </is>
       </c>
       <c r="E534" s="18" t="inlineStr">
         <is>
-          <t>활동 로그 데이터를 사용하여 스토리지 계정의 보안을 보거나 변경하는 '시기', '누가', '무엇을' 및 '방법'(예: 스토리지 계정 키, 액세스 정책 등)을 식별합니다.</t>
+          <t>클라이언트가 SAS 토큰을 사용하여 Blob 데이터에 액세스할 때 HTTPS를 요구하면 자격 증명 손실 위험을 최소화하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="F534" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
@@ -28169,7 +28173,7 @@
       <c r="K534" s="19" t="n"/>
       <c r="L534" s="19" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
         </is>
       </c>
       <c r="M534" s="20" t="n"/>
@@ -28196,17 +28200,17 @@
       </c>
       <c r="D535" s="18" t="inlineStr">
         <is>
-          <t>스토리지 계정 키를 사용하는 경우 '키 만료 정책'을 사용하도록 설정하는 것이 좋습니다</t>
+          <t>Blob 액세스에 Azure AD(Azure Active Directory) 토큰 사용Use Azure Active Directory (Azure AD) tokens for blob access</t>
         </is>
       </c>
       <c r="E535" s="18" t="inlineStr">
         <is>
-          <t>키 만료 정책을 사용하면 계정 액세스 키 교체에 대한 미리 알림을 설정할 수 있습니다. 지정된 간격이 경과하고 키가 아직 회전되지 않은 경우 알림이 표시됩니다.</t>
+          <t>AAD 토큰은 가능한 경우 공유 액세스 서명보다 우선해야 합니다</t>
         </is>
       </c>
       <c r="F535" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G535" t="inlineStr">
@@ -28224,7 +28228,7 @@
       <c r="K535" s="19" t="n"/>
       <c r="L535" s="19" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
         </is>
       </c>
       <c r="M535" s="20" t="n"/>
@@ -28251,12 +28255,12 @@
       </c>
       <c r="D536" s="18" t="inlineStr">
         <is>
-          <t>SAS 만료 정책 구성 고려</t>
+          <t>IaM 권한의 최소 권한</t>
         </is>
       </c>
       <c r="E536" s="18" t="inlineStr">
         <is>
-          <t>SAS 만료 정책은 SAS가 유효한 권장 간격을 지정합니다. SAS 만료 정책은 서비스 SAS 또는 계정 SAS에 적용됩니다. 사용자가 권장 간격보다 큰 유효 간격을 사용하여 서비스 SAS 또는 계정 SAS를 생성하면 경고가 표시됩니다.</t>
+          <t>사용자, 그룹 또는 응용 프로그램에 역할을 할당할 때 해당 보안 주체가 작업을 수행하는 데 필요한 권한만 부여합니다. 리소스에 대한 액세스를 제한하면 의도하지 않은 데이터 오용과 악의적인 데이터 오용을 모두 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="F536" s="18" t="inlineStr">
@@ -28270,16 +28274,12 @@
         </is>
       </c>
       <c r="H536" s="18" t="n"/>
-      <c r="I536" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I536" s="13" t="n"/>
       <c r="J536" s="13" t="n"/>
       <c r="K536" s="19" t="n"/>
       <c r="L536" s="19" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
+          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
         </is>
       </c>
       <c r="M536" s="20" t="n"/>
@@ -28306,17 +28306,17 @@
       </c>
       <c r="D537" s="18" t="inlineStr">
         <is>
-          <t>SAS를 저장된 액세스 정책에 연결하는 것이 좋습니다.</t>
+          <t>SAS를 사용하는 경우 스토리지 계정 키 기반 SAS보다 '사용자 위임 SAS'를 선호합니다.</t>
         </is>
       </c>
       <c r="E537" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">저장된 액세스 정책은 스토리지 계정 키를 다시 생성할 필요 없이 서비스 SAS에 대한 권한을 취소하는 옵션을 제공합니다. </t>
+          <t xml:space="preserve">사용자 위임 SAS는 Azure AD(Azure Active Directory) 자격 증명과 SAS에 지정된 권한으로 보호됩니다. 사용자 위임 SAS는 범위와 기능 측면에서 서비스 SAS와 유사하지만 서비스 SAS에 비해 보안상의 이점을 제공합니다. </t>
         </is>
       </c>
       <c r="F537" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
@@ -28334,7 +28334,7 @@
       <c r="K537" s="19" t="n"/>
       <c r="L537" s="19" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
+          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
         </is>
       </c>
       <c r="M537" s="20" t="n"/>
@@ -28361,13 +28361,17 @@
       </c>
       <c r="D538" s="18" t="inlineStr">
         <is>
-          <t>체크 인된 연결 문자열 및 저장소 계정 키를 검색하도록 응용 프로그램의 소스 코드 리포지토리를 구성하는 것이 좋습니다.</t>
-        </is>
-      </c>
-      <c r="E538" s="18" t="n"/>
+          <t>AAD 액세스(및 사용자 위임 SAS)만 지원되도록 스토리지 계정 키를 사용하지 않도록 설정하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="E538" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">스토리지 계정 키('공유 키')에는 감사 기능이 거의 없습니다. 누가/언제 키 사본을 가져왔는지 모니터링할 수 있지만, 키가 여러 사람의 손에 들어가면 특정 사용자의 사용을 귀속시키는 것은 불가능합니다. AAD 인증에만 의존하면 스토리지 액세스를 사용자에게 더 쉽게 연결할 수 있습니다. </t>
+        </is>
+      </c>
       <c r="F538" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
@@ -28385,7 +28389,7 @@
       <c r="K538" s="19" t="n"/>
       <c r="L538" s="19" t="inlineStr">
         <is>
-          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
+          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
         </is>
       </c>
       <c r="M538" s="20" t="n"/>
@@ -28412,12 +28416,12 @@
       </c>
       <c r="D539" s="18" t="inlineStr">
         <is>
-          <t>Azure KeyVault에 연결 문자열을 저장하는 것이 좋습니다(관리 ID를 사용할 수 없는 시나리오에서).</t>
+          <t>Azure Monitor를 사용하여 스토리지 계정에 대한 컨트롤 플레인 작업을 감사하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E539" s="18" t="inlineStr">
         <is>
-          <t>이상적으로 애플리케이션은 관리 ID를 사용하여 Azure Storage에 인증해야 합니다. 이렇게 할 수 없는 경우 Azure KeyVault 또는 동등한 서비스에 스토리지 자격 증명(연결 문자열, 스토리지 계정 키, SAS, 서비스 주체 자격 증명)을 사용하는 것이 좋습니다.</t>
+          <t>활동 로그 데이터를 사용하여 스토리지 계정의 보안을 보거나 변경하는 '시기', '누가', '무엇을' 및 '방법'(예: 스토리지 계정 키, 액세스 정책 등)을 식별합니다.</t>
         </is>
       </c>
       <c r="F539" s="18" t="inlineStr">
@@ -28440,7 +28444,7 @@
       <c r="K539" s="19" t="n"/>
       <c r="L539" s="19" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
         </is>
       </c>
       <c r="M539" s="20" t="n"/>
@@ -28467,17 +28471,17 @@
       </c>
       <c r="D540" s="18" t="inlineStr">
         <is>
-          <t>임시 SAS의 유효 기간을 단축하기 위해 노력</t>
+          <t>스토리지 계정 키를 사용하는 경우 '키 만료 정책'을 사용하도록 설정하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="E540" s="18" t="inlineStr">
         <is>
-          <t>임시 SAS 서비스 SAS 또는 계정 SAS에서 단기 만료 시간을 사용합니다. 이러한 방식으로 SAS가 손상되더라도 짧은 시간 동안만 유효합니다. 이 방법은 저장된 액세스 정책을 참조할 수 없는 경우에 특히 중요합니다. 또한 단기 만료 시간은 업로드에 사용할 수 있는 시간을 제한하여 Blob에 쓸 수 있는 데이터의 양을 제한합니다.</t>
+          <t>키 만료 정책을 사용하면 계정 액세스 키 교체에 대한 미리 알림을 설정할 수 있습니다. 지정된 간격이 경과하고 키가 아직 회전되지 않은 경우 알림이 표시됩니다.</t>
         </is>
       </c>
       <c r="F540" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G540" t="inlineStr">
@@ -28495,7 +28499,7 @@
       <c r="K540" s="19" t="n"/>
       <c r="L540" s="19" t="inlineStr">
         <is>
-          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
         </is>
       </c>
       <c r="M540" s="20" t="n"/>
@@ -28522,12 +28526,12 @@
       </c>
       <c r="D541" s="18" t="inlineStr">
         <is>
-          <t>SAS에 좁은 범위 적용</t>
+          <t>SAS 만료 정책 구성 고려</t>
         </is>
       </c>
       <c r="E541" s="18" t="inlineStr">
         <is>
-          <t>SAS를 만들 때는 가능한 한 구체적이고 제한적이어야 합니다. 훨씬 더 광범위한 액세스를 제공하는 SAS보다 단일 리소스 및 작업에 대해 SAS를 선호합니다.</t>
+          <t>SAS 만료 정책은 SAS가 유효한 권장 간격을 지정합니다. SAS 만료 정책은 서비스 SAS 또는 계정 SAS에 적용됩니다. 사용자가 권장 간격보다 큰 유효 간격을 사용하여 서비스 SAS 또는 계정 SAS를 생성하면 경고가 표시됩니다.</t>
         </is>
       </c>
       <c r="F541" s="18" t="inlineStr">
@@ -28550,7 +28554,7 @@
       <c r="K541" s="19" t="n"/>
       <c r="L541" s="19" t="inlineStr">
         <is>
-          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
+          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
         </is>
       </c>
       <c r="M541" s="20" t="n"/>
@@ -28577,12 +28581,12 @@
       </c>
       <c r="D542" s="18" t="inlineStr">
         <is>
-          <t>가능한 경우 SAS의 범위를 특정 클라이언트 IP 주소로 지정하는 것이 좋습니다</t>
+          <t>SAS를 저장된 액세스 정책에 연결하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E542" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAS에는 SAS를 사용하여 리소스를 요청할 수 있는 권한이 있는 클라이언트 IP 주소 또는 주소 범위에 대한 매개 변수가 포함될 수 있습니다. </t>
+          <t xml:space="preserve">저장된 액세스 정책은 스토리지 계정 키를 다시 생성할 필요 없이 서비스 SAS에 대한 권한을 취소하는 옵션을 제공합니다. </t>
         </is>
       </c>
       <c r="F542" s="18" t="inlineStr">
@@ -28605,7 +28609,7 @@
       <c r="K542" s="19" t="n"/>
       <c r="L542" s="19" t="inlineStr">
         <is>
-          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
+          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
         </is>
       </c>
       <c r="M542" s="20" t="n"/>
@@ -28632,17 +28636,13 @@
       </c>
       <c r="D543" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">클라이언트가 SAS를 사용하여 파일을 업로드한 후 업로드된 데이터를 확인하는 것이 좋습니다. </t>
-        </is>
-      </c>
-      <c r="E543" s="18" t="inlineStr">
-        <is>
-          <t>SAS는 클라이언트가 업로드하는 데이터의 양을 제한할 수 없습니다. 시간 경과에 따른 스토리지 양의 가격 책정 모델을 고려할 때 클라이언트가 악의적으로 큰 콘텐츠를 업로드했는지 여부를 확인하는 것이 합리적일 수 있습니다.</t>
-        </is>
-      </c>
+          <t>체크 인된 연결 문자열 및 저장소 계정 키를 검색하도록 응용 프로그램의 소스 코드 리포지토리를 구성하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="E543" s="18" t="n"/>
       <c r="F543" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G543" t="inlineStr">
@@ -28651,12 +28651,16 @@
         </is>
       </c>
       <c r="H543" s="18" t="n"/>
-      <c r="I543" s="13" t="n"/>
+      <c r="I543" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J543" s="13" t="n"/>
       <c r="K543" s="19" t="n"/>
       <c r="L543" s="19" t="inlineStr">
         <is>
-          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
+          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
         </is>
       </c>
       <c r="M543" s="20" t="n"/>
@@ -28683,12 +28687,12 @@
       </c>
       <c r="D544" s="18" t="inlineStr">
         <is>
-          <t>SFTP: SFTP 액세스에 대한 '로컬 사용자'의 수를 제한하고 시간이 지남에 따라 액세스가 필요한지 여부를 감사합니다.</t>
+          <t>Azure KeyVault에 연결 문자열을 저장하는 것이 좋습니다(관리 ID를 사용할 수 없는 시나리오에서).</t>
         </is>
       </c>
       <c r="E544" s="18" t="inlineStr">
         <is>
-          <t>'로컬 사용자 계정'을 사용하여 SFTP를 통해 Blob Storage에 액세스하는 경우 '일반적인' RBAC 컨트롤이 적용되지 않습니다. NFS 또는 REST를 통한 Blob 액세스는 SFTP 액세스보다 더 제한적일 수 있습니다. 안타깝게도 2023년 초부터 로컬 사용자는 현재 SFTP 엔드포인트에 대해 지원되는 유일한 ID 관리 형태입니다</t>
+          <t>이상적으로 애플리케이션은 관리 ID를 사용하여 Azure Storage에 인증해야 합니다. 이렇게 할 수 없는 경우 Azure KeyVault 또는 동등한 서비스에 스토리지 자격 증명(연결 문자열, 스토리지 계정 키, SAS, 서비스 주체 자격 증명)을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="F544" s="18" t="inlineStr">
@@ -28711,7 +28715,7 @@
       <c r="K544" s="19" t="n"/>
       <c r="L544" s="19" t="inlineStr">
         <is>
-          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
+          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
         </is>
       </c>
       <c r="M544" s="20" t="n"/>
@@ -28738,13 +28742,17 @@
       </c>
       <c r="D545" s="18" t="inlineStr">
         <is>
-          <t>SFTP: SFTP 엔드포인트는 POSIX와 유사한 ACL을 지원하지 않습니다.</t>
-        </is>
-      </c>
-      <c r="E545" s="18" t="n"/>
+          <t>임시 SAS의 유효 기간을 단축하기 위해 노력</t>
+        </is>
+      </c>
+      <c r="E545" s="18" t="inlineStr">
+        <is>
+          <t>임시 SAS 서비스 SAS 또는 계정 SAS에서 단기 만료 시간을 사용합니다. 이러한 방식으로 SAS가 손상되더라도 짧은 시간 동안만 유효합니다. 이 방법은 저장된 액세스 정책을 참조할 수 없는 경우에 특히 중요합니다. 또한 단기 만료 시간은 업로드에 사용할 수 있는 시간을 제한하여 Blob에 쓸 수 있는 데이터의 양을 제한합니다.</t>
+        </is>
+      </c>
       <c r="F545" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G545" t="inlineStr">
@@ -28762,7 +28770,7 @@
       <c r="K545" s="19" t="n"/>
       <c r="L545" s="19" t="inlineStr">
         <is>
-          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
+          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
         </is>
       </c>
       <c r="M545" s="20" t="n"/>
@@ -28789,17 +28797,17 @@
       </c>
       <c r="D546" s="18" t="inlineStr">
         <is>
-          <t>지나치게 광범위한 CORS 정책 방지</t>
+          <t>SAS에 좁은 범위 적용</t>
         </is>
       </c>
       <c r="E546" s="18" t="inlineStr">
         <is>
-          <t>스토리지는 CORS(Cross-Origin Resource Sharing), 즉 다른 도메인의 웹앱이 동일 출처 정책을 완화할 수 있도록 하는 HTTP 기능을 지원합니다. CORS를 사용하도록 설정할 때 CorsRules를 최소 권한으로 유지합니다.</t>
+          <t>SAS를 만들 때는 가능한 한 구체적이고 제한적이어야 합니다. 훨씬 더 광범위한 액세스를 제공하는 SAS보다 단일 리소스 및 작업에 대해 SAS를 선호합니다.</t>
         </is>
       </c>
       <c r="F546" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G546" t="inlineStr">
@@ -28817,7 +28825,7 @@
       <c r="K546" s="19" t="n"/>
       <c r="L546" s="19" t="inlineStr">
         <is>
-          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
         </is>
       </c>
       <c r="M546" s="20" t="n"/>
@@ -28844,17 +28852,17 @@
       </c>
       <c r="D547" s="18" t="inlineStr">
         <is>
-          <t>미사용 데이터를 암호화하는 방법을 결정합니다. 데이터에 대한 스레드 모델을 이해합니다.</t>
+          <t>가능한 경우 SAS의 범위를 특정 클라이언트 IP 주소로 지정하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="E547" s="18" t="inlineStr">
         <is>
-          <t>미사용 데이터는 항상 서버 쪽에서 암호화되며 클라이언트 쪽에서도 암호화될 수 있습니다. 서버 쪽 암호화는 플랫폼 관리형 키(기본값) 또는 고객 관리형 키를 사용하여 발생할 수 있습니다. 클라이언트 쪽 암호화는 클라이언트가 Azure Storage에 Blob별로 암호화/암호 해독 키를 제공하거나 클라이언트 쪽에서 암호화를 완전히 처리하여 발생할 수 있습니다. 따라서 기밀성 보장을 위해 Azure Storage에 전혀 의존하지 않습니다.</t>
+          <t xml:space="preserve">SAS에는 SAS를 사용하여 리소스를 요청할 수 있는 권한이 있는 클라이언트 IP 주소 또는 주소 범위에 대한 매개 변수가 포함될 수 있습니다. </t>
         </is>
       </c>
       <c r="F547" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G547" t="inlineStr">
@@ -28872,7 +28880,7 @@
       <c r="K547" s="19" t="n"/>
       <c r="L547" s="19" t="inlineStr">
         <is>
-          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
         </is>
       </c>
       <c r="M547" s="20" t="n"/>
@@ -28899,13 +28907,17 @@
       </c>
       <c r="D548" s="18" t="inlineStr">
         <is>
-          <t>사용해야 하는 플랫폼 암호화를 결정합니다.</t>
-        </is>
-      </c>
-      <c r="E548" s="18" t="n"/>
+          <t xml:space="preserve">클라이언트가 SAS를 사용하여 파일을 업로드한 후 업로드된 데이터를 확인하는 것이 좋습니다. </t>
+        </is>
+      </c>
+      <c r="E548" s="18" t="inlineStr">
+        <is>
+          <t>SAS는 클라이언트가 업로드하는 데이터의 양을 제한할 수 없습니다. 시간 경과에 따른 스토리지 양의 가격 책정 모델을 고려할 때 클라이언트가 악의적으로 큰 콘텐츠를 업로드했는지 여부를 확인하는 것이 합리적일 수 있습니다.</t>
+        </is>
+      </c>
       <c r="F548" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G548" t="inlineStr">
@@ -28914,16 +28926,12 @@
         </is>
       </c>
       <c r="H548" s="18" t="n"/>
-      <c r="I548" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I548" s="13" t="n"/>
       <c r="J548" s="13" t="n"/>
       <c r="K548" s="19" t="n"/>
       <c r="L548" s="19" t="inlineStr">
         <is>
-          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
         </is>
       </c>
       <c r="M548" s="20" t="n"/>
@@ -28950,13 +28958,17 @@
       </c>
       <c r="D549" s="18" t="inlineStr">
         <is>
-          <t>사용해야 하는 클라이언트 쪽 암호화를 결정합니다.</t>
-        </is>
-      </c>
-      <c r="E549" s="18" t="n"/>
+          <t>SFTP: SFTP 액세스에 대한 '로컬 사용자'의 수를 제한하고 시간이 지남에 따라 액세스가 필요한지 여부를 감사합니다.</t>
+        </is>
+      </c>
+      <c r="E549" s="18" t="inlineStr">
+        <is>
+          <t>'로컬 사용자 계정'을 사용하여 SFTP를 통해 Blob Storage에 액세스하는 경우 '일반적인' RBAC 컨트롤이 적용되지 않습니다. NFS 또는 REST를 통한 Blob 액세스는 SFTP 액세스보다 더 제한적일 수 있습니다. 안타깝게도 2023년 초부터 로컬 사용자는 현재 SFTP 엔드포인트에 대해 지원되는 유일한 ID 관리 형태입니다</t>
+        </is>
+      </c>
       <c r="F549" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G549" t="inlineStr">
@@ -28974,7 +28986,7 @@
       <c r="K549" s="19" t="n"/>
       <c r="L549" s="19" t="inlineStr">
         <is>
-          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
         </is>
       </c>
       <c r="M549" s="20" t="n"/>
@@ -29001,17 +29013,13 @@
       </c>
       <c r="D550" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">공용 Blob 액세스가 필요한지 또는 특정 스토리지 계정에 대해 사용하지 않도록 설정할 수 있는지 여부를 고려합니다. </t>
-        </is>
-      </c>
-      <c r="E550" s="18" t="inlineStr">
-        <is>
-          <t>Resource Graph Explorer(resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true)를 활용하여 익명 Blob 액세스를 허용하는 스토리지 계정을 찾습니다.</t>
-        </is>
-      </c>
+          <t>SFTP: SFTP 엔드포인트는 POSIX와 유사한 ACL을 지원하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="E550" s="18" t="n"/>
       <c r="F550" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G550" t="inlineStr">
@@ -29029,7 +29037,7 @@
       <c r="K550" s="19" t="n"/>
       <c r="L550" s="19" t="inlineStr">
         <is>
-          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
         </is>
       </c>
       <c r="M550" s="20" t="n"/>
@@ -29039,17 +29047,54 @@
       <c r="Q550" s="20" t="n"/>
     </row>
     <row r="551">
-      <c r="A551" s="18" t="n"/>
-      <c r="B551" s="18" t="n"/>
-      <c r="C551" s="18" t="n"/>
-      <c r="D551" s="18" t="n"/>
-      <c r="E551" s="18" t="n"/>
-      <c r="F551" s="18" t="n"/>
+      <c r="A551" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B551" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C551" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D551" s="18" t="inlineStr">
+        <is>
+          <t>지나치게 광범위한 CORS 정책 방지</t>
+        </is>
+      </c>
+      <c r="E551" s="18" t="inlineStr">
+        <is>
+          <t>스토리지는 CORS(Cross-Origin Resource Sharing), 즉 다른 도메인의 웹앱이 동일 출처 정책을 완화할 수 있도록 하는 HTTP 기능을 지원합니다. CORS를 사용하도록 설정할 때 CorsRules를 최소 권한으로 유지합니다.</t>
+        </is>
+      </c>
+      <c r="F551" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H551" s="18" t="n"/>
-      <c r="I551" s="13" t="n"/>
+      <c r="I551" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J551" s="13" t="n"/>
       <c r="K551" s="19" t="n"/>
-      <c r="L551" s="19" t="n"/>
+      <c r="L551" s="19" t="inlineStr">
+        <is>
+          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+        </is>
+      </c>
       <c r="M551" s="20" t="n"/>
       <c r="N551" s="20" t="n"/>
       <c r="O551" s="20" t="n"/>
@@ -29057,17 +29102,54 @@
       <c r="Q551" s="20" t="n"/>
     </row>
     <row r="552">
-      <c r="A552" s="18" t="n"/>
-      <c r="B552" s="18" t="n"/>
-      <c r="C552" s="18" t="n"/>
-      <c r="D552" s="18" t="n"/>
-      <c r="E552" s="18" t="n"/>
-      <c r="F552" s="18" t="n"/>
+      <c r="A552" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B552" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C552" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D552" s="18" t="inlineStr">
+        <is>
+          <t>미사용 데이터를 암호화하는 방법을 결정합니다. 데이터에 대한 스레드 모델을 이해합니다.</t>
+        </is>
+      </c>
+      <c r="E552" s="18" t="inlineStr">
+        <is>
+          <t>미사용 데이터는 항상 서버 쪽에서 암호화되며 클라이언트 쪽에서도 암호화될 수 있습니다. 서버 쪽 암호화는 플랫폼 관리형 키(기본값) 또는 고객 관리형 키를 사용하여 발생할 수 있습니다. 클라이언트 쪽 암호화는 클라이언트가 Azure Storage에 Blob별로 암호화/암호 해독 키를 제공하거나 클라이언트 쪽에서 암호화를 완전히 처리하여 발생할 수 있습니다. 따라서 기밀성 보장을 위해 Azure Storage에 전혀 의존하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F552" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H552" s="18" t="n"/>
-      <c r="I552" s="13" t="n"/>
+      <c r="I552" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J552" s="13" t="n"/>
       <c r="K552" s="19" t="n"/>
-      <c r="L552" s="19" t="n"/>
+      <c r="L552" s="19" t="inlineStr">
+        <is>
+          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+        </is>
+      </c>
       <c r="M552" s="20" t="n"/>
       <c r="N552" s="20" t="n"/>
       <c r="O552" s="20" t="n"/>
@@ -29075,17 +29157,50 @@
       <c r="Q552" s="20" t="n"/>
     </row>
     <row r="553">
-      <c r="A553" s="18" t="n"/>
-      <c r="B553" s="18" t="n"/>
-      <c r="C553" s="18" t="n"/>
-      <c r="D553" s="18" t="n"/>
+      <c r="A553" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B553" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C553" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D553" s="18" t="inlineStr">
+        <is>
+          <t>사용해야 하는 플랫폼 암호화를 결정합니다.</t>
+        </is>
+      </c>
       <c r="E553" s="18" t="n"/>
-      <c r="F553" s="18" t="n"/>
+      <c r="F553" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H553" s="18" t="n"/>
-      <c r="I553" s="13" t="n"/>
+      <c r="I553" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J553" s="13" t="n"/>
       <c r="K553" s="19" t="n"/>
-      <c r="L553" s="19" t="n"/>
+      <c r="L553" s="19" t="inlineStr">
+        <is>
+          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+        </is>
+      </c>
       <c r="M553" s="20" t="n"/>
       <c r="N553" s="20" t="n"/>
       <c r="O553" s="20" t="n"/>
@@ -29093,17 +29208,50 @@
       <c r="Q553" s="20" t="n"/>
     </row>
     <row r="554">
-      <c r="A554" s="18" t="n"/>
-      <c r="B554" s="18" t="n"/>
-      <c r="C554" s="18" t="n"/>
-      <c r="D554" s="18" t="n"/>
+      <c r="A554" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B554" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C554" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D554" s="18" t="inlineStr">
+        <is>
+          <t>사용해야 하는 클라이언트 쪽 암호화를 결정합니다.</t>
+        </is>
+      </c>
       <c r="E554" s="18" t="n"/>
-      <c r="F554" s="18" t="n"/>
+      <c r="F554" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H554" s="18" t="n"/>
-      <c r="I554" s="13" t="n"/>
+      <c r="I554" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J554" s="13" t="n"/>
       <c r="K554" s="19" t="n"/>
-      <c r="L554" s="19" t="n"/>
+      <c r="L554" s="19" t="inlineStr">
+        <is>
+          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+        </is>
+      </c>
       <c r="M554" s="20" t="n"/>
       <c r="N554" s="20" t="n"/>
       <c r="O554" s="20" t="n"/>
@@ -29111,17 +29259,54 @@
       <c r="Q554" s="20" t="n"/>
     </row>
     <row r="555">
-      <c r="A555" s="18" t="n"/>
-      <c r="B555" s="18" t="n"/>
-      <c r="C555" s="18" t="n"/>
-      <c r="D555" s="18" t="n"/>
-      <c r="E555" s="18" t="n"/>
-      <c r="F555" s="18" t="n"/>
+      <c r="A555" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B555" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C555" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D555" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">공용 Blob 액세스가 필요한지 또는 특정 스토리지 계정에 대해 사용하지 않도록 설정할 수 있는지 여부를 고려합니다. </t>
+        </is>
+      </c>
+      <c r="E555" s="18" t="inlineStr">
+        <is>
+          <t>Resource Graph Explorer(resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true)를 활용하여 익명 Blob 액세스를 허용하는 스토리지 계정을 찾습니다.</t>
+        </is>
+      </c>
+      <c r="F555" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H555" s="18" t="n"/>
-      <c r="I555" s="13" t="n"/>
+      <c r="I555" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J555" s="13" t="n"/>
       <c r="K555" s="19" t="n"/>
-      <c r="L555" s="19" t="n"/>
+      <c r="L555" s="19" t="inlineStr">
+        <is>
+          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+        </is>
+      </c>
       <c r="M555" s="20" t="n"/>
       <c r="N555" s="20" t="n"/>
       <c r="O555" s="20" t="n"/>
@@ -40973,7 +41158,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G551" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G556" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -41280,11 +41465,11 @@
     <hyperlink ref="I401" r:id="rId300"/>
     <hyperlink ref="I402" r:id="rId301"/>
     <hyperlink ref="I403" r:id="rId302"/>
-    <hyperlink ref="I405" r:id="rId303"/>
-    <hyperlink ref="I406" r:id="rId304"/>
-    <hyperlink ref="I407" r:id="rId305"/>
-    <hyperlink ref="I408" r:id="rId306"/>
-    <hyperlink ref="I409" r:id="rId307"/>
+    <hyperlink ref="I404" r:id="rId303"/>
+    <hyperlink ref="I405" r:id="rId304"/>
+    <hyperlink ref="I406" r:id="rId305"/>
+    <hyperlink ref="I407" r:id="rId306"/>
+    <hyperlink ref="I408" r:id="rId307"/>
     <hyperlink ref="I410" r:id="rId308"/>
     <hyperlink ref="I411" r:id="rId309"/>
     <hyperlink ref="I412" r:id="rId310"/>
@@ -41305,11 +41490,11 @@
     <hyperlink ref="I427" r:id="rId325"/>
     <hyperlink ref="I428" r:id="rId326"/>
     <hyperlink ref="I429" r:id="rId327"/>
-    <hyperlink ref="I431" r:id="rId328"/>
-    <hyperlink ref="I432" r:id="rId329"/>
-    <hyperlink ref="I433" r:id="rId330"/>
-    <hyperlink ref="I434" r:id="rId331"/>
-    <hyperlink ref="I435" r:id="rId332"/>
+    <hyperlink ref="I430" r:id="rId328"/>
+    <hyperlink ref="I431" r:id="rId329"/>
+    <hyperlink ref="I432" r:id="rId330"/>
+    <hyperlink ref="I433" r:id="rId331"/>
+    <hyperlink ref="I434" r:id="rId332"/>
     <hyperlink ref="I436" r:id="rId333"/>
     <hyperlink ref="I437" r:id="rId334"/>
     <hyperlink ref="I438" r:id="rId335"/>
@@ -41405,24 +41590,29 @@
     <hyperlink ref="I528" r:id="rId425"/>
     <hyperlink ref="I529" r:id="rId426"/>
     <hyperlink ref="I530" r:id="rId427"/>
-    <hyperlink ref="I532" r:id="rId428"/>
-    <hyperlink ref="I533" r:id="rId429"/>
-    <hyperlink ref="I534" r:id="rId430"/>
-    <hyperlink ref="I535" r:id="rId431"/>
-    <hyperlink ref="I536" r:id="rId432"/>
+    <hyperlink ref="I531" r:id="rId428"/>
+    <hyperlink ref="I532" r:id="rId429"/>
+    <hyperlink ref="I533" r:id="rId430"/>
+    <hyperlink ref="I534" r:id="rId431"/>
+    <hyperlink ref="I535" r:id="rId432"/>
     <hyperlink ref="I537" r:id="rId433"/>
     <hyperlink ref="I538" r:id="rId434"/>
     <hyperlink ref="I539" r:id="rId435"/>
     <hyperlink ref="I540" r:id="rId436"/>
     <hyperlink ref="I541" r:id="rId437"/>
     <hyperlink ref="I542" r:id="rId438"/>
-    <hyperlink ref="I544" r:id="rId439"/>
-    <hyperlink ref="I545" r:id="rId440"/>
-    <hyperlink ref="I546" r:id="rId441"/>
-    <hyperlink ref="I547" r:id="rId442"/>
-    <hyperlink ref="I548" r:id="rId443"/>
+    <hyperlink ref="I543" r:id="rId439"/>
+    <hyperlink ref="I544" r:id="rId440"/>
+    <hyperlink ref="I545" r:id="rId441"/>
+    <hyperlink ref="I546" r:id="rId442"/>
+    <hyperlink ref="I547" r:id="rId443"/>
     <hyperlink ref="I549" r:id="rId444"/>
     <hyperlink ref="I550" r:id="rId445"/>
+    <hyperlink ref="I551" r:id="rId446"/>
+    <hyperlink ref="I552" r:id="rId447"/>
+    <hyperlink ref="I553" r:id="rId448"/>
+    <hyperlink ref="I554" r:id="rId449"/>
+    <hyperlink ref="I555" r:id="rId450"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -29314,17 +29314,54 @@
       <c r="Q555" s="20" t="n"/>
     </row>
     <row r="556">
-      <c r="A556" s="18" t="n"/>
-      <c r="B556" s="18" t="n"/>
-      <c r="C556" s="18" t="n"/>
-      <c r="D556" s="18" t="n"/>
+      <c r="A556" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B556" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C556" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D556" s="18" t="inlineStr">
+        <is>
+          <t>ACSS(Azure Center for SAP solutions)는 SAP를 Azure의 최상위 워크로드로 만드는 Azure 제품입니다. ACSS는 Azure에서 SAP 시스템을 통합 워크로드로 만들고 실행할 수 있도록 하는 엔드투엔드 솔루션으로, 혁신을 위한 보다 원활한 기반을 제공합니다. 신규 및 기존 Azure 기반 SAP 시스템 모두에 대한 관리 기능을 활용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E556" s="18" t="n"/>
-      <c r="F556" s="18" t="n"/>
+      <c r="F556" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H556" s="18" t="n"/>
-      <c r="I556" s="13" t="n"/>
-      <c r="J556" s="13" t="n"/>
+      <c r="I556" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J556" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-center-sap-solutions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K556" s="19" t="n"/>
-      <c r="L556" s="19" t="n"/>
+      <c r="L556" s="19" t="inlineStr">
+        <is>
+          <t>4620dc87-e948-4ce8-8426-f3e6e5d7bd85</t>
+        </is>
+      </c>
       <c r="M556" s="20" t="n"/>
       <c r="N556" s="20" t="n"/>
       <c r="O556" s="20" t="n"/>
@@ -29332,17 +29369,54 @@
       <c r="Q556" s="20" t="n"/>
     </row>
     <row r="557">
-      <c r="A557" s="18" t="n"/>
-      <c r="B557" s="18" t="n"/>
-      <c r="C557" s="18" t="n"/>
-      <c r="D557" s="18" t="n"/>
+      <c r="A557" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B557" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C557" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D557" s="18" t="inlineStr">
+        <is>
+          <t>Azure는 Linux 및 Windows에서 SAP 배포 자동화를 지원합니다. SAP Deployment Automation Framework는 SAP 환경을 배포, 설치 및 유지 관리할 수 있는 오픈 소스 오케스트레이션 도구입니다.</t>
+        </is>
+      </c>
       <c r="E557" s="18" t="n"/>
-      <c r="F557" s="18" t="n"/>
+      <c r="F557" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H557" s="18" t="n"/>
-      <c r="I557" s="13" t="n"/>
-      <c r="J557" s="13" t="n"/>
+      <c r="I557" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J557" s="31" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/sap-automation</t>
+        </is>
+      </c>
       <c r="K557" s="19" t="n"/>
-      <c r="L557" s="19" t="n"/>
+      <c r="L557" s="19" t="inlineStr">
+        <is>
+          <t>5d75e99d-624d-4afe-91d9-e17adc580790</t>
+        </is>
+      </c>
       <c r="M557" s="20" t="n"/>
       <c r="N557" s="20" t="n"/>
       <c r="O557" s="20" t="n"/>
@@ -29350,17 +29424,50 @@
       <c r="Q557" s="20" t="n"/>
     </row>
     <row r="558">
-      <c r="A558" s="18" t="n"/>
-      <c r="B558" s="18" t="n"/>
-      <c r="C558" s="18" t="n"/>
-      <c r="D558" s="18" t="n"/>
+      <c r="A558" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B558" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C558" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D558" s="18" t="inlineStr">
+        <is>
+          <t>RTO를 충족하는 시점과 시간 프레임에서 프로덕션 데이터베이스에 대한 특정 시점으로 복구를 수행합니다. 특정 시점 복구에는 일반적으로 DBMS 계층 또는 SAP를 통해 데이터를 삭제하는 운영자 오류가 포함됩니다</t>
+        </is>
+      </c>
       <c r="E558" s="18" t="n"/>
-      <c r="F558" s="18" t="n"/>
+      <c r="F558" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H558" s="18" t="n"/>
-      <c r="I558" s="13" t="n"/>
+      <c r="I558" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J558" s="13" t="n"/>
       <c r="K558" s="19" t="n"/>
-      <c r="L558" s="19" t="n"/>
+      <c r="L558" s="19" t="inlineStr">
+        <is>
+          <t>d17f6f39-a377-48a2-931f-5ead3ebe33a8</t>
+        </is>
+      </c>
       <c r="M558" s="20" t="n"/>
       <c r="N558" s="20" t="n"/>
       <c r="O558" s="20" t="n"/>
@@ -29368,17 +29475,46 @@
       <c r="Q558" s="20" t="n"/>
     </row>
     <row r="559">
-      <c r="A559" s="18" t="n"/>
-      <c r="B559" s="18" t="n"/>
-      <c r="C559" s="18" t="n"/>
-      <c r="D559" s="18" t="n"/>
+      <c r="A559" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B559" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C559" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D559" s="18" t="inlineStr">
+        <is>
+          <t>백업 및 복구 시간을 테스트하여 재해 발생 후 모든 시스템을 동시에 복원하기 위한 RTO 요구 사항을 충족하는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E559" s="18" t="n"/>
-      <c r="F559" s="18" t="n"/>
+      <c r="F559" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H559" s="18" t="n"/>
       <c r="I559" s="13" t="n"/>
       <c r="J559" s="13" t="n"/>
       <c r="K559" s="19" t="n"/>
-      <c r="L559" s="19" t="n"/>
+      <c r="L559" s="19" t="inlineStr">
+        <is>
+          <t>c4b8e117-930b-4dbd-ae50-7bc5faf6f91a</t>
+        </is>
+      </c>
       <c r="M559" s="20" t="n"/>
       <c r="N559" s="20" t="n"/>
       <c r="O559" s="20" t="n"/>
@@ -29386,17 +29522,54 @@
       <c r="Q559" s="20" t="n"/>
     </row>
     <row r="560">
-      <c r="A560" s="18" t="n"/>
-      <c r="B560" s="18" t="n"/>
-      <c r="C560" s="18" t="n"/>
-      <c r="D560" s="18" t="n"/>
+      <c r="A560" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B560" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C560" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D560" s="18" t="inlineStr">
+        <is>
+          <t>쌍을 이루는 지역 간에 표준 스토리지를 복제할 수 있지만 표준 스토리지를 사용하여 데이터베이스 또는 가상 하드 디스크를 저장할 수는 없습니다. 사용하는 쌍을 이루는 지역 간에만 백업을 복제할 수 있습니다. 다른 모든 데이터의 경우 SQL Server Always On 또는 SAP HANA 시스템 복제와 같은 네이티브 DBMS 기능을 사용하여 복제를 실행합니다. SAP 애플리케이션 계층에 Site Recovery, rsync 또는 robocopy 및 기타 타사 소프트웨어의 조합을 사용합니다.</t>
+        </is>
+      </c>
       <c r="E560" s="18" t="n"/>
-      <c r="F560" s="18" t="n"/>
+      <c r="F560" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H560" s="18" t="n"/>
-      <c r="I560" s="13" t="n"/>
-      <c r="J560" s="13" t="n"/>
+      <c r="I560" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J560" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="K560" s="19" t="n"/>
-      <c r="L560" s="19" t="n"/>
+      <c r="L560" s="19" t="inlineStr">
+        <is>
+          <t>b651423c-8552-42db-a545-5cb50c05527a</t>
+        </is>
+      </c>
       <c r="M560" s="20" t="n"/>
       <c r="N560" s="20" t="n"/>
       <c r="O560" s="20" t="n"/>
@@ -29404,17 +29577,54 @@
       <c r="Q560" s="20" t="n"/>
     </row>
     <row r="561">
-      <c r="A561" s="18" t="n"/>
-      <c r="B561" s="18" t="n"/>
-      <c r="C561" s="18" t="n"/>
-      <c r="D561" s="18" t="n"/>
+      <c r="A561" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B561" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C561" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D561" s="18" t="inlineStr">
+        <is>
+          <t>Azure 가용성 영역을 사용하여 고가용성을 달성하는 경우 SAP 애플리케이션 서버와 데이터베이스 서버 간의 대기 시간을 고려해야 합니다. 대기 시간이 긴 영역의 경우 SAP 애플리케이션 서버와 데이터베이스 서버가 항상 동일한 영역에서 실행되도록 운영 절차를 마련해야 합니다.</t>
+        </is>
+      </c>
       <c r="E561" s="18" t="n"/>
-      <c r="F561" s="18" t="n"/>
+      <c r="F561" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H561" s="18" t="n"/>
-      <c r="I561" s="13" t="n"/>
-      <c r="J561" s="13" t="n"/>
+      <c r="I561" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J561" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K561" s="19" t="n"/>
-      <c r="L561" s="19" t="n"/>
+      <c r="L561" s="19" t="inlineStr">
+        <is>
+          <t>aa208dca-784f-46c6-9014-cc919c542dc9</t>
+        </is>
+      </c>
       <c r="M561" s="20" t="n"/>
       <c r="N561" s="20" t="n"/>
       <c r="O561" s="20" t="n"/>
@@ -29422,17 +29632,54 @@
       <c r="Q561" s="20" t="n"/>
     </row>
     <row r="562">
-      <c r="A562" s="18" t="n"/>
-      <c r="B562" s="18" t="n"/>
-      <c r="C562" s="18" t="n"/>
-      <c r="D562" s="18" t="n"/>
+      <c r="A562" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B562" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C562" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D562" s="18" t="inlineStr">
+        <is>
+          <t>온-프레미스에서 기본 및 보조 Azure 재해 복구 지역으로의 ExpressRoute 연결을 설정합니다. 또한 ExpressRoute를 사용하는 대신 온-프레미스에서 주 및 보조 Azure 재해 복구 지역으로 VPN 연결을 설정하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E562" s="18" t="n"/>
-      <c r="F562" s="18" t="n"/>
+      <c r="F562" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H562" s="18" t="n"/>
-      <c r="I562" s="13" t="n"/>
-      <c r="J562" s="13" t="n"/>
+      <c r="I562" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J562" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/expressroute/use-s2s-vpn-as-backup-for-expressroute-privatepeering</t>
+        </is>
+      </c>
       <c r="K562" s="19" t="n"/>
-      <c r="L562" s="19" t="n"/>
+      <c r="L562" s="19" t="inlineStr">
+        <is>
+          <t>ba07c007-1f90-43e9-aa4f-601346b80352</t>
+        </is>
+      </c>
       <c r="M562" s="20" t="n"/>
       <c r="N562" s="20" t="n"/>
       <c r="O562" s="20" t="n"/>
@@ -29440,17 +29687,50 @@
       <c r="Q562" s="20" t="n"/>
     </row>
     <row r="563">
-      <c r="A563" s="18" t="n"/>
-      <c r="B563" s="18" t="n"/>
-      <c r="C563" s="18" t="n"/>
-      <c r="D563" s="18" t="n"/>
+      <c r="A563" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B563" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C563" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D563" s="18" t="inlineStr">
+        <is>
+          <t>DR 지역에서 데이터의 암호를 해독할 수 있도록 지역 간에 인증서, 비밀 또는 키와 같은 키 자격 증명 모음 콘텐츠를 복제합니다.</t>
+        </is>
+      </c>
       <c r="E563" s="18" t="n"/>
-      <c r="F563" s="18" t="n"/>
+      <c r="F563" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H563" s="18" t="n"/>
-      <c r="I563" s="13" t="n"/>
+      <c r="I563" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J563" s="13" t="n"/>
       <c r="K563" s="19" t="n"/>
-      <c r="L563" s="19" t="n"/>
+      <c r="L563" s="19" t="inlineStr">
+        <is>
+          <t>d2b30195-b11d-4a8f-a672-28b2b4169a7c</t>
+        </is>
+      </c>
       <c r="M563" s="20" t="n"/>
       <c r="N563" s="20" t="n"/>
       <c r="O563" s="20" t="n"/>
@@ -29458,17 +29738,50 @@
       <c r="Q563" s="20" t="n"/>
     </row>
     <row r="564">
-      <c r="A564" s="18" t="n"/>
-      <c r="B564" s="18" t="n"/>
-      <c r="C564" s="18" t="n"/>
-      <c r="D564" s="18" t="n"/>
+      <c r="A564" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B564" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C564" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D564" s="18" t="inlineStr">
+        <is>
+          <t>기본 및 재해 복구 가상 네트워크를 피어링합니다. 예를 들어 HANA 시스템 복제의 경우 SAP HANA DB 가상 네트워크를 재해 복구 사이트의 SAP HANA DB 가상 네트워크에 피어링해야 합니다.</t>
+        </is>
+      </c>
       <c r="E564" s="18" t="n"/>
-      <c r="F564" s="18" t="n"/>
+      <c r="F564" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H564" s="18" t="n"/>
-      <c r="I564" s="13" t="n"/>
+      <c r="I564" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J564" s="13" t="n"/>
       <c r="K564" s="19" t="n"/>
-      <c r="L564" s="19" t="n"/>
+      <c r="L564" s="19" t="inlineStr">
+        <is>
+          <t>05f1101d-250f-40e7-b2a1-b674ab50edbd</t>
+        </is>
+      </c>
       <c r="M564" s="20" t="n"/>
       <c r="N564" s="20" t="n"/>
       <c r="O564" s="20" t="n"/>
@@ -29476,17 +29789,54 @@
       <c r="Q564" s="20" t="n"/>
     </row>
     <row r="565">
-      <c r="A565" s="18" t="n"/>
-      <c r="B565" s="18" t="n"/>
-      <c r="C565" s="18" t="n"/>
-      <c r="D565" s="18" t="n"/>
+      <c r="A565" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B565" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C565" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D565" s="18" t="inlineStr">
+        <is>
+          <t>SAP 배포에 Azure NetApp Files 스토리지를 사용하는 경우 최소한 두 지역의 프리미엄 계층에 두 개의 Azure NetApp Files 계정을 만듭니다.</t>
+        </is>
+      </c>
       <c r="E565" s="18" t="n"/>
-      <c r="F565" s="18" t="n"/>
+      <c r="F565" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H565" s="18" t="n"/>
-      <c r="I565" s="13" t="n"/>
-      <c r="J565" s="13" t="n"/>
+      <c r="I565" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J565" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/choose-service-level-azure-netapp-files-hpc-applications/2-identify-decision-criteria</t>
+        </is>
+      </c>
       <c r="K565" s="19" t="n"/>
-      <c r="L565" s="19" t="n"/>
+      <c r="L565" s="19" t="inlineStr">
+        <is>
+          <t>d3351bf7-628a-46de-917d-dfc11d3b6b40</t>
+        </is>
+      </c>
       <c r="M565" s="20" t="n"/>
       <c r="N565" s="20" t="n"/>
       <c r="O565" s="20" t="n"/>
@@ -29494,17 +29844,54 @@
       <c r="Q565" s="20" t="n"/>
     </row>
     <row r="566">
-      <c r="A566" s="18" t="n"/>
-      <c r="B566" s="18" t="n"/>
-      <c r="C566" s="18" t="n"/>
-      <c r="D566" s="18" t="n"/>
+      <c r="A566" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B566" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C566" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D566" s="18" t="inlineStr">
+        <is>
+          <t>기본 데이터베이스 복제 기술을 사용하여 HA 쌍의 데이터베이스를 동기화해야 합니다.</t>
+        </is>
+      </c>
       <c r="E566" s="18" t="n"/>
-      <c r="F566" s="18" t="n"/>
+      <c r="F566" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H566" s="18" t="n"/>
-      <c r="I566" s="13" t="n"/>
-      <c r="J566" s="13" t="n"/>
+      <c r="I566" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J566" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-disaster-recovery-for-sap-workloads-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K566" s="19" t="n"/>
-      <c r="L566" s="19" t="n"/>
+      <c r="L566" s="19" t="inlineStr">
+        <is>
+          <t>726a1d3e-5508-4a06-9d54-93f4b50040c1</t>
+        </is>
+      </c>
       <c r="M566" s="20" t="n"/>
       <c r="N566" s="20" t="n"/>
       <c r="O566" s="20" t="n"/>
@@ -29512,17 +29899,54 @@
       <c r="Q566" s="20" t="n"/>
     </row>
     <row r="567">
-      <c r="A567" s="18" t="n"/>
-      <c r="B567" s="18" t="n"/>
-      <c r="C567" s="18" t="n"/>
-      <c r="D567" s="18" t="n"/>
+      <c r="A567" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B567" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C567" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D567" s="18" t="inlineStr">
+        <is>
+          <t>기본 VNet(가상 네트워크)에 대한 CIDR은 DR 사이트 VNet의 CIDR과 충돌하거나 겹치지 않아야 합니다</t>
+        </is>
+      </c>
       <c r="E567" s="18" t="n"/>
-      <c r="F567" s="18" t="n"/>
+      <c r="F567" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H567" s="18" t="n"/>
-      <c r="I567" s="13" t="n"/>
-      <c r="J567" s="13" t="n"/>
+      <c r="I567" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J567" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K567" s="19" t="n"/>
-      <c r="L567" s="19" t="n"/>
+      <c r="L567" s="19" t="inlineStr">
+        <is>
+          <t>6561f847-3db5-4ff8-9200-5ad3c3b436ad</t>
+        </is>
+      </c>
       <c r="M567" s="20" t="n"/>
       <c r="N567" s="20" t="n"/>
       <c r="O567" s="20" t="n"/>
@@ -29530,17 +29954,50 @@
       <c r="Q567" s="20" t="n"/>
     </row>
     <row r="568">
-      <c r="A568" s="18" t="n"/>
-      <c r="B568" s="18" t="n"/>
-      <c r="C568" s="18" t="n"/>
-      <c r="D568" s="18" t="n"/>
+      <c r="A568" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B568" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C568" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D568" s="18" t="inlineStr">
+        <is>
+          <t>Site Recovery를 사용하여 응용 프로그램 서버를 DR 사이트에 복제합니다. Site Recovery는 중앙 서비스 클러스터 VM을 DR 사이트에 복제하는 데도 도움이 될 수 있습니다. DR을 호출할 때 DR 사이트에서 Linux Pacemaker 클러스터를 다시 구성해야 합니다(예: VIP 또는 SBD 바꾸기, corosync.conf 실행 등).</t>
+        </is>
+      </c>
       <c r="E568" s="18" t="n"/>
-      <c r="F568" s="18" t="n"/>
+      <c r="F568" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H568" s="18" t="n"/>
       <c r="I568" s="13" t="n"/>
-      <c r="J568" s="13" t="n"/>
+      <c r="J568" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="K568" s="19" t="n"/>
-      <c r="L568" s="19" t="n"/>
+      <c r="L568" s="19" t="inlineStr">
+        <is>
+          <t>0258ed30-fe42-434f-87b9-58f91f908e0a</t>
+        </is>
+      </c>
       <c r="M568" s="20" t="n"/>
       <c r="N568" s="20" t="n"/>
       <c r="O568" s="20" t="n"/>
@@ -29548,17 +30005,54 @@
       <c r="Q568" s="20" t="n"/>
     </row>
     <row r="569">
-      <c r="A569" s="18" t="n"/>
-      <c r="B569" s="18" t="n"/>
-      <c r="C569" s="18" t="n"/>
-      <c r="D569" s="18" t="n"/>
+      <c r="A569" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B569" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C569" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D569" s="18" t="inlineStr">
+        <is>
+          <t>단일 장애 지점에 대한 SAP 소프트웨어의 가용성을 고려합니다. 여기에는 SAP NetWeaver 및 SAP S/4HANA 아키텍처, SAP ABAP 및 ASCS + SCS에서 사용되는 DBMS와 같은 애플리케이션 내의 단일 실패 지점이 포함됩니다. 또한 SAP Web Dispatcher와 같은 다른 도구도 있습니다.</t>
+        </is>
+      </c>
       <c r="E569" s="18" t="n"/>
-      <c r="F569" s="18" t="n"/>
+      <c r="F569" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H569" s="18" t="n"/>
-      <c r="I569" s="13" t="n"/>
-      <c r="J569" s="13" t="n"/>
+      <c r="I569" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J569" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/2-explore-high-availability-disaster-recovery-support-azure-for-sap-workloads?source=recommendations</t>
+        </is>
+      </c>
       <c r="K569" s="19" t="n"/>
-      <c r="L569" s="19" t="n"/>
+      <c r="L569" s="19" t="inlineStr">
+        <is>
+          <t>8300cb30-766b-4084-b126-0dd8fb1269a1</t>
+        </is>
+      </c>
       <c r="M569" s="20" t="n"/>
       <c r="N569" s="20" t="n"/>
       <c r="O569" s="20" t="n"/>
@@ -29566,17 +30060,54 @@
       <c r="Q569" s="20" t="n"/>
     </row>
     <row r="570">
-      <c r="A570" s="18" t="n"/>
-      <c r="B570" s="18" t="n"/>
-      <c r="C570" s="18" t="n"/>
-      <c r="D570" s="18" t="n"/>
+      <c r="A570" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B570" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C570" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D570" s="18" t="inlineStr">
+        <is>
+          <t>SAP 및 SAP 데이터베이스의 경우 자동 장애 조치(failover) 클러스터를 구현하는 것이 좋습니다. Windows에서 Windows Server 장애 조치(failover) 클러스터링은 장애 조치(failover)를 지원합니다. Linux에서 Linux Pacemaker 또는 SIOS Protection Suite 및 Veritas InfoScale과 같은 타사 툴은 장애 조치를 지원합니다.</t>
+        </is>
+      </c>
       <c r="E570" s="18" t="n"/>
-      <c r="F570" s="18" t="n"/>
+      <c r="F570" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H570" s="18" t="n"/>
-      <c r="I570" s="13" t="n"/>
-      <c r="J570" s="13" t="n"/>
+      <c r="I570" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J570" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K570" s="19" t="n"/>
-      <c r="L570" s="19" t="n"/>
+      <c r="L570" s="19" t="inlineStr">
+        <is>
+          <t>56402f11-ccbe-42c3-a2f6-c6f6f38ab579</t>
+        </is>
+      </c>
       <c r="M570" s="20" t="n"/>
       <c r="N570" s="20" t="n"/>
       <c r="O570" s="20" t="n"/>
@@ -29584,17 +30115,54 @@
       <c r="Q570" s="20" t="n"/>
     </row>
     <row r="571">
-      <c r="A571" s="18" t="n"/>
-      <c r="B571" s="18" t="n"/>
-      <c r="C571" s="18" t="n"/>
-      <c r="D571" s="18" t="n"/>
+      <c r="A571" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B571" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C571" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D571" s="18" t="inlineStr">
+        <is>
+          <t>Azure는 기본 및 보조 VM이 DBMS 데이터에 대한 스토리지를 공유하는 아키텍처를 지원하지 않습니다. DBMS 계층의 경우 일반적인 아키텍처 패턴은 기본 및 보조 VM에서 사용하는 것과 다른 스토리지 스택을 사용하여 동시에 데이터베이스를 복제하는 것입니다.</t>
+        </is>
+      </c>
       <c r="E571" s="18" t="n"/>
-      <c r="F571" s="18" t="n"/>
+      <c r="F571" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H571" s="18" t="n"/>
-      <c r="I571" s="13" t="n"/>
-      <c r="J571" s="13" t="n"/>
+      <c r="I571" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J571" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/?source=recommendationshttps%3A%2F%2Flearn.microsoft.com%2Fja-jp%2Ftraining%2Fpaths%2Fensure-business-continuity-implement-disaster-recovery%2F%3Fsource%3Drecommendations</t>
+        </is>
+      </c>
       <c r="K571" s="19" t="n"/>
-      <c r="L571" s="19" t="n"/>
+      <c r="L571" s="19" t="inlineStr">
+        <is>
+          <t>afae6bec-2671-49ae-bc69-140b8ec8d320</t>
+        </is>
+      </c>
       <c r="M571" s="20" t="n"/>
       <c r="N571" s="20" t="n"/>
       <c r="O571" s="20" t="n"/>
@@ -29602,17 +30170,54 @@
       <c r="Q571" s="20" t="n"/>
     </row>
     <row r="572">
-      <c r="A572" s="18" t="n"/>
-      <c r="B572" s="18" t="n"/>
-      <c r="C572" s="18" t="n"/>
-      <c r="D572" s="18" t="n"/>
+      <c r="A572" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B572" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C572" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D572" s="18" t="inlineStr">
+        <is>
+          <t>DBMS 데이터 및 트랜잭션/다시 실행 로그 파일은 Azure 지원 블록 스토리지 또는 Azure NetApp Files에 저장됩니다. Azure Files 또는 Azure Premium Files는 DBMS 데이터 및/또는 SAP 워크로드가 있는 다시 실행 로그 파일에 대한 스토리지로 지원되지 않습니다.</t>
+        </is>
+      </c>
       <c r="E572" s="18" t="n"/>
-      <c r="F572" s="18" t="n"/>
+      <c r="F572" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H572" s="18" t="n"/>
-      <c r="I572" s="13" t="n"/>
-      <c r="J572" s="13" t="n"/>
+      <c r="I572" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J572" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-databases/2-explore-database-support-azure-for-sap-workloads</t>
+        </is>
+      </c>
       <c r="K572" s="19" t="n"/>
-      <c r="L572" s="19" t="n"/>
+      <c r="L572" s="19" t="inlineStr">
+        <is>
+          <t>ac614e95-6767-4bc3-b8a4-9953533da6ba</t>
+        </is>
+      </c>
       <c r="M572" s="20" t="n"/>
       <c r="N572" s="20" t="n"/>
       <c r="O572" s="20" t="n"/>
@@ -29620,17 +30225,54 @@
       <c r="Q572" s="20" t="n"/>
     </row>
     <row r="573">
-      <c r="A573" s="18" t="n"/>
-      <c r="B573" s="18" t="n"/>
-      <c r="C573" s="18" t="n"/>
-      <c r="D573" s="18" t="n"/>
+      <c r="A573" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B573" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C573" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D573" s="18" t="inlineStr">
+        <is>
+          <t>ASCS + SCS 구성 요소 및 특정 고가용성 시나리오에 대해 Windows에서 Azure 공유 디스크를 사용할 수 있습니다. SAP 애플리케이션 계층 구성 요소 및 DBMS 계층에 대해 장애 조치(failover) 클러스터를 별도로 설정합니다. Azure는 현재 SAP 애플리케이션 계층 구성 요소와 DBMS 계층을 하나의 장애 조치(failover) 클러스터로 결합하는 고가용성 아키텍처를 지원하지 않습니다.</t>
+        </is>
+      </c>
       <c r="E573" s="18" t="n"/>
-      <c r="F573" s="18" t="n"/>
+      <c r="F573" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H573" s="18" t="n"/>
-      <c r="I573" s="13" t="n"/>
-      <c r="J573" s="13" t="n"/>
+      <c r="I573" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J573" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K573" s="19" t="n"/>
-      <c r="L573" s="19" t="n"/>
+      <c r="L573" s="19" t="inlineStr">
+        <is>
+          <t>1f737179-8e7f-4e1a-a30c-e5a649a3092b</t>
+        </is>
+      </c>
       <c r="M573" s="20" t="n"/>
       <c r="N573" s="20" t="n"/>
       <c r="O573" s="20" t="n"/>
@@ -29638,17 +30280,54 @@
       <c r="Q573" s="20" t="n"/>
     </row>
     <row r="574">
-      <c r="A574" s="18" t="n"/>
-      <c r="B574" s="18" t="n"/>
-      <c r="C574" s="18" t="n"/>
-      <c r="D574" s="18" t="n"/>
+      <c r="A574" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B574" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C574" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D574" s="18" t="inlineStr">
+        <is>
+          <t>SAP ASCS(애플리케이션 계층 구성 요소) 및 DBMS 계층에 대한 대부분의 장애 조치(failover) 클러스터에는 장애 조치(failover) 클러스터에 대한 가상 IP 주소가 필요합니다.  Azure Load Balancer는 다른 모든 경우에 대한 가상 IP 주소를 처리해야 합니다. 한 가지 설계 원칙은 클러스터 구성당 하나의 부하 분산 장치를 사용하는 것입니다. 부하 분산 장치의 표준 버전(표준 Load Balancer SKU)을 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E574" s="18" t="n"/>
-      <c r="F574" s="18" t="n"/>
+      <c r="F574" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H574" s="18" t="n"/>
-      <c r="I574" s="13" t="n"/>
-      <c r="J574" s="13" t="n"/>
+      <c r="I574" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J574" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K574" s="19" t="n"/>
-      <c r="L574" s="19" t="n"/>
+      <c r="L574" s="19" t="inlineStr">
+        <is>
+          <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
+        </is>
+      </c>
       <c r="M574" s="20" t="n"/>
       <c r="N574" s="20" t="n"/>
       <c r="O574" s="20" t="n"/>
@@ -29656,17 +30335,54 @@
       <c r="Q574" s="20" t="n"/>
     </row>
     <row r="575">
-      <c r="A575" s="18" t="n"/>
-      <c r="B575" s="18" t="n"/>
-      <c r="C575" s="18" t="n"/>
-      <c r="D575" s="18" t="n"/>
+      <c r="A575" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B575" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C575" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D575" s="18" t="inlineStr">
+        <is>
+          <t>로드 밸런서에서 유동 IP가 사용하도록 설정되어 있는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E575" s="18" t="n"/>
-      <c r="F575" s="18" t="n"/>
+      <c r="F575" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H575" s="18" t="n"/>
-      <c r="I575" s="13" t="n"/>
-      <c r="J575" s="13" t="n"/>
+      <c r="I575" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J575" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K575" s="19" t="n"/>
-      <c r="L575" s="19" t="n"/>
+      <c r="L575" s="19" t="inlineStr">
+        <is>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+        </is>
+      </c>
       <c r="M575" s="20" t="n"/>
       <c r="N575" s="20" t="n"/>
       <c r="O575" s="20" t="n"/>
@@ -29674,17 +30390,54 @@
       <c r="Q575" s="20" t="n"/>
     </row>
     <row r="576">
-      <c r="A576" s="18" t="n"/>
-      <c r="B576" s="18" t="n"/>
-      <c r="C576" s="18" t="n"/>
-      <c r="D576" s="18" t="n"/>
+      <c r="A576" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B576" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C576" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D576" s="18" t="inlineStr">
+        <is>
+          <t>고가용성 인프라를 배포하기 전에 선택한 지역에 따라 Azure 가용성 집합 또는 가용성 영역을 사용하여 배포할지 여부를 결정합니다.</t>
+        </is>
+      </c>
       <c r="E576" s="18" t="n"/>
-      <c r="F576" s="18" t="n"/>
+      <c r="F576" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H576" s="18" t="n"/>
-      <c r="I576" s="13" t="n"/>
-      <c r="J576" s="13" t="n"/>
+      <c r="I576" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J576" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K576" s="19" t="n"/>
-      <c r="L576" s="19" t="n"/>
+      <c r="L576" s="19" t="inlineStr">
+        <is>
+          <t>c47cc4f3-f105-452c-845e-9b307b3856c1</t>
+        </is>
+      </c>
       <c r="M576" s="20" t="n"/>
       <c r="N576" s="20" t="n"/>
       <c r="O576" s="20" t="n"/>
@@ -29692,17 +30445,50 @@
       <c r="Q576" s="20" t="n"/>
     </row>
     <row r="577">
-      <c r="A577" s="18" t="n"/>
-      <c r="B577" s="18" t="n"/>
-      <c r="C577" s="18" t="n"/>
-      <c r="D577" s="18" t="n"/>
+      <c r="A577" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B577" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C577" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D577" s="18" t="inlineStr">
+        <is>
+          <t>SAP 구성 요소(중앙 서비스, 애플리케이션 서버 및 데이터베이스)용 애플리케이션에 대한 인프라 SLA를 충족하려면 모든 구성 요소에 대해 동일한 고가용성 옵션(VM, 가용성 집합, 가용성 영역)을 선택해야 합니다.</t>
+        </is>
+      </c>
       <c r="E577" s="18" t="n"/>
-      <c r="F577" s="18" t="n"/>
+      <c r="F577" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H577" s="18" t="n"/>
-      <c r="I577" s="13" t="n"/>
+      <c r="I577" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J577" s="13" t="n"/>
       <c r="K577" s="19" t="n"/>
-      <c r="L577" s="19" t="n"/>
+      <c r="L577" s="19" t="inlineStr">
+        <is>
+          <t>844f69c3-07e5-4ec1-bff7-4be27bcf5fea</t>
+        </is>
+      </c>
       <c r="M577" s="20" t="n"/>
       <c r="N577" s="20" t="n"/>
       <c r="O577" s="20" t="n"/>
@@ -29710,17 +30496,54 @@
       <c r="Q577" s="20" t="n"/>
     </row>
     <row r="578">
-      <c r="A578" s="18" t="n"/>
-      <c r="B578" s="18" t="n"/>
-      <c r="C578" s="18" t="n"/>
-      <c r="D578" s="18" t="n"/>
+      <c r="A578" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B578" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C578" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D578" s="18" t="inlineStr">
+        <is>
+          <t>동일한 가용성 집합에 서로 다른 역할의 서버를 혼합하지 마십시오. 중앙 서비스 VM, 데이터베이스 VM, 애플리케이션 VM을 자체 가용성 집합으로 유지</t>
+        </is>
+      </c>
       <c r="E578" s="18" t="n"/>
-      <c r="F578" s="18" t="n"/>
+      <c r="F578" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H578" s="18" t="n"/>
-      <c r="I578" s="13" t="n"/>
-      <c r="J578" s="13" t="n"/>
+      <c r="I578" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J578" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K578" s="19" t="n"/>
-      <c r="L578" s="19" t="n"/>
+      <c r="L578" s="19" t="inlineStr">
+        <is>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+        </is>
+      </c>
       <c r="M578" s="20" t="n"/>
       <c r="N578" s="20" t="n"/>
       <c r="O578" s="20" t="n"/>
@@ -29728,17 +30551,54 @@
       <c r="Q578" s="20" t="n"/>
     </row>
     <row r="579">
-      <c r="A579" s="18" t="n"/>
-      <c r="B579" s="18" t="n"/>
-      <c r="C579" s="18" t="n"/>
-      <c r="D579" s="18" t="n"/>
+      <c r="A579" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B579" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C579" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D579" s="18" t="inlineStr">
+        <is>
+          <t>근접 배치 그룹을 사용하지 않는 한 Azure 가용성 영역 내에 Azure 가용성 집합을 배포할 수 없습니다.</t>
+        </is>
+      </c>
       <c r="E579" s="18" t="n"/>
-      <c r="F579" s="18" t="n"/>
+      <c r="F579" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H579" s="18" t="n"/>
-      <c r="I579" s="13" t="n"/>
-      <c r="J579" s="13" t="n"/>
+      <c r="I579" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J579" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+        </is>
+      </c>
       <c r="K579" s="19" t="n"/>
-      <c r="L579" s="19" t="n"/>
+      <c r="L579" s="19" t="inlineStr">
+        <is>
+          <t>f2201000-d045-40a6-a79a-d7cdc01b4d86</t>
+        </is>
+      </c>
       <c r="M579" s="20" t="n"/>
       <c r="N579" s="20" t="n"/>
       <c r="O579" s="20" t="n"/>
@@ -29746,17 +30606,54 @@
       <c r="Q579" s="20" t="n"/>
     </row>
     <row r="580">
-      <c r="A580" s="18" t="n"/>
-      <c r="B580" s="18" t="n"/>
-      <c r="C580" s="18" t="n"/>
-      <c r="D580" s="18" t="n"/>
+      <c r="A580" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B580" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C580" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D580" s="18" t="inlineStr">
+        <is>
+          <t>가용성 집합을 만들 때 사용 가능한 최대 장애 도메인 및 업데이트 도메인 수를 사용합니다. 예를 들어 하나의 가용성 집합에 두 개 이상의 VM을 배포하는 경우 Azure의 계획된 유지 관리 외에도 잠재적인 물리적 하드웨어 오류, 네트워크 중단 또는 전원 중단의 영향을 제한하기 위해 최대 장애 도메인 수(3개)와 충분한 업데이트 도메인을 사용합니다. 장애 도메인의 기본 수는 2개이며 나중에 온라인으로 변경할 수 없습니다.</t>
+        </is>
+      </c>
       <c r="E580" s="18" t="n"/>
-      <c r="F580" s="18" t="n"/>
+      <c r="F580" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H580" s="18" t="n"/>
-      <c r="I580" s="13" t="n"/>
-      <c r="J580" s="13" t="n"/>
+      <c r="I580" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J580" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K580" s="19" t="n"/>
-      <c r="L580" s="19" t="n"/>
+      <c r="L580" s="19" t="inlineStr">
+        <is>
+          <t>9674e7c7-7796-4181-8920-09f4429543ba</t>
+        </is>
+      </c>
       <c r="M580" s="20" t="n"/>
       <c r="N580" s="20" t="n"/>
       <c r="O580" s="20" t="n"/>
@@ -29764,17 +30661,50 @@
       <c r="Q580" s="20" t="n"/>
     </row>
     <row r="581">
-      <c r="A581" s="18" t="n"/>
-      <c r="B581" s="18" t="n"/>
-      <c r="C581" s="18" t="n"/>
-      <c r="D581" s="18" t="n"/>
+      <c r="A581" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B581" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C581" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D581" s="18" t="inlineStr">
+        <is>
+          <t>가용성 집합 배포에서 Azure 근접 배치 그룹을 사용하는 경우 세 가지 SAP 구성 요소(중앙 서비스, 애플리케이션 서버 및 데이터베이스)가 모두 동일한 근접 배치 그룹에 있어야 합니다.</t>
+        </is>
+      </c>
       <c r="E581" s="18" t="n"/>
-      <c r="F581" s="18" t="n"/>
+      <c r="F581" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H581" s="18" t="n"/>
-      <c r="I581" s="13" t="n"/>
+      <c r="I581" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J581" s="13" t="n"/>
       <c r="K581" s="19" t="n"/>
-      <c r="L581" s="19" t="n"/>
+      <c r="L581" s="19" t="inlineStr">
+        <is>
+          <t>ae4ecb95-b70f-428f-8b9a-4c5b7e3478a2</t>
+        </is>
+      </c>
       <c r="M581" s="20" t="n"/>
       <c r="N581" s="20" t="n"/>
       <c r="O581" s="20" t="n"/>
@@ -29782,17 +30712,50 @@
       <c r="Q581" s="20" t="n"/>
     </row>
     <row r="582">
-      <c r="A582" s="18" t="n"/>
-      <c r="B582" s="18" t="n"/>
-      <c r="C582" s="18" t="n"/>
-      <c r="D582" s="18" t="n"/>
+      <c r="A582" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B582" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C582" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D582" s="18" t="inlineStr">
+        <is>
+          <t>SAP SID당 하나의 근접 배치 그룹을 사용합니다. 그룹은 가용성 영역 또는 Azure 지역에 걸쳐 있지 않습니다.</t>
+        </is>
+      </c>
       <c r="E582" s="18" t="n"/>
-      <c r="F582" s="18" t="n"/>
+      <c r="F582" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H582" s="18" t="n"/>
-      <c r="I582" s="13" t="n"/>
+      <c r="I582" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J582" s="13" t="n"/>
       <c r="K582" s="19" t="n"/>
-      <c r="L582" s="19" t="n"/>
+      <c r="L582" s="19" t="inlineStr">
+        <is>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+        </is>
+      </c>
       <c r="M582" s="20" t="n"/>
       <c r="N582" s="20" t="n"/>
       <c r="O582" s="20" t="n"/>
@@ -29800,17 +30763,54 @@
       <c r="Q582" s="20" t="n"/>
     </row>
     <row r="583">
-      <c r="A583" s="18" t="n"/>
-      <c r="B583" s="18" t="n"/>
-      <c r="C583" s="18" t="n"/>
-      <c r="D583" s="18" t="n"/>
+      <c r="A583" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B583" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C583" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D583" s="18" t="inlineStr">
+        <is>
+          <t>운영 체제에 따라 다음 서비스 중 하나를 사용하여 SAP 중앙 서비스 클러스터를 실행합니다.</t>
+        </is>
+      </c>
       <c r="E583" s="18" t="n"/>
-      <c r="F583" s="18" t="n"/>
+      <c r="F583" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H583" s="18" t="n"/>
-      <c r="I583" s="13" t="n"/>
-      <c r="J583" s="13" t="n"/>
+      <c r="I583" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J583" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K583" s="19" t="n"/>
-      <c r="L583" s="19" t="n"/>
+      <c r="L583" s="19" t="inlineStr">
+        <is>
+          <t>bca3b10e-0ff5-4aec-ac16-4c4bd1a1c13f</t>
+        </is>
+      </c>
       <c r="M583" s="20" t="n"/>
       <c r="N583" s="20" t="n"/>
       <c r="O583" s="20" t="n"/>
@@ -29818,17 +30818,54 @@
       <c r="Q583" s="20" t="n"/>
     </row>
     <row r="584">
-      <c r="A584" s="18" t="n"/>
-      <c r="B584" s="18" t="n"/>
-      <c r="C584" s="18" t="n"/>
-      <c r="D584" s="18" t="n"/>
+      <c r="A584" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B584" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C584" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D584" s="18" t="inlineStr">
+        <is>
+          <t>Azure는 현재 동일한 Linux Pacemaker 클러스터에서 ASCS와 DB HA의 결합을 지원하지 않습니다. 개별 클러스터로 분리합니다. 그러나 최대 5개의 여러 중앙 서비스 클러스터를 한 쌍의 VM으로 결합할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E584" s="18" t="n"/>
-      <c r="F584" s="18" t="n"/>
+      <c r="F584" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H584" s="18" t="n"/>
-      <c r="I584" s="13" t="n"/>
-      <c r="J584" s="13" t="n"/>
+      <c r="I584" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J584" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K584" s="19" t="n"/>
-      <c r="L584" s="19" t="n"/>
+      <c r="L584" s="19" t="inlineStr">
+        <is>
+          <t>ed46b937-913e-4018-9c62-8393ab037e53</t>
+        </is>
+      </c>
       <c r="M584" s="20" t="n"/>
       <c r="N584" s="20" t="n"/>
       <c r="O584" s="20" t="n"/>
@@ -29836,17 +30873,50 @@
       <c r="Q584" s="20" t="n"/>
     </row>
     <row r="585">
-      <c r="A585" s="18" t="n"/>
-      <c r="B585" s="18" t="n"/>
-      <c r="C585" s="18" t="n"/>
-      <c r="D585" s="18" t="n"/>
+      <c r="A585" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B585" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C585" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D585" s="18" t="inlineStr">
+        <is>
+          <t>가용성 집합 또는 가용성 영역의 고가용성 쌍에 두 VM을 모두 배포합니다. 이러한 VM은 크기가 동일하고 스토리지 구성이 동일해야 합니다.</t>
+        </is>
+      </c>
       <c r="E585" s="18" t="n"/>
-      <c r="F585" s="18" t="n"/>
+      <c r="F585" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H585" s="18" t="n"/>
-      <c r="I585" s="13" t="n"/>
+      <c r="I585" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J585" s="13" t="n"/>
       <c r="K585" s="19" t="n"/>
-      <c r="L585" s="19" t="n"/>
+      <c r="L585" s="19" t="inlineStr">
+        <is>
+          <t>f656e745-0cfb-453e-8008-0528fa21c933</t>
+        </is>
+      </c>
       <c r="M585" s="20" t="n"/>
       <c r="N585" s="20" t="n"/>
       <c r="O585" s="20" t="n"/>
@@ -29854,17 +30924,54 @@
       <c r="Q585" s="20" t="n"/>
     </row>
     <row r="586">
-      <c r="A586" s="18" t="n"/>
-      <c r="B586" s="18" t="n"/>
-      <c r="C586" s="18" t="n"/>
-      <c r="D586" s="18" t="n"/>
+      <c r="A586" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B586" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C586" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D586" s="18" t="inlineStr">
+        <is>
+          <t>Azure는 RHEL(Red Hat Enterprise Linux)에서 실행되는 동일한 고가용성 클러스터에 SAP HANA, ASCS/SCS 및 ERS 인스턴스의 설치 및 구성을 지원합니다.</t>
+        </is>
+      </c>
       <c r="E586" s="18" t="n"/>
-      <c r="F586" s="18" t="n"/>
+      <c r="F586" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H586" s="18" t="n"/>
-      <c r="I586" s="13" t="n"/>
-      <c r="J586" s="13" t="n"/>
+      <c r="I586" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J586" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K586" s="19" t="n"/>
-      <c r="L586" s="19" t="n"/>
+      <c r="L586" s="19" t="inlineStr">
+        <is>
+          <t>7f684ebc-95da-425e-b329-e782dbed050f</t>
+        </is>
+      </c>
       <c r="M586" s="20" t="n"/>
       <c r="N586" s="20" t="n"/>
       <c r="O586" s="20" t="n"/>
@@ -29872,17 +30979,54 @@
       <c r="Q586" s="20" t="n"/>
     </row>
     <row r="587">
-      <c r="A587" s="18" t="n"/>
-      <c r="B587" s="18" t="n"/>
-      <c r="C587" s="18" t="n"/>
-      <c r="D587" s="18" t="n"/>
+      <c r="A587" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B587" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C587" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D587" s="18" t="inlineStr">
+        <is>
+          <t>프리미엄 관리형 SSD에서 모든 프로덕션 시스템을 실행하고 Azure NetApp Files 또는 Ultra Disk Storage를 사용합니다. 적어도 OS 디스크는 프리미엄 계층에 있어야 더 나은 성능과 최상의 SLA를 달성할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E587" s="18" t="n"/>
-      <c r="F587" s="18" t="n"/>
+      <c r="F587" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H587" s="18" t="n"/>
-      <c r="I587" s="13" t="n"/>
-      <c r="J587" s="13" t="n"/>
+      <c r="I587" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J587" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K587" s="19" t="n"/>
-      <c r="L587" s="19" t="n"/>
+      <c r="L587" s="19" t="inlineStr">
+        <is>
+          <t>07991f7d-6598-4d90-9431-45c62605d3a5</t>
+        </is>
+      </c>
       <c r="M587" s="20" t="n"/>
       <c r="N587" s="20" t="n"/>
       <c r="O587" s="20" t="n"/>
@@ -29890,17 +31034,54 @@
       <c r="Q587" s="20" t="n"/>
     </row>
     <row r="588">
-      <c r="A588" s="18" t="n"/>
-      <c r="B588" s="18" t="n"/>
-      <c r="C588" s="18" t="n"/>
-      <c r="D588" s="18" t="n"/>
+      <c r="A588" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B588" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C588" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D588" s="18" t="inlineStr">
+        <is>
+          <t>Azure의 SAP HANA는 SAP에서 인증한 스토리지 유형에서만 실행해야 합니다. 특정 볼륨은 해당되는 경우 특정 디스크 구성에서 실행되어야 합니다. 이러한 구성에는 Write Accelerator 사용 및 Premium Storage 사용이 포함됩니다. 또한 스토리지에서 실행되는 파일 시스템이 시스템에서 실행되는 DBMS와 호환되는지 확인해야 합니다.</t>
+        </is>
+      </c>
       <c r="E588" s="18" t="n"/>
-      <c r="F588" s="18" t="n"/>
+      <c r="F588" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H588" s="18" t="n"/>
-      <c r="I588" s="13" t="n"/>
-      <c r="J588" s="13" t="n"/>
+      <c r="I588" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J588" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1?source=recommendations</t>
+        </is>
+      </c>
       <c r="K588" s="19" t="n"/>
-      <c r="L588" s="19" t="n"/>
+      <c r="L588" s="19" t="inlineStr">
+        <is>
+          <t>73cdaecc-7d74-48d8-a040-88416eebc98c</t>
+        </is>
+      </c>
       <c r="M588" s="20" t="n"/>
       <c r="N588" s="20" t="n"/>
       <c r="O588" s="20" t="n"/>
@@ -29908,17 +31089,54 @@
       <c r="Q588" s="20" t="n"/>
     </row>
     <row r="589">
-      <c r="A589" s="18" t="n"/>
-      <c r="B589" s="18" t="n"/>
-      <c r="C589" s="18" t="n"/>
-      <c r="D589" s="18" t="n"/>
+      <c r="A589" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B589" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C589" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D589" s="18" t="inlineStr">
+        <is>
+          <t>SAP 워크로드에 사용하는 스토리지 유형에 따라 고가용성을 구성하는 것이 좋습니다. Azure에서 사용할 수 있는 일부 스토리지 서비스는 Azure Site Recovery에서 지원되지 않으므로 고가용성 구성이 다를 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E589" s="18" t="n"/>
-      <c r="F589" s="18" t="n"/>
+      <c r="F589" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H589" s="18" t="n"/>
-      <c r="I589" s="13" t="n"/>
-      <c r="J589" s="13" t="n"/>
+      <c r="I589" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J589" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-disaster-recovery-for-sap-workloads-azure/2-explore-disaster-recovery-sap-workloads</t>
+        </is>
+      </c>
       <c r="K589" s="19" t="n"/>
-      <c r="L589" s="19" t="n"/>
+      <c r="L589" s="19" t="inlineStr">
+        <is>
+          <t>51904867-a70e-4fa0-b4ff-3e6292846d7c</t>
+        </is>
+      </c>
       <c r="M589" s="20" t="n"/>
       <c r="N589" s="20" t="n"/>
       <c r="O589" s="20" t="n"/>
@@ -29926,17 +31144,50 @@
       <c r="Q589" s="20" t="n"/>
     </row>
     <row r="590">
-      <c r="A590" s="18" t="n"/>
-      <c r="B590" s="18" t="n"/>
-      <c r="C590" s="18" t="n"/>
-      <c r="D590" s="18" t="n"/>
+      <c r="A590" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B590" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C590" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D590" s="18" t="inlineStr">
+        <is>
+          <t>일부 지역에서는 다양한 네이티브 Azure Storage 서비스(예: Azure Files, Azure NetApp Files, Azure Shared Disk)를 사용하지 못할 수 있습니다. 따라서 장애 조치(failover) 후 DR 지역에서 유사한 SAP를 설정하려면 해당 스토리지 서비스가 DR 사이트에서 제공되는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E590" s="18" t="n"/>
-      <c r="F590" s="18" t="n"/>
+      <c r="F590" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H590" s="18" t="n"/>
-      <c r="I590" s="13" t="n"/>
+      <c r="I590" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J590" s="13" t="n"/>
       <c r="K590" s="19" t="n"/>
-      <c r="L590" s="19" t="n"/>
+      <c r="L590" s="19" t="inlineStr">
+        <is>
+          <t>1ac2d928-c9b7-42c6-ba18-23b1aea78693</t>
+        </is>
+      </c>
       <c r="M590" s="20" t="n"/>
       <c r="N590" s="20" t="n"/>
       <c r="O590" s="20" t="n"/>
@@ -29944,17 +31195,46 @@
       <c r="Q590" s="20" t="n"/>
     </row>
     <row r="591">
-      <c r="A591" s="18" t="n"/>
-      <c r="B591" s="18" t="n"/>
-      <c r="C591" s="18" t="n"/>
-      <c r="D591" s="18" t="n"/>
+      <c r="A591" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B591" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C591" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D591" s="18" t="inlineStr">
+        <is>
+          <t>올바른 VM SKU 및 영역에 대한 할당량 요청 만들기</t>
+        </is>
+      </c>
       <c r="E591" s="18" t="n"/>
-      <c r="F591" s="18" t="n"/>
+      <c r="F591" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H591" s="18" t="n"/>
       <c r="I591" s="13" t="n"/>
       <c r="J591" s="13" t="n"/>
       <c r="K591" s="19" t="n"/>
-      <c r="L591" s="19" t="n"/>
+      <c r="L591" s="19" t="inlineStr">
+        <is>
+          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+        </is>
+      </c>
       <c r="M591" s="20" t="n"/>
       <c r="N591" s="20" t="n"/>
       <c r="O591" s="20" t="n"/>
@@ -29962,17 +31242,50 @@
       <c r="Q591" s="20" t="n"/>
     </row>
     <row r="592">
-      <c r="A592" s="18" t="n"/>
-      <c r="B592" s="18" t="n"/>
-      <c r="C592" s="18" t="n"/>
-      <c r="D592" s="18" t="n"/>
+      <c r="A592" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B592" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C592" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D592" s="18" t="inlineStr">
+        <is>
+          <t>SAP System Start-Stop을 자동화하여 비용을 관리합니다.</t>
+        </is>
+      </c>
       <c r="E592" s="18" t="n"/>
-      <c r="F592" s="18" t="n"/>
+      <c r="F592" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H592" s="18" t="n"/>
-      <c r="I592" s="13" t="n"/>
+      <c r="I592" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J592" s="13" t="n"/>
       <c r="K592" s="19" t="n"/>
-      <c r="L592" s="19" t="n"/>
+      <c r="L592" s="19" t="inlineStr">
+        <is>
+          <t>925d1f8c-01f3-4a67-948e-aabf0a1fad60</t>
+        </is>
+      </c>
       <c r="M592" s="20" t="n"/>
       <c r="N592" s="20" t="n"/>
       <c r="O592" s="20" t="n"/>
@@ -29980,17 +31293,50 @@
       <c r="Q592" s="20" t="n"/>
     </row>
     <row r="593">
-      <c r="A593" s="18" t="n"/>
-      <c r="B593" s="18" t="n"/>
-      <c r="C593" s="18" t="n"/>
-      <c r="D593" s="18" t="n"/>
+      <c r="A593" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B593" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C593" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D593" s="18" t="inlineStr">
+        <is>
+          <t>SAP HANA와 함께 Azure Premium Storage를 사용하는 경우 Azure 표준 SSD 스토리지를 사용하여 비용에 민감한 스토리지 솔루션을 선택할 수 있습니다. 그러나 표준 SSD 또는 표준 HDD Azure Storage를 선택하면 개별 VM의 SLA에 영향을 줍니다. 또한 비프로덕션 환경과 같이 I/O 처리량이 낮고 대기 시간이 짧은 시스템의 경우 더 낮은 시리즈 VM을 사용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E593" s="18" t="n"/>
-      <c r="F593" s="18" t="n"/>
+      <c r="F593" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H593" s="18" t="n"/>
-      <c r="I593" s="13" t="n"/>
+      <c r="I593" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J593" s="13" t="n"/>
       <c r="K593" s="19" t="n"/>
-      <c r="L593" s="19" t="n"/>
+      <c r="L593" s="19" t="inlineStr">
+        <is>
+          <t>71dc00cd-4392-4262-8949-20c05e6c0333</t>
+        </is>
+      </c>
       <c r="M593" s="20" t="n"/>
       <c r="N593" s="20" t="n"/>
       <c r="O593" s="20" t="n"/>
@@ -29998,17 +31344,50 @@
       <c r="Q593" s="20" t="n"/>
     </row>
     <row r="594">
-      <c r="A594" s="18" t="n"/>
-      <c r="B594" s="18" t="n"/>
-      <c r="C594" s="18" t="n"/>
-      <c r="D594" s="18" t="n"/>
+      <c r="A594" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B594" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C594" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D594" s="18" t="inlineStr">
+        <is>
+          <t>저렴한 대체 구성(다목적)으로 비프로덕션 HANA 데이터베이스 서버 VM에 대해 저성능 SKU를 선택할 수 있습니다. 그러나 E 시리즈와 같은 일부 VM 유형은 HANA 인증(SAP HANA 하드웨어 디렉터리)되지 않았거나 1ms 미만의 스토리지 대기 시간을 달성할 수 없습니다.</t>
+        </is>
+      </c>
       <c r="E594" s="18" t="n"/>
-      <c r="F594" s="18" t="n"/>
+      <c r="F594" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H594" s="18" t="n"/>
-      <c r="I594" s="13" t="n"/>
+      <c r="I594" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J594" s="13" t="n"/>
       <c r="K594" s="19" t="n"/>
-      <c r="L594" s="19" t="n"/>
+      <c r="L594" s="19" t="inlineStr">
+        <is>
+          <t>9877f353-2591-4e8b-8381-e9043fed1010</t>
+        </is>
+      </c>
       <c r="M594" s="20" t="n"/>
       <c r="N594" s="20" t="n"/>
       <c r="O594" s="20" t="n"/>
@@ -30016,17 +31395,54 @@
       <c r="Q594" s="20" t="n"/>
     </row>
     <row r="595">
-      <c r="A595" s="18" t="n"/>
-      <c r="B595" s="18" t="n"/>
-      <c r="C595" s="18" t="n"/>
-      <c r="D595" s="18" t="n"/>
+      <c r="A595" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B595" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C595" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D595" s="18" t="inlineStr">
+        <is>
+          <t>관리 그룹, 구독, 리소스 그룹 및 리소스에 대한 RBAC 모델 적용Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
+        </is>
+      </c>
       <c r="E595" s="18" t="n"/>
-      <c r="F595" s="18" t="n"/>
+      <c r="F595" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H595" s="18" t="n"/>
-      <c r="I595" s="13" t="n"/>
-      <c r="J595" s="13" t="n"/>
+      <c r="I595" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J595" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K595" s="19" t="n"/>
-      <c r="L595" s="19" t="n"/>
+      <c r="L595" s="19" t="inlineStr">
+        <is>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+        </is>
+      </c>
       <c r="M595" s="20" t="n"/>
       <c r="N595" s="20" t="n"/>
       <c r="O595" s="20" t="n"/>
@@ -30034,17 +31450,54 @@
       <c r="Q595" s="20" t="n"/>
     </row>
     <row r="596">
-      <c r="A596" s="18" t="n"/>
-      <c r="B596" s="18" t="n"/>
-      <c r="C596" s="18" t="n"/>
-      <c r="D596" s="18" t="n"/>
+      <c r="A596" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B596" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C596" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D596" s="18" t="inlineStr">
+        <is>
+          <t>클라우드 커넥터를 통해 SAP 클라우드 애플리케이션에서 SAP 온-프레미스(IaaS 포함)로 ID를 전달하기 위한 보안 주체 전파 적용</t>
+        </is>
+      </c>
       <c r="E596" s="18" t="n"/>
-      <c r="F596" s="18" t="n"/>
+      <c r="F596" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H596" s="18" t="n"/>
-      <c r="I596" s="13" t="n"/>
-      <c r="J596" s="13" t="n"/>
+      <c r="I596" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J596" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+        </is>
+      </c>
       <c r="K596" s="19" t="n"/>
-      <c r="L596" s="19" t="n"/>
+      <c r="L596" s="19" t="inlineStr">
+        <is>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+        </is>
+      </c>
       <c r="M596" s="20" t="n"/>
       <c r="N596" s="20" t="n"/>
       <c r="O596" s="20" t="n"/>
@@ -30052,17 +31505,50 @@
       <c r="Q596" s="20" t="n"/>
     </row>
     <row r="597">
-      <c r="A597" s="18" t="n"/>
-      <c r="B597" s="18" t="n"/>
-      <c r="C597" s="18" t="n"/>
-      <c r="D597" s="18" t="n"/>
+      <c r="A597" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B597" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C597" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D597" s="18" t="inlineStr">
+        <is>
+          <t>SAML을 사용하여 Azure AD로 SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics 및 SAP C4C와 같은 SAP SaaS 애플리케이션에 대한 SSO를 구현합니다.</t>
+        </is>
+      </c>
       <c r="E597" s="18" t="n"/>
-      <c r="F597" s="18" t="n"/>
+      <c r="F597" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H597" s="18" t="n"/>
-      <c r="I597" s="13" t="n"/>
+      <c r="I597" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J597" s="13" t="n"/>
       <c r="K597" s="19" t="n"/>
-      <c r="L597" s="19" t="n"/>
+      <c r="L597" s="19" t="inlineStr">
+        <is>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+        </is>
+      </c>
       <c r="M597" s="20" t="n"/>
       <c r="N597" s="20" t="n"/>
       <c r="O597" s="20" t="n"/>
@@ -30070,17 +31556,54 @@
       <c r="Q597" s="20" t="n"/>
     </row>
     <row r="598">
-      <c r="A598" s="18" t="n"/>
-      <c r="B598" s="18" t="n"/>
-      <c r="C598" s="18" t="n"/>
-      <c r="D598" s="18" t="n"/>
+      <c r="A598" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B598" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C598" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D598" s="18" t="inlineStr">
+        <is>
+          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
+        </is>
+      </c>
       <c r="E598" s="18" t="n"/>
-      <c r="F598" s="18" t="n"/>
+      <c r="F598" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H598" s="18" t="n"/>
-      <c r="I598" s="13" t="n"/>
-      <c r="J598" s="13" t="n"/>
+      <c r="I598" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J598" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="K598" s="19" t="n"/>
-      <c r="L598" s="19" t="n"/>
+      <c r="L598" s="19" t="inlineStr">
+        <is>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+        </is>
+      </c>
       <c r="M598" s="20" t="n"/>
       <c r="N598" s="20" t="n"/>
       <c r="O598" s="20" t="n"/>
@@ -30088,17 +31611,50 @@
       <c r="Q598" s="20" t="n"/>
     </row>
     <row r="599">
-      <c r="A599" s="18" t="n"/>
-      <c r="B599" s="18" t="n"/>
-      <c r="C599" s="18" t="n"/>
-      <c r="D599" s="18" t="n"/>
+      <c r="A599" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B599" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C599" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D599" s="18" t="inlineStr">
+        <is>
+          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
+        </is>
+      </c>
       <c r="E599" s="18" t="n"/>
-      <c r="F599" s="18" t="n"/>
+      <c r="F599" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H599" s="18" t="n"/>
       <c r="I599" s="13" t="n"/>
-      <c r="J599" s="13" t="n"/>
+      <c r="J599" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+        </is>
+      </c>
       <c r="K599" s="19" t="n"/>
-      <c r="L599" s="19" t="n"/>
+      <c r="L599" s="19" t="inlineStr">
+        <is>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+        </is>
+      </c>
       <c r="M599" s="20" t="n"/>
       <c r="N599" s="20" t="n"/>
       <c r="O599" s="20" t="n"/>
@@ -30106,17 +31662,54 @@
       <c r="Q599" s="20" t="n"/>
     </row>
     <row r="600">
-      <c r="A600" s="18" t="n"/>
-      <c r="B600" s="18" t="n"/>
-      <c r="C600" s="18" t="n"/>
-      <c r="D600" s="18" t="n"/>
+      <c r="A600" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B600" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C600" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D600" s="18" t="inlineStr">
+        <is>
+          <t>SAP NetWeaver SSO 또는 파트너 솔루션을 사용하여 SAP GUI에 대한 SSO를 구현할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E600" s="18" t="n"/>
-      <c r="F600" s="18" t="n"/>
+      <c r="F600" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H600" s="18" t="n"/>
-      <c r="I600" s="13" t="n"/>
-      <c r="J600" s="13" t="n"/>
+      <c r="I600" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J600" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="K600" s="19" t="n"/>
-      <c r="L600" s="19" t="n"/>
+      <c r="L600" s="19" t="inlineStr">
+        <is>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+        </is>
+      </c>
       <c r="M600" s="20" t="n"/>
       <c r="N600" s="20" t="n"/>
       <c r="O600" s="20" t="n"/>
@@ -30124,17 +31717,50 @@
       <c r="Q600" s="20" t="n"/>
     </row>
     <row r="601">
-      <c r="A601" s="18" t="n"/>
-      <c r="B601" s="18" t="n"/>
-      <c r="C601" s="18" t="n"/>
-      <c r="D601" s="18" t="n"/>
+      <c r="A601" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B601" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C601" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D601" s="18" t="inlineStr">
+        <is>
+          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC/Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
+        </is>
+      </c>
       <c r="E601" s="18" t="n"/>
-      <c r="F601" s="18" t="n"/>
+      <c r="F601" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H601" s="18" t="n"/>
       <c r="I601" s="13" t="n"/>
-      <c r="J601" s="13" t="n"/>
+      <c r="J601" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+        </is>
+      </c>
       <c r="K601" s="19" t="n"/>
-      <c r="L601" s="19" t="n"/>
+      <c r="L601" s="19" t="inlineStr">
+        <is>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+        </is>
+      </c>
       <c r="M601" s="20" t="n"/>
       <c r="N601" s="20" t="n"/>
       <c r="O601" s="20" t="n"/>
@@ -30142,17 +31768,50 @@
       <c r="Q601" s="20" t="n"/>
     </row>
     <row r="602">
-      <c r="A602" s="18" t="n"/>
-      <c r="B602" s="18" t="n"/>
-      <c r="C602" s="18" t="n"/>
-      <c r="D602" s="18" t="n"/>
+      <c r="A602" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B602" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C602" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D602" s="18" t="inlineStr">
+        <is>
+          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC/Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
+        </is>
+      </c>
       <c r="E602" s="18" t="n"/>
-      <c r="F602" s="18" t="n"/>
+      <c r="F602" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H602" s="18" t="n"/>
-      <c r="I602" s="13" t="n"/>
+      <c r="I602" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J602" s="13" t="n"/>
       <c r="K602" s="19" t="n"/>
-      <c r="L602" s="19" t="n"/>
+      <c r="L602" s="19" t="inlineStr">
+        <is>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+        </is>
+      </c>
       <c r="M602" s="20" t="n"/>
       <c r="N602" s="20" t="n"/>
       <c r="O602" s="20" t="n"/>
@@ -30160,17 +31819,50 @@
       <c r="Q602" s="20" t="n"/>
     </row>
     <row r="603">
-      <c r="A603" s="18" t="n"/>
-      <c r="B603" s="18" t="n"/>
-      <c r="C603" s="18" t="n"/>
-      <c r="D603" s="18" t="n"/>
+      <c r="A603" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B603" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C603" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D603" s="18" t="inlineStr">
+        <is>
+          <t>SAP NetWeaver용 OAuth를 사용하여 SSO를 구현하여 타사 또는 사용자 지정 애플리케이션이 SAP NetWeaver OData 서비스에 액세스할 수 있도록 합니다.</t>
+        </is>
+      </c>
       <c r="E603" s="18" t="n"/>
-      <c r="F603" s="18" t="n"/>
+      <c r="F603" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H603" s="18" t="n"/>
-      <c r="I603" s="13" t="n"/>
+      <c r="I603" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J603" s="13" t="n"/>
       <c r="K603" s="19" t="n"/>
-      <c r="L603" s="19" t="n"/>
+      <c r="L603" s="19" t="inlineStr">
+        <is>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+        </is>
+      </c>
       <c r="M603" s="20" t="n"/>
       <c r="N603" s="20" t="n"/>
       <c r="O603" s="20" t="n"/>
@@ -30178,17 +31870,50 @@
       <c r="Q603" s="20" t="n"/>
     </row>
     <row r="604">
-      <c r="A604" s="18" t="n"/>
-      <c r="B604" s="18" t="n"/>
-      <c r="C604" s="18" t="n"/>
-      <c r="D604" s="18" t="n"/>
+      <c r="A604" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B604" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C604" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D604" s="18" t="inlineStr">
+        <is>
+          <t>SAP HANA에 대한 SSO 구현</t>
+        </is>
+      </c>
       <c r="E604" s="18" t="n"/>
-      <c r="F604" s="18" t="n"/>
+      <c r="F604" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H604" s="18" t="n"/>
-      <c r="I604" s="13" t="n"/>
+      <c r="I604" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J604" s="13" t="n"/>
       <c r="K604" s="19" t="n"/>
-      <c r="L604" s="19" t="n"/>
+      <c r="L604" s="19" t="inlineStr">
+        <is>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+        </is>
+      </c>
       <c r="M604" s="20" t="n"/>
       <c r="N604" s="20" t="n"/>
       <c r="O604" s="20" t="n"/>
@@ -30196,17 +31921,50 @@
       <c r="Q604" s="20" t="n"/>
     </row>
     <row r="605">
-      <c r="A605" s="18" t="n"/>
-      <c r="B605" s="18" t="n"/>
-      <c r="C605" s="18" t="n"/>
-      <c r="D605" s="18" t="n"/>
+      <c r="A605" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B605" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C605" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D605" s="18" t="inlineStr">
+        <is>
+          <t>Azure AD를 RISE에서 호스트되는 SAP 시스템의 ID 공급자로 간주합니다. 자세한 내용은 Azure AD와 서비스 통합을 참조하세요.</t>
+        </is>
+      </c>
       <c r="E605" s="18" t="n"/>
-      <c r="F605" s="18" t="n"/>
+      <c r="F605" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H605" s="18" t="n"/>
-      <c r="I605" s="13" t="n"/>
+      <c r="I605" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J605" s="13" t="n"/>
       <c r="K605" s="19" t="n"/>
-      <c r="L605" s="19" t="n"/>
+      <c r="L605" s="19" t="inlineStr">
+        <is>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+        </is>
+      </c>
       <c r="M605" s="20" t="n"/>
       <c r="N605" s="20" t="n"/>
       <c r="O605" s="20" t="n"/>
@@ -30214,17 +31972,50 @@
       <c r="Q605" s="20" t="n"/>
     </row>
     <row r="606">
-      <c r="A606" s="18" t="n"/>
-      <c r="B606" s="18" t="n"/>
-      <c r="C606" s="18" t="n"/>
-      <c r="D606" s="18" t="n"/>
+      <c r="A606" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B606" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C606" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D606" s="18" t="inlineStr">
+        <is>
+          <t>SAP에 액세스하는 애플리케이션의 경우 보안 주체 전파를 사용하여 SSO를 설정할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E606" s="18" t="n"/>
-      <c r="F606" s="18" t="n"/>
+      <c r="F606" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H606" s="18" t="n"/>
-      <c r="I606" s="13" t="n"/>
+      <c r="I606" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J606" s="13" t="n"/>
       <c r="K606" s="19" t="n"/>
-      <c r="L606" s="19" t="n"/>
+      <c r="L606" s="19" t="inlineStr">
+        <is>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+        </is>
+      </c>
       <c r="M606" s="20" t="n"/>
       <c r="N606" s="20" t="n"/>
       <c r="O606" s="20" t="n"/>
@@ -30232,17 +32023,50 @@
       <c r="Q606" s="20" t="n"/>
     </row>
     <row r="607">
-      <c r="A607" s="18" t="n"/>
-      <c r="B607" s="18" t="n"/>
-      <c r="C607" s="18" t="n"/>
-      <c r="D607" s="18" t="n"/>
+      <c r="A607" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B607" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C607" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D607" s="18" t="inlineStr">
+        <is>
+          <t>SAP IAS(Identity Authentication Service)가 필요한 SAP BTP 서비스 또는 SaaS 솔루션을 사용하는 경우 SAP Cloud Identity Authentication Services와 Azure AD 간에 SSO를 구현하여 해당 SAP 서비스에 액세스하는 것이 좋습니다. 이 통합을 통해 SAP IAS는 프록시 ID 공급자 역할을 하고 중앙 사용자 저장소 및 ID 공급자인 Azure AD에 인증 요청을 전달할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E607" s="18" t="n"/>
-      <c r="F607" s="18" t="n"/>
+      <c r="F607" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H607" s="18" t="n"/>
-      <c r="I607" s="13" t="n"/>
+      <c r="I607" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J607" s="13" t="n"/>
       <c r="K607" s="19" t="n"/>
-      <c r="L607" s="19" t="n"/>
+      <c r="L607" s="19" t="inlineStr">
+        <is>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+        </is>
+      </c>
       <c r="M607" s="20" t="n"/>
       <c r="N607" s="20" t="n"/>
       <c r="O607" s="20" t="n"/>
@@ -30250,17 +32074,50 @@
       <c r="Q607" s="20" t="n"/>
     </row>
     <row r="608">
-      <c r="A608" s="18" t="n"/>
-      <c r="B608" s="18" t="n"/>
-      <c r="C608" s="18" t="n"/>
-      <c r="D608" s="18" t="n"/>
+      <c r="A608" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B608" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C608" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D608" s="18" t="inlineStr">
+        <is>
+          <t>SAP BTP에 대한 SSO 구현</t>
+        </is>
+      </c>
       <c r="E608" s="18" t="n"/>
-      <c r="F608" s="18" t="n"/>
+      <c r="F608" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H608" s="18" t="n"/>
-      <c r="I608" s="13" t="n"/>
+      <c r="I608" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J608" s="13" t="n"/>
       <c r="K608" s="19" t="n"/>
-      <c r="L608" s="19" t="n"/>
+      <c r="L608" s="19" t="inlineStr">
+        <is>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+        </is>
+      </c>
       <c r="M608" s="20" t="n"/>
       <c r="N608" s="20" t="n"/>
       <c r="O608" s="20" t="n"/>
@@ -30268,17 +32125,50 @@
       <c r="Q608" s="20" t="n"/>
     </row>
     <row r="609">
-      <c r="A609" s="18" t="n"/>
-      <c r="B609" s="18" t="n"/>
-      <c r="C609" s="18" t="n"/>
-      <c r="D609" s="18" t="n"/>
+      <c r="A609" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B609" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C609" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D609" s="18" t="inlineStr">
+        <is>
+          <t>SAP SuccessFactors를 사용하는 경우 Azure AD 자동화된 사용자 프로비저닝을 사용하는 것이 좋습니다. 이 통합을 통해 SAP SuccessFactors에 새 직원을 추가할 때 Azure AD에서 해당 사용자 계정을 자동으로 만들 수 있습니다. 필요에 따라 Microsoft 365 또는 Azure AD 지원하는 기타 SaaS 애플리케이션에서 사용자 계정을 만들 수 있습니다. SAP SuccessFactors에 이메일 주소의 쓰기 저장을 사용합니다.</t>
+        </is>
+      </c>
       <c r="E609" s="18" t="n"/>
-      <c r="F609" s="18" t="n"/>
+      <c r="F609" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H609" s="18" t="n"/>
-      <c r="I609" s="13" t="n"/>
+      <c r="I609" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J609" s="13" t="n"/>
       <c r="K609" s="19" t="n"/>
-      <c r="L609" s="19" t="n"/>
+      <c r="L609" s="19" t="inlineStr">
+        <is>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+        </is>
+      </c>
       <c r="M609" s="20" t="n"/>
       <c r="N609" s="20" t="n"/>
       <c r="O609" s="20" t="n"/>
@@ -30286,17 +32176,54 @@
       <c r="Q609" s="20" t="n"/>
     </row>
     <row r="610">
-      <c r="A610" s="18" t="n"/>
-      <c r="B610" s="18" t="n"/>
-      <c r="C610" s="18" t="n"/>
-      <c r="D610" s="18" t="n"/>
+      <c r="A610" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B610" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C610" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D610" s="18" t="inlineStr">
+        <is>
+          <t>SAP 구독에 기존 관리 그룹 정책 적용</t>
+        </is>
+      </c>
       <c r="E610" s="18" t="n"/>
-      <c r="F610" s="18" t="n"/>
+      <c r="F610" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H610" s="18" t="n"/>
-      <c r="I610" s="13" t="n"/>
-      <c r="J610" s="13" t="n"/>
+      <c r="I610" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J610" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+        </is>
+      </c>
       <c r="K610" s="19" t="n"/>
-      <c r="L610" s="19" t="n"/>
+      <c r="L610" s="19" t="inlineStr">
+        <is>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+        </is>
+      </c>
       <c r="M610" s="20" t="n"/>
       <c r="N610" s="20" t="n"/>
       <c r="O610" s="20" t="n"/>
@@ -30304,17 +32231,54 @@
       <c r="Q610" s="20" t="n"/>
     </row>
     <row r="611">
-      <c r="A611" s="18" t="n"/>
-      <c r="B611" s="18" t="n"/>
-      <c r="C611" s="18" t="n"/>
-      <c r="D611" s="18" t="n"/>
+      <c r="A611" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B611" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C611" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D611" s="18" t="inlineStr">
+        <is>
+          <t>긴밀하게 결합된 애플리케이션을 동일한 SAP 구독에 통합하여 추가적인 라우팅 및 관리 복잡성 방지</t>
+        </is>
+      </c>
       <c r="E611" s="18" t="n"/>
-      <c r="F611" s="18" t="n"/>
+      <c r="F611" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H611" s="18" t="n"/>
-      <c r="I611" s="13" t="n"/>
-      <c r="J611" s="13" t="n"/>
+      <c r="I611" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J611" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+        </is>
+      </c>
       <c r="K611" s="19" t="n"/>
-      <c r="L611" s="19" t="n"/>
+      <c r="L611" s="19" t="inlineStr">
+        <is>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+        </is>
+      </c>
       <c r="M611" s="20" t="n"/>
       <c r="N611" s="20" t="n"/>
       <c r="O611" s="20" t="n"/>
@@ -30322,17 +32286,54 @@
       <c r="Q611" s="20" t="n"/>
     </row>
     <row r="612">
-      <c r="A612" s="18" t="n"/>
-      <c r="B612" s="18" t="n"/>
-      <c r="C612" s="18" t="n"/>
-      <c r="D612" s="18" t="n"/>
+      <c r="A612" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B612" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C612" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D612" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">구독을 배율 단위로 활용하고 리소스를 확장하려면 환경별로 구독을 배포하는 것이 좋습니다. 샌드박스, 비프로덕션, 프로덕션 </t>
+        </is>
+      </c>
       <c r="E612" s="18" t="n"/>
-      <c r="F612" s="18" t="n"/>
+      <c r="F612" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H612" s="18" t="n"/>
-      <c r="I612" s="13" t="n"/>
-      <c r="J612" s="13" t="n"/>
+      <c r="I612" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J612" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K612" s="19" t="n"/>
-      <c r="L612" s="19" t="n"/>
+      <c r="L612" s="19" t="inlineStr">
+        <is>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+        </is>
+      </c>
       <c r="M612" s="20" t="n"/>
       <c r="N612" s="20" t="n"/>
       <c r="O612" s="20" t="n"/>
@@ -30340,17 +32341,54 @@
       <c r="Q612" s="20" t="n"/>
     </row>
     <row r="613">
-      <c r="A613" s="18" t="n"/>
-      <c r="B613" s="18" t="n"/>
-      <c r="C613" s="18" t="n"/>
-      <c r="D613" s="18" t="n"/>
+      <c r="A613" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B613" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C613" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D613" s="18" t="inlineStr">
+        <is>
+          <t>구독 프로비저닝의 일부로 할당량 증가 확인(예: 구독 내에서 사용 가능한 총 VM 코어)</t>
+        </is>
+      </c>
       <c r="E613" s="18" t="n"/>
-      <c r="F613" s="18" t="n"/>
+      <c r="F613" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H613" s="18" t="n"/>
-      <c r="I613" s="13" t="n"/>
-      <c r="J613" s="13" t="n"/>
+      <c r="I613" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J613" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
       <c r="K613" s="19" t="n"/>
-      <c r="L613" s="19" t="n"/>
+      <c r="L613" s="19" t="inlineStr">
+        <is>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+        </is>
+      </c>
       <c r="M613" s="20" t="n"/>
       <c r="N613" s="20" t="n"/>
       <c r="O613" s="20" t="n"/>
@@ -30358,17 +32396,50 @@
       <c r="Q613" s="20" t="n"/>
     </row>
     <row r="614">
-      <c r="A614" s="18" t="n"/>
-      <c r="B614" s="18" t="n"/>
-      <c r="C614" s="18" t="n"/>
-      <c r="D614" s="18" t="n"/>
+      <c r="A614" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B614" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C614" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D614" s="18" t="inlineStr">
+        <is>
+          <t>할당량 API는 Azure 서비스에 대한 할당량을 보고 관리하는 데 사용할 수 있는 REST API입니다. 필요한 경우 사용을 고려하십시오.</t>
+        </is>
+      </c>
       <c r="E614" s="18" t="n"/>
-      <c r="F614" s="18" t="n"/>
+      <c r="F614" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H614" s="18" t="n"/>
-      <c r="I614" s="13" t="n"/>
+      <c r="I614" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J614" s="13" t="n"/>
       <c r="K614" s="19" t="n"/>
-      <c r="L614" s="19" t="n"/>
+      <c r="L614" s="19" t="inlineStr">
+        <is>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+        </is>
+      </c>
       <c r="M614" s="20" t="n"/>
       <c r="N614" s="20" t="n"/>
       <c r="O614" s="20" t="n"/>
@@ -30376,17 +32447,50 @@
       <c r="Q614" s="20" t="n"/>
     </row>
     <row r="615">
-      <c r="A615" s="18" t="n"/>
-      <c r="B615" s="18" t="n"/>
-      <c r="C615" s="18" t="n"/>
-      <c r="D615" s="18" t="n"/>
+      <c r="A615" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B615" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C615" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D615" s="18" t="inlineStr">
+        <is>
+          <t>가용성 영역에 배포하는 경우 할당량이 승인되면 VM의 영역 배포를 사용할 수 있는지 확인합니다. 필요한 구독, VM 시리즈, CPU 수 및 가용성 영역을 사용하여 지원 요청을 제출합니다.</t>
+        </is>
+      </c>
       <c r="E615" s="18" t="n"/>
-      <c r="F615" s="18" t="n"/>
+      <c r="F615" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H615" s="18" t="n"/>
-      <c r="I615" s="13" t="n"/>
+      <c r="I615" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J615" s="13" t="n"/>
       <c r="K615" s="19" t="n"/>
-      <c r="L615" s="19" t="n"/>
+      <c r="L615" s="19" t="inlineStr">
+        <is>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+        </is>
+      </c>
       <c r="M615" s="20" t="n"/>
       <c r="N615" s="20" t="n"/>
       <c r="O615" s="20" t="n"/>
@@ -30394,17 +32498,54 @@
       <c r="Q615" s="20" t="n"/>
     </row>
     <row r="616">
-      <c r="A616" s="18" t="n"/>
-      <c r="B616" s="18" t="n"/>
-      <c r="C616" s="18" t="n"/>
-      <c r="D616" s="18" t="n"/>
+      <c r="A616" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B616" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C616" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D616" s="18" t="inlineStr">
+        <is>
+          <t>예를 들어 선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다. ANF, 지역 등.</t>
+        </is>
+      </c>
       <c r="E616" s="18" t="n"/>
-      <c r="F616" s="18" t="n"/>
+      <c r="F616" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H616" s="18" t="n"/>
-      <c r="I616" s="13" t="n"/>
-      <c r="J616" s="13" t="n"/>
+      <c r="I616" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J616" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+        </is>
+      </c>
       <c r="K616" s="19" t="n"/>
-      <c r="L616" s="19" t="n"/>
+      <c r="L616" s="19" t="inlineStr">
+        <is>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+        </is>
+      </c>
       <c r="M616" s="20" t="n"/>
       <c r="N616" s="20" t="n"/>
       <c r="O616" s="20" t="n"/>
@@ -30412,17 +32553,54 @@
       <c r="Q616" s="20" t="n"/>
     </row>
     <row r="617">
-      <c r="A617" s="18" t="n"/>
-      <c r="B617" s="18" t="n"/>
-      <c r="C617" s="18" t="n"/>
-      <c r="D617" s="18" t="n"/>
+      <c r="A617" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B617" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C617" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D617" s="18" t="inlineStr">
+        <is>
+          <t>비용 분류 및 리소스 그룹화를 위해 Azure 리소스 태그 활용(BillTo, 부서(또는 사업부), 환경(프로덕션, 스테이지, 개발), 계층(웹 계층, 애플리케이션 계층), 애플리케이션 소유자, 프로젝트 이름)</t>
+        </is>
+      </c>
       <c r="E617" s="18" t="n"/>
-      <c r="F617" s="18" t="n"/>
+      <c r="F617" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H617" s="18" t="n"/>
-      <c r="I617" s="13" t="n"/>
-      <c r="J617" s="13" t="n"/>
+      <c r="I617" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J617" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K617" s="19" t="n"/>
-      <c r="L617" s="19" t="n"/>
+      <c r="L617" s="19" t="inlineStr">
+        <is>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+        </is>
+      </c>
       <c r="M617" s="20" t="n"/>
       <c r="N617" s="20" t="n"/>
       <c r="O617" s="20" t="n"/>
@@ -30430,17 +32608,54 @@
       <c r="Q617" s="20" t="n"/>
     </row>
     <row r="618">
-      <c r="A618" s="18" t="n"/>
-      <c r="B618" s="18" t="n"/>
-      <c r="C618" s="18" t="n"/>
-      <c r="D618" s="18" t="n"/>
+      <c r="A618" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B618" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C618" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D618" s="18" t="inlineStr">
+        <is>
+          <t>Azure Backup 서비스를 사용하여 HANA 데이터베이스를 보호할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E618" s="18" t="n"/>
-      <c r="F618" s="18" t="n"/>
+      <c r="F618" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H618" s="18" t="n"/>
-      <c r="I618" s="13" t="n"/>
-      <c r="J618" s="13" t="n"/>
+      <c r="I618" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J618" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K618" s="19" t="n"/>
-      <c r="L618" s="19" t="n"/>
+      <c r="L618" s="19" t="inlineStr">
+        <is>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+        </is>
+      </c>
       <c r="M618" s="20" t="n"/>
       <c r="N618" s="20" t="n"/>
       <c r="O618" s="20" t="n"/>
@@ -30448,17 +32663,50 @@
       <c r="Q618" s="20" t="n"/>
     </row>
     <row r="619">
-      <c r="A619" s="18" t="n"/>
-      <c r="B619" s="18" t="n"/>
-      <c r="C619" s="18" t="n"/>
-      <c r="D619" s="18" t="n"/>
+      <c r="A619" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B619" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C619" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D619" s="18" t="inlineStr">
+        <is>
+          <t>HANA, Oracle 또는 DB2 데이터베이스용 Azure NetApp Files를 배포하는 경우 Azure 애플리케이션 일치 스냅샷 도구(AzAcSnap)를 사용하여 애플리케이션 일치 스냅샷을 만듭니다. AzAcSnap은 Oracle 데이터베이스도 지원합니다. 개별 VM이 아닌 중앙 VM에서 AzAcSnap을 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E619" s="18" t="n"/>
-      <c r="F619" s="18" t="n"/>
+      <c r="F619" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H619" s="18" t="n"/>
-      <c r="I619" s="13" t="n"/>
+      <c r="I619" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J619" s="13" t="n"/>
       <c r="K619" s="19" t="n"/>
-      <c r="L619" s="19" t="n"/>
+      <c r="L619" s="19" t="inlineStr">
+        <is>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+        </is>
+      </c>
       <c r="M619" s="20" t="n"/>
       <c r="N619" s="20" t="n"/>
       <c r="O619" s="20" t="n"/>
@@ -30466,17 +32714,50 @@
       <c r="Q619" s="20" t="n"/>
     </row>
     <row r="620">
-      <c r="A620" s="18" t="n"/>
-      <c r="B620" s="18" t="n"/>
-      <c r="C620" s="18" t="n"/>
-      <c r="D620" s="18" t="n"/>
+      <c r="A620" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B620" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C620" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D620" s="18" t="inlineStr">
+        <is>
+          <t>운영 체제와 SAP 시스템 간의 표준 시간대 일치를 확인합니다.</t>
+        </is>
+      </c>
       <c r="E620" s="18" t="n"/>
-      <c r="F620" s="18" t="n"/>
+      <c r="F620" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H620" s="18" t="n"/>
-      <c r="I620" s="13" t="n"/>
+      <c r="I620" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J620" s="13" t="n"/>
       <c r="K620" s="19" t="n"/>
-      <c r="L620" s="19" t="n"/>
+      <c r="L620" s="19" t="inlineStr">
+        <is>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+        </is>
+      </c>
       <c r="M620" s="20" t="n"/>
       <c r="N620" s="20" t="n"/>
       <c r="O620" s="20" t="n"/>
@@ -30484,17 +32765,54 @@
       <c r="Q620" s="20" t="n"/>
     </row>
     <row r="621">
-      <c r="A621" s="18" t="n"/>
-      <c r="B621" s="18" t="n"/>
-      <c r="C621" s="18" t="n"/>
-      <c r="D621" s="18" t="n"/>
+      <c r="A621" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B621" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C621" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D621" s="18" t="inlineStr">
+        <is>
+          <t>동일한 클러스터에서 서로 다른 애플리케이션 서비스를 그룹화하지 마세요. 예를 들어 DRBD와 중앙 서비스 클러스터를 동일한 클러스터에 결합하지 마세요. 그러나 동일한 Pacemaker 클러스터를 사용하여 약 5개의 서로 다른 중앙 서비스(다중 SID 클러스터)를 관리할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E621" s="18" t="n"/>
-      <c r="F621" s="18" t="n"/>
+      <c r="F621" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H621" s="18" t="n"/>
-      <c r="I621" s="13" t="n"/>
-      <c r="J621" s="13" t="n"/>
+      <c r="I621" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J621" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K621" s="19" t="n"/>
-      <c r="L621" s="19" t="n"/>
+      <c r="L621" s="19" t="inlineStr">
+        <is>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+        </is>
+      </c>
       <c r="M621" s="20" t="n"/>
       <c r="N621" s="20" t="n"/>
       <c r="O621" s="20" t="n"/>
@@ -30502,17 +32820,50 @@
       <c r="Q621" s="20" t="n"/>
     </row>
     <row r="622">
-      <c r="A622" s="18" t="n"/>
-      <c r="B622" s="18" t="n"/>
-      <c r="C622" s="18" t="n"/>
-      <c r="D622" s="18" t="n"/>
+      <c r="A622" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B622" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C622" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D622" s="18" t="inlineStr">
+        <is>
+          <t>Azure 실행 비용을 절감하고 최적화하기 위해 다시 알림 모델에서 개발/테스트 시스템을 실행하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E622" s="18" t="n"/>
-      <c r="F622" s="18" t="n"/>
+      <c r="F622" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H622" s="18" t="n"/>
-      <c r="I622" s="13" t="n"/>
+      <c r="I622" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J622" s="13" t="n"/>
       <c r="K622" s="19" t="n"/>
-      <c r="L622" s="19" t="n"/>
+      <c r="L622" s="19" t="inlineStr">
+        <is>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+        </is>
+      </c>
       <c r="M622" s="20" t="n"/>
       <c r="N622" s="20" t="n"/>
       <c r="O622" s="20" t="n"/>
@@ -30520,17 +32871,50 @@
       <c r="Q622" s="20" t="n"/>
     </row>
     <row r="623">
-      <c r="A623" s="18" t="n"/>
-      <c r="B623" s="18" t="n"/>
-      <c r="C623" s="18" t="n"/>
-      <c r="D623" s="18" t="n"/>
+      <c r="A623" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B623" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C623" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D623" s="18" t="inlineStr">
+        <is>
+          <t>SAP 자산을 관리하여 고객과 파트너 관계를 맺는 경우 Azure Lighthouse를 사용하는 것이 좋습니다. Azure Lighthouse를 사용하면 관리 서비스 공급자가 Azure 네이티브 ID 서비스를 사용하여 고객 환경에 인증할 수 있습니다. 고객은 언제든지 액세스 권한을 취소하고 서비스 제공업체의 조치를 감사할 수 있으므로 고객의 손에 제어 권한을 부여합니다.</t>
+        </is>
+      </c>
       <c r="E623" s="18" t="n"/>
-      <c r="F623" s="18" t="n"/>
+      <c r="F623" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H623" s="18" t="n"/>
-      <c r="I623" s="13" t="n"/>
+      <c r="I623" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J623" s="13" t="n"/>
       <c r="K623" s="19" t="n"/>
-      <c r="L623" s="19" t="n"/>
+      <c r="L623" s="19" t="inlineStr">
+        <is>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+        </is>
+      </c>
       <c r="M623" s="20" t="n"/>
       <c r="N623" s="20" t="n"/>
       <c r="O623" s="20" t="n"/>
@@ -30538,17 +32922,54 @@
       <c r="Q623" s="20" t="n"/>
     </row>
     <row r="624">
-      <c r="A624" s="18" t="n"/>
-      <c r="B624" s="18" t="n"/>
-      <c r="C624" s="18" t="n"/>
-      <c r="D624" s="18" t="n"/>
+      <c r="A624" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B624" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C624" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D624" s="18" t="inlineStr">
+        <is>
+          <t>Azure Update Manager를 사용하여 단일 VM 또는 여러 VM에 대해 사용 가능한 업데이트의 상태를 확인하고 정기적인 패치를 예약하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E624" s="18" t="n"/>
-      <c r="F624" s="18" t="n"/>
+      <c r="F624" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H624" s="18" t="n"/>
-      <c r="I624" s="13" t="n"/>
-      <c r="J624" s="13" t="n"/>
+      <c r="I624" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J624" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K624" s="19" t="n"/>
-      <c r="L624" s="19" t="n"/>
+      <c r="L624" s="19" t="inlineStr">
+        <is>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+        </is>
+      </c>
       <c r="M624" s="20" t="n"/>
       <c r="N624" s="20" t="n"/>
       <c r="O624" s="20" t="n"/>
@@ -30556,17 +32977,54 @@
       <c r="Q624" s="20" t="n"/>
     </row>
     <row r="625">
-      <c r="A625" s="18" t="n"/>
-      <c r="B625" s="18" t="n"/>
-      <c r="C625" s="18" t="n"/>
-      <c r="D625" s="18" t="n"/>
+      <c r="A625" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B625" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C625" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D625" s="18" t="inlineStr">
+        <is>
+          <t>SAP Landscape Management(LaMa)를 사용하여 SAP Basis 운영을 최적화하고 관리합니다. Azure용 SAP LaMa 커넥터를 사용하여 SAP 시스템을 재배치, 복사, 복제 및 새로 고칩니다.</t>
+        </is>
+      </c>
       <c r="E625" s="18" t="n"/>
-      <c r="F625" s="18" t="n"/>
+      <c r="F625" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H625" s="18" t="n"/>
-      <c r="I625" s="13" t="n"/>
-      <c r="J625" s="13" t="n"/>
+      <c r="I625" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J625" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K625" s="19" t="n"/>
-      <c r="L625" s="19" t="n"/>
+      <c r="L625" s="19" t="inlineStr">
+        <is>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+        </is>
+      </c>
       <c r="M625" s="20" t="n"/>
       <c r="N625" s="20" t="n"/>
       <c r="O625" s="20" t="n"/>
@@ -30574,17 +33032,54 @@
       <c r="Q625" s="20" t="n"/>
     </row>
     <row r="626">
-      <c r="A626" s="18" t="n"/>
-      <c r="B626" s="18" t="n"/>
-      <c r="C626" s="18" t="n"/>
-      <c r="D626" s="18" t="n"/>
+      <c r="A626" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B626" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C626" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D626" s="18" t="inlineStr">
+        <is>
+          <t>SAP용 Azure Monitor 솔루션을 사용하여 Azure에서 SAP 워크로드(SAP HANA, 고가용성 SUSE 클러스터 및 SQL 시스템)를 모니터링합니다. SAP Solution Manager를 사용하여 SAP용 Azure Monitor 솔루션을 보완하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E626" s="18" t="n"/>
-      <c r="F626" s="18" t="n"/>
+      <c r="F626" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H626" s="18" t="n"/>
-      <c r="I626" s="13" t="n"/>
-      <c r="J626" s="13" t="n"/>
+      <c r="I626" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J626" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K626" s="19" t="n"/>
-      <c r="L626" s="19" t="n"/>
+      <c r="L626" s="19" t="inlineStr">
+        <is>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+        </is>
+      </c>
       <c r="M626" s="20" t="n"/>
       <c r="N626" s="20" t="n"/>
       <c r="O626" s="20" t="n"/>
@@ -30592,17 +33087,54 @@
       <c r="Q626" s="20" t="n"/>
     </row>
     <row r="627">
-      <c r="A627" s="18" t="n"/>
-      <c r="B627" s="18" t="n"/>
-      <c r="C627" s="18" t="n"/>
-      <c r="D627" s="18" t="n"/>
+      <c r="A627" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B627" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C627" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D627" s="18" t="inlineStr">
+        <is>
+          <t>SAP용 VM 확장 검사를 실행합니다. SAP용 VM 확장은 VM(가상 머신)의 할당된 관리 ID를 사용하여 VM 모니터링 및 구성 데이터에 액세스합니다. 이 검사는 SAP 애플리케이션의 모든 성능 메트릭이 기본 SAP용 Azure 확장에서 제공되는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E627" s="18" t="n"/>
-      <c r="F627" s="18" t="n"/>
+      <c r="F627" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H627" s="18" t="n"/>
-      <c r="I627" s="13" t="n"/>
-      <c r="J627" s="13" t="n"/>
+      <c r="I627" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J627" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K627" s="19" t="n"/>
-      <c r="L627" s="19" t="n"/>
+      <c r="L627" s="19" t="inlineStr">
+        <is>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+        </is>
+      </c>
       <c r="M627" s="20" t="n"/>
       <c r="N627" s="20" t="n"/>
       <c r="O627" s="20" t="n"/>
@@ -30610,17 +33142,54 @@
       <c r="Q627" s="20" t="n"/>
     </row>
     <row r="628">
-      <c r="A628" s="18" t="n"/>
-      <c r="B628" s="18" t="n"/>
-      <c r="C628" s="18" t="n"/>
-      <c r="D628" s="18" t="n"/>
+      <c r="A628" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B628" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C628" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D628" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+        </is>
+      </c>
       <c r="E628" s="18" t="n"/>
-      <c r="F628" s="18" t="n"/>
+      <c r="F628" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H628" s="18" t="n"/>
-      <c r="I628" s="13" t="n"/>
-      <c r="J628" s="13" t="n"/>
+      <c r="I628" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J628" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="K628" s="19" t="n"/>
-      <c r="L628" s="19" t="n"/>
+      <c r="L628" s="19" t="inlineStr">
+        <is>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+        </is>
+      </c>
       <c r="M628" s="20" t="n"/>
       <c r="N628" s="20" t="n"/>
       <c r="O628" s="20" t="n"/>
@@ -30628,17 +33197,54 @@
       <c r="Q628" s="20" t="n"/>
     </row>
     <row r="629">
-      <c r="A629" s="18" t="n"/>
-      <c r="B629" s="18" t="n"/>
-      <c r="C629" s="18" t="n"/>
-      <c r="D629" s="18" t="n"/>
+      <c r="A629" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B629" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C629" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D629" s="18" t="inlineStr">
+        <is>
+          <t>Azure Network Watcher의 연결 모니터를 사용하여 SAP 데이터베이스 및 애플리케이션 서버에 대한 대기 시간 메트릭을 모니터링합니다. 또는 Azure Monitor를 사용하여 네트워크 대기 시간 측정값을 수집하고 표시합니다.</t>
+        </is>
+      </c>
       <c r="E629" s="18" t="n"/>
-      <c r="F629" s="18" t="n"/>
+      <c r="F629" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H629" s="18" t="n"/>
-      <c r="I629" s="13" t="n"/>
-      <c r="J629" s="13" t="n"/>
+      <c r="I629" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J629" s="31" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+        </is>
+      </c>
       <c r="K629" s="19" t="n"/>
-      <c r="L629" s="19" t="n"/>
+      <c r="L629" s="19" t="inlineStr">
+        <is>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+        </is>
+      </c>
       <c r="M629" s="20" t="n"/>
       <c r="N629" s="20" t="n"/>
       <c r="O629" s="20" t="n"/>
@@ -30646,17 +33252,50 @@
       <c r="Q629" s="20" t="n"/>
     </row>
     <row r="630">
-      <c r="A630" s="18" t="n"/>
-      <c r="B630" s="18" t="n"/>
-      <c r="C630" s="18" t="n"/>
-      <c r="D630" s="18" t="n"/>
+      <c r="A630" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B630" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C630" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D630" s="18" t="inlineStr">
+        <is>
+          <t>프로비저닝된 Azure 인프라에서 SAP HANA에 대한 품질 검사를 수행하여 프로비저닝된 VM이 Azure의 SAP HANA 모범 사례를 준수하는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E630" s="18" t="n"/>
-      <c r="F630" s="18" t="n"/>
+      <c r="F630" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H630" s="18" t="n"/>
-      <c r="I630" s="13" t="n"/>
+      <c r="I630" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J630" s="13" t="n"/>
       <c r="K630" s="19" t="n"/>
-      <c r="L630" s="19" t="n"/>
+      <c r="L630" s="19" t="inlineStr">
+        <is>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+        </is>
+      </c>
       <c r="M630" s="20" t="n"/>
       <c r="N630" s="20" t="n"/>
       <c r="O630" s="20" t="n"/>
@@ -30664,17 +33303,54 @@
       <c r="Q630" s="20" t="n"/>
     </row>
     <row r="631">
-      <c r="A631" s="18" t="n"/>
-      <c r="B631" s="18" t="n"/>
-      <c r="C631" s="18" t="n"/>
-      <c r="D631" s="18" t="n"/>
+      <c r="A631" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B631" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C631" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D631" s="18" t="inlineStr">
+        <is>
+          <t>각 Azure 구독에 대해 영역 배포 전에 Azure 가용성 영역에서 대기 시간 테스트를 실행하여 Azure에서 SAP를 배포하기 위한 대기 시간이 짧은 영역을 선택합니다.</t>
+        </is>
+      </c>
       <c r="E631" s="18" t="n"/>
-      <c r="F631" s="18" t="n"/>
+      <c r="F631" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H631" s="18" t="n"/>
-      <c r="I631" s="13" t="n"/>
-      <c r="J631" s="13" t="n"/>
+      <c r="I631" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J631" s="31" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
+        </is>
+      </c>
       <c r="K631" s="19" t="n"/>
-      <c r="L631" s="19" t="n"/>
+      <c r="L631" s="19" t="inlineStr">
+        <is>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+        </is>
+      </c>
       <c r="M631" s="20" t="n"/>
       <c r="N631" s="20" t="n"/>
       <c r="O631" s="20" t="n"/>
@@ -30682,17 +33358,54 @@
       <c r="Q631" s="20" t="n"/>
     </row>
     <row r="632">
-      <c r="A632" s="18" t="n"/>
-      <c r="B632" s="18" t="n"/>
-      <c r="C632" s="18" t="n"/>
-      <c r="D632" s="18" t="n"/>
+      <c r="A632" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B632" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C632" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D632" s="18" t="inlineStr">
+        <is>
+          <t>복원력 보고서를 실행하여 프로비저닝된 전체 Azure 인프라(컴퓨팅, 데이터베이스, 네트워킹, 스토리지, Site Recovery)의 구성이 Azure용 클라우드 적응 프레임워크에서 정의한 구성을 준수하는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E632" s="18" t="n"/>
-      <c r="F632" s="18" t="n"/>
+      <c r="F632" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H632" s="18" t="n"/>
-      <c r="I632" s="13" t="n"/>
-      <c r="J632" s="13" t="n"/>
+      <c r="I632" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J632" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
+        </is>
+      </c>
       <c r="K632" s="19" t="n"/>
-      <c r="L632" s="19" t="n"/>
+      <c r="L632" s="19" t="inlineStr">
+        <is>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+        </is>
+      </c>
       <c r="M632" s="20" t="n"/>
       <c r="N632" s="20" t="n"/>
       <c r="O632" s="20" t="n"/>
@@ -30700,17 +33413,54 @@
       <c r="Q632" s="20" t="n"/>
     </row>
     <row r="633">
-      <c r="A633" s="18" t="n"/>
-      <c r="B633" s="18" t="n"/>
-      <c r="C633" s="18" t="n"/>
-      <c r="D633" s="18" t="n"/>
+      <c r="A633" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B633" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C633" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D633" s="18" t="inlineStr">
+        <is>
+          <t>SAP용 Microsoft Sentinel 솔루션을 사용하여 위협 방지를 구현합니다. 이 솔루션을 사용하여 SAP 시스템을 모니터링하고 비즈니스 로직 및 애플리케이션 계층 전체에서 정교한 위협을 탐지할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E633" s="18" t="n"/>
-      <c r="F633" s="18" t="n"/>
+      <c r="F633" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H633" s="18" t="n"/>
-      <c r="I633" s="13" t="n"/>
-      <c r="J633" s="13" t="n"/>
+      <c r="I633" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J633" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K633" s="19" t="n"/>
-      <c r="L633" s="19" t="n"/>
+      <c r="L633" s="19" t="inlineStr">
+        <is>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+        </is>
+      </c>
       <c r="M633" s="20" t="n"/>
       <c r="N633" s="20" t="n"/>
       <c r="O633" s="20" t="n"/>
@@ -30718,17 +33468,54 @@
       <c r="Q633" s="20" t="n"/>
     </row>
     <row r="634">
-      <c r="A634" s="18" t="n"/>
-      <c r="B634" s="18" t="n"/>
-      <c r="C634" s="18" t="n"/>
-      <c r="D634" s="18" t="n"/>
+      <c r="A634" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B634" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C634" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D634" s="18" t="inlineStr">
+        <is>
+          <t>Azure 태그 지정을 활용하여 리소스를 논리적으로 그룹화 및 추적하고, 배포를 자동화하고, 가장 중요한 것은 발생한 비용에 대한 가시성을 제공할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E634" s="18" t="n"/>
-      <c r="F634" s="18" t="n"/>
+      <c r="F634" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H634" s="18" t="n"/>
-      <c r="I634" s="13" t="n"/>
-      <c r="J634" s="13" t="n"/>
+      <c r="I634" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J634" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K634" s="19" t="n"/>
-      <c r="L634" s="19" t="n"/>
+      <c r="L634" s="19" t="inlineStr">
+        <is>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+        </is>
+      </c>
       <c r="M634" s="20" t="n"/>
       <c r="N634" s="20" t="n"/>
       <c r="O634" s="20" t="n"/>
@@ -30736,17 +33523,50 @@
       <c r="Q634" s="20" t="n"/>
     </row>
     <row r="635">
-      <c r="A635" s="18" t="n"/>
-      <c r="B635" s="18" t="n"/>
-      <c r="C635" s="18" t="n"/>
-      <c r="D635" s="18" t="n"/>
+      <c r="A635" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B635" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C635" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D635" s="18" t="inlineStr">
+        <is>
+          <t>대기 시간에 민감한 애플리케이션에 대해 VM 간 대기 시간 모니터링을 사용합니다.</t>
+        </is>
+      </c>
       <c r="E635" s="18" t="n"/>
-      <c r="F635" s="18" t="n"/>
+      <c r="F635" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H635" s="18" t="n"/>
-      <c r="I635" s="13" t="n"/>
+      <c r="I635" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J635" s="13" t="n"/>
       <c r="K635" s="19" t="n"/>
-      <c r="L635" s="19" t="n"/>
+      <c r="L635" s="19" t="inlineStr">
+        <is>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+        </is>
+      </c>
       <c r="M635" s="20" t="n"/>
       <c r="N635" s="20" t="n"/>
       <c r="O635" s="20" t="n"/>
@@ -30754,17 +33574,54 @@
       <c r="Q635" s="20" t="n"/>
     </row>
     <row r="636">
-      <c r="A636" s="18" t="n"/>
-      <c r="B636" s="18" t="n"/>
-      <c r="C636" s="18" t="n"/>
-      <c r="D636" s="18" t="n"/>
+      <c r="A636" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B636" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C636" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D636" s="18" t="inlineStr">
+        <is>
+          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
+        </is>
+      </c>
       <c r="E636" s="18" t="n"/>
-      <c r="F636" s="18" t="n"/>
+      <c r="F636" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H636" s="18" t="n"/>
-      <c r="I636" s="13" t="n"/>
-      <c r="J636" s="13" t="n"/>
+      <c r="I636" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J636" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K636" s="19" t="n"/>
-      <c r="L636" s="19" t="n"/>
+      <c r="L636" s="19" t="inlineStr">
+        <is>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+        </is>
+      </c>
       <c r="M636" s="20" t="n"/>
       <c r="N636" s="20" t="n"/>
       <c r="O636" s="20" t="n"/>
@@ -30772,17 +33629,50 @@
       <c r="Q636" s="20" t="n"/>
     </row>
     <row r="637">
-      <c r="A637" s="18" t="n"/>
-      <c r="B637" s="18" t="n"/>
-      <c r="C637" s="18" t="n"/>
-      <c r="D637" s="18" t="n"/>
+      <c r="A637" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B637" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C637" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D637" s="18" t="inlineStr">
+        <is>
+          <t>모든 데이터베이스 파일 시스템 및 실행 프로그램을 바이러스 백신 검사에서 제외합니다. 이를 포함하면 성능 문제가 발생할 수 있습니다. 제외 목록에 대한 규범적 세부 정보는 데이터베이스 공급업체에 문의하십시오. 예를 들어 &lt;sid&gt;Oracle은 바이러스 백신 검사에서 /oracle//sapdata를 제외할 것을 권장합니다.</t>
+        </is>
+      </c>
       <c r="E637" s="18" t="n"/>
-      <c r="F637" s="18" t="n"/>
+      <c r="F637" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H637" s="18" t="n"/>
-      <c r="I637" s="13" t="n"/>
+      <c r="I637" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J637" s="13" t="n"/>
       <c r="K637" s="19" t="n"/>
-      <c r="L637" s="19" t="n"/>
+      <c r="L637" s="19" t="inlineStr">
+        <is>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+        </is>
+      </c>
       <c r="M637" s="20" t="n"/>
       <c r="N637" s="20" t="n"/>
       <c r="O637" s="20" t="n"/>
@@ -30790,17 +33680,50 @@
       <c r="Q637" s="20" t="n"/>
     </row>
     <row r="638">
-      <c r="A638" s="18" t="n"/>
-      <c r="B638" s="18" t="n"/>
-      <c r="C638" s="18" t="n"/>
-      <c r="D638" s="18" t="n"/>
+      <c r="A638" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B638" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C638" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D638" s="18" t="inlineStr">
+        <is>
+          <t>마이그레이션 후 비 HANA 데이터베이스에 대한 전체 데이터베이스 통계를 수집하는 것이 좋습니다. 예를 들어 SAP Note 1020260 - Oracle 통계 제공을 구현합니다.</t>
+        </is>
+      </c>
       <c r="E638" s="18" t="n"/>
-      <c r="F638" s="18" t="n"/>
+      <c r="F638" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H638" s="18" t="n"/>
-      <c r="I638" s="13" t="n"/>
+      <c r="I638" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J638" s="13" t="n"/>
       <c r="K638" s="19" t="n"/>
-      <c r="L638" s="19" t="n"/>
+      <c r="L638" s="19" t="inlineStr">
+        <is>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+        </is>
+      </c>
       <c r="M638" s="20" t="n"/>
       <c r="N638" s="20" t="n"/>
       <c r="O638" s="20" t="n"/>
@@ -30808,17 +33731,54 @@
       <c r="Q638" s="20" t="n"/>
     </row>
     <row r="639">
-      <c r="A639" s="18" t="n"/>
-      <c r="B639" s="18" t="n"/>
-      <c r="C639" s="18" t="n"/>
-      <c r="D639" s="18" t="n"/>
+      <c r="A639" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B639" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C639" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D639" s="18" t="inlineStr">
+        <is>
+          <t>Azure에서 SAP를 사용하는 모든 Oracle 배포에 Oracle ASM(Automatic Storage Management)을 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E639" s="18" t="n"/>
-      <c r="F639" s="18" t="n"/>
+      <c r="F639" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H639" s="18" t="n"/>
-      <c r="I639" s="13" t="n"/>
-      <c r="J639" s="13" t="n"/>
+      <c r="I639" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J639" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K639" s="19" t="n"/>
-      <c r="L639" s="19" t="n"/>
+      <c r="L639" s="19" t="inlineStr">
+        <is>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+        </is>
+      </c>
       <c r="M639" s="20" t="n"/>
       <c r="N639" s="20" t="n"/>
       <c r="O639" s="20" t="n"/>
@@ -30826,17 +33786,54 @@
       <c r="Q639" s="20" t="n"/>
     </row>
     <row r="640">
-      <c r="A640" s="18" t="n"/>
-      <c r="B640" s="18" t="n"/>
-      <c r="C640" s="18" t="n"/>
-      <c r="D640" s="18" t="n"/>
+      <c r="A640" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B640" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C640" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D640" s="18" t="inlineStr">
+        <is>
+          <t>Oracle을 실행하는 Azure의 SAP의 경우 SQL 스크립트 컬렉션은 성능 문제를 진단하는 데 도움이 될 수 있습니다.  AWR(Automatic Workload Repository) 보고서에는 Oracle 시스템의 문제점을 진단하는 데 유용한 정보가 포함되어 있습니다. 여러 세션 동안 AWR 보고서를 실행하고 피크 시간을 선택하여 광범위한 분석 범위를 보장하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E640" s="18" t="n"/>
-      <c r="F640" s="18" t="n"/>
+      <c r="F640" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H640" s="18" t="n"/>
-      <c r="I640" s="13" t="n"/>
-      <c r="J640" s="13" t="n"/>
+      <c r="I640" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J640" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
+        </is>
+      </c>
       <c r="K640" s="19" t="n"/>
-      <c r="L640" s="19" t="n"/>
+      <c r="L640" s="19" t="inlineStr">
+        <is>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+        </is>
+      </c>
       <c r="M640" s="20" t="n"/>
       <c r="N640" s="20" t="n"/>
       <c r="O640" s="20" t="n"/>
@@ -30844,17 +33841,54 @@
       <c r="Q640" s="20" t="n"/>
     </row>
     <row r="641">
-      <c r="A641" s="18" t="n"/>
-      <c r="B641" s="18" t="n"/>
-      <c r="C641" s="18" t="n"/>
-      <c r="D641" s="18" t="n"/>
+      <c r="A641" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B641" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C641" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D641" s="18" t="inlineStr">
+        <is>
+          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
+        </is>
+      </c>
       <c r="E641" s="18" t="n"/>
-      <c r="F641" s="18" t="n"/>
+      <c r="F641" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H641" s="18" t="n"/>
-      <c r="I641" s="13" t="n"/>
-      <c r="J641" s="13" t="n"/>
+      <c r="I641" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J641" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K641" s="19" t="n"/>
-      <c r="L641" s="19" t="n"/>
+      <c r="L641" s="19" t="inlineStr">
+        <is>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+        </is>
+      </c>
       <c r="M641" s="20" t="n"/>
       <c r="N641" s="20" t="n"/>
       <c r="O641" s="20" t="n"/>
@@ -30862,17 +33896,54 @@
       <c r="Q641" s="20" t="n"/>
     </row>
     <row r="642">
-      <c r="A642" s="18" t="n"/>
-      <c r="B642" s="18" t="n"/>
-      <c r="C642" s="18" t="n"/>
-      <c r="D642" s="18" t="n"/>
+      <c r="A642" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B642" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C642" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D642" s="18" t="inlineStr">
+        <is>
+          <t>HTTP/S 앱을 안전하게 배달하려면 Application Gateway v2를 사용하고 WAF 보호 및 정책이 사용하도록 설정되어 있는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E642" s="18" t="n"/>
-      <c r="F642" s="18" t="n"/>
+      <c r="F642" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H642" s="18" t="n"/>
-      <c r="I642" s="13" t="n"/>
-      <c r="J642" s="13" t="n"/>
+      <c r="I642" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J642" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+        </is>
+      </c>
       <c r="K642" s="19" t="n"/>
-      <c r="L642" s="19" t="n"/>
+      <c r="L642" s="19" t="inlineStr">
+        <is>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+        </is>
+      </c>
       <c r="M642" s="20" t="n"/>
       <c r="N642" s="20" t="n"/>
       <c r="O642" s="20" t="n"/>
@@ -30880,17 +33951,54 @@
       <c r="Q642" s="20" t="n"/>
     </row>
     <row r="643">
-      <c r="A643" s="18" t="n"/>
-      <c r="B643" s="18" t="n"/>
-      <c r="C643" s="18" t="n"/>
-      <c r="D643" s="18" t="n"/>
+      <c r="A643" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B643" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C643" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D643" s="18" t="inlineStr">
+        <is>
+          <t>Azure로 마이그레이션하는 동안 가상 머신의 DNS 또는 가상 이름이 변경되지 않은 경우 백그라운드 DNS 및 가상 이름은 SAP 환경의 많은 시스템 인터페이스를 연결하며, 고객은 시간이 지남에 따라 개발자가 정의하는 인터페이스를 인식하는 경우에만 인식할 수 있습니다. 마이그레이션 후 가상 또는 DNS 이름이 변경될 때 다양한 시스템 간에 연결 문제가 발생하며, 이러한 유형의 문제를 방지하기 위해 DNS 별칭을 유지하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E643" s="18" t="n"/>
-      <c r="F643" s="18" t="n"/>
+      <c r="F643" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H643" s="18" t="n"/>
-      <c r="I643" s="13" t="n"/>
-      <c r="J643" s="13" t="n"/>
+      <c r="I643" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J643" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+        </is>
+      </c>
       <c r="K643" s="19" t="n"/>
-      <c r="L643" s="19" t="n"/>
+      <c r="L643" s="19" t="inlineStr">
+        <is>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+        </is>
+      </c>
       <c r="M643" s="20" t="n"/>
       <c r="N643" s="20" t="n"/>
       <c r="O643" s="20" t="n"/>
@@ -30898,17 +34006,54 @@
       <c r="Q643" s="20" t="n"/>
     </row>
     <row r="644">
-      <c r="A644" s="18" t="n"/>
-      <c r="B644" s="18" t="n"/>
-      <c r="C644" s="18" t="n"/>
-      <c r="D644" s="18" t="n"/>
+      <c r="A644" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B644" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C644" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D644" s="18" t="inlineStr">
+        <is>
+          <t>서로 다른 DNS 영역을 사용하여 각 환경(샌드박스, 개발, 사전 프로덕션 및 프로덕션)을 서로 구분합니다. 예외는 자체 VNet을 사용하는 SAP 배포의 경우입니다. 여기서는 프라이빗 DNS 영역이 필요하지 않을 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E644" s="18" t="n"/>
-      <c r="F644" s="18" t="n"/>
+      <c r="F644" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H644" s="18" t="n"/>
-      <c r="I644" s="13" t="n"/>
-      <c r="J644" s="13" t="n"/>
+      <c r="I644" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J644" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+        </is>
+      </c>
       <c r="K644" s="19" t="n"/>
-      <c r="L644" s="19" t="n"/>
+      <c r="L644" s="19" t="inlineStr">
+        <is>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+        </is>
+      </c>
       <c r="M644" s="20" t="n"/>
       <c r="N644" s="20" t="n"/>
       <c r="O644" s="20" t="n"/>
@@ -30916,17 +34061,54 @@
       <c r="Q644" s="20" t="n"/>
     </row>
     <row r="645">
-      <c r="A645" s="18" t="n"/>
-      <c r="B645" s="18" t="n"/>
-      <c r="C645" s="18" t="n"/>
-      <c r="D645" s="18" t="n"/>
+      <c r="A645" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B645" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C645" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D645" s="18" t="inlineStr">
+        <is>
+          <t>로컬 및 글로벌 VNet 피어링은 연결을 제공하며, 여러 Azure 지역에서 SAP 배포를 위한 랜딩 존 간의 연결을 보장하기 위해 선호되는 접근 방식입니다</t>
+        </is>
+      </c>
       <c r="E645" s="18" t="n"/>
-      <c r="F645" s="18" t="n"/>
+      <c r="F645" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H645" s="18" t="n"/>
-      <c r="I645" s="13" t="n"/>
-      <c r="J645" s="13" t="n"/>
+      <c r="I645" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J645" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K645" s="19" t="n"/>
-      <c r="L645" s="19" t="n"/>
+      <c r="L645" s="19" t="inlineStr">
+        <is>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+        </is>
+      </c>
       <c r="M645" s="20" t="n"/>
       <c r="N645" s="20" t="n"/>
       <c r="O645" s="20" t="n"/>
@@ -30934,17 +34116,54 @@
       <c r="Q645" s="20" t="n"/>
     </row>
     <row r="646">
-      <c r="A646" s="18" t="n"/>
-      <c r="B646" s="18" t="n"/>
-      <c r="C646" s="18" t="n"/>
-      <c r="D646" s="18" t="n"/>
+      <c r="A646" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B646" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C646" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D646" s="18" t="inlineStr">
+        <is>
+          <t>SAP 애플리케이션과 SAP 데이터베이스 서버 간에 NVA를 배포하는 것은 지원되지 않습니다</t>
+        </is>
+      </c>
       <c r="E646" s="18" t="n"/>
-      <c r="F646" s="18" t="n"/>
+      <c r="F646" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H646" s="18" t="n"/>
-      <c r="I646" s="13" t="n"/>
-      <c r="J646" s="13" t="n"/>
+      <c r="I646" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J646" s="31" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/2731110</t>
+        </is>
+      </c>
       <c r="K646" s="19" t="n"/>
-      <c r="L646" s="19" t="n"/>
+      <c r="L646" s="19" t="inlineStr">
+        <is>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+        </is>
+      </c>
       <c r="M646" s="20" t="n"/>
       <c r="N646" s="20" t="n"/>
       <c r="O646" s="20" t="n"/>
@@ -30952,17 +34171,54 @@
       <c r="Q646" s="20" t="n"/>
     </row>
     <row r="647">
-      <c r="A647" s="18" t="n"/>
-      <c r="B647" s="18" t="n"/>
-      <c r="C647" s="18" t="n"/>
-      <c r="D647" s="18" t="n"/>
+      <c r="A647" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B647" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C647" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D647" s="18" t="inlineStr">
+        <is>
+          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E647" s="18" t="n"/>
-      <c r="F647" s="18" t="n"/>
+      <c r="F647" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H647" s="18" t="n"/>
-      <c r="I647" s="13" t="n"/>
-      <c r="J647" s="13" t="n"/>
+      <c r="I647" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J647" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
       <c r="K647" s="19" t="n"/>
-      <c r="L647" s="19" t="n"/>
+      <c r="L647" s="19" t="inlineStr">
+        <is>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+        </is>
+      </c>
       <c r="M647" s="20" t="n"/>
       <c r="N647" s="20" t="n"/>
       <c r="O647" s="20" t="n"/>
@@ -30970,17 +34226,54 @@
       <c r="Q647" s="20" t="n"/>
     </row>
     <row r="648">
-      <c r="A648" s="18" t="n"/>
-      <c r="B648" s="18" t="n"/>
-      <c r="C648" s="18" t="n"/>
-      <c r="D648" s="18" t="n"/>
+      <c r="A648" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B648" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C648" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D648" s="18" t="inlineStr">
+        <is>
+          <t>파트너 NVA를 사용하는 경우에만 지역 간에 NVA(네트워크 가상 어플라이언스)를 배포하는 것이 좋습니다. 네이티브 NVA가 있는 경우 지역 또는 VNet 간의 NVA가 필요하지 않습니다. 파트너 네트워킹 기술 및 NVA를 배포하는 경우 공급업체의 지침에 따라 Azure 네트워킹과 충돌하는 구성을 확인합니다.</t>
+        </is>
+      </c>
       <c r="E648" s="18" t="n"/>
-      <c r="F648" s="18" t="n"/>
+      <c r="F648" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H648" s="18" t="n"/>
-      <c r="I648" s="13" t="n"/>
-      <c r="J648" s="13" t="n"/>
+      <c r="I648" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J648" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K648" s="19" t="n"/>
-      <c r="L648" s="19" t="n"/>
+      <c r="L648" s="19" t="inlineStr">
+        <is>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+        </is>
+      </c>
       <c r="M648" s="20" t="n"/>
       <c r="N648" s="20" t="n"/>
       <c r="O648" s="20" t="n"/>
@@ -30988,17 +34281,54 @@
       <c r="Q648" s="20" t="n"/>
     </row>
     <row r="649">
-      <c r="A649" s="18" t="n"/>
-      <c r="B649" s="18" t="n"/>
-      <c r="C649" s="18" t="n"/>
-      <c r="D649" s="18" t="n"/>
+      <c r="A649" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B649" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C649" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D649" s="18" t="inlineStr">
+        <is>
+          <t>Virtual WAN은 가상 WAN 기반 토폴로지에 대한 스포크 VNet 간의 연결을 관리하며(UDR[사용자 정의 라우팅] 또는 NVA를 설정할 필요 없음) 동일한 가상 허브의 VNet 간 트래픽에 대한 최대 네트워크 처리량은 초당 50기가비트입니다. 필요한 경우 SAP 랜딩 존은 VNet 피어링을 사용하여 다른 랜딩 존에 연결하고 이 대역폭 제한을 극복할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E649" s="18" t="n"/>
-      <c r="F649" s="18" t="n"/>
+      <c r="F649" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H649" s="18" t="n"/>
-      <c r="I649" s="13" t="n"/>
-      <c r="J649" s="13" t="n"/>
+      <c r="I649" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J649" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K649" s="19" t="n"/>
-      <c r="L649" s="19" t="n"/>
+      <c r="L649" s="19" t="inlineStr">
+        <is>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+        </is>
+      </c>
       <c r="M649" s="20" t="n"/>
       <c r="N649" s="20" t="n"/>
       <c r="O649" s="20" t="n"/>
@@ -31006,17 +34336,54 @@
       <c r="Q649" s="20" t="n"/>
     </row>
     <row r="650">
-      <c r="A650" s="18" t="n"/>
-      <c r="B650" s="18" t="n"/>
-      <c r="C650" s="18" t="n"/>
-      <c r="D650" s="18" t="n"/>
+      <c r="A650" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B650" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C650" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D650" s="18" t="inlineStr">
+        <is>
+          <t>SAP 워크로드를 실행하는 VM에 대한 공용 IP 할당은 권장되지 않습니다.</t>
+        </is>
+      </c>
       <c r="E650" s="18" t="n"/>
-      <c r="F650" s="18" t="n"/>
+      <c r="F650" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H650" s="18" t="n"/>
-      <c r="I650" s="13" t="n"/>
-      <c r="J650" s="13" t="n"/>
+      <c r="I650" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J650" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K650" s="19" t="n"/>
-      <c r="L650" s="19" t="n"/>
+      <c r="L650" s="19" t="inlineStr">
+        <is>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+        </is>
+      </c>
       <c r="M650" s="20" t="n"/>
       <c r="N650" s="20" t="n"/>
       <c r="O650" s="20" t="n"/>
@@ -31024,17 +34391,54 @@
       <c r="Q650" s="20" t="n"/>
     </row>
     <row r="651">
-      <c r="A651" s="18" t="n"/>
-      <c r="B651" s="18" t="n"/>
-      <c r="C651" s="18" t="n"/>
-      <c r="D651" s="18" t="n"/>
+      <c r="A651" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B651" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C651" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D651" s="18" t="inlineStr">
+        <is>
+          <t>ASR을 구성할 때 DR 쪽에서 IP 주소를 예약하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E651" s="18" t="n"/>
-      <c r="F651" s="18" t="n"/>
+      <c r="F651" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H651" s="18" t="n"/>
-      <c r="I651" s="13" t="n"/>
-      <c r="J651" s="13" t="n"/>
+      <c r="I651" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J651" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="K651" s="19" t="n"/>
-      <c r="L651" s="19" t="n"/>
+      <c r="L651" s="19" t="inlineStr">
+        <is>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+        </is>
+      </c>
       <c r="M651" s="20" t="n"/>
       <c r="N651" s="20" t="n"/>
       <c r="O651" s="20" t="n"/>
@@ -31042,17 +34446,54 @@
       <c r="Q651" s="20" t="n"/>
     </row>
     <row r="652">
-      <c r="A652" s="18" t="n"/>
-      <c r="B652" s="18" t="n"/>
-      <c r="C652" s="18" t="n"/>
-      <c r="D652" s="18" t="n"/>
+      <c r="A652" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B652" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C652" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D652" s="18" t="inlineStr">
+        <is>
+          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+        </is>
+      </c>
       <c r="E652" s="18" t="n"/>
-      <c r="F652" s="18" t="n"/>
+      <c r="F652" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H652" s="18" t="n"/>
-      <c r="I652" s="13" t="n"/>
-      <c r="J652" s="13" t="n"/>
+      <c r="I652" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J652" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K652" s="19" t="n"/>
-      <c r="L652" s="19" t="n"/>
+      <c r="L652" s="19" t="inlineStr">
+        <is>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+        </is>
+      </c>
       <c r="M652" s="20" t="n"/>
       <c r="N652" s="20" t="n"/>
       <c r="O652" s="20" t="n"/>
@@ -31060,17 +34501,54 @@
       <c r="Q652" s="20" t="n"/>
     </row>
     <row r="653">
-      <c r="A653" s="18" t="n"/>
-      <c r="B653" s="18" t="n"/>
-      <c r="C653" s="18" t="n"/>
-      <c r="D653" s="18" t="n"/>
+      <c r="A653" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B653" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C653" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D653" s="18" t="inlineStr">
+        <is>
+          <t>Azure는 VNet에서 여러 위임된 서브넷을 만드는 데 도움이 되지만 Azure NetApp Files용 VNet에는 위임된 서브넷이 하나만 존재할 수 있습니다. Azure NetApp Files에 대해 둘 이상의 위임된 서브넷을 사용하는 경우 새 볼륨을 만들려는 시도가 실패합니다.</t>
+        </is>
+      </c>
       <c r="E653" s="18" t="n"/>
-      <c r="F653" s="18" t="n"/>
+      <c r="F653" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H653" s="18" t="n"/>
-      <c r="I653" s="13" t="n"/>
-      <c r="J653" s="13" t="n"/>
+      <c r="I653" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J653" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+        </is>
+      </c>
       <c r="K653" s="19" t="n"/>
-      <c r="L653" s="19" t="n"/>
+      <c r="L653" s="19" t="inlineStr">
+        <is>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+        </is>
+      </c>
       <c r="M653" s="20" t="n"/>
       <c r="N653" s="20" t="n"/>
       <c r="O653" s="20" t="n"/>
@@ -31078,17 +34556,54 @@
       <c r="Q653" s="20" t="n"/>
     </row>
     <row r="654">
-      <c r="A654" s="18" t="n"/>
-      <c r="B654" s="18" t="n"/>
-      <c r="C654" s="18" t="n"/>
-      <c r="D654" s="18" t="n"/>
+      <c r="A654" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B654" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C654" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D654" s="18" t="inlineStr">
+        <is>
+          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
+        </is>
+      </c>
       <c r="E654" s="18" t="n"/>
-      <c r="F654" s="18" t="n"/>
+      <c r="F654" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H654" s="18" t="n"/>
-      <c r="I654" s="13" t="n"/>
-      <c r="J654" s="13" t="n"/>
+      <c r="I654" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J654" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K654" s="19" t="n"/>
-      <c r="L654" s="19" t="n"/>
+      <c r="L654" s="19" t="inlineStr">
+        <is>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+        </is>
+      </c>
       <c r="M654" s="20" t="n"/>
       <c r="N654" s="20" t="n"/>
       <c r="O654" s="20" t="n"/>
@@ -31096,17 +34611,54 @@
       <c r="Q654" s="20" t="n"/>
     </row>
     <row r="655">
-      <c r="A655" s="18" t="n"/>
-      <c r="B655" s="18" t="n"/>
-      <c r="C655" s="18" t="n"/>
-      <c r="D655" s="18" t="n"/>
+      <c r="A655" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B655" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C655" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D655" s="18" t="inlineStr">
+        <is>
+          <t>Application Gateway, SAP Web Dispatcher 및 기타 타사 서비스 간의 비교에서 볼 수 있듯이 Application Gateway가 SAP 웹앱에 대한 역방향 프록시 역할을 하는 경우 Application Gateway 및 Web Application Firewall에 제한 사항이 있습니다.</t>
+        </is>
+      </c>
       <c r="E655" s="18" t="n"/>
-      <c r="F655" s="18" t="n"/>
+      <c r="F655" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H655" s="18" t="n"/>
-      <c r="I655" s="13" t="n"/>
-      <c r="J655" s="13" t="n"/>
+      <c r="I655" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J655" s="31" t="inlineStr">
+        <is>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+        </is>
+      </c>
       <c r="K655" s="19" t="n"/>
-      <c r="L655" s="19" t="n"/>
+      <c r="L655" s="19" t="inlineStr">
+        <is>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+        </is>
+      </c>
       <c r="M655" s="20" t="n"/>
       <c r="N655" s="20" t="n"/>
       <c r="O655" s="20" t="n"/>
@@ -31114,17 +34666,54 @@
       <c r="Q655" s="20" t="n"/>
     </row>
     <row r="656">
-      <c r="A656" s="18" t="n"/>
-      <c r="B656" s="18" t="n"/>
-      <c r="C656" s="18" t="n"/>
-      <c r="D656" s="18" t="n"/>
+      <c r="A656" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B656" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C656" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D656" s="18" t="inlineStr">
+        <is>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
+        </is>
+      </c>
       <c r="E656" s="18" t="n"/>
-      <c r="F656" s="18" t="n"/>
+      <c r="F656" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H656" s="18" t="n"/>
-      <c r="I656" s="13" t="n"/>
-      <c r="J656" s="13" t="n"/>
+      <c r="I656" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J656" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="K656" s="19" t="n"/>
-      <c r="L656" s="19" t="n"/>
+      <c r="L656" s="19" t="inlineStr">
+        <is>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+        </is>
+      </c>
       <c r="M656" s="20" t="n"/>
       <c r="N656" s="20" t="n"/>
       <c r="O656" s="20" t="n"/>
@@ -31132,17 +34721,54 @@
       <c r="Q656" s="20" t="n"/>
     </row>
     <row r="657">
-      <c r="A657" s="18" t="n"/>
-      <c r="B657" s="18" t="n"/>
-      <c r="C657" s="18" t="n"/>
-      <c r="D657" s="18" t="n"/>
+      <c r="A657" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B657" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C657" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D657" s="18" t="inlineStr">
+        <is>
+          <t>Azure Front Door 및 Application Gateway를 사용하여 HTTP/S 애플리케이션을 보호하는 경우 Azure Front Door의 Web Application Firewall 정책을 활용합니다. Azure Front Door에서만 트래픽을 수신하도록 Application Gateway를 잠급니다.</t>
+        </is>
+      </c>
       <c r="E657" s="18" t="n"/>
-      <c r="F657" s="18" t="n"/>
+      <c r="F657" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H657" s="18" t="n"/>
-      <c r="I657" s="13" t="n"/>
-      <c r="J657" s="13" t="n"/>
+      <c r="I657" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J657" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K657" s="19" t="n"/>
-      <c r="L657" s="19" t="n"/>
+      <c r="L657" s="19" t="inlineStr">
+        <is>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+        </is>
+      </c>
       <c r="M657" s="20" t="n"/>
       <c r="N657" s="20" t="n"/>
       <c r="O657" s="20" t="n"/>
@@ -31150,17 +34776,54 @@
       <c r="Q657" s="20" t="n"/>
     </row>
     <row r="658">
-      <c r="A658" s="18" t="n"/>
-      <c r="B658" s="18" t="n"/>
-      <c r="C658" s="18" t="n"/>
-      <c r="D658" s="18" t="n"/>
+      <c r="A658" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B658" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C658" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D658" s="18" t="inlineStr">
+        <is>
+          <t>웹 애플리케이션 방화벽을 사용하여 트래픽이 인터넷에 노출될 때 트래픽을 검사합니다. 또 다른 옵션은 부하 분산 장치 또는 Application Gateway 또는 타사 솔루션과 같은 기본 제공 방화벽 기능이 있는 리소스와 함께 사용하는 것입니다.</t>
+        </is>
+      </c>
       <c r="E658" s="18" t="n"/>
-      <c r="F658" s="18" t="n"/>
+      <c r="F658" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H658" s="18" t="n"/>
-      <c r="I658" s="13" t="n"/>
-      <c r="J658" s="13" t="n"/>
+      <c r="I658" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J658" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K658" s="19" t="n"/>
-      <c r="L658" s="19" t="n"/>
+      <c r="L658" s="19" t="inlineStr">
+        <is>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+        </is>
+      </c>
       <c r="M658" s="20" t="n"/>
       <c r="N658" s="20" t="n"/>
       <c r="O658" s="20" t="n"/>
@@ -31168,17 +34831,54 @@
       <c r="Q658" s="20" t="n"/>
     </row>
     <row r="659">
-      <c r="A659" s="18" t="n"/>
-      <c r="B659" s="18" t="n"/>
-      <c r="C659" s="18" t="n"/>
-      <c r="D659" s="18" t="n"/>
+      <c r="A659" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B659" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C659" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D659" s="18" t="inlineStr">
+        <is>
+          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E659" s="18" t="n"/>
-      <c r="F659" s="18" t="n"/>
+      <c r="F659" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H659" s="18" t="n"/>
-      <c r="I659" s="13" t="n"/>
-      <c r="J659" s="13" t="n"/>
+      <c r="I659" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J659" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+        </is>
+      </c>
       <c r="K659" s="19" t="n"/>
-      <c r="L659" s="19" t="n"/>
+      <c r="L659" s="19" t="inlineStr">
+        <is>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+        </is>
+      </c>
       <c r="M659" s="20" t="n"/>
       <c r="N659" s="20" t="n"/>
       <c r="O659" s="20" t="n"/>
@@ -31186,17 +34886,54 @@
       <c r="Q659" s="20" t="n"/>
     </row>
     <row r="660">
-      <c r="A660" s="18" t="n"/>
-      <c r="B660" s="18" t="n"/>
-      <c r="C660" s="18" t="n"/>
-      <c r="D660" s="18" t="n"/>
+      <c r="A660" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B660" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C660" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D660" s="18" t="inlineStr">
+        <is>
+          <t>데이터 유출을 방지하려면 Azure Private Link를 사용하여 Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory 등과 같은 PaaS(Platform as a Service) 리소스에 안전하게 액세스합니다. Azure 프라이빗 엔드포인트는 VNet과 Azure Storage, Azure Backup 등과 같은 서비스 간의 트래픽을 보호하는 데도 도움이 될 수 있습니다. VNet과 프라이빗 엔드포인트 사용 서비스 간의 트래픽은 Microsoft 글로벌 네트워크를 통해 이동하므로 공용 인터넷에 노출되지 않습니다.</t>
+        </is>
+      </c>
       <c r="E660" s="18" t="n"/>
-      <c r="F660" s="18" t="n"/>
+      <c r="F660" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H660" s="18" t="n"/>
-      <c r="I660" s="13" t="n"/>
-      <c r="J660" s="13" t="n"/>
+      <c r="I660" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J660" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K660" s="19" t="n"/>
-      <c r="L660" s="19" t="n"/>
+      <c r="L660" s="19" t="inlineStr">
+        <is>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+        </is>
+      </c>
       <c r="M660" s="20" t="n"/>
       <c r="N660" s="20" t="n"/>
       <c r="O660" s="20" t="n"/>
@@ -31204,17 +34941,54 @@
       <c r="Q660" s="20" t="n"/>
     </row>
     <row r="661">
-      <c r="A661" s="18" t="n"/>
-      <c r="B661" s="18" t="n"/>
-      <c r="C661" s="18" t="n"/>
-      <c r="D661" s="18" t="n"/>
+      <c r="A661" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B661" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C661" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D661" s="18" t="inlineStr">
+        <is>
+          <t>SAP 애플리케이션 및 DBMS 계층에 사용되는 VM에서 Azure 가속 네트워킹이 사용하도록 설정되어 있는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E661" s="18" t="n"/>
-      <c r="F661" s="18" t="n"/>
+      <c r="F661" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H661" s="18" t="n"/>
-      <c r="I661" s="13" t="n"/>
-      <c r="J661" s="13" t="n"/>
+      <c r="I661" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J661" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K661" s="19" t="n"/>
-      <c r="L661" s="19" t="n"/>
+      <c r="L661" s="19" t="inlineStr">
+        <is>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+        </is>
+      </c>
       <c r="M661" s="20" t="n"/>
       <c r="N661" s="20" t="n"/>
       <c r="O661" s="20" t="n"/>
@@ -31222,17 +34996,54 @@
       <c r="Q661" s="20" t="n"/>
     </row>
     <row r="662">
-      <c r="A662" s="18" t="n"/>
-      <c r="B662" s="18" t="n"/>
-      <c r="C662" s="18" t="n"/>
-      <c r="D662" s="18" t="n"/>
+      <c r="A662" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B662" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C662" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D662" s="18" t="inlineStr">
+        <is>
+          <t>Azure Load Balancer에 대한 내부 배포가 DSR(Direct Server Return)을 사용하도록 설정되어 있는지 확인합니다. 이 설정은 내부 부하 분산 장치 구성이 DBMS 계층의 고가용성 구성에 사용될 때 대기 시간을 줄입니다.</t>
+        </is>
+      </c>
       <c r="E662" s="18" t="n"/>
-      <c r="F662" s="18" t="n"/>
+      <c r="F662" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H662" s="18" t="n"/>
-      <c r="I662" s="13" t="n"/>
-      <c r="J662" s="13" t="n"/>
+      <c r="I662" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J662" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K662" s="19" t="n"/>
-      <c r="L662" s="19" t="n"/>
+      <c r="L662" s="19" t="inlineStr">
+        <is>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+        </is>
+      </c>
       <c r="M662" s="20" t="n"/>
       <c r="N662" s="20" t="n"/>
       <c r="O662" s="20" t="n"/>
@@ -31240,17 +35051,54 @@
       <c r="Q662" s="20" t="n"/>
     </row>
     <row r="663">
-      <c r="A663" s="18" t="n"/>
-      <c r="B663" s="18" t="n"/>
-      <c r="C663" s="18" t="n"/>
-      <c r="D663" s="18" t="n"/>
+      <c r="A663" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B663" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C663" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D663" s="18" t="inlineStr">
+        <is>
+          <t>ASG(애플리케이션 보안 그룹) 및 NSG 규칙을 사용하여 SAP 애플리케이션과 DBMS 계층 간에 네트워크 보안 액세스 제어 목록을 정의할 수 있습니다. ASG는 보안을 관리하는 데 도움이 되도록 가상 머신을 그룹화합니다.</t>
+        </is>
+      </c>
       <c r="E663" s="18" t="n"/>
-      <c r="F663" s="18" t="n"/>
+      <c r="F663" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H663" s="18" t="n"/>
-      <c r="I663" s="13" t="n"/>
-      <c r="J663" s="13" t="n"/>
+      <c r="I663" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J663" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K663" s="19" t="n"/>
-      <c r="L663" s="19" t="n"/>
+      <c r="L663" s="19" t="inlineStr">
+        <is>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+        </is>
+      </c>
       <c r="M663" s="20" t="n"/>
       <c r="N663" s="20" t="n"/>
       <c r="O663" s="20" t="n"/>
@@ -31258,17 +35106,54 @@
       <c r="Q663" s="20" t="n"/>
     </row>
     <row r="664">
-      <c r="A664" s="18" t="n"/>
-      <c r="B664" s="18" t="n"/>
-      <c r="C664" s="18" t="n"/>
-      <c r="D664" s="18" t="n"/>
+      <c r="A664" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B664" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C664" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D664" s="18" t="inlineStr">
+        <is>
+          <t>피어링되지 않은 다른 Azure VNet에 SAP 애플리케이션 계층 및 SAP DBMS를 배치하는 것은 지원되지 않습니다.</t>
+        </is>
+      </c>
       <c r="E664" s="18" t="n"/>
-      <c r="F664" s="18" t="n"/>
+      <c r="F664" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H664" s="18" t="n"/>
-      <c r="I664" s="13" t="n"/>
-      <c r="J664" s="13" t="n"/>
+      <c r="I664" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J664" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="K664" s="19" t="n"/>
-      <c r="L664" s="19" t="n"/>
+      <c r="L664" s="19" t="inlineStr">
+        <is>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+        </is>
+      </c>
       <c r="M664" s="20" t="n"/>
       <c r="N664" s="20" t="n"/>
       <c r="O664" s="20" t="n"/>
@@ -31276,17 +35161,54 @@
       <c r="Q664" s="20" t="n"/>
     </row>
     <row r="665">
-      <c r="A665" s="18" t="n"/>
-      <c r="B665" s="18" t="n"/>
-      <c r="C665" s="18" t="n"/>
-      <c r="D665" s="18" t="n"/>
+      <c r="A665" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B665" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C665" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D665" s="18" t="inlineStr">
+        <is>
+          <t>SAP 애플리케이션에서 네트워크 대기 시간을 최적화하려면 Azure 근접 배치 그룹을 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E665" s="18" t="n"/>
-      <c r="F665" s="18" t="n"/>
+      <c r="F665" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H665" s="18" t="n"/>
-      <c r="I665" s="13" t="n"/>
-      <c r="J665" s="13" t="n"/>
+      <c r="I665" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J665" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+        </is>
+      </c>
       <c r="K665" s="19" t="n"/>
-      <c r="L665" s="19" t="n"/>
+      <c r="L665" s="19" t="inlineStr">
+        <is>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+        </is>
+      </c>
       <c r="M665" s="20" t="n"/>
       <c r="N665" s="20" t="n"/>
       <c r="O665" s="20" t="n"/>
@@ -31294,17 +35216,54 @@
       <c r="Q665" s="20" t="n"/>
     </row>
     <row r="666">
-      <c r="A666" s="18" t="n"/>
-      <c r="B666" s="18" t="n"/>
-      <c r="C666" s="18" t="n"/>
-      <c r="D666" s="18" t="n"/>
+      <c r="A666" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B666" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C666" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D666" s="18" t="inlineStr">
+        <is>
+          <t>온-프레미스와 Azure 간에 분할된 SAP 애플리케이션 서버 계층 및 DBMS 계층을 실행하는 것은 전혀 지원되지 않습니다. 두 계층 모두 온-프레미스 또는 Azure에 완전히 상주해야 합니다.</t>
+        </is>
+      </c>
       <c r="E666" s="18" t="n"/>
-      <c r="F666" s="18" t="n"/>
+      <c r="F666" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H666" s="18" t="n"/>
-      <c r="I666" s="13" t="n"/>
-      <c r="J666" s="13" t="n"/>
+      <c r="I666" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J666" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="K666" s="19" t="n"/>
-      <c r="L666" s="19" t="n"/>
+      <c r="L666" s="19" t="inlineStr">
+        <is>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+        </is>
+      </c>
       <c r="M666" s="20" t="n"/>
       <c r="N666" s="20" t="n"/>
       <c r="O666" s="20" t="n"/>
@@ -31312,17 +35271,54 @@
       <c r="Q666" s="20" t="n"/>
     </row>
     <row r="667">
-      <c r="A667" s="18" t="n"/>
-      <c r="B667" s="18" t="n"/>
-      <c r="C667" s="18" t="n"/>
-      <c r="D667" s="18" t="n"/>
+      <c r="A667" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B667" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C667" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D667" s="18" t="inlineStr">
+        <is>
+          <t>계층 간의 과도한 네트워크 트래픽으로 인해 발생할 수 있는 상당한 비용 때문에 다른 VNet에서 SAP 시스템의 DBMS(데이터베이스 관리 시스템) 및 애플리케이션 계층을 호스트하고 VNet 피어링과 연결하는 것은 권장되지 않습니다. Azure 가상 네트워크 내에서 서브넷을 사용하여 SAP 애플리케이션 계층과 DBMS 계층을 분리하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E667" s="18" t="n"/>
-      <c r="F667" s="18" t="n"/>
+      <c r="F667" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H667" s="18" t="n"/>
-      <c r="I667" s="13" t="n"/>
-      <c r="J667" s="13" t="n"/>
+      <c r="I667" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J667" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="K667" s="19" t="n"/>
-      <c r="L667" s="19" t="n"/>
+      <c r="L667" s="19" t="inlineStr">
+        <is>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+        </is>
+      </c>
       <c r="M667" s="20" t="n"/>
       <c r="N667" s="20" t="n"/>
       <c r="O667" s="20" t="n"/>
@@ -31330,17 +35326,54 @@
       <c r="Q667" s="20" t="n"/>
     </row>
     <row r="668">
-      <c r="A668" s="18" t="n"/>
-      <c r="B668" s="18" t="n"/>
-      <c r="C668" s="18" t="n"/>
-      <c r="D668" s="18" t="n"/>
+      <c r="A668" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B668" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C668" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D668" s="18" t="inlineStr">
+        <is>
+          <t>Linux 게스트 운영 체제에서 Load Balancer를 사용하는 경우 Linux 네트워크 매개 변수 net.ipv4.tcp_timestamps가 0으로 설정되어 있는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E668" s="18" t="n"/>
-      <c r="F668" s="18" t="n"/>
+      <c r="F668" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H668" s="18" t="n"/>
-      <c r="I668" s="13" t="n"/>
-      <c r="J668" s="13" t="n"/>
+      <c r="I668" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J668" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K668" s="19" t="n"/>
-      <c r="L668" s="19" t="n"/>
+      <c r="L668" s="19" t="inlineStr">
+        <is>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+        </is>
+      </c>
       <c r="M668" s="20" t="n"/>
       <c r="N668" s="20" t="n"/>
       <c r="O668" s="20" t="n"/>
@@ -31348,17 +35381,50 @@
       <c r="Q668" s="20" t="n"/>
     </row>
     <row r="669">
-      <c r="A669" s="18" t="n"/>
-      <c r="B669" s="18" t="n"/>
-      <c r="C669" s="18" t="n"/>
-      <c r="D669" s="18" t="n"/>
+      <c r="A669" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B669" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C669" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D669" s="18" t="inlineStr">
+        <is>
+          <t>SAP RISE/ECS 배포의 경우 가상 피어링은 고객의 기존 Azure 환경과의 연결을 설정하는 기본 방법입니다. SAP vnet과 고객 vnet은 모두 NSG(네트워크 보안 그룹)로 보호되므로 vnet 피어링을 통해 SAP 및 데이터베이스 포트에서 통신할 수 있습니다</t>
+        </is>
+      </c>
       <c r="E669" s="18" t="n"/>
-      <c r="F669" s="18" t="n"/>
+      <c r="F669" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H669" s="18" t="n"/>
-      <c r="I669" s="13" t="n"/>
+      <c r="I669" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J669" s="13" t="n"/>
       <c r="K669" s="19" t="n"/>
-      <c r="L669" s="19" t="n"/>
+      <c r="L669" s="19" t="inlineStr">
+        <is>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+        </is>
+      </c>
       <c r="M669" s="20" t="n"/>
       <c r="N669" s="20" t="n"/>
       <c r="O669" s="20" t="n"/>
@@ -31366,17 +35432,50 @@
       <c r="Q669" s="20" t="n"/>
     </row>
     <row r="670">
-      <c r="A670" s="18" t="n"/>
-      <c r="B670" s="18" t="n"/>
-      <c r="C670" s="18" t="n"/>
-      <c r="D670" s="18" t="n"/>
+      <c r="A670" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B670" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C670" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D670" s="18" t="inlineStr">
+        <is>
+          <t>Azure VM에 대한 SAP HANA 데이터베이스 백업을 검토합니다.</t>
+        </is>
+      </c>
       <c r="E670" s="18" t="n"/>
-      <c r="F670" s="18" t="n"/>
+      <c r="F670" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H670" s="18" t="n"/>
-      <c r="I670" s="13" t="n"/>
+      <c r="I670" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J670" s="13" t="n"/>
       <c r="K670" s="19" t="n"/>
-      <c r="L670" s="19" t="n"/>
+      <c r="L670" s="19" t="inlineStr">
+        <is>
+          <t>ff5136bd-dcf1-4d2b-ae52-39333efdf45a</t>
+        </is>
+      </c>
       <c r="M670" s="20" t="n"/>
       <c r="N670" s="20" t="n"/>
       <c r="O670" s="20" t="n"/>
@@ -31384,17 +35483,50 @@
       <c r="Q670" s="20" t="n"/>
     </row>
     <row r="671">
-      <c r="A671" s="18" t="n"/>
-      <c r="B671" s="18" t="n"/>
-      <c r="C671" s="18" t="n"/>
-      <c r="D671" s="18" t="n"/>
+      <c r="A671" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B671" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C671" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D671" s="18" t="inlineStr">
+        <is>
+          <t>SAP에 사용되는 Site Recovery 기본 제공 모니터링을 검토합니다.</t>
+        </is>
+      </c>
       <c r="E671" s="18" t="n"/>
-      <c r="F671" s="18" t="n"/>
+      <c r="F671" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H671" s="18" t="n"/>
-      <c r="I671" s="13" t="n"/>
+      <c r="I671" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J671" s="13" t="n"/>
       <c r="K671" s="19" t="n"/>
-      <c r="L671" s="19" t="n"/>
+      <c r="L671" s="19" t="inlineStr">
+        <is>
+          <t>cafde29d-a0af-4bcd-87c0-0f299d63f0e8</t>
+        </is>
+      </c>
       <c r="M671" s="20" t="n"/>
       <c r="N671" s="20" t="n"/>
       <c r="O671" s="20" t="n"/>
@@ -31402,17 +35534,50 @@
       <c r="Q671" s="20" t="n"/>
     </row>
     <row r="672">
-      <c r="A672" s="18" t="n"/>
-      <c r="B672" s="18" t="n"/>
-      <c r="C672" s="18" t="n"/>
-      <c r="D672" s="18" t="n"/>
+      <c r="A672" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B672" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C672" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D672" s="18" t="inlineStr">
+        <is>
+          <t>SAP HANA 시스템 환경 모니터링 지침을 검토합니다.</t>
+        </is>
+      </c>
       <c r="E672" s="18" t="n"/>
-      <c r="F672" s="18" t="n"/>
+      <c r="F672" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H672" s="18" t="n"/>
-      <c r="I672" s="13" t="n"/>
+      <c r="I672" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J672" s="13" t="n"/>
       <c r="K672" s="19" t="n"/>
-      <c r="L672" s="19" t="n"/>
+      <c r="L672" s="19" t="inlineStr">
+        <is>
+          <t>82d7b8de-d3f1-44a0-830b-38e200e82acf</t>
+        </is>
+      </c>
       <c r="M672" s="20" t="n"/>
       <c r="N672" s="20" t="n"/>
       <c r="O672" s="20" t="n"/>
@@ -31420,17 +35585,50 @@
       <c r="Q672" s="20" t="n"/>
     </row>
     <row r="673">
-      <c r="A673" s="18" t="n"/>
-      <c r="B673" s="18" t="n"/>
-      <c r="C673" s="18" t="n"/>
-      <c r="D673" s="18" t="n"/>
+      <c r="A673" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B673" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C673" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D673" s="18" t="inlineStr">
+        <is>
+          <t>Azure Linux VM 백업 전략에서 Oracle Database를 검토합니다.</t>
+        </is>
+      </c>
       <c r="E673" s="18" t="n"/>
-      <c r="F673" s="18" t="n"/>
+      <c r="F673" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H673" s="18" t="n"/>
-      <c r="I673" s="13" t="n"/>
+      <c r="I673" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J673" s="13" t="n"/>
       <c r="K673" s="19" t="n"/>
-      <c r="L673" s="19" t="n"/>
+      <c r="L673" s="19" t="inlineStr">
+        <is>
+          <t>c823873a-2bec-4c2a-b684-a1ce8ae80efd</t>
+        </is>
+      </c>
       <c r="M673" s="20" t="n"/>
       <c r="N673" s="20" t="n"/>
       <c r="O673" s="20" t="n"/>
@@ -31438,17 +35636,50 @@
       <c r="Q673" s="20" t="n"/>
     </row>
     <row r="674">
-      <c r="A674" s="18" t="n"/>
-      <c r="B674" s="18" t="n"/>
-      <c r="C674" s="18" t="n"/>
-      <c r="D674" s="18" t="n"/>
+      <c r="A674" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B674" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C674" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D674" s="18" t="inlineStr">
+        <is>
+          <t>SQL Server 2016에서 Azure Blob Storage 사용을 검토합니다.</t>
+        </is>
+      </c>
       <c r="E674" s="18" t="n"/>
-      <c r="F674" s="18" t="n"/>
+      <c r="F674" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H674" s="18" t="n"/>
-      <c r="I674" s="13" t="n"/>
+      <c r="I674" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J674" s="13" t="n"/>
       <c r="K674" s="19" t="n"/>
-      <c r="L674" s="19" t="n"/>
+      <c r="L674" s="19" t="inlineStr">
+        <is>
+          <t>2943b6d8-1d31-4e19-ade7-78e6b26d1962</t>
+        </is>
+      </c>
       <c r="M674" s="20" t="n"/>
       <c r="N674" s="20" t="n"/>
       <c r="O674" s="20" t="n"/>
@@ -31456,17 +35687,50 @@
       <c r="Q674" s="20" t="n"/>
     </row>
     <row r="675">
-      <c r="A675" s="18" t="n"/>
-      <c r="B675" s="18" t="n"/>
-      <c r="C675" s="18" t="n"/>
-      <c r="D675" s="18" t="n"/>
+      <c r="A675" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B675" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C675" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D675" s="18" t="inlineStr">
+        <is>
+          <t>Azure VM에 대한 자동화된 Backup v2 사용을 검토합니다.</t>
+        </is>
+      </c>
       <c r="E675" s="18" t="n"/>
-      <c r="F675" s="18" t="n"/>
+      <c r="F675" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H675" s="18" t="n"/>
-      <c r="I675" s="13" t="n"/>
+      <c r="I675" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J675" s="13" t="n"/>
       <c r="K675" s="19" t="n"/>
-      <c r="L675" s="19" t="n"/>
+      <c r="L675" s="19" t="inlineStr">
+        <is>
+          <t>b82e650f-676d-417d-994d-fc33ca54ec14</t>
+        </is>
+      </c>
       <c r="M675" s="20" t="n"/>
       <c r="N675" s="20" t="n"/>
       <c r="O675" s="20" t="n"/>
@@ -31474,17 +35738,46 @@
       <c r="Q675" s="20" t="n"/>
     </row>
     <row r="676">
-      <c r="A676" s="18" t="n"/>
-      <c r="B676" s="18" t="n"/>
-      <c r="C676" s="18" t="n"/>
-      <c r="D676" s="18" t="n"/>
+      <c r="A676" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B676" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C676" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D676" s="18" t="inlineStr">
+        <is>
+          <t>프리미엄 디스크(V1)를 사용할 때 M 시리즈에 쓰기 가속기 사용Enabling Write accelerator for M series when using premium disks(V1)</t>
+        </is>
+      </c>
       <c r="E676" s="18" t="n"/>
-      <c r="F676" s="18" t="n"/>
+      <c r="F676" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H676" s="18" t="n"/>
       <c r="I676" s="13" t="n"/>
       <c r="J676" s="13" t="n"/>
       <c r="K676" s="19" t="n"/>
-      <c r="L676" s="19" t="n"/>
+      <c r="L676" s="19" t="inlineStr">
+        <is>
+          <t>347c2dcc-e6eb-4b04-80c5-628b171aa62d</t>
+        </is>
+      </c>
       <c r="M676" s="20" t="n"/>
       <c r="N676" s="20" t="n"/>
       <c r="O676" s="20" t="n"/>
@@ -31492,17 +35785,50 @@
       <c r="Q676" s="20" t="n"/>
     </row>
     <row r="677">
-      <c r="A677" s="18" t="n"/>
-      <c r="B677" s="18" t="n"/>
-      <c r="C677" s="18" t="n"/>
-      <c r="D677" s="18" t="n"/>
+      <c r="A677" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B677" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C677" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D677" s="18" t="inlineStr">
+        <is>
+          <t>가용성 영역 대기 시간을 테스트합니다.</t>
+        </is>
+      </c>
       <c r="E677" s="18" t="n"/>
-      <c r="F677" s="18" t="n"/>
+      <c r="F677" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H677" s="18" t="n"/>
-      <c r="I677" s="13" t="n"/>
+      <c r="I677" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J677" s="13" t="n"/>
       <c r="K677" s="19" t="n"/>
-      <c r="L677" s="19" t="n"/>
+      <c r="L677" s="19" t="inlineStr">
+        <is>
+          <t>b96512cf-996f-4b17-b9b8-6b16db1a2a94</t>
+        </is>
+      </c>
       <c r="M677" s="20" t="n"/>
       <c r="N677" s="20" t="n"/>
       <c r="O677" s="20" t="n"/>
@@ -31510,17 +35836,54 @@
       <c r="Q677" s="20" t="n"/>
     </row>
     <row r="678">
-      <c r="A678" s="18" t="n"/>
-      <c r="B678" s="18" t="n"/>
-      <c r="C678" s="18" t="n"/>
-      <c r="D678" s="18" t="n"/>
+      <c r="A678" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B678" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C678" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D678" s="18" t="inlineStr">
+        <is>
+          <t>모든 SAP 구성 요소에 대해 SAP EarlyWatch Alert를 활성화합니다.</t>
+        </is>
+      </c>
       <c r="E678" s="18" t="n"/>
-      <c r="F678" s="18" t="n"/>
+      <c r="F678" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H678" s="18" t="n"/>
-      <c r="I678" s="13" t="n"/>
-      <c r="J678" s="13" t="n"/>
+      <c r="I678" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J678" s="31" t="inlineStr">
+        <is>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/techops/3362700736.html</t>
+        </is>
+      </c>
       <c r="K678" s="19" t="n"/>
-      <c r="L678" s="19" t="n"/>
+      <c r="L678" s="19" t="inlineStr">
+        <is>
+          <t>9fd7ffd4-da11-49f6-a374-8d03e94c511d</t>
+        </is>
+      </c>
       <c r="M678" s="20" t="n"/>
       <c r="N678" s="20" t="n"/>
       <c r="O678" s="20" t="n"/>
@@ -31528,17 +35891,54 @@
       <c r="Q678" s="20" t="n"/>
     </row>
     <row r="679">
-      <c r="A679" s="18" t="n"/>
-      <c r="B679" s="18" t="n"/>
-      <c r="C679" s="18" t="n"/>
-      <c r="D679" s="18" t="n"/>
+      <c r="A679" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B679" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C679" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D679" s="18" t="inlineStr">
+        <is>
+          <t>SAP ABAPMeter 보고서 /SSA/CAT를 사용하여 SAP 애플리케이션 서버-데이터베이스 서버 대기 시간을 검토합니다.</t>
+        </is>
+      </c>
       <c r="E679" s="18" t="n"/>
-      <c r="F679" s="18" t="n"/>
+      <c r="F679" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H679" s="18" t="n"/>
-      <c r="I679" s="13" t="n"/>
-      <c r="J679" s="13" t="n"/>
+      <c r="I679" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J679" s="31" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/0002879613</t>
+        </is>
+      </c>
       <c r="K679" s="19" t="n"/>
-      <c r="L679" s="19" t="n"/>
+      <c r="L679" s="19" t="inlineStr">
+        <is>
+          <t>b9b140cf-413a-483d-aad2-8802c4e3c017</t>
+        </is>
+      </c>
       <c r="M679" s="20" t="n"/>
       <c r="N679" s="20" t="n"/>
       <c r="O679" s="20" t="n"/>
@@ -31546,17 +35946,46 @@
       <c r="Q679" s="20" t="n"/>
     </row>
     <row r="680">
-      <c r="A680" s="18" t="n"/>
-      <c r="B680" s="18" t="n"/>
-      <c r="C680" s="18" t="n"/>
-      <c r="D680" s="18" t="n"/>
+      <c r="A680" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B680" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C680" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D680" s="18" t="inlineStr">
+        <is>
+          <t>CCMS를 사용하여 SQL Server 성능 모니터링을 검토합니다.</t>
+        </is>
+      </c>
       <c r="E680" s="18" t="n"/>
-      <c r="F680" s="18" t="n"/>
+      <c r="F680" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H680" s="18" t="n"/>
       <c r="I680" s="13" t="n"/>
       <c r="J680" s="13" t="n"/>
       <c r="K680" s="19" t="n"/>
-      <c r="L680" s="19" t="n"/>
+      <c r="L680" s="19" t="inlineStr">
+        <is>
+          <t>62fbf0f8-51db-49e1-a961-bb5df7a35f80</t>
+        </is>
+      </c>
       <c r="M680" s="20" t="n"/>
       <c r="N680" s="20" t="n"/>
       <c r="O680" s="20" t="n"/>
@@ -31564,17 +35993,54 @@
       <c r="Q680" s="20" t="n"/>
     </row>
     <row r="681">
-      <c r="A681" s="18" t="n"/>
-      <c r="B681" s="18" t="n"/>
-      <c r="C681" s="18" t="n"/>
-      <c r="D681" s="18" t="n"/>
+      <c r="A681" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B681" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C681" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D681" s="18" t="inlineStr">
+        <is>
+          <t>SAP 애플리케이션 계층 VM과 DBMS VM(NIPING) 간의 네트워크 대기 시간을 테스트합니다.</t>
+        </is>
+      </c>
       <c r="E681" s="18" t="n"/>
-      <c r="F681" s="18" t="n"/>
+      <c r="F681" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H681" s="18" t="n"/>
-      <c r="I681" s="13" t="n"/>
-      <c r="J681" s="13" t="n"/>
+      <c r="I681" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J681" s="31" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/1100926/E</t>
+        </is>
+      </c>
       <c r="K681" s="19" t="n"/>
-      <c r="L681" s="19" t="n"/>
+      <c r="L681" s="19" t="inlineStr">
+        <is>
+          <t>35709da7-fc7d-4efe-bb20-2e91547b7390</t>
+        </is>
+      </c>
       <c r="M681" s="20" t="n"/>
       <c r="N681" s="20" t="n"/>
       <c r="O681" s="20" t="n"/>
@@ -31582,17 +36048,50 @@
       <c r="Q681" s="20" t="n"/>
     </row>
     <row r="682">
-      <c r="A682" s="18" t="n"/>
-      <c r="B682" s="18" t="n"/>
-      <c r="C682" s="18" t="n"/>
-      <c r="D682" s="18" t="n"/>
+      <c r="A682" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B682" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C682" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D682" s="18" t="inlineStr">
+        <is>
+          <t>SAP HANA Studio 경고를 검토합니다.</t>
+        </is>
+      </c>
       <c r="E682" s="18" t="n"/>
-      <c r="F682" s="18" t="n"/>
+      <c r="F682" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H682" s="18" t="n"/>
-      <c r="I682" s="13" t="n"/>
+      <c r="I682" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J682" s="13" t="n"/>
       <c r="K682" s="19" t="n"/>
-      <c r="L682" s="19" t="n"/>
+      <c r="L682" s="19" t="inlineStr">
+        <is>
+          <t>9e9bb4c8-e934-4e4b-a13c-6f7c7c38eb43</t>
+        </is>
+      </c>
       <c r="M682" s="20" t="n"/>
       <c r="N682" s="20" t="n"/>
       <c r="O682" s="20" t="n"/>
@@ -31600,17 +36099,50 @@
       <c r="Q682" s="20" t="n"/>
     </row>
     <row r="683">
-      <c r="A683" s="18" t="n"/>
-      <c r="B683" s="18" t="n"/>
-      <c r="C683" s="18" t="n"/>
-      <c r="D683" s="18" t="n"/>
+      <c r="A683" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B683" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C683" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D683" s="18" t="inlineStr">
+        <is>
+          <t>HANA_Configuration_Minichecks를 사용하여 SAP HANA 상태 검사를 수행합니다.</t>
+        </is>
+      </c>
       <c r="E683" s="18" t="n"/>
-      <c r="F683" s="18" t="n"/>
+      <c r="F683" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H683" s="18" t="n"/>
-      <c r="I683" s="13" t="n"/>
+      <c r="I683" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J683" s="13" t="n"/>
       <c r="K683" s="19" t="n"/>
-      <c r="L683" s="19" t="n"/>
+      <c r="L683" s="19" t="inlineStr">
+        <is>
+          <t>f1a92ab5-9509-4b57-86ff-b0ade361b694</t>
+        </is>
+      </c>
       <c r="M683" s="20" t="n"/>
       <c r="N683" s="20" t="n"/>
       <c r="O683" s="20" t="n"/>
@@ -31618,17 +36150,54 @@
       <c r="Q683" s="20" t="n"/>
     </row>
     <row r="684">
-      <c r="A684" s="18" t="n"/>
-      <c r="B684" s="18" t="n"/>
-      <c r="C684" s="18" t="n"/>
-      <c r="D684" s="18" t="n"/>
+      <c r="A684" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B684" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C684" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D684" s="18" t="inlineStr">
+        <is>
+          <t>Azure, 온-프레미스 또는 기타 클라우드 환경에서 Windows 및 Linux VM을 실행하는 경우 Azure Automation의 업데이트 관리 센터를 사용하여 보안 패치를 포함한 운영 체제 업데이트를 관리할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E684" s="18" t="n"/>
-      <c r="F684" s="18" t="n"/>
+      <c r="F684" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H684" s="18" t="n"/>
-      <c r="I684" s="13" t="n"/>
-      <c r="J684" s="13" t="n"/>
+      <c r="I684" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J684" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
       <c r="K684" s="19" t="n"/>
-      <c r="L684" s="19" t="n"/>
+      <c r="L684" s="19" t="inlineStr">
+        <is>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+        </is>
+      </c>
       <c r="M684" s="20" t="n"/>
       <c r="N684" s="20" t="n"/>
       <c r="O684" s="20" t="n"/>
@@ -31636,17 +36205,54 @@
       <c r="Q684" s="20" t="n"/>
     </row>
     <row r="685">
-      <c r="A685" s="18" t="n"/>
-      <c r="B685" s="18" t="n"/>
-      <c r="C685" s="18" t="n"/>
-      <c r="D685" s="18" t="n"/>
+      <c r="A685" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B685" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C685" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D685" s="18" t="inlineStr">
+        <is>
+          <t>SAP는 SAP 시스템을 보호하기 위해 즉각적인 조치가 필요한 매우 중요한 보안 패치 또는 핫픽스를 릴리스하므로 SAP 보안 OSS 노트를 정기적으로 검토합니다.</t>
+        </is>
+      </c>
       <c r="E685" s="18" t="n"/>
-      <c r="F685" s="18" t="n"/>
+      <c r="F685" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H685" s="18" t="n"/>
-      <c r="I685" s="13" t="n"/>
-      <c r="J685" s="13" t="n"/>
+      <c r="I685" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J685" s="31" t="inlineStr">
+        <is>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
+        </is>
+      </c>
       <c r="K685" s="19" t="n"/>
-      <c r="L685" s="19" t="n"/>
+      <c r="L685" s="19" t="inlineStr">
+        <is>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+        </is>
+      </c>
       <c r="M685" s="20" t="n"/>
       <c r="N685" s="20" t="n"/>
       <c r="O685" s="20" t="n"/>
@@ -31654,17 +36260,50 @@
       <c r="Q685" s="20" t="n"/>
     </row>
     <row r="686">
-      <c r="A686" s="18" t="n"/>
-      <c r="B686" s="18" t="n"/>
-      <c r="C686" s="18" t="n"/>
-      <c r="D686" s="18" t="n"/>
+      <c r="A686" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B686" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C686" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D686" s="18" t="inlineStr">
+        <is>
+          <t>SQL Server SAP의 경우 SQL Server SAP 시스템에서 계정을 사용하지 않으므로 SQL Server 시스템 관리자 계정을 사용하지 않도록 설정할 수 있습니다. 원래 시스템 관리자 계정을 비활성화하기 전에 시스템 관리자 권한이 있는 다른 사용자가 서버에 액세스할 수 있는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E686" s="18" t="n"/>
-      <c r="F686" s="18" t="n"/>
+      <c r="F686" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H686" s="18" t="n"/>
-      <c r="I686" s="13" t="n"/>
+      <c r="I686" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J686" s="13" t="n"/>
       <c r="K686" s="19" t="n"/>
-      <c r="L686" s="19" t="n"/>
+      <c r="L686" s="19" t="inlineStr">
+        <is>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+        </is>
+      </c>
       <c r="M686" s="20" t="n"/>
       <c r="N686" s="20" t="n"/>
       <c r="O686" s="20" t="n"/>
@@ -31672,17 +36311,54 @@
       <c r="Q686" s="20" t="n"/>
     </row>
     <row r="687">
-      <c r="A687" s="18" t="n"/>
-      <c r="B687" s="18" t="n"/>
-      <c r="C687" s="18" t="n"/>
-      <c r="D687" s="18" t="n"/>
+      <c r="A687" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B687" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C687" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D687" s="18" t="inlineStr">
+        <is>
+          <t>xp_cmdshell 비활성화합니다. SQL Server 기능 xp_cmdshell SQL Server 내부 운영 체제 명령 셸을 사용할 수 있습니다. 이는 보안 감사에서 발생할 수 있는 잠재적 위험입니다.</t>
+        </is>
+      </c>
       <c r="E687" s="18" t="n"/>
-      <c r="F687" s="18" t="n"/>
+      <c r="F687" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H687" s="18" t="n"/>
-      <c r="I687" s="13" t="n"/>
-      <c r="J687" s="13" t="n"/>
+      <c r="I687" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J687" s="31" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/3019299/E</t>
+        </is>
+      </c>
       <c r="K687" s="19" t="n"/>
-      <c r="L687" s="19" t="n"/>
+      <c r="L687" s="19" t="inlineStr">
+        <is>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+        </is>
+      </c>
       <c r="M687" s="20" t="n"/>
       <c r="N687" s="20" t="n"/>
       <c r="O687" s="20" t="n"/>
@@ -31690,17 +36366,54 @@
       <c r="Q687" s="20" t="n"/>
     </row>
     <row r="688">
-      <c r="A688" s="18" t="n"/>
-      <c r="B688" s="18" t="n"/>
-      <c r="C688" s="18" t="n"/>
-      <c r="D688" s="18" t="n"/>
+      <c r="A688" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B688" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C688" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D688" s="18" t="inlineStr">
+        <is>
+          <t>Azure에서 SAP HANA 데이터베이스 서버를 암호화하는 데는 SAP HANA 네이티브 암호화 기술이 사용됩니다. 또한 Azure에서 SQL Server를 사용하는 경우 TDE(투명한 데이터 암호화)를 사용하여 데이터 및 로그 파일을 보호하고 백업도 암호화되도록 합니다.</t>
+        </is>
+      </c>
       <c r="E688" s="18" t="n"/>
-      <c r="F688" s="18" t="n"/>
+      <c r="F688" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H688" s="18" t="n"/>
-      <c r="I688" s="13" t="n"/>
-      <c r="J688" s="13" t="n"/>
+      <c r="I688" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J688" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+        </is>
+      </c>
       <c r="K688" s="19" t="n"/>
-      <c r="L688" s="19" t="n"/>
+      <c r="L688" s="19" t="inlineStr">
+        <is>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+        </is>
+      </c>
       <c r="M688" s="20" t="n"/>
       <c r="N688" s="20" t="n"/>
       <c r="O688" s="20" t="n"/>
@@ -31708,17 +36421,54 @@
       <c r="Q688" s="20" t="n"/>
     </row>
     <row r="689">
-      <c r="A689" s="18" t="n"/>
-      <c r="B689" s="18" t="n"/>
-      <c r="C689" s="18" t="n"/>
-      <c r="D689" s="18" t="n"/>
+      <c r="A689" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B689" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C689" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D689" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage 암호화는 모든 Azure Resource Manager 및 클래식 스토리지 계정에 대해 사용하도록 설정되며 사용하지 않도록 설정할 수 없습니다. 데이터는 기본적으로 암호화되므로 Azure Storage 암호화를 사용하기 위해 코드 또는 애플리케이션을 수정할 필요가 없습니다.</t>
+        </is>
+      </c>
       <c r="E689" s="18" t="n"/>
-      <c r="F689" s="18" t="n"/>
+      <c r="F689" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H689" s="18" t="n"/>
-      <c r="I689" s="13" t="n"/>
-      <c r="J689" s="13" t="n"/>
+      <c r="I689" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J689" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K689" s="19" t="n"/>
-      <c r="L689" s="19" t="n"/>
+      <c r="L689" s="19" t="inlineStr">
+        <is>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+        </is>
+      </c>
       <c r="M689" s="20" t="n"/>
       <c r="N689" s="20" t="n"/>
       <c r="O689" s="20" t="n"/>
@@ -31726,17 +36476,54 @@
       <c r="Q689" s="20" t="n"/>
     </row>
     <row r="690">
-      <c r="A690" s="18" t="n"/>
-      <c r="B690" s="18" t="n"/>
-      <c r="C690" s="18" t="n"/>
-      <c r="D690" s="18" t="n"/>
+      <c r="A690" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B690" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C690" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D690" s="18" t="inlineStr">
+        <is>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+        </is>
+      </c>
       <c r="E690" s="18" t="n"/>
-      <c r="F690" s="18" t="n"/>
+      <c r="F690" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H690" s="18" t="n"/>
-      <c r="I690" s="13" t="n"/>
-      <c r="J690" s="13" t="n"/>
+      <c r="I690" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J690" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K690" s="19" t="n"/>
-      <c r="L690" s="19" t="n"/>
+      <c r="L690" s="19" t="inlineStr">
+        <is>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+        </is>
+      </c>
       <c r="M690" s="20" t="n"/>
       <c r="N690" s="20" t="n"/>
       <c r="O690" s="20" t="n"/>
@@ -31744,17 +36531,54 @@
       <c r="Q690" s="20" t="n"/>
     </row>
     <row r="691">
-      <c r="A691" s="18" t="n"/>
-      <c r="B691" s="18" t="n"/>
-      <c r="C691" s="18" t="n"/>
-      <c r="D691" s="18" t="n"/>
+      <c r="A691" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B691" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C691" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D691" s="18" t="inlineStr">
+        <is>
+          <t>무단 변경으로부터 보호하기 위해 성공적인 배포 후 Azure 리소스를 잠그는 것이 좋습니다. 사용자 지정된 Azure 정책(Custome 역할)을 사용하여 구독별로 LOCK 제약 조건 및 규칙을 적용할 수도 있습니다.</t>
+        </is>
+      </c>
       <c r="E691" s="18" t="n"/>
-      <c r="F691" s="18" t="n"/>
+      <c r="F691" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H691" s="18" t="n"/>
-      <c r="I691" s="13" t="n"/>
-      <c r="J691" s="13" t="n"/>
+      <c r="I691" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J691" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K691" s="19" t="n"/>
-      <c r="L691" s="19" t="n"/>
+      <c r="L691" s="19" t="inlineStr">
+        <is>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+        </is>
+      </c>
       <c r="M691" s="20" t="n"/>
       <c r="N691" s="20" t="n"/>
       <c r="O691" s="20" t="n"/>
@@ -31762,17 +36586,54 @@
       <c r="Q691" s="20" t="n"/>
     </row>
     <row r="692">
-      <c r="A692" s="18" t="n"/>
-      <c r="B692" s="18" t="n"/>
-      <c r="C692" s="18" t="n"/>
-      <c r="D692" s="18" t="n"/>
+      <c r="A692" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B692" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C692" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D692" s="18" t="inlineStr">
+        <is>
+          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
+        </is>
+      </c>
       <c r="E692" s="18" t="n"/>
-      <c r="F692" s="18" t="n"/>
+      <c r="F692" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H692" s="18" t="n"/>
-      <c r="I692" s="13" t="n"/>
-      <c r="J692" s="13" t="n"/>
+      <c r="I692" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J692" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K692" s="19" t="n"/>
-      <c r="L692" s="19" t="n"/>
+      <c r="L692" s="19" t="inlineStr">
+        <is>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+        </is>
+      </c>
       <c r="M692" s="20" t="n"/>
       <c r="N692" s="20" t="n"/>
       <c r="O692" s="20" t="n"/>
@@ -31780,17 +36641,54 @@
       <c r="Q692" s="20" t="n"/>
     </row>
     <row r="693">
-      <c r="A693" s="18" t="n"/>
-      <c r="B693" s="18" t="n"/>
-      <c r="C693" s="18" t="n"/>
-      <c r="D693" s="18" t="n"/>
+      <c r="A693" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B693" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C693" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D693" s="18" t="inlineStr">
+        <is>
+          <t>기존 요구 사항에 따라 규정 및 규정 준수 제어(내부/외부) - 필요한 Azure 정책 및 Azure RBAC 역할 결정</t>
+        </is>
+      </c>
       <c r="E693" s="18" t="n"/>
-      <c r="F693" s="18" t="n"/>
+      <c r="F693" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H693" s="18" t="n"/>
-      <c r="I693" s="13" t="n"/>
-      <c r="J693" s="13" t="n"/>
+      <c r="I693" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J693" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K693" s="19" t="n"/>
-      <c r="L693" s="19" t="n"/>
+      <c r="L693" s="19" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M693" s="20" t="n"/>
       <c r="N693" s="20" t="n"/>
       <c r="O693" s="20" t="n"/>
@@ -31798,17 +36696,54 @@
       <c r="Q693" s="20" t="n"/>
     </row>
     <row r="694">
-      <c r="A694" s="18" t="n"/>
-      <c r="B694" s="18" t="n"/>
-      <c r="C694" s="18" t="n"/>
-      <c r="D694" s="18" t="n"/>
+      <c r="A694" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B694" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C694" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D694" s="18" t="inlineStr">
+        <is>
+          <t>SAP 환경에서 엔드포인트용 Microsoft Defender 사용하도록 설정하는 경우 모든 서버를 대상으로 하는 대신 DBMS 서버에서 데이터 및 로그 파일을 제외하는 것이 좋습니다. 대상 파일을 제외할 때 DBMS 공급업체의 권장 사항을 따릅니다.</t>
+        </is>
+      </c>
       <c r="E694" s="18" t="n"/>
-      <c r="F694" s="18" t="n"/>
+      <c r="F694" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H694" s="18" t="n"/>
-      <c r="I694" s="13" t="n"/>
-      <c r="J694" s="13" t="n"/>
+      <c r="I694" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J694" s="31" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="K694" s="19" t="n"/>
-      <c r="L694" s="19" t="n"/>
+      <c r="L694" s="19" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M694" s="20" t="n"/>
       <c r="N694" s="20" t="n"/>
       <c r="O694" s="20" t="n"/>
@@ -31816,17 +36751,54 @@
       <c r="Q694" s="20" t="n"/>
     </row>
     <row r="695">
-      <c r="A695" s="18" t="n"/>
-      <c r="B695" s="18" t="n"/>
-      <c r="C695" s="18" t="n"/>
-      <c r="D695" s="18" t="n"/>
+      <c r="A695" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B695" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C695" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D695" s="18" t="inlineStr">
+        <is>
+          <t>클라우드용 Microsoft Defender의 Just-In-Time 액세스 권한이 있는 SAP 관리자 사용자 지정 역할을 위임합니다.</t>
+        </is>
+      </c>
       <c r="E695" s="18" t="n"/>
-      <c r="F695" s="18" t="n"/>
+      <c r="F695" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H695" s="18" t="n"/>
-      <c r="I695" s="13" t="n"/>
-      <c r="J695" s="13" t="n"/>
+      <c r="I695" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J695" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K695" s="19" t="n"/>
-      <c r="L695" s="19" t="n"/>
+      <c r="L695" s="19" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M695" s="20" t="n"/>
       <c r="N695" s="20" t="n"/>
       <c r="O695" s="20" t="n"/>
@@ -31834,17 +36806,54 @@
       <c r="Q695" s="20" t="n"/>
     </row>
     <row r="696">
-      <c r="A696" s="18" t="n"/>
-      <c r="B696" s="18" t="n"/>
-      <c r="C696" s="18" t="n"/>
-      <c r="D696" s="18" t="n"/>
+      <c r="A696" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B696" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C696" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D696" s="18" t="inlineStr">
+        <is>
+          <t>타사 보안 제품을 DIAG(SAP GUI)용 SNC(Secure Network Communications), RFC 및 HTTPS용 SPNEGO와 통합하여 전송 중인 데이터를 암호화합니다.</t>
+        </is>
+      </c>
       <c r="E696" s="18" t="n"/>
-      <c r="F696" s="18" t="n"/>
+      <c r="F696" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H696" s="18" t="n"/>
-      <c r="I696" s="13" t="n"/>
-      <c r="J696" s="13" t="n"/>
+      <c r="I696" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J696" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="K696" s="19" t="n"/>
-      <c r="L696" s="19" t="n"/>
+      <c r="L696" s="19" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M696" s="20" t="n"/>
       <c r="N696" s="20" t="n"/>
       <c r="O696" s="20" t="n"/>
@@ -31852,17 +36861,54 @@
       <c r="Q696" s="20" t="n"/>
     </row>
     <row r="697">
-      <c r="A697" s="18" t="n"/>
-      <c r="B697" s="18" t="n"/>
-      <c r="C697" s="18" t="n"/>
-      <c r="D697" s="18" t="n"/>
+      <c r="A697" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B697" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C697" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D697" s="18" t="inlineStr">
+        <is>
+          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+        </is>
+      </c>
       <c r="E697" s="18" t="n"/>
-      <c r="F697" s="18" t="n"/>
+      <c r="F697" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H697" s="18" t="n"/>
-      <c r="I697" s="13" t="n"/>
-      <c r="J697" s="13" t="n"/>
+      <c r="I697" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J697" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K697" s="19" t="n"/>
-      <c r="L697" s="19" t="n"/>
+      <c r="L697" s="19" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M697" s="20" t="n"/>
       <c r="N697" s="20" t="n"/>
       <c r="O697" s="20" t="n"/>
@@ -31870,17 +36916,54 @@
       <c r="Q697" s="20" t="n"/>
     </row>
     <row r="698">
-      <c r="A698" s="18" t="n"/>
-      <c r="B698" s="18" t="n"/>
-      <c r="C698" s="18" t="n"/>
-      <c r="D698" s="18" t="n"/>
+      <c r="A698" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B698" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C698" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D698" s="18" t="inlineStr">
+        <is>
+          <t>비 HANA Windows 및 비 Windows 운영 체제에 대한 디스크 암호화 키 및 비밀을 제어하고 관리하려면 Azure Key Vault를 사용합니다. SAP HANA는 Azure Key Vault에서 지원되지 않으므로 SAP ABAP 또는 SSH 키와 같은 대체 방법을 사용해야 합니다.</t>
+        </is>
+      </c>
       <c r="E698" s="18" t="n"/>
-      <c r="F698" s="18" t="n"/>
+      <c r="F698" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H698" s="18" t="n"/>
-      <c r="I698" s="13" t="n"/>
-      <c r="J698" s="13" t="n"/>
+      <c r="I698" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J698" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K698" s="19" t="n"/>
-      <c r="L698" s="19" t="n"/>
+      <c r="L698" s="19" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M698" s="20" t="n"/>
       <c r="N698" s="20" t="n"/>
       <c r="O698" s="20" t="n"/>
@@ -31888,17 +36971,50 @@
       <c r="Q698" s="20" t="n"/>
     </row>
     <row r="699">
-      <c r="A699" s="18" t="n"/>
-      <c r="B699" s="18" t="n"/>
-      <c r="C699" s="18" t="n"/>
-      <c r="D699" s="18" t="n"/>
+      <c r="A699" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B699" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C699" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D699" s="18" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="E699" s="18" t="n"/>
-      <c r="F699" s="18" t="n"/>
+      <c r="F699" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H699" s="18" t="n"/>
-      <c r="I699" s="13" t="n"/>
+      <c r="I699" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J699" s="13" t="n"/>
       <c r="K699" s="19" t="n"/>
-      <c r="L699" s="19" t="n"/>
+      <c r="L699" s="19" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M699" s="20" t="n"/>
       <c r="N699" s="20" t="n"/>
       <c r="O699" s="20" t="n"/>
@@ -31906,17 +37022,54 @@
       <c r="Q699" s="20" t="n"/>
     </row>
     <row r="700">
-      <c r="A700" s="18" t="n"/>
-      <c r="B700" s="18" t="n"/>
-      <c r="C700" s="18" t="n"/>
-      <c r="D700" s="18" t="n"/>
+      <c r="A700" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B700" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C700" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D700" s="18" t="inlineStr">
+        <is>
+          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
+        </is>
+      </c>
       <c r="E700" s="18" t="n"/>
-      <c r="F700" s="18" t="n"/>
+      <c r="F700" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H700" s="18" t="n"/>
-      <c r="I700" s="13" t="n"/>
-      <c r="J700" s="13" t="n"/>
+      <c r="I700" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J700" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K700" s="19" t="n"/>
-      <c r="L700" s="19" t="n"/>
+      <c r="L700" s="19" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M700" s="20" t="n"/>
       <c r="N700" s="20" t="n"/>
       <c r="O700" s="20" t="n"/>
@@ -31924,17 +37077,54 @@
       <c r="Q700" s="20" t="n"/>
     </row>
     <row r="701">
-      <c r="A701" s="18" t="n"/>
-      <c r="B701" s="18" t="n"/>
-      <c r="C701" s="18" t="n"/>
-      <c r="D701" s="18" t="n"/>
+      <c r="A701" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B701" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C701" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D701" s="18" t="inlineStr">
+        <is>
+          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
+        </is>
+      </c>
       <c r="E701" s="18" t="n"/>
-      <c r="F701" s="18" t="n"/>
+      <c r="F701" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H701" s="18" t="n"/>
-      <c r="I701" s="13" t="n"/>
-      <c r="J701" s="13" t="n"/>
+      <c r="I701" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J701" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="K701" s="19" t="n"/>
-      <c r="L701" s="19" t="n"/>
+      <c r="L701" s="19" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M701" s="20" t="n"/>
       <c r="N701" s="20" t="n"/>
       <c r="O701" s="20" t="n"/>
@@ -31942,17 +37132,54 @@
       <c r="Q701" s="20" t="n"/>
     </row>
     <row r="702">
-      <c r="A702" s="18" t="n"/>
-      <c r="B702" s="18" t="n"/>
-      <c r="C702" s="18" t="n"/>
-      <c r="D702" s="18" t="n"/>
+      <c r="A702" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B702" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C702" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D702" s="18" t="inlineStr">
+        <is>
+          <t>Azure에서 Microsoft 맬웨어 방지 소프트웨어를 사용하여 악성 파일, 애드웨어 및 기타 위협으로부터 가상 머신을 보호하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E702" s="18" t="n"/>
-      <c r="F702" s="18" t="n"/>
+      <c r="F702" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H702" s="18" t="n"/>
-      <c r="I702" s="13" t="n"/>
-      <c r="J702" s="13" t="n"/>
+      <c r="I702" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J702" s="31" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="K702" s="19" t="n"/>
-      <c r="L702" s="19" t="n"/>
+      <c r="L702" s="19" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M702" s="20" t="n"/>
       <c r="N702" s="20" t="n"/>
       <c r="O702" s="20" t="n"/>
@@ -31960,17 +37187,54 @@
       <c r="Q702" s="20" t="n"/>
     </row>
     <row r="703">
-      <c r="A703" s="18" t="n"/>
-      <c r="B703" s="18" t="n"/>
-      <c r="C703" s="18" t="n"/>
-      <c r="D703" s="18" t="n"/>
+      <c r="A703" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B703" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C703" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D703" s="18" t="inlineStr">
+        <is>
+          <t>더욱 강력한 보호를 위해 엔드포인트용 Microsoft Defender 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E703" s="18" t="n"/>
-      <c r="F703" s="18" t="n"/>
+      <c r="F703" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H703" s="18" t="n"/>
-      <c r="I703" s="13" t="n"/>
-      <c r="J703" s="13" t="n"/>
+      <c r="I703" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J703" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K703" s="19" t="n"/>
-      <c r="L703" s="19" t="n"/>
+      <c r="L703" s="19" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M703" s="20" t="n"/>
       <c r="N703" s="20" t="n"/>
       <c r="O703" s="20" t="n"/>
@@ -31978,17 +37242,54 @@
       <c r="Q703" s="20" t="n"/>
     </row>
     <row r="704">
-      <c r="A704" s="18" t="n"/>
-      <c r="B704" s="18" t="n"/>
-      <c r="C704" s="18" t="n"/>
-      <c r="D704" s="18" t="n"/>
+      <c r="A704" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B704" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C704" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D704" s="18" t="inlineStr">
+        <is>
+          <t>가상 네트워크 피어링을 통해 스포크 네트워크에 연결된 허브 가상 네트워크를 통해 모든 트래픽을 전달하여 SAP 애플리케이션 및 데이터베이스 서버를 인터넷 또는 온-프레미스 네트워크에서 격리합니다. 피어링된 가상 네트워크는 Azure의 SAP 솔루션이 공용 인터넷에서 격리되도록 보장합니다.</t>
+        </is>
+      </c>
       <c r="E704" s="18" t="n"/>
-      <c r="F704" s="18" t="n"/>
+      <c r="F704" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H704" s="18" t="n"/>
-      <c r="I704" s="13" t="n"/>
-      <c r="J704" s="13" t="n"/>
+      <c r="I704" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J704" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K704" s="19" t="n"/>
-      <c r="L704" s="19" t="n"/>
+      <c r="L704" s="19" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M704" s="20" t="n"/>
       <c r="N704" s="20" t="n"/>
       <c r="O704" s="20" t="n"/>
@@ -31996,17 +37297,54 @@
       <c r="Q704" s="20" t="n"/>
     </row>
     <row r="705">
-      <c r="A705" s="18" t="n"/>
-      <c r="B705" s="18" t="n"/>
-      <c r="C705" s="18" t="n"/>
-      <c r="D705" s="18" t="n"/>
+      <c r="A705" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B705" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C705" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D705" s="18" t="inlineStr">
+        <is>
+          <t>SAP Fiori와 같은 인터넷 연결 애플리케이션의 경우 보안 수준을 유지하면서 애플리케이션 요구 사항에 따라 부하를 분산해야 합니다. 계층 7 보안의 경우 Azure Marketplace에서 사용할 수 있는 타사 WAF(Web Application Firewall)를 사용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E705" s="18" t="n"/>
-      <c r="F705" s="18" t="n"/>
+      <c r="F705" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H705" s="18" t="n"/>
-      <c r="I705" s="13" t="n"/>
-      <c r="J705" s="13" t="n"/>
+      <c r="I705" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J705" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K705" s="19" t="n"/>
-      <c r="L705" s="19" t="n"/>
+      <c r="L705" s="19" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M705" s="20" t="n"/>
       <c r="N705" s="20" t="n"/>
       <c r="O705" s="20" t="n"/>
@@ -32014,17 +37352,54 @@
       <c r="Q705" s="20" t="n"/>
     </row>
     <row r="706">
-      <c r="A706" s="18" t="n"/>
-      <c r="B706" s="18" t="n"/>
-      <c r="C706" s="18" t="n"/>
-      <c r="D706" s="18" t="n"/>
+      <c r="A706" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B706" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C706" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D706" s="18" t="inlineStr">
+        <is>
+          <t>SAP용 Azure Monitor 솔루션에서 보안 통신을 사용하도록 설정하려면 루트 인증서 또는 서버 인증서를 사용하도록 선택할 수 있습니다. 루트 인증서를 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E706" s="18" t="n"/>
-      <c r="F706" s="18" t="n"/>
+      <c r="F706" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H706" s="18" t="n"/>
-      <c r="I706" s="13" t="n"/>
-      <c r="J706" s="13" t="n"/>
+      <c r="I706" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J706" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K706" s="19" t="n"/>
-      <c r="L706" s="19" t="n"/>
+      <c r="L706" s="19" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M706" s="20" t="n"/>
       <c r="N706" s="20" t="n"/>
       <c r="O706" s="20" t="n"/>
@@ -41158,7 +46533,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G556" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G707" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -41613,6 +46988,150 @@
     <hyperlink ref="I553" r:id="rId448"/>
     <hyperlink ref="I554" r:id="rId449"/>
     <hyperlink ref="I555" r:id="rId450"/>
+    <hyperlink ref="I556" r:id="rId451"/>
+    <hyperlink ref="I557" r:id="rId452"/>
+    <hyperlink ref="I558" r:id="rId453"/>
+    <hyperlink ref="I560" r:id="rId454"/>
+    <hyperlink ref="I561" r:id="rId455"/>
+    <hyperlink ref="I562" r:id="rId456"/>
+    <hyperlink ref="I563" r:id="rId457"/>
+    <hyperlink ref="I564" r:id="rId458"/>
+    <hyperlink ref="I565" r:id="rId459"/>
+    <hyperlink ref="I566" r:id="rId460"/>
+    <hyperlink ref="I567" r:id="rId461"/>
+    <hyperlink ref="I569" r:id="rId462"/>
+    <hyperlink ref="I570" r:id="rId463"/>
+    <hyperlink ref="I571" r:id="rId464"/>
+    <hyperlink ref="I572" r:id="rId465"/>
+    <hyperlink ref="I573" r:id="rId466"/>
+    <hyperlink ref="I574" r:id="rId467"/>
+    <hyperlink ref="I575" r:id="rId468"/>
+    <hyperlink ref="I576" r:id="rId469"/>
+    <hyperlink ref="I577" r:id="rId470"/>
+    <hyperlink ref="I578" r:id="rId471"/>
+    <hyperlink ref="I579" r:id="rId472"/>
+    <hyperlink ref="I580" r:id="rId473"/>
+    <hyperlink ref="I581" r:id="rId474"/>
+    <hyperlink ref="I582" r:id="rId475"/>
+    <hyperlink ref="I583" r:id="rId476"/>
+    <hyperlink ref="I584" r:id="rId477"/>
+    <hyperlink ref="I585" r:id="rId478"/>
+    <hyperlink ref="I586" r:id="rId479"/>
+    <hyperlink ref="I587" r:id="rId480"/>
+    <hyperlink ref="I588" r:id="rId481"/>
+    <hyperlink ref="I589" r:id="rId482"/>
+    <hyperlink ref="I590" r:id="rId483"/>
+    <hyperlink ref="I592" r:id="rId484"/>
+    <hyperlink ref="I593" r:id="rId485"/>
+    <hyperlink ref="I594" r:id="rId486"/>
+    <hyperlink ref="I595" r:id="rId487"/>
+    <hyperlink ref="I596" r:id="rId488"/>
+    <hyperlink ref="I597" r:id="rId489"/>
+    <hyperlink ref="I598" r:id="rId490"/>
+    <hyperlink ref="I600" r:id="rId491"/>
+    <hyperlink ref="I602" r:id="rId492"/>
+    <hyperlink ref="I603" r:id="rId493"/>
+    <hyperlink ref="I604" r:id="rId494"/>
+    <hyperlink ref="I605" r:id="rId495"/>
+    <hyperlink ref="I606" r:id="rId496"/>
+    <hyperlink ref="I607" r:id="rId497"/>
+    <hyperlink ref="I608" r:id="rId498"/>
+    <hyperlink ref="I609" r:id="rId499"/>
+    <hyperlink ref="I610" r:id="rId500"/>
+    <hyperlink ref="I611" r:id="rId501"/>
+    <hyperlink ref="I612" r:id="rId502"/>
+    <hyperlink ref="I613" r:id="rId503"/>
+    <hyperlink ref="I614" r:id="rId504"/>
+    <hyperlink ref="I615" r:id="rId505"/>
+    <hyperlink ref="I616" r:id="rId506"/>
+    <hyperlink ref="I617" r:id="rId507"/>
+    <hyperlink ref="I618" r:id="rId508"/>
+    <hyperlink ref="I619" r:id="rId509"/>
+    <hyperlink ref="I620" r:id="rId510"/>
+    <hyperlink ref="I621" r:id="rId511"/>
+    <hyperlink ref="I622" r:id="rId512"/>
+    <hyperlink ref="I623" r:id="rId513"/>
+    <hyperlink ref="I624" r:id="rId514"/>
+    <hyperlink ref="I625" r:id="rId515"/>
+    <hyperlink ref="I626" r:id="rId516"/>
+    <hyperlink ref="I627" r:id="rId517"/>
+    <hyperlink ref="I628" r:id="rId518"/>
+    <hyperlink ref="I629" r:id="rId519"/>
+    <hyperlink ref="I630" r:id="rId520"/>
+    <hyperlink ref="I631" r:id="rId521"/>
+    <hyperlink ref="I632" r:id="rId522"/>
+    <hyperlink ref="I633" r:id="rId523"/>
+    <hyperlink ref="I634" r:id="rId524"/>
+    <hyperlink ref="I635" r:id="rId525"/>
+    <hyperlink ref="I636" r:id="rId526"/>
+    <hyperlink ref="I637" r:id="rId527"/>
+    <hyperlink ref="I638" r:id="rId528"/>
+    <hyperlink ref="I639" r:id="rId529"/>
+    <hyperlink ref="I640" r:id="rId530"/>
+    <hyperlink ref="I641" r:id="rId531"/>
+    <hyperlink ref="I642" r:id="rId532"/>
+    <hyperlink ref="I643" r:id="rId533"/>
+    <hyperlink ref="I644" r:id="rId534"/>
+    <hyperlink ref="I645" r:id="rId535"/>
+    <hyperlink ref="I646" r:id="rId536"/>
+    <hyperlink ref="I647" r:id="rId537"/>
+    <hyperlink ref="I648" r:id="rId538"/>
+    <hyperlink ref="I649" r:id="rId539"/>
+    <hyperlink ref="I650" r:id="rId540"/>
+    <hyperlink ref="I651" r:id="rId541"/>
+    <hyperlink ref="I652" r:id="rId542"/>
+    <hyperlink ref="I653" r:id="rId543"/>
+    <hyperlink ref="I654" r:id="rId544"/>
+    <hyperlink ref="I655" r:id="rId545"/>
+    <hyperlink ref="I656" r:id="rId546"/>
+    <hyperlink ref="I657" r:id="rId547"/>
+    <hyperlink ref="I658" r:id="rId548"/>
+    <hyperlink ref="I659" r:id="rId549"/>
+    <hyperlink ref="I660" r:id="rId550"/>
+    <hyperlink ref="I661" r:id="rId551"/>
+    <hyperlink ref="I662" r:id="rId552"/>
+    <hyperlink ref="I663" r:id="rId553"/>
+    <hyperlink ref="I664" r:id="rId554"/>
+    <hyperlink ref="I665" r:id="rId555"/>
+    <hyperlink ref="I666" r:id="rId556"/>
+    <hyperlink ref="I667" r:id="rId557"/>
+    <hyperlink ref="I668" r:id="rId558"/>
+    <hyperlink ref="I669" r:id="rId559"/>
+    <hyperlink ref="I670" r:id="rId560"/>
+    <hyperlink ref="I671" r:id="rId561"/>
+    <hyperlink ref="I672" r:id="rId562"/>
+    <hyperlink ref="I673" r:id="rId563"/>
+    <hyperlink ref="I674" r:id="rId564"/>
+    <hyperlink ref="I675" r:id="rId565"/>
+    <hyperlink ref="I677" r:id="rId566"/>
+    <hyperlink ref="I678" r:id="rId567"/>
+    <hyperlink ref="I679" r:id="rId568"/>
+    <hyperlink ref="I681" r:id="rId569"/>
+    <hyperlink ref="I682" r:id="rId570"/>
+    <hyperlink ref="I683" r:id="rId571"/>
+    <hyperlink ref="I684" r:id="rId572"/>
+    <hyperlink ref="I685" r:id="rId573"/>
+    <hyperlink ref="I686" r:id="rId574"/>
+    <hyperlink ref="I687" r:id="rId575"/>
+    <hyperlink ref="I688" r:id="rId576"/>
+    <hyperlink ref="I689" r:id="rId577"/>
+    <hyperlink ref="I690" r:id="rId578"/>
+    <hyperlink ref="I691" r:id="rId579"/>
+    <hyperlink ref="I692" r:id="rId580"/>
+    <hyperlink ref="I693" r:id="rId581"/>
+    <hyperlink ref="I694" r:id="rId582"/>
+    <hyperlink ref="I695" r:id="rId583"/>
+    <hyperlink ref="I696" r:id="rId584"/>
+    <hyperlink ref="I697" r:id="rId585"/>
+    <hyperlink ref="I698" r:id="rId586"/>
+    <hyperlink ref="I699" r:id="rId587"/>
+    <hyperlink ref="I700" r:id="rId588"/>
+    <hyperlink ref="I701" r:id="rId589"/>
+    <hyperlink ref="I702" r:id="rId590"/>
+    <hyperlink ref="I703" r:id="rId591"/>
+    <hyperlink ref="I704" r:id="rId592"/>
+    <hyperlink ref="I705" r:id="rId593"/>
+    <hyperlink ref="I706" r:id="rId594"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>
@@ -41709,11 +47228,6 @@
           <t>Use the "Import latest checklist" button to get the latest version of a review checklist</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>이 검사는 아직 검토되지 않았습니다</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>en</t>
@@ -41731,11 +47245,6 @@
           <t>열다</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>이 검사와 연관된 작업 항목이 있습니다</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>ja</t>
@@ -41753,11 +47262,6 @@
           <t>성취</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>이 검사는 확인되었으며 이와 관련된 추가 작업 항목이 없습니다</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>ko</t>
@@ -41770,11 +47274,6 @@
           <t>해당 없음</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>현재 설계에는 적용되지 않습니다.</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>pt</t>
@@ -41784,12 +47283,12 @@
     <row r="6">
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>필요 없음</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>필요 없음</t>
+          <t>Not applicable for current design</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -16676,7 +16676,7 @@
     <row r="320">
       <c r="A320" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B320" s="18" t="inlineStr">
@@ -16686,16 +16686,20 @@
       </c>
       <c r="C320" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D320" s="18" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis는 프리미엄 및 엔터프라이즈 계층에서 영역 중복 구성을 지원합니다. 영역 중복 캐시는 동일한 지역의 여러 Azure 가용성 영역에 노드를 배치할 수 있습니다. 데이터 센터 또는 AZ 중단을 단일 장애 지점으로 제거하고 캐시의 전반적인 가용성을 높입니다.</t>
+          <t>지역적으로 적용 가능한 경우 가용성 영역 활용(자동으로 활성화됨)</t>
         </is>
       </c>
       <c r="E320" s="18" t="n"/>
-      <c r="F320" s="18" t="n"/>
+      <c r="F320" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
       <c r="G320" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -16711,7 +16715,7 @@
       <c r="K320" s="19" t="n"/>
       <c r="L320" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>ac1d6380-f866-4bbd-a9b4-b1ee5d7908b8</t>
         </is>
       </c>
       <c r="M320" s="20" t="n"/>
@@ -16723,7 +16727,7 @@
     <row r="321">
       <c r="A321" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B321" s="18" t="inlineStr">
@@ -16733,16 +16737,20 @@
       </c>
       <c r="C321" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D321" s="18" t="inlineStr">
         <is>
-          <t>캐시 데이터는 메모리에 저장되기 때문에 드물게 계획되지 않은 여러 노드의 오류로 인해 모든 데이터가 삭제될 수 있습니다. 데이터가 완전히 손실되는 것을 방지하기 위해 Redis 지속성을 사용하면 메모리 내 데이터의 주기적인 스냅숏을 만들어 저장소 계정에 저장할 수 있습니다.</t>
+          <t>Microsoft에서 시작한 장애 조치(failover)에 유의하세요. 드문 경우지만 Microsoft는 영향을 받는 지역의 모든 IoT Hub를 해당 지역 쌍을 이루는 지역으로 장애 조치(failover)하기 위해 이러한 작업을 수행합니다.</t>
         </is>
       </c>
       <c r="E321" s="18" t="n"/>
-      <c r="F321" s="18" t="n"/>
+      <c r="F321" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="G321" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -16758,7 +16766,7 @@
       <c r="K321" s="19" t="n"/>
       <c r="L321" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>35f651e8-0124-4ef7-8c57-658e38609e6e</t>
         </is>
       </c>
       <c r="M321" s="20" t="n"/>
@@ -16770,7 +16778,7 @@
     <row r="322">
       <c r="A322" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B322" s="18" t="inlineStr">
@@ -16780,16 +16788,20 @@
       </c>
       <c r="C322" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D322" s="18" t="inlineStr">
         <is>
-          <t>지역 중복 스토리지 계정을 사용하여 Azure Cache for Redis 데이터를 유지하거나 지역 중복을 사용할 수 없는 경우 영역 중복을 유지합니다</t>
+          <t>중요한 워크로드에 대한 지역 간 DR 전략 고려</t>
         </is>
       </c>
       <c r="E322" s="18" t="n"/>
-      <c r="F322" s="18" t="n"/>
+      <c r="F322" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
       <c r="G322" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -16805,7 +16817,7 @@
       <c r="K322" s="19" t="n"/>
       <c r="L322" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>4ed3e490-dc06-4a1e-b467-5d0239d85540</t>
         </is>
       </c>
       <c r="M322" s="20" t="n"/>
@@ -16817,7 +16829,7 @@
     <row r="323">
       <c r="A323" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B323" s="18" t="inlineStr">
@@ -16827,16 +16839,20 @@
       </c>
       <c r="C323" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D323" s="18" t="inlineStr">
         <is>
-          <t>지역에서 복제는 일반적으로 두 개의 Azure 지역에 걸쳐 있는 둘 이상의 Azure Cache for Redis 인스턴스를 연결하는 메커니즘입니다. 지역에서 복제는 주로 지역 간 재해 복구를 위해 설계되었습니다. 두 개의 프리미엄 계층 캐시 인스턴스는 주 캐시에 대한 읽기 및 쓰기를 제공하는 방식으로 지역 복제를 통해 연결되며, 해당 데이터는 보조 캐시에 복제됩니다.</t>
+          <t>수동 장애 조치(failover)를 트리거하는 방법을 알아봅니다.</t>
         </is>
       </c>
       <c r="E323" s="18" t="n"/>
-      <c r="F323" s="18" t="n"/>
+      <c r="F323" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
       <c r="G323" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -16852,7 +16868,7 @@
       <c r="K323" s="19" t="n"/>
       <c r="L323" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>a11ecab0-db47-46f7-9aa7-17764e7e45a1</t>
         </is>
       </c>
       <c r="M323" s="20" t="n"/>
@@ -16864,28 +16880,28 @@
     <row r="324">
       <c r="A324" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B324" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C324" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D324" s="18" t="inlineStr">
         <is>
-          <t>다중 테넌트에 대한 명확한 규정 또는 비즈니스 요구 사항이 없는 한 Azure 리소스를 관리하기 위해 하나의 Entra 테넌트를 사용합니다.</t>
+          <t>장애 조치(failover) 후 장애 복구(failback)하는 방법을 알아봅니다.</t>
         </is>
       </c>
       <c r="E324" s="18" t="n"/>
       <c r="F324" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -16903,7 +16919,7 @@
       <c r="K324" s="19" t="n"/>
       <c r="L324" s="19" t="inlineStr">
         <is>
-          <t>70c15989-c726-42c7-b0d3-24b7375b9201</t>
+          <t>f9db8dfb-1194-460b-aedd-34dd6a69db22</t>
         </is>
       </c>
       <c r="M324" s="20" t="n"/>
@@ -16915,30 +16931,26 @@
     <row r="325">
       <c r="A325" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B325" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C325" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D325" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 테넌트를 관리하기 위한 다중 테넌트 자동화 접근 방식이 있는지 확인합니다.</t>
+          <t>Azure Cache for Redis는 프리미엄 및 엔터프라이즈 계층에서 영역 중복 구성을 지원합니다. 영역 중복 캐시는 동일한 지역의 여러 Azure 가용성 영역에 노드를 배치할 수 있습니다. 데이터 센터 또는 AZ 중단을 단일 장애 지점으로 제거하고 캐시의 전반적인 가용성을 높입니다.</t>
         </is>
       </c>
       <c r="E325" s="18" t="n"/>
-      <c r="F325" s="18" t="inlineStr">
-        <is>
-          <t>낮다</t>
-        </is>
-      </c>
+      <c r="F325" s="18" t="n"/>
       <c r="G325" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -16954,7 +16966,7 @@
       <c r="K325" s="19" t="n"/>
       <c r="L325" s="19" t="inlineStr">
         <is>
-          <t>6309957b-821a-43d1-b9d9-7fcf1802b747</t>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
         </is>
       </c>
       <c r="M325" s="20" t="n"/>
@@ -16966,30 +16978,26 @@
     <row r="326">
       <c r="A326" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B326" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C326" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D326" s="18" t="inlineStr">
         <is>
-          <t>다중 테넌트 관리를 위해 Azure Lighthouse 활용</t>
+          <t>캐시 데이터는 메모리에 저장되기 때문에 드물게 계획되지 않은 여러 노드의 오류로 인해 모든 데이터가 삭제될 수 있습니다. 데이터가 완전히 손실되는 것을 방지하기 위해 Redis 지속성을 사용하면 메모리 내 데이터의 주기적인 스냅숏을 만들어 저장소 계정에 저장할 수 있습니다.</t>
         </is>
       </c>
       <c r="E326" s="18" t="n"/>
-      <c r="F326" s="18" t="inlineStr">
-        <is>
-          <t>낮다</t>
-        </is>
-      </c>
+      <c r="F326" s="18" t="n"/>
       <c r="G326" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -17005,7 +17013,7 @@
       <c r="K326" s="19" t="n"/>
       <c r="L326" s="19" t="inlineStr">
         <is>
-          <t>78e11934-499a-45ed-8ef7-aae5578f0ecf</t>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
         </is>
       </c>
       <c r="M326" s="20" t="n"/>
@@ -17017,30 +17025,26 @@
     <row r="327">
       <c r="A327" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B327" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C327" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D327" s="18" t="inlineStr">
         <is>
-          <t>Azure Lighthouse가 파트너별로 테넌트를 관리하는 데 사용되는지 확인합니다.</t>
+          <t>지역 중복 스토리지 계정을 사용하여 Azure Cache for Redis 데이터를 유지하거나 지역 중복을 사용할 수 없는 경우 영역 중복을 유지합니다</t>
         </is>
       </c>
       <c r="E327" s="18" t="n"/>
-      <c r="F327" s="18" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
+      <c r="F327" s="18" t="n"/>
       <c r="G327" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -17056,7 +17060,7 @@
       <c r="K327" s="19" t="n"/>
       <c r="L327" s="19" t="inlineStr">
         <is>
-          <t>5d82e6df-6f61-42f2-82e2-3132d293be3d</t>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
         </is>
       </c>
       <c r="M327" s="20" t="n"/>
@@ -17068,30 +17072,26 @@
     <row r="328">
       <c r="A328" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B328" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C328" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D328" s="18" t="inlineStr">
         <is>
-          <t>테넌트 전체 계정 잠금을 방지하기 위해 긴급 액세스 또는 비상 계정을 구현합니다</t>
+          <t>지역에서 복제는 일반적으로 두 개의 Azure 지역에 걸쳐 있는 둘 이상의 Azure Cache for Redis 인스턴스를 연결하는 메커니즘입니다. 지역에서 복제는 주로 지역 간 재해 복구를 위해 설계되었습니다. 두 개의 프리미엄 계층 캐시 인스턴스는 주 캐시에 대한 읽기 및 쓰기를 제공하는 방식으로 지역 복제를 통해 연결되며, 해당 데이터는 보조 캐시에 복제됩니다.</t>
         </is>
       </c>
       <c r="E328" s="18" t="n"/>
-      <c r="F328" s="18" t="inlineStr">
-        <is>
-          <t>높다</t>
-        </is>
-      </c>
+      <c r="F328" s="18" t="n"/>
       <c r="G328" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -17103,15 +17103,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J328" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+      <c r="J328" s="13" t="n"/>
       <c r="K328" s="19" t="n"/>
       <c r="L328" s="19" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
         </is>
       </c>
       <c r="M328" s="20" t="n"/>
@@ -17128,7 +17124,7 @@
       </c>
       <c r="B329" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C329" s="18" t="inlineStr">
@@ -17138,7 +17134,7 @@
       </c>
       <c r="D329" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 로그를 플랫폼 중앙 Azure Monitor와 통합합니다. Azure Monitor를 사용하면 Azure의 로그 및 모니터링 데이터에 대한 단일 정보 원본을 사용할 수 있으므로 조직에 로그 수집 및 보존에 대한 요구 사항을 충족할 수 있는 클라우드 네이티브 옵션을 제공합니다.</t>
+          <t>다중 테넌트에 대한 명확한 규정 또는 비즈니스 요구 사항이 없는 한 Azure 리소스를 관리하기 위해 하나의 Entra 테넌트를 사용합니다.</t>
         </is>
       </c>
       <c r="E329" s="18" t="n"/>
@@ -17162,7 +17158,7 @@
       <c r="K329" s="19" t="n"/>
       <c r="L329" s="19" t="inlineStr">
         <is>
-          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
+          <t>70c15989-c726-42c7-b0d3-24b7375b9201</t>
         </is>
       </c>
       <c r="M329" s="20" t="n"/>
@@ -17179,7 +17175,7 @@
       </c>
       <c r="B330" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C330" s="18" t="inlineStr">
@@ -17189,13 +17185,13 @@
       </c>
       <c r="D330" s="18" t="inlineStr">
         <is>
-          <t>클라우드 운영 모델에 맞는 RBAC 모델을 적용합니다. 관리 그룹 및 구독에서 범위 지정 및 할당Scope and Assign across Management Groups and Subscriptions.</t>
+          <t>Microsoft Entra ID 테넌트를 관리하기 위한 다중 테넌트 자동화 접근 방식이 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E330" s="18" t="n"/>
       <c r="F330" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -17209,15 +17205,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J330" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="J330" s="13" t="n"/>
       <c r="K330" s="19" t="n"/>
       <c r="L330" s="19" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>6309957b-821a-43d1-b9d9-7fcf1802b747</t>
         </is>
       </c>
       <c r="M330" s="20" t="n"/>
@@ -17234,7 +17226,7 @@
       </c>
       <c r="B331" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C331" s="18" t="inlineStr">
@@ -17244,7 +17236,7 @@
       </c>
       <c r="D331" s="18" t="inlineStr">
         <is>
-          <t>Azure 환경에 대한 권한이 있는 모든 사용자에 대해 Microsoft Entra ID 조건부 액세스 정책 적용</t>
+          <t>다중 테넌트 관리를 위해 Azure Lighthouse 활용</t>
         </is>
       </c>
       <c r="E331" s="18" t="n"/>
@@ -17264,15 +17256,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J331" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+      <c r="J331" s="13" t="n"/>
       <c r="K331" s="19" t="n"/>
       <c r="L331" s="19" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>78e11934-499a-45ed-8ef7-aae5578f0ecf</t>
         </is>
       </c>
       <c r="M331" s="20" t="n"/>
@@ -17289,7 +17277,7 @@
       </c>
       <c r="B332" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C332" s="18" t="inlineStr">
@@ -17299,13 +17287,13 @@
       </c>
       <c r="D332" s="18" t="inlineStr">
         <is>
-          <t>Azure 환경에 대한 권한이 있는 모든 사용자에 대해 다단계 인증 적용</t>
+          <t>Azure Lighthouse가 파트너별로 테넌트를 관리하는 데 사용되는지 확인합니다.</t>
         </is>
       </c>
       <c r="E332" s="18" t="n"/>
       <c r="F332" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -17319,15 +17307,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J332" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
-        </is>
-      </c>
+      <c r="J332" s="13" t="n"/>
       <c r="K332" s="19" t="n"/>
       <c r="L332" s="19" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>5d82e6df-6f61-42f2-82e2-3132d293be3d</t>
         </is>
       </c>
       <c r="M332" s="20" t="n"/>
@@ -17354,13 +17338,13 @@
       </c>
       <c r="D333" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID PIM(Privileged Identity Management)을 적용하여 제로 스탠딩 액세스 및 최소 권한 설정</t>
+          <t>테넌트 전체 계정 잠금을 방지하기 위해 긴급 액세스 또는 비상 계정을 구현합니다</t>
         </is>
       </c>
       <c r="E333" s="18" t="n"/>
       <c r="F333" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -17382,7 +17366,7 @@
       <c r="K333" s="19" t="n"/>
       <c r="L333" s="19" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M333" s="20" t="n"/>
@@ -17409,13 +17393,13 @@
       </c>
       <c r="D334" s="18" t="inlineStr">
         <is>
-          <t>모든 계정 유형에 대해 인증 유형 회사 또는 학교 계정만 사용합니다. Microsoft 계정 사용 금지</t>
+          <t>Microsoft Entra ID 로그를 플랫폼 중앙 Azure Monitor와 통합합니다. Azure Monitor를 사용하면 Azure의 로그 및 모니터링 데이터에 대한 단일 정보 원본을 사용할 수 있으므로 조직에 로그 수집 및 보존에 대한 요구 사항을 충족할 수 있는 클라우드 네이티브 옵션을 제공합니다.</t>
         </is>
       </c>
       <c r="E334" s="18" t="n"/>
       <c r="F334" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -17429,15 +17413,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J334" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
+      <c r="J334" s="13" t="n"/>
       <c r="K334" s="19" t="n"/>
       <c r="L334" s="19" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
         </is>
       </c>
       <c r="M334" s="20" t="n"/>
@@ -17464,13 +17444,13 @@
       </c>
       <c r="D335" s="18" t="inlineStr">
         <is>
-          <t>그룹만 사용하여 권한을 할당합니다. 그룹 관리 시스템이 이미 있는 경우 Azure-AD 전용 그룹에 온-프레미스 그룹을 추가합니다.</t>
+          <t>클라우드 운영 모델에 맞는 RBAC 모델을 적용합니다. 관리 그룹 및 구독에서 범위 지정 및 할당Scope and Assign across Management Groups and Subscriptions.</t>
         </is>
       </c>
       <c r="E335" s="18" t="n"/>
       <c r="F335" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -17486,13 +17466,13 @@
       </c>
       <c r="J335" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="K335" s="19" t="n"/>
       <c r="L335" s="19" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M335" s="20" t="n"/>
@@ -17519,13 +17499,13 @@
       </c>
       <c r="D336" s="18" t="inlineStr">
         <is>
-          <t>Entra Domain Services를 사용 중인 경우 모든 워크로드의 호환성을 평가합니다</t>
+          <t>Azure 환경에 대한 권한이 있는 모든 사용자에 대해 Microsoft Entra ID 조건부 액세스 정책 적용</t>
         </is>
       </c>
       <c r="E336" s="18" t="n"/>
       <c r="F336" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -17541,13 +17521,13 @@
       </c>
       <c r="J336" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="K336" s="19" t="n"/>
       <c r="L336" s="19" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M336" s="20" t="n"/>
@@ -17574,13 +17554,13 @@
       </c>
       <c r="D337" s="18" t="inlineStr">
         <is>
-          <t>필요한 경우 Microsoft Entra ID 애플리케이션 프록시를 사용하여 원격 사용자에게 내부 애플리케이션(클라우드 또는 온-프레미스에서 호스트됨)에 대한 안전하고 인증된 액세스를 제공합니다.</t>
+          <t>Azure 환경에 대한 권한이 있는 모든 사용자에 대해 다단계 인증 적용</t>
         </is>
       </c>
       <c r="E337" s="18" t="n"/>
       <c r="F337" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -17596,13 +17576,13 @@
       </c>
       <c r="J337" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="K337" s="19" t="n"/>
       <c r="L337" s="19" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M337" s="20" t="n"/>
@@ -17629,7 +17609,7 @@
       </c>
       <c r="D338" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 역할 할당에 온-프레미스 동기화된 계정을 사용하지 마세요.</t>
+          <t>Microsoft Entra ID PIM(Privileged Identity Management)을 적용하여 제로 스탠딩 액세스 및 최소 권한 설정</t>
         </is>
       </c>
       <c r="E338" s="18" t="n"/>
@@ -17651,13 +17631,13 @@
       </c>
       <c r="J338" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="K338" s="19" t="n"/>
       <c r="L338" s="19" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M338" s="20" t="n"/>
@@ -17679,18 +17659,18 @@
       </c>
       <c r="C339" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D339" s="18" t="inlineStr">
         <is>
-          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
+          <t>모든 계정 유형에 대해 인증 유형 회사 또는 학교 계정만 사용합니다. Microsoft 계정 사용 금지</t>
         </is>
       </c>
       <c r="E339" s="18" t="n"/>
       <c r="F339" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -17706,13 +17686,13 @@
       </c>
       <c r="J339" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="K339" s="19" t="n"/>
       <c r="L339" s="19" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M339" s="20" t="n"/>
@@ -17734,12 +17714,12 @@
       </c>
       <c r="C340" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D340" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 흐름에서 이 암호화를 보여 줍니다.</t>
+          <t>그룹만 사용하여 권한을 할당합니다. 그룹 관리 시스템이 이미 있는 경우 Azure-AD 전용 그룹에 온-프레미스 그룹을 추가합니다.</t>
         </is>
       </c>
       <c r="E340" s="18" t="n"/>
@@ -17759,11 +17739,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J340" s="13" t="n"/>
+      <c r="J340" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+        </is>
+      </c>
       <c r="K340" s="19" t="n"/>
       <c r="L340" s="19" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M340" s="20" t="n"/>
@@ -17785,18 +17769,18 @@
       </c>
       <c r="C341" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D341" s="18" t="inlineStr">
         <is>
-          <t>MACsec을 사용할 수 없는 시나리오(예: ExpressRoute Direct를 사용하지 않는 경우)의 경우 VPN Gateway를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다.</t>
+          <t>Entra Domain Services를 사용 중인 경우 모든 워크로드의 호환성을 평가합니다</t>
         </is>
       </c>
       <c r="E341" s="18" t="n"/>
       <c r="F341" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -17812,13 +17796,13 @@
       </c>
       <c r="J341" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="K341" s="19" t="n"/>
       <c r="L341" s="19" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M341" s="20" t="n"/>
@@ -17840,12 +17824,12 @@
       </c>
       <c r="C342" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D342" s="18" t="inlineStr">
         <is>
-          <t>최대한의 유연성이 필요한 네트워크 시나리오를 위해 기존의 허브 앤 스포크(hub-and-spoke) 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 활용합니다.</t>
+          <t>필요한 경우 Microsoft Entra ID 애플리케이션 프록시를 사용하여 원격 사용자에게 내부 애플리케이션(클라우드 또는 온-프레미스에서 호스트됨)에 대한 안전하고 인증된 액세스를 제공합니다.</t>
         </is>
       </c>
       <c r="E342" s="18" t="n"/>
@@ -17867,13 +17851,13 @@
       </c>
       <c r="J342" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="K342" s="19" t="n"/>
       <c r="L342" s="19" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M342" s="20" t="n"/>
@@ -17890,23 +17874,23 @@
       </c>
       <c r="B343" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C343" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D343" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute 게이트웨이, VPN 게이트웨이 및 Azure Firewall 또는 중앙 허브 가상 네트워크의 파트너 NVA를 포함한 공유 네트워킹 서비스를 확인합니다. 필요한 경우 DNS 서버도 배포합니다.</t>
+          <t>Microsoft Entra ID 역할 할당에 온-프레미스 동기화된 계정을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="E343" s="18" t="n"/>
       <c r="F343" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -17920,11 +17904,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J343" s="13" t="n"/>
+      <c r="J343" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+        </is>
+      </c>
       <c r="K343" s="19" t="n"/>
       <c r="L343" s="19" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M343" s="20" t="n"/>
@@ -17941,17 +17929,17 @@
       </c>
       <c r="B344" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C344" s="18" t="inlineStr">
         <is>
-          <t>NVA</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D344" s="18" t="inlineStr">
         <is>
-          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따릅니다</t>
+          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
         </is>
       </c>
       <c r="E344" s="18" t="n"/>
@@ -17971,11 +17959,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J344" s="13" t="n"/>
+      <c r="J344" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K344" s="19" t="n"/>
       <c r="L344" s="19" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M344" s="20" t="n"/>
@@ -18002,13 +17994,13 @@
       </c>
       <c r="D345" s="18" t="inlineStr">
         <is>
-          <t>허브 및 스포크 시나리오에서 ExpressRoute와 VPN 게이트웨이 간의 전송이 필요한 경우 Azure Route Server를 사용합니다.</t>
+          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 흐름에서 이 암호화를 보여 줍니다.</t>
         </is>
       </c>
       <c r="E345" s="18" t="n"/>
       <c r="F345" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -18026,7 +18018,7 @@
       <c r="K345" s="19" t="n"/>
       <c r="L345" s="19" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M345" s="20" t="n"/>
@@ -18048,12 +18040,12 @@
       </c>
       <c r="C346" s="18" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D346" s="18" t="inlineStr">
         <is>
-          <t>Route Server를 사용하는 경우 Route Server 서브넷에 /27 접두사를 사용합니다.</t>
+          <t>MACsec을 사용할 수 없는 시나리오(예: ExpressRoute Direct를 사용하지 않는 경우)의 경우 VPN Gateway를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다.</t>
         </is>
       </c>
       <c r="E346" s="18" t="n"/>
@@ -18073,15 +18065,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J346" s="13" t="n"/>
-      <c r="K346" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J346" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
+      <c r="K346" s="19" t="n"/>
       <c r="L346" s="19" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M346" s="20" t="n"/>
@@ -18098,7 +18090,7 @@
       </c>
       <c r="B347" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C347" s="18" t="inlineStr">
@@ -18108,7 +18100,7 @@
       </c>
       <c r="D347" s="18" t="inlineStr">
         <is>
-          <t>Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간에 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다.</t>
+          <t>최대한의 유연성이 필요한 네트워크 시나리오를 위해 기존의 허브 앤 스포크(hub-and-spoke) 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 활용합니다.</t>
         </is>
       </c>
       <c r="E347" s="18" t="n"/>
@@ -18130,13 +18122,13 @@
       </c>
       <c r="J347" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K347" s="19" t="n"/>
       <c r="L347" s="19" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M347" s="20" t="n"/>
@@ -18153,7 +18145,7 @@
       </c>
       <c r="B348" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C348" s="18" t="inlineStr">
@@ -18163,13 +18155,13 @@
       </c>
       <c r="D348" s="18" t="inlineStr">
         <is>
-          <t>네트워크용 Azure Monitor를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
+          <t>ExpressRoute 게이트웨이, VPN 게이트웨이 및 Azure Firewall 또는 중앙 허브 가상 네트워크의 파트너 NVA를 포함한 공유 네트워킹 서비스를 확인합니다. 필요한 경우 DNS 서버도 배포합니다.</t>
         </is>
       </c>
       <c r="E348" s="18" t="n"/>
       <c r="F348" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -18183,15 +18175,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J348" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+      <c r="J348" s="13" t="n"/>
       <c r="K348" s="19" t="n"/>
       <c r="L348" s="19" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M348" s="20" t="n"/>
@@ -18213,12 +18201,12 @@
       </c>
       <c r="C349" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>NVA</t>
         </is>
       </c>
       <c r="D349" s="18" t="inlineStr">
         <is>
-          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 ExpressRoute를 통해 보급할 수 있는 최대 접두사 수(1000)인 VNet 피어링 제한(500)을 고려합니다</t>
+          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따릅니다</t>
         </is>
       </c>
       <c r="E349" s="18" t="n"/>
@@ -18239,14 +18227,10 @@
         </is>
       </c>
       <c r="J349" s="13" t="n"/>
-      <c r="K349" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K349" s="19" t="n"/>
       <c r="L349" s="19" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M349" s="20" t="n"/>
@@ -18263,23 +18247,23 @@
       </c>
       <c r="B350" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C350" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D350" s="18" t="inlineStr">
         <is>
-          <t>경로 테이블당 경로 제한(400)을 고려합니다.</t>
+          <t>허브 및 스포크 시나리오에서 ExpressRoute와 VPN 게이트웨이 간의 전송이 필요한 경우 Azure Route Server를 사용합니다.</t>
         </is>
       </c>
       <c r="E350" s="18" t="n"/>
       <c r="F350" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -18294,14 +18278,10 @@
         </is>
       </c>
       <c r="J350" s="13" t="n"/>
-      <c r="K350" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K350" s="19" t="n"/>
       <c r="L350" s="19" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M350" s="20" t="n"/>
@@ -18318,23 +18298,23 @@
       </c>
       <c r="B351" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C351" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="D351" s="18" t="inlineStr">
         <is>
-          <t>VNet 피어링을 구성할 때 '원격 가상 네트워크에 대한 트래픽 허용' 설정을 사용합니다</t>
+          <t>Route Server를 사용하는 경우 Route Server 서브넷에 /27 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="E351" s="18" t="n"/>
       <c r="F351" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -18351,12 +18331,12 @@
       <c r="J351" s="13" t="n"/>
       <c r="K351" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
         </is>
       </c>
       <c r="L351" s="19" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M351" s="20" t="n"/>
@@ -18378,12 +18358,12 @@
       </c>
       <c r="C352" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D352" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute를 Azure에 대한 기본 연결로 사용할 수 있는지 조사했는지 확인합니다.</t>
+          <t>Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간에 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다.</t>
         </is>
       </c>
       <c r="E352" s="18" t="n"/>
@@ -18405,13 +18385,13 @@
       </c>
       <c r="J352" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="K352" s="19" t="n"/>
       <c r="L352" s="19" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M352" s="20" t="n"/>
@@ -18428,24 +18408,20 @@
       </c>
       <c r="B353" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C353" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D353" s="18" t="inlineStr">
         <is>
-          <t>여러 ExpressRoute 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로를 선호하는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
-        </is>
-      </c>
-      <c r="E353" s="18" t="inlineStr">
-        <is>
-          <t>AS-path 접두사 및 연결 가중치를 사용하여 Azure에서 온-프레미스로의 트래픽에 영향을 주고, 자체 라우터의 전체 BGP 특성 범위를 사용하여 온-프레미스에서 Azure로의 트래픽에 영향을 줄 수 있습니다.</t>
-        </is>
-      </c>
+          <t>네트워크용 Azure Monitor를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
+        </is>
+      </c>
+      <c r="E353" s="18" t="n"/>
       <c r="F353" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -18464,13 +18440,13 @@
       </c>
       <c r="J353" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="K353" s="19" t="n"/>
       <c r="L353" s="19" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M353" s="20" t="n"/>
@@ -18487,17 +18463,17 @@
       </c>
       <c r="B354" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C354" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D354" s="18" t="inlineStr">
         <is>
-          <t>대역폭 및 성능 요구 사항에 따라 ExpressRoute/VPN 게이트웨이에 적합한 SKU를 사용하고 있는지 확인합니다.</t>
+          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 ExpressRoute를 통해 보급할 수 있는 최대 접두사 수(1000)인 VNet 피어링 제한(500)을 고려합니다</t>
         </is>
       </c>
       <c r="E354" s="18" t="n"/>
@@ -18517,19 +18493,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J354" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+      <c r="J354" s="13" t="n"/>
       <c r="K354" s="19" t="inlineStr">
         <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L354" s="19" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M354" s="20" t="n"/>
@@ -18546,23 +18518,23 @@
       </c>
       <c r="B355" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C355" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D355" s="18" t="inlineStr">
         <is>
-          <t>비용을 정당화하는 대역폭에 도달하는 경우에만 무제한 데이터 ExpressRoute 회로를 사용해야 합니다.</t>
+          <t>경로 테이블당 경로 제한(400)을 고려합니다.</t>
         </is>
       </c>
       <c r="E355" s="18" t="n"/>
       <c r="F355" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -18579,12 +18551,12 @@
       <c r="J355" s="13" t="n"/>
       <c r="K355" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
+          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L355" s="19" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M355" s="20" t="n"/>
@@ -18601,17 +18573,17 @@
       </c>
       <c r="B356" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C356" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D356" s="18" t="inlineStr">
         <is>
-          <t>회로의 피어링 위치가 로컬 SKU에 대한 Azure 지역을 지원하는 경우 ExpressRoute의 로컬 SKU를 활용하여 회로 비용을 줄입니다.</t>
+          <t>VNet 피어링을 구성할 때 '원격 가상 네트워크에 대한 트래픽 허용' 설정을 사용합니다</t>
         </is>
       </c>
       <c r="E356" s="18" t="n"/>
@@ -18634,12 +18606,12 @@
       <c r="J356" s="13" t="n"/>
       <c r="K356" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
         </is>
       </c>
       <c r="L356" s="19" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M356" s="20" t="n"/>
@@ -18656,7 +18628,7 @@
       </c>
       <c r="B357" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C357" s="18" t="inlineStr">
@@ -18666,7 +18638,7 @@
       </c>
       <c r="D357" s="18" t="inlineStr">
         <is>
-          <t>지원되는 Azure 지역에 영역 중복 ExpressRoute 게이트웨이를 배포합니다.</t>
+          <t>ExpressRoute를 Azure에 대한 기본 연결로 사용할 수 있는지 조사했는지 확인합니다.</t>
         </is>
       </c>
       <c r="E357" s="18" t="n"/>
@@ -18691,14 +18663,10 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K357" s="19" t="inlineStr">
-        <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
-        </is>
-      </c>
+      <c r="K357" s="19" t="n"/>
       <c r="L357" s="19" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M357" s="20" t="n"/>
@@ -18715,7 +18683,7 @@
       </c>
       <c r="B358" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C358" s="18" t="inlineStr">
@@ -18725,10 +18693,14 @@
       </c>
       <c r="D358" s="18" t="inlineStr">
         <is>
-          <t>10Gbps보다 높은 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 ExpressRoute Direct를 사용합니다.</t>
-        </is>
-      </c>
-      <c r="E358" s="18" t="n"/>
+          <t>여러 ExpressRoute 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로를 선호하는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
+        </is>
+      </c>
+      <c r="E358" s="18" t="inlineStr">
+        <is>
+          <t>AS-path 접두사 및 연결 가중치를 사용하여 Azure에서 온-프레미스로의 트래픽에 영향을 주고, 자체 라우터의 전체 BGP 특성 범위를 사용하여 온-프레미스에서 Azure로의 트래픽에 영향을 줄 수 있습니다.</t>
+        </is>
+      </c>
       <c r="F358" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -18753,7 +18725,7 @@
       <c r="K358" s="19" t="n"/>
       <c r="L358" s="19" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M358" s="20" t="n"/>
@@ -18780,7 +18752,7 @@
       </c>
       <c r="D359" s="18" t="inlineStr">
         <is>
-          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath를 사용하여 데이터 경로에서 ExpressRoute 게이트웨이를 우회합니다.</t>
+          <t>대역폭 및 성능 요구 사항에 따라 ExpressRoute/VPN 게이트웨이에 적합한 SKU를 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E359" s="18" t="n"/>
@@ -18805,10 +18777,14 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K359" s="19" t="n"/>
+      <c r="K359" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
+        </is>
+      </c>
       <c r="L359" s="19" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M359" s="20" t="n"/>
@@ -18825,23 +18801,23 @@
       </c>
       <c r="B360" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C360" s="18" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D360" s="18" t="inlineStr">
         <is>
-          <t>영역 중복 VPN Gateway를 사용하여 분기 또는 원격 위치를 Azure(사용 가능한 경우)에 연결합니다.</t>
+          <t>비용을 정당화하는 대역폭에 도달하는 경우에만 무제한 데이터 ExpressRoute 회로를 사용해야 합니다.</t>
         </is>
       </c>
       <c r="E360" s="18" t="n"/>
       <c r="F360" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -18855,19 +18831,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J360" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
-        </is>
-      </c>
+      <c r="J360" s="13" t="n"/>
       <c r="K360" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
+          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
         </is>
       </c>
       <c r="L360" s="19" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M360" s="20" t="n"/>
@@ -18884,23 +18856,23 @@
       </c>
       <c r="B361" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C361" s="18" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D361" s="18" t="inlineStr">
         <is>
-          <t>온-프레미스에서 중복 VPN 어플라이언스(활성/활성 또는 활성/수동)를 사용합니다.</t>
+          <t>회로의 피어링 위치가 로컬 SKU에 대한 Azure 지역을 지원하는 경우 ExpressRoute의 로컬 SKU를 활용하여 회로 비용을 줄입니다.</t>
         </is>
       </c>
       <c r="E361" s="18" t="n"/>
       <c r="F361" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -18914,15 +18886,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J361" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
-        </is>
-      </c>
-      <c r="K361" s="19" t="n"/>
+      <c r="J361" s="13" t="n"/>
+      <c r="K361" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
+        </is>
+      </c>
       <c r="L361" s="19" t="inlineStr">
         <is>
-          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M361" s="20" t="n"/>
@@ -18939,7 +18911,7 @@
       </c>
       <c r="B362" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C362" s="18" t="inlineStr">
@@ -18949,13 +18921,13 @@
       </c>
       <c r="D362" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 비용을 절감하기 위해 로컬 Azure 지역에 대한 ExpressRoute 로컬 회로를 사용하는 것이 좋습니다</t>
+          <t>지원되는 Azure 지역에 영역 중복 ExpressRoute 게이트웨이를 배포합니다.</t>
         </is>
       </c>
       <c r="E362" s="18" t="n"/>
       <c r="F362" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -18974,10 +18946,14 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K362" s="19" t="n"/>
+      <c r="K362" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
+        </is>
+      </c>
       <c r="L362" s="19" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M362" s="20" t="n"/>
@@ -18994,7 +18970,7 @@
       </c>
       <c r="B363" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C363" s="18" t="inlineStr">
@@ -19004,7 +18980,7 @@
       </c>
       <c r="D363" s="18" t="inlineStr">
         <is>
-          <t>트래픽 격리 또는 전용 대역폭이 필요한 경우(예: 프로덕션 환경과 비프로덕션 환경을 분리하기 위해) 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
+          <t>10Gbps보다 높은 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 ExpressRoute Direct를 사용합니다.</t>
         </is>
       </c>
       <c r="E363" s="18" t="n"/>
@@ -19032,7 +19008,7 @@
       <c r="K363" s="19" t="n"/>
       <c r="L363" s="19" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M363" s="20" t="n"/>
@@ -19049,7 +19025,7 @@
       </c>
       <c r="B364" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C364" s="18" t="inlineStr">
@@ -19059,7 +19035,7 @@
       </c>
       <c r="D364" s="18" t="inlineStr">
         <is>
-          <t>기본 제공 Express Route Insights를 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
+          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath를 사용하여 데이터 경로에서 ExpressRoute 게이트웨이를 우회합니다.</t>
         </is>
       </c>
       <c r="E364" s="18" t="n"/>
@@ -19087,7 +19063,7 @@
       <c r="K364" s="19" t="n"/>
       <c r="L364" s="19" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M364" s="20" t="n"/>
@@ -19104,17 +19080,17 @@
       </c>
       <c r="B365" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C365" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D365" s="18" t="inlineStr">
         <is>
-          <t>네트워크 전체, 특히 온-프레미스와 Azure 간의 연결을 모니터링하려면 연결 모니터를 사용합니다.</t>
+          <t>영역 중복 VPN Gateway를 사용하여 분기 또는 원격 위치를 Azure(사용 가능한 경우)에 연결합니다.</t>
         </is>
       </c>
       <c r="E365" s="18" t="n"/>
@@ -19136,13 +19112,17 @@
       </c>
       <c r="J365" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K365" s="19" t="n"/>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+        </is>
+      </c>
+      <c r="K365" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L365" s="19" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M365" s="20" t="n"/>
@@ -19164,12 +19144,12 @@
       </c>
       <c r="C366" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D366" s="18" t="inlineStr">
         <is>
-          <t>중복성을 위해 서로 다른 피어링 위치의 ExpressRoute 회로를 사용합니다.</t>
+          <t>온-프레미스에서 중복 VPN 어플라이언스(활성/활성 또는 활성/수동)를 사용합니다.</t>
         </is>
       </c>
       <c r="E366" s="18" t="n"/>
@@ -19191,17 +19171,13 @@
       </c>
       <c r="J366" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K366" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+        </is>
+      </c>
+      <c r="K366" s="19" t="n"/>
       <c r="L366" s="19" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
         </is>
       </c>
       <c r="M366" s="20" t="n"/>
@@ -19218,7 +19194,7 @@
       </c>
       <c r="B367" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C367" s="18" t="inlineStr">
@@ -19228,13 +19204,13 @@
       </c>
       <c r="D367" s="18" t="inlineStr">
         <is>
-          <t>특히 단일 ExpressRoute 회로만 사용하는 경우 사이트 간 VPN을 ExpressRoute의 장애 조치(failover)로 사용합니다.</t>
+          <t>ExpressRoute Direct를 사용하는 경우 비용을 절감하기 위해 로컬 Azure 지역에 대한 ExpressRoute 로컬 회로를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="E367" s="18" t="n"/>
       <c r="F367" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -19248,11 +19224,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J367" s="13" t="n"/>
+      <c r="J367" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K367" s="19" t="n"/>
       <c r="L367" s="19" t="inlineStr">
         <is>
-          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M367" s="20" t="n"/>
@@ -19269,7 +19249,7 @@
       </c>
       <c r="B368" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C368" s="18" t="inlineStr">
@@ -19279,13 +19259,13 @@
       </c>
       <c r="D368" s="18" t="inlineStr">
         <is>
-          <t>GatewaySubnet에서 경로 테이블을 사용하는 경우 게이트웨이 경로가 전파되었는지 확인합니다.</t>
+          <t>트래픽 격리 또는 전용 대역폭이 필요한 경우(예: 프로덕션 환경과 비프로덕션 환경을 분리하기 위해) 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="E368" s="18" t="n"/>
       <c r="F368" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -19299,15 +19279,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J368" s="13" t="n"/>
-      <c r="K368" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
-        </is>
-      </c>
+      <c r="J368" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K368" s="19" t="n"/>
       <c r="L368" s="19" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M368" s="20" t="n"/>
@@ -19324,7 +19304,7 @@
       </c>
       <c r="B369" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C369" s="18" t="inlineStr">
@@ -19334,13 +19314,13 @@
       </c>
       <c r="D369" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute를 사용하는 경우 온-프레미스 라우팅은 동적이어야 하며, 연결 오류가 발생할 경우 회로의 나머지 연결로 수렴되어야 합니다. 로드는 두 연결 모두에서 이상적으로는 액티브/액티브로 공유되어야 하지만 액티브/패시브도 지원됩니다.</t>
+          <t>기본 제공 Express Route Insights를 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
         </is>
       </c>
       <c r="E369" s="18" t="n"/>
       <c r="F369" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -19354,11 +19334,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J369" s="13" t="n"/>
+      <c r="J369" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K369" s="19" t="n"/>
       <c r="L369" s="19" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M369" s="20" t="n"/>
@@ -19375,7 +19359,7 @@
       </c>
       <c r="B370" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C370" s="18" t="inlineStr">
@@ -19385,7 +19369,7 @@
       </c>
       <c r="D370" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute 회로의 두 물리적 링크가 네트워크에 있는 두 개의 고유한 에지 디바이스에 연결되어 있는지 확인합니다.</t>
+          <t>네트워크 전체, 특히 온-프레미스와 Azure 간의 연결을 모니터링하려면 연결 모니터를 사용합니다.</t>
         </is>
       </c>
       <c r="E370" s="18" t="n"/>
@@ -19413,7 +19397,7 @@
       <c r="K370" s="19" t="n"/>
       <c r="L370" s="19" t="inlineStr">
         <is>
-          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M370" s="20" t="n"/>
@@ -19440,7 +19424,7 @@
       </c>
       <c r="D371" s="18" t="inlineStr">
         <is>
-          <t>BFD(Bidirectional Forwarding Detection)가 고객 또는 프로바이더 에지 라우팅 디바이스에서 활성화되고 구성되도록 보장합니다.</t>
+          <t>중복성을 위해 서로 다른 피어링 위치의 ExpressRoute 회로를 사용합니다.</t>
         </is>
       </c>
       <c r="E371" s="18" t="n"/>
@@ -19465,10 +19449,14 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K371" s="19" t="n"/>
+      <c r="K371" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
+        </is>
+      </c>
       <c r="L371" s="19" t="inlineStr">
         <is>
-          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M371" s="20" t="n"/>
@@ -19495,13 +19483,13 @@
       </c>
       <c r="D372" s="18" t="inlineStr">
         <is>
-          <t>복원력을 높이기 위해 서로 다른 피어링 위치에서 둘 이상의 회로에 ExpressRoute 게이트웨이를 연결합니다.</t>
+          <t>특히 단일 ExpressRoute 회로만 사용하는 경우 사이트 간 VPN을 ExpressRoute의 장애 조치(failover)로 사용합니다.</t>
         </is>
       </c>
       <c r="E372" s="18" t="n"/>
       <c r="F372" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -19515,15 +19503,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J372" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+      <c r="J372" s="13" t="n"/>
       <c r="K372" s="19" t="n"/>
       <c r="L372" s="19" t="inlineStr">
         <is>
-          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
+          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
         </is>
       </c>
       <c r="M372" s="20" t="n"/>
@@ -19540,7 +19524,7 @@
       </c>
       <c r="B373" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C373" s="18" t="inlineStr">
@@ -19550,13 +19534,13 @@
       </c>
       <c r="D373" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute 가상 네트워크 게이트웨이에 대한 진단 로그 및 경고를 구성합니다.</t>
+          <t>GatewaySubnet에서 경로 테이블을 사용하는 경우 게이트웨이 경로가 전파되었는지 확인합니다.</t>
         </is>
       </c>
       <c r="E373" s="18" t="n"/>
       <c r="F373" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -19570,15 +19554,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J373" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K373" s="19" t="n"/>
+      <c r="J373" s="13" t="n"/>
+      <c r="K373" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
+        </is>
+      </c>
       <c r="L373" s="19" t="inlineStr">
         <is>
-          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M373" s="20" t="n"/>
@@ -19595,7 +19579,7 @@
       </c>
       <c r="B374" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C374" s="18" t="inlineStr">
@@ -19605,13 +19589,13 @@
       </c>
       <c r="D374" s="18" t="inlineStr">
         <is>
-          <t>VNet 간 통신에 ExpressRoute 회로를 사용하지 마세요.</t>
+          <t>ExpressRoute를 사용하는 경우 온-프레미스 라우팅은 동적이어야 하며, 연결 오류가 발생할 경우 회로의 나머지 연결로 수렴되어야 합니다. 로드는 두 연결 모두에서 이상적으로는 액티브/액티브로 공유되어야 하지만 액티브/패시브도 지원됩니다.</t>
         </is>
       </c>
       <c r="E374" s="18" t="n"/>
       <c r="F374" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -19625,15 +19609,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J374" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+      <c r="J374" s="13" t="n"/>
       <c r="K374" s="19" t="n"/>
       <c r="L374" s="19" t="inlineStr">
         <is>
-          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M374" s="20" t="n"/>
@@ -19650,7 +19630,7 @@
       </c>
       <c r="B375" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C375" s="18" t="inlineStr">
@@ -19660,13 +19640,13 @@
       </c>
       <c r="D375" s="18" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
+          <t>ExpressRoute 회로의 두 물리적 링크가 네트워크에 있는 두 개의 고유한 에지 디바이스에 연결되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E375" s="18" t="n"/>
       <c r="F375" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -19682,13 +19662,13 @@
       </c>
       <c r="J375" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K375" s="19" t="n"/>
       <c r="L375" s="19" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
         </is>
       </c>
       <c r="M375" s="20" t="n"/>
@@ -19705,23 +19685,23 @@
       </c>
       <c r="B376" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C376" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D376" s="18" t="inlineStr">
         <is>
-          <t>개인 인터넷에 대한 주소 할당 범위의 IP 주소를 사용합니다(RFC 1918).</t>
+          <t>BFD(Bidirectional Forwarding Detection)가 고객 또는 프로바이더 에지 라우팅 디바이스에서 활성화되고 구성되도록 보장합니다.</t>
         </is>
       </c>
       <c r="E376" s="18" t="n"/>
       <c r="F376" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -19737,17 +19717,13 @@
       </c>
       <c r="J376" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K376" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K376" s="19" t="n"/>
       <c r="L376" s="19" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
         </is>
       </c>
       <c r="M376" s="20" t="n"/>
@@ -19764,17 +19740,17 @@
       </c>
       <c r="B377" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C377" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D377" s="18" t="inlineStr">
         <is>
-          <t>IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요.</t>
+          <t>복원력을 높이기 위해 서로 다른 피어링 위치에서 둘 이상의 회로에 ExpressRoute 게이트웨이를 연결합니다.</t>
         </is>
       </c>
       <c r="E377" s="18" t="n"/>
@@ -19796,17 +19772,13 @@
       </c>
       <c r="J377" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K377" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K377" s="19" t="n"/>
       <c r="L377" s="19" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
         </is>
       </c>
       <c r="M377" s="20" t="n"/>
@@ -19823,23 +19795,23 @@
       </c>
       <c r="B378" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C378" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D378" s="18" t="inlineStr">
         <is>
-          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t>ExpressRoute 가상 네트워크 게이트웨이에 대한 진단 로그 및 경고를 구성합니다.</t>
         </is>
       </c>
       <c r="E378" s="18" t="n"/>
       <c r="F378" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -19855,13 +19827,13 @@
       </c>
       <c r="J378" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K378" s="19" t="n"/>
       <c r="L378" s="19" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
         </is>
       </c>
       <c r="M378" s="20" t="n"/>
@@ -19878,17 +19850,17 @@
       </c>
       <c r="B379" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C379" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D379" s="18" t="inlineStr">
         <is>
-          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 사용하여 확인을 위해 Azure 프라이빗 DNS를 사용합니다.</t>
+          <t>VNet 간 통신에 ExpressRoute 회로를 사용하지 마세요.</t>
         </is>
       </c>
       <c r="E379" s="18" t="n"/>
@@ -19910,13 +19882,13 @@
       </c>
       <c r="J379" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K379" s="19" t="n"/>
       <c r="L379" s="19" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
         </is>
       </c>
       <c r="M379" s="20" t="n"/>
@@ -19938,18 +19910,18 @@
       </c>
       <c r="C380" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D380" s="18" t="inlineStr">
         <is>
-          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="E380" s="18" t="n"/>
       <c r="F380" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -19965,13 +19937,13 @@
       </c>
       <c r="J380" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K380" s="19" t="n"/>
       <c r="L380" s="19" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M380" s="20" t="n"/>
@@ -19988,17 +19960,17 @@
       </c>
       <c r="B381" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C381" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D381" s="18" t="inlineStr">
         <is>
-          <t>자체 DNS(예: Red Hat OpenShift)를 요구하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
+          <t>개인 인터넷에 대한 주소 할당 범위의 IP 주소를 사용합니다(RFC 1918).</t>
         </is>
       </c>
       <c r="E381" s="18" t="n"/>
@@ -20018,11 +19990,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J381" s="13" t="n"/>
-      <c r="K381" s="19" t="n"/>
+      <c r="J381" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K381" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
+        </is>
+      </c>
       <c r="L381" s="19" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M381" s="20" t="n"/>
@@ -20039,17 +20019,17 @@
       </c>
       <c r="B382" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C382" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D382" s="18" t="inlineStr">
         <is>
-          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
+          <t>IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요.</t>
         </is>
       </c>
       <c r="E382" s="18" t="n"/>
@@ -20071,13 +20051,17 @@
       </c>
       <c r="J382" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
-      <c r="K382" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K382" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
+        </is>
+      </c>
       <c r="L382" s="19" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M382" s="20" t="n"/>
@@ -20094,23 +20078,23 @@
       </c>
       <c r="B383" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C383" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D383" s="18" t="inlineStr">
         <is>
-          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
+          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="E383" s="18" t="n"/>
       <c r="F383" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -20124,11 +20108,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J383" s="13" t="n"/>
+      <c r="J383" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K383" s="19" t="n"/>
       <c r="L383" s="19" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M383" s="20" t="n"/>
@@ -20145,17 +20133,17 @@
       </c>
       <c r="B384" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C384" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D384" s="18" t="inlineStr">
         <is>
-          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
+          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 사용하여 확인을 위해 Azure 프라이빗 DNS를 사용합니다.</t>
         </is>
       </c>
       <c r="E384" s="18" t="n"/>
@@ -20175,15 +20163,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J384" s="13" t="n"/>
-      <c r="K384" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J384" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
+      <c r="K384" s="19" t="n"/>
       <c r="L384" s="19" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M384" s="20" t="n"/>
@@ -20205,18 +20193,18 @@
       </c>
       <c r="C385" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D385" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
+          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E385" s="18" t="n"/>
       <c r="F385" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -20232,13 +20220,13 @@
       </c>
       <c r="J385" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="K385" s="19" t="n"/>
       <c r="L385" s="19" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M385" s="20" t="n"/>
@@ -20255,23 +20243,23 @@
       </c>
       <c r="B386" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C386" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D386" s="18" t="inlineStr">
         <is>
-          <t>글로벌 Azure Firewall 정책을 만들어 글로벌 네트워크 환경에서 보안 태세를 제어하고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
+          <t>자체 DNS(예: Red Hat OpenShift)를 요구하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="E386" s="18" t="n"/>
       <c r="F386" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -20285,15 +20273,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J386" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J386" s="13" t="n"/>
       <c r="K386" s="19" t="n"/>
       <c r="L386" s="19" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M386" s="20" t="n"/>
@@ -20310,23 +20294,23 @@
       </c>
       <c r="B387" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C387" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D387" s="18" t="inlineStr">
         <is>
-          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
+          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
         </is>
       </c>
       <c r="E387" s="18" t="n"/>
       <c r="F387" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -20342,13 +20326,13 @@
       </c>
       <c r="J387" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="K387" s="19" t="n"/>
       <c r="L387" s="19" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M387" s="20" t="n"/>
@@ -20370,12 +20354,12 @@
       </c>
       <c r="C388" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D388" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
+          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E388" s="18" t="n"/>
@@ -20395,15 +20379,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J388" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+      <c r="J388" s="13" t="n"/>
       <c r="K388" s="19" t="n"/>
       <c r="L388" s="19" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M388" s="20" t="n"/>
@@ -20425,18 +20405,18 @@
       </c>
       <c r="C389" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D389" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
+          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
         </is>
       </c>
       <c r="E389" s="18" t="n"/>
       <c r="F389" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -20450,15 +20430,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J389" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K389" s="19" t="n"/>
+      <c r="J389" s="13" t="n"/>
+      <c r="K389" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L389" s="19" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M389" s="20" t="n"/>
@@ -20480,12 +20460,12 @@
       </c>
       <c r="C390" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D390" s="18" t="inlineStr">
         <is>
-          <t>WAF 및 기타 역방향 프록시 배포는 인바운드 HTTP/S 연결에 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
+          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
         </is>
       </c>
       <c r="E390" s="18" t="n"/>
@@ -20507,13 +20487,13 @@
       </c>
       <c r="J390" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K390" s="19" t="n"/>
       <c r="L390" s="19" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M390" s="20" t="n"/>
@@ -20535,18 +20515,18 @@
       </c>
       <c r="C391" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D391" s="18" t="inlineStr">
         <is>
-          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
+          <t>글로벌 Azure Firewall 정책을 만들어 글로벌 네트워크 환경에서 보안 태세를 제어하고 모든 Azure Firewall 인스턴스에 할당합니다. Azure 역할 기반 액세스 제어를 통해 증분 방화벽 정책을 로컬 보안 팀에 위임하여 특정 지역의 요구 사항을 충족하는 세분화된 정책을 허용합니다.</t>
         </is>
       </c>
       <c r="E391" s="18" t="n"/>
       <c r="F391" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -20568,7 +20548,7 @@
       <c r="K391" s="19" t="n"/>
       <c r="L391" s="19" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M391" s="20" t="n"/>
@@ -20595,13 +20575,13 @@
       </c>
       <c r="D392" s="18" t="inlineStr">
         <is>
-          <t>FQDN 기반 네트워크 규칙 및 DNS 프록시와 함께 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 프로토콜을 통해 인터넷으로의 송신 트래픽을 필터링합니다.</t>
+          <t>조직에서 이러한 솔루션을 사용하여 아웃바운드 연결을 보호하려는 경우 Firewall Manager 내에서 지원되는 파트너 SaaS 보안 공급자를 구성합니다.</t>
         </is>
       </c>
       <c r="E392" s="18" t="n"/>
       <c r="F392" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -20615,15 +20595,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J392" s="13" t="n"/>
-      <c r="K392" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.dnsSettings.enableProxy == true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J392" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K392" s="19" t="n"/>
       <c r="L392" s="19" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M392" s="20" t="n"/>
@@ -20645,18 +20625,18 @@
       </c>
       <c r="C393" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D393" s="18" t="inlineStr">
         <is>
-          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="E393" s="18" t="n"/>
       <c r="F393" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -20670,15 +20650,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J393" s="13" t="n"/>
-      <c r="K393" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.sku.tier == 'Premium') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J393" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K393" s="19" t="n"/>
       <c r="L393" s="19" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M393" s="20" t="n"/>
@@ -20700,18 +20680,18 @@
       </c>
       <c r="C394" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D394" s="18" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="E394" s="18" t="n"/>
       <c r="F394" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -20725,15 +20705,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J394" s="13" t="n"/>
-      <c r="K394" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.threatIntelMode == 'Deny') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J394" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K394" s="19" t="n"/>
       <c r="L394" s="19" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M394" s="20" t="n"/>
@@ -20755,12 +20735,12 @@
       </c>
       <c r="C395" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D395" s="18" t="inlineStr">
         <is>
-          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
+          <t>WAF 및 기타 역방향 프록시 배포는 인바운드 HTTP/S 연결에 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
         </is>
       </c>
       <c r="E395" s="18" t="n"/>
@@ -20780,15 +20760,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J395" s="13" t="n"/>
-      <c r="K395" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.intrusionDetection.mode == 'Deny') | project id, compliant</t>
-        </is>
-      </c>
+      <c r="J395" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K395" s="19" t="n"/>
       <c r="L395" s="19" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M395" s="20" t="n"/>
@@ -20810,12 +20790,12 @@
       </c>
       <c r="C396" s="18" t="inlineStr">
         <is>
-          <t>Firewall</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D396" s="18" t="inlineStr">
         <is>
-          <t>Virtual WAN에 연결되지 않은 VNet의 서브넷의 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
+          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="E396" s="18" t="n"/>
@@ -20835,15 +20815,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J396" s="13" t="n"/>
-      <c r="K396" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetId=tostring(subnets.id), subnetName=tostring(subnets.name),subnetRT=subnets.properties.routeTable.id | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend hasRT = isnotnull(subnetRT) | distinct id, hasRT, subnetId | join kind=fullouter (resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | extend isVWAN=(tolower(split(properties_virtualNetworkPeerings.name, '_')[0]) == 'remotevnettohubpeering') | mv-expand properties.subnets | project id, isVWAN, name, subnetId=tostring(properties_subnets.id), subnetName=tostring(properties_subnets.name) | summarize PeeredToVWAN=max(isVWAN) by id, subnetId | project id, subnetId, isVWANpeer = (PeeredToVWAN == true)) on subnetId | project id=iff(isnotempty(id), id, id1), subnetId=iff(isnotempty(subnetId), subnetId, subnetId1), hasRT, isVWANpeer | extend compliant = (hasRT==true or isVWANpeer==true) | distinct id, subnetId, compliant</t>
-        </is>
-      </c>
+      <c r="J396" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K396" s="19" t="n"/>
       <c r="L396" s="19" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M396" s="20" t="n"/>
@@ -20860,17 +20840,17 @@
       </c>
       <c r="B397" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C397" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D397" s="18" t="inlineStr">
         <is>
-          <t>예정된 호환성이 손상되는 변경 전에 네트워크 아웃바운드 트래픽 구성 및 전략을 평가하고 검토합니다. 2025년 9월 30일에 새 배포에 대한 기본 아웃바운드 액세스가 사용 중지되고 명시적 액세스 구성만 허용됩니다</t>
+          <t>FQDN 기반 네트워크 규칙 및 DNS 프록시와 함께 Azure Firewall을 사용하여 애플리케이션 규칙에서 지원하지 않는 프로토콜을 통해 인터넷으로의 송신 트래픽을 필터링합니다.</t>
         </is>
       </c>
       <c r="E397" s="18" t="n"/>
@@ -20891,10 +20871,14 @@
         </is>
       </c>
       <c r="J397" s="13" t="n"/>
-      <c r="K397" s="19" t="n"/>
+      <c r="K397" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.dnsSettings.enableProxy == true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L397" s="19" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M397" s="20" t="n"/>
@@ -20916,12 +20900,12 @@
       </c>
       <c r="C398" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D398" s="18" t="inlineStr">
         <is>
-          <t>보호된 모든 공용 IP 주소(DDoS IP 또는 네트워크 보호)에 대한 DDoS 관련 로그를 저장하는 진단 설정을 추가합니다.</t>
+          <t>추가 보안 및 보호를 위해 Azure Firewall 프리미엄을 사용합니다.</t>
         </is>
       </c>
       <c r="E398" s="18" t="n"/>
@@ -20941,15 +20925,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J398" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K398" s="19" t="n"/>
+      <c r="J398" s="13" t="n"/>
+      <c r="K398" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.sku.tier == 'Premium') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L398" s="19" t="inlineStr">
         <is>
-          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M398" s="20" t="n"/>
@@ -20966,7 +20950,7 @@
       </c>
       <c r="B399" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C399" s="18" t="inlineStr">
@@ -20976,13 +20960,13 @@
       </c>
       <c r="D399" s="18" t="inlineStr">
         <is>
-          <t>모든 Azure Firewall 배포에 대해 리소스별 대상 테이블을 사용하여 로그를 저장하는 진단 설정을 추가합니다.</t>
+          <t>추가 보호를 위해 Azure Firewall 위협 인텔리전스 모드를 경고 및 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="E399" s="18" t="n"/>
       <c r="F399" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -20996,15 +20980,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J399" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K399" s="19" t="n"/>
+      <c r="J399" s="13" t="n"/>
+      <c r="K399" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.threatIntelMode == 'Deny') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L399" s="19" t="inlineStr">
         <is>
-          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M399" s="20" t="n"/>
@@ -21021,7 +21005,7 @@
       </c>
       <c r="B400" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C400" s="18" t="inlineStr">
@@ -21031,13 +21015,13 @@
       </c>
       <c r="D400" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall 클래식 규칙(있는 경우)에서 방화벽 정책으로 마이그레이션합니다.</t>
+          <t>추가 보호를 위해 Azure Firewall IDPS 모드를 거부로 구성합니다.</t>
         </is>
       </c>
       <c r="E400" s="18" t="n"/>
       <c r="F400" s="18" t="inlineStr">
         <is>
-          <t>중요하다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
@@ -21051,15 +21035,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J400" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K400" s="19" t="n"/>
+      <c r="J400" s="13" t="n"/>
+      <c r="K400" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.intrusionDetection.mode == 'Deny') | project id, compliant</t>
+        </is>
+      </c>
       <c r="L400" s="19" t="inlineStr">
         <is>
-          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M400" s="20" t="n"/>
@@ -21081,12 +21065,12 @@
       </c>
       <c r="C401" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D401" s="18" t="inlineStr">
         <is>
-          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 중단되지 않았는지 확인합니다(예: 0.0.0.0/0 경로 또는 컨트롤 플레인 트래픽을 차단하는 NSG 규칙).</t>
+          <t>Virtual WAN에 연결되지 않은 VNet의 서브넷의 경우 인터넷 트래픽이 Azure Firewall 또는 네트워크 가상 어플라이언스로 리디렉션되도록 경로 테이블을 연결합니다</t>
         </is>
       </c>
       <c r="E401" s="18" t="n"/>
@@ -21106,15 +21090,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J401" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
-      <c r="K401" s="19" t="n"/>
+      <c r="J401" s="13" t="n"/>
+      <c r="K401" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetId=tostring(subnets.id), subnetName=tostring(subnets.name),subnetRT=subnets.properties.routeTable.id | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend hasRT = isnotnull(subnetRT) | distinct id, hasRT, subnetId | join kind=fullouter (resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | extend isVWAN=(tolower(split(properties_virtualNetworkPeerings.name, '_')[0]) == 'remotevnettohubpeering') | mv-expand properties.subnets | project id, isVWAN, name, subnetId=tostring(properties_subnets.id), subnetName=tostring(properties_subnets.name) | summarize PeeredToVWAN=max(isVWAN) by id, subnetId | project id, subnetId, isVWANpeer = (PeeredToVWAN == true)) on subnetId | project id=iff(isnotempty(id), id, id1), subnetId=iff(isnotempty(subnetId), subnetId, subnetId1), hasRT, isVWANpeer | extend compliant = (hasRT==true or isVWANpeer==true) | distinct id, subnetId, compliant</t>
+        </is>
+      </c>
       <c r="L401" s="19" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M401" s="20" t="n"/>
@@ -21131,23 +21115,23 @@
       </c>
       <c r="B402" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C402" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D402" s="18" t="inlineStr">
         <is>
-          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
+          <t>예정된 호환성이 손상되는 변경 전에 네트워크 아웃바운드 트래픽 구성 및 전략을 평가하고 검토합니다. 2025년 9월 30일에 새 배포에 대한 기본 아웃바운드 액세스가 사용 중지되고 명시적 액세스 구성만 허용됩니다</t>
         </is>
       </c>
       <c r="E402" s="18" t="n"/>
       <c r="F402" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
@@ -21161,15 +21145,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J402" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+      <c r="J402" s="13" t="n"/>
       <c r="K402" s="19" t="n"/>
       <c r="L402" s="19" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M402" s="20" t="n"/>
@@ -21196,13 +21176,13 @@
       </c>
       <c r="D403" s="18" t="inlineStr">
         <is>
-          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
+          <t>보호된 모든 공용 IP 주소(DDoS IP 또는 네트워크 보호)에 대한 DDoS 관련 로그를 저장하는 진단 설정을 추가합니다.</t>
         </is>
       </c>
       <c r="E403" s="18" t="n"/>
       <c r="F403" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
@@ -21218,17 +21198,13 @@
       </c>
       <c r="J403" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
-      <c r="K403" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets = properties.subnets | mv-expand subnets | project id = subnets.id, resourceGroup, VNet = name, serviceEndpoints = subnets.properties.serviceEndpoints, compliant = (isnull(subnets.properties.serviceEndpoints) or array_length(subnets.properties.serviceEndpoints) == 0) | order by compliant asc</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K403" s="19" t="n"/>
       <c r="L403" s="19" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M403" s="20" t="n"/>
@@ -21245,7 +21221,7 @@
       </c>
       <c r="B404" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C404" s="18" t="inlineStr">
@@ -21255,7 +21231,7 @@
       </c>
       <c r="D404" s="18" t="inlineStr">
         <is>
-          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스에 대한 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
+          <t>모든 Azure Firewall 배포에 대해 리소스별 대상 테이블을 사용하여 로그를 저장하는 진단 설정을 추가합니다.</t>
         </is>
       </c>
       <c r="E404" s="18" t="n"/>
@@ -21277,13 +21253,13 @@
       </c>
       <c r="J404" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K404" s="19" t="n"/>
       <c r="L404" s="19" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>715d833d-4708-4527-90ac-1b142c7045ba</t>
         </is>
       </c>
       <c r="M404" s="20" t="n"/>
@@ -21300,7 +21276,7 @@
       </c>
       <c r="B405" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C405" s="18" t="inlineStr">
@@ -21310,13 +21286,13 @@
       </c>
       <c r="D405" s="18" t="inlineStr">
         <is>
-          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
+          <t>Azure Firewall 클래식 규칙(있는 경우)에서 방화벽 정책으로 마이그레이션합니다.</t>
         </is>
       </c>
       <c r="E405" s="18" t="n"/>
       <c r="F405" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>중요하다</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -21330,15 +21306,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J405" s="13" t="n"/>
-      <c r="K405" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureFirewallSubnet' | extend compliant = (subnetPrefixLength == 26) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J405" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K405" s="19" t="n"/>
       <c r="L405" s="19" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>e960fc6b-4ab2-4db6-9609-3745135f9ffa</t>
         </is>
       </c>
       <c r="M405" s="20" t="n"/>
@@ -21360,12 +21336,12 @@
       </c>
       <c r="C406" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D406" s="18" t="inlineStr">
         <is>
-          <t>게이트웨이 서브넷에 /27 이상의 접두사를 사용합니다</t>
+          <t>가상 네트워크에 삽입된 Azure PaaS 서비스에 대한 컨트롤 플레인 통신이 중단되지 않았는지 확인합니다(예: 0.0.0.0/0 경로 또는 컨트롤 플레인 트래픽을 차단하는 NSG 규칙).</t>
         </is>
       </c>
       <c r="E406" s="18" t="n"/>
@@ -21385,15 +21361,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J406" s="13" t="n"/>
-      <c r="K406" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'GatewaySubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J406" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
+      <c r="K406" s="19" t="n"/>
       <c r="L406" s="19" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M406" s="20" t="n"/>
@@ -21415,12 +21391,12 @@
       </c>
       <c r="C407" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D407" s="18" t="inlineStr">
         <is>
-          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
+          <t>프라이빗 엔드포인트 및 ExpressRoute 프라이빗 피어링을 통해 온-프레미스에서 Azure PaaS 서비스에 액세스합니다. 이 방법을 사용하면 공용 인터넷을 통한 전송을 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="E407" s="18" t="n"/>
@@ -21440,15 +21416,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J407" s="13" t="n"/>
-      <c r="K407" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/networksecuritygroups' | mvexpand properties.securityRules | project id,name,ruleAction=properties_securityRules.properties.access,rulePriority=properties_securityRules.properties.priority,ruleDst=properties_securityRules.properties.destinationAddressPrefix,ruleSrc=properties_securityRules.properties.sourceAddressPrefix,ruleProt=properties_securityRules.properties.protocol,ruleDirection=properties_securityRules.properties.direction,rulePort=properties_securityRules.properties.destinationPortRange | summarize StarDenies=countif(ruleAction=='Deny' and ruleDst=='*' and ruleSrc=='*' and ruleProt=='*' and rulePort=='*') by id,tostring(ruleDirection) | where ruleDirection == 'Inbound' | project id,compliant=(StarDenies&gt;0) | union (resources | where type=='microsoft.network/networksecuritygroups' | where array_length(properties.securityRules)==0 | extend compliant=false | project id,compliant)</t>
-        </is>
-      </c>
+      <c r="J407" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K407" s="19" t="n"/>
       <c r="L407" s="19" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M407" s="20" t="n"/>
@@ -21470,12 +21446,12 @@
       </c>
       <c r="C408" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D408" s="18" t="inlineStr">
         <is>
-          <t>NSG를 사용하여 서브넷 간의 트래픽과 플랫폼 전체의 East/West 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
+          <t>모든 서브넷에서 기본적으로 가상 네트워크 서비스 엔드포인트를 사용하도록 설정하지 마세요.</t>
         </is>
       </c>
       <c r="E408" s="18" t="n"/>
@@ -21497,13 +21473,17 @@
       </c>
       <c r="J408" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
-      <c r="K408" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
+      <c r="K408" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets = properties.subnets | mv-expand subnets | project id = subnets.id, resourceGroup, VNet = name, serviceEndpoints = subnets.properties.serviceEndpoints, compliant = (isnull(subnets.properties.serviceEndpoints) or array_length(subnets.properties.serviceEndpoints) == 0) | order by compliant asc</t>
+        </is>
+      </c>
       <c r="L408" s="19" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M408" s="20" t="n"/>
@@ -21525,12 +21505,12 @@
       </c>
       <c r="C409" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D409" s="18" t="inlineStr">
         <is>
-          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
+          <t>데이터 반출을 방지하기 위해 Azure Firewall 또는 NVA의 IP 주소 대신 FQDN을 사용하여 Azure PaaS 서비스에 대한 송신 트래픽을 필터링합니다. Private Link를 사용하는 경우 모든 FQDN을 차단할 수 있으며, 그렇지 않으면 필요한 PaaS 서비스만 허용할 수 있습니다.</t>
         </is>
       </c>
       <c r="E409" s="18" t="n"/>
@@ -21545,20 +21525,20 @@
         </is>
       </c>
       <c r="H409" s="18" t="n"/>
-      <c r="I409" s="13" t="n"/>
+      <c r="I409" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J409" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
-      <c r="K409" s="19" t="inlineStr">
-        <is>
-          <t>Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetName=subnets.name,subnetNsg=subnets.properties.networkSecurityGroup | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend compliant = isnotnull(subnetNsg)</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
+      <c r="K409" s="19" t="n"/>
       <c r="L409" s="19" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M409" s="20" t="n"/>
@@ -21580,18 +21560,18 @@
       </c>
       <c r="C410" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Firewall</t>
         </is>
       </c>
       <c r="D410" s="18" t="inlineStr">
         <is>
-          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
+          <t>Azure Firewall 서브넷에 /26 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="E410" s="18" t="n"/>
       <c r="F410" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
@@ -21605,15 +21585,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J410" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
-      <c r="K410" s="19" t="n"/>
+      <c r="J410" s="13" t="n"/>
+      <c r="K410" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureFirewallSubnet' | extend compliant = (subnetPrefixLength == 26) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L410" s="19" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M410" s="20" t="n"/>
@@ -21635,18 +21615,18 @@
       </c>
       <c r="C411" s="18" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D411" s="18" t="inlineStr">
         <is>
-          <t>VNet 흐름 로그를 사용하도록 설정하고 트래픽 분석에 제공하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
+          <t>게이트웨이 서브넷에 /27 이상의 접두사를 사용합니다</t>
         </is>
       </c>
       <c r="E411" s="18" t="n"/>
       <c r="F411" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
@@ -21660,15 +21640,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J411" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
-      <c r="K411" s="19" t="n"/>
+      <c r="J411" s="13" t="n"/>
+      <c r="K411" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'GatewaySubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L411" s="19" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M411" s="20" t="n"/>
@@ -21685,7 +21665,7 @@
       </c>
       <c r="B412" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C412" s="18" t="inlineStr">
@@ -21695,7 +21675,7 @@
       </c>
       <c r="D412" s="18" t="inlineStr">
         <is>
-          <t>NSG당 NSG 규칙의 제한(1000)을 고려합니다.</t>
+          <t>VirtualNetwork 서비스 태그를 사용하여 연결을 제한하는 NSG 인바운드 기본 규칙을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="E412" s="18" t="n"/>
@@ -21715,19 +21695,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J412" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="J412" s="13" t="n"/>
       <c r="K412" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/networksecuritygroups' | project id, rules = array_length(properties.securityRules) | project id, compliant = (rules &lt; 900)</t>
+          <t>resources | where type=='microsoft.network/networksecuritygroups' | mvexpand properties.securityRules | project id,name,ruleAction=properties_securityRules.properties.access,rulePriority=properties_securityRules.properties.priority,ruleDst=properties_securityRules.properties.destinationAddressPrefix,ruleSrc=properties_securityRules.properties.sourceAddressPrefix,ruleProt=properties_securityRules.properties.protocol,ruleDirection=properties_securityRules.properties.direction,rulePort=properties_securityRules.properties.destinationPortRange | summarize StarDenies=countif(ruleAction=='Deny' and ruleDst=='*' and ruleSrc=='*' and ruleProt=='*' and rulePort=='*') by id,tostring(ruleDirection) | where ruleDirection == 'Inbound' | project id,compliant=(StarDenies&gt;0) | union (resources | where type=='microsoft.network/networksecuritygroups' | where array_length(properties.securityRules)==0 | extend compliant=false | project id,compliant)</t>
         </is>
       </c>
       <c r="L412" s="19" t="inlineStr">
         <is>
-          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M412" s="20" t="n"/>
@@ -21744,17 +21720,17 @@
       </c>
       <c r="B413" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C413" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D413" s="18" t="inlineStr">
         <is>
-          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
+          <t>NSG를 사용하여 서브넷 간의 트래픽과 플랫폼 전체의 East/West 트래픽(랜딩 존 간 트래픽)을 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="E413" s="18" t="n"/>
@@ -21776,13 +21752,13 @@
       </c>
       <c r="J413" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="K413" s="19" t="n"/>
       <c r="L413" s="19" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M413" s="20" t="n"/>
@@ -21799,17 +21775,17 @@
       </c>
       <c r="B414" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C414" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D414" s="18" t="inlineStr">
         <is>
-          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
+          <t>애플리케이션 팀은 서브넷 수준 NSG에서 애플리케이션 보안 그룹을 사용하여 랜딩 존 내의 다중 계층 VM을 보호해야 합니다.</t>
         </is>
       </c>
       <c r="E414" s="18" t="n"/>
@@ -21824,16 +21800,20 @@
         </is>
       </c>
       <c r="H414" s="18" t="n"/>
-      <c r="I414" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
-      <c r="J414" s="13" t="n"/>
-      <c r="K414" s="19" t="n"/>
+      <c r="I414" s="13" t="n"/>
+      <c r="J414" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
+      <c r="K414" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,name,subnetName=subnets.name,subnetNsg=subnets.properties.networkSecurityGroup | where not (subnetName in ('GatewaySubnet', 'AzureFirewallSubnet', 'RouteServerSubnet', 'AzureBastionSubnet')) | extend compliant = isnotnull(subnetNsg)</t>
+        </is>
+      </c>
       <c r="L414" s="19" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M414" s="20" t="n"/>
@@ -21850,23 +21830,23 @@
       </c>
       <c r="B415" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C415" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D415" s="18" t="inlineStr">
         <is>
-          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽은 Azure에 유지' 원칙에 따라</t>
+          <t>NSG 및 애플리케이션 보안 그룹을 사용하여 랜딩 존 내에서 트래픽을 마이크로 세그먼트화하고 중앙 NVA를 사용하여 트래픽 흐름을 필터링하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="E415" s="18" t="n"/>
       <c r="F415" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
@@ -21880,11 +21860,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J415" s="13" t="n"/>
+      <c r="J415" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="K415" s="19" t="n"/>
       <c r="L415" s="19" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M415" s="20" t="n"/>
@@ -21906,12 +21890,12 @@
       </c>
       <c r="C416" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D416" s="18" t="inlineStr">
         <is>
-          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 보안 허브에 Azure Firewall을 배포합니다</t>
+          <t>VNet 흐름 로그를 사용하도록 설정하고 트래픽 분석에 제공하여 내부 및 외부 트래픽 흐름에 대한 인사이트를 얻습니다.</t>
         </is>
       </c>
       <c r="E416" s="18" t="n"/>
@@ -21933,17 +21917,13 @@
       </c>
       <c r="J416" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K416" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualhubs' | extend compliant = isnotnull(properties.azureFirewall.id) | project id, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
+      <c r="K416" s="19" t="n"/>
       <c r="L416" s="19" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M416" s="20" t="n"/>
@@ -21965,12 +21945,12 @@
       </c>
       <c r="C417" s="18" t="inlineStr">
         <is>
-          <t>VWAN</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="D417" s="18" t="inlineStr">
         <is>
-          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
+          <t>NSG당 NSG 규칙의 제한(1000)을 고려합니다.</t>
         </is>
       </c>
       <c r="E417" s="18" t="n"/>
@@ -21990,11 +21970,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J417" s="13" t="n"/>
-      <c r="K417" s="19" t="n"/>
+      <c r="J417" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="K417" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/networksecuritygroups' | project id, rules = array_length(properties.securityRules) | project id, compliant = (rules &lt; 900)</t>
+        </is>
+      </c>
       <c r="L417" s="19" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
         </is>
       </c>
       <c r="M417" s="20" t="n"/>
@@ -22021,7 +22009,7 @@
       </c>
       <c r="D418" s="18" t="inlineStr">
         <is>
-          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
+          <t>간소화된 Azure 네트워킹 관리를 위해 Virtual WAN을 고려하고 시나리오가 Virtual WAN 라우팅 디자인 목록에 명시적으로 설명되어 있는지 확인합니다</t>
         </is>
       </c>
       <c r="E418" s="18" t="n"/>
@@ -22041,11 +22029,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J418" s="13" t="n"/>
+      <c r="J418" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K418" s="19" t="n"/>
       <c r="L418" s="19" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M418" s="20" t="n"/>
@@ -22062,7 +22054,7 @@
       </c>
       <c r="B419" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C419" s="18" t="inlineStr">
@@ -22072,7 +22064,7 @@
       </c>
       <c r="D419" s="18" t="inlineStr">
         <is>
-          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
+          <t>Azure 지역당 Virtual WAN 허브를 사용하여 공통 글로벌 Azure Virtual WAN을 통해 Azure 지역 간에 여러 랜딩 존을 함께 연결합니다.</t>
         </is>
       </c>
       <c r="E419" s="18" t="n"/>
@@ -22096,7 +22088,7 @@
       <c r="K419" s="19" t="n"/>
       <c r="L419" s="19" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M419" s="20" t="n"/>
@@ -22113,7 +22105,7 @@
       </c>
       <c r="B420" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C420" s="18" t="inlineStr">
@@ -22123,13 +22115,13 @@
       </c>
       <c r="D420" s="18" t="inlineStr">
         <is>
-          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
+          <t>Azure의 리소스 간 통신이 Microsoft 백본 네트워크를 통해 발생하도록 'Azure의 트래픽은 Azure에 유지' 원칙에 따라</t>
         </is>
       </c>
       <c r="E420" s="18" t="n"/>
       <c r="F420" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
@@ -22147,7 +22139,7 @@
       <c r="K420" s="19" t="n"/>
       <c r="L420" s="19" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M420" s="20" t="n"/>
@@ -22164,7 +22156,7 @@
       </c>
       <c r="B421" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C421" s="18" t="inlineStr">
@@ -22174,7 +22166,7 @@
       </c>
       <c r="D421" s="18" t="inlineStr">
         <is>
-          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하는지 확인하며, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
+          <t>아웃바운드 인터넷 트래픽 보호 및 필터링을 위해 보안 허브에 Azure Firewall을 배포합니다</t>
         </is>
       </c>
       <c r="E421" s="18" t="n"/>
@@ -22194,11 +22186,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J421" s="13" t="n"/>
-      <c r="K421" s="19" t="n"/>
+      <c r="J421" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K421" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualhubs' | extend compliant = isnotnull(properties.azureFirewall.id) | project id, compliant</t>
+        </is>
+      </c>
       <c r="L421" s="19" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M421" s="20" t="n"/>
@@ -22225,13 +22225,13 @@
       </c>
       <c r="D422" s="18" t="inlineStr">
         <is>
-          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
+          <t>네트워크 아키텍처가 Azure Virtual WAN 제한 내에 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E422" s="18" t="n"/>
       <c r="F422" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
@@ -22249,7 +22249,7 @@
       <c r="K422" s="19" t="n"/>
       <c r="L422" s="19" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M422" s="20" t="n"/>
@@ -22266,23 +22266,23 @@
       </c>
       <c r="B423" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C423" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D423" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 관련 정책을 그룹화하고, 환경에 대한 컨트롤을 정의합니다.</t>
+          <t>Virtual WAN용 Azure Monitor Insights를 사용하여 Virtual WAN의 엔드투엔드 토폴로지, 상태 및 주요 메트릭을 모니터링합니다.</t>
         </is>
       </c>
       <c r="E423" s="18" t="n"/>
       <c r="F423" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
@@ -22300,7 +22300,7 @@
       <c r="K423" s="19" t="n"/>
       <c r="L423" s="19" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M423" s="20" t="n"/>
@@ -22317,17 +22317,17 @@
       </c>
       <c r="B424" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C424" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D424" s="18" t="inlineStr">
         <is>
-          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용을 적용합니다.</t>
+          <t>이러한 흐름을 명시적으로 차단해야 하는 경우가 아니면 IaC 배포가 Virtual WAN에서 분기 간 트래픽을 사용하지 않도록 설정하지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="E424" s="18" t="n"/>
@@ -22351,7 +22351,7 @@
       <c r="K424" s="19" t="n"/>
       <c r="L424" s="19" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M424" s="20" t="n"/>
@@ -22368,17 +22368,17 @@
       </c>
       <c r="B425" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C425" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D425" s="18" t="inlineStr">
         <is>
-          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
+          <t>AS-Path는 ExpressRoute 또는 VPN보다 유연하므로 허브 라우팅 기본 설정으로 사용합니다.</t>
         </is>
       </c>
       <c r="E425" s="18" t="n"/>
@@ -22402,7 +22402,7 @@
       <c r="K425" s="19" t="n"/>
       <c r="L425" s="19" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M425" s="20" t="n"/>
@@ -22419,17 +22419,17 @@
       </c>
       <c r="B426" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C426" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D426" s="18" t="inlineStr">
         <is>
-          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
+          <t>IaC 배포가 Virtual WAN에서 레이블 기반 전파를 구성하는지 확인하며, 그렇지 않으면 가상 허브 간의 연결이 손상됩니다.</t>
         </is>
       </c>
       <c r="E426" s="18" t="n"/>
@@ -22453,7 +22453,7 @@
       <c r="K426" s="19" t="n"/>
       <c r="L426" s="19" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M426" s="20" t="n"/>
@@ -22470,23 +22470,23 @@
       </c>
       <c r="B427" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C427" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>VWAN</t>
         </is>
       </c>
       <c r="D427" s="18" t="inlineStr">
         <is>
-          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
+          <t>가상 허브에 충분한 IP 공간(이상적으로는 /23 접두사)을 할당합니다.</t>
         </is>
       </c>
       <c r="E427" s="18" t="n"/>
       <c r="F427" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -22504,7 +22504,7 @@
       <c r="K427" s="19" t="n"/>
       <c r="L427" s="19" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M427" s="20" t="n"/>
@@ -22531,13 +22531,13 @@
       </c>
       <c r="D428" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
+          <t>Azure Policy를 전략적으로 활용하고, 정책 이니셔티브를 사용하여 관련 정책을 그룹화하고, 환경에 대한 컨트롤을 정의합니다.</t>
         </is>
       </c>
       <c r="E428" s="18" t="n"/>
       <c r="F428" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
@@ -22555,7 +22555,7 @@
       <c r="K428" s="19" t="n"/>
       <c r="L428" s="19" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M428" s="20" t="n"/>
@@ -22582,7 +22582,7 @@
       </c>
       <c r="D429" s="18" t="inlineStr">
         <is>
-          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
+          <t>필요한 Azure 태그를 식별하고 '추가' 정책 모드를 사용하여 Azure Policy를 통해 사용을 적용합니다.</t>
         </is>
       </c>
       <c r="E429" s="18" t="n"/>
@@ -22606,7 +22606,7 @@
       <c r="K429" s="19" t="n"/>
       <c r="L429" s="19" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M429" s="20" t="n"/>
@@ -22633,14 +22633,10 @@
       </c>
       <c r="D430" s="18" t="inlineStr">
         <is>
-          <t>특정 범위에서 기본 제공 Resource Policy 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
-        </is>
-      </c>
-      <c r="E430" s="18" t="inlineStr">
-        <is>
-          <t>특정 범위에 Resource Policy Contributor 역할을 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 응용 프로그램 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하는 분산 거버넌스를 가능하게 할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>규정 및 규정 준수 요구 사항을 Azure Policy 정의 및 Azure 역할 할당에 매핑합니다.</t>
+        </is>
+      </c>
+      <c r="E430" s="18" t="n"/>
       <c r="F430" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -22661,7 +22657,7 @@
       <c r="K430" s="19" t="n"/>
       <c r="L430" s="19" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M430" s="20" t="n"/>
@@ -22688,7 +22684,7 @@
       </c>
       <c r="D431" s="18" t="inlineStr">
         <is>
-          <t>상속된 범위에서 제외를 통해 관리하지 않도록 루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한합니다.</t>
+          <t>상속된 범위에서 할당할 수 있도록 중간 루트 관리 그룹에서 Azure Policy 정의를 설정합니다.</t>
         </is>
       </c>
       <c r="E431" s="18" t="n"/>
@@ -22712,7 +22708,7 @@
       <c r="K431" s="19" t="n"/>
       <c r="L431" s="19" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M431" s="20" t="n"/>
@@ -22739,7 +22735,7 @@
       </c>
       <c r="D432" s="18" t="inlineStr">
         <is>
-          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
+          <t>필요한 경우 최하위 수준에서 제외를 사용하여 가장 적절한 수준에서 정책 할당을 관리합니다.</t>
         </is>
       </c>
       <c r="E432" s="18" t="n"/>
@@ -22759,15 +22755,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J432" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+      <c r="J432" s="13" t="n"/>
       <c r="K432" s="19" t="n"/>
       <c r="L432" s="19" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M432" s="20" t="n"/>
@@ -22794,13 +22786,13 @@
       </c>
       <c r="D433" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 주권 정책 기준의 정책 이니셔티브가 배포되고 올바른 MG 수준에서 할당됩니다.</t>
+          <t>Azure Policy를 사용하여 사용자가 구독/관리 그룹 수준에서 프로비전할 수 있는 서비스 제어</t>
         </is>
       </c>
       <c r="E433" s="18" t="n"/>
       <c r="F433" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
@@ -22818,7 +22810,7 @@
       <c r="K433" s="19" t="n"/>
       <c r="L433" s="19" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M433" s="20" t="n"/>
@@ -22845,7 +22837,7 @@
       </c>
       <c r="D434" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 정책 매핑에 대한 주권 제어 목표가 문서화되어 있습니다.</t>
+          <t>가능한 경우 기본 제공 정책을 사용하여 운영 오버헤드를 최소화합니다.</t>
         </is>
       </c>
       <c r="E434" s="18" t="n"/>
@@ -22869,7 +22861,7 @@
       <c r="K434" s="19" t="n"/>
       <c r="L434" s="19" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M434" s="20" t="n"/>
@@ -22896,10 +22888,14 @@
       </c>
       <c r="D435" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 '정책 매핑에 대한 Sovereign Control 목표'의 CRUD에 대한 프로세스가 마련되어 있습니다.</t>
-        </is>
-      </c>
-      <c r="E435" s="18" t="n"/>
+          <t>특정 범위에서 기본 제공 Resource Policy 기여자 역할을 할당하여 응용 프로그램 수준 거버넌스를 사용하도록 설정합니다.</t>
+        </is>
+      </c>
+      <c r="E435" s="18" t="inlineStr">
+        <is>
+          <t>특정 범위에 Resource Policy Contributor 역할을 할당하면 관련 팀에 정책 관리를 위임할 수 있습니다. 예를 들어 중앙 IT 팀은 관리 그룹 수준 정책을 감독하고 응용 프로그램 팀은 구독에 대한 정책을 처리하여 조직 표준을 준수하는 분산 거버넌스를 가능하게 할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="F435" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -22911,12 +22907,16 @@
         </is>
       </c>
       <c r="H435" s="18" t="n"/>
-      <c r="I435" s="13" t="n"/>
+      <c r="I435" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J435" s="13" t="n"/>
       <c r="K435" s="19" t="n"/>
       <c r="L435" s="19" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M435" s="20" t="n"/>
@@ -22938,18 +22938,18 @@
       </c>
       <c r="C436" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D436" s="18" t="inlineStr">
         <is>
-          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
+          <t>상속된 범위에서 제외를 통해 관리하지 않도록 루트 관리 그룹 범위에서 수행된 Azure Policy 할당 수를 제한합니다.</t>
         </is>
       </c>
       <c r="E436" s="18" t="n"/>
       <c r="F436" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
@@ -22967,7 +22967,7 @@
       <c r="K436" s="19" t="n"/>
       <c r="L436" s="19" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M436" s="20" t="n"/>
@@ -22984,17 +22984,17 @@
       </c>
       <c r="B437" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C437" s="18" t="inlineStr">
         <is>
-          <t>VMSS</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D437" s="18" t="inlineStr">
         <is>
-          <t>Azure Virtual Machine Scale Sets를 활용하여 부하에 따라 스케일 인 및 스케일 아웃합니다.</t>
+          <t>데이터 주권 요구 사항이 있는 경우 Azure Policy를 배포하여 적용할 수 있습니다</t>
         </is>
       </c>
       <c r="E437" s="18" t="n"/>
@@ -23014,11 +23014,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J437" s="13" t="n"/>
+      <c r="J437" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+        </is>
+      </c>
       <c r="K437" s="19" t="n"/>
       <c r="L437" s="19" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M437" s="20" t="n"/>
@@ -23035,23 +23039,23 @@
       </c>
       <c r="B438" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C438" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D438" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 WAF 로그를 저장하는 진단 설정을 추가합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
+          <t>Sovereign Landing Zone의 경우 주권 정책 기준의 정책 이니셔티브가 배포되고 올바른 MG 수준에서 할당됩니다.</t>
         </is>
       </c>
       <c r="E438" s="18" t="n"/>
       <c r="F438" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
@@ -23069,7 +23073,7 @@
       <c r="K438" s="19" t="n"/>
       <c r="L438" s="19" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M438" s="20" t="n"/>
@@ -23086,17 +23090,17 @@
       </c>
       <c r="B439" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C439" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D439" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 Microsoft Sentinel로 WAF 로그를 보냅니다. 공격을 감지하고 WAF 원격 분석을 전체 Azure 환경에 통합합니다.</t>
+          <t>Sovereign Landing Zone의 경우 정책 매핑에 대한 주권 제어 목표가 문서화되어 있습니다.</t>
         </is>
       </c>
       <c r="E439" s="18" t="n"/>
@@ -23120,7 +23124,7 @@
       <c r="K439" s="19" t="n"/>
       <c r="L439" s="19" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M439" s="20" t="n"/>
@@ -23137,17 +23141,17 @@
       </c>
       <c r="B440" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C440" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D440" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup을 사용하는 경우 기본 설정은 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
+          <t>Sovereign Landing Zone의 경우 '정책 매핑에 대한 Sovereign Control 목표'의 CRUD에 대한 프로세스가 마련되어 있습니다.</t>
         </is>
       </c>
       <c r="E440" s="18" t="n"/>
@@ -23162,16 +23166,12 @@
         </is>
       </c>
       <c r="H440" s="18" t="n"/>
-      <c r="I440" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I440" s="13" t="n"/>
       <c r="J440" s="13" t="n"/>
       <c r="K440" s="19" t="n"/>
       <c r="L440" s="19" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M440" s="20" t="n"/>
@@ -23188,23 +23188,23 @@
       </c>
       <c r="B441" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C441" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D441" s="18" t="inlineStr">
         <is>
-          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
+          <t>자동화 태그를 사용하여 사용자 환경에서 VM을 시작/중지하여 비용을 절감하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E441" s="18" t="n"/>
       <c r="F441" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
@@ -23218,15 +23218,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J441" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="J441" s="13" t="n"/>
       <c r="K441" s="19" t="n"/>
       <c r="L441" s="19" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M441" s="20" t="n"/>
@@ -23243,17 +23239,17 @@
       </c>
       <c r="B442" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C442" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VMSS</t>
         </is>
       </c>
       <c r="D442" s="18" t="inlineStr">
         <is>
-          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 보관된 상태로 데이터를 보관할 수 있습니다.</t>
+          <t>Azure Virtual Machine Scale Sets를 활용하여 부하에 따라 스케일 인 및 스케일 아웃합니다.</t>
         </is>
       </c>
       <c r="E442" s="18" t="n"/>
@@ -23273,15 +23269,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J442" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="J442" s="13" t="n"/>
       <c r="K442" s="19" t="n"/>
       <c r="L442" s="19" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M442" s="20" t="n"/>
@@ -23303,18 +23295,18 @@
       </c>
       <c r="C443" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D443" s="18" t="inlineStr">
         <is>
-          <t>액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 WAF 로그를 저장하는 진단 설정을 추가합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
         </is>
       </c>
       <c r="E443" s="18" t="n"/>
       <c r="F443" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
@@ -23328,15 +23320,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J443" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
-        </is>
-      </c>
+      <c r="J443" s="13" t="n"/>
       <c r="K443" s="19" t="n"/>
       <c r="L443" s="19" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M443" s="20" t="n"/>
@@ -23358,12 +23346,12 @@
       </c>
       <c r="C444" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D444" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 Microsoft Sentinel로 WAF 로그를 보냅니다. 공격을 감지하고 WAF 원격 분석을 전체 Azure 환경에 통합합니다.</t>
         </is>
       </c>
       <c r="E444" s="18" t="n"/>
@@ -23383,15 +23371,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J444" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="J444" s="13" t="n"/>
       <c r="K444" s="19" t="n"/>
       <c r="L444" s="19" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M444" s="20" t="n"/>
@@ -23408,17 +23392,17 @@
       </c>
       <c r="B445" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C445" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D445" s="18" t="inlineStr">
         <is>
-          <t>Azure에서 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다.</t>
+          <t>Azure Backup을 사용하는 경우 기본 설정은 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
         </is>
       </c>
       <c r="E445" s="18" t="n"/>
@@ -23438,15 +23422,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J445" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
+      <c r="J445" s="13" t="n"/>
       <c r="K445" s="19" t="n"/>
       <c r="L445" s="19" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M445" s="20" t="n"/>
@@ -23468,12 +23448,12 @@
       </c>
       <c r="C446" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D446" s="18" t="inlineStr">
         <is>
-          <t>Azure Arc를 사용하여 Azure 외부의 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다.</t>
+          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
         </is>
       </c>
       <c r="E446" s="18" t="n"/>
@@ -23495,13 +23475,13 @@
       </c>
       <c r="J446" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="K446" s="19" t="n"/>
       <c r="L446" s="19" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M446" s="20" t="n"/>
@@ -23523,12 +23503,12 @@
       </c>
       <c r="C447" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D447" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
+          <t>로그 보존 요구 사항이 2년을 초과하는 경우 Azure Monitor 로그를 사용합니다. 현재 최대 7년 동안 보관된 상태로 데이터를 보관할 수 있습니다.</t>
         </is>
       </c>
       <c r="E447" s="18" t="n"/>
@@ -23550,13 +23530,13 @@
       </c>
       <c r="J447" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="K447" s="19" t="n"/>
       <c r="L447" s="19" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M447" s="20" t="n"/>
@@ -23578,12 +23558,12 @@
       </c>
       <c r="C448" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="D448" s="18" t="inlineStr">
         <is>
-          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
+          <t>액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다.</t>
         </is>
       </c>
       <c r="E448" s="18" t="n"/>
@@ -23603,11 +23583,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J448" s="13" t="n"/>
+      <c r="J448" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+        </is>
+      </c>
       <c r="K448" s="19" t="n"/>
       <c r="L448" s="19" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M448" s="20" t="n"/>
@@ -23629,12 +23613,12 @@
       </c>
       <c r="C449" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D449" s="18" t="inlineStr">
         <is>
-          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
+          <t>Azure Policy를 사용하여 게스트 내 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 게스트 구성 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="E449" s="18" t="n"/>
@@ -23654,11 +23638,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J449" s="13" t="n"/>
+      <c r="J449" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K449" s="19" t="n"/>
       <c r="L449" s="19" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M449" s="20" t="n"/>
@@ -23680,12 +23668,12 @@
       </c>
       <c r="C450" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D450" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
+          <t>Azure에서 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다.</t>
         </is>
       </c>
       <c r="E450" s="18" t="n"/>
@@ -23705,11 +23693,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J450" s="13" t="n"/>
+      <c r="J450" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+        </is>
+      </c>
       <c r="K450" s="19" t="n"/>
       <c r="L450" s="19" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M450" s="20" t="n"/>
@@ -23731,12 +23723,12 @@
       </c>
       <c r="C451" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D451" s="18" t="inlineStr">
         <is>
-          <t>Azure Automation 계정을 통해 변경 및 인벤토리 추적을 사용하는 경우 Log Analytics 작업 영역과 자동화 계정을 함께 연결하기 위해 지원되는 지역을 선택했는지 확인합니다.</t>
+          <t>Azure Arc를 사용하여 Azure 외부의 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다.</t>
         </is>
       </c>
       <c r="E451" s="18" t="n"/>
@@ -23756,11 +23748,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J451" s="13" t="n"/>
+      <c r="J451" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+        </is>
+      </c>
       <c r="K451" s="19" t="n"/>
       <c r="L451" s="19" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M451" s="20" t="n"/>
@@ -23777,17 +23773,17 @@
       </c>
       <c r="B452" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C452" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Network Watcher</t>
         </is>
       </c>
       <c r="D452" s="18" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
+          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
         </is>
       </c>
       <c r="E452" s="18" t="n"/>
@@ -23807,11 +23803,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J452" s="13" t="n"/>
+      <c r="J452" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+        </is>
+      </c>
       <c r="K452" s="19" t="n"/>
       <c r="L452" s="19" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M452" s="20" t="n"/>
@@ -23828,24 +23828,20 @@
       </c>
       <c r="B453" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C453" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D453" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
-        </is>
-      </c>
-      <c r="E453" s="18" t="inlineStr">
-        <is>
-          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>중앙 집중식 Azure Monitor Log Analytics 작업 영역을 사용하여 IaaS 및 PaaS 애플리케이션 리소스에서 로그 및 메트릭을 수집하고 Azure RBAC를 통해 로그 액세스를 제어합니다.</t>
+        </is>
+      </c>
+      <c r="E453" s="18" t="n"/>
       <c r="F453" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -23866,7 +23862,7 @@
       <c r="K453" s="19" t="n"/>
       <c r="L453" s="19" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M453" s="20" t="n"/>
@@ -23888,12 +23884,12 @@
       </c>
       <c r="C454" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D454" s="18" t="inlineStr">
         <is>
-          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
+          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
         </is>
       </c>
       <c r="E454" s="18" t="n"/>
@@ -23917,7 +23913,7 @@
       <c r="K454" s="19" t="n"/>
       <c r="L454" s="19" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M454" s="20" t="n"/>
@@ -23939,12 +23935,12 @@
       </c>
       <c r="C455" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D455" s="18" t="inlineStr">
         <is>
-          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
+          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
         </is>
       </c>
       <c r="E455" s="18" t="n"/>
@@ -23968,7 +23964,7 @@
       <c r="K455" s="19" t="n"/>
       <c r="L455" s="19" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M455" s="20" t="n"/>
@@ -23985,23 +23981,23 @@
       </c>
       <c r="B456" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C456" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D456" s="18" t="inlineStr">
         <is>
-          <t>VM이 지원되는 지역에서 VM에 대한 가용성 영역을 활용합니다.</t>
+          <t>Azure Automation 계정을 통해 변경 및 인벤토리 추적을 사용하는 경우 Log Analytics 작업 영역과 자동화 계정을 함께 연결하기 위해 지원되는 지역을 선택했는지 확인합니다.</t>
         </is>
       </c>
       <c r="E456" s="18" t="n"/>
       <c r="F456" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
@@ -24019,7 +24015,7 @@
       <c r="K456" s="19" t="n"/>
       <c r="L456" s="19" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M456" s="20" t="n"/>
@@ -24036,7 +24032,7 @@
       </c>
       <c r="B457" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C457" s="18" t="inlineStr">
@@ -24046,13 +24042,13 @@
       </c>
       <c r="D457" s="18" t="inlineStr">
         <is>
-          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="E457" s="18" t="n"/>
       <c r="F457" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
@@ -24070,7 +24066,7 @@
       <c r="K457" s="19" t="n"/>
       <c r="L457" s="19" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M457" s="20" t="n"/>
@@ -24087,7 +24083,7 @@
       </c>
       <c r="B458" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C458" s="18" t="inlineStr">
@@ -24097,10 +24093,14 @@
       </c>
       <c r="D458" s="18" t="inlineStr">
         <is>
-          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
-        </is>
-      </c>
-      <c r="E458" s="18" t="n"/>
+          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+        </is>
+      </c>
+      <c r="E458" s="18" t="inlineStr">
+        <is>
+          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="F458" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -24121,7 +24121,7 @@
       <c r="K458" s="19" t="n"/>
       <c r="L458" s="19" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M458" s="20" t="n"/>
@@ -24138,23 +24138,23 @@
       </c>
       <c r="B459" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C459" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D459" s="18" t="inlineStr">
         <is>
-          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
         </is>
       </c>
       <c r="E459" s="18" t="n"/>
       <c r="F459" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -24172,7 +24172,7 @@
       <c r="K459" s="19" t="n"/>
       <c r="L459" s="19" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M459" s="20" t="n"/>
@@ -24189,17 +24189,17 @@
       </c>
       <c r="B460" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C460" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D460" s="18" t="inlineStr">
         <is>
-          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
+          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
         </is>
       </c>
       <c r="E460" s="18" t="n"/>
@@ -24220,14 +24220,10 @@
         </is>
       </c>
       <c r="J460" s="13" t="n"/>
-      <c r="K460" s="19" t="inlineStr">
-        <is>
-          <t>ResourceContainers | where type=='microsoft.resources/subscriptions'| parse id with '/subscriptions/' SubscriptionID| project subscriptionId, SubscriptionName = name| join kind=leftouter (Resources| where type == 'microsoft.keyvault/vaults'| project id, name, subscriptionId) on subscriptionId| join kind= leftouter (Resources| where type == 'microsoft.keyvault/vaults'| summarize ResourceCount = count() by subscriptionId) on subscriptionId| extend RCount = iff(isnull(ResourceCount), 0, ResourceCount)| project-away ResourceCount| extend compliant = (RCount &lt;&gt; 1)</t>
-        </is>
-      </c>
+      <c r="K460" s="19" t="n"/>
       <c r="L460" s="19" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M460" s="20" t="n"/>
@@ -24244,23 +24240,23 @@
       </c>
       <c r="B461" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C461" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D461" s="18" t="inlineStr">
         <is>
-          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
+          <t>VM이 지원되는 지역에서 VM에 대한 가용성 영역을 활용합니다.</t>
         </is>
       </c>
       <c r="E461" s="18" t="n"/>
       <c r="F461" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
@@ -24278,7 +24274,7 @@
       <c r="K461" s="19" t="n"/>
       <c r="L461" s="19" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M461" s="20" t="n"/>
@@ -24295,23 +24291,23 @@
       </c>
       <c r="B462" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C462" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D462" s="18" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
         </is>
       </c>
       <c r="E462" s="18" t="n"/>
       <c r="F462" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
@@ -24329,7 +24325,7 @@
       <c r="K462" s="19" t="n"/>
       <c r="L462" s="19" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M462" s="20" t="n"/>
@@ -24346,17 +24342,17 @@
       </c>
       <c r="B463" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C463" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D463" s="18" t="inlineStr">
         <is>
-          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
+          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
         </is>
       </c>
       <c r="E463" s="18" t="n"/>
@@ -24380,7 +24376,7 @@
       <c r="K463" s="19" t="n"/>
       <c r="L463" s="19" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M463" s="20" t="n"/>
@@ -24407,13 +24403,13 @@
       </c>
       <c r="D464" s="18" t="inlineStr">
         <is>
-          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
         </is>
       </c>
       <c r="E464" s="18" t="n"/>
       <c r="F464" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
@@ -24431,7 +24427,7 @@
       <c r="K464" s="19" t="n"/>
       <c r="L464" s="19" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M464" s="20" t="n"/>
@@ -24458,7 +24454,7 @@
       </c>
       <c r="D465" s="18" t="inlineStr">
         <is>
-          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
+          <t>다양한 애플리케이션 및 지역에 대해 서로 다른 Azure Key Vault를 사용하여 트랜잭션 규모 제한을 방지하고 비밀에 대한 액세스를 제한합니다.</t>
         </is>
       </c>
       <c r="E465" s="18" t="n"/>
@@ -24479,10 +24475,14 @@
         </is>
       </c>
       <c r="J465" s="13" t="n"/>
-      <c r="K465" s="19" t="n"/>
+      <c r="K465" s="19" t="inlineStr">
+        <is>
+          <t>ResourceContainers | where type=='microsoft.resources/subscriptions'| parse id with '/subscriptions/' SubscriptionID| project subscriptionId, SubscriptionName = name| join kind=leftouter (Resources| where type == 'microsoft.keyvault/vaults'| project id, name, subscriptionId) on subscriptionId| join kind= leftouter (Resources| where type == 'microsoft.keyvault/vaults'| summarize ResourceCount = count() by subscriptionId) on subscriptionId| extend RCount = iff(isnull(ResourceCount), 0, ResourceCount)| project-away ResourceCount| extend compliant = (RCount &lt;&gt; 1)</t>
+        </is>
+      </c>
       <c r="L465" s="19" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M465" s="20" t="n"/>
@@ -24509,7 +24509,7 @@
       </c>
       <c r="D466" s="18" t="inlineStr">
         <is>
-          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
+          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
         </is>
       </c>
       <c r="E466" s="18" t="n"/>
@@ -24533,7 +24533,7 @@
       <c r="K466" s="19" t="n"/>
       <c r="L466" s="19" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M466" s="20" t="n"/>
@@ -24560,7 +24560,7 @@
       </c>
       <c r="D467" s="18" t="inlineStr">
         <is>
-          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
+          <t>키, 비밀 및 인증서를 영구적으로 삭제할 수 있는 권한 부여를 특수 사용자 지정 Microsoft Entra ID 역할로 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="E467" s="18" t="n"/>
@@ -24584,7 +24584,7 @@
       <c r="K467" s="19" t="n"/>
       <c r="L467" s="19" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M467" s="20" t="n"/>
@@ -24611,7 +24611,7 @@
       </c>
       <c r="D468" s="18" t="inlineStr">
         <is>
-          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
+          <t>공용 인증 기관을 통해 인증서 관리 및 갱신 프로세스를 자동화하여 관리를 용이하게 합니다.</t>
         </is>
       </c>
       <c r="E468" s="18" t="n"/>
@@ -24635,7 +24635,7 @@
       <c r="K468" s="19" t="n"/>
       <c r="L468" s="19" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M468" s="20" t="n"/>
@@ -24662,7 +24662,7 @@
       </c>
       <c r="D469" s="18" t="inlineStr">
         <is>
-          <t>자체 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
+          <t>키 및 인증서 교체를 위한 자동화된 프로세스를 설정합니다.</t>
         </is>
       </c>
       <c r="E469" s="18" t="n"/>
@@ -24686,7 +24686,7 @@
       <c r="K469" s="19" t="n"/>
       <c r="L469" s="19" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M469" s="20" t="n"/>
@@ -24713,7 +24713,7 @@
       </c>
       <c r="D470" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Azure Key Vault 관리형 HSM을 사용하여 비밀 및 자격 증명을 저장합니다.</t>
+          <t>자격 증명 모음에서 방화벽 및 가상 네트워크 서비스 엔드포인트 또는 프라이빗 엔드포인트를 사용하도록 설정하여 키 자격 증명 모음에 대한 액세스를 제어합니다.</t>
         </is>
       </c>
       <c r="E470" s="18" t="n"/>
@@ -24737,7 +24737,7 @@
       <c r="K470" s="19" t="n"/>
       <c r="L470" s="19" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M470" s="20" t="n"/>
@@ -24759,12 +24759,12 @@
       </c>
       <c r="C471" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D471" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
+          <t>플랫폼 중앙 Azure Monitor Log Analytics 작업 영역을 사용하여 Key Vault의 각 인스턴스 내에서 키, 인증서 및 비밀 사용을 감사합니다.</t>
         </is>
       </c>
       <c r="E471" s="18" t="n"/>
@@ -24788,7 +24788,7 @@
       <c r="K471" s="19" t="n"/>
       <c r="L471" s="19" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M471" s="20" t="n"/>
@@ -24810,18 +24810,18 @@
       </c>
       <c r="C472" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D472" s="18" t="inlineStr">
         <is>
-          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
+          <t>Key Vault 인스턴스화 및 권한 있는 액세스를 위임하고 Azure Policy를 사용하여 일관된 규정 준수 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="E472" s="18" t="n"/>
       <c r="F472" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
@@ -24839,7 +24839,7 @@
       <c r="K472" s="19" t="n"/>
       <c r="L472" s="19" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M472" s="20" t="n"/>
@@ -24861,18 +24861,18 @@
       </c>
       <c r="C473" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D473" s="18" t="inlineStr">
         <is>
-          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
         </is>
       </c>
       <c r="E473" s="18" t="n"/>
       <c r="F473" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
@@ -24890,7 +24890,7 @@
       <c r="K473" s="19" t="n"/>
       <c r="L473" s="19" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M473" s="20" t="n"/>
@@ -24912,18 +24912,18 @@
       </c>
       <c r="C474" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D474" s="18" t="inlineStr">
         <is>
-          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
+          <t>자체 키를 가져오려는 경우 고려되는 모든 서비스에서 지원되지 않을 수 있습니다. 불일치가 원하는 결과를 방해하지 않도록 관련 완화를 구현합니다. 대기 시간을 최소화하는 적절한 지역 쌍과 재해 복구 지역을 선택합니다.</t>
         </is>
       </c>
       <c r="E474" s="18" t="n"/>
       <c r="F474" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
@@ -24941,7 +24941,7 @@
       <c r="K474" s="19" t="n"/>
       <c r="L474" s="19" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M474" s="20" t="n"/>
@@ -24963,18 +24963,18 @@
       </c>
       <c r="C475" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D475" s="18" t="inlineStr">
         <is>
-          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
+          <t>Sovereign Landing Zone의 경우 Azure Key Vault 관리형 HSM을 사용하여 비밀 및 자격 증명을 저장합니다.</t>
         </is>
       </c>
       <c r="E475" s="18" t="n"/>
       <c r="F475" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
@@ -24992,7 +24992,7 @@
       <c r="K475" s="19" t="n"/>
       <c r="L475" s="19" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M475" s="20" t="n"/>
@@ -25014,12 +25014,12 @@
       </c>
       <c r="C476" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D476" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
+          <t>Microsoft Entra ID 보고 기능을 사용하여 액세스 제어 감사 보고서를 생성합니다.</t>
         </is>
       </c>
       <c r="E476" s="18" t="n"/>
@@ -25043,7 +25043,7 @@
       <c r="K476" s="19" t="n"/>
       <c r="L476" s="19" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M476" s="20" t="n"/>
@@ -25065,18 +25065,18 @@
       </c>
       <c r="C477" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D477" s="18" t="inlineStr">
         <is>
-          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
+          <t>모든 구독에 대해 Defender 클라우드 보안 태세 관리를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="E477" s="18" t="n"/>
       <c r="F477" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
@@ -25094,7 +25094,7 @@
       <c r="K477" s="19" t="n"/>
       <c r="L477" s="19" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M477" s="20" t="n"/>
@@ -25116,18 +25116,18 @@
       </c>
       <c r="C478" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D478" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 투명 로그가 사용하도록 설정됩니다.</t>
+          <t>모든 구독에서 서버에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="E478" s="18" t="n"/>
       <c r="F478" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
@@ -25145,7 +25145,7 @@
       <c r="K478" s="19" t="n"/>
       <c r="L478" s="19" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M478" s="20" t="n"/>
@@ -25167,18 +25167,18 @@
       </c>
       <c r="C479" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D479" s="18" t="inlineStr">
         <is>
-          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 고객 Lockbox를 사용할 수 있습니다.</t>
+          <t>모든 구독에서 Azure 리소스에 대한 Defender 클라우드 워크로드 보호 계획을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="E479" s="18" t="n"/>
       <c r="F479" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
@@ -25196,7 +25196,7 @@
       <c r="K479" s="19" t="n"/>
       <c r="L479" s="19" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M479" s="20" t="n"/>
@@ -25218,12 +25218,12 @@
       </c>
       <c r="C480" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D480" s="18" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대한 보안 전송을 사용하도록 설정해야 함</t>
+          <t>IaaS 서버에서 Endpoint Protection을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="E480" s="18" t="n"/>
@@ -25247,7 +25247,7 @@
       <c r="K480" s="19" t="n"/>
       <c r="L480" s="19" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M480" s="20" t="n"/>
@@ -25269,18 +25269,18 @@
       </c>
       <c r="C481" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D481" s="18" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너와 해당 콘텐츠를 복구합니다.</t>
+          <t>Azure Monitor 로그 및 클라우드용 Defender를 통해 기본 운영 체제 패치 드리프트를 모니터링합니다.</t>
         </is>
       </c>
       <c r="E481" s="18" t="n"/>
       <c r="F481" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
@@ -25298,7 +25298,7 @@
       <c r="K481" s="19" t="n"/>
       <c r="L481" s="19" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M481" s="20" t="n"/>
@@ -25315,23 +25315,23 @@
       </c>
       <c r="B482" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C482" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D482" s="18" t="inlineStr">
         <is>
-          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
+          <t>기본 리소스 구성을 중앙 집중식 Azure Monitor Log Analytics 작업 영역에 연결합니다.</t>
         </is>
       </c>
       <c r="E482" s="18" t="n"/>
       <c r="F482" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
@@ -25349,7 +25349,7 @@
       <c r="K482" s="19" t="n"/>
       <c r="L482" s="19" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M482" s="20" t="n"/>
@@ -25361,28 +25361,28 @@
     <row r="483">
       <c r="A483" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B483" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C483" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D483" s="18" t="inlineStr">
         <is>
-          <t>모범 사례는 기준 고가용성 영역 중복 웹 애플리케이션 아키텍처를 참조하세요.</t>
+          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 투명 로그가 사용하도록 설정됩니다.</t>
         </is>
       </c>
       <c r="E483" s="18" t="n"/>
       <c r="F483" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
@@ -25400,7 +25400,7 @@
       <c r="K483" s="19" t="n"/>
       <c r="L483" s="19" t="inlineStr">
         <is>
-          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M483" s="20" t="n"/>
@@ -25412,22 +25412,22 @@
     <row r="484">
       <c r="A484" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B484" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C484" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D484" s="18" t="inlineStr">
         <is>
-          <t>프리미엄 및 표준 계층을 사용합니다. 이러한 계층은 스테이징 슬롯 및 자동 백업을 지원합니다.</t>
+          <t>Sovereign Landing Zone의 경우 Entra ID 테넌트에서 고객 Lockbox를 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="E484" s="18" t="n"/>
@@ -25451,7 +25451,7 @@
       <c r="K484" s="19" t="n"/>
       <c r="L484" s="19" t="inlineStr">
         <is>
-          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M484" s="20" t="n"/>
@@ -25463,22 +25463,22 @@
     <row r="485">
       <c r="A485" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B485" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C485" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D485" s="18" t="inlineStr">
         <is>
-          <t>지역적으로 적용 가능한 경우 가용성 영역 활용(프리미엄 v2 또는 v3 계층 필요)</t>
+          <t>스토리지 계정에 대한 보안 전송을 사용하도록 설정해야 함</t>
         </is>
       </c>
       <c r="E485" s="18" t="n"/>
@@ -25502,7 +25502,7 @@
       <c r="K485" s="19" t="n"/>
       <c r="L485" s="19" t="inlineStr">
         <is>
-          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M485" s="20" t="n"/>
@@ -25514,28 +25514,28 @@
     <row r="486">
       <c r="A486" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B486" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C486" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D486" s="18" t="inlineStr">
         <is>
-          <t>상태 확인 구현</t>
+          <t>스토리지 계정에 대해 컨테이너 일시 삭제를 사용하도록 설정하여 삭제된 컨테이너와 해당 콘텐츠를 복구합니다.</t>
         </is>
       </c>
       <c r="E486" s="18" t="n"/>
       <c r="F486" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
@@ -25553,7 +25553,7 @@
       <c r="K486" s="19" t="n"/>
       <c r="L486" s="19" t="inlineStr">
         <is>
-          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M486" s="20" t="n"/>
@@ -25565,22 +25565,22 @@
     <row r="487">
       <c r="A487" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B487" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C487" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D487" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service에 대한 백업 및 복원 모범 사례를 참조하세요.</t>
+          <t>Key Vault 비밀을 사용하여 자격 증명(가상 머신 사용자 암호), 인증서 또는 키와 같은 중요한 정보를 하드 코딩하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="E487" s="18" t="n"/>
@@ -25604,7 +25604,7 @@
       <c r="K487" s="19" t="n"/>
       <c r="L487" s="19" t="inlineStr">
         <is>
-          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M487" s="20" t="n"/>
@@ -25631,13 +25631,13 @@
       </c>
       <c r="D488" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service 안정성 모범 사례 구현</t>
+          <t>모범 사례는 기준 고가용성 영역 중복 웹 애플리케이션 아키텍처를 참조하세요.</t>
         </is>
       </c>
       <c r="E488" s="18" t="n"/>
       <c r="F488" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
@@ -25655,7 +25655,7 @@
       <c r="K488" s="19" t="n"/>
       <c r="L488" s="19" t="inlineStr">
         <is>
-          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
+          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
         </is>
       </c>
       <c r="M488" s="20" t="n"/>
@@ -25682,13 +25682,13 @@
       </c>
       <c r="D489" s="18" t="inlineStr">
         <is>
-          <t>App Service 앱을 다른 지역으로 이동하는 방법을 숙지합니다. 재해가 발생하는 동안</t>
+          <t>프리미엄 및 표준 계층을 사용합니다. 이러한 계층은 스테이징 슬롯 및 자동 백업을 지원합니다.</t>
         </is>
       </c>
       <c r="E489" s="18" t="n"/>
       <c r="F489" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
@@ -25706,7 +25706,7 @@
       <c r="K489" s="19" t="n"/>
       <c r="L489" s="19" t="inlineStr">
         <is>
-          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
+          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
         </is>
       </c>
       <c r="M489" s="20" t="n"/>
@@ -25733,7 +25733,7 @@
       </c>
       <c r="D490" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service의 안정성 지원 숙지</t>
+          <t>지역적으로 적용 가능한 경우 가용성 영역 활용(프리미엄 v2 또는 v3 계층 필요)</t>
         </is>
       </c>
       <c r="E490" s="18" t="n"/>
@@ -25757,7 +25757,7 @@
       <c r="K490" s="19" t="n"/>
       <c r="L490" s="19" t="inlineStr">
         <is>
-          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
+          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
         </is>
       </c>
       <c r="M490" s="20" t="n"/>
@@ -25784,7 +25784,7 @@
       </c>
       <c r="D491" s="18" t="inlineStr">
         <is>
-          <t>App Service 계획에서 실행되는 Function Apps에 대해 "Always On"이 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>상태 확인 구현</t>
         </is>
       </c>
       <c r="E491" s="18" t="n"/>
@@ -25808,7 +25808,7 @@
       <c r="K491" s="19" t="n"/>
       <c r="L491" s="19" t="inlineStr">
         <is>
-          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
+          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
         </is>
       </c>
       <c r="M491" s="20" t="n"/>
@@ -25835,13 +25835,13 @@
       </c>
       <c r="D492" s="18" t="inlineStr">
         <is>
-          <t>상태 검사를 사용하여 App Service 인스턴스 모니터링Monitor App Service instances using Health checks</t>
+          <t>Azure App Service에 대한 백업 및 복원 모범 사례를 참조하세요.</t>
         </is>
       </c>
       <c r="E492" s="18" t="n"/>
       <c r="F492" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
@@ -25859,7 +25859,7 @@
       <c r="K492" s="19" t="n"/>
       <c r="L492" s="19" t="inlineStr">
         <is>
-          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
+          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
         </is>
       </c>
       <c r="M492" s="20" t="n"/>
@@ -25886,13 +25886,13 @@
       </c>
       <c r="D493" s="18" t="inlineStr">
         <is>
-          <t>Application Insights 가용성 테스트를 사용하여 웹앱 또는 웹 사이트의 가용성 및 응답성 모니터링</t>
+          <t>Azure App Service 안정성 모범 사례 구현</t>
         </is>
       </c>
       <c r="E493" s="18" t="n"/>
       <c r="F493" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
@@ -25910,7 +25910,7 @@
       <c r="K493" s="19" t="n"/>
       <c r="L493" s="19" t="inlineStr">
         <is>
-          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
+          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
         </is>
       </c>
       <c r="M493" s="20" t="n"/>
@@ -25937,7 +25937,7 @@
       </c>
       <c r="D494" s="18" t="inlineStr">
         <is>
-          <t>Application Insights 표준 테스트를 사용하여 웹앱 또는 웹 사이트의 가용성 및 응답성 모니터링</t>
+          <t>App Service 앱을 다른 지역으로 이동하는 방법을 숙지합니다. 재해가 발생하는 동안</t>
         </is>
       </c>
       <c r="E494" s="18" t="n"/>
@@ -25961,7 +25961,7 @@
       <c r="K494" s="19" t="n"/>
       <c r="L494" s="19" t="inlineStr">
         <is>
-          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
+          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
         </is>
       </c>
       <c r="M494" s="20" t="n"/>
@@ -25978,7 +25978,7 @@
       </c>
       <c r="B495" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C495" s="18" t="inlineStr">
@@ -25988,14 +25988,10 @@
       </c>
       <c r="D495" s="18" t="inlineStr">
         <is>
-          <t>Key Vault를 사용하여 비밀 저장</t>
-        </is>
-      </c>
-      <c r="E495" s="18" t="inlineStr">
-        <is>
-          <t>Azure Key Vault를 사용하여 애플리케이션에 필요한 모든 비밀을 저장합니다.  Key Vault는 비밀을 저장하기 위한 안전하고 감사된 환경을 제공하며 Key Vault SDK 또는 App Service Key Vault 참조를 통해 App Service와 잘 통합됩니다.</t>
-        </is>
-      </c>
+          <t>Azure App Service의 안정성 지원 숙지</t>
+        </is>
+      </c>
+      <c r="E495" s="18" t="n"/>
       <c r="F495" s="18" t="inlineStr">
         <is>
           <t>높다</t>
@@ -26016,7 +26012,7 @@
       <c r="K495" s="19" t="n"/>
       <c r="L495" s="19" t="inlineStr">
         <is>
-          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
+          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
         </is>
       </c>
       <c r="M495" s="20" t="n"/>
@@ -26033,7 +26029,7 @@
       </c>
       <c r="B496" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C496" s="18" t="inlineStr">
@@ -26043,17 +26039,13 @@
       </c>
       <c r="D496" s="18" t="inlineStr">
         <is>
-          <t>관리 ID를 사용하여 Key Vault에 연결</t>
-        </is>
-      </c>
-      <c r="E496" s="18" t="inlineStr">
-        <is>
-          <t>관리 ID를 사용하여 Key Vault SDK를 사용하거나 App Service Key Vault 참조를 통해 Key Vault에 연결합니다.</t>
-        </is>
-      </c>
+          <t>App Service 계획에서 실행되는 Function Apps에 대해 "Always On"이 사용하도록 설정되어 있는지 확인합니다.</t>
+        </is>
+      </c>
+      <c r="E496" s="18" t="n"/>
       <c r="F496" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G496" t="inlineStr">
@@ -26071,7 +26063,7 @@
       <c r="K496" s="19" t="n"/>
       <c r="L496" s="19" t="inlineStr">
         <is>
-          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
+          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
         </is>
       </c>
       <c r="M496" s="20" t="n"/>
@@ -26088,7 +26080,7 @@
       </c>
       <c r="B497" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C497" s="18" t="inlineStr">
@@ -26098,17 +26090,13 @@
       </c>
       <c r="D497" s="18" t="inlineStr">
         <is>
-          <t>Key Vault를 사용하여 TLS 인증서를 저장합니다.</t>
-        </is>
-      </c>
-      <c r="E497" s="18" t="inlineStr">
-        <is>
-          <t>App Service TLS 인증서를 Key Vault에 저장합니다.</t>
-        </is>
-      </c>
+          <t>상태 검사를 사용하여 App Service 인스턴스 모니터링Monitor App Service instances using Health checks</t>
+        </is>
+      </c>
+      <c r="E497" s="18" t="n"/>
       <c r="F497" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G497" t="inlineStr">
@@ -26126,7 +26114,7 @@
       <c r="K497" s="19" t="n"/>
       <c r="L497" s="19" t="inlineStr">
         <is>
-          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
+          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
         </is>
       </c>
       <c r="M497" s="20" t="n"/>
@@ -26143,7 +26131,7 @@
       </c>
       <c r="B498" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C498" s="18" t="inlineStr">
@@ -26153,14 +26141,10 @@
       </c>
       <c r="D498" s="18" t="inlineStr">
         <is>
-          <t>민감한 정보를 처리하는 시스템 격리</t>
-        </is>
-      </c>
-      <c r="E498" s="18" t="inlineStr">
-        <is>
-          <t>중요한 정보를 처리하는 시스템은 격리해야 합니다.  이렇게 하려면 별도의 App Service 계획 또는 App Service Environment를 사용하고 다른 구독 또는 관리 그룹을 사용하는 것이 좋습니다.</t>
-        </is>
-      </c>
+          <t>Application Insights 가용성 테스트를 사용하여 웹앱 또는 웹 사이트의 가용성 및 응답성 모니터링</t>
+        </is>
+      </c>
+      <c r="E498" s="18" t="n"/>
       <c r="F498" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -26181,7 +26165,7 @@
       <c r="K498" s="19" t="n"/>
       <c r="L498" s="19" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
+          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
         </is>
       </c>
       <c r="M498" s="20" t="n"/>
@@ -26198,7 +26182,7 @@
       </c>
       <c r="B499" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C499" s="18" t="inlineStr">
@@ -26208,17 +26192,13 @@
       </c>
       <c r="D499" s="18" t="inlineStr">
         <is>
-          <t>로컬 디스크에 중요한 데이터를 저장하지 마십시오.</t>
-        </is>
-      </c>
-      <c r="E499" s="18" t="inlineStr">
-        <is>
-          <t>App Service의 로컬 디스크는 암호화되지 않으며 중요한 데이터를 저장해서는 안 됩니다.  (예: D:\\Local and %TMP%).</t>
-        </is>
-      </c>
+          <t>Application Insights 표준 테스트를 사용하여 웹앱 또는 웹 사이트의 가용성 및 응답성 모니터링</t>
+        </is>
+      </c>
+      <c r="E499" s="18" t="n"/>
       <c r="F499" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G499" t="inlineStr">
@@ -26236,7 +26216,7 @@
       <c r="K499" s="19" t="n"/>
       <c r="L499" s="19" t="inlineStr">
         <is>
-          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
+          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
         </is>
       </c>
       <c r="M499" s="20" t="n"/>
@@ -26263,17 +26243,17 @@
       </c>
       <c r="D500" s="18" t="inlineStr">
         <is>
-          <t>인증에 설정된 ID 공급자 사용</t>
+          <t>Key Vault를 사용하여 비밀 저장</t>
         </is>
       </c>
       <c r="E500" s="18" t="inlineStr">
         <is>
-          <t>인증된 웹 애플리케이션의 경우 Azure AD 또는 Azure AD B2C와 같이 잘 설정된 ID 공급자를 사용합니다.  선택한 애플리케이션 프레임워크를 활용하여 이 공급자와 통합하거나 App Service 인증/권한 부여 기능을 사용합니다.</t>
+          <t>Azure Key Vault를 사용하여 애플리케이션에 필요한 모든 비밀을 저장합니다.  Key Vault는 비밀을 저장하기 위한 안전하고 감사된 환경을 제공하며 Key Vault SDK 또는 App Service Key Vault 참조를 통해 App Service와 잘 통합됩니다.</t>
         </is>
       </c>
       <c r="F500" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
@@ -26291,7 +26271,7 @@
       <c r="K500" s="19" t="n"/>
       <c r="L500" s="19" t="inlineStr">
         <is>
-          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
+          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
         </is>
       </c>
       <c r="M500" s="20" t="n"/>
@@ -26318,12 +26298,12 @@
       </c>
       <c r="D501" s="18" t="inlineStr">
         <is>
-          <t>신뢰할 수 있는 환경에서 배포</t>
+          <t>관리 ID를 사용하여 Key Vault에 연결</t>
         </is>
       </c>
       <c r="E501" s="18" t="inlineStr">
         <is>
-          <t>잘 관리되고 안전한 DevOps 배포 파이프라인과 같이 제어되고 신뢰할 수 있는 환경에서 App Service에 코드를 배포합니다. 이렇게 하면 버전이 제어되지 않고 악성 호스트에서 배포되는 것으로 확인되지 않은 코드를 방지할 수 있습니다.</t>
+          <t>관리 ID를 사용하여 Key Vault SDK를 사용하거나 App Service Key Vault 참조를 통해 Key Vault에 연결합니다.</t>
         </is>
       </c>
       <c r="F501" s="18" t="inlineStr">
@@ -26346,7 +26326,7 @@
       <c r="K501" s="19" t="n"/>
       <c r="L501" s="19" t="inlineStr">
         <is>
-          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
+          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
         </is>
       </c>
       <c r="M501" s="20" t="n"/>
@@ -26373,12 +26353,12 @@
       </c>
       <c r="D502" s="18" t="inlineStr">
         <is>
-          <t>기본 인증 사용 안 함</t>
+          <t>Key Vault를 사용하여 TLS 인증서를 저장합니다.</t>
         </is>
       </c>
       <c r="E502" s="18" t="inlineStr">
         <is>
-          <t>FTP/FTPS 및 WebDeploy/SCM 모두에 대한 기본 인증을 사용 안함으로 설정합니다.  이렇게 하면 이러한 서비스에 대한 액세스가 비활성화되고 배포에 Azure AD 보안 엔드포인트가 사용됩니다.  SCM 사이트는 Azure AD 자격 증명을 사용하여 열 수도 있습니다.</t>
+          <t>App Service TLS 인증서를 Key Vault에 저장합니다.</t>
         </is>
       </c>
       <c r="F502" s="18" t="inlineStr">
@@ -26401,7 +26381,7 @@
       <c r="K502" s="19" t="n"/>
       <c r="L502" s="19" t="inlineStr">
         <is>
-          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
+          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
         </is>
       </c>
       <c r="M502" s="20" t="n"/>
@@ -26428,17 +26408,17 @@
       </c>
       <c r="D503" s="18" t="inlineStr">
         <is>
-          <t>관리 ID를 사용하여 리소스에 연결</t>
+          <t>민감한 정보를 처리하는 시스템 격리</t>
         </is>
       </c>
       <c r="E503" s="18" t="inlineStr">
         <is>
-          <t>가능한 경우 관리 ID를 사용하여 Azure AD 보안 리소스에 연결합니다.  이렇게 할 수 없는 경우 Key Vault에 비밀을 저장하고 대신 관리 ID를 사용하여 Key Vault에 연결합니다.</t>
+          <t>중요한 정보를 처리하는 시스템은 격리해야 합니다.  이렇게 하려면 별도의 App Service 계획 또는 App Service Environment를 사용하고 다른 구독 또는 관리 그룹을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="F503" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
@@ -26456,7 +26436,7 @@
       <c r="K503" s="19" t="n"/>
       <c r="L503" s="19" t="inlineStr">
         <is>
-          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
+          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
         </is>
       </c>
       <c r="M503" s="20" t="n"/>
@@ -26483,17 +26463,17 @@
       </c>
       <c r="D504" s="18" t="inlineStr">
         <is>
-          <t>관리 ID를 사용하여 컨테이너 끌어오기</t>
+          <t>로컬 디스크에 중요한 데이터를 저장하지 마십시오.</t>
         </is>
       </c>
       <c r="E504" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry에 저장된 이미지를 사용하는 경우 관리 ID를 사용하여 끌어옵니다.</t>
+          <t>App Service의 로컬 디스크는 암호화되지 않으며 중요한 데이터를 저장해서는 안 됩니다.  (예: D:\\Local and %TMP%).</t>
         </is>
       </c>
       <c r="F504" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
@@ -26511,7 +26491,7 @@
       <c r="K504" s="19" t="n"/>
       <c r="L504" s="19" t="inlineStr">
         <is>
-          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
+          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M504" s="20" t="n"/>
@@ -26538,12 +26518,12 @@
       </c>
       <c r="D505" s="18" t="inlineStr">
         <is>
-          <t>Log Analytics에 App Service 런타임 로그 보내기Send App Service runtime logs to Log Analytics</t>
+          <t>인증에 설정된 ID 공급자 사용</t>
         </is>
       </c>
       <c r="E505" s="18" t="inlineStr">
         <is>
-          <t>App Service의 진단 설정을 구성하면 모든 원격 분석을 로깅 및 모니터링의 중앙 대상으로 Log Analytics에 보낼 수 있습니다. 이를 통해 HTTP 로그, 애플리케이션 로그, 플랫폼 로그 등과 같은 App Service의 런타임 활동을 모니터링할 수 있습니다.</t>
+          <t>인증된 웹 애플리케이션의 경우 Azure AD 또는 Azure AD B2C와 같이 잘 설정된 ID 공급자를 사용합니다.  선택한 애플리케이션 프레임워크를 활용하여 이 공급자와 통합하거나 App Service 인증/권한 부여 기능을 사용합니다.</t>
         </is>
       </c>
       <c r="F505" s="18" t="inlineStr">
@@ -26566,7 +26546,7 @@
       <c r="K505" s="19" t="n"/>
       <c r="L505" s="19" t="inlineStr">
         <is>
-          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
+          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
         </is>
       </c>
       <c r="M505" s="20" t="n"/>
@@ -26593,17 +26573,17 @@
       </c>
       <c r="D506" s="18" t="inlineStr">
         <is>
-          <t>Log Analytics에 App Service 활동 로그 보내기Send App Service activity logs to Log Analytics</t>
+          <t>신뢰할 수 있는 환경에서 배포</t>
         </is>
       </c>
       <c r="E506" s="18" t="inlineStr">
         <is>
-          <t>활동 로그를 Log Analytics에 로깅 및 모니터링의 중앙 대상으로 보내도록 진단 설정을 지정합니다. 이렇게 하면 App Service 리소스 자체에서 컨트롤 플레인 작업을 모니터링할 수 있습니다.</t>
+          <t>잘 관리되고 안전한 DevOps 배포 파이프라인과 같이 제어되고 신뢰할 수 있는 환경에서 App Service에 코드를 배포합니다. 이렇게 하면 버전이 제어되지 않고 악성 호스트에서 배포되는 것으로 확인되지 않은 코드를 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="F506" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G506" t="inlineStr">
@@ -26621,7 +26601,7 @@
       <c r="K506" s="19" t="n"/>
       <c r="L506" s="19" t="inlineStr">
         <is>
-          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
+          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
         </is>
       </c>
       <c r="M506" s="20" t="n"/>
@@ -26648,17 +26628,17 @@
       </c>
       <c r="D507" s="18" t="inlineStr">
         <is>
-          <t>아웃바운드 네트워크 액세스를 제어해야 함</t>
+          <t>기본 인증 사용 안 함</t>
         </is>
       </c>
       <c r="E507" s="18" t="inlineStr">
         <is>
-          <t>지역 VNet 통합, 네트워크 보안 그룹 및 UDR의 조합을 사용하여 아웃바운드 네트워크 액세스를 제어합니다.  트래픽은 Azure Firewall과 같은 NVA로 라우팅되어야 합니다.  방화벽의 로그를 모니터링해야 합니다.</t>
+          <t>FTP/FTPS 및 WebDeploy/SCM 모두에 대한 기본 인증을 사용 안함으로 설정합니다.  이렇게 하면 이러한 서비스에 대한 액세스가 비활성화되고 배포에 Azure AD 보안 엔드포인트가 사용됩니다.  SCM 사이트는 Azure AD 자격 증명을 사용하여 열 수도 있습니다.</t>
         </is>
       </c>
       <c r="F507" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
@@ -26676,7 +26656,7 @@
       <c r="K507" s="19" t="n"/>
       <c r="L507" s="19" t="inlineStr">
         <is>
-          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
+          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
         </is>
       </c>
       <c r="M507" s="20" t="n"/>
@@ -26703,17 +26683,17 @@
       </c>
       <c r="D508" s="18" t="inlineStr">
         <is>
-          <t>인터넷 주소에 대한 아웃바운드 통신을 위한 안정적인 IP 보장</t>
+          <t>관리 ID를 사용하여 리소스에 연결</t>
         </is>
       </c>
       <c r="E508" s="18" t="inlineStr">
         <is>
-          <t>VNet 통합을 사용하고 VNet NAT Gateway 또는 NVA와 같은 Azure Firewall을 사용하여 안정적인 아웃바운드 IP를 제공할 수 있습니다.  이렇게 하면 필요한 경우 수신 당사자가 IP를 기반으로 허용 목록을 만들 수 있습니다.  Azure 서비스에 대한 통신의 경우 IP 주소에 의존할 필요가 없는 경우가 많으며 서비스 엔드포인트와 같은 메커니즘을 대신 사용해야 합니다.  (또한 수신 끝에서 프라이빗 엔드포인트를 사용하면 SNAT가 발생하지 않고 안정적인 아웃바운드 IP 범위를 제공합니다.)</t>
+          <t>가능한 경우 관리 ID를 사용하여 Azure AD 보안 리소스에 연결합니다.  이렇게 할 수 없는 경우 Key Vault에 비밀을 저장하고 대신 관리 ID를 사용하여 Key Vault에 연결합니다.</t>
         </is>
       </c>
       <c r="F508" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
@@ -26731,7 +26711,7 @@
       <c r="K508" s="19" t="n"/>
       <c r="L508" s="19" t="inlineStr">
         <is>
-          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
+          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
         </is>
       </c>
       <c r="M508" s="20" t="n"/>
@@ -26758,12 +26738,12 @@
       </c>
       <c r="D509" s="18" t="inlineStr">
         <is>
-          <t>인바운드 네트워크 액세스를 제어해야 합니다.</t>
+          <t>관리 ID를 사용하여 컨테이너 끌어오기</t>
         </is>
       </c>
       <c r="E509" s="18" t="inlineStr">
         <is>
-          <t>App Service 액세스 제한, 서비스 엔드포인트 또는 프라이빗 엔드포인트의 조합을 사용하여 인바운드 네트워크 액세스를 제어합니다. 웹앱 자체 및 SCM 사이트에 대해 서로 다른 액세스 제한이 필요하고 구성될 수 있습니다.</t>
+          <t>Azure Container Registry에 저장된 이미지를 사용하는 경우 관리 ID를 사용하여 끌어옵니다.</t>
         </is>
       </c>
       <c r="F509" s="18" t="inlineStr">
@@ -26786,7 +26766,7 @@
       <c r="K509" s="19" t="n"/>
       <c r="L509" s="19" t="inlineStr">
         <is>
-          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
+          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
         </is>
       </c>
       <c r="M509" s="20" t="n"/>
@@ -26813,17 +26793,17 @@
       </c>
       <c r="D510" s="18" t="inlineStr">
         <is>
-          <t>App Service 앞에서 WAF 사용Use a WAF in front of App Service</t>
+          <t>Log Analytics에 App Service 런타임 로그 보내기Send App Service runtime logs to Log Analytics</t>
         </is>
       </c>
       <c r="E510" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway 또는 Azure Front Door와 같은 Web Application Firewall을 사용하여 악의적인 인바운드 트래픽으로부터 보호합니다.  WAF의 로그를 모니터링해야 합니다.</t>
+          <t>App Service의 진단 설정을 구성하면 모든 원격 분석을 로깅 및 모니터링의 중앙 대상으로 Log Analytics에 보낼 수 있습니다. 이를 통해 HTTP 로그, 애플리케이션 로그, 플랫폼 로그 등과 같은 App Service의 런타임 활동을 모니터링할 수 있습니다.</t>
         </is>
       </c>
       <c r="F510" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
@@ -26841,7 +26821,7 @@
       <c r="K510" s="19" t="n"/>
       <c r="L510" s="19" t="inlineStr">
         <is>
-          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
+          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
         </is>
       </c>
       <c r="M510" s="20" t="n"/>
@@ -26868,17 +26848,17 @@
       </c>
       <c r="D511" s="18" t="inlineStr">
         <is>
-          <t>WAF가 우회되지 않도록 방지</t>
+          <t>Log Analytics에 App Service 활동 로그 보내기Send App Service activity logs to Log Analytics</t>
         </is>
       </c>
       <c r="E511" s="18" t="inlineStr">
         <is>
-          <t>WAF에 대한 액세스만 잠궈 WAF를 우회할 수 없는지 확인합니다.  액세스 제한, 서비스 엔드포인트 및 프라이빗 엔드포인트의 조합을 사용합니다.</t>
+          <t>활동 로그를 Log Analytics에 로깅 및 모니터링의 중앙 대상으로 보내도록 진단 설정을 지정합니다. 이렇게 하면 App Service 리소스 자체에서 컨트롤 플레인 작업을 모니터링할 수 있습니다.</t>
         </is>
       </c>
       <c r="F511" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
@@ -26896,7 +26876,7 @@
       <c r="K511" s="19" t="n"/>
       <c r="L511" s="19" t="inlineStr">
         <is>
-          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
+          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
         </is>
       </c>
       <c r="M511" s="20" t="n"/>
@@ -26923,12 +26903,12 @@
       </c>
       <c r="D512" s="18" t="inlineStr">
         <is>
-          <t>최소 TLS 정책을 1.2로 설정합니다.</t>
+          <t>아웃바운드 네트워크 액세스를 제어해야 함</t>
         </is>
       </c>
       <c r="E512" s="18" t="inlineStr">
         <is>
-          <t>App Service 구성에서 최소 TLS 정책을 1.2로 설정합니다.</t>
+          <t>지역 VNet 통합, 네트워크 보안 그룹 및 UDR의 조합을 사용하여 아웃바운드 네트워크 액세스를 제어합니다.  트래픽은 Azure Firewall과 같은 NVA로 라우팅되어야 합니다.  방화벽의 로그를 모니터링해야 합니다.</t>
         </is>
       </c>
       <c r="F512" s="18" t="inlineStr">
@@ -26948,14 +26928,10 @@
         </is>
       </c>
       <c r="J512" s="13" t="n"/>
-      <c r="K512" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K512" s="19" t="n"/>
       <c r="L512" s="19" t="inlineStr">
         <is>
-          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
+          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
         </is>
       </c>
       <c r="M512" s="20" t="n"/>
@@ -26982,17 +26958,17 @@
       </c>
       <c r="D513" s="18" t="inlineStr">
         <is>
-          <t>HTTPS만 사용</t>
+          <t>인터넷 주소에 대한 아웃바운드 통신을 위한 안정적인 IP 보장</t>
         </is>
       </c>
       <c r="E513" s="18" t="inlineStr">
         <is>
-          <t>HTTPS만 사용하도록 App Service를 구성합니다.  이로 인해 App Service가 HTTP에서 HTTPS로 리디렉션됩니다.  코드 또는 WAF에서 HSTS(HTTP Strict Transport Security)를 사용하여 HTTPS를 통해서만 사이트에 액세스해야 함을 브라우저에 알리는 것이 좋습니다.</t>
+          <t>VNet 통합을 사용하고 VNet NAT Gateway 또는 NVA와 같은 Azure Firewall을 사용하여 안정적인 아웃바운드 IP를 제공할 수 있습니다.  이렇게 하면 필요한 경우 수신 당사자가 IP를 기반으로 허용 목록을 만들 수 있습니다.  Azure 서비스에 대한 통신의 경우 IP 주소에 의존할 필요가 없는 경우가 많으며 서비스 엔드포인트와 같은 메커니즘을 대신 사용해야 합니다.  (또한 수신 끝에서 프라이빗 엔드포인트를 사용하면 SNAT가 발생하지 않고 안정적인 아웃바운드 IP 범위를 제공합니다.)</t>
         </is>
       </c>
       <c r="F513" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
@@ -27007,14 +26983,10 @@
         </is>
       </c>
       <c r="J513" s="13" t="n"/>
-      <c r="K513" s="19" t="inlineStr">
-        <is>
-          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K513" s="19" t="n"/>
       <c r="L513" s="19" t="inlineStr">
         <is>
-          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
+          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
         </is>
       </c>
       <c r="M513" s="20" t="n"/>
@@ -27041,12 +27013,12 @@
       </c>
       <c r="D514" s="18" t="inlineStr">
         <is>
-          <t>와일드카드는 CORS에 사용할 수 없습니다.</t>
+          <t>인바운드 네트워크 액세스를 제어해야 합니다.</t>
         </is>
       </c>
       <c r="E514" s="18" t="inlineStr">
         <is>
-          <t>CORS 구성에서 와일드카드를 사용하면 모든 원본이 서비스에 액세스할 수 있으므로 CORS의 목적에 어긋나므로 사용하지 마세요. 특히 서비스에 액세스할 수 있을 것으로 예상되는 원본만 허용합니다.</t>
+          <t>App Service 액세스 제한, 서비스 엔드포인트 또는 프라이빗 엔드포인트의 조합을 사용하여 인바운드 네트워크 액세스를 제어합니다. 웹앱 자체 및 SCM 사이트에 대해 서로 다른 액세스 제한이 필요하고 구성될 수 있습니다.</t>
         </is>
       </c>
       <c r="F514" s="18" t="inlineStr">
@@ -27069,7 +27041,7 @@
       <c r="K514" s="19" t="n"/>
       <c r="L514" s="19" t="inlineStr">
         <is>
-          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
+          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
         </is>
       </c>
       <c r="M514" s="20" t="n"/>
@@ -27096,12 +27068,12 @@
       </c>
       <c r="D515" s="18" t="inlineStr">
         <is>
-          <t>원격 디버깅 끄기</t>
+          <t>App Service 앞에서 WAF 사용Use a WAF in front of App Service</t>
         </is>
       </c>
       <c r="E515" s="18" t="inlineStr">
         <is>
-          <t>원격 디버깅은 서비스에서 추가 포트를 열어 공격 노출 영역을 증가시키므로 프로덕션에서 켜면 안 됩니다. 서비스는 48시간 후에 자동으로 원격 디버깅을 설정합니다.</t>
+          <t>Application Gateway 또는 Azure Front Door와 같은 Web Application Firewall을 사용하여 악의적인 인바운드 트래픽으로부터 보호합니다.  WAF의 로그를 모니터링해야 합니다.</t>
         </is>
       </c>
       <c r="F515" s="18" t="inlineStr">
@@ -27121,14 +27093,10 @@
         </is>
       </c>
       <c r="J515" s="13" t="n"/>
-      <c r="K515" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K515" s="19" t="n"/>
       <c r="L515" s="19" t="inlineStr">
         <is>
-          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
+          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
         </is>
       </c>
       <c r="M515" s="20" t="n"/>
@@ -27155,17 +27123,17 @@
       </c>
       <c r="D516" s="18" t="inlineStr">
         <is>
-          <t>클라우드용 Defender 사용 - App Service용 Defender</t>
+          <t>WAF가 우회되지 않도록 방지</t>
         </is>
       </c>
       <c r="E516" s="18" t="inlineStr">
         <is>
-          <t>App Service용 Defender를 사용하도록 설정합니다.  이는 다른 위협 중에서도 알려진 악성 IP 주소에 대한 통신을 탐지합니다.  작업의 일부로 App Service용 Defender의 권장 사항을 검토합니다.</t>
+          <t>WAF에 대한 액세스만 잠궈 WAF를 우회할 수 없는지 확인합니다.  액세스 제한, 서비스 엔드포인트 및 프라이빗 엔드포인트의 조합을 사용합니다.</t>
         </is>
       </c>
       <c r="F516" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
@@ -27183,7 +27151,7 @@
       <c r="K516" s="19" t="n"/>
       <c r="L516" s="19" t="inlineStr">
         <is>
-          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
+          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
         </is>
       </c>
       <c r="M516" s="20" t="n"/>
@@ -27210,12 +27178,12 @@
       </c>
       <c r="D517" s="18" t="inlineStr">
         <is>
-          <t>WAF VNet에서 DDOS 보호 표준 사용Enable DDOS Protection Standard on the WAF VNet</t>
+          <t>최소 TLS 정책을 1.2로 설정합니다.</t>
         </is>
       </c>
       <c r="E517" s="18" t="inlineStr">
         <is>
-          <t>Azure는 네트워크에서 DDoS 기본 보호를 제공하며, 정상적인 트래픽 패턴을 학습하고 비정상적인 동작을 감지할 수 있는 지능형 DDoS 표준 기능으로 개선할 수 있습니다. DDoS 표준은 Virtual Network에 적용되므로 Application Gateway 또는 NVA와 같은 앱 앞의 네트워크 리소스에 대해 구성해야 합니다.</t>
+          <t>App Service 구성에서 최소 TLS 정책을 1.2로 설정합니다.</t>
         </is>
       </c>
       <c r="F517" s="18" t="inlineStr">
@@ -27235,10 +27203,14 @@
         </is>
       </c>
       <c r="J517" s="13" t="n"/>
-      <c r="K517" s="19" t="n"/>
+      <c r="K517" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L517" s="19" t="inlineStr">
         <is>
-          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
+          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
         </is>
       </c>
       <c r="M517" s="20" t="n"/>
@@ -27265,17 +27237,17 @@
       </c>
       <c r="D518" s="18" t="inlineStr">
         <is>
-          <t>Virtual Network를 통해 컨테이너 끌어오기</t>
+          <t>HTTPS만 사용</t>
         </is>
       </c>
       <c r="E518" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry에 저장된 이미지를 사용하는 경우 프라이빗 엔드포인트 및 앱 설정 'WEBSITE_PULL_IMAGE_OVER_VNET'를 사용하여 Azure Container Registry에서 가상 네트워크를 통해 끌어옵니다.</t>
+          <t>HTTPS만 사용하도록 App Service를 구성합니다.  이로 인해 App Service가 HTTP에서 HTTPS로 리디렉션됩니다.  코드 또는 WAF에서 HSTS(HTTP Strict Transport Security)를 사용하여 HTTPS를 통해서만 사이트에 액세스해야 함을 브라우저에 알리는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="F518" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
@@ -27290,10 +27262,14 @@
         </is>
       </c>
       <c r="J518" s="13" t="n"/>
-      <c r="K518" s="19" t="n"/>
+      <c r="K518" s="19" t="inlineStr">
+        <is>
+          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L518" s="19" t="inlineStr">
         <is>
-          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
+          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
         </is>
       </c>
       <c r="M518" s="20" t="n"/>
@@ -27320,17 +27296,17 @@
       </c>
       <c r="D519" s="18" t="inlineStr">
         <is>
-          <t>침투 테스트 수행</t>
+          <t>와일드카드는 CORS에 사용할 수 없습니다.</t>
         </is>
       </c>
       <c r="E519" s="18" t="inlineStr">
         <is>
-          <t>참여의 침투 테스트 규칙에 따라 웹 응용 프로그램에 대한 침투 테스트를 수행합니다.</t>
+          <t>CORS 구성에서 와일드카드를 사용하면 모든 원본이 서비스에 액세스할 수 있으므로 CORS의 목적에 어긋나므로 사용하지 마세요. 특히 서비스에 액세스할 수 있을 것으로 예상되는 원본만 허용합니다.</t>
         </is>
       </c>
       <c r="F519" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G519" t="inlineStr">
@@ -27348,7 +27324,7 @@
       <c r="K519" s="19" t="n"/>
       <c r="L519" s="19" t="inlineStr">
         <is>
-          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
+          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
         </is>
       </c>
       <c r="M519" s="20" t="n"/>
@@ -27375,17 +27351,17 @@
       </c>
       <c r="D520" s="18" t="inlineStr">
         <is>
-          <t>유효성이 검사된 코드 배포</t>
+          <t>원격 디버깅 끄기</t>
         </is>
       </c>
       <c r="E520" s="18" t="inlineStr">
         <is>
-          <t>DevSecOps 사례에 따라 취약성을 검증하고 검사한 신뢰할 수 있는 코드를 배포합니다.</t>
+          <t>원격 디버깅은 서비스에서 추가 포트를 열어 공격 노출 영역을 증가시키므로 프로덕션에서 켜면 안 됩니다. 서비스는 48시간 후에 자동으로 원격 디버깅을 설정합니다.</t>
         </is>
       </c>
       <c r="F520" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
@@ -27400,10 +27376,14 @@
         </is>
       </c>
       <c r="J520" s="13" t="n"/>
-      <c r="K520" s="19" t="n"/>
+      <c r="K520" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L520" s="19" t="inlineStr">
         <is>
-          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
         </is>
       </c>
       <c r="M520" s="20" t="n"/>
@@ -27430,17 +27410,17 @@
       </c>
       <c r="D521" s="18" t="inlineStr">
         <is>
-          <t>최신 플랫폼, 언어, 프로토콜 및 프레임워크 사용</t>
+          <t>클라우드용 Defender 사용 - App Service용 Defender</t>
         </is>
       </c>
       <c r="E521" s="18" t="inlineStr">
         <is>
-          <t>지원되는 플랫폼, 프로그래밍 언어, 프로토콜 및 프레임워크의 최신 버전을 사용합니다.</t>
+          <t>App Service용 Defender를 사용하도록 설정합니다.  이는 다른 위협 중에서도 알려진 악성 IP 주소에 대한 통신을 탐지합니다.  작업의 일부로 App Service용 Defender의 권장 사항을 검토합니다.</t>
         </is>
       </c>
       <c r="F521" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
@@ -27458,7 +27438,7 @@
       <c r="K521" s="19" t="n"/>
       <c r="L521" s="19" t="inlineStr">
         <is>
-          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
         </is>
       </c>
       <c r="M521" s="20" t="n"/>
@@ -27470,7 +27450,7 @@
     <row r="522">
       <c r="A522" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B522" s="18" t="inlineStr">
@@ -27480,17 +27460,17 @@
       </c>
       <c r="C522" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D522" s="18" t="inlineStr">
         <is>
-          <t>'스토리지에 대한 Azure 보안 기준' 고려</t>
+          <t>WAF VNet에서 DDOS 보호 표준 사용Enable DDOS Protection Standard on the WAF VNet</t>
         </is>
       </c>
       <c r="E522" s="18" t="inlineStr">
         <is>
-          <t>스토리지와 관련된 Microsoft 클라우드 보안 벤치마크의 지침 적용</t>
+          <t>Azure는 네트워크에서 DDoS 기본 보호를 제공하며, 정상적인 트래픽 패턴을 학습하고 비정상적인 동작을 감지할 수 있는 지능형 DDoS 표준 기능으로 개선할 수 있습니다. DDoS 표준은 Virtual Network에 적용되므로 Application Gateway 또는 NVA와 같은 앱 앞의 네트워크 리소스에 대해 구성해야 합니다.</t>
         </is>
       </c>
       <c r="F522" s="18" t="inlineStr">
@@ -27513,7 +27493,7 @@
       <c r="K522" s="19" t="n"/>
       <c r="L522" s="19" t="inlineStr">
         <is>
-          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
+          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
         </is>
       </c>
       <c r="M522" s="20" t="n"/>
@@ -27525,7 +27505,7 @@
     <row r="523">
       <c r="A523" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B523" s="18" t="inlineStr">
@@ -27535,22 +27515,22 @@
       </c>
       <c r="C523" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D523" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage에 프라이빗 엔드포인트를 사용하는 것이 좋습니다.</t>
+          <t>Virtual Network를 통해 컨테이너 끌어오기</t>
         </is>
       </c>
       <c r="E523" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage는 기본적으로 공용 IP 주소를 가지며 인터넷에 연결할 수 있습니다. 프라이빗 엔드포인트를 사용하면 액세스가 필요한 Azure Compute 리소스에만 Azure Storage를 안전하게 노출할 수 있으므로 공용 인터넷에 노출되지 않습니다</t>
+          <t>Azure Container Registry에 저장된 이미지를 사용하는 경우 프라이빗 엔드포인트 및 앱 설정 'WEBSITE_PULL_IMAGE_OVER_VNET'를 사용하여 Azure Container Registry에서 가상 네트워크를 통해 끌어옵니다.</t>
         </is>
       </c>
       <c r="F523" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
@@ -27568,7 +27548,7 @@
       <c r="K523" s="19" t="n"/>
       <c r="L523" s="19" t="inlineStr">
         <is>
-          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
+          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
         </is>
       </c>
       <c r="M523" s="20" t="n"/>
@@ -27580,7 +27560,7 @@
     <row r="524">
       <c r="A524" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B524" s="18" t="inlineStr">
@@ -27590,17 +27570,17 @@
       </c>
       <c r="C524" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D524" s="18" t="inlineStr">
         <is>
-          <t>이전 스토리지 계정이 '클래식 배포 모델'을 사용하지 않는지 확인</t>
+          <t>침투 테스트 수행</t>
         </is>
       </c>
       <c r="E524" s="18" t="inlineStr">
         <is>
-          <t>새로 만든 저장소 계정은 ARM 배포 모델을 사용하여 만들어지므로 RBAC, 감사 등을 모두 사용할 수 있습니다. 구독에 클래식 배포 모델이 있는 이전 저장소 계정이 없는지 확인합니다.</t>
+          <t>참여의 침투 테스트 규칙에 따라 웹 응용 프로그램에 대한 침투 테스트를 수행합니다.</t>
         </is>
       </c>
       <c r="F524" s="18" t="inlineStr">
@@ -27623,7 +27603,7 @@
       <c r="K524" s="19" t="n"/>
       <c r="L524" s="19" t="inlineStr">
         <is>
-          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
+          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
         </is>
       </c>
       <c r="M524" s="20" t="n"/>
@@ -27635,7 +27615,7 @@
     <row r="525">
       <c r="A525" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B525" s="18" t="inlineStr">
@@ -27645,22 +27625,22 @@
       </c>
       <c r="C525" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D525" s="18" t="inlineStr">
         <is>
-          <t>모든 스토리지 계정에 대해 Microsoft Defender 사용</t>
+          <t>유효성이 검사된 코드 배포</t>
         </is>
       </c>
       <c r="E525" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Defender를 활용하여 의심스러운 활동 및 잘못된 구성에 대해 알아봅니다.</t>
+          <t>DevSecOps 사례에 따라 취약성을 검증하고 검사한 신뢰할 수 있는 코드를 배포합니다.</t>
         </is>
       </c>
       <c r="F525" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
@@ -27678,7 +27658,7 @@
       <c r="K525" s="19" t="n"/>
       <c r="L525" s="19" t="inlineStr">
         <is>
-          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
+          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
         </is>
       </c>
       <c r="M525" s="20" t="n"/>
@@ -27690,7 +27670,7 @@
     <row r="526">
       <c r="A526" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B526" s="18" t="inlineStr">
@@ -27700,22 +27680,22 @@
       </c>
       <c r="C526" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D526" s="18" t="inlineStr">
         <is>
-          <t>Blob에 대해 '일시 삭제' 사용Enable 'soft delete' for blobs</t>
+          <t>최신 플랫폼, 언어, 프로토콜 및 프레임워크 사용</t>
         </is>
       </c>
       <c r="E526" s="18" t="inlineStr">
         <is>
-          <t>일시 삭제 메커니즘을 사용하면 실수로 삭제된 Blob을 복구할 수 있습니다.</t>
+          <t>지원되는 플랫폼, 프로그래밍 언어, 프로토콜 및 프레임워크의 최신 버전을 사용합니다.</t>
         </is>
       </c>
       <c r="F526" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
@@ -27733,7 +27713,7 @@
       <c r="K526" s="19" t="n"/>
       <c r="L526" s="19" t="inlineStr">
         <is>
-          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
+          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
         </is>
       </c>
       <c r="M526" s="20" t="n"/>
@@ -27760,12 +27740,12 @@
       </c>
       <c r="D527" s="18" t="inlineStr">
         <is>
-          <t>Blob에 대해 '일시 삭제' 사용 안 함</t>
+          <t>'스토리지에 대한 Azure 보안 기준' 고려</t>
         </is>
       </c>
       <c r="E527" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">예를 들어 애플리케이션이 기밀성, 개인 정보 보호 또는 규정 준수를 위해 삭제된 정보가 즉시 삭제되도록 해야 하는 경우와 같이 특정 Blob 컨테이너에 대해 '일시 삭제'를 선택적으로 사용하지 않도록 설정하는 것이 좋습니다. </t>
+          <t>스토리지와 관련된 Microsoft 클라우드 보안 벤치마크의 지침 적용</t>
         </is>
       </c>
       <c r="F527" s="18" t="inlineStr">
@@ -27788,7 +27768,7 @@
       <c r="K527" s="19" t="n"/>
       <c r="L527" s="19" t="inlineStr">
         <is>
-          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
+          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
         </is>
       </c>
       <c r="M527" s="20" t="n"/>
@@ -27815,12 +27795,12 @@
       </c>
       <c r="D528" s="18" t="inlineStr">
         <is>
-          <t>컨테이너에 대해 '일시 삭제' 사용Enable 'soft delete' for containers</t>
+          <t>Azure Storage에 프라이빗 엔드포인트를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E528" s="18" t="inlineStr">
         <is>
-          <t>컨테이너에 대한 일시 삭제를 사용하면 컨테이너가 삭제된 후 컨테이너를 복구할 수 있습니다(예: 실수로 인한 삭제 작업에서 복구).</t>
+          <t>Azure Storage는 기본적으로 공용 IP 주소를 가지며 인터넷에 연결할 수 있습니다. 프라이빗 엔드포인트를 사용하면 액세스가 필요한 Azure Compute 리소스에만 Azure Storage를 안전하게 노출할 수 있으므로 공용 인터넷에 노출되지 않습니다</t>
         </is>
       </c>
       <c r="F528" s="18" t="inlineStr">
@@ -27843,7 +27823,7 @@
       <c r="K528" s="19" t="n"/>
       <c r="L528" s="19" t="inlineStr">
         <is>
-          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
+          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
         </is>
       </c>
       <c r="M528" s="20" t="n"/>
@@ -27870,12 +27850,12 @@
       </c>
       <c r="D529" s="18" t="inlineStr">
         <is>
-          <t>컨테이너에 대해 '일시 삭제' 사용 안 함</t>
+          <t>이전 스토리지 계정이 '클래식 배포 모델'을 사용하지 않는지 확인</t>
         </is>
       </c>
       <c r="E529" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">예를 들어 애플리케이션이 기밀성, 개인 정보 보호 또는 규정 준수를 위해 삭제된 정보가 즉시 삭제되도록 해야 하는 경우와 같이 특정 Blob 컨테이너에 대해 '일시 삭제'를 선택적으로 사용하지 않도록 설정하는 것이 좋습니다. </t>
+          <t>새로 만든 저장소 계정은 ARM 배포 모델을 사용하여 만들어지므로 RBAC, 감사 등을 모두 사용할 수 있습니다. 구독에 클래식 배포 모델이 있는 이전 저장소 계정이 없는지 확인합니다.</t>
         </is>
       </c>
       <c r="F529" s="18" t="inlineStr">
@@ -27898,7 +27878,7 @@
       <c r="K529" s="19" t="n"/>
       <c r="L529" s="19" t="inlineStr">
         <is>
-          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
+          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
         </is>
       </c>
       <c r="M529" s="20" t="n"/>
@@ -27925,12 +27905,12 @@
       </c>
       <c r="D530" s="18" t="inlineStr">
         <is>
-          <t>스토리지 계정에 대한 리소스 잠금 사용Enable resource locks on storage accounts</t>
+          <t>모든 스토리지 계정에 대해 Microsoft Defender 사용</t>
         </is>
       </c>
       <c r="E530" s="18" t="inlineStr">
         <is>
-          <t>사용자가 삭제하기 전에 먼저 삭제 잠금을 제거하도록 강제하여 저장소 계정이 실수로 삭제되는 것을 방지합니다.</t>
+          <t>Microsoft Defender를 활용하여 의심스러운 활동 및 잘못된 구성에 대해 알아봅니다.</t>
         </is>
       </c>
       <c r="F530" s="18" t="inlineStr">
@@ -27953,7 +27933,7 @@
       <c r="K530" s="19" t="n"/>
       <c r="L530" s="19" t="inlineStr">
         <is>
-          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
+          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
         </is>
       </c>
       <c r="M530" s="20" t="n"/>
@@ -27980,17 +27960,17 @@
       </c>
       <c r="D531" s="18" t="inlineStr">
         <is>
-          <t>변경할 수 없는 Blob 고려</t>
+          <t>Blob에 대해 '일시 삭제' 사용Enable 'soft delete' for blobs</t>
         </is>
       </c>
       <c r="E531" s="18" t="inlineStr">
         <is>
-          <t>Blob에 대한 '법적 보존' 또는 '시간 기반 보존' 정책을 고려하면 Blob, 컨테이너 또는 스토리지 계정을 삭제할 수 없습니다. '불가능'은 실제로 '불가능'을 의미합니다. 스토리지 계정에 변경할 수 없는 Blob이 포함된 경우 해당 스토리지 계정을 '제거'하는 유일한 방법은 Azure 구독을 취소하는 것입니다.</t>
+          <t>일시 삭제 메커니즘을 사용하면 실수로 삭제된 Blob을 복구할 수 있습니다.</t>
         </is>
       </c>
       <c r="F531" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
@@ -28008,7 +27988,7 @@
       <c r="K531" s="19" t="n"/>
       <c r="L531" s="19" t="inlineStr">
         <is>
-          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
+          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
         </is>
       </c>
       <c r="M531" s="20" t="n"/>
@@ -28035,17 +28015,17 @@
       </c>
       <c r="D532" s="18" t="inlineStr">
         <is>
-          <t>HTTPS 필요, 즉 스토리지 계정에서 포트 80 사용 안 함Require HTTPS, i.e. disable port 80 on the storage account</t>
+          <t>Blob에 대해 '일시 삭제' 사용 안 함</t>
         </is>
       </c>
       <c r="E532" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">모든 데이터 전송이 암호화되고, 무결성이 보호되고, 서버가 인증되도록 스토리지 계정에 대한 보호되지 않는 HTTP/80 액세스를 사용하지 않도록 설정하는 것이 좋습니다. </t>
+          <t xml:space="preserve">예를 들어 애플리케이션이 기밀성, 개인 정보 보호 또는 규정 준수를 위해 삭제된 정보가 즉시 삭제되도록 해야 하는 경우와 같이 특정 Blob 컨테이너에 대해 '일시 삭제'를 선택적으로 사용하지 않도록 설정하는 것이 좋습니다. </t>
         </is>
       </c>
       <c r="F532" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
@@ -28063,7 +28043,7 @@
       <c r="K532" s="19" t="n"/>
       <c r="L532" s="19" t="inlineStr">
         <is>
-          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
+          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
         </is>
       </c>
       <c r="M532" s="20" t="n"/>
@@ -28090,12 +28070,12 @@
       </c>
       <c r="D533" s="18" t="inlineStr">
         <is>
-          <t>HTTPS를 적용할 때(HTTP 사용 안 함) 스토리지 계정에 사용자 지정 도메인(CNAME)을 사용하지 않는지 확인합니다.</t>
+          <t>컨테이너에 대해 '일시 삭제' 사용Enable 'soft delete' for containers</t>
         </is>
       </c>
       <c r="E533" s="18" t="inlineStr">
         <is>
-          <t>스토리지 계정에서 사용자 지정 도메인(호스트 이름)을 구성할 때 TLS/HTTPS가 필요한지 여부를 확인합니다. 이 경우 저장소 계정 앞에 Azure CDN을 배치해야 할 수 있습니다.</t>
+          <t>컨테이너에 대한 일시 삭제를 사용하면 컨테이너가 삭제된 후 컨테이너를 복구할 수 있습니다(예: 실수로 인한 삭제 작업에서 복구).</t>
         </is>
       </c>
       <c r="F533" s="18" t="inlineStr">
@@ -28118,7 +28098,7 @@
       <c r="K533" s="19" t="n"/>
       <c r="L533" s="19" t="inlineStr">
         <is>
-          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
+          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
         </is>
       </c>
       <c r="M533" s="20" t="n"/>
@@ -28145,12 +28125,12 @@
       </c>
       <c r="D534" s="18" t="inlineStr">
         <is>
-          <t>SAS(공유 액세스 서명) 토큰을 HTTPS 연결로만 제한</t>
+          <t>컨테이너에 대해 '일시 삭제' 사용 안 함</t>
         </is>
       </c>
       <c r="E534" s="18" t="inlineStr">
         <is>
-          <t>클라이언트가 SAS 토큰을 사용하여 Blob 데이터에 액세스할 때 HTTPS를 요구하면 자격 증명 손실 위험을 최소화하는 데 도움이 됩니다.</t>
+          <t xml:space="preserve">예를 들어 애플리케이션이 기밀성, 개인 정보 보호 또는 규정 준수를 위해 삭제된 정보가 즉시 삭제되도록 해야 하는 경우와 같이 특정 Blob 컨테이너에 대해 '일시 삭제'를 선택적으로 사용하지 않도록 설정하는 것이 좋습니다. </t>
         </is>
       </c>
       <c r="F534" s="18" t="inlineStr">
@@ -28173,7 +28153,7 @@
       <c r="K534" s="19" t="n"/>
       <c r="L534" s="19" t="inlineStr">
         <is>
-          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
+          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
         </is>
       </c>
       <c r="M534" s="20" t="n"/>
@@ -28200,12 +28180,12 @@
       </c>
       <c r="D535" s="18" t="inlineStr">
         <is>
-          <t>Blob 액세스에 Azure AD(Azure Active Directory) 토큰 사용Use Azure Active Directory (Azure AD) tokens for blob access</t>
+          <t>스토리지 계정에 대한 리소스 잠금 사용Enable resource locks on storage accounts</t>
         </is>
       </c>
       <c r="E535" s="18" t="inlineStr">
         <is>
-          <t>AAD 토큰은 가능한 경우 공유 액세스 서명보다 우선해야 합니다</t>
+          <t>사용자가 삭제하기 전에 먼저 삭제 잠금을 제거하도록 강제하여 저장소 계정이 실수로 삭제되는 것을 방지합니다.</t>
         </is>
       </c>
       <c r="F535" s="18" t="inlineStr">
@@ -28228,7 +28208,7 @@
       <c r="K535" s="19" t="n"/>
       <c r="L535" s="19" t="inlineStr">
         <is>
-          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
+          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
         </is>
       </c>
       <c r="M535" s="20" t="n"/>
@@ -28255,17 +28235,17 @@
       </c>
       <c r="D536" s="18" t="inlineStr">
         <is>
-          <t>IaM 권한의 최소 권한</t>
+          <t>변경할 수 없는 Blob 고려</t>
         </is>
       </c>
       <c r="E536" s="18" t="inlineStr">
         <is>
-          <t>사용자, 그룹 또는 응용 프로그램에 역할을 할당할 때 해당 보안 주체가 작업을 수행하는 데 필요한 권한만 부여합니다. 리소스에 대한 액세스를 제한하면 의도하지 않은 데이터 오용과 악의적인 데이터 오용을 모두 방지할 수 있습니다.</t>
+          <t>Blob에 대한 '법적 보존' 또는 '시간 기반 보존' 정책을 고려하면 Blob, 컨테이너 또는 스토리지 계정을 삭제할 수 없습니다. '불가능'은 실제로 '불가능'을 의미합니다. 스토리지 계정에 변경할 수 없는 Blob이 포함된 경우 해당 스토리지 계정을 '제거'하는 유일한 방법은 Azure 구독을 취소하는 것입니다.</t>
         </is>
       </c>
       <c r="F536" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
@@ -28274,12 +28254,16 @@
         </is>
       </c>
       <c r="H536" s="18" t="n"/>
-      <c r="I536" s="13" t="n"/>
+      <c r="I536" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J536" s="13" t="n"/>
       <c r="K536" s="19" t="n"/>
       <c r="L536" s="19" t="inlineStr">
         <is>
-          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
+          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
         </is>
       </c>
       <c r="M536" s="20" t="n"/>
@@ -28306,12 +28290,12 @@
       </c>
       <c r="D537" s="18" t="inlineStr">
         <is>
-          <t>SAS를 사용하는 경우 스토리지 계정 키 기반 SAS보다 '사용자 위임 SAS'를 선호합니다.</t>
+          <t>HTTPS 필요, 즉 스토리지 계정에서 포트 80 사용 안 함Require HTTPS, i.e. disable port 80 on the storage account</t>
         </is>
       </c>
       <c r="E537" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">사용자 위임 SAS는 Azure AD(Azure Active Directory) 자격 증명과 SAS에 지정된 권한으로 보호됩니다. 사용자 위임 SAS는 범위와 기능 측면에서 서비스 SAS와 유사하지만 서비스 SAS에 비해 보안상의 이점을 제공합니다. </t>
+          <t xml:space="preserve">모든 데이터 전송이 암호화되고, 무결성이 보호되고, 서버가 인증되도록 스토리지 계정에 대한 보호되지 않는 HTTP/80 액세스를 사용하지 않도록 설정하는 것이 좋습니다. </t>
         </is>
       </c>
       <c r="F537" s="18" t="inlineStr">
@@ -28334,7 +28318,7 @@
       <c r="K537" s="19" t="n"/>
       <c r="L537" s="19" t="inlineStr">
         <is>
-          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
+          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
         </is>
       </c>
       <c r="M537" s="20" t="n"/>
@@ -28361,12 +28345,12 @@
       </c>
       <c r="D538" s="18" t="inlineStr">
         <is>
-          <t>AAD 액세스(및 사용자 위임 SAS)만 지원되도록 스토리지 계정 키를 사용하지 않도록 설정하는 것이 좋습니다.</t>
+          <t>HTTPS를 적용할 때(HTTP 사용 안 함) 스토리지 계정에 사용자 지정 도메인(CNAME)을 사용하지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="E538" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">스토리지 계정 키('공유 키')에는 감사 기능이 거의 없습니다. 누가/언제 키 사본을 가져왔는지 모니터링할 수 있지만, 키가 여러 사람의 손에 들어가면 특정 사용자의 사용을 귀속시키는 것은 불가능합니다. AAD 인증에만 의존하면 스토리지 액세스를 사용자에게 더 쉽게 연결할 수 있습니다. </t>
+          <t>스토리지 계정에서 사용자 지정 도메인(호스트 이름)을 구성할 때 TLS/HTTPS가 필요한지 여부를 확인합니다. 이 경우 저장소 계정 앞에 Azure CDN을 배치해야 할 수 있습니다.</t>
         </is>
       </c>
       <c r="F538" s="18" t="inlineStr">
@@ -28389,7 +28373,7 @@
       <c r="K538" s="19" t="n"/>
       <c r="L538" s="19" t="inlineStr">
         <is>
-          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
+          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
         </is>
       </c>
       <c r="M538" s="20" t="n"/>
@@ -28416,17 +28400,17 @@
       </c>
       <c r="D539" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor를 사용하여 스토리지 계정에 대한 컨트롤 플레인 작업을 감사하는 것이 좋습니다.</t>
+          <t>SAS(공유 액세스 서명) 토큰을 HTTPS 연결로만 제한</t>
         </is>
       </c>
       <c r="E539" s="18" t="inlineStr">
         <is>
-          <t>활동 로그 데이터를 사용하여 스토리지 계정의 보안을 보거나 변경하는 '시기', '누가', '무엇을' 및 '방법'(예: 스토리지 계정 키, 액세스 정책 등)을 식별합니다.</t>
+          <t>클라이언트가 SAS 토큰을 사용하여 Blob 데이터에 액세스할 때 HTTPS를 요구하면 자격 증명 손실 위험을 최소화하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="F539" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
@@ -28444,7 +28428,7 @@
       <c r="K539" s="19" t="n"/>
       <c r="L539" s="19" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
         </is>
       </c>
       <c r="M539" s="20" t="n"/>
@@ -28471,17 +28455,17 @@
       </c>
       <c r="D540" s="18" t="inlineStr">
         <is>
-          <t>스토리지 계정 키를 사용하는 경우 '키 만료 정책'을 사용하도록 설정하는 것이 좋습니다</t>
+          <t>Blob 액세스에 Azure AD(Azure Active Directory) 토큰 사용Use Azure Active Directory (Azure AD) tokens for blob access</t>
         </is>
       </c>
       <c r="E540" s="18" t="inlineStr">
         <is>
-          <t>키 만료 정책을 사용하면 계정 액세스 키 교체에 대한 미리 알림을 설정할 수 있습니다. 지정된 간격이 경과하고 키가 아직 회전되지 않은 경우 알림이 표시됩니다.</t>
+          <t>AAD 토큰은 가능한 경우 공유 액세스 서명보다 우선해야 합니다</t>
         </is>
       </c>
       <c r="F540" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G540" t="inlineStr">
@@ -28499,7 +28483,7 @@
       <c r="K540" s="19" t="n"/>
       <c r="L540" s="19" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
         </is>
       </c>
       <c r="M540" s="20" t="n"/>
@@ -28526,12 +28510,12 @@
       </c>
       <c r="D541" s="18" t="inlineStr">
         <is>
-          <t>SAS 만료 정책 구성 고려</t>
+          <t>IaM 권한의 최소 권한</t>
         </is>
       </c>
       <c r="E541" s="18" t="inlineStr">
         <is>
-          <t>SAS 만료 정책은 SAS가 유효한 권장 간격을 지정합니다. SAS 만료 정책은 서비스 SAS 또는 계정 SAS에 적용됩니다. 사용자가 권장 간격보다 큰 유효 간격을 사용하여 서비스 SAS 또는 계정 SAS를 생성하면 경고가 표시됩니다.</t>
+          <t>사용자, 그룹 또는 응용 프로그램에 역할을 할당할 때 해당 보안 주체가 작업을 수행하는 데 필요한 권한만 부여합니다. 리소스에 대한 액세스를 제한하면 의도하지 않은 데이터 오용과 악의적인 데이터 오용을 모두 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="F541" s="18" t="inlineStr">
@@ -28545,16 +28529,12 @@
         </is>
       </c>
       <c r="H541" s="18" t="n"/>
-      <c r="I541" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I541" s="13" t="n"/>
       <c r="J541" s="13" t="n"/>
       <c r="K541" s="19" t="n"/>
       <c r="L541" s="19" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
+          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
         </is>
       </c>
       <c r="M541" s="20" t="n"/>
@@ -28581,17 +28561,17 @@
       </c>
       <c r="D542" s="18" t="inlineStr">
         <is>
-          <t>SAS를 저장된 액세스 정책에 연결하는 것이 좋습니다.</t>
+          <t>SAS를 사용하는 경우 스토리지 계정 키 기반 SAS보다 '사용자 위임 SAS'를 선호합니다.</t>
         </is>
       </c>
       <c r="E542" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">저장된 액세스 정책은 스토리지 계정 키를 다시 생성할 필요 없이 서비스 SAS에 대한 권한을 취소하는 옵션을 제공합니다. </t>
+          <t xml:space="preserve">사용자 위임 SAS는 Azure AD(Azure Active Directory) 자격 증명과 SAS에 지정된 권한으로 보호됩니다. 사용자 위임 SAS는 범위와 기능 측면에서 서비스 SAS와 유사하지만 서비스 SAS에 비해 보안상의 이점을 제공합니다. </t>
         </is>
       </c>
       <c r="F542" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G542" t="inlineStr">
@@ -28609,7 +28589,7 @@
       <c r="K542" s="19" t="n"/>
       <c r="L542" s="19" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
+          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
         </is>
       </c>
       <c r="M542" s="20" t="n"/>
@@ -28636,13 +28616,17 @@
       </c>
       <c r="D543" s="18" t="inlineStr">
         <is>
-          <t>체크 인된 연결 문자열 및 저장소 계정 키를 검색하도록 응용 프로그램의 소스 코드 리포지토리를 구성하는 것이 좋습니다.</t>
-        </is>
-      </c>
-      <c r="E543" s="18" t="n"/>
+          <t>AAD 액세스(및 사용자 위임 SAS)만 지원되도록 스토리지 계정 키를 사용하지 않도록 설정하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="E543" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">스토리지 계정 키('공유 키')에는 감사 기능이 거의 없습니다. 누가/언제 키 사본을 가져왔는지 모니터링할 수 있지만, 키가 여러 사람의 손에 들어가면 특정 사용자의 사용을 귀속시키는 것은 불가능합니다. AAD 인증에만 의존하면 스토리지 액세스를 사용자에게 더 쉽게 연결할 수 있습니다. </t>
+        </is>
+      </c>
       <c r="F543" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G543" t="inlineStr">
@@ -28660,7 +28644,7 @@
       <c r="K543" s="19" t="n"/>
       <c r="L543" s="19" t="inlineStr">
         <is>
-          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
+          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
         </is>
       </c>
       <c r="M543" s="20" t="n"/>
@@ -28687,12 +28671,12 @@
       </c>
       <c r="D544" s="18" t="inlineStr">
         <is>
-          <t>Azure KeyVault에 연결 문자열을 저장하는 것이 좋습니다(관리 ID를 사용할 수 없는 시나리오에서).</t>
+          <t>Azure Monitor를 사용하여 스토리지 계정에 대한 컨트롤 플레인 작업을 감사하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E544" s="18" t="inlineStr">
         <is>
-          <t>이상적으로 애플리케이션은 관리 ID를 사용하여 Azure Storage에 인증해야 합니다. 이렇게 할 수 없는 경우 Azure KeyVault 또는 동등한 서비스에 스토리지 자격 증명(연결 문자열, 스토리지 계정 키, SAS, 서비스 주체 자격 증명)을 사용하는 것이 좋습니다.</t>
+          <t>활동 로그 데이터를 사용하여 스토리지 계정의 보안을 보거나 변경하는 '시기', '누가', '무엇을' 및 '방법'(예: 스토리지 계정 키, 액세스 정책 등)을 식별합니다.</t>
         </is>
       </c>
       <c r="F544" s="18" t="inlineStr">
@@ -28715,7 +28699,7 @@
       <c r="K544" s="19" t="n"/>
       <c r="L544" s="19" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
         </is>
       </c>
       <c r="M544" s="20" t="n"/>
@@ -28742,17 +28726,17 @@
       </c>
       <c r="D545" s="18" t="inlineStr">
         <is>
-          <t>임시 SAS의 유효 기간을 단축하기 위해 노력</t>
+          <t>스토리지 계정 키를 사용하는 경우 '키 만료 정책'을 사용하도록 설정하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="E545" s="18" t="inlineStr">
         <is>
-          <t>임시 SAS 서비스 SAS 또는 계정 SAS에서 단기 만료 시간을 사용합니다. 이러한 방식으로 SAS가 손상되더라도 짧은 시간 동안만 유효합니다. 이 방법은 저장된 액세스 정책을 참조할 수 없는 경우에 특히 중요합니다. 또한 단기 만료 시간은 업로드에 사용할 수 있는 시간을 제한하여 Blob에 쓸 수 있는 데이터의 양을 제한합니다.</t>
+          <t>키 만료 정책을 사용하면 계정 액세스 키 교체에 대한 미리 알림을 설정할 수 있습니다. 지정된 간격이 경과하고 키가 아직 회전되지 않은 경우 알림이 표시됩니다.</t>
         </is>
       </c>
       <c r="F545" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G545" t="inlineStr">
@@ -28770,7 +28754,7 @@
       <c r="K545" s="19" t="n"/>
       <c r="L545" s="19" t="inlineStr">
         <is>
-          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
         </is>
       </c>
       <c r="M545" s="20" t="n"/>
@@ -28797,12 +28781,12 @@
       </c>
       <c r="D546" s="18" t="inlineStr">
         <is>
-          <t>SAS에 좁은 범위 적용</t>
+          <t>SAS 만료 정책 구성 고려</t>
         </is>
       </c>
       <c r="E546" s="18" t="inlineStr">
         <is>
-          <t>SAS를 만들 때는 가능한 한 구체적이고 제한적이어야 합니다. 훨씬 더 광범위한 액세스를 제공하는 SAS보다 단일 리소스 및 작업에 대해 SAS를 선호합니다.</t>
+          <t>SAS 만료 정책은 SAS가 유효한 권장 간격을 지정합니다. SAS 만료 정책은 서비스 SAS 또는 계정 SAS에 적용됩니다. 사용자가 권장 간격보다 큰 유효 간격을 사용하여 서비스 SAS 또는 계정 SAS를 생성하면 경고가 표시됩니다.</t>
         </is>
       </c>
       <c r="F546" s="18" t="inlineStr">
@@ -28825,7 +28809,7 @@
       <c r="K546" s="19" t="n"/>
       <c r="L546" s="19" t="inlineStr">
         <is>
-          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
+          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
         </is>
       </c>
       <c r="M546" s="20" t="n"/>
@@ -28852,12 +28836,12 @@
       </c>
       <c r="D547" s="18" t="inlineStr">
         <is>
-          <t>가능한 경우 SAS의 범위를 특정 클라이언트 IP 주소로 지정하는 것이 좋습니다</t>
+          <t>SAS를 저장된 액세스 정책에 연결하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E547" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAS에는 SAS를 사용하여 리소스를 요청할 수 있는 권한이 있는 클라이언트 IP 주소 또는 주소 범위에 대한 매개 변수가 포함될 수 있습니다. </t>
+          <t xml:space="preserve">저장된 액세스 정책은 스토리지 계정 키를 다시 생성할 필요 없이 서비스 SAS에 대한 권한을 취소하는 옵션을 제공합니다. </t>
         </is>
       </c>
       <c r="F547" s="18" t="inlineStr">
@@ -28880,7 +28864,7 @@
       <c r="K547" s="19" t="n"/>
       <c r="L547" s="19" t="inlineStr">
         <is>
-          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
+          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
         </is>
       </c>
       <c r="M547" s="20" t="n"/>
@@ -28907,17 +28891,13 @@
       </c>
       <c r="D548" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">클라이언트가 SAS를 사용하여 파일을 업로드한 후 업로드된 데이터를 확인하는 것이 좋습니다. </t>
-        </is>
-      </c>
-      <c r="E548" s="18" t="inlineStr">
-        <is>
-          <t>SAS는 클라이언트가 업로드하는 데이터의 양을 제한할 수 없습니다. 시간 경과에 따른 스토리지 양의 가격 책정 모델을 고려할 때 클라이언트가 악의적으로 큰 콘텐츠를 업로드했는지 여부를 확인하는 것이 합리적일 수 있습니다.</t>
-        </is>
-      </c>
+          <t>체크 인된 연결 문자열 및 저장소 계정 키를 검색하도록 응용 프로그램의 소스 코드 리포지토리를 구성하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="E548" s="18" t="n"/>
       <c r="F548" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G548" t="inlineStr">
@@ -28926,12 +28906,16 @@
         </is>
       </c>
       <c r="H548" s="18" t="n"/>
-      <c r="I548" s="13" t="n"/>
+      <c r="I548" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J548" s="13" t="n"/>
       <c r="K548" s="19" t="n"/>
       <c r="L548" s="19" t="inlineStr">
         <is>
-          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
+          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
         </is>
       </c>
       <c r="M548" s="20" t="n"/>
@@ -28958,12 +28942,12 @@
       </c>
       <c r="D549" s="18" t="inlineStr">
         <is>
-          <t>SFTP: SFTP 액세스에 대한 '로컬 사용자'의 수를 제한하고 시간이 지남에 따라 액세스가 필요한지 여부를 감사합니다.</t>
+          <t>Azure KeyVault에 연결 문자열을 저장하는 것이 좋습니다(관리 ID를 사용할 수 없는 시나리오에서).</t>
         </is>
       </c>
       <c r="E549" s="18" t="inlineStr">
         <is>
-          <t>'로컬 사용자 계정'을 사용하여 SFTP를 통해 Blob Storage에 액세스하는 경우 '일반적인' RBAC 컨트롤이 적용되지 않습니다. NFS 또는 REST를 통한 Blob 액세스는 SFTP 액세스보다 더 제한적일 수 있습니다. 안타깝게도 2023년 초부터 로컬 사용자는 현재 SFTP 엔드포인트에 대해 지원되는 유일한 ID 관리 형태입니다</t>
+          <t>이상적으로 애플리케이션은 관리 ID를 사용하여 Azure Storage에 인증해야 합니다. 이렇게 할 수 없는 경우 Azure KeyVault 또는 동등한 서비스에 스토리지 자격 증명(연결 문자열, 스토리지 계정 키, SAS, 서비스 주체 자격 증명)을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="F549" s="18" t="inlineStr">
@@ -28986,7 +28970,7 @@
       <c r="K549" s="19" t="n"/>
       <c r="L549" s="19" t="inlineStr">
         <is>
-          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
+          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
         </is>
       </c>
       <c r="M549" s="20" t="n"/>
@@ -29013,13 +28997,17 @@
       </c>
       <c r="D550" s="18" t="inlineStr">
         <is>
-          <t>SFTP: SFTP 엔드포인트는 POSIX와 유사한 ACL을 지원하지 않습니다.</t>
-        </is>
-      </c>
-      <c r="E550" s="18" t="n"/>
+          <t>임시 SAS의 유효 기간을 단축하기 위해 노력</t>
+        </is>
+      </c>
+      <c r="E550" s="18" t="inlineStr">
+        <is>
+          <t>임시 SAS 서비스 SAS 또는 계정 SAS에서 단기 만료 시간을 사용합니다. 이러한 방식으로 SAS가 손상되더라도 짧은 시간 동안만 유효합니다. 이 방법은 저장된 액세스 정책을 참조할 수 없는 경우에 특히 중요합니다. 또한 단기 만료 시간은 업로드에 사용할 수 있는 시간을 제한하여 Blob에 쓸 수 있는 데이터의 양을 제한합니다.</t>
+        </is>
+      </c>
       <c r="F550" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G550" t="inlineStr">
@@ -29037,7 +29025,7 @@
       <c r="K550" s="19" t="n"/>
       <c r="L550" s="19" t="inlineStr">
         <is>
-          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
+          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
         </is>
       </c>
       <c r="M550" s="20" t="n"/>
@@ -29064,17 +29052,17 @@
       </c>
       <c r="D551" s="18" t="inlineStr">
         <is>
-          <t>지나치게 광범위한 CORS 정책 방지</t>
+          <t>SAS에 좁은 범위 적용</t>
         </is>
       </c>
       <c r="E551" s="18" t="inlineStr">
         <is>
-          <t>스토리지는 CORS(Cross-Origin Resource Sharing), 즉 다른 도메인의 웹앱이 동일 출처 정책을 완화할 수 있도록 하는 HTTP 기능을 지원합니다. CORS를 사용하도록 설정할 때 CorsRules를 최소 권한으로 유지합니다.</t>
+          <t>SAS를 만들 때는 가능한 한 구체적이고 제한적이어야 합니다. 훨씬 더 광범위한 액세스를 제공하는 SAS보다 단일 리소스 및 작업에 대해 SAS를 선호합니다.</t>
         </is>
       </c>
       <c r="F551" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G551" t="inlineStr">
@@ -29092,7 +29080,7 @@
       <c r="K551" s="19" t="n"/>
       <c r="L551" s="19" t="inlineStr">
         <is>
-          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
         </is>
       </c>
       <c r="M551" s="20" t="n"/>
@@ -29119,17 +29107,17 @@
       </c>
       <c r="D552" s="18" t="inlineStr">
         <is>
-          <t>미사용 데이터를 암호화하는 방법을 결정합니다. 데이터에 대한 스레드 모델을 이해합니다.</t>
+          <t>가능한 경우 SAS의 범위를 특정 클라이언트 IP 주소로 지정하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="E552" s="18" t="inlineStr">
         <is>
-          <t>미사용 데이터는 항상 서버 쪽에서 암호화되며 클라이언트 쪽에서도 암호화될 수 있습니다. 서버 쪽 암호화는 플랫폼 관리형 키(기본값) 또는 고객 관리형 키를 사용하여 발생할 수 있습니다. 클라이언트 쪽 암호화는 클라이언트가 Azure Storage에 Blob별로 암호화/암호 해독 키를 제공하거나 클라이언트 쪽에서 암호화를 완전히 처리하여 발생할 수 있습니다. 따라서 기밀성 보장을 위해 Azure Storage에 전혀 의존하지 않습니다.</t>
+          <t xml:space="preserve">SAS에는 SAS를 사용하여 리소스를 요청할 수 있는 권한이 있는 클라이언트 IP 주소 또는 주소 범위에 대한 매개 변수가 포함될 수 있습니다. </t>
         </is>
       </c>
       <c r="F552" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G552" t="inlineStr">
@@ -29147,7 +29135,7 @@
       <c r="K552" s="19" t="n"/>
       <c r="L552" s="19" t="inlineStr">
         <is>
-          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
         </is>
       </c>
       <c r="M552" s="20" t="n"/>
@@ -29174,13 +29162,17 @@
       </c>
       <c r="D553" s="18" t="inlineStr">
         <is>
-          <t>사용해야 하는 플랫폼 암호화를 결정합니다.</t>
-        </is>
-      </c>
-      <c r="E553" s="18" t="n"/>
+          <t xml:space="preserve">클라이언트가 SAS를 사용하여 파일을 업로드한 후 업로드된 데이터를 확인하는 것이 좋습니다. </t>
+        </is>
+      </c>
+      <c r="E553" s="18" t="inlineStr">
+        <is>
+          <t>SAS는 클라이언트가 업로드하는 데이터의 양을 제한할 수 없습니다. 시간 경과에 따른 스토리지 양의 가격 책정 모델을 고려할 때 클라이언트가 악의적으로 큰 콘텐츠를 업로드했는지 여부를 확인하는 것이 합리적일 수 있습니다.</t>
+        </is>
+      </c>
       <c r="F553" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G553" t="inlineStr">
@@ -29189,16 +29181,12 @@
         </is>
       </c>
       <c r="H553" s="18" t="n"/>
-      <c r="I553" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I553" s="13" t="n"/>
       <c r="J553" s="13" t="n"/>
       <c r="K553" s="19" t="n"/>
       <c r="L553" s="19" t="inlineStr">
         <is>
-          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
         </is>
       </c>
       <c r="M553" s="20" t="n"/>
@@ -29225,13 +29213,17 @@
       </c>
       <c r="D554" s="18" t="inlineStr">
         <is>
-          <t>사용해야 하는 클라이언트 쪽 암호화를 결정합니다.</t>
-        </is>
-      </c>
-      <c r="E554" s="18" t="n"/>
+          <t>SFTP: SFTP 액세스에 대한 '로컬 사용자'의 수를 제한하고 시간이 지남에 따라 액세스가 필요한지 여부를 감사합니다.</t>
+        </is>
+      </c>
+      <c r="E554" s="18" t="inlineStr">
+        <is>
+          <t>'로컬 사용자 계정'을 사용하여 SFTP를 통해 Blob Storage에 액세스하는 경우 '일반적인' RBAC 컨트롤이 적용되지 않습니다. NFS 또는 REST를 통한 Blob 액세스는 SFTP 액세스보다 더 제한적일 수 있습니다. 안타깝게도 2023년 초부터 로컬 사용자는 현재 SFTP 엔드포인트에 대해 지원되는 유일한 ID 관리 형태입니다</t>
+        </is>
+      </c>
       <c r="F554" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G554" t="inlineStr">
@@ -29249,7 +29241,7 @@
       <c r="K554" s="19" t="n"/>
       <c r="L554" s="19" t="inlineStr">
         <is>
-          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
         </is>
       </c>
       <c r="M554" s="20" t="n"/>
@@ -29276,17 +29268,13 @@
       </c>
       <c r="D555" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">공용 Blob 액세스가 필요한지 또는 특정 스토리지 계정에 대해 사용하지 않도록 설정할 수 있는지 여부를 고려합니다. </t>
-        </is>
-      </c>
-      <c r="E555" s="18" t="inlineStr">
-        <is>
-          <t>Resource Graph Explorer(resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true)를 활용하여 익명 Blob 액세스를 허용하는 스토리지 계정을 찾습니다.</t>
-        </is>
-      </c>
+          <t>SFTP: SFTP 엔드포인트는 POSIX와 유사한 ACL을 지원하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="E555" s="18" t="n"/>
       <c r="F555" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G555" t="inlineStr">
@@ -29304,7 +29292,7 @@
       <c r="K555" s="19" t="n"/>
       <c r="L555" s="19" t="inlineStr">
         <is>
-          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
         </is>
       </c>
       <c r="M555" s="20" t="n"/>
@@ -29314,17 +29302,54 @@
       <c r="Q555" s="20" t="n"/>
     </row>
     <row r="556">
-      <c r="A556" s="18" t="n"/>
-      <c r="B556" s="18" t="n"/>
-      <c r="C556" s="18" t="n"/>
-      <c r="D556" s="18" t="n"/>
-      <c r="E556" s="18" t="n"/>
-      <c r="F556" s="18" t="n"/>
+      <c r="A556" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B556" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C556" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D556" s="18" t="inlineStr">
+        <is>
+          <t>지나치게 광범위한 CORS 정책 방지</t>
+        </is>
+      </c>
+      <c r="E556" s="18" t="inlineStr">
+        <is>
+          <t>스토리지는 CORS(Cross-Origin Resource Sharing), 즉 다른 도메인의 웹앱이 동일 출처 정책을 완화할 수 있도록 하는 HTTP 기능을 지원합니다. CORS를 사용하도록 설정할 때 CorsRules를 최소 권한으로 유지합니다.</t>
+        </is>
+      </c>
+      <c r="F556" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H556" s="18" t="n"/>
-      <c r="I556" s="13" t="n"/>
+      <c r="I556" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J556" s="13" t="n"/>
       <c r="K556" s="19" t="n"/>
-      <c r="L556" s="19" t="n"/>
+      <c r="L556" s="19" t="inlineStr">
+        <is>
+          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+        </is>
+      </c>
       <c r="M556" s="20" t="n"/>
       <c r="N556" s="20" t="n"/>
       <c r="O556" s="20" t="n"/>
@@ -29332,17 +29357,54 @@
       <c r="Q556" s="20" t="n"/>
     </row>
     <row r="557">
-      <c r="A557" s="18" t="n"/>
-      <c r="B557" s="18" t="n"/>
-      <c r="C557" s="18" t="n"/>
-      <c r="D557" s="18" t="n"/>
-      <c r="E557" s="18" t="n"/>
-      <c r="F557" s="18" t="n"/>
+      <c r="A557" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B557" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C557" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D557" s="18" t="inlineStr">
+        <is>
+          <t>미사용 데이터를 암호화하는 방법을 결정합니다. 데이터에 대한 스레드 모델을 이해합니다.</t>
+        </is>
+      </c>
+      <c r="E557" s="18" t="inlineStr">
+        <is>
+          <t>미사용 데이터는 항상 서버 쪽에서 암호화되며 클라이언트 쪽에서도 암호화될 수 있습니다. 서버 쪽 암호화는 플랫폼 관리형 키(기본값) 또는 고객 관리형 키를 사용하여 발생할 수 있습니다. 클라이언트 쪽 암호화는 클라이언트가 Azure Storage에 Blob별로 암호화/암호 해독 키를 제공하거나 클라이언트 쪽에서 암호화를 완전히 처리하여 발생할 수 있습니다. 따라서 기밀성 보장을 위해 Azure Storage에 전혀 의존하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F557" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H557" s="18" t="n"/>
-      <c r="I557" s="13" t="n"/>
+      <c r="I557" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J557" s="13" t="n"/>
       <c r="K557" s="19" t="n"/>
-      <c r="L557" s="19" t="n"/>
+      <c r="L557" s="19" t="inlineStr">
+        <is>
+          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+        </is>
+      </c>
       <c r="M557" s="20" t="n"/>
       <c r="N557" s="20" t="n"/>
       <c r="O557" s="20" t="n"/>
@@ -29350,17 +29412,50 @@
       <c r="Q557" s="20" t="n"/>
     </row>
     <row r="558">
-      <c r="A558" s="18" t="n"/>
-      <c r="B558" s="18" t="n"/>
-      <c r="C558" s="18" t="n"/>
-      <c r="D558" s="18" t="n"/>
+      <c r="A558" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B558" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C558" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D558" s="18" t="inlineStr">
+        <is>
+          <t>사용해야 하는 플랫폼 암호화를 결정합니다.</t>
+        </is>
+      </c>
       <c r="E558" s="18" t="n"/>
-      <c r="F558" s="18" t="n"/>
+      <c r="F558" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H558" s="18" t="n"/>
-      <c r="I558" s="13" t="n"/>
+      <c r="I558" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J558" s="13" t="n"/>
       <c r="K558" s="19" t="n"/>
-      <c r="L558" s="19" t="n"/>
+      <c r="L558" s="19" t="inlineStr">
+        <is>
+          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+        </is>
+      </c>
       <c r="M558" s="20" t="n"/>
       <c r="N558" s="20" t="n"/>
       <c r="O558" s="20" t="n"/>
@@ -29368,17 +29463,50 @@
       <c r="Q558" s="20" t="n"/>
     </row>
     <row r="559">
-      <c r="A559" s="18" t="n"/>
-      <c r="B559" s="18" t="n"/>
-      <c r="C559" s="18" t="n"/>
-      <c r="D559" s="18" t="n"/>
+      <c r="A559" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B559" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C559" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D559" s="18" t="inlineStr">
+        <is>
+          <t>사용해야 하는 클라이언트 쪽 암호화를 결정합니다.</t>
+        </is>
+      </c>
       <c r="E559" s="18" t="n"/>
-      <c r="F559" s="18" t="n"/>
+      <c r="F559" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H559" s="18" t="n"/>
-      <c r="I559" s="13" t="n"/>
+      <c r="I559" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J559" s="13" t="n"/>
       <c r="K559" s="19" t="n"/>
-      <c r="L559" s="19" t="n"/>
+      <c r="L559" s="19" t="inlineStr">
+        <is>
+          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+        </is>
+      </c>
       <c r="M559" s="20" t="n"/>
       <c r="N559" s="20" t="n"/>
       <c r="O559" s="20" t="n"/>
@@ -29386,17 +29514,54 @@
       <c r="Q559" s="20" t="n"/>
     </row>
     <row r="560">
-      <c r="A560" s="18" t="n"/>
-      <c r="B560" s="18" t="n"/>
-      <c r="C560" s="18" t="n"/>
-      <c r="D560" s="18" t="n"/>
-      <c r="E560" s="18" t="n"/>
-      <c r="F560" s="18" t="n"/>
+      <c r="A560" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B560" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C560" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D560" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">공용 Blob 액세스가 필요한지 또는 특정 스토리지 계정에 대해 사용하지 않도록 설정할 수 있는지 여부를 고려합니다. </t>
+        </is>
+      </c>
+      <c r="E560" s="18" t="inlineStr">
+        <is>
+          <t>Resource Graph Explorer(resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true)를 활용하여 익명 Blob 액세스를 허용하는 스토리지 계정을 찾습니다.</t>
+        </is>
+      </c>
+      <c r="F560" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H560" s="18" t="n"/>
-      <c r="I560" s="13" t="n"/>
+      <c r="I560" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J560" s="13" t="n"/>
       <c r="K560" s="19" t="n"/>
-      <c r="L560" s="19" t="n"/>
+      <c r="L560" s="19" t="inlineStr">
+        <is>
+          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+        </is>
+      </c>
       <c r="M560" s="20" t="n"/>
       <c r="N560" s="20" t="n"/>
       <c r="O560" s="20" t="n"/>
@@ -41158,7 +41323,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G556" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G561" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -41470,11 +41635,11 @@
     <hyperlink ref="I406" r:id="rId305"/>
     <hyperlink ref="I407" r:id="rId306"/>
     <hyperlink ref="I408" r:id="rId307"/>
-    <hyperlink ref="I410" r:id="rId308"/>
-    <hyperlink ref="I411" r:id="rId309"/>
-    <hyperlink ref="I412" r:id="rId310"/>
-    <hyperlink ref="I413" r:id="rId311"/>
-    <hyperlink ref="I414" r:id="rId312"/>
+    <hyperlink ref="I409" r:id="rId308"/>
+    <hyperlink ref="I410" r:id="rId309"/>
+    <hyperlink ref="I411" r:id="rId310"/>
+    <hyperlink ref="I412" r:id="rId311"/>
+    <hyperlink ref="I413" r:id="rId312"/>
     <hyperlink ref="I415" r:id="rId313"/>
     <hyperlink ref="I416" r:id="rId314"/>
     <hyperlink ref="I417" r:id="rId315"/>
@@ -41495,11 +41660,11 @@
     <hyperlink ref="I432" r:id="rId330"/>
     <hyperlink ref="I433" r:id="rId331"/>
     <hyperlink ref="I434" r:id="rId332"/>
-    <hyperlink ref="I436" r:id="rId333"/>
-    <hyperlink ref="I437" r:id="rId334"/>
-    <hyperlink ref="I438" r:id="rId335"/>
-    <hyperlink ref="I439" r:id="rId336"/>
-    <hyperlink ref="I440" r:id="rId337"/>
+    <hyperlink ref="I435" r:id="rId333"/>
+    <hyperlink ref="I436" r:id="rId334"/>
+    <hyperlink ref="I437" r:id="rId335"/>
+    <hyperlink ref="I438" r:id="rId336"/>
+    <hyperlink ref="I439" r:id="rId337"/>
     <hyperlink ref="I441" r:id="rId338"/>
     <hyperlink ref="I442" r:id="rId339"/>
     <hyperlink ref="I443" r:id="rId340"/>
@@ -41595,24 +41760,29 @@
     <hyperlink ref="I533" r:id="rId430"/>
     <hyperlink ref="I534" r:id="rId431"/>
     <hyperlink ref="I535" r:id="rId432"/>
-    <hyperlink ref="I537" r:id="rId433"/>
-    <hyperlink ref="I538" r:id="rId434"/>
-    <hyperlink ref="I539" r:id="rId435"/>
-    <hyperlink ref="I540" r:id="rId436"/>
-    <hyperlink ref="I541" r:id="rId437"/>
+    <hyperlink ref="I536" r:id="rId433"/>
+    <hyperlink ref="I537" r:id="rId434"/>
+    <hyperlink ref="I538" r:id="rId435"/>
+    <hyperlink ref="I539" r:id="rId436"/>
+    <hyperlink ref="I540" r:id="rId437"/>
     <hyperlink ref="I542" r:id="rId438"/>
     <hyperlink ref="I543" r:id="rId439"/>
     <hyperlink ref="I544" r:id="rId440"/>
     <hyperlink ref="I545" r:id="rId441"/>
     <hyperlink ref="I546" r:id="rId442"/>
     <hyperlink ref="I547" r:id="rId443"/>
-    <hyperlink ref="I549" r:id="rId444"/>
-    <hyperlink ref="I550" r:id="rId445"/>
-    <hyperlink ref="I551" r:id="rId446"/>
-    <hyperlink ref="I552" r:id="rId447"/>
-    <hyperlink ref="I553" r:id="rId448"/>
+    <hyperlink ref="I548" r:id="rId444"/>
+    <hyperlink ref="I549" r:id="rId445"/>
+    <hyperlink ref="I550" r:id="rId446"/>
+    <hyperlink ref="I551" r:id="rId447"/>
+    <hyperlink ref="I552" r:id="rId448"/>
     <hyperlink ref="I554" r:id="rId449"/>
     <hyperlink ref="I555" r:id="rId450"/>
+    <hyperlink ref="I556" r:id="rId451"/>
+    <hyperlink ref="I557" r:id="rId452"/>
+    <hyperlink ref="I558" r:id="rId453"/>
+    <hyperlink ref="I559" r:id="rId454"/>
+    <hyperlink ref="I560" r:id="rId455"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -16946,11 +16946,15 @@
       </c>
       <c r="D325" s="18" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis는 프리미엄 및 엔터프라이즈 계층에서 영역 중복 구성을 지원합니다. 영역 중복 캐시는 동일한 지역의 여러 Azure 가용성 영역에 노드를 배치할 수 있습니다. 데이터 센터 또는 AZ 중단을 단일 장애 지점으로 제거하고 캐시의 전반적인 가용성을 높입니다.</t>
+          <t>Azure Cache for Redis에 대한 영역 중복성을 사용하도록 설정합니다. Azure Cache for Redis는 프리미엄 및 엔터프라이즈 계층에서 영역 중복 구성을 지원합니다. 영역 중복 캐시는 동일한 지역의 여러 Azure 가용성 영역에 노드를 배치할 수 있습니다. 데이터 센터 또는 AZ 중단을 단일 장애 지점으로 제거하고 캐시의 전반적인 가용성을 높입니다.</t>
         </is>
       </c>
       <c r="E325" s="18" t="n"/>
-      <c r="F325" s="18" t="n"/>
+      <c r="F325" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
       <c r="G325" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -16993,11 +16997,15 @@
       </c>
       <c r="D326" s="18" t="inlineStr">
         <is>
-          <t>캐시 데이터는 메모리에 저장되기 때문에 드물게 계획되지 않은 여러 노드의 오류로 인해 모든 데이터가 삭제될 수 있습니다. 데이터가 완전히 손실되는 것을 방지하기 위해 Redis 지속성을 사용하면 메모리 내 데이터의 주기적인 스냅숏을 만들어 저장소 계정에 저장할 수 있습니다.</t>
+          <t>Azure Cache for Redis 인스턴스에 대한 데이터 지속성을 구성합니다. 캐시 데이터는 메모리에 저장되기 때문에 드물게 계획되지 않은 여러 노드의 오류로 인해 모든 데이터가 삭제될 수 있습니다. 데이터가 완전히 손실되는 것을 방지하기 위해 Redis 지속성을 사용하면 메모리 내 데이터의 주기적인 스냅숏을 만들어 저장소 계정에 저장할 수 있습니다.</t>
         </is>
       </c>
       <c r="E326" s="18" t="n"/>
-      <c r="F326" s="18" t="n"/>
+      <c r="F326" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="G326" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -17044,7 +17052,11 @@
         </is>
       </c>
       <c r="E327" s="18" t="n"/>
-      <c r="F327" s="18" t="n"/>
+      <c r="F327" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="G327" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -17087,11 +17099,15 @@
       </c>
       <c r="D328" s="18" t="inlineStr">
         <is>
-          <t>지역에서 복제는 일반적으로 두 개의 Azure 지역에 걸쳐 있는 둘 이상의 Azure Cache for Redis 인스턴스를 연결하는 메커니즘입니다. 지역에서 복제는 주로 지역 간 재해 복구를 위해 설계되었습니다. 두 개의 프리미엄 계층 캐시 인스턴스는 주 캐시에 대한 읽기 및 쓰기를 제공하는 방식으로 지역 복제를 통해 연결되며, 해당 데이터는 보조 캐시에 복제됩니다.</t>
+          <t>프리미엄 Azure Cache for Redis 인스턴스에 대한 수동 지역 복제를 구성합니다. 지역에서 복제는 일반적으로 두 개의 Azure 지역에 걸쳐 있는 둘 이상의 Azure Cache for Redis 인스턴스를 연결하는 메커니즘입니다. 지역에서 복제는 주로 지역 간 재해 복구를 위해 설계되었습니다. 두 개의 프리미엄 계층 캐시 인스턴스는 주 캐시에 대한 읽기 및 쓰기를 제공하는 방식으로 지역 복제를 통해 연결되며, 해당 데이터는 보조 캐시에 복제됩니다.</t>
         </is>
       </c>
       <c r="E328" s="18" t="n"/>
-      <c r="F328" s="18" t="n"/>
+      <c r="F328" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="G328" t="inlineStr">
         <is>
           <t>확인되지 않음</t>

--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -29585,17 +29585,54 @@
       <c r="Q560" s="20" t="n"/>
     </row>
     <row r="561">
-      <c r="A561" s="18" t="n"/>
-      <c r="B561" s="18" t="n"/>
-      <c r="C561" s="18" t="n"/>
-      <c r="D561" s="18" t="n"/>
+      <c r="A561" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B561" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C561" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D561" s="18" t="inlineStr">
+        <is>
+          <t>ACSS(Azure Center for SAP solutions)는 SAP를 Azure의 최상위 워크로드로 만드는 Azure 제품입니다. ACSS는 Azure에서 SAP 시스템을 통합 워크로드로 만들고 실행할 수 있도록 하는 엔드투엔드 솔루션으로, 혁신을 위한 보다 원활한 기반을 제공합니다. 신규 및 기존 Azure 기반 SAP 시스템 모두에 대한 관리 기능을 활용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E561" s="18" t="n"/>
-      <c r="F561" s="18" t="n"/>
+      <c r="F561" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H561" s="18" t="n"/>
-      <c r="I561" s="13" t="n"/>
-      <c r="J561" s="13" t="n"/>
+      <c r="I561" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J561" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-center-sap-solutions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K561" s="19" t="n"/>
-      <c r="L561" s="19" t="n"/>
+      <c r="L561" s="19" t="inlineStr">
+        <is>
+          <t>4620dc87-e948-4ce8-8426-f3e6e5d7bd85</t>
+        </is>
+      </c>
       <c r="M561" s="20" t="n"/>
       <c r="N561" s="20" t="n"/>
       <c r="O561" s="20" t="n"/>
@@ -29603,17 +29640,54 @@
       <c r="Q561" s="20" t="n"/>
     </row>
     <row r="562">
-      <c r="A562" s="18" t="n"/>
-      <c r="B562" s="18" t="n"/>
-      <c r="C562" s="18" t="n"/>
-      <c r="D562" s="18" t="n"/>
+      <c r="A562" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B562" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C562" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D562" s="18" t="inlineStr">
+        <is>
+          <t>Azure는 Linux 및 Windows에서 SAP 배포 자동화를 지원합니다. SAP Deployment Automation Framework는 SAP 환경을 배포, 설치 및 유지 관리할 수 있는 오픈 소스 오케스트레이션 도구입니다.</t>
+        </is>
+      </c>
       <c r="E562" s="18" t="n"/>
-      <c r="F562" s="18" t="n"/>
+      <c r="F562" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H562" s="18" t="n"/>
-      <c r="I562" s="13" t="n"/>
-      <c r="J562" s="13" t="n"/>
+      <c r="I562" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J562" s="31" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/sap-automation</t>
+        </is>
+      </c>
       <c r="K562" s="19" t="n"/>
-      <c r="L562" s="19" t="n"/>
+      <c r="L562" s="19" t="inlineStr">
+        <is>
+          <t>5d75e99d-624d-4afe-91d9-e17adc580790</t>
+        </is>
+      </c>
       <c r="M562" s="20" t="n"/>
       <c r="N562" s="20" t="n"/>
       <c r="O562" s="20" t="n"/>
@@ -29621,17 +29695,50 @@
       <c r="Q562" s="20" t="n"/>
     </row>
     <row r="563">
-      <c r="A563" s="18" t="n"/>
-      <c r="B563" s="18" t="n"/>
-      <c r="C563" s="18" t="n"/>
-      <c r="D563" s="18" t="n"/>
+      <c r="A563" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B563" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C563" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D563" s="18" t="inlineStr">
+        <is>
+          <t>RTO를 충족하는 시점과 시간 프레임에서 프로덕션 데이터베이스에 대한 특정 시점으로 복구를 수행합니다. 특정 시점 복구에는 일반적으로 DBMS 계층 또는 SAP를 통해 데이터를 삭제하는 운영자 오류가 포함됩니다</t>
+        </is>
+      </c>
       <c r="E563" s="18" t="n"/>
-      <c r="F563" s="18" t="n"/>
+      <c r="F563" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H563" s="18" t="n"/>
-      <c r="I563" s="13" t="n"/>
+      <c r="I563" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J563" s="13" t="n"/>
       <c r="K563" s="19" t="n"/>
-      <c r="L563" s="19" t="n"/>
+      <c r="L563" s="19" t="inlineStr">
+        <is>
+          <t>d17f6f39-a377-48a2-931f-5ead3ebe33a8</t>
+        </is>
+      </c>
       <c r="M563" s="20" t="n"/>
       <c r="N563" s="20" t="n"/>
       <c r="O563" s="20" t="n"/>
@@ -29639,17 +29746,46 @@
       <c r="Q563" s="20" t="n"/>
     </row>
     <row r="564">
-      <c r="A564" s="18" t="n"/>
-      <c r="B564" s="18" t="n"/>
-      <c r="C564" s="18" t="n"/>
-      <c r="D564" s="18" t="n"/>
+      <c r="A564" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B564" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C564" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D564" s="18" t="inlineStr">
+        <is>
+          <t>백업 및 복구 시간을 테스트하여 재해 발생 후 모든 시스템을 동시에 복원하기 위한 RTO 요구 사항을 충족하는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E564" s="18" t="n"/>
-      <c r="F564" s="18" t="n"/>
+      <c r="F564" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H564" s="18" t="n"/>
       <c r="I564" s="13" t="n"/>
       <c r="J564" s="13" t="n"/>
       <c r="K564" s="19" t="n"/>
-      <c r="L564" s="19" t="n"/>
+      <c r="L564" s="19" t="inlineStr">
+        <is>
+          <t>c4b8e117-930b-4dbd-ae50-7bc5faf6f91a</t>
+        </is>
+      </c>
       <c r="M564" s="20" t="n"/>
       <c r="N564" s="20" t="n"/>
       <c r="O564" s="20" t="n"/>
@@ -29657,17 +29793,54 @@
       <c r="Q564" s="20" t="n"/>
     </row>
     <row r="565">
-      <c r="A565" s="18" t="n"/>
-      <c r="B565" s="18" t="n"/>
-      <c r="C565" s="18" t="n"/>
-      <c r="D565" s="18" t="n"/>
+      <c r="A565" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B565" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C565" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D565" s="18" t="inlineStr">
+        <is>
+          <t>쌍을 이루는 지역 간에 표준 스토리지를 복제할 수 있지만 표준 스토리지를 사용하여 데이터베이스 또는 가상 하드 디스크를 저장할 수는 없습니다. 사용하는 쌍을 이루는 지역 간에만 백업을 복제할 수 있습니다. 다른 모든 데이터의 경우 SQL Server Always On 또는 SAP HANA 시스템 복제와 같은 네이티브 DBMS 기능을 사용하여 복제를 실행합니다. SAP 애플리케이션 계층에 Site Recovery, rsync 또는 robocopy 및 기타 타사 소프트웨어의 조합을 사용합니다.</t>
+        </is>
+      </c>
       <c r="E565" s="18" t="n"/>
-      <c r="F565" s="18" t="n"/>
+      <c r="F565" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H565" s="18" t="n"/>
-      <c r="I565" s="13" t="n"/>
-      <c r="J565" s="13" t="n"/>
+      <c r="I565" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J565" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="K565" s="19" t="n"/>
-      <c r="L565" s="19" t="n"/>
+      <c r="L565" s="19" t="inlineStr">
+        <is>
+          <t>b651423c-8552-42db-a545-5cb50c05527a</t>
+        </is>
+      </c>
       <c r="M565" s="20" t="n"/>
       <c r="N565" s="20" t="n"/>
       <c r="O565" s="20" t="n"/>
@@ -29675,17 +29848,54 @@
       <c r="Q565" s="20" t="n"/>
     </row>
     <row r="566">
-      <c r="A566" s="18" t="n"/>
-      <c r="B566" s="18" t="n"/>
-      <c r="C566" s="18" t="n"/>
-      <c r="D566" s="18" t="n"/>
+      <c r="A566" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B566" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C566" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D566" s="18" t="inlineStr">
+        <is>
+          <t>Azure 가용성 영역을 사용하여 고가용성을 달성하는 경우 SAP 애플리케이션 서버와 데이터베이스 서버 간의 대기 시간을 고려해야 합니다. 대기 시간이 긴 영역의 경우 SAP 애플리케이션 서버와 데이터베이스 서버가 항상 동일한 영역에서 실행되도록 운영 절차를 마련해야 합니다.</t>
+        </is>
+      </c>
       <c r="E566" s="18" t="n"/>
-      <c r="F566" s="18" t="n"/>
+      <c r="F566" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H566" s="18" t="n"/>
-      <c r="I566" s="13" t="n"/>
-      <c r="J566" s="13" t="n"/>
+      <c r="I566" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J566" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K566" s="19" t="n"/>
-      <c r="L566" s="19" t="n"/>
+      <c r="L566" s="19" t="inlineStr">
+        <is>
+          <t>aa208dca-784f-46c6-9014-cc919c542dc9</t>
+        </is>
+      </c>
       <c r="M566" s="20" t="n"/>
       <c r="N566" s="20" t="n"/>
       <c r="O566" s="20" t="n"/>
@@ -29693,17 +29903,54 @@
       <c r="Q566" s="20" t="n"/>
     </row>
     <row r="567">
-      <c r="A567" s="18" t="n"/>
-      <c r="B567" s="18" t="n"/>
-      <c r="C567" s="18" t="n"/>
-      <c r="D567" s="18" t="n"/>
+      <c r="A567" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B567" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C567" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D567" s="18" t="inlineStr">
+        <is>
+          <t>온-프레미스에서 기본 및 보조 Azure 재해 복구 지역으로의 ExpressRoute 연결을 설정합니다. 또한 ExpressRoute를 사용하는 대신 온-프레미스에서 주 및 보조 Azure 재해 복구 지역으로 VPN 연결을 설정하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E567" s="18" t="n"/>
-      <c r="F567" s="18" t="n"/>
+      <c r="F567" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H567" s="18" t="n"/>
-      <c r="I567" s="13" t="n"/>
-      <c r="J567" s="13" t="n"/>
+      <c r="I567" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J567" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/expressroute/use-s2s-vpn-as-backup-for-expressroute-privatepeering</t>
+        </is>
+      </c>
       <c r="K567" s="19" t="n"/>
-      <c r="L567" s="19" t="n"/>
+      <c r="L567" s="19" t="inlineStr">
+        <is>
+          <t>ba07c007-1f90-43e9-aa4f-601346b80352</t>
+        </is>
+      </c>
       <c r="M567" s="20" t="n"/>
       <c r="N567" s="20" t="n"/>
       <c r="O567" s="20" t="n"/>
@@ -29711,17 +29958,50 @@
       <c r="Q567" s="20" t="n"/>
     </row>
     <row r="568">
-      <c r="A568" s="18" t="n"/>
-      <c r="B568" s="18" t="n"/>
-      <c r="C568" s="18" t="n"/>
-      <c r="D568" s="18" t="n"/>
+      <c r="A568" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B568" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C568" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D568" s="18" t="inlineStr">
+        <is>
+          <t>DR 지역에서 데이터의 암호를 해독할 수 있도록 지역 간에 인증서, 비밀 또는 키와 같은 키 자격 증명 모음 콘텐츠를 복제합니다.</t>
+        </is>
+      </c>
       <c r="E568" s="18" t="n"/>
-      <c r="F568" s="18" t="n"/>
+      <c r="F568" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H568" s="18" t="n"/>
-      <c r="I568" s="13" t="n"/>
+      <c r="I568" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J568" s="13" t="n"/>
       <c r="K568" s="19" t="n"/>
-      <c r="L568" s="19" t="n"/>
+      <c r="L568" s="19" t="inlineStr">
+        <is>
+          <t>d2b30195-b11d-4a8f-a672-28b2b4169a7c</t>
+        </is>
+      </c>
       <c r="M568" s="20" t="n"/>
       <c r="N568" s="20" t="n"/>
       <c r="O568" s="20" t="n"/>
@@ -29729,17 +30009,50 @@
       <c r="Q568" s="20" t="n"/>
     </row>
     <row r="569">
-      <c r="A569" s="18" t="n"/>
-      <c r="B569" s="18" t="n"/>
-      <c r="C569" s="18" t="n"/>
-      <c r="D569" s="18" t="n"/>
+      <c r="A569" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B569" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C569" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D569" s="18" t="inlineStr">
+        <is>
+          <t>기본 및 재해 복구 가상 네트워크를 피어링합니다. 예를 들어 HANA 시스템 복제의 경우 SAP HANA DB 가상 네트워크를 재해 복구 사이트의 SAP HANA DB 가상 네트워크에 피어링해야 합니다.</t>
+        </is>
+      </c>
       <c r="E569" s="18" t="n"/>
-      <c r="F569" s="18" t="n"/>
+      <c r="F569" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H569" s="18" t="n"/>
-      <c r="I569" s="13" t="n"/>
+      <c r="I569" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J569" s="13" t="n"/>
       <c r="K569" s="19" t="n"/>
-      <c r="L569" s="19" t="n"/>
+      <c r="L569" s="19" t="inlineStr">
+        <is>
+          <t>05f1101d-250f-40e7-b2a1-b674ab50edbd</t>
+        </is>
+      </c>
       <c r="M569" s="20" t="n"/>
       <c r="N569" s="20" t="n"/>
       <c r="O569" s="20" t="n"/>
@@ -29747,17 +30060,54 @@
       <c r="Q569" s="20" t="n"/>
     </row>
     <row r="570">
-      <c r="A570" s="18" t="n"/>
-      <c r="B570" s="18" t="n"/>
-      <c r="C570" s="18" t="n"/>
-      <c r="D570" s="18" t="n"/>
+      <c r="A570" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B570" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C570" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D570" s="18" t="inlineStr">
+        <is>
+          <t>SAP 배포에 Azure NetApp Files 스토리지를 사용하는 경우 최소한 두 지역의 프리미엄 계층에 두 개의 Azure NetApp Files 계정을 만듭니다.</t>
+        </is>
+      </c>
       <c r="E570" s="18" t="n"/>
-      <c r="F570" s="18" t="n"/>
+      <c r="F570" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H570" s="18" t="n"/>
-      <c r="I570" s="13" t="n"/>
-      <c r="J570" s="13" t="n"/>
+      <c r="I570" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J570" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/choose-service-level-azure-netapp-files-hpc-applications/2-identify-decision-criteria</t>
+        </is>
+      </c>
       <c r="K570" s="19" t="n"/>
-      <c r="L570" s="19" t="n"/>
+      <c r="L570" s="19" t="inlineStr">
+        <is>
+          <t>d3351bf7-628a-46de-917d-dfc11d3b6b40</t>
+        </is>
+      </c>
       <c r="M570" s="20" t="n"/>
       <c r="N570" s="20" t="n"/>
       <c r="O570" s="20" t="n"/>
@@ -29765,17 +30115,54 @@
       <c r="Q570" s="20" t="n"/>
     </row>
     <row r="571">
-      <c r="A571" s="18" t="n"/>
-      <c r="B571" s="18" t="n"/>
-      <c r="C571" s="18" t="n"/>
-      <c r="D571" s="18" t="n"/>
+      <c r="A571" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B571" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C571" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D571" s="18" t="inlineStr">
+        <is>
+          <t>기본 데이터베이스 복제 기술을 사용하여 HA 쌍의 데이터베이스를 동기화해야 합니다.</t>
+        </is>
+      </c>
       <c r="E571" s="18" t="n"/>
-      <c r="F571" s="18" t="n"/>
+      <c r="F571" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H571" s="18" t="n"/>
-      <c r="I571" s="13" t="n"/>
-      <c r="J571" s="13" t="n"/>
+      <c r="I571" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J571" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-disaster-recovery-for-sap-workloads-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K571" s="19" t="n"/>
-      <c r="L571" s="19" t="n"/>
+      <c r="L571" s="19" t="inlineStr">
+        <is>
+          <t>726a1d3e-5508-4a06-9d54-93f4b50040c1</t>
+        </is>
+      </c>
       <c r="M571" s="20" t="n"/>
       <c r="N571" s="20" t="n"/>
       <c r="O571" s="20" t="n"/>
@@ -29783,17 +30170,54 @@
       <c r="Q571" s="20" t="n"/>
     </row>
     <row r="572">
-      <c r="A572" s="18" t="n"/>
-      <c r="B572" s="18" t="n"/>
-      <c r="C572" s="18" t="n"/>
-      <c r="D572" s="18" t="n"/>
+      <c r="A572" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B572" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C572" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D572" s="18" t="inlineStr">
+        <is>
+          <t>기본 VNet(가상 네트워크)에 대한 CIDR은 DR 사이트 VNet의 CIDR과 충돌하거나 겹치지 않아야 합니다</t>
+        </is>
+      </c>
       <c r="E572" s="18" t="n"/>
-      <c r="F572" s="18" t="n"/>
+      <c r="F572" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H572" s="18" t="n"/>
-      <c r="I572" s="13" t="n"/>
-      <c r="J572" s="13" t="n"/>
+      <c r="I572" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J572" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K572" s="19" t="n"/>
-      <c r="L572" s="19" t="n"/>
+      <c r="L572" s="19" t="inlineStr">
+        <is>
+          <t>6561f847-3db5-4ff8-9200-5ad3c3b436ad</t>
+        </is>
+      </c>
       <c r="M572" s="20" t="n"/>
       <c r="N572" s="20" t="n"/>
       <c r="O572" s="20" t="n"/>
@@ -29801,17 +30225,50 @@
       <c r="Q572" s="20" t="n"/>
     </row>
     <row r="573">
-      <c r="A573" s="18" t="n"/>
-      <c r="B573" s="18" t="n"/>
-      <c r="C573" s="18" t="n"/>
-      <c r="D573" s="18" t="n"/>
+      <c r="A573" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B573" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C573" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D573" s="18" t="inlineStr">
+        <is>
+          <t>Site Recovery를 사용하여 응용 프로그램 서버를 DR 사이트에 복제합니다. Site Recovery는 중앙 서비스 클러스터 VM을 DR 사이트에 복제하는 데도 도움이 될 수 있습니다. DR을 호출할 때 DR 사이트에서 Linux Pacemaker 클러스터를 다시 구성해야 합니다(예: VIP 또는 SBD 바꾸기, corosync.conf 실행 등).</t>
+        </is>
+      </c>
       <c r="E573" s="18" t="n"/>
-      <c r="F573" s="18" t="n"/>
+      <c r="F573" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H573" s="18" t="n"/>
       <c r="I573" s="13" t="n"/>
-      <c r="J573" s="13" t="n"/>
+      <c r="J573" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="K573" s="19" t="n"/>
-      <c r="L573" s="19" t="n"/>
+      <c r="L573" s="19" t="inlineStr">
+        <is>
+          <t>0258ed30-fe42-434f-87b9-58f91f908e0a</t>
+        </is>
+      </c>
       <c r="M573" s="20" t="n"/>
       <c r="N573" s="20" t="n"/>
       <c r="O573" s="20" t="n"/>
@@ -29819,17 +30276,54 @@
       <c r="Q573" s="20" t="n"/>
     </row>
     <row r="574">
-      <c r="A574" s="18" t="n"/>
-      <c r="B574" s="18" t="n"/>
-      <c r="C574" s="18" t="n"/>
-      <c r="D574" s="18" t="n"/>
+      <c r="A574" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B574" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C574" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D574" s="18" t="inlineStr">
+        <is>
+          <t>단일 장애 지점에 대한 SAP 소프트웨어의 가용성을 고려합니다. 여기에는 SAP NetWeaver 및 SAP S/4HANA 아키텍처, SAP ABAP 및 ASCS + SCS에서 사용되는 DBMS와 같은 애플리케이션 내의 단일 실패 지점이 포함됩니다. 또한 SAP Web Dispatcher와 같은 다른 도구도 있습니다.</t>
+        </is>
+      </c>
       <c r="E574" s="18" t="n"/>
-      <c r="F574" s="18" t="n"/>
+      <c r="F574" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H574" s="18" t="n"/>
-      <c r="I574" s="13" t="n"/>
-      <c r="J574" s="13" t="n"/>
+      <c r="I574" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J574" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/2-explore-high-availability-disaster-recovery-support-azure-for-sap-workloads?source=recommendations</t>
+        </is>
+      </c>
       <c r="K574" s="19" t="n"/>
-      <c r="L574" s="19" t="n"/>
+      <c r="L574" s="19" t="inlineStr">
+        <is>
+          <t>8300cb30-766b-4084-b126-0dd8fb1269a1</t>
+        </is>
+      </c>
       <c r="M574" s="20" t="n"/>
       <c r="N574" s="20" t="n"/>
       <c r="O574" s="20" t="n"/>
@@ -29837,17 +30331,54 @@
       <c r="Q574" s="20" t="n"/>
     </row>
     <row r="575">
-      <c r="A575" s="18" t="n"/>
-      <c r="B575" s="18" t="n"/>
-      <c r="C575" s="18" t="n"/>
-      <c r="D575" s="18" t="n"/>
+      <c r="A575" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B575" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C575" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D575" s="18" t="inlineStr">
+        <is>
+          <t>SAP 및 SAP 데이터베이스의 경우 자동 장애 조치(failover) 클러스터를 구현하는 것이 좋습니다. Windows에서 Windows Server 장애 조치(failover) 클러스터링은 장애 조치(failover)를 지원합니다. Linux에서 Linux Pacemaker 또는 SIOS Protection Suite 및 Veritas InfoScale과 같은 타사 툴은 장애 조치를 지원합니다.</t>
+        </is>
+      </c>
       <c r="E575" s="18" t="n"/>
-      <c r="F575" s="18" t="n"/>
+      <c r="F575" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H575" s="18" t="n"/>
-      <c r="I575" s="13" t="n"/>
-      <c r="J575" s="13" t="n"/>
+      <c r="I575" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J575" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K575" s="19" t="n"/>
-      <c r="L575" s="19" t="n"/>
+      <c r="L575" s="19" t="inlineStr">
+        <is>
+          <t>56402f11-ccbe-42c3-a2f6-c6f6f38ab579</t>
+        </is>
+      </c>
       <c r="M575" s="20" t="n"/>
       <c r="N575" s="20" t="n"/>
       <c r="O575" s="20" t="n"/>
@@ -29855,17 +30386,54 @@
       <c r="Q575" s="20" t="n"/>
     </row>
     <row r="576">
-      <c r="A576" s="18" t="n"/>
-      <c r="B576" s="18" t="n"/>
-      <c r="C576" s="18" t="n"/>
-      <c r="D576" s="18" t="n"/>
+      <c r="A576" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B576" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C576" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D576" s="18" t="inlineStr">
+        <is>
+          <t>Azure는 기본 및 보조 VM이 DBMS 데이터에 대한 스토리지를 공유하는 아키텍처를 지원하지 않습니다. DBMS 계층의 경우 일반적인 아키텍처 패턴은 기본 및 보조 VM에서 사용하는 것과 다른 스토리지 스택을 사용하여 동시에 데이터베이스를 복제하는 것입니다.</t>
+        </is>
+      </c>
       <c r="E576" s="18" t="n"/>
-      <c r="F576" s="18" t="n"/>
+      <c r="F576" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H576" s="18" t="n"/>
-      <c r="I576" s="13" t="n"/>
-      <c r="J576" s="13" t="n"/>
+      <c r="I576" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J576" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/ensure-business-continuity-implement-disaster-recovery/?source=recommendationshttps%3A%2F%2Flearn.microsoft.com%2Fja-jp%2Ftraining%2Fpaths%2Fensure-business-continuity-implement-disaster-recovery%2F%3Fsource%3Drecommendations</t>
+        </is>
+      </c>
       <c r="K576" s="19" t="n"/>
-      <c r="L576" s="19" t="n"/>
+      <c r="L576" s="19" t="inlineStr">
+        <is>
+          <t>afae6bec-2671-49ae-bc69-140b8ec8d320</t>
+        </is>
+      </c>
       <c r="M576" s="20" t="n"/>
       <c r="N576" s="20" t="n"/>
       <c r="O576" s="20" t="n"/>
@@ -29873,17 +30441,54 @@
       <c r="Q576" s="20" t="n"/>
     </row>
     <row r="577">
-      <c r="A577" s="18" t="n"/>
-      <c r="B577" s="18" t="n"/>
-      <c r="C577" s="18" t="n"/>
-      <c r="D577" s="18" t="n"/>
+      <c r="A577" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B577" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C577" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D577" s="18" t="inlineStr">
+        <is>
+          <t>DBMS 데이터 및 트랜잭션/다시 실행 로그 파일은 Azure 지원 블록 스토리지 또는 Azure NetApp Files에 저장됩니다. Azure Files 또는 Azure Premium Files는 DBMS 데이터 및/또는 SAP 워크로드가 있는 다시 실행 로그 파일에 대한 스토리지로 지원되지 않습니다.</t>
+        </is>
+      </c>
       <c r="E577" s="18" t="n"/>
-      <c r="F577" s="18" t="n"/>
+      <c r="F577" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H577" s="18" t="n"/>
-      <c r="I577" s="13" t="n"/>
-      <c r="J577" s="13" t="n"/>
+      <c r="I577" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J577" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-databases/2-explore-database-support-azure-for-sap-workloads</t>
+        </is>
+      </c>
       <c r="K577" s="19" t="n"/>
-      <c r="L577" s="19" t="n"/>
+      <c r="L577" s="19" t="inlineStr">
+        <is>
+          <t>ac614e95-6767-4bc3-b8a4-9953533da6ba</t>
+        </is>
+      </c>
       <c r="M577" s="20" t="n"/>
       <c r="N577" s="20" t="n"/>
       <c r="O577" s="20" t="n"/>
@@ -29891,17 +30496,54 @@
       <c r="Q577" s="20" t="n"/>
     </row>
     <row r="578">
-      <c r="A578" s="18" t="n"/>
-      <c r="B578" s="18" t="n"/>
-      <c r="C578" s="18" t="n"/>
-      <c r="D578" s="18" t="n"/>
+      <c r="A578" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B578" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C578" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D578" s="18" t="inlineStr">
+        <is>
+          <t>ASCS + SCS 구성 요소 및 특정 고가용성 시나리오에 대해 Windows에서 Azure 공유 디스크를 사용할 수 있습니다. SAP 애플리케이션 계층 구성 요소 및 DBMS 계층에 대해 장애 조치(failover) 클러스터를 별도로 설정합니다. Azure는 현재 SAP 애플리케이션 계층 구성 요소와 DBMS 계층을 하나의 장애 조치(failover) 클러스터로 결합하는 고가용성 아키텍처를 지원하지 않습니다.</t>
+        </is>
+      </c>
       <c r="E578" s="18" t="n"/>
-      <c r="F578" s="18" t="n"/>
+      <c r="F578" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H578" s="18" t="n"/>
-      <c r="I578" s="13" t="n"/>
-      <c r="J578" s="13" t="n"/>
+      <c r="I578" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J578" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K578" s="19" t="n"/>
-      <c r="L578" s="19" t="n"/>
+      <c r="L578" s="19" t="inlineStr">
+        <is>
+          <t>1f737179-8e7f-4e1a-a30c-e5a649a3092b</t>
+        </is>
+      </c>
       <c r="M578" s="20" t="n"/>
       <c r="N578" s="20" t="n"/>
       <c r="O578" s="20" t="n"/>
@@ -29909,17 +30551,54 @@
       <c r="Q578" s="20" t="n"/>
     </row>
     <row r="579">
-      <c r="A579" s="18" t="n"/>
-      <c r="B579" s="18" t="n"/>
-      <c r="C579" s="18" t="n"/>
-      <c r="D579" s="18" t="n"/>
+      <c r="A579" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B579" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C579" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D579" s="18" t="inlineStr">
+        <is>
+          <t>SAP ASCS(애플리케이션 계층 구성 요소) 및 DBMS 계층에 대한 대부분의 장애 조치(failover) 클러스터에는 장애 조치(failover) 클러스터에 대한 가상 IP 주소가 필요합니다.  Azure Load Balancer는 다른 모든 경우에 대한 가상 IP 주소를 처리해야 합니다. 한 가지 설계 원칙은 클러스터 구성당 하나의 부하 분산 장치를 사용하는 것입니다. 부하 분산 장치의 표준 버전(표준 Load Balancer SKU)을 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E579" s="18" t="n"/>
-      <c r="F579" s="18" t="n"/>
+      <c r="F579" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H579" s="18" t="n"/>
-      <c r="I579" s="13" t="n"/>
-      <c r="J579" s="13" t="n"/>
+      <c r="I579" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J579" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K579" s="19" t="n"/>
-      <c r="L579" s="19" t="n"/>
+      <c r="L579" s="19" t="inlineStr">
+        <is>
+          <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
+        </is>
+      </c>
       <c r="M579" s="20" t="n"/>
       <c r="N579" s="20" t="n"/>
       <c r="O579" s="20" t="n"/>
@@ -29927,17 +30606,54 @@
       <c r="Q579" s="20" t="n"/>
     </row>
     <row r="580">
-      <c r="A580" s="18" t="n"/>
-      <c r="B580" s="18" t="n"/>
-      <c r="C580" s="18" t="n"/>
-      <c r="D580" s="18" t="n"/>
+      <c r="A580" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B580" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C580" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D580" s="18" t="inlineStr">
+        <is>
+          <t>로드 밸런서에서 유동 IP가 사용하도록 설정되어 있는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E580" s="18" t="n"/>
-      <c r="F580" s="18" t="n"/>
+      <c r="F580" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H580" s="18" t="n"/>
-      <c r="I580" s="13" t="n"/>
-      <c r="J580" s="13" t="n"/>
+      <c r="I580" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J580" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K580" s="19" t="n"/>
-      <c r="L580" s="19" t="n"/>
+      <c r="L580" s="19" t="inlineStr">
+        <is>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+        </is>
+      </c>
       <c r="M580" s="20" t="n"/>
       <c r="N580" s="20" t="n"/>
       <c r="O580" s="20" t="n"/>
@@ -29945,17 +30661,54 @@
       <c r="Q580" s="20" t="n"/>
     </row>
     <row r="581">
-      <c r="A581" s="18" t="n"/>
-      <c r="B581" s="18" t="n"/>
-      <c r="C581" s="18" t="n"/>
-      <c r="D581" s="18" t="n"/>
+      <c r="A581" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B581" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C581" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D581" s="18" t="inlineStr">
+        <is>
+          <t>고가용성 인프라를 배포하기 전에 선택한 지역에 따라 Azure 가용성 집합 또는 가용성 영역을 사용하여 배포할지 여부를 결정합니다.</t>
+        </is>
+      </c>
       <c r="E581" s="18" t="n"/>
-      <c r="F581" s="18" t="n"/>
+      <c r="F581" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H581" s="18" t="n"/>
-      <c r="I581" s="13" t="n"/>
-      <c r="J581" s="13" t="n"/>
+      <c r="I581" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J581" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K581" s="19" t="n"/>
-      <c r="L581" s="19" t="n"/>
+      <c r="L581" s="19" t="inlineStr">
+        <is>
+          <t>c47cc4f3-f105-452c-845e-9b307b3856c1</t>
+        </is>
+      </c>
       <c r="M581" s="20" t="n"/>
       <c r="N581" s="20" t="n"/>
       <c r="O581" s="20" t="n"/>
@@ -29963,17 +30716,50 @@
       <c r="Q581" s="20" t="n"/>
     </row>
     <row r="582">
-      <c r="A582" s="18" t="n"/>
-      <c r="B582" s="18" t="n"/>
-      <c r="C582" s="18" t="n"/>
-      <c r="D582" s="18" t="n"/>
+      <c r="A582" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B582" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C582" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D582" s="18" t="inlineStr">
+        <is>
+          <t>SAP 구성 요소(중앙 서비스, 애플리케이션 서버 및 데이터베이스)용 애플리케이션에 대한 인프라 SLA를 충족하려면 모든 구성 요소에 대해 동일한 고가용성 옵션(VM, 가용성 집합, 가용성 영역)을 선택해야 합니다.</t>
+        </is>
+      </c>
       <c r="E582" s="18" t="n"/>
-      <c r="F582" s="18" t="n"/>
+      <c r="F582" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H582" s="18" t="n"/>
-      <c r="I582" s="13" t="n"/>
+      <c r="I582" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J582" s="13" t="n"/>
       <c r="K582" s="19" t="n"/>
-      <c r="L582" s="19" t="n"/>
+      <c r="L582" s="19" t="inlineStr">
+        <is>
+          <t>844f69c3-07e5-4ec1-bff7-4be27bcf5fea</t>
+        </is>
+      </c>
       <c r="M582" s="20" t="n"/>
       <c r="N582" s="20" t="n"/>
       <c r="O582" s="20" t="n"/>
@@ -29981,17 +30767,54 @@
       <c r="Q582" s="20" t="n"/>
     </row>
     <row r="583">
-      <c r="A583" s="18" t="n"/>
-      <c r="B583" s="18" t="n"/>
-      <c r="C583" s="18" t="n"/>
-      <c r="D583" s="18" t="n"/>
+      <c r="A583" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B583" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C583" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D583" s="18" t="inlineStr">
+        <is>
+          <t>동일한 가용성 집합에 서로 다른 역할의 서버를 혼합하지 마십시오. 중앙 서비스 VM, 데이터베이스 VM, 애플리케이션 VM을 자체 가용성 집합으로 유지</t>
+        </is>
+      </c>
       <c r="E583" s="18" t="n"/>
-      <c r="F583" s="18" t="n"/>
+      <c r="F583" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H583" s="18" t="n"/>
-      <c r="I583" s="13" t="n"/>
-      <c r="J583" s="13" t="n"/>
+      <c r="I583" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J583" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K583" s="19" t="n"/>
-      <c r="L583" s="19" t="n"/>
+      <c r="L583" s="19" t="inlineStr">
+        <is>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+        </is>
+      </c>
       <c r="M583" s="20" t="n"/>
       <c r="N583" s="20" t="n"/>
       <c r="O583" s="20" t="n"/>
@@ -29999,17 +30822,54 @@
       <c r="Q583" s="20" t="n"/>
     </row>
     <row r="584">
-      <c r="A584" s="18" t="n"/>
-      <c r="B584" s="18" t="n"/>
-      <c r="C584" s="18" t="n"/>
-      <c r="D584" s="18" t="n"/>
+      <c r="A584" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B584" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C584" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D584" s="18" t="inlineStr">
+        <is>
+          <t>근접 배치 그룹을 사용하지 않는 한 Azure 가용성 영역 내에 Azure 가용성 집합을 배포할 수 없습니다.</t>
+        </is>
+      </c>
       <c r="E584" s="18" t="n"/>
-      <c r="F584" s="18" t="n"/>
+      <c r="F584" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H584" s="18" t="n"/>
-      <c r="I584" s="13" t="n"/>
-      <c r="J584" s="13" t="n"/>
+      <c r="I584" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J584" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/proximity-placement-scenarios</t>
+        </is>
+      </c>
       <c r="K584" s="19" t="n"/>
-      <c r="L584" s="19" t="n"/>
+      <c r="L584" s="19" t="inlineStr">
+        <is>
+          <t>f2201000-d045-40a6-a79a-d7cdc01b4d86</t>
+        </is>
+      </c>
       <c r="M584" s="20" t="n"/>
       <c r="N584" s="20" t="n"/>
       <c r="O584" s="20" t="n"/>
@@ -30017,17 +30877,54 @@
       <c r="Q584" s="20" t="n"/>
     </row>
     <row r="585">
-      <c r="A585" s="18" t="n"/>
-      <c r="B585" s="18" t="n"/>
-      <c r="C585" s="18" t="n"/>
-      <c r="D585" s="18" t="n"/>
+      <c r="A585" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B585" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C585" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D585" s="18" t="inlineStr">
+        <is>
+          <t>가용성 집합을 만들 때 사용 가능한 최대 장애 도메인 및 업데이트 도메인 수를 사용합니다. 예를 들어 하나의 가용성 집합에 두 개 이상의 VM을 배포하는 경우 Azure의 계획된 유지 관리 외에도 잠재적인 물리적 하드웨어 오류, 네트워크 중단 또는 전원 중단의 영향을 제한하기 위해 최대 장애 도메인 수(3개)와 충분한 업데이트 도메인을 사용합니다. 장애 도메인의 기본 수는 2개이며 나중에 온라인으로 변경할 수 없습니다.</t>
+        </is>
+      </c>
       <c r="E585" s="18" t="n"/>
-      <c r="F585" s="18" t="n"/>
+      <c r="F585" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H585" s="18" t="n"/>
-      <c r="I585" s="13" t="n"/>
-      <c r="J585" s="13" t="n"/>
+      <c r="I585" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J585" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-machine-availability/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K585" s="19" t="n"/>
-      <c r="L585" s="19" t="n"/>
+      <c r="L585" s="19" t="inlineStr">
+        <is>
+          <t>9674e7c7-7796-4181-8920-09f4429543ba</t>
+        </is>
+      </c>
       <c r="M585" s="20" t="n"/>
       <c r="N585" s="20" t="n"/>
       <c r="O585" s="20" t="n"/>
@@ -30035,17 +30932,50 @@
       <c r="Q585" s="20" t="n"/>
     </row>
     <row r="586">
-      <c r="A586" s="18" t="n"/>
-      <c r="B586" s="18" t="n"/>
-      <c r="C586" s="18" t="n"/>
-      <c r="D586" s="18" t="n"/>
+      <c r="A586" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B586" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C586" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D586" s="18" t="inlineStr">
+        <is>
+          <t>가용성 집합 배포에서 Azure 근접 배치 그룹을 사용하는 경우 세 가지 SAP 구성 요소(중앙 서비스, 애플리케이션 서버 및 데이터베이스)가 모두 동일한 근접 배치 그룹에 있어야 합니다.</t>
+        </is>
+      </c>
       <c r="E586" s="18" t="n"/>
-      <c r="F586" s="18" t="n"/>
+      <c r="F586" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H586" s="18" t="n"/>
-      <c r="I586" s="13" t="n"/>
+      <c r="I586" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J586" s="13" t="n"/>
       <c r="K586" s="19" t="n"/>
-      <c r="L586" s="19" t="n"/>
+      <c r="L586" s="19" t="inlineStr">
+        <is>
+          <t>ae4ecb95-b70f-428f-8b9a-4c5b7e3478a2</t>
+        </is>
+      </c>
       <c r="M586" s="20" t="n"/>
       <c r="N586" s="20" t="n"/>
       <c r="O586" s="20" t="n"/>
@@ -30053,17 +30983,50 @@
       <c r="Q586" s="20" t="n"/>
     </row>
     <row r="587">
-      <c r="A587" s="18" t="n"/>
-      <c r="B587" s="18" t="n"/>
-      <c r="C587" s="18" t="n"/>
-      <c r="D587" s="18" t="n"/>
+      <c r="A587" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B587" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C587" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D587" s="18" t="inlineStr">
+        <is>
+          <t>SAP SID당 하나의 근접 배치 그룹을 사용합니다. 그룹은 가용성 영역 또는 Azure 지역에 걸쳐 있지 않습니다.</t>
+        </is>
+      </c>
       <c r="E587" s="18" t="n"/>
-      <c r="F587" s="18" t="n"/>
+      <c r="F587" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H587" s="18" t="n"/>
-      <c r="I587" s="13" t="n"/>
+      <c r="I587" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J587" s="13" t="n"/>
       <c r="K587" s="19" t="n"/>
-      <c r="L587" s="19" t="n"/>
+      <c r="L587" s="19" t="inlineStr">
+        <is>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+        </is>
+      </c>
       <c r="M587" s="20" t="n"/>
       <c r="N587" s="20" t="n"/>
       <c r="O587" s="20" t="n"/>
@@ -30071,17 +31034,54 @@
       <c r="Q587" s="20" t="n"/>
     </row>
     <row r="588">
-      <c r="A588" s="18" t="n"/>
-      <c r="B588" s="18" t="n"/>
-      <c r="C588" s="18" t="n"/>
-      <c r="D588" s="18" t="n"/>
+      <c r="A588" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B588" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C588" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D588" s="18" t="inlineStr">
+        <is>
+          <t>운영 체제에 따라 다음 서비스 중 하나를 사용하여 SAP 중앙 서비스 클러스터를 실행합니다.</t>
+        </is>
+      </c>
       <c r="E588" s="18" t="n"/>
-      <c r="F588" s="18" t="n"/>
+      <c r="F588" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H588" s="18" t="n"/>
-      <c r="I588" s="13" t="n"/>
-      <c r="J588" s="13" t="n"/>
+      <c r="I588" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J588" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K588" s="19" t="n"/>
-      <c r="L588" s="19" t="n"/>
+      <c r="L588" s="19" t="inlineStr">
+        <is>
+          <t>bca3b10e-0ff5-4aec-ac16-4c4bd1a1c13f</t>
+        </is>
+      </c>
       <c r="M588" s="20" t="n"/>
       <c r="N588" s="20" t="n"/>
       <c r="O588" s="20" t="n"/>
@@ -30089,17 +31089,54 @@
       <c r="Q588" s="20" t="n"/>
     </row>
     <row r="589">
-      <c r="A589" s="18" t="n"/>
-      <c r="B589" s="18" t="n"/>
-      <c r="C589" s="18" t="n"/>
-      <c r="D589" s="18" t="n"/>
+      <c r="A589" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B589" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C589" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D589" s="18" t="inlineStr">
+        <is>
+          <t>Azure는 현재 동일한 Linux Pacemaker 클러스터에서 ASCS와 DB HA의 결합을 지원하지 않습니다. 개별 클러스터로 분리합니다. 그러나 최대 5개의 여러 중앙 서비스 클러스터를 한 쌍의 VM으로 결합할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E589" s="18" t="n"/>
-      <c r="F589" s="18" t="n"/>
+      <c r="F589" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H589" s="18" t="n"/>
-      <c r="I589" s="13" t="n"/>
-      <c r="J589" s="13" t="n"/>
+      <c r="I589" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J589" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K589" s="19" t="n"/>
-      <c r="L589" s="19" t="n"/>
+      <c r="L589" s="19" t="inlineStr">
+        <is>
+          <t>ed46b937-913e-4018-9c62-8393ab037e53</t>
+        </is>
+      </c>
       <c r="M589" s="20" t="n"/>
       <c r="N589" s="20" t="n"/>
       <c r="O589" s="20" t="n"/>
@@ -30107,17 +31144,50 @@
       <c r="Q589" s="20" t="n"/>
     </row>
     <row r="590">
-      <c r="A590" s="18" t="n"/>
-      <c r="B590" s="18" t="n"/>
-      <c r="C590" s="18" t="n"/>
-      <c r="D590" s="18" t="n"/>
+      <c r="A590" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B590" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C590" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D590" s="18" t="inlineStr">
+        <is>
+          <t>가용성 집합 또는 가용성 영역의 고가용성 쌍에 두 VM을 모두 배포합니다. 이러한 VM은 크기가 동일하고 스토리지 구성이 동일해야 합니다.</t>
+        </is>
+      </c>
       <c r="E590" s="18" t="n"/>
-      <c r="F590" s="18" t="n"/>
+      <c r="F590" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H590" s="18" t="n"/>
-      <c r="I590" s="13" t="n"/>
+      <c r="I590" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J590" s="13" t="n"/>
       <c r="K590" s="19" t="n"/>
-      <c r="L590" s="19" t="n"/>
+      <c r="L590" s="19" t="inlineStr">
+        <is>
+          <t>f656e745-0cfb-453e-8008-0528fa21c933</t>
+        </is>
+      </c>
       <c r="M590" s="20" t="n"/>
       <c r="N590" s="20" t="n"/>
       <c r="O590" s="20" t="n"/>
@@ -30125,17 +31195,54 @@
       <c r="Q590" s="20" t="n"/>
     </row>
     <row r="591">
-      <c r="A591" s="18" t="n"/>
-      <c r="B591" s="18" t="n"/>
-      <c r="C591" s="18" t="n"/>
-      <c r="D591" s="18" t="n"/>
+      <c r="A591" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B591" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C591" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D591" s="18" t="inlineStr">
+        <is>
+          <t>Azure는 RHEL(Red Hat Enterprise Linux)에서 실행되는 동일한 고가용성 클러스터에 SAP HANA, ASCS/SCS 및 ERS 인스턴스의 설치 및 구성을 지원합니다.</t>
+        </is>
+      </c>
       <c r="E591" s="18" t="n"/>
-      <c r="F591" s="18" t="n"/>
+      <c r="F591" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H591" s="18" t="n"/>
-      <c r="I591" s="13" t="n"/>
-      <c r="J591" s="13" t="n"/>
+      <c r="I591" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J591" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K591" s="19" t="n"/>
-      <c r="L591" s="19" t="n"/>
+      <c r="L591" s="19" t="inlineStr">
+        <is>
+          <t>7f684ebc-95da-425e-b329-e782dbed050f</t>
+        </is>
+      </c>
       <c r="M591" s="20" t="n"/>
       <c r="N591" s="20" t="n"/>
       <c r="O591" s="20" t="n"/>
@@ -30143,17 +31250,54 @@
       <c r="Q591" s="20" t="n"/>
     </row>
     <row r="592">
-      <c r="A592" s="18" t="n"/>
-      <c r="B592" s="18" t="n"/>
-      <c r="C592" s="18" t="n"/>
-      <c r="D592" s="18" t="n"/>
+      <c r="A592" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B592" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C592" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D592" s="18" t="inlineStr">
+        <is>
+          <t>프리미엄 관리형 SSD에서 모든 프로덕션 시스템을 실행하고 Azure NetApp Files 또는 Ultra Disk Storage를 사용합니다. 적어도 OS 디스크는 프리미엄 계층에 있어야 더 나은 성능과 최상의 SLA를 달성할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E592" s="18" t="n"/>
-      <c r="F592" s="18" t="n"/>
+      <c r="F592" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H592" s="18" t="n"/>
-      <c r="I592" s="13" t="n"/>
-      <c r="J592" s="13" t="n"/>
+      <c r="I592" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J592" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K592" s="19" t="n"/>
-      <c r="L592" s="19" t="n"/>
+      <c r="L592" s="19" t="inlineStr">
+        <is>
+          <t>07991f7d-6598-4d90-9431-45c62605d3a5</t>
+        </is>
+      </c>
       <c r="M592" s="20" t="n"/>
       <c r="N592" s="20" t="n"/>
       <c r="O592" s="20" t="n"/>
@@ -30161,17 +31305,54 @@
       <c r="Q592" s="20" t="n"/>
     </row>
     <row r="593">
-      <c r="A593" s="18" t="n"/>
-      <c r="B593" s="18" t="n"/>
-      <c r="C593" s="18" t="n"/>
-      <c r="D593" s="18" t="n"/>
+      <c r="A593" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B593" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C593" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D593" s="18" t="inlineStr">
+        <is>
+          <t>Azure의 SAP HANA는 SAP에서 인증한 스토리지 유형에서만 실행해야 합니다. 특정 볼륨은 해당되는 경우 특정 디스크 구성에서 실행되어야 합니다. 이러한 구성에는 Write Accelerator 사용 및 Premium Storage 사용이 포함됩니다. 또한 스토리지에서 실행되는 파일 시스템이 시스템에서 실행되는 DBMS와 호환되는지 확인해야 합니다.</t>
+        </is>
+      </c>
       <c r="E593" s="18" t="n"/>
-      <c r="F593" s="18" t="n"/>
+      <c r="F593" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H593" s="18" t="n"/>
-      <c r="I593" s="13" t="n"/>
-      <c r="J593" s="13" t="n"/>
+      <c r="I593" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J593" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/sap/workloads/hana-vm-premium-ssd-v1?source=recommendations</t>
+        </is>
+      </c>
       <c r="K593" s="19" t="n"/>
-      <c r="L593" s="19" t="n"/>
+      <c r="L593" s="19" t="inlineStr">
+        <is>
+          <t>73cdaecc-7d74-48d8-a040-88416eebc98c</t>
+        </is>
+      </c>
       <c r="M593" s="20" t="n"/>
       <c r="N593" s="20" t="n"/>
       <c r="O593" s="20" t="n"/>
@@ -30179,17 +31360,54 @@
       <c r="Q593" s="20" t="n"/>
     </row>
     <row r="594">
-      <c r="A594" s="18" t="n"/>
-      <c r="B594" s="18" t="n"/>
-      <c r="C594" s="18" t="n"/>
-      <c r="D594" s="18" t="n"/>
+      <c r="A594" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B594" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C594" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D594" s="18" t="inlineStr">
+        <is>
+          <t>SAP 워크로드에 사용하는 스토리지 유형에 따라 고가용성을 구성하는 것이 좋습니다. Azure에서 사용할 수 있는 일부 스토리지 서비스는 Azure Site Recovery에서 지원되지 않으므로 고가용성 구성이 다를 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E594" s="18" t="n"/>
-      <c r="F594" s="18" t="n"/>
+      <c r="F594" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H594" s="18" t="n"/>
-      <c r="I594" s="13" t="n"/>
-      <c r="J594" s="13" t="n"/>
+      <c r="I594" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J594" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-disaster-recovery-for-sap-workloads-azure/2-explore-disaster-recovery-sap-workloads</t>
+        </is>
+      </c>
       <c r="K594" s="19" t="n"/>
-      <c r="L594" s="19" t="n"/>
+      <c r="L594" s="19" t="inlineStr">
+        <is>
+          <t>51904867-a70e-4fa0-b4ff-3e6292846d7c</t>
+        </is>
+      </c>
       <c r="M594" s="20" t="n"/>
       <c r="N594" s="20" t="n"/>
       <c r="O594" s="20" t="n"/>
@@ -30197,17 +31415,50 @@
       <c r="Q594" s="20" t="n"/>
     </row>
     <row r="595">
-      <c r="A595" s="18" t="n"/>
-      <c r="B595" s="18" t="n"/>
-      <c r="C595" s="18" t="n"/>
-      <c r="D595" s="18" t="n"/>
+      <c r="A595" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B595" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C595" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D595" s="18" t="inlineStr">
+        <is>
+          <t>일부 지역에서는 다양한 네이티브 Azure Storage 서비스(예: Azure Files, Azure NetApp Files, Azure Shared Disk)를 사용하지 못할 수 있습니다. 따라서 장애 조치(failover) 후 DR 지역에서 유사한 SAP를 설정하려면 해당 스토리지 서비스가 DR 사이트에서 제공되는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E595" s="18" t="n"/>
-      <c r="F595" s="18" t="n"/>
+      <c r="F595" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H595" s="18" t="n"/>
-      <c r="I595" s="13" t="n"/>
+      <c r="I595" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J595" s="13" t="n"/>
       <c r="K595" s="19" t="n"/>
-      <c r="L595" s="19" t="n"/>
+      <c r="L595" s="19" t="inlineStr">
+        <is>
+          <t>1ac2d928-c9b7-42c6-ba18-23b1aea78693</t>
+        </is>
+      </c>
       <c r="M595" s="20" t="n"/>
       <c r="N595" s="20" t="n"/>
       <c r="O595" s="20" t="n"/>
@@ -30215,17 +31466,50 @@
       <c r="Q595" s="20" t="n"/>
     </row>
     <row r="596">
-      <c r="A596" s="18" t="n"/>
-      <c r="B596" s="18" t="n"/>
-      <c r="C596" s="18" t="n"/>
-      <c r="D596" s="18" t="n"/>
+      <c r="A596" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B596" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C596" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D596" s="18" t="inlineStr">
+        <is>
+          <t>SAP System Start-Stop을 자동화하여 비용을 관리합니다.</t>
+        </is>
+      </c>
       <c r="E596" s="18" t="n"/>
-      <c r="F596" s="18" t="n"/>
+      <c r="F596" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H596" s="18" t="n"/>
-      <c r="I596" s="13" t="n"/>
+      <c r="I596" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J596" s="13" t="n"/>
       <c r="K596" s="19" t="n"/>
-      <c r="L596" s="19" t="n"/>
+      <c r="L596" s="19" t="inlineStr">
+        <is>
+          <t>925d1f8c-01f3-4a67-948e-aabf0a1fad60</t>
+        </is>
+      </c>
       <c r="M596" s="20" t="n"/>
       <c r="N596" s="20" t="n"/>
       <c r="O596" s="20" t="n"/>
@@ -30233,17 +31517,50 @@
       <c r="Q596" s="20" t="n"/>
     </row>
     <row r="597">
-      <c r="A597" s="18" t="n"/>
-      <c r="B597" s="18" t="n"/>
-      <c r="C597" s="18" t="n"/>
-      <c r="D597" s="18" t="n"/>
+      <c r="A597" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B597" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C597" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D597" s="18" t="inlineStr">
+        <is>
+          <t>SAP HANA와 함께 Azure Premium Storage를 사용하는 경우 Azure 표준 SSD 스토리지를 사용하여 비용에 민감한 스토리지 솔루션을 선택할 수 있습니다. 그러나 표준 SSD 또는 표준 HDD Azure Storage를 선택하면 개별 VM의 SLA에 영향을 줍니다. 또한 비프로덕션 환경과 같이 I/O 처리량이 낮고 대기 시간이 짧은 시스템의 경우 더 낮은 시리즈 VM을 사용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E597" s="18" t="n"/>
-      <c r="F597" s="18" t="n"/>
+      <c r="F597" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H597" s="18" t="n"/>
-      <c r="I597" s="13" t="n"/>
+      <c r="I597" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J597" s="13" t="n"/>
       <c r="K597" s="19" t="n"/>
-      <c r="L597" s="19" t="n"/>
+      <c r="L597" s="19" t="inlineStr">
+        <is>
+          <t>71dc00cd-4392-4262-8949-20c05e6c0333</t>
+        </is>
+      </c>
       <c r="M597" s="20" t="n"/>
       <c r="N597" s="20" t="n"/>
       <c r="O597" s="20" t="n"/>
@@ -30251,17 +31568,50 @@
       <c r="Q597" s="20" t="n"/>
     </row>
     <row r="598">
-      <c r="A598" s="18" t="n"/>
-      <c r="B598" s="18" t="n"/>
-      <c r="C598" s="18" t="n"/>
-      <c r="D598" s="18" t="n"/>
+      <c r="A598" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B598" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C598" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D598" s="18" t="inlineStr">
+        <is>
+          <t>저렴한 대체 구성(다목적)으로 비프로덕션 HANA 데이터베이스 서버 VM에 대해 저성능 SKU를 선택할 수 있습니다. 그러나 E 시리즈와 같은 일부 VM 유형은 HANA 인증(SAP HANA 하드웨어 디렉터리)되지 않았거나 1ms 미만의 스토리지 대기 시간을 달성할 수 없습니다.</t>
+        </is>
+      </c>
       <c r="E598" s="18" t="n"/>
-      <c r="F598" s="18" t="n"/>
+      <c r="F598" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H598" s="18" t="n"/>
-      <c r="I598" s="13" t="n"/>
+      <c r="I598" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J598" s="13" t="n"/>
       <c r="K598" s="19" t="n"/>
-      <c r="L598" s="19" t="n"/>
+      <c r="L598" s="19" t="inlineStr">
+        <is>
+          <t>9877f353-2591-4e8b-8381-e9043fed1010</t>
+        </is>
+      </c>
       <c r="M598" s="20" t="n"/>
       <c r="N598" s="20" t="n"/>
       <c r="O598" s="20" t="n"/>
@@ -30269,17 +31619,54 @@
       <c r="Q598" s="20" t="n"/>
     </row>
     <row r="599">
-      <c r="A599" s="18" t="n"/>
-      <c r="B599" s="18" t="n"/>
-      <c r="C599" s="18" t="n"/>
-      <c r="D599" s="18" t="n"/>
+      <c r="A599" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B599" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C599" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D599" s="18" t="inlineStr">
+        <is>
+          <t>관리 그룹, 구독, 리소스 그룹 및 리소스에 대한 RBAC 모델 적용Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
+        </is>
+      </c>
       <c r="E599" s="18" t="n"/>
-      <c r="F599" s="18" t="n"/>
+      <c r="F599" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H599" s="18" t="n"/>
-      <c r="I599" s="13" t="n"/>
-      <c r="J599" s="13" t="n"/>
+      <c r="I599" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J599" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K599" s="19" t="n"/>
-      <c r="L599" s="19" t="n"/>
+      <c r="L599" s="19" t="inlineStr">
+        <is>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+        </is>
+      </c>
       <c r="M599" s="20" t="n"/>
       <c r="N599" s="20" t="n"/>
       <c r="O599" s="20" t="n"/>
@@ -30287,17 +31674,54 @@
       <c r="Q599" s="20" t="n"/>
     </row>
     <row r="600">
-      <c r="A600" s="18" t="n"/>
-      <c r="B600" s="18" t="n"/>
-      <c r="C600" s="18" t="n"/>
-      <c r="D600" s="18" t="n"/>
+      <c r="A600" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B600" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C600" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D600" s="18" t="inlineStr">
+        <is>
+          <t>클라우드 커넥터를 통해 SAP 클라우드 애플리케이션에서 SAP 온-프레미스(IaaS 포함)로 ID를 전달하기 위한 보안 주체 전파 적용</t>
+        </is>
+      </c>
       <c r="E600" s="18" t="n"/>
-      <c r="F600" s="18" t="n"/>
+      <c r="F600" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H600" s="18" t="n"/>
-      <c r="I600" s="13" t="n"/>
-      <c r="J600" s="13" t="n"/>
+      <c r="I600" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J600" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/2-explore-azure-virtual-machine-auth-access-control</t>
+        </is>
+      </c>
       <c r="K600" s="19" t="n"/>
-      <c r="L600" s="19" t="n"/>
+      <c r="L600" s="19" t="inlineStr">
+        <is>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+        </is>
+      </c>
       <c r="M600" s="20" t="n"/>
       <c r="N600" s="20" t="n"/>
       <c r="O600" s="20" t="n"/>
@@ -30305,17 +31729,50 @@
       <c r="Q600" s="20" t="n"/>
     </row>
     <row r="601">
-      <c r="A601" s="18" t="n"/>
-      <c r="B601" s="18" t="n"/>
-      <c r="C601" s="18" t="n"/>
-      <c r="D601" s="18" t="n"/>
+      <c r="A601" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B601" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C601" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D601" s="18" t="inlineStr">
+        <is>
+          <t>SAML을 사용하여 Azure AD로 SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics 및 SAP C4C와 같은 SAP SaaS 애플리케이션에 대한 SSO를 구현합니다.</t>
+        </is>
+      </c>
       <c r="E601" s="18" t="n"/>
-      <c r="F601" s="18" t="n"/>
+      <c r="F601" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H601" s="18" t="n"/>
-      <c r="I601" s="13" t="n"/>
+      <c r="I601" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J601" s="13" t="n"/>
       <c r="K601" s="19" t="n"/>
-      <c r="L601" s="19" t="n"/>
+      <c r="L601" s="19" t="inlineStr">
+        <is>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+        </is>
+      </c>
       <c r="M601" s="20" t="n"/>
       <c r="N601" s="20" t="n"/>
       <c r="O601" s="20" t="n"/>
@@ -30323,17 +31780,54 @@
       <c r="Q601" s="20" t="n"/>
     </row>
     <row r="602">
-      <c r="A602" s="18" t="n"/>
-      <c r="B602" s="18" t="n"/>
-      <c r="C602" s="18" t="n"/>
-      <c r="D602" s="18" t="n"/>
+      <c r="A602" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B602" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C602" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D602" s="18" t="inlineStr">
+        <is>
+          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
+        </is>
+      </c>
       <c r="E602" s="18" t="n"/>
-      <c r="F602" s="18" t="n"/>
+      <c r="F602" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H602" s="18" t="n"/>
-      <c r="I602" s="13" t="n"/>
-      <c r="J602" s="13" t="n"/>
+      <c r="I602" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J602" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="K602" s="19" t="n"/>
-      <c r="L602" s="19" t="n"/>
+      <c r="L602" s="19" t="inlineStr">
+        <is>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+        </is>
+      </c>
       <c r="M602" s="20" t="n"/>
       <c r="N602" s="20" t="n"/>
       <c r="O602" s="20" t="n"/>
@@ -30341,17 +31835,50 @@
       <c r="Q602" s="20" t="n"/>
     </row>
     <row r="603">
-      <c r="A603" s="18" t="n"/>
-      <c r="B603" s="18" t="n"/>
-      <c r="C603" s="18" t="n"/>
-      <c r="D603" s="18" t="n"/>
+      <c r="A603" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B603" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C603" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D603" s="18" t="inlineStr">
+        <is>
+          <t>SAML을 사용하여 SAP Fiori 및 SAP Web GUI와 같은 SAP NetWeaver 기반 웹 애플리케이션에 대한 SSO를 구현합니다.</t>
+        </is>
+      </c>
       <c r="E603" s="18" t="n"/>
-      <c r="F603" s="18" t="n"/>
+      <c r="F603" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H603" s="18" t="n"/>
       <c r="I603" s="13" t="n"/>
-      <c r="J603" s="13" t="n"/>
+      <c r="J603" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/6-exercise-integrate-azure-active-directory-sap-fiori</t>
+        </is>
+      </c>
       <c r="K603" s="19" t="n"/>
-      <c r="L603" s="19" t="n"/>
+      <c r="L603" s="19" t="inlineStr">
+        <is>
+          <t>9eb54dad-7861-4e1c-973a-f3bb003fc9c1</t>
+        </is>
+      </c>
       <c r="M603" s="20" t="n"/>
       <c r="N603" s="20" t="n"/>
       <c r="O603" s="20" t="n"/>
@@ -30359,17 +31886,54 @@
       <c r="Q603" s="20" t="n"/>
     </row>
     <row r="604">
-      <c r="A604" s="18" t="n"/>
-      <c r="B604" s="18" t="n"/>
-      <c r="C604" s="18" t="n"/>
-      <c r="D604" s="18" t="n"/>
+      <c r="A604" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B604" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C604" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D604" s="18" t="inlineStr">
+        <is>
+          <t>SAP NetWeaver SSO 또는 파트너 솔루션을 사용하여 SAP GUI에 대한 SSO를 구현할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E604" s="18" t="n"/>
-      <c r="F604" s="18" t="n"/>
+      <c r="F604" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H604" s="18" t="n"/>
-      <c r="I604" s="13" t="n"/>
-      <c r="J604" s="13" t="n"/>
+      <c r="I604" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J604" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/8-exercise-integrate-azure-active-directory-sap-netweaver</t>
+        </is>
+      </c>
       <c r="K604" s="19" t="n"/>
-      <c r="L604" s="19" t="n"/>
+      <c r="L604" s="19" t="inlineStr">
+        <is>
+          <t>f29676ef-0c9c-4c4d-ab21-a55504c0c829</t>
+        </is>
+      </c>
       <c r="M604" s="20" t="n"/>
       <c r="N604" s="20" t="n"/>
       <c r="O604" s="20" t="n"/>
@@ -30377,17 +31941,50 @@
       <c r="Q604" s="20" t="n"/>
     </row>
     <row r="605">
-      <c r="A605" s="18" t="n"/>
-      <c r="B605" s="18" t="n"/>
-      <c r="C605" s="18" t="n"/>
-      <c r="D605" s="18" t="n"/>
+      <c r="A605" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B605" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C605" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D605" s="18" t="inlineStr">
+        <is>
+          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC/Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
+        </is>
+      </c>
       <c r="E605" s="18" t="n"/>
-      <c r="F605" s="18" t="n"/>
+      <c r="F605" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H605" s="18" t="n"/>
       <c r="I605" s="13" t="n"/>
-      <c r="J605" s="13" t="n"/>
+      <c r="J605" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-identity-services/9-exercise-integrate-active-directory-sap-single-sign-on</t>
+        </is>
+      </c>
       <c r="K605" s="19" t="n"/>
-      <c r="L605" s="19" t="n"/>
+      <c r="L605" s="19" t="inlineStr">
+        <is>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+        </is>
+      </c>
       <c r="M605" s="20" t="n"/>
       <c r="N605" s="20" t="n"/>
       <c r="O605" s="20" t="n"/>
@@ -30395,17 +31992,50 @@
       <c r="Q605" s="20" t="n"/>
     </row>
     <row r="606">
-      <c r="A606" s="18" t="n"/>
-      <c r="B606" s="18" t="n"/>
-      <c r="C606" s="18" t="n"/>
-      <c r="D606" s="18" t="n"/>
+      <c r="A606" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B606" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C606" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D606" s="18" t="inlineStr">
+        <is>
+          <t>SAP GUI 및 웹 브라우저 액세스를 위한 SSO의 경우 구성 및 유지 관리가 용이하여 SNC/Kerberos/SPNEGO(간단하고 보호된 GSSAPI 협상 메커니즘)를 구현합니다. X.509 클라이언트 인증서를 사용하는 SSO의 경우 SAP SSO 솔루션의 구성 요소인 SAP 보안 로그인 서버를 고려합니다.</t>
+        </is>
+      </c>
       <c r="E606" s="18" t="n"/>
-      <c r="F606" s="18" t="n"/>
+      <c r="F606" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H606" s="18" t="n"/>
-      <c r="I606" s="13" t="n"/>
+      <c r="I606" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J606" s="13" t="n"/>
       <c r="K606" s="19" t="n"/>
-      <c r="L606" s="19" t="n"/>
+      <c r="L606" s="19" t="inlineStr">
+        <is>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+        </is>
+      </c>
       <c r="M606" s="20" t="n"/>
       <c r="N606" s="20" t="n"/>
       <c r="O606" s="20" t="n"/>
@@ -30413,17 +32043,50 @@
       <c r="Q606" s="20" t="n"/>
     </row>
     <row r="607">
-      <c r="A607" s="18" t="n"/>
-      <c r="B607" s="18" t="n"/>
-      <c r="C607" s="18" t="n"/>
-      <c r="D607" s="18" t="n"/>
+      <c r="A607" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B607" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C607" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D607" s="18" t="inlineStr">
+        <is>
+          <t>SAP NetWeaver용 OAuth를 사용하여 SSO를 구현하여 타사 또는 사용자 지정 애플리케이션이 SAP NetWeaver OData 서비스에 액세스할 수 있도록 합니다.</t>
+        </is>
+      </c>
       <c r="E607" s="18" t="n"/>
-      <c r="F607" s="18" t="n"/>
+      <c r="F607" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H607" s="18" t="n"/>
-      <c r="I607" s="13" t="n"/>
+      <c r="I607" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J607" s="13" t="n"/>
       <c r="K607" s="19" t="n"/>
-      <c r="L607" s="19" t="n"/>
+      <c r="L607" s="19" t="inlineStr">
+        <is>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+        </is>
+      </c>
       <c r="M607" s="20" t="n"/>
       <c r="N607" s="20" t="n"/>
       <c r="O607" s="20" t="n"/>
@@ -30431,17 +32094,50 @@
       <c r="Q607" s="20" t="n"/>
     </row>
     <row r="608">
-      <c r="A608" s="18" t="n"/>
-      <c r="B608" s="18" t="n"/>
-      <c r="C608" s="18" t="n"/>
-      <c r="D608" s="18" t="n"/>
+      <c r="A608" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B608" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C608" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D608" s="18" t="inlineStr">
+        <is>
+          <t>SAP HANA에 대한 SSO 구현</t>
+        </is>
+      </c>
       <c r="E608" s="18" t="n"/>
-      <c r="F608" s="18" t="n"/>
+      <c r="F608" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H608" s="18" t="n"/>
-      <c r="I608" s="13" t="n"/>
+      <c r="I608" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J608" s="13" t="n"/>
       <c r="K608" s="19" t="n"/>
-      <c r="L608" s="19" t="n"/>
+      <c r="L608" s="19" t="inlineStr">
+        <is>
+          <t>a747c350-8d4c-449c-93af-393dbca77c48</t>
+        </is>
+      </c>
       <c r="M608" s="20" t="n"/>
       <c r="N608" s="20" t="n"/>
       <c r="O608" s="20" t="n"/>
@@ -30449,17 +32145,50 @@
       <c r="Q608" s="20" t="n"/>
     </row>
     <row r="609">
-      <c r="A609" s="18" t="n"/>
-      <c r="B609" s="18" t="n"/>
-      <c r="C609" s="18" t="n"/>
-      <c r="D609" s="18" t="n"/>
+      <c r="A609" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B609" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C609" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D609" s="18" t="inlineStr">
+        <is>
+          <t>Azure AD를 RISE에서 호스트되는 SAP 시스템의 ID 공급자로 간주합니다. 자세한 내용은 Azure AD와 서비스 통합을 참조하세요.</t>
+        </is>
+      </c>
       <c r="E609" s="18" t="n"/>
-      <c r="F609" s="18" t="n"/>
+      <c r="F609" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H609" s="18" t="n"/>
-      <c r="I609" s="13" t="n"/>
+      <c r="I609" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J609" s="13" t="n"/>
       <c r="K609" s="19" t="n"/>
-      <c r="L609" s="19" t="n"/>
+      <c r="L609" s="19" t="inlineStr">
+        <is>
+          <t>c7bae5bf-daf9-4761-9c56-f92891890aa4</t>
+        </is>
+      </c>
       <c r="M609" s="20" t="n"/>
       <c r="N609" s="20" t="n"/>
       <c r="O609" s="20" t="n"/>
@@ -30467,17 +32196,50 @@
       <c r="Q609" s="20" t="n"/>
     </row>
     <row r="610">
-      <c r="A610" s="18" t="n"/>
-      <c r="B610" s="18" t="n"/>
-      <c r="C610" s="18" t="n"/>
-      <c r="D610" s="18" t="n"/>
+      <c r="A610" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B610" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C610" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D610" s="18" t="inlineStr">
+        <is>
+          <t>SAP에 액세스하는 애플리케이션의 경우 보안 주체 전파를 사용하여 SSO를 설정할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E610" s="18" t="n"/>
-      <c r="F610" s="18" t="n"/>
+      <c r="F610" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H610" s="18" t="n"/>
-      <c r="I610" s="13" t="n"/>
+      <c r="I610" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J610" s="13" t="n"/>
       <c r="K610" s="19" t="n"/>
-      <c r="L610" s="19" t="n"/>
+      <c r="L610" s="19" t="inlineStr">
+        <is>
+          <t>e4e48226-ce54-44b6-bb6b-bfa15bd8f753</t>
+        </is>
+      </c>
       <c r="M610" s="20" t="n"/>
       <c r="N610" s="20" t="n"/>
       <c r="O610" s="20" t="n"/>
@@ -30485,17 +32247,50 @@
       <c r="Q610" s="20" t="n"/>
     </row>
     <row r="611">
-      <c r="A611" s="18" t="n"/>
-      <c r="B611" s="18" t="n"/>
-      <c r="C611" s="18" t="n"/>
-      <c r="D611" s="18" t="n"/>
+      <c r="A611" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B611" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C611" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D611" s="18" t="inlineStr">
+        <is>
+          <t>SAP IAS(Identity Authentication Service)가 필요한 SAP BTP 서비스 또는 SaaS 솔루션을 사용하는 경우 SAP Cloud Identity Authentication Services와 Azure AD 간에 SSO를 구현하여 해당 SAP 서비스에 액세스하는 것이 좋습니다. 이 통합을 통해 SAP IAS는 프록시 ID 공급자 역할을 하고 중앙 사용자 저장소 및 ID 공급자인 Azure AD에 인증 요청을 전달할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E611" s="18" t="n"/>
-      <c r="F611" s="18" t="n"/>
+      <c r="F611" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H611" s="18" t="n"/>
-      <c r="I611" s="13" t="n"/>
+      <c r="I611" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J611" s="13" t="n"/>
       <c r="K611" s="19" t="n"/>
-      <c r="L611" s="19" t="n"/>
+      <c r="L611" s="19" t="inlineStr">
+        <is>
+          <t>59921095-4980-4fc1-a5b6-524a5a560c79</t>
+        </is>
+      </c>
       <c r="M611" s="20" t="n"/>
       <c r="N611" s="20" t="n"/>
       <c r="O611" s="20" t="n"/>
@@ -30503,17 +32298,50 @@
       <c r="Q611" s="20" t="n"/>
     </row>
     <row r="612">
-      <c r="A612" s="18" t="n"/>
-      <c r="B612" s="18" t="n"/>
-      <c r="C612" s="18" t="n"/>
-      <c r="D612" s="18" t="n"/>
+      <c r="A612" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B612" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C612" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D612" s="18" t="inlineStr">
+        <is>
+          <t>SAP BTP에 대한 SSO 구현</t>
+        </is>
+      </c>
       <c r="E612" s="18" t="n"/>
-      <c r="F612" s="18" t="n"/>
+      <c r="F612" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H612" s="18" t="n"/>
-      <c r="I612" s="13" t="n"/>
+      <c r="I612" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J612" s="13" t="n"/>
       <c r="K612" s="19" t="n"/>
-      <c r="L612" s="19" t="n"/>
+      <c r="L612" s="19" t="inlineStr">
+        <is>
+          <t>a709c664-317e-41e4-9e34-67d9016a86f4</t>
+        </is>
+      </c>
       <c r="M612" s="20" t="n"/>
       <c r="N612" s="20" t="n"/>
       <c r="O612" s="20" t="n"/>
@@ -30521,17 +32349,50 @@
       <c r="Q612" s="20" t="n"/>
     </row>
     <row r="613">
-      <c r="A613" s="18" t="n"/>
-      <c r="B613" s="18" t="n"/>
-      <c r="C613" s="18" t="n"/>
-      <c r="D613" s="18" t="n"/>
+      <c r="A613" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B613" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C613" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D613" s="18" t="inlineStr">
+        <is>
+          <t>SAP SuccessFactors를 사용하는 경우 Azure AD 자동화된 사용자 프로비저닝을 사용하는 것이 좋습니다. 이 통합을 통해 SAP SuccessFactors에 새 직원을 추가할 때 Azure AD에서 해당 사용자 계정을 자동으로 만들 수 있습니다. 필요에 따라 Microsoft 365 또는 Azure AD 지원하는 기타 SaaS 애플리케이션에서 사용자 계정을 만들 수 있습니다. SAP SuccessFactors에 이메일 주소의 쓰기 저장을 사용합니다.</t>
+        </is>
+      </c>
       <c r="E613" s="18" t="n"/>
-      <c r="F613" s="18" t="n"/>
+      <c r="F613" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H613" s="18" t="n"/>
-      <c r="I613" s="13" t="n"/>
+      <c r="I613" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J613" s="13" t="n"/>
       <c r="K613" s="19" t="n"/>
-      <c r="L613" s="19" t="n"/>
+      <c r="L613" s="19" t="inlineStr">
+        <is>
+          <t>01f11b7f-38df-4251-9c76-4dec19abd3e8</t>
+        </is>
+      </c>
       <c r="M613" s="20" t="n"/>
       <c r="N613" s="20" t="n"/>
       <c r="O613" s="20" t="n"/>
@@ -30539,17 +32400,54 @@
       <c r="Q613" s="20" t="n"/>
     </row>
     <row r="614">
-      <c r="A614" s="18" t="n"/>
-      <c r="B614" s="18" t="n"/>
-      <c r="C614" s="18" t="n"/>
-      <c r="D614" s="18" t="n"/>
+      <c r="A614" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B614" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C614" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D614" s="18" t="inlineStr">
+        <is>
+          <t>SAP 구독에 기존 관리 그룹 정책 적용</t>
+        </is>
+      </c>
       <c r="E614" s="18" t="n"/>
-      <c r="F614" s="18" t="n"/>
+      <c r="F614" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H614" s="18" t="n"/>
-      <c r="I614" s="13" t="n"/>
-      <c r="J614" s="13" t="n"/>
+      <c r="I614" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J614" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
+        </is>
+      </c>
       <c r="K614" s="19" t="n"/>
-      <c r="L614" s="19" t="n"/>
+      <c r="L614" s="19" t="inlineStr">
+        <is>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+        </is>
+      </c>
       <c r="M614" s="20" t="n"/>
       <c r="N614" s="20" t="n"/>
       <c r="O614" s="20" t="n"/>
@@ -30557,17 +32455,54 @@
       <c r="Q614" s="20" t="n"/>
     </row>
     <row r="615">
-      <c r="A615" s="18" t="n"/>
-      <c r="B615" s="18" t="n"/>
-      <c r="C615" s="18" t="n"/>
-      <c r="D615" s="18" t="n"/>
+      <c r="A615" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B615" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C615" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D615" s="18" t="inlineStr">
+        <is>
+          <t>긴밀하게 결합된 애플리케이션을 동일한 SAP 구독에 통합하여 추가적인 라우팅 및 관리 복잡성 방지</t>
+        </is>
+      </c>
       <c r="E615" s="18" t="n"/>
-      <c r="F615" s="18" t="n"/>
+      <c r="F615" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H615" s="18" t="n"/>
-      <c r="I615" s="13" t="n"/>
-      <c r="J615" s="13" t="n"/>
+      <c r="I615" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J615" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
+        </is>
+      </c>
       <c r="K615" s="19" t="n"/>
-      <c r="L615" s="19" t="n"/>
+      <c r="L615" s="19" t="inlineStr">
+        <is>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+        </is>
+      </c>
       <c r="M615" s="20" t="n"/>
       <c r="N615" s="20" t="n"/>
       <c r="O615" s="20" t="n"/>
@@ -30575,17 +32510,54 @@
       <c r="Q615" s="20" t="n"/>
     </row>
     <row r="616">
-      <c r="A616" s="18" t="n"/>
-      <c r="B616" s="18" t="n"/>
-      <c r="C616" s="18" t="n"/>
-      <c r="D616" s="18" t="n"/>
+      <c r="A616" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B616" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C616" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D616" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">구독을 배율 단위로 활용하고 리소스를 확장하려면 환경별로 구독을 배포하는 것이 좋습니다. 샌드박스, 비프로덕션, 프로덕션 </t>
+        </is>
+      </c>
       <c r="E616" s="18" t="n"/>
-      <c r="F616" s="18" t="n"/>
+      <c r="F616" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H616" s="18" t="n"/>
-      <c r="I616" s="13" t="n"/>
-      <c r="J616" s="13" t="n"/>
+      <c r="I616" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J616" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K616" s="19" t="n"/>
-      <c r="L616" s="19" t="n"/>
+      <c r="L616" s="19" t="inlineStr">
+        <is>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+        </is>
+      </c>
       <c r="M616" s="20" t="n"/>
       <c r="N616" s="20" t="n"/>
       <c r="O616" s="20" t="n"/>
@@ -30593,17 +32565,54 @@
       <c r="Q616" s="20" t="n"/>
     </row>
     <row r="617">
-      <c r="A617" s="18" t="n"/>
-      <c r="B617" s="18" t="n"/>
-      <c r="C617" s="18" t="n"/>
-      <c r="D617" s="18" t="n"/>
+      <c r="A617" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B617" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C617" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D617" s="18" t="inlineStr">
+        <is>
+          <t>구독 프로비저닝의 일부로 할당량 증가 확인(예: 구독 내에서 사용 가능한 총 VM 코어)</t>
+        </is>
+      </c>
       <c r="E617" s="18" t="n"/>
-      <c r="F617" s="18" t="n"/>
+      <c r="F617" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H617" s="18" t="n"/>
-      <c r="I617" s="13" t="n"/>
-      <c r="J617" s="13" t="n"/>
+      <c r="I617" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J617" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
       <c r="K617" s="19" t="n"/>
-      <c r="L617" s="19" t="n"/>
+      <c r="L617" s="19" t="inlineStr">
+        <is>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+        </is>
+      </c>
       <c r="M617" s="20" t="n"/>
       <c r="N617" s="20" t="n"/>
       <c r="O617" s="20" t="n"/>
@@ -30611,17 +32620,50 @@
       <c r="Q617" s="20" t="n"/>
     </row>
     <row r="618">
-      <c r="A618" s="18" t="n"/>
-      <c r="B618" s="18" t="n"/>
-      <c r="C618" s="18" t="n"/>
-      <c r="D618" s="18" t="n"/>
+      <c r="A618" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B618" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C618" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D618" s="18" t="inlineStr">
+        <is>
+          <t>할당량 API는 Azure 서비스에 대한 할당량을 보고 관리하는 데 사용할 수 있는 REST API입니다. 필요한 경우 사용을 고려하십시오.</t>
+        </is>
+      </c>
       <c r="E618" s="18" t="n"/>
-      <c r="F618" s="18" t="n"/>
+      <c r="F618" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H618" s="18" t="n"/>
-      <c r="I618" s="13" t="n"/>
+      <c r="I618" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J618" s="13" t="n"/>
       <c r="K618" s="19" t="n"/>
-      <c r="L618" s="19" t="n"/>
+      <c r="L618" s="19" t="inlineStr">
+        <is>
+          <t>ce4fab2f-433a-4d59-a5a9-3d1032e03ebc</t>
+        </is>
+      </c>
       <c r="M618" s="20" t="n"/>
       <c r="N618" s="20" t="n"/>
       <c r="O618" s="20" t="n"/>
@@ -30629,17 +32671,50 @@
       <c r="Q618" s="20" t="n"/>
     </row>
     <row r="619">
-      <c r="A619" s="18" t="n"/>
-      <c r="B619" s="18" t="n"/>
-      <c r="C619" s="18" t="n"/>
-      <c r="D619" s="18" t="n"/>
+      <c r="A619" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B619" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C619" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D619" s="18" t="inlineStr">
+        <is>
+          <t>가용성 영역에 배포하는 경우 할당량이 승인되면 VM의 영역 배포를 사용할 수 있는지 확인합니다. 필요한 구독, VM 시리즈, CPU 수 및 가용성 영역을 사용하여 지원 요청을 제출합니다.</t>
+        </is>
+      </c>
       <c r="E619" s="18" t="n"/>
-      <c r="F619" s="18" t="n"/>
+      <c r="F619" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H619" s="18" t="n"/>
-      <c r="I619" s="13" t="n"/>
+      <c r="I619" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J619" s="13" t="n"/>
       <c r="K619" s="19" t="n"/>
-      <c r="L619" s="19" t="n"/>
+      <c r="L619" s="19" t="inlineStr">
+        <is>
+          <t>cbfad17b-f240-42bf-a1d8-f4f4cee661c8</t>
+        </is>
+      </c>
       <c r="M619" s="20" t="n"/>
       <c r="N619" s="20" t="n"/>
       <c r="O619" s="20" t="n"/>
@@ -30647,17 +32722,54 @@
       <c r="Q619" s="20" t="n"/>
     </row>
     <row r="620">
-      <c r="A620" s="18" t="n"/>
-      <c r="B620" s="18" t="n"/>
-      <c r="C620" s="18" t="n"/>
-      <c r="D620" s="18" t="n"/>
+      <c r="A620" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B620" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C620" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D620" s="18" t="inlineStr">
+        <is>
+          <t>예를 들어 선택한 배포 지역 내에서 필요한 서비스 및 기능을 사용할 수 있는지 확인합니다. ANF, 지역 등.</t>
+        </is>
+      </c>
       <c r="E620" s="18" t="n"/>
-      <c r="F620" s="18" t="n"/>
+      <c r="F620" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H620" s="18" t="n"/>
-      <c r="I620" s="13" t="n"/>
-      <c r="J620" s="13" t="n"/>
+      <c r="I620" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J620" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/migrate/azure-best-practices/multiple-regions?source=recommendations</t>
+        </is>
+      </c>
       <c r="K620" s="19" t="n"/>
-      <c r="L620" s="19" t="n"/>
+      <c r="L620" s="19" t="inlineStr">
+        <is>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+        </is>
+      </c>
       <c r="M620" s="20" t="n"/>
       <c r="N620" s="20" t="n"/>
       <c r="O620" s="20" t="n"/>
@@ -30665,17 +32777,54 @@
       <c r="Q620" s="20" t="n"/>
     </row>
     <row r="621">
-      <c r="A621" s="18" t="n"/>
-      <c r="B621" s="18" t="n"/>
-      <c r="C621" s="18" t="n"/>
-      <c r="D621" s="18" t="n"/>
+      <c r="A621" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B621" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C621" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D621" s="18" t="inlineStr">
+        <is>
+          <t>비용 분류 및 리소스 그룹화를 위해 Azure 리소스 태그 활용(BillTo, 부서(또는 사업부), 환경(프로덕션, 스테이지, 개발), 계층(웹 계층, 애플리케이션 계층), 애플리케이션 소유자, 프로젝트 이름)</t>
+        </is>
+      </c>
       <c r="E621" s="18" t="n"/>
-      <c r="F621" s="18" t="n"/>
+      <c r="F621" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H621" s="18" t="n"/>
-      <c r="I621" s="13" t="n"/>
-      <c r="J621" s="13" t="n"/>
+      <c r="I621" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J621" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K621" s="19" t="n"/>
-      <c r="L621" s="19" t="n"/>
+      <c r="L621" s="19" t="inlineStr">
+        <is>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+        </is>
+      </c>
       <c r="M621" s="20" t="n"/>
       <c r="N621" s="20" t="n"/>
       <c r="O621" s="20" t="n"/>
@@ -30683,17 +32832,54 @@
       <c r="Q621" s="20" t="n"/>
     </row>
     <row r="622">
-      <c r="A622" s="18" t="n"/>
-      <c r="B622" s="18" t="n"/>
-      <c r="C622" s="18" t="n"/>
-      <c r="D622" s="18" t="n"/>
+      <c r="A622" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B622" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C622" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D622" s="18" t="inlineStr">
+        <is>
+          <t>Azure Backup 서비스를 사용하여 HANA 데이터베이스를 보호할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E622" s="18" t="n"/>
-      <c r="F622" s="18" t="n"/>
+      <c r="F622" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H622" s="18" t="n"/>
-      <c r="I622" s="13" t="n"/>
-      <c r="J622" s="13" t="n"/>
+      <c r="I622" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J622" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-backup-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K622" s="19" t="n"/>
-      <c r="L622" s="19" t="n"/>
+      <c r="L622" s="19" t="inlineStr">
+        <is>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+        </is>
+      </c>
       <c r="M622" s="20" t="n"/>
       <c r="N622" s="20" t="n"/>
       <c r="O622" s="20" t="n"/>
@@ -30701,17 +32887,50 @@
       <c r="Q622" s="20" t="n"/>
     </row>
     <row r="623">
-      <c r="A623" s="18" t="n"/>
-      <c r="B623" s="18" t="n"/>
-      <c r="C623" s="18" t="n"/>
-      <c r="D623" s="18" t="n"/>
+      <c r="A623" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B623" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C623" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D623" s="18" t="inlineStr">
+        <is>
+          <t>HANA, Oracle 또는 DB2 데이터베이스용 Azure NetApp Files를 배포하는 경우 Azure 애플리케이션 일치 스냅샷 도구(AzAcSnap)를 사용하여 애플리케이션 일치 스냅샷을 만듭니다. AzAcSnap은 Oracle 데이터베이스도 지원합니다. 개별 VM이 아닌 중앙 VM에서 AzAcSnap을 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E623" s="18" t="n"/>
-      <c r="F623" s="18" t="n"/>
+      <c r="F623" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H623" s="18" t="n"/>
-      <c r="I623" s="13" t="n"/>
+      <c r="I623" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J623" s="13" t="n"/>
       <c r="K623" s="19" t="n"/>
-      <c r="L623" s="19" t="n"/>
+      <c r="L623" s="19" t="inlineStr">
+        <is>
+          <t>302a2fbf-3745-4a5f-a365-c9d1a16ca22c</t>
+        </is>
+      </c>
       <c r="M623" s="20" t="n"/>
       <c r="N623" s="20" t="n"/>
       <c r="O623" s="20" t="n"/>
@@ -30719,17 +32938,50 @@
       <c r="Q623" s="20" t="n"/>
     </row>
     <row r="624">
-      <c r="A624" s="18" t="n"/>
-      <c r="B624" s="18" t="n"/>
-      <c r="C624" s="18" t="n"/>
-      <c r="D624" s="18" t="n"/>
+      <c r="A624" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B624" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C624" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D624" s="18" t="inlineStr">
+        <is>
+          <t>운영 체제와 SAP 시스템 간의 표준 시간대 일치를 확인합니다.</t>
+        </is>
+      </c>
       <c r="E624" s="18" t="n"/>
-      <c r="F624" s="18" t="n"/>
+      <c r="F624" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H624" s="18" t="n"/>
-      <c r="I624" s="13" t="n"/>
+      <c r="I624" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J624" s="13" t="n"/>
       <c r="K624" s="19" t="n"/>
-      <c r="L624" s="19" t="n"/>
+      <c r="L624" s="19" t="inlineStr">
+        <is>
+          <t>42d37218-a3a7-45df-bff6-1173e7f249ea</t>
+        </is>
+      </c>
       <c r="M624" s="20" t="n"/>
       <c r="N624" s="20" t="n"/>
       <c r="O624" s="20" t="n"/>
@@ -30737,17 +32989,54 @@
       <c r="Q624" s="20" t="n"/>
     </row>
     <row r="625">
-      <c r="A625" s="18" t="n"/>
-      <c r="B625" s="18" t="n"/>
-      <c r="C625" s="18" t="n"/>
-      <c r="D625" s="18" t="n"/>
+      <c r="A625" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B625" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C625" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D625" s="18" t="inlineStr">
+        <is>
+          <t>동일한 클러스터에서 서로 다른 애플리케이션 서비스를 그룹화하지 마세요. 예를 들어 DRBD와 중앙 서비스 클러스터를 동일한 클러스터에 결합하지 마세요. 그러나 동일한 Pacemaker 클러스터를 사용하여 약 5개의 서로 다른 중앙 서비스(다중 SID 클러스터)를 관리할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E625" s="18" t="n"/>
-      <c r="F625" s="18" t="n"/>
+      <c r="F625" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H625" s="18" t="n"/>
-      <c r="I625" s="13" t="n"/>
-      <c r="J625" s="13" t="n"/>
+      <c r="I625" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J625" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K625" s="19" t="n"/>
-      <c r="L625" s="19" t="n"/>
+      <c r="L625" s="19" t="inlineStr">
+        <is>
+          <t>c3c7abc0-716c-4486-893c-40e181d65539</t>
+        </is>
+      </c>
       <c r="M625" s="20" t="n"/>
       <c r="N625" s="20" t="n"/>
       <c r="O625" s="20" t="n"/>
@@ -30755,17 +33044,50 @@
       <c r="Q625" s="20" t="n"/>
     </row>
     <row r="626">
-      <c r="A626" s="18" t="n"/>
-      <c r="B626" s="18" t="n"/>
-      <c r="C626" s="18" t="n"/>
-      <c r="D626" s="18" t="n"/>
+      <c r="A626" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B626" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C626" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D626" s="18" t="inlineStr">
+        <is>
+          <t>Azure 실행 비용을 절감하고 최적화하기 위해 다시 알림 모델에서 개발/테스트 시스템을 실행하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E626" s="18" t="n"/>
-      <c r="F626" s="18" t="n"/>
+      <c r="F626" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H626" s="18" t="n"/>
-      <c r="I626" s="13" t="n"/>
+      <c r="I626" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J626" s="13" t="n"/>
       <c r="K626" s="19" t="n"/>
-      <c r="L626" s="19" t="n"/>
+      <c r="L626" s="19" t="inlineStr">
+        <is>
+          <t>a491dfc4-9353-4213-9217-eef0949f9467</t>
+        </is>
+      </c>
       <c r="M626" s="20" t="n"/>
       <c r="N626" s="20" t="n"/>
       <c r="O626" s="20" t="n"/>
@@ -30773,17 +33095,50 @@
       <c r="Q626" s="20" t="n"/>
     </row>
     <row r="627">
-      <c r="A627" s="18" t="n"/>
-      <c r="B627" s="18" t="n"/>
-      <c r="C627" s="18" t="n"/>
-      <c r="D627" s="18" t="n"/>
+      <c r="A627" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B627" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C627" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D627" s="18" t="inlineStr">
+        <is>
+          <t>SAP 자산을 관리하여 고객과 파트너 관계를 맺는 경우 Azure Lighthouse를 사용하는 것이 좋습니다. Azure Lighthouse를 사용하면 관리 서비스 공급자가 Azure 네이티브 ID 서비스를 사용하여 고객 환경에 인증할 수 있습니다. 고객은 언제든지 액세스 권한을 취소하고 서비스 제공업체의 조치를 감사할 수 있으므로 고객의 손에 제어 권한을 부여합니다.</t>
+        </is>
+      </c>
       <c r="E627" s="18" t="n"/>
-      <c r="F627" s="18" t="n"/>
+      <c r="F627" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H627" s="18" t="n"/>
-      <c r="I627" s="13" t="n"/>
+      <c r="I627" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J627" s="13" t="n"/>
       <c r="K627" s="19" t="n"/>
-      <c r="L627" s="19" t="n"/>
+      <c r="L627" s="19" t="inlineStr">
+        <is>
+          <t>b7056168-6199-4732-a514-cdbb2d5c9c54</t>
+        </is>
+      </c>
       <c r="M627" s="20" t="n"/>
       <c r="N627" s="20" t="n"/>
       <c r="O627" s="20" t="n"/>
@@ -30791,17 +33146,54 @@
       <c r="Q627" s="20" t="n"/>
     </row>
     <row r="628">
-      <c r="A628" s="18" t="n"/>
-      <c r="B628" s="18" t="n"/>
-      <c r="C628" s="18" t="n"/>
-      <c r="D628" s="18" t="n"/>
+      <c r="A628" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B628" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C628" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D628" s="18" t="inlineStr">
+        <is>
+          <t>Azure Update Manager를 사용하여 단일 VM 또는 여러 VM에 대해 사용 가능한 업데이트의 상태를 확인하고 정기적인 패치를 예약하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E628" s="18" t="n"/>
-      <c r="F628" s="18" t="n"/>
+      <c r="F628" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H628" s="18" t="n"/>
-      <c r="I628" s="13" t="n"/>
-      <c r="J628" s="13" t="n"/>
+      <c r="I628" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J628" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/keep-your-virtual-machines-updated/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K628" s="19" t="n"/>
-      <c r="L628" s="19" t="n"/>
+      <c r="L628" s="19" t="inlineStr">
+        <is>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+        </is>
+      </c>
       <c r="M628" s="20" t="n"/>
       <c r="N628" s="20" t="n"/>
       <c r="O628" s="20" t="n"/>
@@ -30809,17 +33201,54 @@
       <c r="Q628" s="20" t="n"/>
     </row>
     <row r="629">
-      <c r="A629" s="18" t="n"/>
-      <c r="B629" s="18" t="n"/>
-      <c r="C629" s="18" t="n"/>
-      <c r="D629" s="18" t="n"/>
+      <c r="A629" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B629" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C629" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D629" s="18" t="inlineStr">
+        <is>
+          <t>SAP Landscape Management(LaMa)를 사용하여 SAP Basis 운영을 최적화하고 관리합니다. Azure용 SAP LaMa 커넥터를 사용하여 SAP 시스템을 재배치, 복사, 복제 및 새로 고칩니다.</t>
+        </is>
+      </c>
       <c r="E629" s="18" t="n"/>
-      <c r="F629" s="18" t="n"/>
+      <c r="F629" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H629" s="18" t="n"/>
-      <c r="I629" s="13" t="n"/>
-      <c r="J629" s="13" t="n"/>
+      <c r="I629" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J629" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-remote-management/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K629" s="19" t="n"/>
-      <c r="L629" s="19" t="n"/>
+      <c r="L629" s="19" t="inlineStr">
+        <is>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+        </is>
+      </c>
       <c r="M629" s="20" t="n"/>
       <c r="N629" s="20" t="n"/>
       <c r="O629" s="20" t="n"/>
@@ -30827,17 +33256,54 @@
       <c r="Q629" s="20" t="n"/>
     </row>
     <row r="630">
-      <c r="A630" s="18" t="n"/>
-      <c r="B630" s="18" t="n"/>
-      <c r="C630" s="18" t="n"/>
-      <c r="D630" s="18" t="n"/>
+      <c r="A630" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B630" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C630" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D630" s="18" t="inlineStr">
+        <is>
+          <t>SAP용 Azure Monitor 솔루션을 사용하여 Azure에서 SAP 워크로드(SAP HANA, 고가용성 SUSE 클러스터 및 SQL 시스템)를 모니터링합니다. SAP Solution Manager를 사용하여 SAP용 Azure Monitor 솔루션을 보완하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E630" s="18" t="n"/>
-      <c r="F630" s="18" t="n"/>
+      <c r="F630" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H630" s="18" t="n"/>
-      <c r="I630" s="13" t="n"/>
-      <c r="J630" s="13" t="n"/>
+      <c r="I630" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J630" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K630" s="19" t="n"/>
-      <c r="L630" s="19" t="n"/>
+      <c r="L630" s="19" t="inlineStr">
+        <is>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+        </is>
+      </c>
       <c r="M630" s="20" t="n"/>
       <c r="N630" s="20" t="n"/>
       <c r="O630" s="20" t="n"/>
@@ -30845,17 +33311,54 @@
       <c r="Q630" s="20" t="n"/>
     </row>
     <row r="631">
-      <c r="A631" s="18" t="n"/>
-      <c r="B631" s="18" t="n"/>
-      <c r="C631" s="18" t="n"/>
-      <c r="D631" s="18" t="n"/>
+      <c r="A631" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B631" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C631" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D631" s="18" t="inlineStr">
+        <is>
+          <t>SAP용 VM 확장 검사를 실행합니다. SAP용 VM 확장은 VM(가상 머신)의 할당된 관리 ID를 사용하여 VM 모니터링 및 구성 데이터에 액세스합니다. 이 검사는 SAP 애플리케이션의 모든 성능 메트릭이 기본 SAP용 Azure 확장에서 제공되는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E631" s="18" t="n"/>
-      <c r="F631" s="18" t="n"/>
+      <c r="F631" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H631" s="18" t="n"/>
-      <c r="I631" s="13" t="n"/>
-      <c r="J631" s="13" t="n"/>
+      <c r="I631" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J631" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-enhanced-monitoring-extension-for-sap/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K631" s="19" t="n"/>
-      <c r="L631" s="19" t="n"/>
+      <c r="L631" s="19" t="inlineStr">
+        <is>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+        </is>
+      </c>
       <c r="M631" s="20" t="n"/>
       <c r="N631" s="20" t="n"/>
       <c r="O631" s="20" t="n"/>
@@ -30863,17 +33366,54 @@
       <c r="Q631" s="20" t="n"/>
     </row>
     <row r="632">
-      <c r="A632" s="18" t="n"/>
-      <c r="B632" s="18" t="n"/>
-      <c r="C632" s="18" t="n"/>
-      <c r="D632" s="18" t="n"/>
+      <c r="A632" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B632" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C632" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D632" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">액세스 제어 및 규정 준수 보고에 Azure Policy를 사용합니다. Azure Policy는 일관된 정책 준수와 빠른 위반 감지를 보장하기 위해 조직 전체 설정을 적용하는 기능을 제공합니다. </t>
+        </is>
+      </c>
       <c r="E632" s="18" t="n"/>
-      <c r="F632" s="18" t="n"/>
+      <c r="F632" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H632" s="18" t="n"/>
-      <c r="I632" s="13" t="n"/>
-      <c r="J632" s="13" t="n"/>
+      <c r="I632" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J632" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="K632" s="19" t="n"/>
-      <c r="L632" s="19" t="n"/>
+      <c r="L632" s="19" t="inlineStr">
+        <is>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+        </is>
+      </c>
       <c r="M632" s="20" t="n"/>
       <c r="N632" s="20" t="n"/>
       <c r="O632" s="20" t="n"/>
@@ -30881,17 +33421,54 @@
       <c r="Q632" s="20" t="n"/>
     </row>
     <row r="633">
-      <c r="A633" s="18" t="n"/>
-      <c r="B633" s="18" t="n"/>
-      <c r="C633" s="18" t="n"/>
-      <c r="D633" s="18" t="n"/>
+      <c r="A633" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B633" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C633" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D633" s="18" t="inlineStr">
+        <is>
+          <t>Azure Network Watcher의 연결 모니터를 사용하여 SAP 데이터베이스 및 애플리케이션 서버에 대한 대기 시간 메트릭을 모니터링합니다. 또는 Azure Monitor를 사용하여 네트워크 대기 시간 측정값을 수집하고 표시합니다.</t>
+        </is>
+      </c>
       <c r="E633" s="18" t="n"/>
-      <c r="F633" s="18" t="n"/>
+      <c r="F633" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H633" s="18" t="n"/>
-      <c r="I633" s="13" t="n"/>
-      <c r="J633" s="13" t="n"/>
+      <c r="I633" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J633" s="31" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/collecting-and-displaying-niping-network-latency-measurements/ba-p/1833979</t>
+        </is>
+      </c>
       <c r="K633" s="19" t="n"/>
-      <c r="L633" s="19" t="n"/>
+      <c r="L633" s="19" t="inlineStr">
+        <is>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+        </is>
+      </c>
       <c r="M633" s="20" t="n"/>
       <c r="N633" s="20" t="n"/>
       <c r="O633" s="20" t="n"/>
@@ -30899,17 +33476,50 @@
       <c r="Q633" s="20" t="n"/>
     </row>
     <row r="634">
-      <c r="A634" s="18" t="n"/>
-      <c r="B634" s="18" t="n"/>
-      <c r="C634" s="18" t="n"/>
-      <c r="D634" s="18" t="n"/>
+      <c r="A634" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B634" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C634" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D634" s="18" t="inlineStr">
+        <is>
+          <t>프로비저닝된 Azure 인프라에서 SAP HANA에 대한 품질 검사를 수행하여 프로비저닝된 VM이 Azure의 SAP HANA 모범 사례를 준수하는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E634" s="18" t="n"/>
-      <c r="F634" s="18" t="n"/>
+      <c r="F634" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H634" s="18" t="n"/>
-      <c r="I634" s="13" t="n"/>
+      <c r="I634" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J634" s="13" t="n"/>
       <c r="K634" s="19" t="n"/>
-      <c r="L634" s="19" t="n"/>
+      <c r="L634" s="19" t="inlineStr">
+        <is>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+        </is>
+      </c>
       <c r="M634" s="20" t="n"/>
       <c r="N634" s="20" t="n"/>
       <c r="O634" s="20" t="n"/>
@@ -30917,17 +33527,54 @@
       <c r="Q634" s="20" t="n"/>
     </row>
     <row r="635">
-      <c r="A635" s="18" t="n"/>
-      <c r="B635" s="18" t="n"/>
-      <c r="C635" s="18" t="n"/>
-      <c r="D635" s="18" t="n"/>
+      <c r="A635" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B635" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C635" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D635" s="18" t="inlineStr">
+        <is>
+          <t>각 Azure 구독에 대해 영역 배포 전에 Azure 가용성 영역에서 대기 시간 테스트를 실행하여 Azure에서 SAP를 배포하기 위한 대기 시간이 짧은 영역을 선택합니다.</t>
+        </is>
+      </c>
       <c r="E635" s="18" t="n"/>
-      <c r="F635" s="18" t="n"/>
+      <c r="F635" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H635" s="18" t="n"/>
-      <c r="I635" s="13" t="n"/>
-      <c r="J635" s="13" t="n"/>
+      <c r="I635" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J635" s="31" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/SAP-on-Azure-Scripts-and-Utilities/tree/main/AvZone-Latency-Test</t>
+        </is>
+      </c>
       <c r="K635" s="19" t="n"/>
-      <c r="L635" s="19" t="n"/>
+      <c r="L635" s="19" t="inlineStr">
+        <is>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+        </is>
+      </c>
       <c r="M635" s="20" t="n"/>
       <c r="N635" s="20" t="n"/>
       <c r="O635" s="20" t="n"/>
@@ -30935,17 +33582,54 @@
       <c r="Q635" s="20" t="n"/>
     </row>
     <row r="636">
-      <c r="A636" s="18" t="n"/>
-      <c r="B636" s="18" t="n"/>
-      <c r="C636" s="18" t="n"/>
-      <c r="D636" s="18" t="n"/>
+      <c r="A636" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B636" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C636" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D636" s="18" t="inlineStr">
+        <is>
+          <t>복원력 보고서를 실행하여 프로비저닝된 전체 Azure 인프라(컴퓨팅, 데이터베이스, 네트워킹, 스토리지, Site Recovery)의 구성이 Azure용 클라우드 적응 프레임워크에서 정의한 구성을 준수하는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E636" s="18" t="n"/>
-      <c r="F636" s="18" t="n"/>
+      <c r="F636" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H636" s="18" t="n"/>
-      <c r="I636" s="13" t="n"/>
-      <c r="J636" s="13" t="n"/>
+      <c r="I636" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J636" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-well-architected-framework/</t>
+        </is>
+      </c>
       <c r="K636" s="19" t="n"/>
-      <c r="L636" s="19" t="n"/>
+      <c r="L636" s="19" t="inlineStr">
+        <is>
+          <t>410adcba-db46-424f-a6c4-05ecde75c52e</t>
+        </is>
+      </c>
       <c r="M636" s="20" t="n"/>
       <c r="N636" s="20" t="n"/>
       <c r="O636" s="20" t="n"/>
@@ -30953,17 +33637,54 @@
       <c r="Q636" s="20" t="n"/>
     </row>
     <row r="637">
-      <c r="A637" s="18" t="n"/>
-      <c r="B637" s="18" t="n"/>
-      <c r="C637" s="18" t="n"/>
-      <c r="D637" s="18" t="n"/>
+      <c r="A637" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B637" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C637" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D637" s="18" t="inlineStr">
+        <is>
+          <t>SAP용 Microsoft Sentinel 솔루션을 사용하여 위협 방지를 구현합니다. 이 솔루션을 사용하여 SAP 시스템을 모니터링하고 비즈니스 로직 및 애플리케이션 계층 전체에서 정교한 위협을 탐지할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E637" s="18" t="n"/>
-      <c r="F637" s="18" t="n"/>
+      <c r="F637" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H637" s="18" t="n"/>
-      <c r="I637" s="13" t="n"/>
-      <c r="J637" s="13" t="n"/>
+      <c r="I637" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J637" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/plan-microsoft-sentinel-deployment-sap/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K637" s="19" t="n"/>
-      <c r="L637" s="19" t="n"/>
+      <c r="L637" s="19" t="inlineStr">
+        <is>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+        </is>
+      </c>
       <c r="M637" s="20" t="n"/>
       <c r="N637" s="20" t="n"/>
       <c r="O637" s="20" t="n"/>
@@ -30971,17 +33692,54 @@
       <c r="Q637" s="20" t="n"/>
     </row>
     <row r="638">
-      <c r="A638" s="18" t="n"/>
-      <c r="B638" s="18" t="n"/>
-      <c r="C638" s="18" t="n"/>
-      <c r="D638" s="18" t="n"/>
+      <c r="A638" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B638" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C638" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D638" s="18" t="inlineStr">
+        <is>
+          <t>Azure 태그 지정을 활용하여 리소스를 논리적으로 그룹화 및 추적하고, 배포를 자동화하고, 가장 중요한 것은 발생한 비용에 대한 가시성을 제공할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E638" s="18" t="n"/>
-      <c r="F638" s="18" t="n"/>
+      <c r="F638" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H638" s="18" t="n"/>
-      <c r="I638" s="13" t="n"/>
-      <c r="J638" s="13" t="n"/>
+      <c r="I638" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J638" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K638" s="19" t="n"/>
-      <c r="L638" s="19" t="n"/>
+      <c r="L638" s="19" t="inlineStr">
+        <is>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+        </is>
+      </c>
       <c r="M638" s="20" t="n"/>
       <c r="N638" s="20" t="n"/>
       <c r="O638" s="20" t="n"/>
@@ -30989,17 +33747,50 @@
       <c r="Q638" s="20" t="n"/>
     </row>
     <row r="639">
-      <c r="A639" s="18" t="n"/>
-      <c r="B639" s="18" t="n"/>
-      <c r="C639" s="18" t="n"/>
-      <c r="D639" s="18" t="n"/>
+      <c r="A639" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B639" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C639" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D639" s="18" t="inlineStr">
+        <is>
+          <t>대기 시간에 민감한 애플리케이션에 대해 VM 간 대기 시간 모니터링을 사용합니다.</t>
+        </is>
+      </c>
       <c r="E639" s="18" t="n"/>
-      <c r="F639" s="18" t="n"/>
+      <c r="F639" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H639" s="18" t="n"/>
-      <c r="I639" s="13" t="n"/>
+      <c r="I639" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J639" s="13" t="n"/>
       <c r="K639" s="19" t="n"/>
-      <c r="L639" s="19" t="n"/>
+      <c r="L639" s="19" t="inlineStr">
+        <is>
+          <t>04b8e5e5-13cb-4b22-af62-5a8ecfcf0337</t>
+        </is>
+      </c>
       <c r="M639" s="20" t="n"/>
       <c r="N639" s="20" t="n"/>
       <c r="O639" s="20" t="n"/>
@@ -31007,17 +33798,54 @@
       <c r="Q639" s="20" t="n"/>
     </row>
     <row r="640">
-      <c r="A640" s="18" t="n"/>
-      <c r="B640" s="18" t="n"/>
-      <c r="C640" s="18" t="n"/>
-      <c r="D640" s="18" t="n"/>
+      <c r="A640" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B640" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C640" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D640" s="18" t="inlineStr">
+        <is>
+          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
+        </is>
+      </c>
       <c r="E640" s="18" t="n"/>
-      <c r="F640" s="18" t="n"/>
+      <c r="F640" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H640" s="18" t="n"/>
-      <c r="I640" s="13" t="n"/>
-      <c r="J640" s="13" t="n"/>
+      <c r="I640" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J640" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-storage/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K640" s="19" t="n"/>
-      <c r="L640" s="19" t="n"/>
+      <c r="L640" s="19" t="inlineStr">
+        <is>
+          <t>07e5ed53-3d96-43d8-87ea-631b77da5aba</t>
+        </is>
+      </c>
       <c r="M640" s="20" t="n"/>
       <c r="N640" s="20" t="n"/>
       <c r="O640" s="20" t="n"/>
@@ -31025,17 +33853,50 @@
       <c r="Q640" s="20" t="n"/>
     </row>
     <row r="641">
-      <c r="A641" s="18" t="n"/>
-      <c r="B641" s="18" t="n"/>
-      <c r="C641" s="18" t="n"/>
-      <c r="D641" s="18" t="n"/>
+      <c r="A641" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B641" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C641" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D641" s="18" t="inlineStr">
+        <is>
+          <t>모든 데이터베이스 파일 시스템 및 실행 프로그램을 바이러스 백신 검사에서 제외합니다. 이를 포함하면 성능 문제가 발생할 수 있습니다. 제외 목록에 대한 규범적 세부 정보는 데이터베이스 공급업체에 문의하십시오. 예를 들어 &lt;sid&gt;Oracle은 바이러스 백신 검사에서 /oracle//sapdata를 제외할 것을 권장합니다.</t>
+        </is>
+      </c>
       <c r="E641" s="18" t="n"/>
-      <c r="F641" s="18" t="n"/>
+      <c r="F641" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H641" s="18" t="n"/>
-      <c r="I641" s="13" t="n"/>
+      <c r="I641" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J641" s="13" t="n"/>
       <c r="K641" s="19" t="n"/>
-      <c r="L641" s="19" t="n"/>
+      <c r="L641" s="19" t="inlineStr">
+        <is>
+          <t>abb6af9c-982c-4cf1-83fb-329fafd1ee56</t>
+        </is>
+      </c>
       <c r="M641" s="20" t="n"/>
       <c r="N641" s="20" t="n"/>
       <c r="O641" s="20" t="n"/>
@@ -31043,17 +33904,50 @@
       <c r="Q641" s="20" t="n"/>
     </row>
     <row r="642">
-      <c r="A642" s="18" t="n"/>
-      <c r="B642" s="18" t="n"/>
-      <c r="C642" s="18" t="n"/>
-      <c r="D642" s="18" t="n"/>
+      <c r="A642" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B642" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C642" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D642" s="18" t="inlineStr">
+        <is>
+          <t>마이그레이션 후 비 HANA 데이터베이스에 대한 전체 데이터베이스 통계를 수집하는 것이 좋습니다. 예를 들어 SAP Note 1020260 - Oracle 통계 제공을 구현합니다.</t>
+        </is>
+      </c>
       <c r="E642" s="18" t="n"/>
-      <c r="F642" s="18" t="n"/>
+      <c r="F642" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H642" s="18" t="n"/>
-      <c r="I642" s="13" t="n"/>
+      <c r="I642" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J642" s="13" t="n"/>
       <c r="K642" s="19" t="n"/>
-      <c r="L642" s="19" t="n"/>
+      <c r="L642" s="19" t="inlineStr">
+        <is>
+          <t>c027f893-f404-41a9-b33d-39d625a14964</t>
+        </is>
+      </c>
       <c r="M642" s="20" t="n"/>
       <c r="N642" s="20" t="n"/>
       <c r="O642" s="20" t="n"/>
@@ -31061,17 +33955,54 @@
       <c r="Q642" s="20" t="n"/>
     </row>
     <row r="643">
-      <c r="A643" s="18" t="n"/>
-      <c r="B643" s="18" t="n"/>
-      <c r="C643" s="18" t="n"/>
-      <c r="D643" s="18" t="n"/>
+      <c r="A643" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B643" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C643" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D643" s="18" t="inlineStr">
+        <is>
+          <t>Azure에서 SAP를 사용하는 모든 Oracle 배포에 Oracle ASM(Automatic Storage Management)을 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E643" s="18" t="n"/>
-      <c r="F643" s="18" t="n"/>
+      <c r="F643" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H643" s="18" t="n"/>
-      <c r="I643" s="13" t="n"/>
-      <c r="J643" s="13" t="n"/>
+      <c r="I643" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J643" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/administer-infrastructure-resources-in-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K643" s="19" t="n"/>
-      <c r="L643" s="19" t="n"/>
+      <c r="L643" s="19" t="inlineStr">
+        <is>
+          <t>fdafb1f5-3eee-4354-a8c9-deb8127ebc2e</t>
+        </is>
+      </c>
       <c r="M643" s="20" t="n"/>
       <c r="N643" s="20" t="n"/>
       <c r="O643" s="20" t="n"/>
@@ -31079,17 +34010,54 @@
       <c r="Q643" s="20" t="n"/>
     </row>
     <row r="644">
-      <c r="A644" s="18" t="n"/>
-      <c r="B644" s="18" t="n"/>
-      <c r="C644" s="18" t="n"/>
-      <c r="D644" s="18" t="n"/>
+      <c r="A644" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B644" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C644" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D644" s="18" t="inlineStr">
+        <is>
+          <t>Oracle을 실행하는 Azure의 SAP의 경우 SQL 스크립트 컬렉션은 성능 문제를 진단하는 데 도움이 될 수 있습니다.  AWR(Automatic Workload Repository) 보고서에는 Oracle 시스템의 문제점을 진단하는 데 유용한 정보가 포함되어 있습니다. 여러 세션 동안 AWR 보고서를 실행하고 피크 시간을 선택하여 광범위한 분석 범위를 보장하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E644" s="18" t="n"/>
-      <c r="F644" s="18" t="n"/>
+      <c r="F644" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H644" s="18" t="n"/>
-      <c r="I644" s="13" t="n"/>
-      <c r="J644" s="13" t="n"/>
+      <c r="I644" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J644" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/azure/well-architected/oracle-iaas/performance-efficiency</t>
+        </is>
+      </c>
       <c r="K644" s="19" t="n"/>
-      <c r="L644" s="19" t="n"/>
+      <c r="L644" s="19" t="inlineStr">
+        <is>
+          <t>33c5d5bf-daf3-4f0d-bd50-6010fdcec22e</t>
+        </is>
+      </c>
       <c r="M644" s="20" t="n"/>
       <c r="N644" s="20" t="n"/>
       <c r="O644" s="20" t="n"/>
@@ -31097,17 +34065,54 @@
       <c r="Q644" s="20" t="n"/>
     </row>
     <row r="645">
-      <c r="A645" s="18" t="n"/>
-      <c r="B645" s="18" t="n"/>
-      <c r="C645" s="18" t="n"/>
-      <c r="D645" s="18" t="n"/>
+      <c r="A645" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B645" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C645" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D645" s="18" t="inlineStr">
+        <is>
+          <t>Azure Site Recovery 모니터링을 사용하여 SAP 애플리케이션 서버에 대한 재해 복구 서비스의 상태를 유지 관리합니다.</t>
+        </is>
+      </c>
       <c r="E645" s="18" t="n"/>
-      <c r="F645" s="18" t="n"/>
+      <c r="F645" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H645" s="18" t="n"/>
-      <c r="I645" s="13" t="n"/>
-      <c r="J645" s="13" t="n"/>
+      <c r="I645" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J645" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-on-premises-infrastructure-with-azure-site-recovery/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K645" s="19" t="n"/>
-      <c r="L645" s="19" t="n"/>
+      <c r="L645" s="19" t="inlineStr">
+        <is>
+          <t>d89fd98d-23e4-4b40-a92e-32db9365522c</t>
+        </is>
+      </c>
       <c r="M645" s="20" t="n"/>
       <c r="N645" s="20" t="n"/>
       <c r="O645" s="20" t="n"/>
@@ -31115,17 +34120,54 @@
       <c r="Q645" s="20" t="n"/>
     </row>
     <row r="646">
-      <c r="A646" s="18" t="n"/>
-      <c r="B646" s="18" t="n"/>
-      <c r="C646" s="18" t="n"/>
-      <c r="D646" s="18" t="n"/>
+      <c r="A646" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B646" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C646" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D646" s="18" t="inlineStr">
+        <is>
+          <t>HTTP/S 앱을 안전하게 배달하려면 Application Gateway v2를 사용하고 WAF 보호 및 정책이 사용하도록 설정되어 있는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E646" s="18" t="n"/>
-      <c r="F646" s="18" t="n"/>
+      <c r="F646" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H646" s="18" t="n"/>
-      <c r="I646" s="13" t="n"/>
-      <c r="J646" s="13" t="n"/>
+      <c r="I646" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J646" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/</t>
+        </is>
+      </c>
       <c r="K646" s="19" t="n"/>
-      <c r="L646" s="19" t="n"/>
+      <c r="L646" s="19" t="inlineStr">
+        <is>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+        </is>
+      </c>
       <c r="M646" s="20" t="n"/>
       <c r="N646" s="20" t="n"/>
       <c r="O646" s="20" t="n"/>
@@ -31133,17 +34175,54 @@
       <c r="Q646" s="20" t="n"/>
     </row>
     <row r="647">
-      <c r="A647" s="18" t="n"/>
-      <c r="B647" s="18" t="n"/>
-      <c r="C647" s="18" t="n"/>
-      <c r="D647" s="18" t="n"/>
+      <c r="A647" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B647" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C647" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D647" s="18" t="inlineStr">
+        <is>
+          <t>Azure로 마이그레이션하는 동안 가상 머신의 DNS 또는 가상 이름이 변경되지 않은 경우 백그라운드 DNS 및 가상 이름은 SAP 환경의 많은 시스템 인터페이스를 연결하며, 고객은 시간이 지남에 따라 개발자가 정의하는 인터페이스를 인식하는 경우에만 인식할 수 있습니다. 마이그레이션 후 가상 또는 DNS 이름이 변경될 때 다양한 시스템 간에 연결 문제가 발생하며, 이러한 유형의 문제를 방지하기 위해 DNS 별칭을 유지하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E647" s="18" t="n"/>
-      <c r="F647" s="18" t="n"/>
+      <c r="F647" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H647" s="18" t="n"/>
-      <c r="I647" s="13" t="n"/>
-      <c r="J647" s="13" t="n"/>
+      <c r="I647" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J647" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+        </is>
+      </c>
       <c r="K647" s="19" t="n"/>
-      <c r="L647" s="19" t="n"/>
+      <c r="L647" s="19" t="inlineStr">
+        <is>
+          <t>fa9d30bc-1b82-4e4b-bfdf-6b017938b9e6</t>
+        </is>
+      </c>
       <c r="M647" s="20" t="n"/>
       <c r="N647" s="20" t="n"/>
       <c r="O647" s="20" t="n"/>
@@ -31151,17 +34230,54 @@
       <c r="Q647" s="20" t="n"/>
     </row>
     <row r="648">
-      <c r="A648" s="18" t="n"/>
-      <c r="B648" s="18" t="n"/>
-      <c r="C648" s="18" t="n"/>
-      <c r="D648" s="18" t="n"/>
+      <c r="A648" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B648" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C648" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D648" s="18" t="inlineStr">
+        <is>
+          <t>서로 다른 DNS 영역을 사용하여 각 환경(샌드박스, 개발, 사전 프로덕션 및 프로덕션)을 서로 구분합니다. 예외는 자체 VNet을 사용하는 SAP 배포의 경우입니다. 여기서는 프라이빗 DNS 영역이 필요하지 않을 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E648" s="18" t="n"/>
-      <c r="F648" s="18" t="n"/>
+      <c r="F648" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H648" s="18" t="n"/>
-      <c r="I648" s="13" t="n"/>
-      <c r="J648" s="13" t="n"/>
+      <c r="I648" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J648" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/4-explore-name-resolution</t>
+        </is>
+      </c>
       <c r="K648" s="19" t="n"/>
-      <c r="L648" s="19" t="n"/>
+      <c r="L648" s="19" t="inlineStr">
+        <is>
+          <t>a2858f78-105b-4f52-b7a9-5b0f4439743b</t>
+        </is>
+      </c>
       <c r="M648" s="20" t="n"/>
       <c r="N648" s="20" t="n"/>
       <c r="O648" s="20" t="n"/>
@@ -31169,17 +34285,54 @@
       <c r="Q648" s="20" t="n"/>
     </row>
     <row r="649">
-      <c r="A649" s="18" t="n"/>
-      <c r="B649" s="18" t="n"/>
-      <c r="C649" s="18" t="n"/>
-      <c r="D649" s="18" t="n"/>
+      <c r="A649" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B649" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C649" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D649" s="18" t="inlineStr">
+        <is>
+          <t>로컬 및 글로벌 VNet 피어링은 연결을 제공하며, 여러 Azure 지역에서 SAP 배포를 위한 랜딩 존 간의 연결을 보장하기 위해 선호되는 접근 방식입니다</t>
+        </is>
+      </c>
       <c r="E649" s="18" t="n"/>
-      <c r="F649" s="18" t="n"/>
+      <c r="F649" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H649" s="18" t="n"/>
-      <c r="I649" s="13" t="n"/>
-      <c r="J649" s="13" t="n"/>
+      <c r="I649" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J649" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K649" s="19" t="n"/>
-      <c r="L649" s="19" t="n"/>
+      <c r="L649" s="19" t="inlineStr">
+        <is>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+        </is>
+      </c>
       <c r="M649" s="20" t="n"/>
       <c r="N649" s="20" t="n"/>
       <c r="O649" s="20" t="n"/>
@@ -31187,17 +34340,54 @@
       <c r="Q649" s="20" t="n"/>
     </row>
     <row r="650">
-      <c r="A650" s="18" t="n"/>
-      <c r="B650" s="18" t="n"/>
-      <c r="C650" s="18" t="n"/>
-      <c r="D650" s="18" t="n"/>
+      <c r="A650" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B650" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C650" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D650" s="18" t="inlineStr">
+        <is>
+          <t>SAP 애플리케이션과 SAP 데이터베이스 서버 간에 NVA를 배포하는 것은 지원되지 않습니다</t>
+        </is>
+      </c>
       <c r="E650" s="18" t="n"/>
-      <c r="F650" s="18" t="n"/>
+      <c r="F650" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H650" s="18" t="n"/>
-      <c r="I650" s="13" t="n"/>
-      <c r="J650" s="13" t="n"/>
+      <c r="I650" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J650" s="31" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/2731110</t>
+        </is>
+      </c>
       <c r="K650" s="19" t="n"/>
-      <c r="L650" s="19" t="n"/>
+      <c r="L650" s="19" t="inlineStr">
+        <is>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+        </is>
+      </c>
       <c r="M650" s="20" t="n"/>
       <c r="N650" s="20" t="n"/>
       <c r="O650" s="20" t="n"/>
@@ -31205,17 +34395,54 @@
       <c r="Q650" s="20" t="n"/>
     </row>
     <row r="651">
-      <c r="A651" s="18" t="n"/>
-      <c r="B651" s="18" t="n"/>
-      <c r="C651" s="18" t="n"/>
-      <c r="D651" s="18" t="n"/>
+      <c r="A651" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B651" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C651" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D651" s="18" t="inlineStr">
+        <is>
+          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E651" s="18" t="n"/>
-      <c r="F651" s="18" t="n"/>
+      <c r="F651" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H651" s="18" t="n"/>
-      <c r="I651" s="13" t="n"/>
-      <c r="J651" s="13" t="n"/>
+      <c r="I651" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J651" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
       <c r="K651" s="19" t="n"/>
-      <c r="L651" s="19" t="n"/>
+      <c r="L651" s="19" t="inlineStr">
+        <is>
+          <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
+        </is>
+      </c>
       <c r="M651" s="20" t="n"/>
       <c r="N651" s="20" t="n"/>
       <c r="O651" s="20" t="n"/>
@@ -31223,17 +34450,54 @@
       <c r="Q651" s="20" t="n"/>
     </row>
     <row r="652">
-      <c r="A652" s="18" t="n"/>
-      <c r="B652" s="18" t="n"/>
-      <c r="C652" s="18" t="n"/>
-      <c r="D652" s="18" t="n"/>
+      <c r="A652" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B652" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C652" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D652" s="18" t="inlineStr">
+        <is>
+          <t>파트너 NVA를 사용하는 경우에만 지역 간에 NVA(네트워크 가상 어플라이언스)를 배포하는 것이 좋습니다. 네이티브 NVA가 있는 경우 지역 또는 VNet 간의 NVA가 필요하지 않습니다. 파트너 네트워킹 기술 및 NVA를 배포하는 경우 공급업체의 지침에 따라 Azure 네트워킹과 충돌하는 구성을 확인합니다.</t>
+        </is>
+      </c>
       <c r="E652" s="18" t="n"/>
-      <c r="F652" s="18" t="n"/>
+      <c r="F652" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H652" s="18" t="n"/>
-      <c r="I652" s="13" t="n"/>
-      <c r="J652" s="13" t="n"/>
+      <c r="I652" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J652" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/control-network-traffic-flow-with-routes/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K652" s="19" t="n"/>
-      <c r="L652" s="19" t="n"/>
+      <c r="L652" s="19" t="inlineStr">
+        <is>
+          <t>0cedb1f6-ae6c-492b-8b17-8061f50b16d3</t>
+        </is>
+      </c>
       <c r="M652" s="20" t="n"/>
       <c r="N652" s="20" t="n"/>
       <c r="O652" s="20" t="n"/>
@@ -31241,17 +34505,54 @@
       <c r="Q652" s="20" t="n"/>
     </row>
     <row r="653">
-      <c r="A653" s="18" t="n"/>
-      <c r="B653" s="18" t="n"/>
-      <c r="C653" s="18" t="n"/>
-      <c r="D653" s="18" t="n"/>
+      <c r="A653" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B653" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C653" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D653" s="18" t="inlineStr">
+        <is>
+          <t>Virtual WAN은 가상 WAN 기반 토폴로지에 대한 스포크 VNet 간의 연결을 관리하며(UDR[사용자 정의 라우팅] 또는 NVA를 설정할 필요 없음) 동일한 가상 허브의 VNet 간 트래픽에 대한 최대 네트워크 처리량은 초당 50기가비트입니다. 필요한 경우 SAP 랜딩 존은 VNet 피어링을 사용하여 다른 랜딩 존에 연결하고 이 대역폭 제한을 극복할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E653" s="18" t="n"/>
-      <c r="F653" s="18" t="n"/>
+      <c r="F653" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H653" s="18" t="n"/>
-      <c r="I653" s="13" t="n"/>
-      <c r="J653" s="13" t="n"/>
+      <c r="I653" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J653" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K653" s="19" t="n"/>
-      <c r="L653" s="19" t="n"/>
+      <c r="L653" s="19" t="inlineStr">
+        <is>
+          <t>facc08c6-ea95-4641-91cd-fa09e573adbd</t>
+        </is>
+      </c>
       <c r="M653" s="20" t="n"/>
       <c r="N653" s="20" t="n"/>
       <c r="O653" s="20" t="n"/>
@@ -31259,17 +34560,54 @@
       <c r="Q653" s="20" t="n"/>
     </row>
     <row r="654">
-      <c r="A654" s="18" t="n"/>
-      <c r="B654" s="18" t="n"/>
-      <c r="C654" s="18" t="n"/>
-      <c r="D654" s="18" t="n"/>
+      <c r="A654" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B654" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C654" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D654" s="18" t="inlineStr">
+        <is>
+          <t>SAP 워크로드를 실행하는 VM에 대한 공용 IP 할당은 권장되지 않습니다.</t>
+        </is>
+      </c>
       <c r="E654" s="18" t="n"/>
-      <c r="F654" s="18" t="n"/>
+      <c r="F654" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H654" s="18" t="n"/>
-      <c r="I654" s="13" t="n"/>
-      <c r="J654" s="13" t="n"/>
+      <c r="I654" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J654" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K654" s="19" t="n"/>
-      <c r="L654" s="19" t="n"/>
+      <c r="L654" s="19" t="inlineStr">
+        <is>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+        </is>
+      </c>
       <c r="M654" s="20" t="n"/>
       <c r="N654" s="20" t="n"/>
       <c r="O654" s="20" t="n"/>
@@ -31277,17 +34615,54 @@
       <c r="Q654" s="20" t="n"/>
     </row>
     <row r="655">
-      <c r="A655" s="18" t="n"/>
-      <c r="B655" s="18" t="n"/>
-      <c r="C655" s="18" t="n"/>
-      <c r="D655" s="18" t="n"/>
+      <c r="A655" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B655" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C655" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D655" s="18" t="inlineStr">
+        <is>
+          <t>ASR을 구성할 때 DR 쪽에서 IP 주소를 예약하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E655" s="18" t="n"/>
-      <c r="F655" s="18" t="n"/>
+      <c r="F655" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H655" s="18" t="n"/>
-      <c r="I655" s="13" t="n"/>
-      <c r="J655" s="13" t="n"/>
+      <c r="I655" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J655" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="K655" s="19" t="n"/>
-      <c r="L655" s="19" t="n"/>
+      <c r="L655" s="19" t="inlineStr">
+        <is>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+        </is>
+      </c>
       <c r="M655" s="20" t="n"/>
       <c r="N655" s="20" t="n"/>
       <c r="O655" s="20" t="n"/>
@@ -31295,17 +34670,54 @@
       <c r="Q655" s="20" t="n"/>
     </row>
     <row r="656">
-      <c r="A656" s="18" t="n"/>
-      <c r="B656" s="18" t="n"/>
-      <c r="C656" s="18" t="n"/>
-      <c r="D656" s="18" t="n"/>
+      <c r="A656" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B656" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C656" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D656" s="18" t="inlineStr">
+        <is>
+          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+        </is>
+      </c>
       <c r="E656" s="18" t="n"/>
-      <c r="F656" s="18" t="n"/>
+      <c r="F656" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H656" s="18" t="n"/>
-      <c r="I656" s="13" t="n"/>
-      <c r="J656" s="13" t="n"/>
+      <c r="I656" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J656" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K656" s="19" t="n"/>
-      <c r="L656" s="19" t="n"/>
+      <c r="L656" s="19" t="inlineStr">
+        <is>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+        </is>
+      </c>
       <c r="M656" s="20" t="n"/>
       <c r="N656" s="20" t="n"/>
       <c r="O656" s="20" t="n"/>
@@ -31313,17 +34725,54 @@
       <c r="Q656" s="20" t="n"/>
     </row>
     <row r="657">
-      <c r="A657" s="18" t="n"/>
-      <c r="B657" s="18" t="n"/>
-      <c r="C657" s="18" t="n"/>
-      <c r="D657" s="18" t="n"/>
+      <c r="A657" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B657" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C657" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D657" s="18" t="inlineStr">
+        <is>
+          <t>Azure는 VNet에서 여러 위임된 서브넷을 만드는 데 도움이 되지만 Azure NetApp Files용 VNet에는 위임된 서브넷이 하나만 존재할 수 있습니다. Azure NetApp Files에 대해 둘 이상의 위임된 서브넷을 사용하는 경우 새 볼륨을 만들려는 시도가 실패합니다.</t>
+        </is>
+      </c>
       <c r="E657" s="18" t="n"/>
-      <c r="F657" s="18" t="n"/>
+      <c r="F657" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H657" s="18" t="n"/>
-      <c r="I657" s="13" t="n"/>
-      <c r="J657" s="13" t="n"/>
+      <c r="I657" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J657" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-network-topologies?source=recommendations</t>
+        </is>
+      </c>
       <c r="K657" s="19" t="n"/>
-      <c r="L657" s="19" t="n"/>
+      <c r="L657" s="19" t="inlineStr">
+        <is>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+        </is>
+      </c>
       <c r="M657" s="20" t="n"/>
       <c r="N657" s="20" t="n"/>
       <c r="O657" s="20" t="n"/>
@@ -31331,17 +34780,54 @@
       <c r="Q657" s="20" t="n"/>
     </row>
     <row r="658">
-      <c r="A658" s="18" t="n"/>
-      <c r="B658" s="18" t="n"/>
-      <c r="C658" s="18" t="n"/>
-      <c r="D658" s="18" t="n"/>
+      <c r="A658" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B658" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C658" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D658" s="18" t="inlineStr">
+        <is>
+          <t>Azure Firewall을 사용하여 인터넷에 대한 Azure 아웃바운드 트래픽, 비 HTTP/S 인바운드 연결 및 East/West 트래픽 필터링(조직에 필요한 경우)을 제어합니다</t>
+        </is>
+      </c>
       <c r="E658" s="18" t="n"/>
-      <c r="F658" s="18" t="n"/>
+      <c r="F658" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H658" s="18" t="n"/>
-      <c r="I658" s="13" t="n"/>
-      <c r="J658" s="13" t="n"/>
+      <c r="I658" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J658" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K658" s="19" t="n"/>
-      <c r="L658" s="19" t="n"/>
+      <c r="L658" s="19" t="inlineStr">
+        <is>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+        </is>
+      </c>
       <c r="M658" s="20" t="n"/>
       <c r="N658" s="20" t="n"/>
       <c r="O658" s="20" t="n"/>
@@ -31349,17 +34835,54 @@
       <c r="Q658" s="20" t="n"/>
     </row>
     <row r="659">
-      <c r="A659" s="18" t="n"/>
-      <c r="B659" s="18" t="n"/>
-      <c r="C659" s="18" t="n"/>
-      <c r="D659" s="18" t="n"/>
+      <c r="A659" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B659" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C659" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D659" s="18" t="inlineStr">
+        <is>
+          <t>Application Gateway, SAP Web Dispatcher 및 기타 타사 서비스 간의 비교에서 볼 수 있듯이 Application Gateway가 SAP 웹앱에 대한 역방향 프록시 역할을 하는 경우 Application Gateway 및 Web Application Firewall에 제한 사항이 있습니다.</t>
+        </is>
+      </c>
       <c r="E659" s="18" t="n"/>
-      <c r="F659" s="18" t="n"/>
+      <c r="F659" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H659" s="18" t="n"/>
-      <c r="I659" s="13" t="n"/>
-      <c r="J659" s="13" t="n"/>
+      <c r="I659" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J659" s="31" t="inlineStr">
+        <is>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/si/3362959506.html</t>
+        </is>
+      </c>
       <c r="K659" s="19" t="n"/>
-      <c r="L659" s="19" t="n"/>
+      <c r="L659" s="19" t="inlineStr">
+        <is>
+          <t>91a65e40-be90-45b3-9f73-f3edbf8dc324</t>
+        </is>
+      </c>
       <c r="M659" s="20" t="n"/>
       <c r="N659" s="20" t="n"/>
       <c r="O659" s="20" t="n"/>
@@ -31367,17 +34890,54 @@
       <c r="Q659" s="20" t="n"/>
     </row>
     <row r="660">
-      <c r="A660" s="18" t="n"/>
-      <c r="B660" s="18" t="n"/>
-      <c r="C660" s="18" t="n"/>
-      <c r="D660" s="18" t="n"/>
+      <c r="A660" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B660" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C660" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D660" s="18" t="inlineStr">
+        <is>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
+        </is>
+      </c>
       <c r="E660" s="18" t="n"/>
-      <c r="F660" s="18" t="n"/>
+      <c r="F660" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H660" s="18" t="n"/>
-      <c r="I660" s="13" t="n"/>
-      <c r="J660" s="13" t="n"/>
+      <c r="I660" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J660" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="K660" s="19" t="n"/>
-      <c r="L660" s="19" t="n"/>
+      <c r="L660" s="19" t="inlineStr">
+        <is>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+        </is>
+      </c>
       <c r="M660" s="20" t="n"/>
       <c r="N660" s="20" t="n"/>
       <c r="O660" s="20" t="n"/>
@@ -31385,17 +34945,54 @@
       <c r="Q660" s="20" t="n"/>
     </row>
     <row r="661">
-      <c r="A661" s="18" t="n"/>
-      <c r="B661" s="18" t="n"/>
-      <c r="C661" s="18" t="n"/>
-      <c r="D661" s="18" t="n"/>
+      <c r="A661" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B661" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C661" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D661" s="18" t="inlineStr">
+        <is>
+          <t>Azure Front Door 및 Application Gateway를 사용하여 HTTP/S 애플리케이션을 보호하는 경우 Azure Front Door의 Web Application Firewall 정책을 활용합니다. Azure Front Door에서만 트래픽을 수신하도록 Application Gateway를 잠급니다.</t>
+        </is>
+      </c>
       <c r="E661" s="18" t="n"/>
-      <c r="F661" s="18" t="n"/>
+      <c r="F661" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H661" s="18" t="n"/>
-      <c r="I661" s="13" t="n"/>
-      <c r="J661" s="13" t="n"/>
+      <c r="I661" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J661" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K661" s="19" t="n"/>
-      <c r="L661" s="19" t="n"/>
+      <c r="L661" s="19" t="inlineStr">
+        <is>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+        </is>
+      </c>
       <c r="M661" s="20" t="n"/>
       <c r="N661" s="20" t="n"/>
       <c r="O661" s="20" t="n"/>
@@ -31403,17 +35000,54 @@
       <c r="Q661" s="20" t="n"/>
     </row>
     <row r="662">
-      <c r="A662" s="18" t="n"/>
-      <c r="B662" s="18" t="n"/>
-      <c r="C662" s="18" t="n"/>
-      <c r="D662" s="18" t="n"/>
+      <c r="A662" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B662" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C662" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D662" s="18" t="inlineStr">
+        <is>
+          <t>웹 애플리케이션 방화벽을 사용하여 트래픽이 인터넷에 노출될 때 트래픽을 검사합니다. 또 다른 옵션은 부하 분산 장치 또는 Application Gateway 또는 타사 솔루션과 같은 기본 제공 방화벽 기능이 있는 리소스와 함께 사용하는 것입니다.</t>
+        </is>
+      </c>
       <c r="E662" s="18" t="n"/>
-      <c r="F662" s="18" t="n"/>
+      <c r="F662" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H662" s="18" t="n"/>
-      <c r="I662" s="13" t="n"/>
-      <c r="J662" s="13" t="n"/>
+      <c r="I662" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J662" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-web-application-firewall/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K662" s="19" t="n"/>
-      <c r="L662" s="19" t="n"/>
+      <c r="L662" s="19" t="inlineStr">
+        <is>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+        </is>
+      </c>
       <c r="M662" s="20" t="n"/>
       <c r="N662" s="20" t="n"/>
       <c r="O662" s="20" t="n"/>
@@ -31421,17 +35055,54 @@
       <c r="Q662" s="20" t="n"/>
     </row>
     <row r="663">
-      <c r="A663" s="18" t="n"/>
-      <c r="B663" s="18" t="n"/>
-      <c r="C663" s="18" t="n"/>
-      <c r="D663" s="18" t="n"/>
+      <c r="A663" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B663" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C663" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D663" s="18" t="inlineStr">
+        <is>
+          <t>Azure 지역 및 온-프레미스 위치 간에 글로벌 전송 연결이 필요한 신규, 대규모 또는 글로벌 네트워크에서 Azure 배포에 Virtual WAN을 사용합니다. 이 방법을 사용하면 Azure 네트워킹에 대한 전이적 라우팅을 수동으로 설정할 필요가 없으며 Azure의 SAP 배포에 대한 표준을 따를 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E663" s="18" t="n"/>
-      <c r="F663" s="18" t="n"/>
+      <c r="F663" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H663" s="18" t="n"/>
-      <c r="I663" s="13" t="n"/>
-      <c r="J663" s="13" t="n"/>
+      <c r="I663" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J663" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/10-explore-azure-front-door</t>
+        </is>
+      </c>
       <c r="K663" s="19" t="n"/>
-      <c r="L663" s="19" t="n"/>
+      <c r="L663" s="19" t="inlineStr">
+        <is>
+          <t>e73de7d5-6f36-4217-a526-e1a621ecddde</t>
+        </is>
+      </c>
       <c r="M663" s="20" t="n"/>
       <c r="N663" s="20" t="n"/>
       <c r="O663" s="20" t="n"/>
@@ -31439,17 +35110,54 @@
       <c r="Q663" s="20" t="n"/>
     </row>
     <row r="664">
-      <c r="A664" s="18" t="n"/>
-      <c r="B664" s="18" t="n"/>
-      <c r="C664" s="18" t="n"/>
-      <c r="D664" s="18" t="n"/>
+      <c r="A664" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B664" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C664" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D664" s="18" t="inlineStr">
+        <is>
+          <t>데이터 유출을 방지하려면 Azure Private Link를 사용하여 Azure Blob Storage, Azure Files, Azure Data Lake Storage Gen2, Azure Data Factory 등과 같은 PaaS(Platform as a Service) 리소스에 안전하게 액세스합니다. Azure 프라이빗 엔드포인트는 VNet과 Azure Storage, Azure Backup 등과 같은 서비스 간의 트래픽을 보호하는 데도 도움이 될 수 있습니다. VNet과 프라이빗 엔드포인트 사용 서비스 간의 트래픽은 Microsoft 글로벌 네트워크를 통해 이동하므로 공용 인터넷에 노출되지 않습니다.</t>
+        </is>
+      </c>
       <c r="E664" s="18" t="n"/>
-      <c r="F664" s="18" t="n"/>
+      <c r="F664" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H664" s="18" t="n"/>
-      <c r="I664" s="13" t="n"/>
-      <c r="J664" s="13" t="n"/>
+      <c r="I664" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J664" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-private-access-to-azure-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K664" s="19" t="n"/>
-      <c r="L664" s="19" t="n"/>
+      <c r="L664" s="19" t="inlineStr">
+        <is>
+          <t>3c536a3e-1b6b-4e87-95ca-15edb47251c0</t>
+        </is>
+      </c>
       <c r="M664" s="20" t="n"/>
       <c r="N664" s="20" t="n"/>
       <c r="O664" s="20" t="n"/>
@@ -31457,17 +35165,54 @@
       <c r="Q664" s="20" t="n"/>
     </row>
     <row r="665">
-      <c r="A665" s="18" t="n"/>
-      <c r="B665" s="18" t="n"/>
-      <c r="C665" s="18" t="n"/>
-      <c r="D665" s="18" t="n"/>
+      <c r="A665" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B665" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C665" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D665" s="18" t="inlineStr">
+        <is>
+          <t>SAP 애플리케이션 및 DBMS 계층에 사용되는 VM에서 Azure 가속 네트워킹이 사용하도록 설정되어 있는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E665" s="18" t="n"/>
-      <c r="F665" s="18" t="n"/>
+      <c r="F665" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H665" s="18" t="n"/>
-      <c r="I665" s="13" t="n"/>
-      <c r="J665" s="13" t="n"/>
+      <c r="I665" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J665" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K665" s="19" t="n"/>
-      <c r="L665" s="19" t="n"/>
+      <c r="L665" s="19" t="inlineStr">
+        <is>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+        </is>
+      </c>
       <c r="M665" s="20" t="n"/>
       <c r="N665" s="20" t="n"/>
       <c r="O665" s="20" t="n"/>
@@ -31475,17 +35220,54 @@
       <c r="Q665" s="20" t="n"/>
     </row>
     <row r="666">
-      <c r="A666" s="18" t="n"/>
-      <c r="B666" s="18" t="n"/>
-      <c r="C666" s="18" t="n"/>
-      <c r="D666" s="18" t="n"/>
+      <c r="A666" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B666" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C666" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D666" s="18" t="inlineStr">
+        <is>
+          <t>Azure Load Balancer에 대한 내부 배포가 DSR(Direct Server Return)을 사용하도록 설정되어 있는지 확인합니다. 이 설정은 내부 부하 분산 장치 구성이 DBMS 계층의 고가용성 구성에 사용될 때 대기 시간을 줄입니다.</t>
+        </is>
+      </c>
       <c r="E666" s="18" t="n"/>
-      <c r="F666" s="18" t="n"/>
+      <c r="F666" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H666" s="18" t="n"/>
-      <c r="I666" s="13" t="n"/>
-      <c r="J666" s="13" t="n"/>
+      <c r="I666" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J666" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/ja-jp/training/modules/load-balancing-non-https-traffic-azure/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K666" s="19" t="n"/>
-      <c r="L666" s="19" t="n"/>
+      <c r="L666" s="19" t="inlineStr">
+        <is>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+        </is>
+      </c>
       <c r="M666" s="20" t="n"/>
       <c r="N666" s="20" t="n"/>
       <c r="O666" s="20" t="n"/>
@@ -31493,17 +35275,54 @@
       <c r="Q666" s="20" t="n"/>
     </row>
     <row r="667">
-      <c r="A667" s="18" t="n"/>
-      <c r="B667" s="18" t="n"/>
-      <c r="C667" s="18" t="n"/>
-      <c r="D667" s="18" t="n"/>
+      <c r="A667" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B667" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C667" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D667" s="18" t="inlineStr">
+        <is>
+          <t>ASG(애플리케이션 보안 그룹) 및 NSG 규칙을 사용하여 SAP 애플리케이션과 DBMS 계층 간에 네트워크 보안 액세스 제어 목록을 정의할 수 있습니다. ASG는 보안을 관리하는 데 도움이 되도록 가상 머신을 그룹화합니다.</t>
+        </is>
+      </c>
       <c r="E667" s="18" t="n"/>
-      <c r="F667" s="18" t="n"/>
+      <c r="F667" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H667" s="18" t="n"/>
-      <c r="I667" s="13" t="n"/>
-      <c r="J667" s="13" t="n"/>
+      <c r="I667" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J667" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K667" s="19" t="n"/>
-      <c r="L667" s="19" t="n"/>
+      <c r="L667" s="19" t="inlineStr">
+        <is>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+        </is>
+      </c>
       <c r="M667" s="20" t="n"/>
       <c r="N667" s="20" t="n"/>
       <c r="O667" s="20" t="n"/>
@@ -31511,17 +35330,54 @@
       <c r="Q667" s="20" t="n"/>
     </row>
     <row r="668">
-      <c r="A668" s="18" t="n"/>
-      <c r="B668" s="18" t="n"/>
-      <c r="C668" s="18" t="n"/>
-      <c r="D668" s="18" t="n"/>
+      <c r="A668" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B668" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C668" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D668" s="18" t="inlineStr">
+        <is>
+          <t>피어링되지 않은 다른 Azure VNet에 SAP 애플리케이션 계층 및 SAP DBMS를 배치하는 것은 지원되지 않습니다.</t>
+        </is>
+      </c>
       <c r="E668" s="18" t="n"/>
-      <c r="F668" s="18" t="n"/>
+      <c r="F668" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H668" s="18" t="n"/>
-      <c r="I668" s="13" t="n"/>
-      <c r="J668" s="13" t="n"/>
+      <c r="I668" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J668" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="K668" s="19" t="n"/>
-      <c r="L668" s="19" t="n"/>
+      <c r="L668" s="19" t="inlineStr">
+        <is>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+        </is>
+      </c>
       <c r="M668" s="20" t="n"/>
       <c r="N668" s="20" t="n"/>
       <c r="O668" s="20" t="n"/>
@@ -31529,17 +35385,54 @@
       <c r="Q668" s="20" t="n"/>
     </row>
     <row r="669">
-      <c r="A669" s="18" t="n"/>
-      <c r="B669" s="18" t="n"/>
-      <c r="C669" s="18" t="n"/>
-      <c r="D669" s="18" t="n"/>
+      <c r="A669" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B669" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C669" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D669" s="18" t="inlineStr">
+        <is>
+          <t>SAP 애플리케이션에서 네트워크 대기 시간을 최적화하려면 Azure 근접 배치 그룹을 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E669" s="18" t="n"/>
-      <c r="F669" s="18" t="n"/>
+      <c r="F669" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H669" s="18" t="n"/>
-      <c r="I669" s="13" t="n"/>
-      <c r="J669" s="13" t="n"/>
+      <c r="I669" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J669" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-machines/co-location#planned-maintenance-and-proximity-placement-groups</t>
+        </is>
+      </c>
       <c r="K669" s="19" t="n"/>
-      <c r="L669" s="19" t="n"/>
+      <c r="L669" s="19" t="inlineStr">
+        <is>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+        </is>
+      </c>
       <c r="M669" s="20" t="n"/>
       <c r="N669" s="20" t="n"/>
       <c r="O669" s="20" t="n"/>
@@ -31547,17 +35440,54 @@
       <c r="Q669" s="20" t="n"/>
     </row>
     <row r="670">
-      <c r="A670" s="18" t="n"/>
-      <c r="B670" s="18" t="n"/>
-      <c r="C670" s="18" t="n"/>
-      <c r="D670" s="18" t="n"/>
+      <c r="A670" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B670" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C670" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D670" s="18" t="inlineStr">
+        <is>
+          <t>온-프레미스와 Azure 간에 분할된 SAP 애플리케이션 서버 계층 및 DBMS 계층을 실행하는 것은 전혀 지원되지 않습니다. 두 계층 모두 온-프레미스 또는 Azure에 완전히 상주해야 합니다.</t>
+        </is>
+      </c>
       <c r="E670" s="18" t="n"/>
-      <c r="F670" s="18" t="n"/>
+      <c r="F670" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H670" s="18" t="n"/>
-      <c r="I670" s="13" t="n"/>
-      <c r="J670" s="13" t="n"/>
+      <c r="I670" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J670" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="K670" s="19" t="n"/>
-      <c r="L670" s="19" t="n"/>
+      <c r="L670" s="19" t="inlineStr">
+        <is>
+          <t>18c8b61c-855a-4405-b6ed-266455e4f4ce</t>
+        </is>
+      </c>
       <c r="M670" s="20" t="n"/>
       <c r="N670" s="20" t="n"/>
       <c r="O670" s="20" t="n"/>
@@ -31565,17 +35495,54 @@
       <c r="Q670" s="20" t="n"/>
     </row>
     <row r="671">
-      <c r="A671" s="18" t="n"/>
-      <c r="B671" s="18" t="n"/>
-      <c r="C671" s="18" t="n"/>
-      <c r="D671" s="18" t="n"/>
+      <c r="A671" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B671" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C671" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D671" s="18" t="inlineStr">
+        <is>
+          <t>계층 간의 과도한 네트워크 트래픽으로 인해 발생할 수 있는 상당한 비용 때문에 다른 VNet에서 SAP 시스템의 DBMS(데이터베이스 관리 시스템) 및 애플리케이션 계층을 호스트하고 VNet 피어링과 연결하는 것은 권장되지 않습니다. Azure 가상 네트워크 내에서 서브넷을 사용하여 SAP 애플리케이션 계층과 DBMS 계층을 분리하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E671" s="18" t="n"/>
-      <c r="F671" s="18" t="n"/>
+      <c r="F671" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H671" s="18" t="n"/>
-      <c r="I671" s="13" t="n"/>
-      <c r="J671" s="13" t="n"/>
+      <c r="I671" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J671" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/eslz-network-topology-and-connectivity</t>
+        </is>
+      </c>
       <c r="K671" s="19" t="n"/>
-      <c r="L671" s="19" t="n"/>
+      <c r="L671" s="19" t="inlineStr">
+        <is>
+          <t>b65c878b-4b14-4f4e-92d8-d873936493f2</t>
+        </is>
+      </c>
       <c r="M671" s="20" t="n"/>
       <c r="N671" s="20" t="n"/>
       <c r="O671" s="20" t="n"/>
@@ -31583,17 +35550,54 @@
       <c r="Q671" s="20" t="n"/>
     </row>
     <row r="672">
-      <c r="A672" s="18" t="n"/>
-      <c r="B672" s="18" t="n"/>
-      <c r="C672" s="18" t="n"/>
-      <c r="D672" s="18" t="n"/>
+      <c r="A672" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B672" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C672" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D672" s="18" t="inlineStr">
+        <is>
+          <t>Linux 게스트 운영 체제에서 Load Balancer를 사용하는 경우 Linux 네트워크 매개 변수 net.ipv4.tcp_timestamps가 0으로 설정되어 있는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E672" s="18" t="n"/>
-      <c r="F672" s="18" t="n"/>
+      <c r="F672" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H672" s="18" t="n"/>
-      <c r="I672" s="13" t="n"/>
-      <c r="J672" s="13" t="n"/>
+      <c r="I672" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J672" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-ha-sap-netweaver-anydb/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K672" s="19" t="n"/>
-      <c r="L672" s="19" t="n"/>
+      <c r="L672" s="19" t="inlineStr">
+        <is>
+          <t>402a9846-d515-4061-aff8-cd30088693fa</t>
+        </is>
+      </c>
       <c r="M672" s="20" t="n"/>
       <c r="N672" s="20" t="n"/>
       <c r="O672" s="20" t="n"/>
@@ -31601,17 +35605,50 @@
       <c r="Q672" s="20" t="n"/>
     </row>
     <row r="673">
-      <c r="A673" s="18" t="n"/>
-      <c r="B673" s="18" t="n"/>
-      <c r="C673" s="18" t="n"/>
-      <c r="D673" s="18" t="n"/>
+      <c r="A673" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B673" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C673" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D673" s="18" t="inlineStr">
+        <is>
+          <t>SAP RISE/ECS 배포의 경우 가상 피어링은 고객의 기존 Azure 환경과의 연결을 설정하는 기본 방법입니다. SAP vnet과 고객 vnet은 모두 NSG(네트워크 보안 그룹)로 보호되므로 vnet 피어링을 통해 SAP 및 데이터베이스 포트에서 통신할 수 있습니다</t>
+        </is>
+      </c>
       <c r="E673" s="18" t="n"/>
-      <c r="F673" s="18" t="n"/>
+      <c r="F673" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H673" s="18" t="n"/>
-      <c r="I673" s="13" t="n"/>
+      <c r="I673" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J673" s="13" t="n"/>
       <c r="K673" s="19" t="n"/>
-      <c r="L673" s="19" t="n"/>
+      <c r="L673" s="19" t="inlineStr">
+        <is>
+          <t>87585797-5551-4d53-bb7d-a94ee415734d</t>
+        </is>
+      </c>
       <c r="M673" s="20" t="n"/>
       <c r="N673" s="20" t="n"/>
       <c r="O673" s="20" t="n"/>
@@ -31619,17 +35656,50 @@
       <c r="Q673" s="20" t="n"/>
     </row>
     <row r="674">
-      <c r="A674" s="18" t="n"/>
-      <c r="B674" s="18" t="n"/>
-      <c r="C674" s="18" t="n"/>
-      <c r="D674" s="18" t="n"/>
+      <c r="A674" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B674" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C674" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D674" s="18" t="inlineStr">
+        <is>
+          <t>Azure VM에 대한 SAP HANA 데이터베이스 백업을 검토합니다.</t>
+        </is>
+      </c>
       <c r="E674" s="18" t="n"/>
-      <c r="F674" s="18" t="n"/>
+      <c r="F674" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H674" s="18" t="n"/>
-      <c r="I674" s="13" t="n"/>
+      <c r="I674" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J674" s="13" t="n"/>
       <c r="K674" s="19" t="n"/>
-      <c r="L674" s="19" t="n"/>
+      <c r="L674" s="19" t="inlineStr">
+        <is>
+          <t>ff5136bd-dcf1-4d2b-ae52-39333efdf45a</t>
+        </is>
+      </c>
       <c r="M674" s="20" t="n"/>
       <c r="N674" s="20" t="n"/>
       <c r="O674" s="20" t="n"/>
@@ -31637,17 +35707,50 @@
       <c r="Q674" s="20" t="n"/>
     </row>
     <row r="675">
-      <c r="A675" s="18" t="n"/>
-      <c r="B675" s="18" t="n"/>
-      <c r="C675" s="18" t="n"/>
-      <c r="D675" s="18" t="n"/>
+      <c r="A675" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B675" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C675" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D675" s="18" t="inlineStr">
+        <is>
+          <t>SAP에 사용되는 Site Recovery 기본 제공 모니터링을 검토합니다.</t>
+        </is>
+      </c>
       <c r="E675" s="18" t="n"/>
-      <c r="F675" s="18" t="n"/>
+      <c r="F675" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H675" s="18" t="n"/>
-      <c r="I675" s="13" t="n"/>
+      <c r="I675" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J675" s="13" t="n"/>
       <c r="K675" s="19" t="n"/>
-      <c r="L675" s="19" t="n"/>
+      <c r="L675" s="19" t="inlineStr">
+        <is>
+          <t>cafde29d-a0af-4bcd-87c0-0f299d63f0e8</t>
+        </is>
+      </c>
       <c r="M675" s="20" t="n"/>
       <c r="N675" s="20" t="n"/>
       <c r="O675" s="20" t="n"/>
@@ -31655,17 +35758,50 @@
       <c r="Q675" s="20" t="n"/>
     </row>
     <row r="676">
-      <c r="A676" s="18" t="n"/>
-      <c r="B676" s="18" t="n"/>
-      <c r="C676" s="18" t="n"/>
-      <c r="D676" s="18" t="n"/>
+      <c r="A676" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B676" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C676" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D676" s="18" t="inlineStr">
+        <is>
+          <t>SAP HANA 시스템 환경 모니터링 지침을 검토합니다.</t>
+        </is>
+      </c>
       <c r="E676" s="18" t="n"/>
-      <c r="F676" s="18" t="n"/>
+      <c r="F676" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H676" s="18" t="n"/>
-      <c r="I676" s="13" t="n"/>
+      <c r="I676" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J676" s="13" t="n"/>
       <c r="K676" s="19" t="n"/>
-      <c r="L676" s="19" t="n"/>
+      <c r="L676" s="19" t="inlineStr">
+        <is>
+          <t>82d7b8de-d3f1-44a0-830b-38e200e82acf</t>
+        </is>
+      </c>
       <c r="M676" s="20" t="n"/>
       <c r="N676" s="20" t="n"/>
       <c r="O676" s="20" t="n"/>
@@ -31673,17 +35809,50 @@
       <c r="Q676" s="20" t="n"/>
     </row>
     <row r="677">
-      <c r="A677" s="18" t="n"/>
-      <c r="B677" s="18" t="n"/>
-      <c r="C677" s="18" t="n"/>
-      <c r="D677" s="18" t="n"/>
+      <c r="A677" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B677" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C677" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D677" s="18" t="inlineStr">
+        <is>
+          <t>Azure Linux VM 백업 전략에서 Oracle Database를 검토합니다.</t>
+        </is>
+      </c>
       <c r="E677" s="18" t="n"/>
-      <c r="F677" s="18" t="n"/>
+      <c r="F677" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H677" s="18" t="n"/>
-      <c r="I677" s="13" t="n"/>
+      <c r="I677" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J677" s="13" t="n"/>
       <c r="K677" s="19" t="n"/>
-      <c r="L677" s="19" t="n"/>
+      <c r="L677" s="19" t="inlineStr">
+        <is>
+          <t>c823873a-2bec-4c2a-b684-a1ce8ae80efd</t>
+        </is>
+      </c>
       <c r="M677" s="20" t="n"/>
       <c r="N677" s="20" t="n"/>
       <c r="O677" s="20" t="n"/>
@@ -31691,17 +35860,50 @@
       <c r="Q677" s="20" t="n"/>
     </row>
     <row r="678">
-      <c r="A678" s="18" t="n"/>
-      <c r="B678" s="18" t="n"/>
-      <c r="C678" s="18" t="n"/>
-      <c r="D678" s="18" t="n"/>
+      <c r="A678" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B678" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C678" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D678" s="18" t="inlineStr">
+        <is>
+          <t>SQL Server 2016에서 Azure Blob Storage 사용을 검토합니다.</t>
+        </is>
+      </c>
       <c r="E678" s="18" t="n"/>
-      <c r="F678" s="18" t="n"/>
+      <c r="F678" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H678" s="18" t="n"/>
-      <c r="I678" s="13" t="n"/>
+      <c r="I678" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J678" s="13" t="n"/>
       <c r="K678" s="19" t="n"/>
-      <c r="L678" s="19" t="n"/>
+      <c r="L678" s="19" t="inlineStr">
+        <is>
+          <t>2943b6d8-1d31-4e19-ade7-78e6b26d1962</t>
+        </is>
+      </c>
       <c r="M678" s="20" t="n"/>
       <c r="N678" s="20" t="n"/>
       <c r="O678" s="20" t="n"/>
@@ -31709,17 +35911,50 @@
       <c r="Q678" s="20" t="n"/>
     </row>
     <row r="679">
-      <c r="A679" s="18" t="n"/>
-      <c r="B679" s="18" t="n"/>
-      <c r="C679" s="18" t="n"/>
-      <c r="D679" s="18" t="n"/>
+      <c r="A679" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B679" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C679" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D679" s="18" t="inlineStr">
+        <is>
+          <t>Azure VM에 대한 자동화된 Backup v2 사용을 검토합니다.</t>
+        </is>
+      </c>
       <c r="E679" s="18" t="n"/>
-      <c r="F679" s="18" t="n"/>
+      <c r="F679" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H679" s="18" t="n"/>
-      <c r="I679" s="13" t="n"/>
+      <c r="I679" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J679" s="13" t="n"/>
       <c r="K679" s="19" t="n"/>
-      <c r="L679" s="19" t="n"/>
+      <c r="L679" s="19" t="inlineStr">
+        <is>
+          <t>b82e650f-676d-417d-994d-fc33ca54ec14</t>
+        </is>
+      </c>
       <c r="M679" s="20" t="n"/>
       <c r="N679" s="20" t="n"/>
       <c r="O679" s="20" t="n"/>
@@ -31727,17 +35962,46 @@
       <c r="Q679" s="20" t="n"/>
     </row>
     <row r="680">
-      <c r="A680" s="18" t="n"/>
-      <c r="B680" s="18" t="n"/>
-      <c r="C680" s="18" t="n"/>
-      <c r="D680" s="18" t="n"/>
+      <c r="A680" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B680" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C680" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D680" s="18" t="inlineStr">
+        <is>
+          <t>프리미엄 디스크(V1)를 사용할 때 M 시리즈에 쓰기 가속기 사용Enabling Write accelerator for M series when using premium disks(V1)</t>
+        </is>
+      </c>
       <c r="E680" s="18" t="n"/>
-      <c r="F680" s="18" t="n"/>
+      <c r="F680" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H680" s="18" t="n"/>
       <c r="I680" s="13" t="n"/>
       <c r="J680" s="13" t="n"/>
       <c r="K680" s="19" t="n"/>
-      <c r="L680" s="19" t="n"/>
+      <c r="L680" s="19" t="inlineStr">
+        <is>
+          <t>347c2dcc-e6eb-4b04-80c5-628b171aa62d</t>
+        </is>
+      </c>
       <c r="M680" s="20" t="n"/>
       <c r="N680" s="20" t="n"/>
       <c r="O680" s="20" t="n"/>
@@ -31745,17 +36009,50 @@
       <c r="Q680" s="20" t="n"/>
     </row>
     <row r="681">
-      <c r="A681" s="18" t="n"/>
-      <c r="B681" s="18" t="n"/>
-      <c r="C681" s="18" t="n"/>
-      <c r="D681" s="18" t="n"/>
+      <c r="A681" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B681" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C681" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D681" s="18" t="inlineStr">
+        <is>
+          <t>가용성 영역 대기 시간을 테스트합니다.</t>
+        </is>
+      </c>
       <c r="E681" s="18" t="n"/>
-      <c r="F681" s="18" t="n"/>
+      <c r="F681" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H681" s="18" t="n"/>
-      <c r="I681" s="13" t="n"/>
+      <c r="I681" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J681" s="13" t="n"/>
       <c r="K681" s="19" t="n"/>
-      <c r="L681" s="19" t="n"/>
+      <c r="L681" s="19" t="inlineStr">
+        <is>
+          <t>b96512cf-996f-4b17-b9b8-6b16db1a2a94</t>
+        </is>
+      </c>
       <c r="M681" s="20" t="n"/>
       <c r="N681" s="20" t="n"/>
       <c r="O681" s="20" t="n"/>
@@ -31763,17 +36060,54 @@
       <c r="Q681" s="20" t="n"/>
     </row>
     <row r="682">
-      <c r="A682" s="18" t="n"/>
-      <c r="B682" s="18" t="n"/>
-      <c r="C682" s="18" t="n"/>
-      <c r="D682" s="18" t="n"/>
+      <c r="A682" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B682" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C682" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D682" s="18" t="inlineStr">
+        <is>
+          <t>모든 SAP 구성 요소에 대해 SAP EarlyWatch Alert를 활성화합니다.</t>
+        </is>
+      </c>
       <c r="E682" s="18" t="n"/>
-      <c r="F682" s="18" t="n"/>
+      <c r="F682" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H682" s="18" t="n"/>
-      <c r="I682" s="13" t="n"/>
-      <c r="J682" s="13" t="n"/>
+      <c r="I682" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J682" s="31" t="inlineStr">
+        <is>
+          <t>https://help.sap.com/docs/SUPPORT_CONTENT/techops/3362700736.html</t>
+        </is>
+      </c>
       <c r="K682" s="19" t="n"/>
-      <c r="L682" s="19" t="n"/>
+      <c r="L682" s="19" t="inlineStr">
+        <is>
+          <t>9fd7ffd4-da11-49f6-a374-8d03e94c511d</t>
+        </is>
+      </c>
       <c r="M682" s="20" t="n"/>
       <c r="N682" s="20" t="n"/>
       <c r="O682" s="20" t="n"/>
@@ -31781,17 +36115,54 @@
       <c r="Q682" s="20" t="n"/>
     </row>
     <row r="683">
-      <c r="A683" s="18" t="n"/>
-      <c r="B683" s="18" t="n"/>
-      <c r="C683" s="18" t="n"/>
-      <c r="D683" s="18" t="n"/>
+      <c r="A683" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B683" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C683" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D683" s="18" t="inlineStr">
+        <is>
+          <t>SAP ABAPMeter 보고서 /SSA/CAT를 사용하여 SAP 애플리케이션 서버-데이터베이스 서버 대기 시간을 검토합니다.</t>
+        </is>
+      </c>
       <c r="E683" s="18" t="n"/>
-      <c r="F683" s="18" t="n"/>
+      <c r="F683" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H683" s="18" t="n"/>
-      <c r="I683" s="13" t="n"/>
-      <c r="J683" s="13" t="n"/>
+      <c r="I683" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J683" s="31" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/0002879613</t>
+        </is>
+      </c>
       <c r="K683" s="19" t="n"/>
-      <c r="L683" s="19" t="n"/>
+      <c r="L683" s="19" t="inlineStr">
+        <is>
+          <t>b9b140cf-413a-483d-aad2-8802c4e3c017</t>
+        </is>
+      </c>
       <c r="M683" s="20" t="n"/>
       <c r="N683" s="20" t="n"/>
       <c r="O683" s="20" t="n"/>
@@ -31799,17 +36170,46 @@
       <c r="Q683" s="20" t="n"/>
     </row>
     <row r="684">
-      <c r="A684" s="18" t="n"/>
-      <c r="B684" s="18" t="n"/>
-      <c r="C684" s="18" t="n"/>
-      <c r="D684" s="18" t="n"/>
+      <c r="A684" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B684" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C684" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D684" s="18" t="inlineStr">
+        <is>
+          <t>CCMS를 사용하여 SQL Server 성능 모니터링을 검토합니다.</t>
+        </is>
+      </c>
       <c r="E684" s="18" t="n"/>
-      <c r="F684" s="18" t="n"/>
+      <c r="F684" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H684" s="18" t="n"/>
       <c r="I684" s="13" t="n"/>
       <c r="J684" s="13" t="n"/>
       <c r="K684" s="19" t="n"/>
-      <c r="L684" s="19" t="n"/>
+      <c r="L684" s="19" t="inlineStr">
+        <is>
+          <t>62fbf0f8-51db-49e1-a961-bb5df7a35f80</t>
+        </is>
+      </c>
       <c r="M684" s="20" t="n"/>
       <c r="N684" s="20" t="n"/>
       <c r="O684" s="20" t="n"/>
@@ -31817,17 +36217,54 @@
       <c r="Q684" s="20" t="n"/>
     </row>
     <row r="685">
-      <c r="A685" s="18" t="n"/>
-      <c r="B685" s="18" t="n"/>
-      <c r="C685" s="18" t="n"/>
-      <c r="D685" s="18" t="n"/>
+      <c r="A685" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B685" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C685" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D685" s="18" t="inlineStr">
+        <is>
+          <t>SAP 애플리케이션 계층 VM과 DBMS VM(NIPING) 간의 네트워크 대기 시간을 테스트합니다.</t>
+        </is>
+      </c>
       <c r="E685" s="18" t="n"/>
-      <c r="F685" s="18" t="n"/>
+      <c r="F685" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H685" s="18" t="n"/>
-      <c r="I685" s="13" t="n"/>
-      <c r="J685" s="13" t="n"/>
+      <c r="I685" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J685" s="31" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/1100926/E</t>
+        </is>
+      </c>
       <c r="K685" s="19" t="n"/>
-      <c r="L685" s="19" t="n"/>
+      <c r="L685" s="19" t="inlineStr">
+        <is>
+          <t>35709da7-fc7d-4efe-bb20-2e91547b7390</t>
+        </is>
+      </c>
       <c r="M685" s="20" t="n"/>
       <c r="N685" s="20" t="n"/>
       <c r="O685" s="20" t="n"/>
@@ -31835,17 +36272,50 @@
       <c r="Q685" s="20" t="n"/>
     </row>
     <row r="686">
-      <c r="A686" s="18" t="n"/>
-      <c r="B686" s="18" t="n"/>
-      <c r="C686" s="18" t="n"/>
-      <c r="D686" s="18" t="n"/>
+      <c r="A686" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B686" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C686" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D686" s="18" t="inlineStr">
+        <is>
+          <t>SAP HANA Studio 경고를 검토합니다.</t>
+        </is>
+      </c>
       <c r="E686" s="18" t="n"/>
-      <c r="F686" s="18" t="n"/>
+      <c r="F686" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H686" s="18" t="n"/>
-      <c r="I686" s="13" t="n"/>
+      <c r="I686" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J686" s="13" t="n"/>
       <c r="K686" s="19" t="n"/>
-      <c r="L686" s="19" t="n"/>
+      <c r="L686" s="19" t="inlineStr">
+        <is>
+          <t>9e9bb4c8-e934-4e4b-a13c-6f7c7c38eb43</t>
+        </is>
+      </c>
       <c r="M686" s="20" t="n"/>
       <c r="N686" s="20" t="n"/>
       <c r="O686" s="20" t="n"/>
@@ -31853,17 +36323,50 @@
       <c r="Q686" s="20" t="n"/>
     </row>
     <row r="687">
-      <c r="A687" s="18" t="n"/>
-      <c r="B687" s="18" t="n"/>
-      <c r="C687" s="18" t="n"/>
-      <c r="D687" s="18" t="n"/>
+      <c r="A687" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B687" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C687" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D687" s="18" t="inlineStr">
+        <is>
+          <t>HANA_Configuration_Minichecks를 사용하여 SAP HANA 상태 검사를 수행합니다.</t>
+        </is>
+      </c>
       <c r="E687" s="18" t="n"/>
-      <c r="F687" s="18" t="n"/>
+      <c r="F687" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H687" s="18" t="n"/>
-      <c r="I687" s="13" t="n"/>
+      <c r="I687" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J687" s="13" t="n"/>
       <c r="K687" s="19" t="n"/>
-      <c r="L687" s="19" t="n"/>
+      <c r="L687" s="19" t="inlineStr">
+        <is>
+          <t>f1a92ab5-9509-4b57-86ff-b0ade361b694</t>
+        </is>
+      </c>
       <c r="M687" s="20" t="n"/>
       <c r="N687" s="20" t="n"/>
       <c r="O687" s="20" t="n"/>
@@ -31871,17 +36374,54 @@
       <c r="Q687" s="20" t="n"/>
     </row>
     <row r="688">
-      <c r="A688" s="18" t="n"/>
-      <c r="B688" s="18" t="n"/>
-      <c r="C688" s="18" t="n"/>
-      <c r="D688" s="18" t="n"/>
+      <c r="A688" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B688" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C688" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D688" s="18" t="inlineStr">
+        <is>
+          <t>Azure, 온-프레미스 또는 기타 클라우드 환경에서 Windows 및 Linux VM을 실행하는 경우 Azure Automation의 업데이트 관리 센터를 사용하여 보안 패치를 포함한 운영 체제 업데이트를 관리할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E688" s="18" t="n"/>
-      <c r="F688" s="18" t="n"/>
+      <c r="F688" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H688" s="18" t="n"/>
-      <c r="I688" s="13" t="n"/>
-      <c r="J688" s="13" t="n"/>
+      <c r="I688" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J688" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
       <c r="K688" s="19" t="n"/>
-      <c r="L688" s="19" t="n"/>
+      <c r="L688" s="19" t="inlineStr">
+        <is>
+          <t>18dffcf3-248c-4039-a67c-dec8e3a5f804</t>
+        </is>
+      </c>
       <c r="M688" s="20" t="n"/>
       <c r="N688" s="20" t="n"/>
       <c r="O688" s="20" t="n"/>
@@ -31889,17 +36429,54 @@
       <c r="Q688" s="20" t="n"/>
     </row>
     <row r="689">
-      <c r="A689" s="18" t="n"/>
-      <c r="B689" s="18" t="n"/>
-      <c r="C689" s="18" t="n"/>
-      <c r="D689" s="18" t="n"/>
+      <c r="A689" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B689" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C689" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D689" s="18" t="inlineStr">
+        <is>
+          <t>SAP는 SAP 시스템을 보호하기 위해 즉각적인 조치가 필요한 매우 중요한 보안 패치 또는 핫픽스를 릴리스하므로 SAP 보안 OSS 노트를 정기적으로 검토합니다.</t>
+        </is>
+      </c>
       <c r="E689" s="18" t="n"/>
-      <c r="F689" s="18" t="n"/>
+      <c r="F689" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H689" s="18" t="n"/>
-      <c r="I689" s="13" t="n"/>
-      <c r="J689" s="13" t="n"/>
+      <c r="I689" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J689" s="31" t="inlineStr">
+        <is>
+          <t>https://support.sap.com/en/my-support/knowledge-base/security-notes-news.html</t>
+        </is>
+      </c>
       <c r="K689" s="19" t="n"/>
-      <c r="L689" s="19" t="n"/>
+      <c r="L689" s="19" t="inlineStr">
+        <is>
+          <t>08951710-79a2-492a-adbc-06d7a401545b</t>
+        </is>
+      </c>
       <c r="M689" s="20" t="n"/>
       <c r="N689" s="20" t="n"/>
       <c r="O689" s="20" t="n"/>
@@ -31907,17 +36484,50 @@
       <c r="Q689" s="20" t="n"/>
     </row>
     <row r="690">
-      <c r="A690" s="18" t="n"/>
-      <c r="B690" s="18" t="n"/>
-      <c r="C690" s="18" t="n"/>
-      <c r="D690" s="18" t="n"/>
+      <c r="A690" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B690" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C690" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D690" s="18" t="inlineStr">
+        <is>
+          <t>SQL Server SAP의 경우 SQL Server SAP 시스템에서 계정을 사용하지 않으므로 SQL Server 시스템 관리자 계정을 사용하지 않도록 설정할 수 있습니다. 원래 시스템 관리자 계정을 비활성화하기 전에 시스템 관리자 권한이 있는 다른 사용자가 서버에 액세스할 수 있는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E690" s="18" t="n"/>
-      <c r="F690" s="18" t="n"/>
+      <c r="F690" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H690" s="18" t="n"/>
-      <c r="I690" s="13" t="n"/>
+      <c r="I690" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J690" s="13" t="n"/>
       <c r="K690" s="19" t="n"/>
-      <c r="L690" s="19" t="n"/>
+      <c r="L690" s="19" t="inlineStr">
+        <is>
+          <t>1b8b394e-ae64-4a74-8933-357b523ea0a0</t>
+        </is>
+      </c>
       <c r="M690" s="20" t="n"/>
       <c r="N690" s="20" t="n"/>
       <c r="O690" s="20" t="n"/>
@@ -31925,17 +36535,54 @@
       <c r="Q690" s="20" t="n"/>
     </row>
     <row r="691">
-      <c r="A691" s="18" t="n"/>
-      <c r="B691" s="18" t="n"/>
-      <c r="C691" s="18" t="n"/>
-      <c r="D691" s="18" t="n"/>
+      <c r="A691" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B691" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C691" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D691" s="18" t="inlineStr">
+        <is>
+          <t>xp_cmdshell 비활성화합니다. SQL Server 기능 xp_cmdshell SQL Server 내부 운영 체제 명령 셸을 사용할 수 있습니다. 이는 보안 감사에서 발생할 수 있는 잠재적 위험입니다.</t>
+        </is>
+      </c>
       <c r="E691" s="18" t="n"/>
-      <c r="F691" s="18" t="n"/>
+      <c r="F691" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H691" s="18" t="n"/>
-      <c r="I691" s="13" t="n"/>
-      <c r="J691" s="13" t="n"/>
+      <c r="I691" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J691" s="31" t="inlineStr">
+        <is>
+          <t>https://me.sap.com/notes/3019299/E</t>
+        </is>
+      </c>
       <c r="K691" s="19" t="n"/>
-      <c r="L691" s="19" t="n"/>
+      <c r="L691" s="19" t="inlineStr">
+        <is>
+          <t>5a76a033-ced9-4eef-9a43-5e4f96634c8e</t>
+        </is>
+      </c>
       <c r="M691" s="20" t="n"/>
       <c r="N691" s="20" t="n"/>
       <c r="O691" s="20" t="n"/>
@@ -31943,17 +36590,54 @@
       <c r="Q691" s="20" t="n"/>
     </row>
     <row r="692">
-      <c r="A692" s="18" t="n"/>
-      <c r="B692" s="18" t="n"/>
-      <c r="C692" s="18" t="n"/>
-      <c r="D692" s="18" t="n"/>
+      <c r="A692" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B692" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C692" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D692" s="18" t="inlineStr">
+        <is>
+          <t>Azure에서 SAP HANA 데이터베이스 서버를 암호화하는 데는 SAP HANA 네이티브 암호화 기술이 사용됩니다. 또한 Azure에서 SQL Server를 사용하는 경우 TDE(투명한 데이터 암호화)를 사용하여 데이터 및 로그 파일을 보호하고 백업도 암호화되도록 합니다.</t>
+        </is>
+      </c>
       <c r="E692" s="18" t="n"/>
-      <c r="F692" s="18" t="n"/>
+      <c r="F692" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H692" s="18" t="n"/>
-      <c r="I692" s="13" t="n"/>
-      <c r="J692" s="13" t="n"/>
+      <c r="I692" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J692" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/sap/sap-lza-database-security</t>
+        </is>
+      </c>
       <c r="K692" s="19" t="n"/>
-      <c r="L692" s="19" t="n"/>
+      <c r="L692" s="19" t="inlineStr">
+        <is>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+        </is>
+      </c>
       <c r="M692" s="20" t="n"/>
       <c r="N692" s="20" t="n"/>
       <c r="O692" s="20" t="n"/>
@@ -31961,17 +36645,54 @@
       <c r="Q692" s="20" t="n"/>
     </row>
     <row r="693">
-      <c r="A693" s="18" t="n"/>
-      <c r="B693" s="18" t="n"/>
-      <c r="C693" s="18" t="n"/>
-      <c r="D693" s="18" t="n"/>
+      <c r="A693" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B693" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C693" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D693" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage 암호화는 모든 Azure Resource Manager 및 클래식 스토리지 계정에 대해 사용하도록 설정되며 사용하지 않도록 설정할 수 없습니다. 데이터는 기본적으로 암호화되므로 Azure Storage 암호화를 사용하기 위해 코드 또는 애플리케이션을 수정할 필요가 없습니다.</t>
+        </is>
+      </c>
       <c r="E693" s="18" t="n"/>
-      <c r="F693" s="18" t="n"/>
+      <c r="F693" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H693" s="18" t="n"/>
-      <c r="I693" s="13" t="n"/>
-      <c r="J693" s="13" t="n"/>
+      <c r="I693" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J693" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/encrypt-sector-data/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K693" s="19" t="n"/>
-      <c r="L693" s="19" t="n"/>
+      <c r="L693" s="19" t="inlineStr">
+        <is>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+        </is>
+      </c>
       <c r="M693" s="20" t="n"/>
       <c r="N693" s="20" t="n"/>
       <c r="O693" s="20" t="n"/>
@@ -31979,17 +36700,54 @@
       <c r="Q693" s="20" t="n"/>
     </row>
     <row r="694">
-      <c r="A694" s="18" t="n"/>
-      <c r="B694" s="18" t="n"/>
-      <c r="C694" s="18" t="n"/>
-      <c r="D694" s="18" t="n"/>
+      <c r="A694" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B694" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C694" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D694" s="18" t="inlineStr">
+        <is>
+          <t>Azure Key Vault를 사용하여 비밀 및 자격 증명 저장</t>
+        </is>
+      </c>
       <c r="E694" s="18" t="n"/>
-      <c r="F694" s="18" t="n"/>
+      <c r="F694" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H694" s="18" t="n"/>
-      <c r="I694" s="13" t="n"/>
-      <c r="J694" s="13" t="n"/>
+      <c r="I694" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J694" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K694" s="19" t="n"/>
-      <c r="L694" s="19" t="n"/>
+      <c r="L694" s="19" t="inlineStr">
+        <is>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+        </is>
+      </c>
       <c r="M694" s="20" t="n"/>
       <c r="N694" s="20" t="n"/>
       <c r="O694" s="20" t="n"/>
@@ -31997,17 +36755,54 @@
       <c r="Q694" s="20" t="n"/>
     </row>
     <row r="695">
-      <c r="A695" s="18" t="n"/>
-      <c r="B695" s="18" t="n"/>
-      <c r="C695" s="18" t="n"/>
-      <c r="D695" s="18" t="n"/>
+      <c r="A695" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B695" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C695" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D695" s="18" t="inlineStr">
+        <is>
+          <t>무단 변경으로부터 보호하기 위해 성공적인 배포 후 Azure 리소스를 잠그는 것이 좋습니다. 사용자 지정된 Azure 정책(Custome 역할)을 사용하여 구독별로 LOCK 제약 조건 및 규칙을 적용할 수도 있습니다.</t>
+        </is>
+      </c>
       <c r="E695" s="18" t="n"/>
-      <c r="F695" s="18" t="n"/>
+      <c r="F695" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H695" s="18" t="n"/>
-      <c r="I695" s="13" t="n"/>
-      <c r="J695" s="13" t="n"/>
+      <c r="I695" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J695" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/use-azure-resource-manager/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K695" s="19" t="n"/>
-      <c r="L695" s="19" t="n"/>
+      <c r="L695" s="19" t="inlineStr">
+        <is>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+        </is>
+      </c>
       <c r="M695" s="20" t="n"/>
       <c r="N695" s="20" t="n"/>
       <c r="O695" s="20" t="n"/>
@@ -32015,17 +36810,54 @@
       <c r="Q695" s="20" t="n"/>
     </row>
     <row r="696">
-      <c r="A696" s="18" t="n"/>
-      <c r="B696" s="18" t="n"/>
-      <c r="C696" s="18" t="n"/>
-      <c r="D696" s="18" t="n"/>
+      <c r="A696" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B696" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C696" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D696" s="18" t="inlineStr">
+        <is>
+          <t>삭제된 개체에 대한 보존 보호를 허용하기 위해 일시 삭제 및 제거 정책을 사용하도록 설정된 Azure Key Vault를 프로비전합니다.</t>
+        </is>
+      </c>
       <c r="E696" s="18" t="n"/>
-      <c r="F696" s="18" t="n"/>
+      <c r="F696" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H696" s="18" t="n"/>
-      <c r="I696" s="13" t="n"/>
-      <c r="J696" s="13" t="n"/>
+      <c r="I696" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J696" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K696" s="19" t="n"/>
-      <c r="L696" s="19" t="n"/>
+      <c r="L696" s="19" t="inlineStr">
+        <is>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+        </is>
+      </c>
       <c r="M696" s="20" t="n"/>
       <c r="N696" s="20" t="n"/>
       <c r="O696" s="20" t="n"/>
@@ -32033,17 +36865,54 @@
       <c r="Q696" s="20" t="n"/>
     </row>
     <row r="697">
-      <c r="A697" s="18" t="n"/>
-      <c r="B697" s="18" t="n"/>
-      <c r="C697" s="18" t="n"/>
-      <c r="D697" s="18" t="n"/>
+      <c r="A697" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B697" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C697" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D697" s="18" t="inlineStr">
+        <is>
+          <t>기존 요구 사항에 따라 규정 및 규정 준수 제어(내부/외부) - 필요한 Azure 정책 및 Azure RBAC 역할 결정</t>
+        </is>
+      </c>
       <c r="E697" s="18" t="n"/>
-      <c r="F697" s="18" t="n"/>
+      <c r="F697" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H697" s="18" t="n"/>
-      <c r="I697" s="13" t="n"/>
-      <c r="J697" s="13" t="n"/>
+      <c r="I697" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J697" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/describe-azure-management-governance/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K697" s="19" t="n"/>
-      <c r="L697" s="19" t="n"/>
+      <c r="L697" s="19" t="inlineStr">
+        <is>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+        </is>
+      </c>
       <c r="M697" s="20" t="n"/>
       <c r="N697" s="20" t="n"/>
       <c r="O697" s="20" t="n"/>
@@ -32051,17 +36920,54 @@
       <c r="Q697" s="20" t="n"/>
     </row>
     <row r="698">
-      <c r="A698" s="18" t="n"/>
-      <c r="B698" s="18" t="n"/>
-      <c r="C698" s="18" t="n"/>
-      <c r="D698" s="18" t="n"/>
+      <c r="A698" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B698" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C698" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D698" s="18" t="inlineStr">
+        <is>
+          <t>SAP 환경에서 엔드포인트용 Microsoft Defender 사용하도록 설정하는 경우 모든 서버를 대상으로 하는 대신 DBMS 서버에서 데이터 및 로그 파일을 제외하는 것이 좋습니다. 대상 파일을 제외할 때 DBMS 공급업체의 권장 사항을 따릅니다.</t>
+        </is>
+      </c>
       <c r="E698" s="18" t="n"/>
-      <c r="F698" s="18" t="n"/>
+      <c r="F698" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H698" s="18" t="n"/>
-      <c r="I698" s="13" t="n"/>
-      <c r="J698" s="13" t="n"/>
+      <c r="I698" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J698" s="31" t="inlineStr">
+        <is>
+          <t>https://techcommunity.microsoft.com/t5/running-sap-applications-on-the/microsoft-defender-endpoint-mde-for-sap-applications-on-windows/ba-p/3912268</t>
+        </is>
+      </c>
       <c r="K698" s="19" t="n"/>
-      <c r="L698" s="19" t="n"/>
+      <c r="L698" s="19" t="inlineStr">
+        <is>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+        </is>
+      </c>
       <c r="M698" s="20" t="n"/>
       <c r="N698" s="20" t="n"/>
       <c r="O698" s="20" t="n"/>
@@ -32069,17 +36975,54 @@
       <c r="Q698" s="20" t="n"/>
     </row>
     <row r="699">
-      <c r="A699" s="18" t="n"/>
-      <c r="B699" s="18" t="n"/>
-      <c r="C699" s="18" t="n"/>
-      <c r="D699" s="18" t="n"/>
+      <c r="A699" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B699" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C699" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D699" s="18" t="inlineStr">
+        <is>
+          <t>클라우드용 Microsoft Defender의 Just-In-Time 액세스 권한이 있는 SAP 관리자 사용자 지정 역할을 위임합니다.</t>
+        </is>
+      </c>
       <c r="E699" s="18" t="n"/>
-      <c r="F699" s="18" t="n"/>
+      <c r="F699" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H699" s="18" t="n"/>
-      <c r="I699" s="13" t="n"/>
-      <c r="J699" s="13" t="n"/>
+      <c r="I699" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J699" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-vms-with-azure-security-center/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K699" s="19" t="n"/>
-      <c r="L699" s="19" t="n"/>
+      <c r="L699" s="19" t="inlineStr">
+        <is>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+        </is>
+      </c>
       <c r="M699" s="20" t="n"/>
       <c r="N699" s="20" t="n"/>
       <c r="O699" s="20" t="n"/>
@@ -32087,17 +37030,54 @@
       <c r="Q699" s="20" t="n"/>
     </row>
     <row r="700">
-      <c r="A700" s="18" t="n"/>
-      <c r="B700" s="18" t="n"/>
-      <c r="C700" s="18" t="n"/>
-      <c r="D700" s="18" t="n"/>
+      <c r="A700" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B700" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C700" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D700" s="18" t="inlineStr">
+        <is>
+          <t>타사 보안 제품을 DIAG(SAP GUI)용 SNC(Secure Network Communications), RFC 및 HTTPS용 SPNEGO와 통합하여 전송 중인 데이터를 암호화합니다.</t>
+        </is>
+      </c>
       <c r="E700" s="18" t="n"/>
-      <c r="F700" s="18" t="n"/>
+      <c r="F700" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H700" s="18" t="n"/>
-      <c r="I700" s="13" t="n"/>
-      <c r="J700" s="13" t="n"/>
+      <c r="I700" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J700" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-overview#encryption-of-data-in-transit</t>
+        </is>
+      </c>
       <c r="K700" s="19" t="n"/>
-      <c r="L700" s="19" t="n"/>
+      <c r="L700" s="19" t="inlineStr">
+        <is>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+        </is>
+      </c>
       <c r="M700" s="20" t="n"/>
       <c r="N700" s="20" t="n"/>
       <c r="O700" s="20" t="n"/>
@@ -32105,17 +37085,54 @@
       <c r="Q700" s="20" t="n"/>
     </row>
     <row r="701">
-      <c r="A701" s="18" t="n"/>
-      <c r="B701" s="18" t="n"/>
-      <c r="C701" s="18" t="n"/>
-      <c r="D701" s="18" t="n"/>
+      <c r="A701" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B701" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C701" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D701" s="18" t="inlineStr">
+        <is>
+          <t>보안 주체 암호화 기능을 위해 기본적으로 Microsoft 관리형 키를 사용하고 필요한 경우 고객 관리형 키를 사용합니다.</t>
+        </is>
+      </c>
       <c r="E701" s="18" t="n"/>
-      <c r="F701" s="18" t="n"/>
+      <c r="F701" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H701" s="18" t="n"/>
-      <c r="I701" s="13" t="n"/>
-      <c r="J701" s="13" t="n"/>
+      <c r="I701" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J701" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K701" s="19" t="n"/>
-      <c r="L701" s="19" t="n"/>
+      <c r="L701" s="19" t="inlineStr">
+        <is>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+        </is>
+      </c>
       <c r="M701" s="20" t="n"/>
       <c r="N701" s="20" t="n"/>
       <c r="O701" s="20" t="n"/>
@@ -32123,17 +37140,54 @@
       <c r="Q701" s="20" t="n"/>
     </row>
     <row r="702">
-      <c r="A702" s="18" t="n"/>
-      <c r="B702" s="18" t="n"/>
-      <c r="C702" s="18" t="n"/>
-      <c r="D702" s="18" t="n"/>
+      <c r="A702" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B702" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C702" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D702" s="18" t="inlineStr">
+        <is>
+          <t>비 HANA Windows 및 비 Windows 운영 체제에 대한 디스크 암호화 키 및 비밀을 제어하고 관리하려면 Azure Key Vault를 사용합니다. SAP HANA는 Azure Key Vault에서 지원되지 않으므로 SAP ABAP 또는 SSH 키와 같은 대체 방법을 사용해야 합니다.</t>
+        </is>
+      </c>
       <c r="E702" s="18" t="n"/>
-      <c r="F702" s="18" t="n"/>
+      <c r="F702" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H702" s="18" t="n"/>
-      <c r="I702" s="13" t="n"/>
-      <c r="J702" s="13" t="n"/>
+      <c r="I702" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J702" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K702" s="19" t="n"/>
-      <c r="L702" s="19" t="n"/>
+      <c r="L702" s="19" t="inlineStr">
+        <is>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+        </is>
+      </c>
       <c r="M702" s="20" t="n"/>
       <c r="N702" s="20" t="n"/>
       <c r="O702" s="20" t="n"/>
@@ -32141,17 +37195,50 @@
       <c r="Q702" s="20" t="n"/>
     </row>
     <row r="703">
-      <c r="A703" s="18" t="n"/>
-      <c r="B703" s="18" t="n"/>
-      <c r="C703" s="18" t="n"/>
-      <c r="D703" s="18" t="n"/>
+      <c r="A703" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B703" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C703" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D703" s="18" t="inlineStr">
+        <is>
+          <t>&amp;nbsp</t>
+        </is>
+      </c>
       <c r="E703" s="18" t="n"/>
-      <c r="F703" s="18" t="n"/>
+      <c r="F703" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H703" s="18" t="n"/>
-      <c r="I703" s="13" t="n"/>
+      <c r="I703" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J703" s="13" t="n"/>
       <c r="K703" s="19" t="n"/>
-      <c r="L703" s="19" t="n"/>
+      <c r="L703" s="19" t="inlineStr">
+        <is>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+        </is>
+      </c>
       <c r="M703" s="20" t="n"/>
       <c r="N703" s="20" t="n"/>
       <c r="O703" s="20" t="n"/>
@@ -32159,17 +37246,54 @@
       <c r="Q703" s="20" t="n"/>
     </row>
     <row r="704">
-      <c r="A704" s="18" t="n"/>
-      <c r="B704" s="18" t="n"/>
-      <c r="C704" s="18" t="n"/>
-      <c r="D704" s="18" t="n"/>
+      <c r="A704" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B704" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C704" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D704" s="18" t="inlineStr">
+        <is>
+          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
+        </is>
+      </c>
       <c r="E704" s="18" t="n"/>
-      <c r="F704" s="18" t="n"/>
+      <c r="F704" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H704" s="18" t="n"/>
-      <c r="I704" s="13" t="n"/>
-      <c r="J704" s="13" t="n"/>
+      <c r="I704" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J704" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K704" s="19" t="n"/>
-      <c r="L704" s="19" t="n"/>
+      <c r="L704" s="19" t="inlineStr">
+        <is>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+        </is>
+      </c>
       <c r="M704" s="20" t="n"/>
       <c r="N704" s="20" t="n"/>
       <c r="O704" s="20" t="n"/>
@@ -32177,17 +37301,54 @@
       <c r="Q704" s="20" t="n"/>
     </row>
     <row r="705">
-      <c r="A705" s="18" t="n"/>
-      <c r="B705" s="18" t="n"/>
-      <c r="C705" s="18" t="n"/>
-      <c r="D705" s="18" t="n"/>
+      <c r="A705" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B705" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C705" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D705" s="18" t="inlineStr">
+        <is>
+          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
+        </is>
+      </c>
       <c r="E705" s="18" t="n"/>
-      <c r="F705" s="18" t="n"/>
+      <c r="F705" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H705" s="18" t="n"/>
-      <c r="I705" s="13" t="n"/>
-      <c r="J705" s="13" t="n"/>
+      <c r="I705" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J705" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+        </is>
+      </c>
       <c r="K705" s="19" t="n"/>
-      <c r="L705" s="19" t="n"/>
+      <c r="L705" s="19" t="inlineStr">
+        <is>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+        </is>
+      </c>
       <c r="M705" s="20" t="n"/>
       <c r="N705" s="20" t="n"/>
       <c r="O705" s="20" t="n"/>
@@ -32195,17 +37356,54 @@
       <c r="Q705" s="20" t="n"/>
     </row>
     <row r="706">
-      <c r="A706" s="18" t="n"/>
-      <c r="B706" s="18" t="n"/>
-      <c r="C706" s="18" t="n"/>
-      <c r="D706" s="18" t="n"/>
+      <c r="A706" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B706" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C706" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D706" s="18" t="inlineStr">
+        <is>
+          <t>Azure에서 Microsoft 맬웨어 방지 소프트웨어를 사용하여 악성 파일, 애드웨어 및 기타 위협으로부터 가상 머신을 보호하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E706" s="18" t="n"/>
-      <c r="F706" s="18" t="n"/>
+      <c r="F706" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H706" s="18" t="n"/>
-      <c r="I706" s="13" t="n"/>
-      <c r="J706" s="13" t="n"/>
+      <c r="I706" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J706" s="31" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+        </is>
+      </c>
       <c r="K706" s="19" t="n"/>
-      <c r="L706" s="19" t="n"/>
+      <c r="L706" s="19" t="inlineStr">
+        <is>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+        </is>
+      </c>
       <c r="M706" s="20" t="n"/>
       <c r="N706" s="20" t="n"/>
       <c r="O706" s="20" t="n"/>
@@ -32213,17 +37411,54 @@
       <c r="Q706" s="20" t="n"/>
     </row>
     <row r="707">
-      <c r="A707" s="18" t="n"/>
-      <c r="B707" s="18" t="n"/>
-      <c r="C707" s="18" t="n"/>
-      <c r="D707" s="18" t="n"/>
+      <c r="A707" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B707" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C707" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D707" s="18" t="inlineStr">
+        <is>
+          <t>더욱 강력한 보호를 위해 엔드포인트용 Microsoft Defender 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E707" s="18" t="n"/>
-      <c r="F707" s="18" t="n"/>
+      <c r="F707" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H707" s="18" t="n"/>
-      <c r="I707" s="13" t="n"/>
-      <c r="J707" s="13" t="n"/>
+      <c r="I707" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J707" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K707" s="19" t="n"/>
-      <c r="L707" s="19" t="n"/>
+      <c r="L707" s="19" t="inlineStr">
+        <is>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+        </is>
+      </c>
       <c r="M707" s="20" t="n"/>
       <c r="N707" s="20" t="n"/>
       <c r="O707" s="20" t="n"/>
@@ -32231,17 +37466,54 @@
       <c r="Q707" s="20" t="n"/>
     </row>
     <row r="708">
-      <c r="A708" s="18" t="n"/>
-      <c r="B708" s="18" t="n"/>
-      <c r="C708" s="18" t="n"/>
-      <c r="D708" s="18" t="n"/>
+      <c r="A708" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B708" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C708" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D708" s="18" t="inlineStr">
+        <is>
+          <t>가상 네트워크 피어링을 통해 스포크 네트워크에 연결된 허브 가상 네트워크를 통해 모든 트래픽을 전달하여 SAP 애플리케이션 및 데이터베이스 서버를 인터넷 또는 온-프레미스 네트워크에서 격리합니다. 피어링된 가상 네트워크는 Azure의 SAP 솔루션이 공용 인터넷에서 격리되도록 보장합니다.</t>
+        </is>
+      </c>
       <c r="E708" s="18" t="n"/>
-      <c r="F708" s="18" t="n"/>
+      <c r="F708" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H708" s="18" t="n"/>
-      <c r="I708" s="13" t="n"/>
-      <c r="J708" s="13" t="n"/>
+      <c r="I708" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J708" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K708" s="19" t="n"/>
-      <c r="L708" s="19" t="n"/>
+      <c r="L708" s="19" t="inlineStr">
+        <is>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+        </is>
+      </c>
       <c r="M708" s="20" t="n"/>
       <c r="N708" s="20" t="n"/>
       <c r="O708" s="20" t="n"/>
@@ -32249,17 +37521,54 @@
       <c r="Q708" s="20" t="n"/>
     </row>
     <row r="709">
-      <c r="A709" s="18" t="n"/>
-      <c r="B709" s="18" t="n"/>
-      <c r="C709" s="18" t="n"/>
-      <c r="D709" s="18" t="n"/>
+      <c r="A709" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B709" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C709" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D709" s="18" t="inlineStr">
+        <is>
+          <t>SAP Fiori와 같은 인터넷 연결 애플리케이션의 경우 보안 수준을 유지하면서 애플리케이션 요구 사항에 따라 부하를 분산해야 합니다. 계층 7 보안의 경우 Azure Marketplace에서 사용할 수 있는 타사 WAF(Web Application Firewall)를 사용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E709" s="18" t="n"/>
-      <c r="F709" s="18" t="n"/>
+      <c r="F709" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H709" s="18" t="n"/>
-      <c r="I709" s="13" t="n"/>
-      <c r="J709" s="13" t="n"/>
+      <c r="I709" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J709" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K709" s="19" t="n"/>
-      <c r="L709" s="19" t="n"/>
+      <c r="L709" s="19" t="inlineStr">
+        <is>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+        </is>
+      </c>
       <c r="M709" s="20" t="n"/>
       <c r="N709" s="20" t="n"/>
       <c r="O709" s="20" t="n"/>
@@ -32267,17 +37576,54 @@
       <c r="Q709" s="20" t="n"/>
     </row>
     <row r="710">
-      <c r="A710" s="18" t="n"/>
-      <c r="B710" s="18" t="n"/>
-      <c r="C710" s="18" t="n"/>
-      <c r="D710" s="18" t="n"/>
+      <c r="A710" s="18" t="inlineStr">
+        <is>
+          <t>Azure Landing Zone Review</t>
+        </is>
+      </c>
+      <c r="B710" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C710" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D710" s="18" t="inlineStr">
+        <is>
+          <t>SAP용 Azure Monitor 솔루션에서 보안 통신을 사용하도록 설정하려면 루트 인증서 또는 서버 인증서를 사용하도록 선택할 수 있습니다. 루트 인증서를 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E710" s="18" t="n"/>
-      <c r="F710" s="18" t="n"/>
+      <c r="F710" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H710" s="18" t="n"/>
-      <c r="I710" s="13" t="n"/>
-      <c r="J710" s="13" t="n"/>
+      <c r="I710" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J710" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K710" s="19" t="n"/>
-      <c r="L710" s="19" t="n"/>
+      <c r="L710" s="19" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M710" s="20" t="n"/>
       <c r="N710" s="20" t="n"/>
       <c r="O710" s="20" t="n"/>
@@ -41339,7 +46685,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G561" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G711" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -41799,6 +47145,150 @@
     <hyperlink ref="I558" r:id="rId453"/>
     <hyperlink ref="I559" r:id="rId454"/>
     <hyperlink ref="I560" r:id="rId455"/>
+    <hyperlink ref="I561" r:id="rId456"/>
+    <hyperlink ref="I562" r:id="rId457"/>
+    <hyperlink ref="I563" r:id="rId458"/>
+    <hyperlink ref="I565" r:id="rId459"/>
+    <hyperlink ref="I566" r:id="rId460"/>
+    <hyperlink ref="I567" r:id="rId461"/>
+    <hyperlink ref="I568" r:id="rId462"/>
+    <hyperlink ref="I569" r:id="rId463"/>
+    <hyperlink ref="I570" r:id="rId464"/>
+    <hyperlink ref="I571" r:id="rId465"/>
+    <hyperlink ref="I572" r:id="rId466"/>
+    <hyperlink ref="I574" r:id="rId467"/>
+    <hyperlink ref="I575" r:id="rId468"/>
+    <hyperlink ref="I576" r:id="rId469"/>
+    <hyperlink ref="I577" r:id="rId470"/>
+    <hyperlink ref="I578" r:id="rId471"/>
+    <hyperlink ref="I579" r:id="rId472"/>
+    <hyperlink ref="I580" r:id="rId473"/>
+    <hyperlink ref="I581" r:id="rId474"/>
+    <hyperlink ref="I582" r:id="rId475"/>
+    <hyperlink ref="I583" r:id="rId476"/>
+    <hyperlink ref="I584" r:id="rId477"/>
+    <hyperlink ref="I585" r:id="rId478"/>
+    <hyperlink ref="I586" r:id="rId479"/>
+    <hyperlink ref="I587" r:id="rId480"/>
+    <hyperlink ref="I588" r:id="rId481"/>
+    <hyperlink ref="I589" r:id="rId482"/>
+    <hyperlink ref="I590" r:id="rId483"/>
+    <hyperlink ref="I591" r:id="rId484"/>
+    <hyperlink ref="I592" r:id="rId485"/>
+    <hyperlink ref="I593" r:id="rId486"/>
+    <hyperlink ref="I594" r:id="rId487"/>
+    <hyperlink ref="I595" r:id="rId488"/>
+    <hyperlink ref="I596" r:id="rId489"/>
+    <hyperlink ref="I597" r:id="rId490"/>
+    <hyperlink ref="I598" r:id="rId491"/>
+    <hyperlink ref="I599" r:id="rId492"/>
+    <hyperlink ref="I600" r:id="rId493"/>
+    <hyperlink ref="I601" r:id="rId494"/>
+    <hyperlink ref="I602" r:id="rId495"/>
+    <hyperlink ref="I604" r:id="rId496"/>
+    <hyperlink ref="I606" r:id="rId497"/>
+    <hyperlink ref="I607" r:id="rId498"/>
+    <hyperlink ref="I608" r:id="rId499"/>
+    <hyperlink ref="I609" r:id="rId500"/>
+    <hyperlink ref="I610" r:id="rId501"/>
+    <hyperlink ref="I611" r:id="rId502"/>
+    <hyperlink ref="I612" r:id="rId503"/>
+    <hyperlink ref="I613" r:id="rId504"/>
+    <hyperlink ref="I614" r:id="rId505"/>
+    <hyperlink ref="I615" r:id="rId506"/>
+    <hyperlink ref="I616" r:id="rId507"/>
+    <hyperlink ref="I617" r:id="rId508"/>
+    <hyperlink ref="I618" r:id="rId509"/>
+    <hyperlink ref="I619" r:id="rId510"/>
+    <hyperlink ref="I620" r:id="rId511"/>
+    <hyperlink ref="I621" r:id="rId512"/>
+    <hyperlink ref="I622" r:id="rId513"/>
+    <hyperlink ref="I623" r:id="rId514"/>
+    <hyperlink ref="I624" r:id="rId515"/>
+    <hyperlink ref="I625" r:id="rId516"/>
+    <hyperlink ref="I626" r:id="rId517"/>
+    <hyperlink ref="I627" r:id="rId518"/>
+    <hyperlink ref="I628" r:id="rId519"/>
+    <hyperlink ref="I629" r:id="rId520"/>
+    <hyperlink ref="I630" r:id="rId521"/>
+    <hyperlink ref="I631" r:id="rId522"/>
+    <hyperlink ref="I632" r:id="rId523"/>
+    <hyperlink ref="I633" r:id="rId524"/>
+    <hyperlink ref="I634" r:id="rId525"/>
+    <hyperlink ref="I635" r:id="rId526"/>
+    <hyperlink ref="I636" r:id="rId527"/>
+    <hyperlink ref="I637" r:id="rId528"/>
+    <hyperlink ref="I638" r:id="rId529"/>
+    <hyperlink ref="I639" r:id="rId530"/>
+    <hyperlink ref="I640" r:id="rId531"/>
+    <hyperlink ref="I641" r:id="rId532"/>
+    <hyperlink ref="I642" r:id="rId533"/>
+    <hyperlink ref="I643" r:id="rId534"/>
+    <hyperlink ref="I644" r:id="rId535"/>
+    <hyperlink ref="I645" r:id="rId536"/>
+    <hyperlink ref="I646" r:id="rId537"/>
+    <hyperlink ref="I647" r:id="rId538"/>
+    <hyperlink ref="I648" r:id="rId539"/>
+    <hyperlink ref="I649" r:id="rId540"/>
+    <hyperlink ref="I650" r:id="rId541"/>
+    <hyperlink ref="I651" r:id="rId542"/>
+    <hyperlink ref="I652" r:id="rId543"/>
+    <hyperlink ref="I653" r:id="rId544"/>
+    <hyperlink ref="I654" r:id="rId545"/>
+    <hyperlink ref="I655" r:id="rId546"/>
+    <hyperlink ref="I656" r:id="rId547"/>
+    <hyperlink ref="I657" r:id="rId548"/>
+    <hyperlink ref="I658" r:id="rId549"/>
+    <hyperlink ref="I659" r:id="rId550"/>
+    <hyperlink ref="I660" r:id="rId551"/>
+    <hyperlink ref="I661" r:id="rId552"/>
+    <hyperlink ref="I662" r:id="rId553"/>
+    <hyperlink ref="I663" r:id="rId554"/>
+    <hyperlink ref="I664" r:id="rId555"/>
+    <hyperlink ref="I665" r:id="rId556"/>
+    <hyperlink ref="I666" r:id="rId557"/>
+    <hyperlink ref="I667" r:id="rId558"/>
+    <hyperlink ref="I668" r:id="rId559"/>
+    <hyperlink ref="I669" r:id="rId560"/>
+    <hyperlink ref="I670" r:id="rId561"/>
+    <hyperlink ref="I671" r:id="rId562"/>
+    <hyperlink ref="I672" r:id="rId563"/>
+    <hyperlink ref="I673" r:id="rId564"/>
+    <hyperlink ref="I674" r:id="rId565"/>
+    <hyperlink ref="I675" r:id="rId566"/>
+    <hyperlink ref="I676" r:id="rId567"/>
+    <hyperlink ref="I677" r:id="rId568"/>
+    <hyperlink ref="I678" r:id="rId569"/>
+    <hyperlink ref="I679" r:id="rId570"/>
+    <hyperlink ref="I681" r:id="rId571"/>
+    <hyperlink ref="I682" r:id="rId572"/>
+    <hyperlink ref="I683" r:id="rId573"/>
+    <hyperlink ref="I685" r:id="rId574"/>
+    <hyperlink ref="I686" r:id="rId575"/>
+    <hyperlink ref="I687" r:id="rId576"/>
+    <hyperlink ref="I688" r:id="rId577"/>
+    <hyperlink ref="I689" r:id="rId578"/>
+    <hyperlink ref="I690" r:id="rId579"/>
+    <hyperlink ref="I691" r:id="rId580"/>
+    <hyperlink ref="I692" r:id="rId581"/>
+    <hyperlink ref="I693" r:id="rId582"/>
+    <hyperlink ref="I694" r:id="rId583"/>
+    <hyperlink ref="I695" r:id="rId584"/>
+    <hyperlink ref="I696" r:id="rId585"/>
+    <hyperlink ref="I697" r:id="rId586"/>
+    <hyperlink ref="I698" r:id="rId587"/>
+    <hyperlink ref="I699" r:id="rId588"/>
+    <hyperlink ref="I700" r:id="rId589"/>
+    <hyperlink ref="I701" r:id="rId590"/>
+    <hyperlink ref="I702" r:id="rId591"/>
+    <hyperlink ref="I703" r:id="rId592"/>
+    <hyperlink ref="I704" r:id="rId593"/>
+    <hyperlink ref="I705" r:id="rId594"/>
+    <hyperlink ref="I706" r:id="rId595"/>
+    <hyperlink ref="I707" r:id="rId596"/>
+    <hyperlink ref="I708" r:id="rId597"/>
+    <hyperlink ref="I709" r:id="rId598"/>
+    <hyperlink ref="I710" r:id="rId599"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>
@@ -41895,11 +47385,6 @@
           <t>Use the "Import latest checklist" button to get the latest version of a review checklist</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>이 검사는 아직 검토되지 않았습니다</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>en</t>
@@ -41917,11 +47402,6 @@
           <t>열다</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>이 검사와 연관된 작업 항목이 있습니다</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>ja</t>
@@ -41939,11 +47419,6 @@
           <t>성취</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>이 검사는 확인되었으며 이와 관련된 추가 작업 항목이 없습니다</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>ko</t>
@@ -41956,11 +47431,6 @@
           <t>해당 없음</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>현재 설계에는 적용되지 않습니다.</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>pt</t>
@@ -41970,12 +47440,12 @@
     <row r="6">
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>필요 없음</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>필요 없음</t>
+          <t>Not applicable for current design</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -29587,7 +29587,7 @@
     <row r="561">
       <c r="A561" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B561" s="18" t="inlineStr">
@@ -29642,7 +29642,7 @@
     <row r="562">
       <c r="A562" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B562" s="18" t="inlineStr">
@@ -29697,7 +29697,7 @@
     <row r="563">
       <c r="A563" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B563" s="18" t="inlineStr">
@@ -29748,7 +29748,7 @@
     <row r="564">
       <c r="A564" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B564" s="18" t="inlineStr">
@@ -29795,7 +29795,7 @@
     <row r="565">
       <c r="A565" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B565" s="18" t="inlineStr">
@@ -29850,7 +29850,7 @@
     <row r="566">
       <c r="A566" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B566" s="18" t="inlineStr">
@@ -29905,7 +29905,7 @@
     <row r="567">
       <c r="A567" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B567" s="18" t="inlineStr">
@@ -29960,7 +29960,7 @@
     <row r="568">
       <c r="A568" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B568" s="18" t="inlineStr">
@@ -30011,7 +30011,7 @@
     <row r="569">
       <c r="A569" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B569" s="18" t="inlineStr">
@@ -30062,7 +30062,7 @@
     <row r="570">
       <c r="A570" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B570" s="18" t="inlineStr">
@@ -30117,7 +30117,7 @@
     <row r="571">
       <c r="A571" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B571" s="18" t="inlineStr">
@@ -30172,7 +30172,7 @@
     <row r="572">
       <c r="A572" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B572" s="18" t="inlineStr">
@@ -30227,7 +30227,7 @@
     <row r="573">
       <c r="A573" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B573" s="18" t="inlineStr">
@@ -30278,7 +30278,7 @@
     <row r="574">
       <c r="A574" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B574" s="18" t="inlineStr">
@@ -30333,7 +30333,7 @@
     <row r="575">
       <c r="A575" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B575" s="18" t="inlineStr">
@@ -30388,7 +30388,7 @@
     <row r="576">
       <c r="A576" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B576" s="18" t="inlineStr">
@@ -30443,7 +30443,7 @@
     <row r="577">
       <c r="A577" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B577" s="18" t="inlineStr">
@@ -30498,7 +30498,7 @@
     <row r="578">
       <c r="A578" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B578" s="18" t="inlineStr">
@@ -30553,7 +30553,7 @@
     <row r="579">
       <c r="A579" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B579" s="18" t="inlineStr">
@@ -30608,7 +30608,7 @@
     <row r="580">
       <c r="A580" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B580" s="18" t="inlineStr">
@@ -30663,7 +30663,7 @@
     <row r="581">
       <c r="A581" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B581" s="18" t="inlineStr">
@@ -30718,7 +30718,7 @@
     <row r="582">
       <c r="A582" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B582" s="18" t="inlineStr">
@@ -30769,7 +30769,7 @@
     <row r="583">
       <c r="A583" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B583" s="18" t="inlineStr">
@@ -30824,7 +30824,7 @@
     <row r="584">
       <c r="A584" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B584" s="18" t="inlineStr">
@@ -30879,7 +30879,7 @@
     <row r="585">
       <c r="A585" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B585" s="18" t="inlineStr">
@@ -30934,7 +30934,7 @@
     <row r="586">
       <c r="A586" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B586" s="18" t="inlineStr">
@@ -30985,7 +30985,7 @@
     <row r="587">
       <c r="A587" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B587" s="18" t="inlineStr">
@@ -31036,7 +31036,7 @@
     <row r="588">
       <c r="A588" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B588" s="18" t="inlineStr">
@@ -31091,7 +31091,7 @@
     <row r="589">
       <c r="A589" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B589" s="18" t="inlineStr">
@@ -31146,7 +31146,7 @@
     <row r="590">
       <c r="A590" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B590" s="18" t="inlineStr">
@@ -31197,7 +31197,7 @@
     <row r="591">
       <c r="A591" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B591" s="18" t="inlineStr">
@@ -31252,7 +31252,7 @@
     <row r="592">
       <c r="A592" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B592" s="18" t="inlineStr">
@@ -31307,7 +31307,7 @@
     <row r="593">
       <c r="A593" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B593" s="18" t="inlineStr">
@@ -31362,7 +31362,7 @@
     <row r="594">
       <c r="A594" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B594" s="18" t="inlineStr">
@@ -31417,7 +31417,7 @@
     <row r="595">
       <c r="A595" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B595" s="18" t="inlineStr">
@@ -31468,7 +31468,7 @@
     <row r="596">
       <c r="A596" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B596" s="18" t="inlineStr">
@@ -31519,7 +31519,7 @@
     <row r="597">
       <c r="A597" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B597" s="18" t="inlineStr">
@@ -31570,7 +31570,7 @@
     <row r="598">
       <c r="A598" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B598" s="18" t="inlineStr">
@@ -31621,7 +31621,7 @@
     <row r="599">
       <c r="A599" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B599" s="18" t="inlineStr">
@@ -31676,7 +31676,7 @@
     <row r="600">
       <c r="A600" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B600" s="18" t="inlineStr">
@@ -31731,7 +31731,7 @@
     <row r="601">
       <c r="A601" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B601" s="18" t="inlineStr">
@@ -31782,7 +31782,7 @@
     <row r="602">
       <c r="A602" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B602" s="18" t="inlineStr">
@@ -31837,7 +31837,7 @@
     <row r="603">
       <c r="A603" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B603" s="18" t="inlineStr">
@@ -31888,7 +31888,7 @@
     <row r="604">
       <c r="A604" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B604" s="18" t="inlineStr">
@@ -31943,7 +31943,7 @@
     <row r="605">
       <c r="A605" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B605" s="18" t="inlineStr">
@@ -31994,7 +31994,7 @@
     <row r="606">
       <c r="A606" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B606" s="18" t="inlineStr">
@@ -32045,7 +32045,7 @@
     <row r="607">
       <c r="A607" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B607" s="18" t="inlineStr">
@@ -32096,7 +32096,7 @@
     <row r="608">
       <c r="A608" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B608" s="18" t="inlineStr">
@@ -32147,7 +32147,7 @@
     <row r="609">
       <c r="A609" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B609" s="18" t="inlineStr">
@@ -32198,7 +32198,7 @@
     <row r="610">
       <c r="A610" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B610" s="18" t="inlineStr">
@@ -32249,7 +32249,7 @@
     <row r="611">
       <c r="A611" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B611" s="18" t="inlineStr">
@@ -32300,7 +32300,7 @@
     <row r="612">
       <c r="A612" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B612" s="18" t="inlineStr">
@@ -32351,7 +32351,7 @@
     <row r="613">
       <c r="A613" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B613" s="18" t="inlineStr">
@@ -32402,7 +32402,7 @@
     <row r="614">
       <c r="A614" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B614" s="18" t="inlineStr">
@@ -32457,7 +32457,7 @@
     <row r="615">
       <c r="A615" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B615" s="18" t="inlineStr">
@@ -32512,7 +32512,7 @@
     <row r="616">
       <c r="A616" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B616" s="18" t="inlineStr">
@@ -32567,7 +32567,7 @@
     <row r="617">
       <c r="A617" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B617" s="18" t="inlineStr">
@@ -32622,7 +32622,7 @@
     <row r="618">
       <c r="A618" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B618" s="18" t="inlineStr">
@@ -32673,7 +32673,7 @@
     <row r="619">
       <c r="A619" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B619" s="18" t="inlineStr">
@@ -32724,7 +32724,7 @@
     <row r="620">
       <c r="A620" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B620" s="18" t="inlineStr">
@@ -32779,7 +32779,7 @@
     <row r="621">
       <c r="A621" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B621" s="18" t="inlineStr">
@@ -32834,7 +32834,7 @@
     <row r="622">
       <c r="A622" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B622" s="18" t="inlineStr">
@@ -32889,7 +32889,7 @@
     <row r="623">
       <c r="A623" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B623" s="18" t="inlineStr">
@@ -32940,7 +32940,7 @@
     <row r="624">
       <c r="A624" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B624" s="18" t="inlineStr">
@@ -32991,7 +32991,7 @@
     <row r="625">
       <c r="A625" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B625" s="18" t="inlineStr">
@@ -33046,7 +33046,7 @@
     <row r="626">
       <c r="A626" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B626" s="18" t="inlineStr">
@@ -33097,7 +33097,7 @@
     <row r="627">
       <c r="A627" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B627" s="18" t="inlineStr">
@@ -33148,7 +33148,7 @@
     <row r="628">
       <c r="A628" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B628" s="18" t="inlineStr">
@@ -33203,7 +33203,7 @@
     <row r="629">
       <c r="A629" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B629" s="18" t="inlineStr">
@@ -33258,7 +33258,7 @@
     <row r="630">
       <c r="A630" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B630" s="18" t="inlineStr">
@@ -33313,7 +33313,7 @@
     <row r="631">
       <c r="A631" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B631" s="18" t="inlineStr">
@@ -33368,7 +33368,7 @@
     <row r="632">
       <c r="A632" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B632" s="18" t="inlineStr">
@@ -33423,7 +33423,7 @@
     <row r="633">
       <c r="A633" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B633" s="18" t="inlineStr">
@@ -33478,7 +33478,7 @@
     <row r="634">
       <c r="A634" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B634" s="18" t="inlineStr">
@@ -33529,7 +33529,7 @@
     <row r="635">
       <c r="A635" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B635" s="18" t="inlineStr">
@@ -33584,7 +33584,7 @@
     <row r="636">
       <c r="A636" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B636" s="18" t="inlineStr">
@@ -33639,7 +33639,7 @@
     <row r="637">
       <c r="A637" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B637" s="18" t="inlineStr">
@@ -33694,7 +33694,7 @@
     <row r="638">
       <c r="A638" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B638" s="18" t="inlineStr">
@@ -33749,7 +33749,7 @@
     <row r="639">
       <c r="A639" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B639" s="18" t="inlineStr">
@@ -33800,7 +33800,7 @@
     <row r="640">
       <c r="A640" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B640" s="18" t="inlineStr">
@@ -33855,7 +33855,7 @@
     <row r="641">
       <c r="A641" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B641" s="18" t="inlineStr">
@@ -33906,7 +33906,7 @@
     <row r="642">
       <c r="A642" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B642" s="18" t="inlineStr">
@@ -33957,7 +33957,7 @@
     <row r="643">
       <c r="A643" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B643" s="18" t="inlineStr">
@@ -34012,7 +34012,7 @@
     <row r="644">
       <c r="A644" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B644" s="18" t="inlineStr">
@@ -34067,7 +34067,7 @@
     <row r="645">
       <c r="A645" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B645" s="18" t="inlineStr">
@@ -34122,7 +34122,7 @@
     <row r="646">
       <c r="A646" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B646" s="18" t="inlineStr">
@@ -34177,7 +34177,7 @@
     <row r="647">
       <c r="A647" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B647" s="18" t="inlineStr">
@@ -34232,7 +34232,7 @@
     <row r="648">
       <c r="A648" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B648" s="18" t="inlineStr">
@@ -34287,7 +34287,7 @@
     <row r="649">
       <c r="A649" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B649" s="18" t="inlineStr">
@@ -34342,7 +34342,7 @@
     <row r="650">
       <c r="A650" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B650" s="18" t="inlineStr">
@@ -34397,7 +34397,7 @@
     <row r="651">
       <c r="A651" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B651" s="18" t="inlineStr">
@@ -34452,7 +34452,7 @@
     <row r="652">
       <c r="A652" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B652" s="18" t="inlineStr">
@@ -34507,7 +34507,7 @@
     <row r="653">
       <c r="A653" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B653" s="18" t="inlineStr">
@@ -34562,7 +34562,7 @@
     <row r="654">
       <c r="A654" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B654" s="18" t="inlineStr">
@@ -34617,7 +34617,7 @@
     <row r="655">
       <c r="A655" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B655" s="18" t="inlineStr">
@@ -34672,7 +34672,7 @@
     <row r="656">
       <c r="A656" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B656" s="18" t="inlineStr">
@@ -34727,7 +34727,7 @@
     <row r="657">
       <c r="A657" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B657" s="18" t="inlineStr">
@@ -34782,7 +34782,7 @@
     <row r="658">
       <c r="A658" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B658" s="18" t="inlineStr">
@@ -34837,7 +34837,7 @@
     <row r="659">
       <c r="A659" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B659" s="18" t="inlineStr">
@@ -34892,7 +34892,7 @@
     <row r="660">
       <c r="A660" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B660" s="18" t="inlineStr">
@@ -34947,7 +34947,7 @@
     <row r="661">
       <c r="A661" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B661" s="18" t="inlineStr">
@@ -35002,7 +35002,7 @@
     <row r="662">
       <c r="A662" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B662" s="18" t="inlineStr">
@@ -35057,7 +35057,7 @@
     <row r="663">
       <c r="A663" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B663" s="18" t="inlineStr">
@@ -35112,7 +35112,7 @@
     <row r="664">
       <c r="A664" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B664" s="18" t="inlineStr">
@@ -35167,7 +35167,7 @@
     <row r="665">
       <c r="A665" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B665" s="18" t="inlineStr">
@@ -35222,7 +35222,7 @@
     <row r="666">
       <c r="A666" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B666" s="18" t="inlineStr">
@@ -35277,7 +35277,7 @@
     <row r="667">
       <c r="A667" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B667" s="18" t="inlineStr">
@@ -35332,7 +35332,7 @@
     <row r="668">
       <c r="A668" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B668" s="18" t="inlineStr">
@@ -35387,7 +35387,7 @@
     <row r="669">
       <c r="A669" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B669" s="18" t="inlineStr">
@@ -35442,7 +35442,7 @@
     <row r="670">
       <c r="A670" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B670" s="18" t="inlineStr">
@@ -35497,7 +35497,7 @@
     <row r="671">
       <c r="A671" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B671" s="18" t="inlineStr">
@@ -35552,7 +35552,7 @@
     <row r="672">
       <c r="A672" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B672" s="18" t="inlineStr">
@@ -35607,7 +35607,7 @@
     <row r="673">
       <c r="A673" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B673" s="18" t="inlineStr">
@@ -35658,7 +35658,7 @@
     <row r="674">
       <c r="A674" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B674" s="18" t="inlineStr">
@@ -35709,7 +35709,7 @@
     <row r="675">
       <c r="A675" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B675" s="18" t="inlineStr">
@@ -35760,7 +35760,7 @@
     <row r="676">
       <c r="A676" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B676" s="18" t="inlineStr">
@@ -35811,7 +35811,7 @@
     <row r="677">
       <c r="A677" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B677" s="18" t="inlineStr">
@@ -35862,7 +35862,7 @@
     <row r="678">
       <c r="A678" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B678" s="18" t="inlineStr">
@@ -35913,7 +35913,7 @@
     <row r="679">
       <c r="A679" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B679" s="18" t="inlineStr">
@@ -35964,7 +35964,7 @@
     <row r="680">
       <c r="A680" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B680" s="18" t="inlineStr">
@@ -36011,7 +36011,7 @@
     <row r="681">
       <c r="A681" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B681" s="18" t="inlineStr">
@@ -36062,7 +36062,7 @@
     <row r="682">
       <c r="A682" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B682" s="18" t="inlineStr">
@@ -36117,7 +36117,7 @@
     <row r="683">
       <c r="A683" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B683" s="18" t="inlineStr">
@@ -36172,7 +36172,7 @@
     <row r="684">
       <c r="A684" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B684" s="18" t="inlineStr">
@@ -36219,7 +36219,7 @@
     <row r="685">
       <c r="A685" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B685" s="18" t="inlineStr">
@@ -36274,7 +36274,7 @@
     <row r="686">
       <c r="A686" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B686" s="18" t="inlineStr">
@@ -36325,7 +36325,7 @@
     <row r="687">
       <c r="A687" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B687" s="18" t="inlineStr">
@@ -36376,7 +36376,7 @@
     <row r="688">
       <c r="A688" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B688" s="18" t="inlineStr">
@@ -36431,7 +36431,7 @@
     <row r="689">
       <c r="A689" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B689" s="18" t="inlineStr">
@@ -36486,7 +36486,7 @@
     <row r="690">
       <c r="A690" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B690" s="18" t="inlineStr">
@@ -36537,7 +36537,7 @@
     <row r="691">
       <c r="A691" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B691" s="18" t="inlineStr">
@@ -36592,7 +36592,7 @@
     <row r="692">
       <c r="A692" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B692" s="18" t="inlineStr">
@@ -36647,7 +36647,7 @@
     <row r="693">
       <c r="A693" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B693" s="18" t="inlineStr">
@@ -36702,7 +36702,7 @@
     <row r="694">
       <c r="A694" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B694" s="18" t="inlineStr">
@@ -36757,7 +36757,7 @@
     <row r="695">
       <c r="A695" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B695" s="18" t="inlineStr">
@@ -36812,7 +36812,7 @@
     <row r="696">
       <c r="A696" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B696" s="18" t="inlineStr">
@@ -36867,7 +36867,7 @@
     <row r="697">
       <c r="A697" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B697" s="18" t="inlineStr">
@@ -36922,7 +36922,7 @@
     <row r="698">
       <c r="A698" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B698" s="18" t="inlineStr">
@@ -36977,7 +36977,7 @@
     <row r="699">
       <c r="A699" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B699" s="18" t="inlineStr">
@@ -37032,7 +37032,7 @@
     <row r="700">
       <c r="A700" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B700" s="18" t="inlineStr">
@@ -37087,7 +37087,7 @@
     <row r="701">
       <c r="A701" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B701" s="18" t="inlineStr">
@@ -37142,7 +37142,7 @@
     <row r="702">
       <c r="A702" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B702" s="18" t="inlineStr">
@@ -37157,7 +37157,7 @@
       </c>
       <c r="D702" s="18" t="inlineStr">
         <is>
-          <t>비 HANA Windows 및 비 Windows 운영 체제에 대한 디스크 암호화 키 및 비밀을 제어하고 관리하려면 Azure Key Vault를 사용합니다. SAP HANA는 Azure Key Vault에서 지원되지 않으므로 SAP ABAP 또는 SSH 키와 같은 대체 방법을 사용해야 합니다.</t>
+          <t>애플리케이션, 환경, 지역당 Azure Key Vault를 사용합니다.</t>
         </is>
       </c>
       <c r="E702" s="18" t="n"/>
@@ -37179,13 +37179,13 @@
       </c>
       <c r="J702" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="K702" s="19" t="n"/>
       <c r="L702" s="19" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
         </is>
       </c>
       <c r="M702" s="20" t="n"/>
@@ -37197,7 +37197,7 @@
     <row r="703">
       <c r="A703" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B703" s="18" t="inlineStr">
@@ -37212,13 +37212,13 @@
       </c>
       <c r="D703" s="18" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>비 HANA Windows 및 비 Windows 운영 체제에 대한 디스크 암호화 키 및 비밀을 제어하고 관리하려면 Azure Key Vault를 사용합니다. SAP HANA는 Azure Key Vault에서 지원되지 않으므로 SAP ABAP 또는 SSH 키와 같은 대체 방법을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="E703" s="18" t="n"/>
       <c r="F703" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G703" t="inlineStr">
@@ -37232,11 +37232,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J703" s="13" t="n"/>
+      <c r="J703" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K703" s="19" t="n"/>
       <c r="L703" s="19" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
         </is>
       </c>
       <c r="M703" s="20" t="n"/>
@@ -37248,7 +37252,7 @@
     <row r="704">
       <c r="A704" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B704" s="18" t="inlineStr">
@@ -37263,13 +37267,13 @@
       </c>
       <c r="D704" s="18" t="inlineStr">
         <is>
-          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="E704" s="18" t="n"/>
       <c r="F704" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G704" t="inlineStr">
@@ -37283,15 +37287,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J704" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="J704" s="13" t="n"/>
       <c r="K704" s="19" t="n"/>
       <c r="L704" s="19" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
         </is>
       </c>
       <c r="M704" s="20" t="n"/>
@@ -37303,7 +37303,7 @@
     <row r="705">
       <c r="A705" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B705" s="18" t="inlineStr">
@@ -37318,7 +37318,7 @@
       </c>
       <c r="D705" s="18" t="inlineStr">
         <is>
-          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
+          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
         </is>
       </c>
       <c r="E705" s="18" t="n"/>
@@ -37340,13 +37340,13 @@
       </c>
       <c r="J705" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
         </is>
       </c>
       <c r="K705" s="19" t="n"/>
       <c r="L705" s="19" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M705" s="20" t="n"/>
@@ -37358,7 +37358,7 @@
     <row r="706">
       <c r="A706" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B706" s="18" t="inlineStr">
@@ -37373,13 +37373,13 @@
       </c>
       <c r="D706" s="18" t="inlineStr">
         <is>
-          <t>Azure에서 Microsoft 맬웨어 방지 소프트웨어를 사용하여 악성 파일, 애드웨어 및 기타 위협으로부터 가상 머신을 보호하는 것이 좋습니다.</t>
+          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
         </is>
       </c>
       <c r="E706" s="18" t="n"/>
       <c r="F706" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G706" t="inlineStr">
@@ -37395,13 +37395,13 @@
       </c>
       <c r="J706" s="31" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
         </is>
       </c>
       <c r="K706" s="19" t="n"/>
       <c r="L706" s="19" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M706" s="20" t="n"/>
@@ -37413,7 +37413,7 @@
     <row r="707">
       <c r="A707" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B707" s="18" t="inlineStr">
@@ -37428,7 +37428,7 @@
       </c>
       <c r="D707" s="18" t="inlineStr">
         <is>
-          <t>더욱 강력한 보호를 위해 엔드포인트용 Microsoft Defender 사용하는 것이 좋습니다.</t>
+          <t>Azure에서 Microsoft 맬웨어 방지 소프트웨어를 사용하여 악성 파일, 애드웨어 및 기타 위협으로부터 가상 머신을 보호하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E707" s="18" t="n"/>
@@ -37450,13 +37450,13 @@
       </c>
       <c r="J707" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
         </is>
       </c>
       <c r="K707" s="19" t="n"/>
       <c r="L707" s="19" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M707" s="20" t="n"/>
@@ -37468,7 +37468,7 @@
     <row r="708">
       <c r="A708" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B708" s="18" t="inlineStr">
@@ -37483,13 +37483,13 @@
       </c>
       <c r="D708" s="18" t="inlineStr">
         <is>
-          <t>가상 네트워크 피어링을 통해 스포크 네트워크에 연결된 허브 가상 네트워크를 통해 모든 트래픽을 전달하여 SAP 애플리케이션 및 데이터베이스 서버를 인터넷 또는 온-프레미스 네트워크에서 격리합니다. 피어링된 가상 네트워크는 Azure의 SAP 솔루션이 공용 인터넷에서 격리되도록 보장합니다.</t>
+          <t>더욱 강력한 보호를 위해 엔드포인트용 Microsoft Defender 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E708" s="18" t="n"/>
       <c r="F708" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G708" t="inlineStr">
@@ -37505,13 +37505,13 @@
       </c>
       <c r="J708" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
         </is>
       </c>
       <c r="K708" s="19" t="n"/>
       <c r="L708" s="19" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M708" s="20" t="n"/>
@@ -37523,7 +37523,7 @@
     <row r="709">
       <c r="A709" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B709" s="18" t="inlineStr">
@@ -37538,13 +37538,13 @@
       </c>
       <c r="D709" s="18" t="inlineStr">
         <is>
-          <t>SAP Fiori와 같은 인터넷 연결 애플리케이션의 경우 보안 수준을 유지하면서 애플리케이션 요구 사항에 따라 부하를 분산해야 합니다. 계층 7 보안의 경우 Azure Marketplace에서 사용할 수 있는 타사 WAF(Web Application Firewall)를 사용할 수 있습니다.</t>
+          <t>가상 네트워크 피어링을 통해 스포크 네트워크에 연결된 허브 가상 네트워크를 통해 모든 트래픽을 전달하여 SAP 애플리케이션 및 데이터베이스 서버를 인터넷 또는 온-프레미스 네트워크에서 격리합니다. 피어링된 가상 네트워크는 Azure의 SAP 솔루션이 공용 인터넷에서 격리되도록 보장합니다.</t>
         </is>
       </c>
       <c r="E709" s="18" t="n"/>
       <c r="F709" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G709" t="inlineStr">
@@ -37560,13 +37560,13 @@
       </c>
       <c r="J709" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
         </is>
       </c>
       <c r="K709" s="19" t="n"/>
       <c r="L709" s="19" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
         </is>
       </c>
       <c r="M709" s="20" t="n"/>
@@ -37578,7 +37578,7 @@
     <row r="710">
       <c r="A710" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B710" s="18" t="inlineStr">
@@ -37593,13 +37593,13 @@
       </c>
       <c r="D710" s="18" t="inlineStr">
         <is>
-          <t>SAP용 Azure Monitor 솔루션에서 보안 통신을 사용하도록 설정하려면 루트 인증서 또는 서버 인증서를 사용하도록 선택할 수 있습니다. 루트 인증서를 사용하는 것이 좋습니다.</t>
+          <t>SAP Fiori와 같은 인터넷 연결 애플리케이션의 경우 보안 수준을 유지하면서 애플리케이션 요구 사항에 따라 부하를 분산해야 합니다. 계층 7 보안의 경우 Azure Marketplace에서 사용할 수 있는 타사 WAF(Web Application Firewall)를 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="E710" s="18" t="n"/>
       <c r="F710" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G710" t="inlineStr">
@@ -37615,13 +37615,13 @@
       </c>
       <c r="J710" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
         </is>
       </c>
       <c r="K710" s="19" t="n"/>
       <c r="L710" s="19" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
         </is>
       </c>
       <c r="M710" s="20" t="n"/>
@@ -37631,17 +37631,54 @@
       <c r="Q710" s="20" t="n"/>
     </row>
     <row r="711">
-      <c r="A711" s="18" t="n"/>
-      <c r="B711" s="18" t="n"/>
-      <c r="C711" s="18" t="n"/>
-      <c r="D711" s="18" t="n"/>
+      <c r="A711" s="18" t="inlineStr">
+        <is>
+          <t>SAP Checklist</t>
+        </is>
+      </c>
+      <c r="B711" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C711" s="18" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="D711" s="18" t="inlineStr">
+        <is>
+          <t>SAP용 Azure Monitor 솔루션에서 보안 통신을 사용하도록 설정하려면 루트 인증서 또는 서버 인증서를 사용하도록 선택할 수 있습니다. 루트 인증서를 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E711" s="18" t="n"/>
-      <c r="F711" s="18" t="n"/>
+      <c r="F711" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H711" s="18" t="n"/>
-      <c r="I711" s="13" t="n"/>
-      <c r="J711" s="13" t="n"/>
+      <c r="I711" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J711" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K711" s="19" t="n"/>
-      <c r="L711" s="19" t="n"/>
+      <c r="L711" s="19" t="inlineStr">
+        <is>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+        </is>
+      </c>
       <c r="M711" s="20" t="n"/>
       <c r="N711" s="20" t="n"/>
       <c r="O711" s="20" t="n"/>
@@ -46685,7 +46722,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G711" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G712" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -47289,6 +47326,7 @@
     <hyperlink ref="I708" r:id="rId597"/>
     <hyperlink ref="I709" r:id="rId598"/>
     <hyperlink ref="I710" r:id="rId599"/>
+    <hyperlink ref="I711" r:id="rId600"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>
@@ -47385,6 +47423,11 @@
           <t>Use the "Import latest checklist" button to get the latest version of a review checklist</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>이 검사는 아직 검토되지 않았습니다</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>en</t>
@@ -47402,6 +47445,11 @@
           <t>열다</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>이 검사와 연관된 작업 항목이 있습니다</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>ja</t>
@@ -47419,6 +47467,11 @@
           <t>성취</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>이 검사는 확인되었으며 이와 관련된 추가 작업 항목이 없습니다</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>ko</t>
@@ -47428,7 +47481,12 @@
     <row r="5">
       <c r="B5" s="8" t="inlineStr">
         <is>
-          <t>해당 없음</t>
+          <t>필요 없음</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>권장 사항은 이해되었지만 현재 요구 사항에 필요하지 않음</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -47440,12 +47498,12 @@
     <row r="6">
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>해당 없음</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Not applicable for current design</t>
+          <t>현재 설계에는 적용되지 않습니다.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -37267,13 +37267,13 @@
       </c>
       <c r="D704" s="18" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
         </is>
       </c>
       <c r="E704" s="18" t="n"/>
       <c r="F704" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G704" t="inlineStr">
@@ -37287,11 +37287,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J704" s="13" t="n"/>
+      <c r="J704" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K704" s="19" t="n"/>
       <c r="L704" s="19" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M704" s="20" t="n"/>
@@ -37318,7 +37322,7 @@
       </c>
       <c r="D705" s="18" t="inlineStr">
         <is>
-          <t>실수로 인한 네트워크 관련 변경을 방지하기 위해 Azure의 SAP 스포크 구독에 대한 RBAC(역할 기반 액세스 제어) 역할 사용자 지정</t>
+          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
         </is>
       </c>
       <c r="E705" s="18" t="n"/>
@@ -37340,13 +37344,13 @@
       </c>
       <c r="J705" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
         </is>
       </c>
       <c r="K705" s="19" t="n"/>
       <c r="L705" s="19" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M705" s="20" t="n"/>
@@ -37373,13 +37377,13 @@
       </c>
       <c r="D706" s="18" t="inlineStr">
         <is>
-          <t>나머지 SAP 자산에서 DMZ 및 NVA를 격리하고, Azure Private Link를 구성하고, Azure의 SAP 리소스를 안전하게 관리 및 제어합니다</t>
+          <t>Azure에서 Microsoft 맬웨어 방지 소프트웨어를 사용하여 악성 파일, 애드웨어 및 기타 위협으로부터 가상 머신을 보호하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E706" s="18" t="n"/>
       <c r="F706" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G706" t="inlineStr">
@@ -37395,13 +37399,13 @@
       </c>
       <c r="J706" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
         </is>
       </c>
       <c r="K706" s="19" t="n"/>
       <c r="L706" s="19" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M706" s="20" t="n"/>
@@ -37428,7 +37432,7 @@
       </c>
       <c r="D707" s="18" t="inlineStr">
         <is>
-          <t>Azure에서 Microsoft 맬웨어 방지 소프트웨어를 사용하여 악성 파일, 애드웨어 및 기타 위협으로부터 가상 머신을 보호하는 것이 좋습니다.</t>
+          <t>더욱 강력한 보호를 위해 엔드포인트용 Microsoft Defender 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E707" s="18" t="n"/>
@@ -37450,13 +37454,13 @@
       </c>
       <c r="J707" s="31" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
         </is>
       </c>
       <c r="K707" s="19" t="n"/>
       <c r="L707" s="19" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M707" s="20" t="n"/>
@@ -37483,13 +37487,13 @@
       </c>
       <c r="D708" s="18" t="inlineStr">
         <is>
-          <t>더욱 강력한 보호를 위해 엔드포인트용 Microsoft Defender 사용하는 것이 좋습니다.</t>
+          <t>가상 네트워크 피어링을 통해 스포크 네트워크에 연결된 허브 가상 네트워크를 통해 모든 트래픽을 전달하여 SAP 애플리케이션 및 데이터베이스 서버를 인터넷 또는 온-프레미스 네트워크에서 격리합니다. 피어링된 가상 네트워크는 Azure의 SAP 솔루션이 공용 인터넷에서 격리되도록 보장합니다.</t>
         </is>
       </c>
       <c r="E708" s="18" t="n"/>
       <c r="F708" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G708" t="inlineStr">
@@ -37505,13 +37509,13 @@
       </c>
       <c r="J708" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
         </is>
       </c>
       <c r="K708" s="19" t="n"/>
       <c r="L708" s="19" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
         </is>
       </c>
       <c r="M708" s="20" t="n"/>
@@ -37538,13 +37542,13 @@
       </c>
       <c r="D709" s="18" t="inlineStr">
         <is>
-          <t>가상 네트워크 피어링을 통해 스포크 네트워크에 연결된 허브 가상 네트워크를 통해 모든 트래픽을 전달하여 SAP 애플리케이션 및 데이터베이스 서버를 인터넷 또는 온-프레미스 네트워크에서 격리합니다. 피어링된 가상 네트워크는 Azure의 SAP 솔루션이 공용 인터넷에서 격리되도록 보장합니다.</t>
+          <t>SAP Fiori와 같은 인터넷 연결 애플리케이션의 경우 보안 수준을 유지하면서 애플리케이션 요구 사항에 따라 부하를 분산해야 합니다. 계층 7 보안의 경우 Azure Marketplace에서 사용할 수 있는 타사 WAF(Web Application Firewall)를 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="E709" s="18" t="n"/>
       <c r="F709" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G709" t="inlineStr">
@@ -37560,13 +37564,13 @@
       </c>
       <c r="J709" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
         </is>
       </c>
       <c r="K709" s="19" t="n"/>
       <c r="L709" s="19" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
         </is>
       </c>
       <c r="M709" s="20" t="n"/>
@@ -37593,13 +37597,13 @@
       </c>
       <c r="D710" s="18" t="inlineStr">
         <is>
-          <t>SAP Fiori와 같은 인터넷 연결 애플리케이션의 경우 보안 수준을 유지하면서 애플리케이션 요구 사항에 따라 부하를 분산해야 합니다. 계층 7 보안의 경우 Azure Marketplace에서 사용할 수 있는 타사 WAF(Web Application Firewall)를 사용할 수 있습니다.</t>
+          <t>SAP용 Azure Monitor 솔루션에서 보안 통신을 사용하도록 설정하려면 루트 인증서 또는 서버 인증서를 사용하도록 선택할 수 있습니다. 루트 인증서를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E710" s="18" t="n"/>
       <c r="F710" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G710" t="inlineStr">
@@ -37615,13 +37619,13 @@
       </c>
       <c r="J710" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="K710" s="19" t="n"/>
       <c r="L710" s="19" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
         </is>
       </c>
       <c r="M710" s="20" t="n"/>
@@ -37631,54 +37635,17 @@
       <c r="Q710" s="20" t="n"/>
     </row>
     <row r="711">
-      <c r="A711" s="18" t="inlineStr">
-        <is>
-          <t>SAP Checklist</t>
-        </is>
-      </c>
-      <c r="B711" s="18" t="inlineStr">
-        <is>
-          <t>안전</t>
-        </is>
-      </c>
-      <c r="C711" s="18" t="inlineStr">
-        <is>
-          <t>SAP</t>
-        </is>
-      </c>
-      <c r="D711" s="18" t="inlineStr">
-        <is>
-          <t>SAP용 Azure Monitor 솔루션에서 보안 통신을 사용하도록 설정하려면 루트 인증서 또는 서버 인증서를 사용하도록 선택할 수 있습니다. 루트 인증서를 사용하는 것이 좋습니다.</t>
-        </is>
-      </c>
+      <c r="A711" s="18" t="n"/>
+      <c r="B711" s="18" t="n"/>
+      <c r="C711" s="18" t="n"/>
+      <c r="D711" s="18" t="n"/>
       <c r="E711" s="18" t="n"/>
-      <c r="F711" s="18" t="inlineStr">
-        <is>
-          <t>보통</t>
-        </is>
-      </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>확인되지 않음</t>
-        </is>
-      </c>
+      <c r="F711" s="18" t="n"/>
       <c r="H711" s="18" t="n"/>
-      <c r="I711" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
-      <c r="J711" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="I711" s="13" t="n"/>
+      <c r="J711" s="13" t="n"/>
       <c r="K711" s="19" t="n"/>
-      <c r="L711" s="19" t="inlineStr">
-        <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
-        </is>
-      </c>
+      <c r="L711" s="19" t="n"/>
       <c r="M711" s="20" t="n"/>
       <c r="N711" s="20" t="n"/>
       <c r="O711" s="20" t="n"/>
@@ -46722,7 +46689,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G712" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G711" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -47326,7 +47293,6 @@
     <hyperlink ref="I708" r:id="rId597"/>
     <hyperlink ref="I709" r:id="rId598"/>
     <hyperlink ref="I710" r:id="rId599"/>
-    <hyperlink ref="I711" r:id="rId600"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -39237,17 +39237,50 @@
       <c r="Q740" s="20" t="n"/>
     </row>
     <row r="741">
-      <c r="A741" s="18" t="n"/>
-      <c r="B741" s="18" t="n"/>
-      <c r="C741" s="18" t="n"/>
-      <c r="D741" s="18" t="n"/>
+      <c r="A741" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B741" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C741" s="18" t="inlineStr">
+        <is>
+          <t>Azure Monitor</t>
+        </is>
+      </c>
+      <c r="D741" s="18" t="inlineStr">
+        <is>
+          <t>Azure Monitor -https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-rule-overview 의 데이터 수집 규칙</t>
+        </is>
+      </c>
       <c r="E741" s="18" t="n"/>
       <c r="F741" s="18" t="n"/>
+      <c r="G741" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H741" s="18" t="n"/>
-      <c r="I741" s="13" t="n"/>
-      <c r="J741" s="13" t="n"/>
+      <c r="I741" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J741" s="31" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/pricing/reservations/</t>
+        </is>
+      </c>
       <c r="K741" s="19" t="n"/>
-      <c r="L741" s="19" t="n"/>
+      <c r="L741" s="19" t="inlineStr">
+        <is>
+          <t>a95b86ad-8840-48e3-9273-4b875ba18f20</t>
+        </is>
+      </c>
       <c r="M741" s="20" t="n"/>
       <c r="N741" s="20" t="n"/>
       <c r="O741" s="20" t="n"/>
@@ -39255,17 +39288,46 @@
       <c r="Q741" s="20" t="n"/>
     </row>
     <row r="742">
-      <c r="A742" s="18" t="n"/>
-      <c r="B742" s="18" t="n"/>
-      <c r="C742" s="18" t="n"/>
-      <c r="D742" s="18" t="n"/>
+      <c r="A742" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B742" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C742" s="18" t="inlineStr">
+        <is>
+          <t>Azure Backup</t>
+        </is>
+      </c>
+      <c r="D742" s="18" t="inlineStr">
+        <is>
+          <t>기본 데이터 원본을 찾을 수 없는 백업 인스턴스 확인</t>
+        </is>
+      </c>
       <c r="E742" s="18" t="n"/>
       <c r="F742" s="18" t="n"/>
+      <c r="G742" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H742" s="18" t="n"/>
-      <c r="I742" s="13" t="n"/>
+      <c r="I742" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J742" s="13" t="n"/>
       <c r="K742" s="19" t="n"/>
-      <c r="L742" s="19" t="n"/>
+      <c r="L742" s="19" t="inlineStr">
+        <is>
+          <t>45901365-d38e-443f-abcb-d868266abca2</t>
+        </is>
+      </c>
       <c r="M742" s="20" t="n"/>
       <c r="N742" s="20" t="n"/>
       <c r="O742" s="20" t="n"/>
@@ -39273,17 +39335,46 @@
       <c r="Q742" s="20" t="n"/>
     </row>
     <row r="743">
-      <c r="A743" s="18" t="n"/>
-      <c r="B743" s="18" t="n"/>
-      <c r="C743" s="18" t="n"/>
-      <c r="D743" s="18" t="n"/>
+      <c r="A743" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B743" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C743" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D743" s="18" t="inlineStr">
+        <is>
+          <t>연결되지 않은 서비스(디스크, NIC, IP 주소 등) 삭제 또는 보관</t>
+        </is>
+      </c>
       <c r="E743" s="18" t="n"/>
       <c r="F743" s="18" t="n"/>
+      <c r="G743" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H743" s="18" t="n"/>
-      <c r="I743" s="13" t="n"/>
+      <c r="I743" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J743" s="13" t="n"/>
       <c r="K743" s="19" t="n"/>
-      <c r="L743" s="19" t="n"/>
+      <c r="L743" s="19" t="inlineStr">
+        <is>
+          <t>64f9a19a-f29c-495d-94c6-c7919ca0f6c5</t>
+        </is>
+      </c>
       <c r="M743" s="20" t="n"/>
       <c r="N743" s="20" t="n"/>
       <c r="O743" s="20" t="n"/>
@@ -39291,17 +39382,46 @@
       <c r="Q743" s="20" t="n"/>
     </row>
     <row r="744">
-      <c r="A744" s="18" t="n"/>
-      <c r="B744" s="18" t="n"/>
-      <c r="C744" s="18" t="n"/>
-      <c r="D744" s="18" t="n"/>
+      <c r="A744" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B744" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C744" s="18" t="inlineStr">
+        <is>
+          <t>Azure Backup</t>
+        </is>
+      </c>
+      <c r="D744" s="18" t="inlineStr">
+        <is>
+          <t>중요 업무용 응용 프로그램에 대한 Site Recovery 저장소와 백업 간의 적절한 균형을 고려합니다.</t>
+        </is>
+      </c>
       <c r="E744" s="18" t="n"/>
       <c r="F744" s="18" t="n"/>
+      <c r="G744" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H744" s="18" t="n"/>
-      <c r="I744" s="13" t="n"/>
+      <c r="I744" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J744" s="13" t="n"/>
       <c r="K744" s="19" t="n"/>
-      <c r="L744" s="19" t="n"/>
+      <c r="L744" s="19" t="inlineStr">
+        <is>
+          <t>69bad37a-ad53-4cc7-ae1d-76667357c449</t>
+        </is>
+      </c>
       <c r="M744" s="20" t="n"/>
       <c r="N744" s="20" t="n"/>
       <c r="O744" s="20" t="n"/>
@@ -39309,17 +39429,50 @@
       <c r="Q744" s="20" t="n"/>
     </row>
     <row r="745">
-      <c r="A745" s="18" t="n"/>
-      <c r="B745" s="18" t="n"/>
-      <c r="C745" s="18" t="n"/>
-      <c r="D745" s="18" t="n"/>
+      <c r="A745" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B745" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C745" s="18" t="inlineStr">
+        <is>
+          <t>Azure Monitor</t>
+        </is>
+      </c>
+      <c r="D745" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40개의 서로 다른 로그 분석 작업 영역 간의 지출 및 절감 기회 확인 - 비프로덕션 작업 영역에 대해 서로 다른 보존 및 데이터 수집 사용-인식 및 계층 크기 조정을 위한 일일 한도 만들기 - 일일 한도를 설정하는 경우 한도에 도달할 때 경고를 만드는 것 외에도 특정 비율(예: 90%)에 도달했을 때 알림을 받을 경고 규칙도 만들어야 합니다. - 가능한 경우 작업 영역 변환 고려 - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
+        </is>
+      </c>
       <c r="E745" s="18" t="n"/>
       <c r="F745" s="18" t="n"/>
+      <c r="G745" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H745" s="18" t="n"/>
-      <c r="I745" s="13" t="n"/>
-      <c r="J745" s="13" t="n"/>
+      <c r="I745" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J745" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/understand-work-scopes</t>
+        </is>
+      </c>
       <c r="K745" s="19" t="n"/>
-      <c r="L745" s="19" t="n"/>
+      <c r="L745" s="19" t="inlineStr">
+        <is>
+          <t>674b5ed8-5a85-49c7-933b-e2a1a27b765a</t>
+        </is>
+      </c>
       <c r="M745" s="20" t="n"/>
       <c r="N745" s="20" t="n"/>
       <c r="O745" s="20" t="n"/>
@@ -39327,17 +39480,50 @@
       <c r="Q745" s="20" t="n"/>
     </row>
     <row r="746">
-      <c r="A746" s="18" t="n"/>
-      <c r="B746" s="18" t="n"/>
-      <c r="C746" s="18" t="n"/>
-      <c r="D746" s="18" t="n"/>
+      <c r="A746" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B746" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C746" s="18" t="inlineStr">
+        <is>
+          <t>Azure Monitor</t>
+        </is>
+      </c>
+      <c r="D746" s="18" t="inlineStr">
+        <is>
+          <t>제거 로그 정책 및 자동화 적용(필요한 경우 로그를 콜드 스토리지로 이동할 수 있음)</t>
+        </is>
+      </c>
       <c r="E746" s="18" t="n"/>
       <c r="F746" s="18" t="n"/>
+      <c r="G746" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H746" s="18" t="n"/>
-      <c r="I746" s="13" t="n"/>
-      <c r="J746" s="13" t="n"/>
+      <c r="I746" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J746" s="31" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=nHQYcYGKuyw</t>
+        </is>
+      </c>
       <c r="K746" s="19" t="n"/>
-      <c r="L746" s="19" t="n"/>
+      <c r="L746" s="19" t="inlineStr">
+        <is>
+          <t>91be1f38-8ef3-494c-8bd4-63cbbac75819</t>
+        </is>
+      </c>
       <c r="M746" s="20" t="n"/>
       <c r="N746" s="20" t="n"/>
       <c r="O746" s="20" t="n"/>
@@ -39345,17 +39531,50 @@
       <c r="Q746" s="20" t="n"/>
     </row>
     <row r="747">
-      <c r="A747" s="18" t="n"/>
-      <c r="B747" s="18" t="n"/>
-      <c r="C747" s="18" t="n"/>
-      <c r="D747" s="18" t="n"/>
+      <c r="A747" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B747" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C747" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D747" s="18" t="inlineStr">
+        <is>
+          <t>디스크가 실제로 필요한지 확인하고, 그렇지 않은 경우 삭제하십시오. 필요한 경우 더 낮은 스토리지 계층을 찾거나 백업을 사용합니다.</t>
+        </is>
+      </c>
       <c r="E747" s="18" t="n"/>
       <c r="F747" s="18" t="n"/>
+      <c r="G747" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H747" s="18" t="n"/>
-      <c r="I747" s="13" t="n"/>
-      <c r="J747" s="13" t="n"/>
+      <c r="I747" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J747" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/manage-automation</t>
+        </is>
+      </c>
       <c r="K747" s="19" t="n"/>
-      <c r="L747" s="19" t="n"/>
+      <c r="L747" s="19" t="inlineStr">
+        <is>
+          <t>6aae01e6-a84d-4e5d-b36d-1d92881a1bd5</t>
+        </is>
+      </c>
       <c r="M747" s="20" t="n"/>
       <c r="N747" s="20" t="n"/>
       <c r="O747" s="20" t="n"/>
@@ -39363,17 +39582,50 @@
       <c r="Q747" s="20" t="n"/>
     </row>
     <row r="748">
-      <c r="A748" s="18" t="n"/>
-      <c r="B748" s="18" t="n"/>
-      <c r="C748" s="18" t="n"/>
-      <c r="D748" s="18" t="n"/>
+      <c r="A748" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B748" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C748" s="18" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="D748" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">사용자 지정 규칙을 사용하여 사용하지 않는 스토리지를 하위 계층으로 이동하는 것이 좋습니다 - https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure  </t>
+        </is>
+      </c>
       <c r="E748" s="18" t="n"/>
       <c r="F748" s="18" t="n"/>
+      <c r="G748" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H748" s="18" t="n"/>
-      <c r="I748" s="13" t="n"/>
-      <c r="J748" s="13" t="n"/>
+      <c r="I748" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J748" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+        </is>
+      </c>
       <c r="K748" s="19" t="n"/>
-      <c r="L748" s="19" t="n"/>
+      <c r="L748" s="19" t="inlineStr">
+        <is>
+          <t>d1e44a19-659d-4395-afd7-7289b835556d</t>
+        </is>
+      </c>
       <c r="M748" s="20" t="n"/>
       <c r="N748" s="20" t="n"/>
       <c r="O748" s="20" t="n"/>
@@ -39381,17 +39633,46 @@
       <c r="Q748" s="20" t="n"/>
     </row>
     <row r="749">
-      <c r="A749" s="18" t="n"/>
-      <c r="B749" s="18" t="n"/>
-      <c r="C749" s="18" t="n"/>
-      <c r="D749" s="18" t="n"/>
+      <c r="A749" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B749" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C749" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D749" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Advisor가 VM 올바른 크기 조정에 대해 구성되어 있는지 확인합니다. </t>
+        </is>
+      </c>
       <c r="E749" s="18" t="n"/>
       <c r="F749" s="18" t="n"/>
+      <c r="G749" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H749" s="18" t="n"/>
-      <c r="I749" s="13" t="n"/>
+      <c r="I749" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J749" s="13" t="n"/>
       <c r="K749" s="19" t="n"/>
-      <c r="L749" s="19" t="n"/>
+      <c r="L749" s="19" t="inlineStr">
+        <is>
+          <t>d0102cac-6aae-401e-9a84-de5de36d1d92</t>
+        </is>
+      </c>
       <c r="M749" s="20" t="n"/>
       <c r="N749" s="20" t="n"/>
       <c r="O749" s="20" t="n"/>
@@ -39399,17 +39680,50 @@
       <c r="Q749" s="20" t="n"/>
     </row>
     <row r="750">
-      <c r="A750" s="18" t="n"/>
-      <c r="B750" s="18" t="n"/>
-      <c r="C750" s="18" t="n"/>
-      <c r="D750" s="18" t="n"/>
-      <c r="E750" s="18" t="n"/>
+      <c r="A750" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B750" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C750" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D750" s="18" t="inlineStr">
+        <is>
+          <t>모든 Windows VM에서 스크립트 실행 https://learn.microsoft.com/azure/virtual-machines/windows/hybrid-use-benefit-licensing?ref=andrewmatveychuk.com#convert-an-existing-vm-using-azure-hybrid-benefit-for-windows-server- Windows VM을 자주 만드는 경우 정책 구현을 고려합니다.</t>
+        </is>
+      </c>
+      <c r="E750" s="18" t="inlineStr">
+        <is>
+          <t>Cost analysys에서 Meter Category Licenses를 검색하여 확인합니다.</t>
+        </is>
+      </c>
       <c r="F750" s="18" t="n"/>
+      <c r="G750" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H750" s="18" t="n"/>
-      <c r="I750" s="13" t="n"/>
+      <c r="I750" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J750" s="13" t="n"/>
       <c r="K750" s="19" t="n"/>
-      <c r="L750" s="19" t="n"/>
+      <c r="L750" s="19" t="inlineStr">
+        <is>
+          <t>59ae568b-a38d-4498-9e22-13dbd7bb012f</t>
+        </is>
+      </c>
       <c r="M750" s="20" t="n"/>
       <c r="N750" s="20" t="n"/>
       <c r="O750" s="20" t="n"/>
@@ -39417,17 +39731,46 @@
       <c r="Q750" s="20" t="n"/>
     </row>
     <row r="751">
-      <c r="A751" s="18" t="n"/>
-      <c r="B751" s="18" t="n"/>
-      <c r="C751" s="18" t="n"/>
-      <c r="D751" s="18" t="n"/>
+      <c r="A751" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B751" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C751" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D751" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 이미 라이선스가 있는 경우 AHUB에 넣을 수도 https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
+        </is>
+      </c>
       <c r="E751" s="18" t="n"/>
       <c r="F751" s="18" t="n"/>
+      <c r="G751" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H751" s="18" t="n"/>
-      <c r="I751" s="13" t="n"/>
+      <c r="I751" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J751" s="13" t="n"/>
       <c r="K751" s="19" t="n"/>
-      <c r="L751" s="19" t="n"/>
+      <c r="L751" s="19" t="inlineStr">
+        <is>
+          <t>7b95e06e-158e-42ea-9992-c2de6e2065b3</t>
+        </is>
+      </c>
       <c r="M751" s="20" t="n"/>
       <c r="N751" s="20" t="n"/>
       <c r="O751" s="20" t="n"/>
@@ -39435,17 +39778,50 @@
       <c r="Q751" s="20" t="n"/>
     </row>
     <row r="752">
-      <c r="A752" s="18" t="n"/>
-      <c r="B752" s="18" t="n"/>
-      <c r="C752" s="18" t="n"/>
-      <c r="D752" s="18" t="n"/>
+      <c r="A752" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B752" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C752" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D752" s="18" t="inlineStr">
+        <is>
+          <t>유연성 옵션을 사용하여 예약된 VM 제품군 통합(4-5개 이하의 제품군)</t>
+        </is>
+      </c>
       <c r="E752" s="18" t="n"/>
       <c r="F752" s="18" t="n"/>
+      <c r="G752" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H752" s="18" t="n"/>
-      <c r="I752" s="13" t="n"/>
-      <c r="J752" s="13" t="n"/>
+      <c r="I752" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J752" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management</t>
+        </is>
+      </c>
       <c r="K752" s="19" t="n"/>
-      <c r="L752" s="19" t="n"/>
+      <c r="L752" s="19" t="inlineStr">
+        <is>
+          <t>75c1e945-b459-4837-bf7a-e7c6d3b475a5</t>
+        </is>
+      </c>
       <c r="M752" s="20" t="n"/>
       <c r="N752" s="20" t="n"/>
       <c r="O752" s="20" t="n"/>
@@ -39453,17 +39829,46 @@
       <c r="Q752" s="20" t="n"/>
     </row>
     <row r="753">
-      <c r="A753" s="18" t="n"/>
-      <c r="B753" s="18" t="n"/>
-      <c r="C753" s="18" t="n"/>
-      <c r="D753" s="18" t="n"/>
+      <c r="A753" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B753" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C753" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D753" s="18" t="inlineStr">
+        <is>
+          <t>Azure Reserved Instances 활용: 이 기능을 사용하면 1년 또는 3년 동안 VM을 예약할 수 있으므로 PAYG 가격에 비해 상당한 비용 절감 효과를 얻을 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E753" s="18" t="n"/>
       <c r="F753" s="18" t="n"/>
+      <c r="G753" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H753" s="18" t="n"/>
-      <c r="I753" s="13" t="n"/>
+      <c r="I753" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J753" s="13" t="n"/>
       <c r="K753" s="19" t="n"/>
-      <c r="L753" s="19" t="n"/>
+      <c r="L753" s="19" t="inlineStr">
+        <is>
+          <t>c7acbe49-bbe6-44dd-a9f2-e87778468d55</t>
+        </is>
+      </c>
       <c r="M753" s="20" t="n"/>
       <c r="N753" s="20" t="n"/>
       <c r="O753" s="20" t="n"/>
@@ -39471,17 +39876,46 @@
       <c r="Q753" s="20" t="n"/>
     </row>
     <row r="754">
-      <c r="A754" s="18" t="n"/>
-      <c r="B754" s="18" t="n"/>
-      <c r="C754" s="18" t="n"/>
-      <c r="D754" s="18" t="n"/>
+      <c r="A754" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B754" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C754" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D754" s="18" t="inlineStr">
+        <is>
+          <t>더 큰 디스크만 예약할 수 있습니다 =&gt; 1TiB -</t>
+        </is>
+      </c>
       <c r="E754" s="18" t="n"/>
       <c r="F754" s="18" t="n"/>
+      <c r="G754" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H754" s="18" t="n"/>
-      <c r="I754" s="13" t="n"/>
+      <c r="I754" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J754" s="13" t="n"/>
       <c r="K754" s="19" t="n"/>
-      <c r="L754" s="19" t="n"/>
+      <c r="L754" s="19" t="inlineStr">
+        <is>
+          <t>a6bcca2b-4fea-41db-b3dd-95d48c7c891d</t>
+        </is>
+      </c>
       <c r="M754" s="20" t="n"/>
       <c r="N754" s="20" t="n"/>
       <c r="O754" s="20" t="n"/>
@@ -39489,17 +39923,46 @@
       <c r="Q754" s="20" t="n"/>
     </row>
     <row r="755">
-      <c r="A755" s="18" t="n"/>
-      <c r="B755" s="18" t="n"/>
-      <c r="C755" s="18" t="n"/>
-      <c r="D755" s="18" t="n"/>
+      <c r="A755" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B755" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C755" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D755" s="18" t="inlineStr">
+        <is>
+          <t>적절한 크기 최적화 후</t>
+        </is>
+      </c>
       <c r="E755" s="18" t="n"/>
       <c r="F755" s="18" t="n"/>
+      <c r="G755" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H755" s="18" t="n"/>
-      <c r="I755" s="13" t="n"/>
+      <c r="I755" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J755" s="13" t="n"/>
       <c r="K755" s="19" t="n"/>
-      <c r="L755" s="19" t="n"/>
+      <c r="L755" s="19" t="inlineStr">
+        <is>
+          <t>cb1f7d57-59ae-4568-aa38-d4985e2213db</t>
+        </is>
+      </c>
       <c r="M755" s="20" t="n"/>
       <c r="N755" s="20" t="n"/>
       <c r="O755" s="20" t="n"/>
@@ -39507,17 +39970,46 @@
       <c r="Q755" s="20" t="n"/>
     </row>
     <row r="756">
-      <c r="A756" s="18" t="n"/>
-      <c r="B756" s="18" t="n"/>
-      <c r="C756" s="18" t="n"/>
-      <c r="D756" s="18" t="n"/>
+      <c r="A756" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B756" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C756" s="18" t="inlineStr">
+        <is>
+          <t>Azure SQL</t>
+        </is>
+      </c>
+      <c r="D756" s="18" t="inlineStr">
+        <is>
+          <t>적용 가능한 경우 확인 및 정책/변경 https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations 시행</t>
+        </is>
+      </c>
       <c r="E756" s="18" t="n"/>
       <c r="F756" s="18" t="n"/>
+      <c r="G756" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H756" s="18" t="n"/>
-      <c r="I756" s="13" t="n"/>
+      <c r="I756" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J756" s="13" t="n"/>
       <c r="K756" s="19" t="n"/>
-      <c r="L756" s="19" t="n"/>
+      <c r="L756" s="19" t="inlineStr">
+        <is>
+          <t>d7bb012f-7b95-4e06-b158-e2ea3992c2de</t>
+        </is>
+      </c>
       <c r="M756" s="20" t="n"/>
       <c r="N756" s="20" t="n"/>
       <c r="O756" s="20" t="n"/>
@@ -39525,17 +40017,46 @@
       <c r="Q756" s="20" t="n"/>
     </row>
     <row r="757">
-      <c r="A757" s="18" t="n"/>
-      <c r="B757" s="18" t="n"/>
-      <c r="C757" s="18" t="n"/>
-      <c r="D757" s="18" t="n"/>
+      <c r="A757" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B757" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C757" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D757" s="18" t="inlineStr">
+        <is>
+          <t>VM + 라이선스 부분 할인(ahub + 3YRI)은 약 70% 할인입니다.</t>
+        </is>
+      </c>
       <c r="E757" s="18" t="n"/>
       <c r="F757" s="18" t="n"/>
+      <c r="G757" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H757" s="18" t="n"/>
-      <c r="I757" s="13" t="n"/>
+      <c r="I757" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J757" s="13" t="n"/>
       <c r="K757" s="19" t="n"/>
-      <c r="L757" s="19" t="n"/>
+      <c r="L757" s="19" t="inlineStr">
+        <is>
+          <t>6e2065b3-a76a-4f4a-991e-8839ada46667</t>
+        </is>
+      </c>
       <c r="M757" s="20" t="n"/>
       <c r="N757" s="20" t="n"/>
       <c r="O757" s="20" t="n"/>
@@ -39543,17 +40064,46 @@
       <c r="Q757" s="20" t="n"/>
     </row>
     <row r="758">
-      <c r="A758" s="18" t="n"/>
-      <c r="B758" s="18" t="n"/>
-      <c r="C758" s="18" t="n"/>
-      <c r="D758" s="18" t="n"/>
+      <c r="A758" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B758" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C758" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D758" s="18" t="inlineStr">
+        <is>
+          <t>플랫 사이징보다는 VMSS를 사용하여 수요에 맞추는 것이 좋습니다</t>
+        </is>
+      </c>
       <c r="E758" s="18" t="n"/>
       <c r="F758" s="18" t="n"/>
+      <c r="G758" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H758" s="18" t="n"/>
-      <c r="I758" s="13" t="n"/>
+      <c r="I758" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J758" s="13" t="n"/>
       <c r="K758" s="19" t="n"/>
-      <c r="L758" s="19" t="n"/>
+      <c r="L758" s="19" t="inlineStr">
+        <is>
+          <t>ccbd9792-a6bc-4ca2-a4fe-a1dbf3dd95d4</t>
+        </is>
+      </c>
       <c r="M758" s="20" t="n"/>
       <c r="N758" s="20" t="n"/>
       <c r="O758" s="20" t="n"/>
@@ -39561,17 +40111,46 @@
       <c r="Q758" s="20" t="n"/>
     </row>
     <row r="759">
-      <c r="A759" s="18" t="n"/>
-      <c r="B759" s="18" t="n"/>
-      <c r="C759" s="18" t="n"/>
-      <c r="D759" s="18" t="n"/>
+      <c r="A759" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B759" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C759" s="18" t="inlineStr">
+        <is>
+          <t>AKS</t>
+        </is>
+      </c>
+      <c r="D759" s="18" t="inlineStr">
+        <is>
+          <t>AKS 자동 크기 조정기를 사용하여 클러스터 사용량과 일치시킵니다(Pod 요구 사항이 스케일러와 일치하는지 확인).</t>
+        </is>
+      </c>
       <c r="E759" s="18" t="n"/>
       <c r="F759" s="18" t="n"/>
+      <c r="G759" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H759" s="18" t="n"/>
-      <c r="I759" s="13" t="n"/>
+      <c r="I759" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J759" s="13" t="n"/>
       <c r="K759" s="19" t="n"/>
-      <c r="L759" s="19" t="n"/>
+      <c r="L759" s="19" t="inlineStr">
+        <is>
+          <t>c1b1cd52-1e54-4a29-a9de-39ac0e7c28dc</t>
+        </is>
+      </c>
       <c r="M759" s="20" t="n"/>
       <c r="N759" s="20" t="n"/>
       <c r="O759" s="20" t="n"/>
@@ -39579,17 +40158,50 @@
       <c r="Q759" s="20" t="n"/>
     </row>
     <row r="760">
-      <c r="A760" s="18" t="n"/>
-      <c r="B760" s="18" t="n"/>
-      <c r="C760" s="18" t="n"/>
-      <c r="D760" s="18" t="n"/>
+      <c r="A760" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B760" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C760" s="18" t="inlineStr">
+        <is>
+          <t>Azure Backup</t>
+        </is>
+      </c>
+      <c r="D760" s="18" t="inlineStr">
+        <is>
+          <t>해당하는 경우 복구 지점을 자격 증명 모음 보관으로 이동(유효성 검사)Move recovery points to vault-archive where applicable (Validate)</t>
+        </is>
+      </c>
       <c r="E760" s="18" t="n"/>
       <c r="F760" s="18" t="n"/>
+      <c r="G760" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H760" s="18" t="n"/>
-      <c r="I760" s="13" t="n"/>
-      <c r="J760" s="13" t="n"/>
+      <c r="I760" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J760" s="31" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/pricing/reservations/</t>
+        </is>
+      </c>
       <c r="K760" s="19" t="n"/>
-      <c r="L760" s="19" t="n"/>
+      <c r="L760" s="19" t="inlineStr">
+        <is>
+          <t>44be3b1a-27f8-4b9e-a1be-1f38df03a822</t>
+        </is>
+      </c>
       <c r="M760" s="20" t="n"/>
       <c r="N760" s="20" t="n"/>
       <c r="O760" s="20" t="n"/>
@@ -39597,17 +40209,46 @@
       <c r="Q760" s="20" t="n"/>
     </row>
     <row r="761">
-      <c r="A761" s="18" t="n"/>
-      <c r="B761" s="18" t="n"/>
-      <c r="C761" s="18" t="n"/>
-      <c r="D761" s="18" t="n"/>
+      <c r="A761" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B761" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C761" s="18" t="inlineStr">
+        <is>
+          <t>Databricks</t>
+        </is>
+      </c>
+      <c r="D761" s="18" t="inlineStr">
+        <is>
+          <t>가능한 경우 대체와 함께 스폿 VM을 사용하는 것이 좋습니다. 클러스터의 자동 종료를 고려합니다.</t>
+        </is>
+      </c>
       <c r="E761" s="18" t="n"/>
       <c r="F761" s="18" t="n"/>
+      <c r="G761" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H761" s="18" t="n"/>
-      <c r="I761" s="13" t="n"/>
+      <c r="I761" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J761" s="13" t="n"/>
       <c r="K761" s="19" t="n"/>
-      <c r="L761" s="19" t="n"/>
+      <c r="L761" s="19" t="inlineStr">
+        <is>
+          <t>cd463cbb-bc8a-4c29-aebc-91a43da1dae2</t>
+        </is>
+      </c>
       <c r="M761" s="20" t="n"/>
       <c r="N761" s="20" t="n"/>
       <c r="O761" s="20" t="n"/>
@@ -39615,17 +40256,50 @@
       <c r="Q761" s="20" t="n"/>
     </row>
     <row r="762">
-      <c r="A762" s="18" t="n"/>
-      <c r="B762" s="18" t="n"/>
-      <c r="C762" s="18" t="n"/>
-      <c r="D762" s="18" t="n"/>
+      <c r="A762" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B762" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C762" s="18" t="inlineStr">
+        <is>
+          <t>Azure Functions</t>
+        </is>
+      </c>
+      <c r="D762" s="18" t="inlineStr">
+        <is>
+          <t>함수 - 연결 재사용</t>
+        </is>
+      </c>
       <c r="E762" s="18" t="n"/>
       <c r="F762" s="18" t="n"/>
+      <c r="G762" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H762" s="18" t="n"/>
-      <c r="I762" s="13" t="n"/>
-      <c r="J762" s="13" t="n"/>
+      <c r="I762" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J762" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/reservation-apis?toc=%2Fazure%2Fcost-management-billing%2Ftoc.json</t>
+        </is>
+      </c>
       <c r="K762" s="19" t="n"/>
-      <c r="L762" s="19" t="n"/>
+      <c r="L762" s="19" t="inlineStr">
+        <is>
+          <t>cc881470-607c-41cc-a0e6-14658dd458e9</t>
+        </is>
+      </c>
       <c r="M762" s="20" t="n"/>
       <c r="N762" s="20" t="n"/>
       <c r="O762" s="20" t="n"/>
@@ -39633,17 +40307,50 @@
       <c r="Q762" s="20" t="n"/>
     </row>
     <row r="763">
-      <c r="A763" s="18" t="n"/>
-      <c r="B763" s="18" t="n"/>
-      <c r="C763" s="18" t="n"/>
-      <c r="D763" s="18" t="n"/>
+      <c r="A763" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B763" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C763" s="18" t="inlineStr">
+        <is>
+          <t>Azure Functions</t>
+        </is>
+      </c>
+      <c r="D763" s="18" t="inlineStr">
+        <is>
+          <t>함수 - 로컬에 데이터 캐시</t>
+        </is>
+      </c>
       <c r="E763" s="18" t="n"/>
       <c r="F763" s="18" t="n"/>
+      <c r="G763" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H763" s="18" t="n"/>
-      <c r="I763" s="13" t="n"/>
-      <c r="J763" s="13" t="n"/>
+      <c r="I763" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J763" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="K763" s="19" t="n"/>
-      <c r="L763" s="19" t="n"/>
+      <c r="L763" s="19" t="inlineStr">
+        <is>
+          <t>27139b82-1102-4dbd-9eaf-11e6f843e52f</t>
+        </is>
+      </c>
       <c r="M763" s="20" t="n"/>
       <c r="N763" s="20" t="n"/>
       <c r="O763" s="20" t="n"/>
@@ -39651,17 +40358,50 @@
       <c r="Q763" s="20" t="n"/>
     </row>
     <row r="764">
-      <c r="A764" s="18" t="n"/>
-      <c r="B764" s="18" t="n"/>
-      <c r="C764" s="18" t="n"/>
-      <c r="D764" s="18" t="n"/>
+      <c r="A764" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B764" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C764" s="18" t="inlineStr">
+        <is>
+          <t>Azure Functions</t>
+        </is>
+      </c>
+      <c r="D764" s="18" t="inlineStr">
+        <is>
+          <t>기능 - 콜드 스타트 - '패키지에서 실행' 기능을 사용합니다. 이렇게 하면 코드가 단일 zip 파일로 다운로드됩니다. 예를 들어, 이것은 많은 노드 모듈이 있는 Javascript 함수를 크게 개선할 수 있습니다. 언어별 도구를 사용하여 패키지 크기를 줄입니다(예: 트리 쉐이킹 Javascript 애플리케이션).</t>
+        </is>
+      </c>
       <c r="E764" s="18" t="n"/>
       <c r="F764" s="18" t="n"/>
+      <c r="G764" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H764" s="18" t="n"/>
-      <c r="I764" s="13" t="n"/>
-      <c r="J764" s="13" t="n"/>
+      <c r="I764" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J764" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+        </is>
+      </c>
       <c r="K764" s="19" t="n"/>
-      <c r="L764" s="19" t="n"/>
+      <c r="L764" s="19" t="inlineStr">
+        <is>
+          <t>4722d928-c1b1-4cd5-81e5-4a29b9de39ac</t>
+        </is>
+      </c>
       <c r="M764" s="20" t="n"/>
       <c r="N764" s="20" t="n"/>
       <c r="O764" s="20" t="n"/>
@@ -39669,17 +40409,50 @@
       <c r="Q764" s="20" t="n"/>
     </row>
     <row r="765">
-      <c r="A765" s="18" t="n"/>
-      <c r="B765" s="18" t="n"/>
-      <c r="C765" s="18" t="n"/>
-      <c r="D765" s="18" t="n"/>
+      <c r="A765" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B765" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C765" s="18" t="inlineStr">
+        <is>
+          <t>Azure Functions</t>
+        </is>
+      </c>
+      <c r="D765" s="18" t="inlineStr">
+        <is>
+          <t>기능 - 기능을 따뜻하게 유지</t>
+        </is>
+      </c>
       <c r="E765" s="18" t="n"/>
       <c r="F765" s="18" t="n"/>
+      <c r="G765" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H765" s="18" t="n"/>
-      <c r="I765" s="13" t="n"/>
-      <c r="J765" s="13" t="n"/>
+      <c r="I765" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J765" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K765" s="19" t="n"/>
-      <c r="L765" s="19" t="n"/>
+      <c r="L765" s="19" t="inlineStr">
+        <is>
+          <t>0e7c28dc-9366-4572-82bf-f4564b0d934a</t>
+        </is>
+      </c>
       <c r="M765" s="20" t="n"/>
       <c r="N765" s="20" t="n"/>
       <c r="O765" s="20" t="n"/>
@@ -39687,17 +40460,46 @@
       <c r="Q765" s="20" t="n"/>
     </row>
     <row r="766">
-      <c r="A766" s="18" t="n"/>
-      <c r="B766" s="18" t="n"/>
-      <c r="C766" s="18" t="n"/>
-      <c r="D766" s="18" t="n"/>
+      <c r="A766" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B766" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C766" s="18" t="inlineStr">
+        <is>
+          <t>Azure Functions</t>
+        </is>
+      </c>
+      <c r="D766" s="18" t="inlineStr">
+        <is>
+          <t>다른 함수와 함께 자동 크기 조정을 사용하는 경우 모든 리소스에 대한 모든 자동 크기 조정을 구동하는 것이 있을 수 있으므로 별도의 소비 계획으로 이동하는 것이 좋습니다(CPU에 대한 더 높은 계획 고려).</t>
+        </is>
+      </c>
       <c r="E766" s="18" t="n"/>
       <c r="F766" s="18" t="n"/>
+      <c r="G766" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H766" s="18" t="n"/>
-      <c r="I766" s="13" t="n"/>
+      <c r="I766" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J766" s="13" t="n"/>
       <c r="K766" s="19" t="n"/>
-      <c r="L766" s="19" t="n"/>
+      <c r="L766" s="19" t="inlineStr">
+        <is>
+          <t>359c363e-7dd6-4162-9a36-4a907ebae38e</t>
+        </is>
+      </c>
       <c r="M766" s="20" t="n"/>
       <c r="N766" s="20" t="n"/>
       <c r="O766" s="20" t="n"/>
@@ -39705,17 +40507,46 @@
       <c r="Q766" s="20" t="n"/>
     </row>
     <row r="767">
-      <c r="A767" s="18" t="n"/>
-      <c r="B767" s="18" t="n"/>
-      <c r="C767" s="18" t="n"/>
-      <c r="D767" s="18" t="n"/>
+      <c r="A767" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B767" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C767" s="18" t="inlineStr">
+        <is>
+          <t>Azure Functions</t>
+        </is>
+      </c>
+      <c r="D767" s="18" t="inlineStr">
+        <is>
+          <t>지정된 계획의 함수 앱은 모두 함께 크기가 조정되므로 크기 조정과 관련된 모든 문제는 계획의 모든 앱에 영향을 줄 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E767" s="18" t="n"/>
       <c r="F767" s="18" t="n"/>
+      <c r="G767" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H767" s="18" t="n"/>
-      <c r="I767" s="13" t="n"/>
+      <c r="I767" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J767" s="13" t="n"/>
       <c r="K767" s="19" t="n"/>
-      <c r="L767" s="19" t="n"/>
+      <c r="L767" s="19" t="inlineStr">
+        <is>
+          <t>ad53cc7d-e2e8-4aaa-a357-1549ab9153d8</t>
+        </is>
+      </c>
       <c r="M767" s="20" t="n"/>
       <c r="N767" s="20" t="n"/>
       <c r="O767" s="20" t="n"/>
@@ -39723,17 +40554,46 @@
       <c r="Q767" s="20" t="n"/>
     </row>
     <row r="768">
-      <c r="A768" s="18" t="n"/>
-      <c r="B768" s="18" t="n"/>
-      <c r="C768" s="18" t="n"/>
-      <c r="D768" s="18" t="n"/>
+      <c r="A768" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B768" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C768" s="18" t="inlineStr">
+        <is>
+          <t>Azure Functions</t>
+        </is>
+      </c>
+      <c r="D768" s="18" t="inlineStr">
+        <is>
+          <t>'대기 시간'에 대한 요금이 청구되나요? 이 질문은 일반적으로 비동기 작업을 수행하고 결과를 기다리는 C # 함수 (예 : await Task.Delay(1000) 또는 await client )의 컨텍스트에서 묻습니다. GetAsync('http://google.com')입니다. 대답은 '예'입니다 - GB 초 계산은 함수의 시작 및 종료 시간과 해당 기간 동안의 메모리 사용량을 기반으로 합니다. CPU 작업 측면에서 해당 시간 동안 실제로 발생하는 일은 계산에 포함되지 않습니다. 이 규칙의 한 가지 예외는 지속성 함수를 사용하는 경우입니다. 오케스트레이터 함수에서 대기하는 데 소요된 시간에 대해서는 요금이 청구되지 않습니다.가능한 경우 수요 형성 기술을 적용합니다(개발 환경?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
+        </is>
+      </c>
       <c r="E768" s="18" t="n"/>
       <c r="F768" s="18" t="n"/>
+      <c r="G768" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H768" s="18" t="n"/>
-      <c r="I768" s="13" t="n"/>
+      <c r="I768" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J768" s="13" t="n"/>
       <c r="K768" s="19" t="n"/>
-      <c r="L768" s="19" t="n"/>
+      <c r="L768" s="19" t="inlineStr">
+        <is>
+          <t>9f89dc7b-44be-43b1-a27f-8b9e91be1f38</t>
+        </is>
+      </c>
       <c r="M768" s="20" t="n"/>
       <c r="N768" s="20" t="n"/>
       <c r="O768" s="20" t="n"/>
@@ -39741,17 +40601,46 @@
       <c r="Q768" s="20" t="n"/>
     </row>
     <row r="769">
-      <c r="A769" s="18" t="n"/>
-      <c r="B769" s="18" t="n"/>
-      <c r="C769" s="18" t="n"/>
-      <c r="D769" s="18" t="n"/>
+      <c r="A769" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B769" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C769" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D769" s="18" t="inlineStr">
+        <is>
+          <t>Frontdoor - 기본 홈페이지 끄기앱의 애플리케이션 설정에서 AzureWebJobsDisableHomepage를 true로 설정합니다. 이렇게 하면 PoP에 204(콘텐츠 없음)가 반환되므로 헤더 데이터만 반환됩니다.</t>
+        </is>
+      </c>
       <c r="E769" s="18" t="n"/>
       <c r="F769" s="18" t="n"/>
+      <c r="G769" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H769" s="18" t="n"/>
-      <c r="I769" s="13" t="n"/>
+      <c r="I769" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J769" s="13" t="n"/>
       <c r="K769" s="19" t="n"/>
-      <c r="L769" s="19" t="n"/>
+      <c r="L769" s="19" t="inlineStr">
+        <is>
+          <t>3da1dae2-cc88-4147-8607-c1cca0e61465</t>
+        </is>
+      </c>
       <c r="M769" s="20" t="n"/>
       <c r="N769" s="20" t="n"/>
       <c r="O769" s="20" t="n"/>
@@ -39759,17 +40648,46 @@
       <c r="Q769" s="20" t="n"/>
     </row>
     <row r="770">
-      <c r="A770" s="18" t="n"/>
-      <c r="B770" s="18" t="n"/>
-      <c r="C770" s="18" t="n"/>
-      <c r="D770" s="18" t="n"/>
+      <c r="A770" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B770" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C770" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D770" s="18" t="inlineStr">
+        <is>
+          <t>Frontdoor 프론트도어 - 아무것도 반환하지 않는 무언가로 라우팅합니다. 함수, 함수 프록시를 설정하거나 WebApp에서 200(정상)을 반환하고 콘텐츠를 보내지 않거나 최소한으로 보내는 경로를 추가합니다. 이것의 장점은 호출될 때 로그아웃할 수 있다는 것입니다.</t>
+        </is>
+      </c>
       <c r="E770" s="18" t="n"/>
       <c r="F770" s="18" t="n"/>
+      <c r="G770" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H770" s="18" t="n"/>
-      <c r="I770" s="13" t="n"/>
+      <c r="I770" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J770" s="13" t="n"/>
       <c r="K770" s="19" t="n"/>
-      <c r="L770" s="19" t="n"/>
+      <c r="L770" s="19" t="inlineStr">
+        <is>
+          <t>8dd458e9-2713-49b8-8110-2dbd6eaf11e6</t>
+        </is>
+      </c>
       <c r="M770" s="20" t="n"/>
       <c r="N770" s="20" t="n"/>
       <c r="O770" s="20" t="n"/>
@@ -39777,17 +40695,46 @@
       <c r="Q770" s="20" t="n"/>
     </row>
     <row r="771">
-      <c r="A771" s="18" t="n"/>
-      <c r="B771" s="18" t="n"/>
-      <c r="C771" s="18" t="n"/>
-      <c r="D771" s="18" t="n"/>
+      <c r="A771" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B771" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C771" s="18" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="D771" s="18" t="inlineStr">
+        <is>
+          <t>덜 사용되는 데이터에 대한 보관 계층 고려</t>
+        </is>
+      </c>
       <c r="E771" s="18" t="n"/>
       <c r="F771" s="18" t="n"/>
+      <c r="G771" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H771" s="18" t="n"/>
-      <c r="I771" s="13" t="n"/>
+      <c r="I771" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J771" s="13" t="n"/>
       <c r="K771" s="19" t="n"/>
-      <c r="L771" s="19" t="n"/>
+      <c r="L771" s="19" t="inlineStr">
+        <is>
+          <t>7e31c67d-68cf-46a6-8a11-94956d697dc3</t>
+        </is>
+      </c>
       <c r="M771" s="20" t="n"/>
       <c r="N771" s="20" t="n"/>
       <c r="O771" s="20" t="n"/>
@@ -39795,17 +40742,46 @@
       <c r="Q771" s="20" t="n"/>
     </row>
     <row r="772">
-      <c r="A772" s="18" t="n"/>
-      <c r="B772" s="18" t="n"/>
-      <c r="C772" s="18" t="n"/>
-      <c r="D772" s="18" t="n"/>
+      <c r="A772" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B772" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C772" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D772" s="18" t="inlineStr">
+        <is>
+          <t>크기가 계층과 일치하지 않는 디스크 크기를 확인합니다(예: 513GiB 디스크는 P30(1TiB)를 지불하고 크기 조정을 고려합니다.</t>
+        </is>
+      </c>
       <c r="E772" s="18" t="n"/>
       <c r="F772" s="18" t="n"/>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H772" s="18" t="n"/>
-      <c r="I772" s="13" t="n"/>
+      <c r="I772" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J772" s="13" t="n"/>
       <c r="K772" s="19" t="n"/>
-      <c r="L772" s="19" t="n"/>
+      <c r="L772" s="19" t="inlineStr">
+        <is>
+          <t>a2ed27b2-d186-4f1a-8252-bddde68a487c</t>
+        </is>
+      </c>
       <c r="M772" s="20" t="n"/>
       <c r="N772" s="20" t="n"/>
       <c r="O772" s="20" t="n"/>
@@ -39813,17 +40789,46 @@
       <c r="Q772" s="20" t="n"/>
     </row>
     <row r="773">
-      <c r="A773" s="18" t="n"/>
-      <c r="B773" s="18" t="n"/>
-      <c r="C773" s="18" t="n"/>
-      <c r="D773" s="18" t="n"/>
+      <c r="A773" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B773" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C773" s="18" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="D773" s="18" t="inlineStr">
+        <is>
+          <t>가능하면 프리미엄 또는 울트라 대신 표준 SSD를 사용하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E773" s="18" t="n"/>
       <c r="F773" s="18" t="n"/>
+      <c r="G773" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H773" s="18" t="n"/>
-      <c r="I773" s="13" t="n"/>
+      <c r="I773" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J773" s="13" t="n"/>
       <c r="K773" s="19" t="n"/>
-      <c r="L773" s="19" t="n"/>
+      <c r="L773" s="19" t="inlineStr">
+        <is>
+          <t>dec4861b-c3bc-410a-b77e-26e4d5a3bec2</t>
+        </is>
+      </c>
       <c r="M773" s="20" t="n"/>
       <c r="N773" s="20" t="n"/>
       <c r="O773" s="20" t="n"/>
@@ -39831,17 +40836,46 @@
       <c r="Q773" s="20" t="n"/>
     </row>
     <row r="774">
-      <c r="A774" s="18" t="n"/>
-      <c r="B774" s="18" t="n"/>
-      <c r="C774" s="18" t="n"/>
-      <c r="D774" s="18" t="n"/>
+      <c r="A774" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B774" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C774" s="18" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="D774" s="18" t="inlineStr">
+        <is>
+          <t>스토리지 계정의 경우 선택한 계층이 트랜잭션 요금을 합산하지 않는지 확인합니다(다음 계층으로 이동하는 것이 더 저렴할 수 있음).</t>
+        </is>
+      </c>
       <c r="E774" s="18" t="n"/>
       <c r="F774" s="18" t="n"/>
+      <c r="G774" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H774" s="18" t="n"/>
-      <c r="I774" s="13" t="n"/>
+      <c r="I774" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J774" s="13" t="n"/>
       <c r="K774" s="19" t="n"/>
-      <c r="L774" s="19" t="n"/>
+      <c r="L774" s="19" t="inlineStr">
+        <is>
+          <t>c4e2436b-1336-4db5-9f17-960eee0bdf5c</t>
+        </is>
+      </c>
       <c r="M774" s="20" t="n"/>
       <c r="N774" s="20" t="n"/>
       <c r="O774" s="20" t="n"/>
@@ -39849,17 +40883,46 @@
       <c r="Q774" s="20" t="n"/>
     </row>
     <row r="775">
-      <c r="A775" s="18" t="n"/>
-      <c r="B775" s="18" t="n"/>
-      <c r="C775" s="18" t="n"/>
-      <c r="D775" s="18" t="n"/>
+      <c r="A775" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B775" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C775" s="18" t="inlineStr">
+        <is>
+          <t>Site Recovery</t>
+        </is>
+      </c>
+      <c r="D775" s="18" t="inlineStr">
+        <is>
+          <t>ASR의 경우 RPO/RTO 및 복제 처리량이 허용하는 경우 표준 SSD 디스크를 사용하는 것이 좋습니다</t>
+        </is>
+      </c>
       <c r="E775" s="18" t="n"/>
       <c r="F775" s="18" t="n"/>
+      <c r="G775" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H775" s="18" t="n"/>
-      <c r="I775" s="13" t="n"/>
+      <c r="I775" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J775" s="13" t="n"/>
       <c r="K775" s="19" t="n"/>
-      <c r="L775" s="19" t="n"/>
+      <c r="L775" s="19" t="inlineStr">
+        <is>
+          <t>c2efc5d7-61d4-41d2-900b-b47a393a040f</t>
+        </is>
+      </c>
       <c r="M775" s="20" t="n"/>
       <c r="N775" s="20" t="n"/>
       <c r="O775" s="20" t="n"/>
@@ -39867,17 +40930,46 @@
       <c r="Q775" s="20" t="n"/>
     </row>
     <row r="776">
-      <c r="A776" s="18" t="n"/>
-      <c r="B776" s="18" t="n"/>
-      <c r="C776" s="18" t="n"/>
-      <c r="D776" s="18" t="n"/>
+      <c r="A776" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B776" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C776" s="18" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="D776" s="18" t="inlineStr">
+        <is>
+          <t>스토리지 계정: 핫 계층 및/또는 GRS 필요 확인</t>
+        </is>
+      </c>
       <c r="E776" s="18" t="n"/>
       <c r="F776" s="18" t="n"/>
+      <c r="G776" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H776" s="18" t="n"/>
-      <c r="I776" s="13" t="n"/>
+      <c r="I776" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J776" s="13" t="n"/>
       <c r="K776" s="19" t="n"/>
-      <c r="L776" s="19" t="n"/>
+      <c r="L776" s="19" t="inlineStr">
+        <is>
+          <t>d3294798-b118-48b2-a5a4-6ceb544451e1</t>
+        </is>
+      </c>
       <c r="M776" s="20" t="n"/>
       <c r="N776" s="20" t="n"/>
       <c r="O776" s="20" t="n"/>
@@ -39885,17 +40977,46 @@
       <c r="Q776" s="20" t="n"/>
     </row>
     <row r="777">
-      <c r="A777" s="18" t="n"/>
-      <c r="B777" s="18" t="n"/>
-      <c r="C777" s="18" t="n"/>
-      <c r="D777" s="18" t="n"/>
+      <c r="A777" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B777" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C777" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D777" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">디스크 - 모든 곳에서 프리미엄 SSD 디스크 사용의 유효성을 검사합니다. 예를 들어 비프로덕션은 표준 SSD 또는 주문형 프리미엄 SSD로 교환할 수 있습니다.  </t>
+        </is>
+      </c>
       <c r="E777" s="18" t="n"/>
       <c r="F777" s="18" t="n"/>
+      <c r="G777" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H777" s="18" t="n"/>
-      <c r="I777" s="13" t="n"/>
+      <c r="I777" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J777" s="13" t="n"/>
       <c r="K777" s="19" t="n"/>
-      <c r="L777" s="19" t="n"/>
+      <c r="L777" s="19" t="inlineStr">
+        <is>
+          <t>92d34429-3c76-4286-97a5-51c5b04e4f18</t>
+        </is>
+      </c>
       <c r="M777" s="20" t="n"/>
       <c r="N777" s="20" t="n"/>
       <c r="O777" s="20" t="n"/>
@@ -39903,17 +41024,46 @@
       <c r="Q777" s="20" t="n"/>
     </row>
     <row r="778">
-      <c r="A778" s="18" t="n"/>
-      <c r="B778" s="18" t="n"/>
-      <c r="C778" s="18" t="n"/>
-      <c r="D778" s="18" t="n"/>
+      <c r="A778" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B778" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C778" s="18" t="inlineStr">
+        <is>
+          <t>Synapse</t>
+        </is>
+      </c>
+      <c r="D778" s="18" t="inlineStr">
+        <is>
+          <t>예산을 만들어 비용을 관리하고 이해 관계자에게 지출 이상 및 초과 지출 위험을 자동으로 알리는 경고를 만듭니다.</t>
+        </is>
+      </c>
       <c r="E778" s="18" t="n"/>
       <c r="F778" s="18" t="n"/>
+      <c r="G778" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H778" s="18" t="n"/>
-      <c r="I778" s="13" t="n"/>
+      <c r="I778" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J778" s="13" t="n"/>
       <c r="K778" s="19" t="n"/>
-      <c r="L778" s="19" t="n"/>
+      <c r="L778" s="19" t="inlineStr">
+        <is>
+          <t>54387e5c-ed12-46cd-832a-f5b2fc6998a5</t>
+        </is>
+      </c>
       <c r="M778" s="20" t="n"/>
       <c r="N778" s="20" t="n"/>
       <c r="O778" s="20" t="n"/>
@@ -39921,17 +41071,46 @@
       <c r="Q778" s="20" t="n"/>
     </row>
     <row r="779">
-      <c r="A779" s="18" t="n"/>
-      <c r="B779" s="18" t="n"/>
-      <c r="C779" s="18" t="n"/>
-      <c r="D779" s="18" t="n"/>
+      <c r="A779" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B779" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C779" s="18" t="inlineStr">
+        <is>
+          <t>Synapse</t>
+        </is>
+      </c>
+      <c r="D779" s="18" t="inlineStr">
+        <is>
+          <t>추가 데이터 분석을 위해 비용 데이터를 스토리지 계정으로 내보냅니다.</t>
+        </is>
+      </c>
       <c r="E779" s="18" t="n"/>
       <c r="F779" s="18" t="n"/>
+      <c r="G779" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H779" s="18" t="n"/>
-      <c r="I779" s="13" t="n"/>
+      <c r="I779" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J779" s="13" t="n"/>
       <c r="K779" s="19" t="n"/>
-      <c r="L779" s="19" t="n"/>
+      <c r="L779" s="19" t="inlineStr">
+        <is>
+          <t>35e33789-7e31-4c67-b68c-f6a62a119495</t>
+        </is>
+      </c>
       <c r="M779" s="20" t="n"/>
       <c r="N779" s="20" t="n"/>
       <c r="O779" s="20" t="n"/>
@@ -39939,17 +41118,46 @@
       <c r="Q779" s="20" t="n"/>
     </row>
     <row r="780">
-      <c r="A780" s="18" t="n"/>
-      <c r="B780" s="18" t="n"/>
-      <c r="C780" s="18" t="n"/>
-      <c r="D780" s="18" t="n"/>
+      <c r="A780" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B780" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C780" s="18" t="inlineStr">
+        <is>
+          <t>Synapse</t>
+        </is>
+      </c>
+      <c r="D780" s="18" t="inlineStr">
+        <is>
+          <t>리소스를 사용하지 않을 때 일시 중지하여 전용 SQL 풀에 대한 비용을 제어합니다.</t>
+        </is>
+      </c>
       <c r="E780" s="18" t="n"/>
       <c r="F780" s="18" t="n"/>
+      <c r="G780" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H780" s="18" t="n"/>
-      <c r="I780" s="13" t="n"/>
+      <c r="I780" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J780" s="13" t="n"/>
       <c r="K780" s="19" t="n"/>
-      <c r="L780" s="19" t="n"/>
+      <c r="L780" s="19" t="inlineStr">
+        <is>
+          <t>6d697dc3-a2ed-427b-8d18-6f1a1252bddd</t>
+        </is>
+      </c>
       <c r="M780" s="20" t="n"/>
       <c r="N780" s="20" t="n"/>
       <c r="O780" s="20" t="n"/>
@@ -39957,17 +41165,46 @@
       <c r="Q780" s="20" t="n"/>
     </row>
     <row r="781">
-      <c r="A781" s="18" t="n"/>
-      <c r="B781" s="18" t="n"/>
-      <c r="C781" s="18" t="n"/>
-      <c r="D781" s="18" t="n"/>
+      <c r="A781" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B781" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C781" s="18" t="inlineStr">
+        <is>
+          <t>Synapse</t>
+        </is>
+      </c>
+      <c r="D781" s="18" t="inlineStr">
+        <is>
+          <t>서버리스 Apache Spark 자동 일시 중지 기능을 활성화하고 그에 따라 제한 시간 값을 설정합니다.</t>
+        </is>
+      </c>
       <c r="E781" s="18" t="n"/>
       <c r="F781" s="18" t="n"/>
+      <c r="G781" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H781" s="18" t="n"/>
-      <c r="I781" s="13" t="n"/>
+      <c r="I781" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J781" s="13" t="n"/>
       <c r="K781" s="19" t="n"/>
-      <c r="L781" s="19" t="n"/>
+      <c r="L781" s="19" t="inlineStr">
+        <is>
+          <t>e68a487c-dec4-4861-ac3b-c10ae77e26e4</t>
+        </is>
+      </c>
       <c r="M781" s="20" t="n"/>
       <c r="N781" s="20" t="n"/>
       <c r="O781" s="20" t="n"/>
@@ -39975,17 +41212,46 @@
       <c r="Q781" s="20" t="n"/>
     </row>
     <row r="782">
-      <c r="A782" s="18" t="n"/>
-      <c r="B782" s="18" t="n"/>
-      <c r="C782" s="18" t="n"/>
-      <c r="D782" s="18" t="n"/>
+      <c r="A782" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B782" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C782" s="18" t="inlineStr">
+        <is>
+          <t>Synapse</t>
+        </is>
+      </c>
+      <c r="D782" s="18" t="inlineStr">
+        <is>
+          <t>다양한 크기의 Apache Spark 풀 정의를 여러 개 만듭니다.</t>
+        </is>
+      </c>
       <c r="E782" s="18" t="n"/>
       <c r="F782" s="18" t="n"/>
+      <c r="G782" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H782" s="18" t="n"/>
-      <c r="I782" s="13" t="n"/>
+      <c r="I782" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J782" s="13" t="n"/>
       <c r="K782" s="19" t="n"/>
-      <c r="L782" s="19" t="n"/>
+      <c r="L782" s="19" t="inlineStr">
+        <is>
+          <t>d5a3bec2-c4e2-4436-a133-6db55f17960e</t>
+        </is>
+      </c>
       <c r="M782" s="20" t="n"/>
       <c r="N782" s="20" t="n"/>
       <c r="O782" s="20" t="n"/>
@@ -39993,17 +41259,50 @@
       <c r="Q782" s="20" t="n"/>
     </row>
     <row r="783">
-      <c r="A783" s="18" t="n"/>
-      <c r="B783" s="18" t="n"/>
-      <c r="C783" s="18" t="n"/>
-      <c r="D783" s="18" t="n"/>
+      <c r="A783" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B783" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C783" s="18" t="inlineStr">
+        <is>
+          <t>Synapse</t>
+        </is>
+      </c>
+      <c r="D783" s="18" t="inlineStr">
+        <is>
+          <t>사전 구매 플랜으로 1년 동안 Azure Synapse SCU(커밋 단위)를 구매하여 Azure Synapse Analytics 비용을 절감하세요.</t>
+        </is>
+      </c>
       <c r="E783" s="18" t="n"/>
       <c r="F783" s="18" t="n"/>
+      <c r="G783" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H783" s="18" t="n"/>
-      <c r="I783" s="13" t="n"/>
-      <c r="J783" s="13" t="n"/>
+      <c r="I783" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J783" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="K783" s="19" t="n"/>
-      <c r="L783" s="19" t="n"/>
+      <c r="L783" s="19" t="inlineStr">
+        <is>
+          <t>ee0bdf5c-c2ef-4c5d-961d-41d2500bb47a</t>
+        </is>
+      </c>
       <c r="M783" s="20" t="n"/>
       <c r="N783" s="20" t="n"/>
       <c r="O783" s="20" t="n"/>
@@ -40011,17 +41310,50 @@
       <c r="Q783" s="20" t="n"/>
     </row>
     <row r="784">
-      <c r="A784" s="18" t="n"/>
-      <c r="B784" s="18" t="n"/>
-      <c r="C784" s="18" t="n"/>
-      <c r="D784" s="18" t="n"/>
+      <c r="A784" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B784" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C784" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D784" s="18" t="inlineStr">
+        <is>
+          <t>인터럽트 가능한 작업에 스폿 VM 사용: 할인된 가격으로 입찰 및 구매할 수 있는 VM으로, 중요하지 않은 워크로드에 비용 효율적인 솔루션을 제공합니다.</t>
+        </is>
+      </c>
       <c r="E784" s="18" t="n"/>
       <c r="F784" s="18" t="n"/>
+      <c r="G784" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H784" s="18" t="n"/>
-      <c r="I784" s="13" t="n"/>
-      <c r="J784" s="13" t="n"/>
+      <c r="I784" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J784" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="K784" s="19" t="n"/>
-      <c r="L784" s="19" t="n"/>
+      <c r="L784" s="19" t="inlineStr">
+        <is>
+          <t>393a040f-d329-4479-ab11-88b2c5a46ceb</t>
+        </is>
+      </c>
       <c r="M784" s="20" t="n"/>
       <c r="N784" s="20" t="n"/>
       <c r="O784" s="20" t="n"/>
@@ -40029,17 +41361,46 @@
       <c r="Q784" s="20" t="n"/>
     </row>
     <row r="785">
-      <c r="A785" s="18" t="n"/>
-      <c r="B785" s="18" t="n"/>
-      <c r="C785" s="18" t="n"/>
-      <c r="D785" s="18" t="n"/>
+      <c r="A785" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B785" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C785" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D785" s="18" t="inlineStr">
+        <is>
+          <t>모든 VM의 적절한 크기 조정</t>
+        </is>
+      </c>
       <c r="E785" s="18" t="n"/>
       <c r="F785" s="18" t="n"/>
+      <c r="G785" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H785" s="18" t="n"/>
-      <c r="I785" s="13" t="n"/>
+      <c r="I785" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J785" s="13" t="n"/>
       <c r="K785" s="19" t="n"/>
-      <c r="L785" s="19" t="n"/>
+      <c r="L785" s="19" t="inlineStr">
+        <is>
+          <t>544451e1-92d3-4442-a3c7-628637a551c5</t>
+        </is>
+      </c>
       <c r="M785" s="20" t="n"/>
       <c r="N785" s="20" t="n"/>
       <c r="O785" s="20" t="n"/>
@@ -40047,17 +41408,50 @@
       <c r="Q785" s="20" t="n"/>
     </row>
     <row r="786">
-      <c r="A786" s="18" t="n"/>
-      <c r="B786" s="18" t="n"/>
-      <c r="C786" s="18" t="n"/>
-      <c r="D786" s="18" t="n"/>
+      <c r="A786" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B786" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C786" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D786" s="18" t="inlineStr">
+        <is>
+          <t>VM 크기를 정규화된 최신 크기로 바꾸기</t>
+        </is>
+      </c>
       <c r="E786" s="18" t="n"/>
       <c r="F786" s="18" t="n"/>
+      <c r="G786" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H786" s="18" t="n"/>
-      <c r="I786" s="13" t="n"/>
-      <c r="J786" s="13" t="n"/>
+      <c r="I786" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J786" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="K786" s="19" t="n"/>
-      <c r="L786" s="19" t="n"/>
+      <c r="L786" s="19" t="inlineStr">
+        <is>
+          <t>b04e4f18-5438-47e5-aed1-26cd032af5b2</t>
+        </is>
+      </c>
       <c r="M786" s="20" t="n"/>
       <c r="N786" s="20" t="n"/>
       <c r="O786" s="20" t="n"/>
@@ -40065,17 +41459,50 @@
       <c r="Q786" s="20" t="n"/>
     </row>
     <row r="787">
-      <c r="A787" s="18" t="n"/>
-      <c r="B787" s="18" t="n"/>
-      <c r="C787" s="18" t="n"/>
-      <c r="D787" s="18" t="n"/>
+      <c r="A787" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B787" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C787" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D787" s="18" t="inlineStr">
+        <is>
+          <t>적절한 크기 조정 VM - 사용량을 5% 미만으로 모니터링하는 것으로 시작한 다음 최대 40%까지 작업</t>
+        </is>
+      </c>
       <c r="E787" s="18" t="n"/>
       <c r="F787" s="18" t="n"/>
+      <c r="G787" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H787" s="18" t="n"/>
-      <c r="I787" s="13" t="n"/>
-      <c r="J787" s="13" t="n"/>
+      <c r="I787" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J787" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="K787" s="19" t="n"/>
-      <c r="L787" s="19" t="n"/>
+      <c r="L787" s="19" t="inlineStr">
+        <is>
+          <t>fc6998a5-35e3-4378-a7e3-1c67d68cf6a6</t>
+        </is>
+      </c>
       <c r="M787" s="20" t="n"/>
       <c r="N787" s="20" t="n"/>
       <c r="O787" s="20" t="n"/>
@@ -40083,17 +41510,50 @@
       <c r="Q787" s="20" t="n"/>
     </row>
     <row r="788">
-      <c r="A788" s="18" t="n"/>
-      <c r="B788" s="18" t="n"/>
-      <c r="C788" s="18" t="n"/>
-      <c r="D788" s="18" t="n"/>
+      <c r="A788" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B788" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C788" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D788" s="18" t="inlineStr">
+        <is>
+          <t>애플리케이션을 컨테이너화하면 VM 밀도를 개선하고 확장 비용을 절감할 수 있습니다</t>
+        </is>
+      </c>
       <c r="E788" s="18" t="n"/>
       <c r="F788" s="18" t="n"/>
+      <c r="G788" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H788" s="18" t="n"/>
-      <c r="I788" s="13" t="n"/>
-      <c r="J788" s="13" t="n"/>
+      <c r="I788" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J788" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K788" s="19" t="n"/>
-      <c r="L788" s="19" t="n"/>
+      <c r="L788" s="19" t="inlineStr">
+        <is>
+          <t>2a119495-6d69-47dc-9a2e-d27b2d186f1a</t>
+        </is>
+      </c>
       <c r="M788" s="20" t="n"/>
       <c r="N788" s="20" t="n"/>
       <c r="O788" s="20" t="n"/>
@@ -47751,7 +49211,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G741" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G789" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -48385,6 +49845,54 @@
     <hyperlink ref="I738" r:id="rId627"/>
     <hyperlink ref="I739" r:id="rId628"/>
     <hyperlink ref="I740" r:id="rId629"/>
+    <hyperlink ref="I741" r:id="rId630"/>
+    <hyperlink ref="I742" r:id="rId631"/>
+    <hyperlink ref="I743" r:id="rId632"/>
+    <hyperlink ref="I744" r:id="rId633"/>
+    <hyperlink ref="I745" r:id="rId634"/>
+    <hyperlink ref="I746" r:id="rId635"/>
+    <hyperlink ref="I747" r:id="rId636"/>
+    <hyperlink ref="I748" r:id="rId637"/>
+    <hyperlink ref="I749" r:id="rId638"/>
+    <hyperlink ref="I750" r:id="rId639"/>
+    <hyperlink ref="I751" r:id="rId640"/>
+    <hyperlink ref="I752" r:id="rId641"/>
+    <hyperlink ref="I753" r:id="rId642"/>
+    <hyperlink ref="I754" r:id="rId643"/>
+    <hyperlink ref="I755" r:id="rId644"/>
+    <hyperlink ref="I756" r:id="rId645"/>
+    <hyperlink ref="I757" r:id="rId646"/>
+    <hyperlink ref="I758" r:id="rId647"/>
+    <hyperlink ref="I759" r:id="rId648"/>
+    <hyperlink ref="I760" r:id="rId649"/>
+    <hyperlink ref="I761" r:id="rId650"/>
+    <hyperlink ref="I762" r:id="rId651"/>
+    <hyperlink ref="I763" r:id="rId652"/>
+    <hyperlink ref="I764" r:id="rId653"/>
+    <hyperlink ref="I765" r:id="rId654"/>
+    <hyperlink ref="I766" r:id="rId655"/>
+    <hyperlink ref="I767" r:id="rId656"/>
+    <hyperlink ref="I768" r:id="rId657"/>
+    <hyperlink ref="I769" r:id="rId658"/>
+    <hyperlink ref="I770" r:id="rId659"/>
+    <hyperlink ref="I771" r:id="rId660"/>
+    <hyperlink ref="I772" r:id="rId661"/>
+    <hyperlink ref="I773" r:id="rId662"/>
+    <hyperlink ref="I774" r:id="rId663"/>
+    <hyperlink ref="I775" r:id="rId664"/>
+    <hyperlink ref="I776" r:id="rId665"/>
+    <hyperlink ref="I777" r:id="rId666"/>
+    <hyperlink ref="I778" r:id="rId667"/>
+    <hyperlink ref="I779" r:id="rId668"/>
+    <hyperlink ref="I780" r:id="rId669"/>
+    <hyperlink ref="I781" r:id="rId670"/>
+    <hyperlink ref="I782" r:id="rId671"/>
+    <hyperlink ref="I783" r:id="rId672"/>
+    <hyperlink ref="I784" r:id="rId673"/>
+    <hyperlink ref="I785" r:id="rId674"/>
+    <hyperlink ref="I786" r:id="rId675"/>
+    <hyperlink ref="I787" r:id="rId676"/>
+    <hyperlink ref="I788" r:id="rId677"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -35879,22 +35879,22 @@
     <row r="677">
       <c r="A677" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>MySQL Review Checklist</t>
         </is>
       </c>
       <c r="B677" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C677" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure MySQL</t>
         </is>
       </c>
       <c r="D677" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 고객 관리형 TLS 인증서를 사용하는 경우 '최신' 인증서 버전을 사용합니다. 수동 인증서 갱신으로 인한 중단 위험 감소</t>
+          <t>유연한 서버 활용</t>
         </is>
       </c>
       <c r="E677" s="18" t="n"/>
@@ -35918,7 +35918,7 @@
       <c r="K677" s="19" t="n"/>
       <c r="L677" s="19" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>388c3e25-e800-4ad2-9df3-f3d6ae1050b7</t>
         </is>
       </c>
       <c r="M677" s="20" t="n"/>
@@ -35930,28 +35930,28 @@
     <row r="678">
       <c r="A678" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>MySQL Review Checklist</t>
         </is>
       </c>
       <c r="B678" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C678" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Azure MySQL</t>
         </is>
       </c>
       <c r="D678" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway v2 SKU를 사용하고 있는지 확인합니다.</t>
+          <t>지역적으로 적용 가능한 경우 가용 영역 활용Leverage Availability Zones where regionally applicable</t>
         </is>
       </c>
       <c r="E678" s="18" t="n"/>
       <c r="F678" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G678" t="inlineStr">
@@ -35965,19 +35965,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J678" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K678" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/applicationgateways' | project id, compliant = properties.sku.name in ('Standard_v2', 'WAF_v2') | project id,compliant</t>
-        </is>
-      </c>
+      <c r="J678" s="13" t="n"/>
+      <c r="K678" s="19" t="n"/>
       <c r="L678" s="19" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>de3aad1e-8c38-4ec9-9666-7313c005674b</t>
         </is>
       </c>
       <c r="M678" s="20" t="n"/>
@@ -35989,22 +35981,22 @@
     <row r="679">
       <c r="A679" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>MySQL Review Checklist</t>
         </is>
       </c>
       <c r="B679" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C679" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Azure MySQL</t>
         </is>
       </c>
       <c r="D679" s="18" t="inlineStr">
         <is>
-          <t>Azure Load Balancer에 표준 SKU를 사용하고 있는지 확인합니다.</t>
+          <t>지역 간 DR 시나리오에 입력 데이터 복제 활용</t>
         </is>
       </c>
       <c r="E679" s="18" t="n"/>
@@ -36025,14 +36017,10 @@
         </is>
       </c>
       <c r="J679" s="13" t="n"/>
-      <c r="K679" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/loadbalancers' | project id, compliant=(tolower(sku.name) == 'standard')</t>
-        </is>
-      </c>
+      <c r="K679" s="19" t="n"/>
       <c r="L679" s="19" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>1e944a45-9c37-43e7-bd61-623b365a917e</t>
         </is>
       </c>
       <c r="M679" s="20" t="n"/>
@@ -36049,17 +36037,17 @@
       </c>
       <c r="B680" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C680" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D680" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer 프런트 엔드 IP 주소가 영역 중복인지 확인합니다(영역 프런트 엔드가 필요하지 않은 경우).</t>
+          <t>Azure Front Door에서 고객 관리형 TLS 인증서를 사용하는 경우 '최신' 인증서 버전을 사용합니다. 수동 인증서 갱신으로 인한 중단 위험 감소</t>
         </is>
       </c>
       <c r="E680" s="18" t="n"/>
@@ -36083,7 +36071,7 @@
       <c r="K680" s="19" t="n"/>
       <c r="L680" s="19" t="inlineStr">
         <is>
-          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M680" s="20" t="n"/>
@@ -36110,7 +36098,7 @@
       </c>
       <c r="D681" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway v2는 IP 접두사가 /24보다 크거나 같은 서브넷에 배포해야 합니다.</t>
+          <t>Application Gateway v2 SKU를 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E681" s="18" t="n"/>
@@ -36137,12 +36125,12 @@
       </c>
       <c r="K681" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/applicationgateways' | extend subnetId = tostring(properties.gatewayIPConfigurations[0].properties.subnet.id) | project id, subnetId | join (resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | mv-expand subnets.properties.addressPrefixes | project id, subnetId = tostring(subnets.id), prefix1 = subnets.properties.addressPrefix, prefix2 = subnets.properties.addressPrefixes | mv-expand prefix2 | extend prefix = iff(isnotnull(prefix1), prefix1, prefix2) | extend subnetPrefixLength = split(prefix, '/')[1])on subnetId | extend compliant = (subnetPrefixLength &lt;= 24 or subnetPrefixLength == 64) | distinct id,compliant</t>
+          <t>resources | where type == 'microsoft.network/applicationgateways' | project id, compliant = properties.sku.name in ('Standard_v2', 'WAF_v2') | project id,compliant</t>
         </is>
       </c>
       <c r="L681" s="19" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M681" s="20" t="n"/>
@@ -36164,19 +36152,15 @@
       </c>
       <c r="C682" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D682" s="18" t="inlineStr">
         <is>
-          <t>랜딩 영역 가상 네트워크 내에서 그리고 보안 중인 앱을 사용하여 인바운드 HTTP(S) 연결을 프록시하는 데 사용되는 Azure Application Gateway v2 또는 파트너 NVA를 배포합니다.</t>
-        </is>
-      </c>
-      <c r="E682" s="18" t="inlineStr">
-        <is>
-          <t>일반적으로 역방향 프록시 및 특히 WAF의 관리는 네트워킹보다 애플리케이션에 더 가깝기 때문에 앱과 동일한 구독에 속합니다. 연결 구독에서 Application Gateway 및 WAF를 중앙 집중화하는 것은 단일 팀에서 관리하는 경우 괜찮을 수 있습니다.</t>
-        </is>
-      </c>
+          <t>Azure Load Balancer에 표준 SKU를 사용하고 있는지 확인합니다.</t>
+        </is>
+      </c>
+      <c r="E682" s="18" t="n"/>
       <c r="F682" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -36193,15 +36177,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J682" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K682" s="19" t="n"/>
+      <c r="J682" s="13" t="n"/>
+      <c r="K682" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/loadbalancers' | project id, compliant=(tolower(sku.name) == 'standard')</t>
+        </is>
+      </c>
       <c r="L682" s="19" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M682" s="20" t="n"/>
@@ -36223,12 +36207,12 @@
       </c>
       <c r="C683" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D683" s="18" t="inlineStr">
         <is>
-          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
+          <t>Load Balancer 프런트 엔드 IP 주소가 영역 중복인지 확인합니다(영역 프런트 엔드가 필요하지 않은 경우).</t>
         </is>
       </c>
       <c r="E683" s="18" t="n"/>
@@ -36248,15 +36232,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J683" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J683" s="13" t="n"/>
       <c r="K683" s="19" t="n"/>
       <c r="L683" s="19" t="inlineStr">
         <is>
-          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
+          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
         </is>
       </c>
       <c r="M683" s="20" t="n"/>
@@ -36273,7 +36253,7 @@
       </c>
       <c r="B684" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C684" s="18" t="inlineStr">
@@ -36283,7 +36263,7 @@
       </c>
       <c r="D684" s="18" t="inlineStr">
         <is>
-          <t>최소 인스턴스 수를 2개로 자동 크기 조정을 구성합니다.</t>
+          <t>Application Gateway v2는 IP 접두사가 /24보다 크거나 같은 서브넷에 배포해야 합니다.</t>
         </is>
       </c>
       <c r="E684" s="18" t="n"/>
@@ -36310,12 +36290,12 @@
       </c>
       <c r="K684" s="19" t="inlineStr">
         <is>
-          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(properties.autoscaleConfiguration) and properties.autoscaleConfiguration.minCapacity &gt;= 2) | distinct id,compliant</t>
+          <t>resources | where type=='microsoft.network/applicationgateways' | extend subnetId = tostring(properties.gatewayIPConfigurations[0].properties.subnet.id) | project id, subnetId | join (resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | mv-expand subnets.properties.addressPrefixes | project id, subnetId = tostring(subnets.id), prefix1 = subnets.properties.addressPrefix, prefix2 = subnets.properties.addressPrefixes | mv-expand prefix2 | extend prefix = iff(isnotnull(prefix1), prefix1, prefix2) | extend subnetPrefixLength = split(prefix, '/')[1])on subnetId | extend compliant = (subnetPrefixLength &lt;= 24 or subnetPrefixLength == 64) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L684" s="19" t="inlineStr">
         <is>
-          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M684" s="20" t="n"/>
@@ -36332,7 +36312,7 @@
       </c>
       <c r="B685" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C685" s="18" t="inlineStr">
@@ -36342,10 +36322,14 @@
       </c>
       <c r="D685" s="18" t="inlineStr">
         <is>
-          <t>가용성 영역에 Application Gateway 배포</t>
-        </is>
-      </c>
-      <c r="E685" s="18" t="n"/>
+          <t>랜딩 영역 가상 네트워크 내에서 그리고 보안 중인 앱을 사용하여 인바운드 HTTP(S) 연결을 프록시하는 데 사용되는 Azure Application Gateway v2 또는 파트너 NVA를 배포합니다.</t>
+        </is>
+      </c>
+      <c r="E685" s="18" t="inlineStr">
+        <is>
+          <t>일반적으로 역방향 프록시 및 특히 WAF의 관리는 네트워킹보다 애플리케이션에 더 가깝기 때문에 앱과 동일한 구독에 속합니다. 연결 구독에서 Application Gateway 및 WAF를 중앙 집중화하는 것은 단일 팀에서 관리하는 경우 괜찮을 수 있습니다.</t>
+        </is>
+      </c>
       <c r="F685" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -36367,14 +36351,10 @@
           <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
-      <c r="K685" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(zones) and array_length(zones) &gt; 1) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K685" s="19" t="n"/>
       <c r="L685" s="19" t="inlineStr">
         <is>
-          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M685" s="20" t="n"/>
@@ -36396,12 +36376,12 @@
       </c>
       <c r="C686" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D686" s="18" t="inlineStr">
         <is>
-          <t>WAF 정책과 함께 Azure Front Door를 사용하여 여러 Azure 지역에 걸쳐 있는 글로벌 HTTP/S 앱을 제공하고 보호할 수 있습니다.</t>
+          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
         </is>
       </c>
       <c r="E686" s="18" t="n"/>
@@ -36429,7 +36409,7 @@
       <c r="K686" s="19" t="n"/>
       <c r="L686" s="19" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
         </is>
       </c>
       <c r="M686" s="20" t="n"/>
@@ -36446,17 +36426,17 @@
       </c>
       <c r="B687" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C687" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D687" s="18" t="inlineStr">
         <is>
-          <t>Front Door 및 Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Front Door에서 WAF 정책을 사용합니다. Front Door에서만 트래픽을 수신하도록 Application Gateway를 잠급니다.</t>
+          <t>최소 인스턴스 수를 2개로 자동 크기 조정을 구성합니다.</t>
         </is>
       </c>
       <c r="E687" s="18" t="n"/>
@@ -36478,13 +36458,17 @@
       </c>
       <c r="J687" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K687" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K687" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(properties.autoscaleConfiguration) and properties.autoscaleConfiguration.minCapacity &gt;= 2) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L687" s="19" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
         </is>
       </c>
       <c r="M687" s="20" t="n"/>
@@ -36506,18 +36490,18 @@
       </c>
       <c r="C688" s="18" t="inlineStr">
         <is>
-          <t>Traffic Manager</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D688" s="18" t="inlineStr">
         <is>
-          <t>Traffic Manager를 사용하여 HTTP/S 이외의 프로토콜에 걸쳐 있는 글로벌 앱을 제공합니다.</t>
+          <t>가용성 영역에 Application Gateway 배포</t>
         </is>
       </c>
       <c r="E688" s="18" t="n"/>
       <c r="F688" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G688" t="inlineStr">
@@ -36533,13 +36517,17 @@
       </c>
       <c r="J688" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K688" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K688" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(zones) and array_length(zones) &gt; 1) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L688" s="19" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
         </is>
       </c>
       <c r="M688" s="20" t="n"/>
@@ -36561,18 +36549,18 @@
       </c>
       <c r="C689" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D689" s="18" t="inlineStr">
         <is>
-          <t>사용자가 내부 애플리케이션에만 액세스해야 하는 경우 Microsoft Entra ID 애플리케이션 프록시가 AVD(Azure Virtual Desktop)의 대안으로 고려되었나요?</t>
+          <t>WAF 정책과 함께 Azure Front Door를 사용하여 여러 Azure 지역에 걸쳐 있는 글로벌 HTTP/S 앱을 제공하고 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="E689" s="18" t="n"/>
       <c r="F689" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G689" t="inlineStr">
@@ -36588,13 +36576,13 @@
       </c>
       <c r="J689" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K689" s="19" t="n"/>
       <c r="L689" s="19" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M689" s="20" t="n"/>
@@ -36616,12 +36604,12 @@
       </c>
       <c r="C690" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D690" s="18" t="inlineStr">
         <is>
-          <t>네트워크에서 들어오는 연결에 대해 열려 있는 방화벽 포트 수를 줄이려면 Microsoft Entra ID 애플리케이션 프록시를 사용하여 원격 사용자에게 내부 애플리케이션에 대한 안전하고 인증된 액세스를 제공하는 것이 좋습니다.</t>
+          <t>Front Door 및 Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Front Door에서 WAF 정책을 사용합니다. Front Door에서만 트래픽을 수신하도록 Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="E690" s="18" t="n"/>
@@ -36643,13 +36631,13 @@
       </c>
       <c r="J690" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K690" s="19" t="n"/>
       <c r="L690" s="19" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M690" s="20" t="n"/>
@@ -36666,17 +36654,17 @@
       </c>
       <c r="B691" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C691" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Traffic Manager</t>
         </is>
       </c>
       <c r="D691" s="18" t="inlineStr">
         <is>
-          <t>'방지' 모드에서 Front Door에 대한 WAF 정책을 배포합니다.</t>
+          <t>Traffic Manager를 사용하여 HTTP/S 이외의 프로토콜에 걸쳐 있는 글로벌 앱을 제공합니다.</t>
         </is>
       </c>
       <c r="E691" s="18" t="n"/>
@@ -36696,15 +36684,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J691" s="13" t="n"/>
-      <c r="K691" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
-        </is>
-      </c>
+      <c r="J691" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K691" s="19" t="n"/>
       <c r="L691" s="19" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M691" s="20" t="n"/>
@@ -36726,18 +36714,18 @@
       </c>
       <c r="C692" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D692" s="18" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager와 Azure Front Door를 결합하지 마세요.</t>
+          <t>사용자가 내부 애플리케이션에만 액세스해야 하는 경우 Microsoft Entra ID 애플리케이션 프록시가 AVD(Azure Virtual Desktop)의 대안으로 고려되었나요?</t>
         </is>
       </c>
       <c r="E692" s="18" t="n"/>
       <c r="F692" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G692" t="inlineStr">
@@ -36751,11 +36739,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J692" s="13" t="n"/>
+      <c r="J692" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="K692" s="19" t="n"/>
       <c r="L692" s="19" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M692" s="20" t="n"/>
@@ -36777,18 +36769,18 @@
       </c>
       <c r="C693" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D693" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 원본에서 동일한 도메인 이름을 사용합니다. 호스트 이름이 일치하지 않으면 미묘한 버그가 발생할 수 있습니다.</t>
+          <t>네트워크에서 들어오는 연결에 대해 열려 있는 방화벽 포트 수를 줄이려면 Microsoft Entra ID 애플리케이션 프록시를 사용하여 원격 사용자에게 내부 애플리케이션에 대한 안전하고 인증된 액세스를 제공하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E693" s="18" t="n"/>
       <c r="F693" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G693" t="inlineStr">
@@ -36802,11 +36794,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J693" s="13" t="n"/>
+      <c r="J693" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="K693" s="19" t="n"/>
       <c r="L693" s="19" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M693" s="20" t="n"/>
@@ -36823,7 +36819,7 @@
       </c>
       <c r="B694" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C694" s="18" t="inlineStr">
@@ -36833,13 +36829,13 @@
       </c>
       <c r="D694" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 원본 그룹에 원본이 하나만 있는 경우 상태 프로브를 사용하지 않도록 설정합니다.</t>
+          <t>'방지' 모드에서 Front Door에 대한 WAF 정책을 배포합니다.</t>
         </is>
       </c>
       <c r="E694" s="18" t="n"/>
       <c r="F694" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G694" t="inlineStr">
@@ -36856,12 +36852,12 @@
       <c r="J694" s="13" t="n"/>
       <c r="K694" s="19" t="inlineStr">
         <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
         </is>
       </c>
       <c r="L694" s="19" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M694" s="20" t="n"/>
@@ -36878,7 +36874,7 @@
       </c>
       <c r="B695" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C695" s="18" t="inlineStr">
@@ -36888,13 +36884,13 @@
       </c>
       <c r="D695" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door에 대한 양호한 상태 프로브 엔드포인트를 선택합니다. 애플리케이션의 모든 종속성을 확인하는 상태 엔드포인트를 빌드하는 것이 좋습니다.</t>
+          <t>Azure Traffic Manager와 Azure Front Door를 결합하지 마세요.</t>
         </is>
       </c>
       <c r="E695" s="18" t="n"/>
       <c r="F695" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G695" t="inlineStr">
@@ -36912,7 +36908,7 @@
       <c r="K695" s="19" t="n"/>
       <c r="L695" s="19" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M695" s="20" t="n"/>
@@ -36929,7 +36925,7 @@
       </c>
       <c r="B696" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C696" s="18" t="inlineStr">
@@ -36939,13 +36935,13 @@
       </c>
       <c r="D696" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door와 함께 HEAD 상태 프로브를 사용하여 Front Door가 애플리케이션으로 보내는 트래픽을 줄입니다.</t>
+          <t>Azure Front Door 및 원본에서 동일한 도메인 이름을 사용합니다. 호스트 이름이 일치하지 않으면 미묘한 버그가 발생할 수 있습니다.</t>
         </is>
       </c>
       <c r="E696" s="18" t="n"/>
       <c r="F696" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G696" t="inlineStr">
@@ -36960,14 +36956,10 @@
         </is>
       </c>
       <c r="J696" s="13" t="n"/>
-      <c r="K696" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
-        </is>
-      </c>
+      <c r="K696" s="19" t="n"/>
       <c r="L696" s="19" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M696" s="20" t="n"/>
@@ -36984,23 +36976,23 @@
       </c>
       <c r="B697" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C697" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D697" s="18" t="inlineStr">
         <is>
-          <t>SNAT 확장성 향상을 위해 Load Balancer 아웃바운드 규칙 대신 Azure NAT Gateway 사용</t>
+          <t>Azure Front Door 원본 그룹에 원본이 하나만 있는 경우 상태 프로브를 사용하지 않도록 설정합니다.</t>
         </is>
       </c>
       <c r="E697" s="18" t="n"/>
       <c r="F697" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G697" t="inlineStr">
@@ -37017,12 +37009,12 @@
       <c r="J697" s="13" t="n"/>
       <c r="K697" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/loadbalancers' | extend countOutRules=array_length(properties.outboundRules) | extend compliant = (countOutRules == 0) | distinct id,compliant</t>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
         </is>
       </c>
       <c r="L697" s="19" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M697" s="20" t="n"/>
@@ -37039,7 +37031,7 @@
       </c>
       <c r="B698" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C698" s="18" t="inlineStr">
@@ -37049,13 +37041,13 @@
       </c>
       <c r="D698" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 관리형 TLS 인증서를 사용합니다. 운영 비용을 줄이고 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
+          <t>Azure Front Door에 대한 양호한 상태 프로브 엔드포인트를 선택합니다. 애플리케이션의 모든 종속성을 확인하는 상태 엔드포인트를 빌드하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E698" s="18" t="n"/>
       <c r="F698" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G698" t="inlineStr">
@@ -37070,14 +37062,10 @@
         </is>
       </c>
       <c r="J698" s="13" t="n"/>
-      <c r="K698" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
-        </is>
-      </c>
+      <c r="K698" s="19" t="n"/>
       <c r="L698" s="19" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M698" s="20" t="n"/>
@@ -37094,7 +37082,7 @@
       </c>
       <c r="B699" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C699" s="18" t="inlineStr">
@@ -37104,13 +37092,13 @@
       </c>
       <c r="D699" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 구성을 코드로 정의합니다. 코드를 사용하면 새 규칙 집합 버전을 보다 쉽게 채택하고 추가 보호를 얻을 수 있습니다.</t>
+          <t>Azure Front Door와 함께 HEAD 상태 프로브를 사용하여 Front Door가 애플리케이션으로 보내는 트래픽을 줄입니다.</t>
         </is>
       </c>
       <c r="E699" s="18" t="n"/>
       <c r="F699" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G699" t="inlineStr">
@@ -37125,10 +37113,14 @@
         </is>
       </c>
       <c r="J699" s="13" t="n"/>
-      <c r="K699" s="19" t="n"/>
+      <c r="K699" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
+        </is>
+      </c>
       <c r="L699" s="19" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M699" s="20" t="n"/>
@@ -37145,17 +37137,17 @@
       </c>
       <c r="B700" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C700" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D700" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 엔드투엔드 TLS를 사용합니다. 클라이언트에서 Front Door로, Front Door에서 원본으로 연결하는 데 TLS를 사용합니다.</t>
+          <t>SNAT 확장성 향상을 위해 Load Balancer 아웃바운드 규칙 대신 Azure NAT Gateway 사용</t>
         </is>
       </c>
       <c r="E700" s="18" t="n"/>
@@ -37176,10 +37168,14 @@
         </is>
       </c>
       <c r="J700" s="13" t="n"/>
-      <c r="K700" s="19" t="n"/>
+      <c r="K700" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/loadbalancers' | extend countOutRules=array_length(properties.outboundRules) | extend compliant = (countOutRules == 0) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L700" s="19" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M700" s="20" t="n"/>
@@ -37196,7 +37192,7 @@
       </c>
       <c r="B701" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C701" s="18" t="inlineStr">
@@ -37206,13 +37202,13 @@
       </c>
       <c r="D701" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door에서 HTTP에서 HTTPS로 리디렉션을 사용합니다. 이전 클라이언트를 HTTPS 요청으로 자동 리디렉션하여 지원합니다.</t>
+          <t>Azure Front Door에서 관리형 TLS 인증서를 사용합니다. 운영 비용을 줄이고 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
         </is>
       </c>
       <c r="E701" s="18" t="n"/>
       <c r="F701" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G701" t="inlineStr">
@@ -37227,10 +37223,14 @@
         </is>
       </c>
       <c r="J701" s="13" t="n"/>
-      <c r="K701" s="19" t="n"/>
+      <c r="K701" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
+        </is>
+      </c>
       <c r="L701" s="19" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M701" s="20" t="n"/>
@@ -37247,7 +37247,7 @@
       </c>
       <c r="B702" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C702" s="18" t="inlineStr">
@@ -37257,13 +37257,13 @@
       </c>
       <c r="D702" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하도록 설정합니다. 다양한 공격으로부터 애플리케이션을 보호합니다.</t>
+          <t>Azure Front Door WAF 구성을 코드로 정의합니다. 코드를 사용하면 새 규칙 집합 버전을 보다 쉽게 채택하고 추가 보호를 얻을 수 있습니다.</t>
         </is>
       </c>
       <c r="E702" s="18" t="n"/>
       <c r="F702" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G702" t="inlineStr">
@@ -37281,7 +37281,7 @@
       <c r="K702" s="19" t="n"/>
       <c r="L702" s="19" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M702" s="20" t="n"/>
@@ -37308,7 +37308,7 @@
       </c>
       <c r="D703" s="18" t="inlineStr">
         <is>
-          <t>워크로드에 맞게 Azure Front Door WAF를 튜닝합니다. 가양성 탐지를 줄입니다.</t>
+          <t>Azure Front Door에서 엔드투엔드 TLS를 사용합니다. 클라이언트에서 Front Door로, Front Door에서 원본으로 연결하는 데 TLS를 사용합니다.</t>
         </is>
       </c>
       <c r="E703" s="18" t="n"/>
@@ -37332,7 +37332,7 @@
       <c r="K703" s="19" t="n"/>
       <c r="L703" s="19" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M703" s="20" t="n"/>
@@ -37359,13 +37359,13 @@
       </c>
       <c r="D704" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 정책에서 요청 본문 검사 기능을 사용하도록 설정합니다.</t>
+          <t>Azure Front Door에서 HTTP에서 HTTPS로 리디렉션을 사용합니다. 이전 클라이언트를 HTTPS 요청으로 자동 리디렉션하여 지원합니다.</t>
         </is>
       </c>
       <c r="E704" s="18" t="n"/>
       <c r="F704" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G704" t="inlineStr">
@@ -37383,7 +37383,7 @@
       <c r="K704" s="19" t="n"/>
       <c r="L704" s="19" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M704" s="20" t="n"/>
@@ -37410,7 +37410,7 @@
       </c>
       <c r="D705" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 기본 규칙 집합을 사용하도록 설정합니다. 기본 규칙 집합은 일반적인 공격을 탐지하고 차단합니다.</t>
+          <t>Azure Front Door WAF를 사용하도록 설정합니다. 다양한 공격으로부터 애플리케이션을 보호합니다.</t>
         </is>
       </c>
       <c r="E705" s="18" t="n"/>
@@ -37434,7 +37434,7 @@
       <c r="K705" s="19" t="n"/>
       <c r="L705" s="19" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M705" s="20" t="n"/>
@@ -37461,7 +37461,7 @@
       </c>
       <c r="D706" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 봇 보호 규칙 집합을 사용하도록 설정합니다. 봇 규칙은 좋은 봇과 나쁜 봇을 감지합니다.</t>
+          <t>워크로드에 맞게 Azure Front Door WAF를 튜닝합니다. 가양성 탐지를 줄입니다.</t>
         </is>
       </c>
       <c r="E706" s="18" t="n"/>
@@ -37485,7 +37485,7 @@
       <c r="K706" s="19" t="n"/>
       <c r="L706" s="19" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M706" s="20" t="n"/>
@@ -37512,13 +37512,13 @@
       </c>
       <c r="D707" s="18" t="inlineStr">
         <is>
-          <t>최신 Azure Front Door WAF 규칙 집합 버전을 사용합니다. 규칙 집합 업데이트는 현재 위협 환경을 고려하기 위해 정기적으로 업데이트됩니다.</t>
+          <t>Azure Front Door WAF 정책에서 요청 본문 검사 기능을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="E707" s="18" t="n"/>
       <c r="F707" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G707" t="inlineStr">
@@ -37536,7 +37536,7 @@
       <c r="K707" s="19" t="n"/>
       <c r="L707" s="19" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M707" s="20" t="n"/>
@@ -37563,13 +37563,13 @@
       </c>
       <c r="D708" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 짧은 시간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
+          <t>Azure Front Door WAF 기본 규칙 집합을 사용하도록 설정합니다. 기본 규칙 집합은 일반적인 공격을 탐지하고 차단합니다.</t>
         </is>
       </c>
       <c r="E708" s="18" t="n"/>
       <c r="F708" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G708" t="inlineStr">
@@ -37587,7 +37587,7 @@
       <c r="K708" s="19" t="n"/>
       <c r="L708" s="19" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M708" s="20" t="n"/>
@@ -37614,13 +37614,13 @@
       </c>
       <c r="D709" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Front Door WAF 속도 제한에 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽 차단을 방지하는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청에 대한 보호 기능을 제공합니다. </t>
+          <t>Azure Front Door WAF 봇 보호 규칙 집합을 사용하도록 설정합니다. 봇 규칙은 좋은 봇과 나쁜 봇을 감지합니다.</t>
         </is>
       </c>
       <c r="E709" s="18" t="n"/>
       <c r="F709" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G709" t="inlineStr">
@@ -37638,7 +37638,7 @@
       <c r="K709" s="19" t="n"/>
       <c r="L709" s="19" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M709" s="20" t="n"/>
@@ -37665,13 +37665,13 @@
       </c>
       <c r="D710" s="18" t="inlineStr">
         <is>
-          <t>모든 지역에서 트래픽이 발생하지 않을 것으로 예상되는 경우 지역 필터를 사용하여 예상하지 못한 국가의 트래픽을 차단합니다.</t>
+          <t>최신 Azure Front Door WAF 규칙 집합 버전을 사용합니다. 규칙 집합 업데이트는 현재 위협 환경을 고려하기 위해 정기적으로 업데이트됩니다.</t>
         </is>
       </c>
       <c r="E710" s="18" t="n"/>
       <c r="F710" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G710" t="inlineStr">
@@ -37689,7 +37689,7 @@
       <c r="K710" s="19" t="n"/>
       <c r="L710" s="19" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M710" s="20" t="n"/>
@@ -37716,7 +37716,7 @@
       </c>
       <c r="D711" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링할 때 알 수 없는(ZZ) 위치를 지정합니다. IP 주소를 지리적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 않도록 합니다.</t>
+          <t>Azure Front Door WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 짧은 시간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
         </is>
       </c>
       <c r="E711" s="18" t="n"/>
@@ -37740,7 +37740,7 @@
       <c r="K711" s="19" t="n"/>
       <c r="L711" s="19" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M711" s="20" t="n"/>
@@ -37762,18 +37762,18 @@
       </c>
       <c r="C712" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D712" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF 봇 보호 규칙 집합 사용Enable the Azure Application Gateway WAF bot protection rule set 봇 규칙은 좋은 봇과 나쁜 봇을 검색합니다.</t>
+          <t xml:space="preserve">Azure Front Door WAF 속도 제한에 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽 차단을 방지하는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청에 대한 보호 기능을 제공합니다. </t>
         </is>
       </c>
       <c r="E712" s="18" t="n"/>
       <c r="F712" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G712" t="inlineStr">
@@ -37788,14 +37788,10 @@
         </is>
       </c>
       <c r="J712" s="13" t="n"/>
-      <c r="K712" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | mv-expand properties.managedRules.managedRuleSets | project id, rulesettype = properties_managedRules_managedRuleSets.ruleSetType | extend compliant1 = (rulesettype == 'Microsoft_BotManagerRuleSet') | project id, compliant1 | summarize compliant = max(compliant1) by id</t>
-        </is>
-      </c>
+      <c r="K712" s="19" t="n"/>
       <c r="L712" s="19" t="inlineStr">
         <is>
-          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M712" s="20" t="n"/>
@@ -37817,18 +37813,18 @@
       </c>
       <c r="C713" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D713" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF 정책에서 요청 본문 검사 기능을 사용하도록 설정합니다.</t>
+          <t>모든 지역에서 트래픽이 발생하지 않을 것으로 예상되는 경우 지역 필터를 사용하여 예상하지 못한 국가의 트래픽을 차단합니다.</t>
         </is>
       </c>
       <c r="E713" s="18" t="n"/>
       <c r="F713" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G713" t="inlineStr">
@@ -37846,7 +37842,7 @@
       <c r="K713" s="19" t="n"/>
       <c r="L713" s="19" t="inlineStr">
         <is>
-          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M713" s="20" t="n"/>
@@ -37868,18 +37864,18 @@
       </c>
       <c r="C714" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D714" s="18" t="inlineStr">
         <is>
-          <t>워크로드에 대한 Azure Application Gateway WAF를 조정합니다. 가양성 탐지를 줄입니다.</t>
+          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링할 때 알 수 없는(ZZ) 위치를 지정합니다. IP 주소를 지리적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="E714" s="18" t="n"/>
       <c r="F714" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G714" t="inlineStr">
@@ -37897,7 +37893,7 @@
       <c r="K714" s="19" t="n"/>
       <c r="L714" s="19" t="inlineStr">
         <is>
-          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M714" s="20" t="n"/>
@@ -37924,7 +37920,7 @@
       </c>
       <c r="D715" s="18" t="inlineStr">
         <is>
-          <t>'방지' 모드에서 Application Gateway에 대한 WAF 정책을 배포합니다.</t>
+          <t>Azure Application Gateway WAF 봇 보호 규칙 집합 사용Enable the Azure Application Gateway WAF bot protection rule set 봇 규칙은 좋은 봇과 나쁜 봇을 검색합니다.</t>
         </is>
       </c>
       <c r="E715" s="18" t="n"/>
@@ -37947,12 +37943,12 @@
       <c r="J715" s="13" t="n"/>
       <c r="K715" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+          <t>resources | where type == 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | mv-expand properties.managedRules.managedRuleSets | project id, rulesettype = properties_managedRules_managedRuleSets.ruleSetType | extend compliant1 = (rulesettype == 'Microsoft_BotManagerRuleSet') | project id, compliant1 | summarize compliant = max(compliant1) by id</t>
         </is>
       </c>
       <c r="L715" s="19" t="inlineStr">
         <is>
-          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
+          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
         </is>
       </c>
       <c r="M715" s="20" t="n"/>
@@ -37979,13 +37975,13 @@
       </c>
       <c r="D716" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 짧은 시간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
+          <t>Azure Application Gateway WAF 정책에서 요청 본문 검사 기능을 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="E716" s="18" t="n"/>
       <c r="F716" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G716" t="inlineStr">
@@ -38003,7 +37999,7 @@
       <c r="K716" s="19" t="n"/>
       <c r="L716" s="19" t="inlineStr">
         <is>
-          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
+          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
         </is>
       </c>
       <c r="M716" s="20" t="n"/>
@@ -38030,13 +38026,13 @@
       </c>
       <c r="D717" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Application Gateway WAF 속도 제한에 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽 차단을 방지하는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청에 대한 보호 기능을 제공합니다. </t>
+          <t>워크로드에 대한 Azure Application Gateway WAF를 조정합니다. 가양성 탐지를 줄입니다.</t>
         </is>
       </c>
       <c r="E717" s="18" t="n"/>
       <c r="F717" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G717" t="inlineStr">
@@ -38054,7 +38050,7 @@
       <c r="K717" s="19" t="n"/>
       <c r="L717" s="19" t="inlineStr">
         <is>
-          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
+          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
         </is>
       </c>
       <c r="M717" s="20" t="n"/>
@@ -38081,13 +38077,13 @@
       </c>
       <c r="D718" s="18" t="inlineStr">
         <is>
-          <t>모든 지역에서 트래픽이 발생하지 않을 것으로 예상되는 경우 지역 필터를 사용하여 예상하지 못한 국가의 트래픽을 차단합니다.</t>
+          <t>'방지' 모드에서 Application Gateway에 대한 WAF 정책을 배포합니다.</t>
         </is>
       </c>
       <c r="E718" s="18" t="n"/>
       <c r="F718" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G718" t="inlineStr">
@@ -38102,10 +38098,14 @@
         </is>
       </c>
       <c r="J718" s="13" t="n"/>
-      <c r="K718" s="19" t="n"/>
+      <c r="K718" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+        </is>
+      </c>
       <c r="L718" s="19" t="inlineStr">
         <is>
-          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
+          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
         </is>
       </c>
       <c r="M718" s="20" t="n"/>
@@ -38132,7 +38132,7 @@
       </c>
       <c r="D719" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF를 사용하여 트래픽을 지리적으로 필터링할 때 알 수 없는(ZZ) 위치를 지정합니다. IP 주소를 지리적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 않도록 합니다.</t>
+          <t>Azure Application Gateway WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 짧은 시간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
         </is>
       </c>
       <c r="E719" s="18" t="n"/>
@@ -38156,7 +38156,7 @@
       <c r="K719" s="19" t="n"/>
       <c r="L719" s="19" t="inlineStr">
         <is>
-          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
+          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
         </is>
       </c>
       <c r="M719" s="20" t="n"/>
@@ -38183,7 +38183,7 @@
       </c>
       <c r="D720" s="18" t="inlineStr">
         <is>
-          <t>최신 Azure Application Gateway WAF 규칙 집합 버전을 사용합니다. 규칙 집합 업데이트는 현재 위협 환경을 고려하기 위해 정기적으로 업데이트됩니다.</t>
+          <t xml:space="preserve">Azure Application Gateway WAF 속도 제한에 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽 차단을 방지하는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청에 대한 보호 기능을 제공합니다. </t>
         </is>
       </c>
       <c r="E720" s="18" t="n"/>
@@ -38207,7 +38207,7 @@
       <c r="K720" s="19" t="n"/>
       <c r="L720" s="19" t="inlineStr">
         <is>
-          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
+          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
         </is>
       </c>
       <c r="M720" s="20" t="n"/>
@@ -38224,7 +38224,7 @@
       </c>
       <c r="B721" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C721" s="18" t="inlineStr">
@@ -38234,13 +38234,13 @@
       </c>
       <c r="D721" s="18" t="inlineStr">
         <is>
-          <t>진단 설정을 추가하여 Azure Application Gateway WAF 로그를 저장합니다.</t>
+          <t>모든 지역에서 트래픽이 발생하지 않을 것으로 예상되는 경우 지역 필터를 사용하여 예상하지 못한 국가의 트래픽을 차단합니다.</t>
         </is>
       </c>
       <c r="E721" s="18" t="n"/>
       <c r="F721" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G721" t="inlineStr">
@@ -38258,7 +38258,7 @@
       <c r="K721" s="19" t="n"/>
       <c r="L721" s="19" t="inlineStr">
         <is>
-          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
+          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
         </is>
       </c>
       <c r="M721" s="20" t="n"/>
@@ -38275,17 +38275,17 @@
       </c>
       <c r="B722" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C722" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D722" s="18" t="inlineStr">
         <is>
-          <t>진단 설정을 추가하여 Azure Front Door WAF 로그를 저장합니다.</t>
+          <t>Azure Application Gateway WAF를 사용하여 트래픽을 지리적으로 필터링할 때 알 수 없는(ZZ) 위치를 지정합니다. IP 주소를 지리적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 않도록 합니다.</t>
         </is>
       </c>
       <c r="E722" s="18" t="n"/>
@@ -38309,7 +38309,7 @@
       <c r="K722" s="19" t="n"/>
       <c r="L722" s="19" t="inlineStr">
         <is>
-          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
+          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
         </is>
       </c>
       <c r="M722" s="20" t="n"/>
@@ -38326,7 +38326,7 @@
       </c>
       <c r="B723" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C723" s="18" t="inlineStr">
@@ -38336,7 +38336,7 @@
       </c>
       <c r="D723" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF 로그를 Microsoft Sentinel로 보냅니다.</t>
+          <t>최신 Azure Application Gateway WAF 규칙 집합 버전을 사용합니다. 규칙 집합 업데이트는 현재 위협 환경을 고려하기 위해 정기적으로 업데이트됩니다.</t>
         </is>
       </c>
       <c r="E723" s="18" t="n"/>
@@ -38360,7 +38360,7 @@
       <c r="K723" s="19" t="n"/>
       <c r="L723" s="19" t="inlineStr">
         <is>
-          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
+          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
         </is>
       </c>
       <c r="M723" s="20" t="n"/>
@@ -38382,12 +38382,12 @@
       </c>
       <c r="C724" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D724" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 로그를 Microsoft Sentinel로 보냅니다.</t>
+          <t>진단 설정을 추가하여 Azure Application Gateway WAF 로그를 저장합니다.</t>
         </is>
       </c>
       <c r="E724" s="18" t="n"/>
@@ -38411,7 +38411,7 @@
       <c r="K724" s="19" t="n"/>
       <c r="L724" s="19" t="inlineStr">
         <is>
-          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
+          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
         </is>
       </c>
       <c r="M724" s="20" t="n"/>
@@ -38433,12 +38433,12 @@
       </c>
       <c r="C725" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D725" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Gateway WAF 구성을 코드로 정의합니다. 코드를 사용하면 새 규칙 집합 버전을 보다 쉽게 채택하고 추가 보호를 얻을 수 있습니다.</t>
+          <t>진단 설정을 추가하여 Azure Front Door WAF 로그를 저장합니다.</t>
         </is>
       </c>
       <c r="E725" s="18" t="n"/>
@@ -38462,7 +38462,7 @@
       <c r="K725" s="19" t="n"/>
       <c r="L725" s="19" t="inlineStr">
         <is>
-          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
+          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
         </is>
       </c>
       <c r="M725" s="20" t="n"/>
@@ -38489,7 +38489,7 @@
       </c>
       <c r="D726" s="18" t="inlineStr">
         <is>
-          <t>레거시 WAF 구성 대신 WAF 정책을 사용합니다.</t>
+          <t>Azure Application Gateway WAF 로그를 Microsoft Sentinel로 보냅니다.</t>
         </is>
       </c>
       <c r="E726" s="18" t="n"/>
@@ -38513,7 +38513,7 @@
       <c r="K726" s="19" t="n"/>
       <c r="L726" s="19" t="inlineStr">
         <is>
-          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
+          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
         </is>
       </c>
       <c r="M726" s="20" t="n"/>
@@ -38530,17 +38530,17 @@
       </c>
       <c r="B727" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C727" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D727" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway 서브넷의 연결(예: NSG 사용)만 허용하도록 백 엔드에서 인바운드 트래픽을 필터링합니다.</t>
+          <t>Azure Front Door WAF 로그를 Microsoft Sentinel로 보냅니다.</t>
         </is>
       </c>
       <c r="E727" s="18" t="n"/>
@@ -38564,7 +38564,7 @@
       <c r="K727" s="19" t="n"/>
       <c r="L727" s="19" t="inlineStr">
         <is>
-          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
+          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
         </is>
       </c>
       <c r="M727" s="20" t="n"/>
@@ -38581,17 +38581,17 @@
       </c>
       <c r="B728" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C728" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D728" s="18" t="inlineStr">
         <is>
-          <t>원본이 Azure Front Door 인스턴스의 트래픽만 가져와야 합니다.</t>
+          <t>Azure Application Gateway WAF 구성을 코드로 정의합니다. 코드를 사용하면 새 규칙 집합 버전을 보다 쉽게 채택하고 추가 보호를 얻을 수 있습니다.</t>
         </is>
       </c>
       <c r="E728" s="18" t="n"/>
@@ -38615,7 +38615,7 @@
       <c r="K728" s="19" t="n"/>
       <c r="L728" s="19" t="inlineStr">
         <is>
-          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
+          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
         </is>
       </c>
       <c r="M728" s="20" t="n"/>
@@ -38632,7 +38632,7 @@
       </c>
       <c r="B729" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C729" s="18" t="inlineStr">
@@ -38642,13 +38642,13 @@
       </c>
       <c r="D729" s="18" t="inlineStr">
         <is>
-          <t>백 엔드 서버에 대한 트래픽을 암호화해야 합니다.</t>
+          <t>레거시 WAF 구성 대신 WAF 정책을 사용합니다.</t>
         </is>
       </c>
       <c r="E729" s="18" t="n"/>
       <c r="F729" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G729" t="inlineStr">
@@ -38666,7 +38666,7 @@
       <c r="K729" s="19" t="n"/>
       <c r="L729" s="19" t="inlineStr">
         <is>
-          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
+          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
         </is>
       </c>
       <c r="M729" s="20" t="n"/>
@@ -38693,13 +38693,13 @@
       </c>
       <c r="D730" s="18" t="inlineStr">
         <is>
-          <t>웹 응용 프로그램 방화벽을 사용해야 합니다.</t>
+          <t>Application Gateway 서브넷의 연결(예: NSG 사용)만 허용하도록 백 엔드에서 인바운드 트래픽을 필터링합니다.</t>
         </is>
       </c>
       <c r="E730" s="18" t="n"/>
       <c r="F730" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G730" t="inlineStr">
@@ -38717,7 +38717,7 @@
       <c r="K730" s="19" t="n"/>
       <c r="L730" s="19" t="inlineStr">
         <is>
-          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
+          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
         </is>
       </c>
       <c r="M730" s="20" t="n"/>
@@ -38739,12 +38739,12 @@
       </c>
       <c r="C731" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D731" s="18" t="inlineStr">
         <is>
-          <t>HTTP를 HTTPS로 리디렉션</t>
+          <t>원본이 Azure Front Door 인스턴스의 트래픽만 가져와야 합니다.</t>
         </is>
       </c>
       <c r="E731" s="18" t="n"/>
@@ -38768,7 +38768,7 @@
       <c r="K731" s="19" t="n"/>
       <c r="L731" s="19" t="inlineStr">
         <is>
-          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
         </is>
       </c>
       <c r="M731" s="20" t="n"/>
@@ -38785,7 +38785,7 @@
       </c>
       <c r="B732" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C732" s="18" t="inlineStr">
@@ -38795,13 +38795,13 @@
       </c>
       <c r="D732" s="18" t="inlineStr">
         <is>
-          <t>게이트웨이 관리 쿠키를 사용하여 처리를 위해 사용자 세션에서 동일한 서버로 트래픽을 전달합니다.</t>
+          <t>백 엔드 서버에 대한 트래픽을 암호화해야 합니다.</t>
         </is>
       </c>
       <c r="E732" s="18" t="n"/>
       <c r="F732" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G732" t="inlineStr">
@@ -38819,7 +38819,7 @@
       <c r="K732" s="19" t="n"/>
       <c r="L732" s="19" t="inlineStr">
         <is>
-          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
+          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
         </is>
       </c>
       <c r="M732" s="20" t="n"/>
@@ -38846,7 +38846,7 @@
       </c>
       <c r="D733" s="18" t="inlineStr">
         <is>
-          <t>계획된 서비스 업데이트 중에 연결 드레이닝을 사용하도록 설정하여 백 엔드 풀의 기존 멤버에 대한 연결 손실을 방지합니다.</t>
+          <t>웹 응용 프로그램 방화벽을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="E733" s="18" t="n"/>
@@ -38870,7 +38870,7 @@
       <c r="K733" s="19" t="n"/>
       <c r="L733" s="19" t="inlineStr">
         <is>
-          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
+          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
         </is>
       </c>
       <c r="M733" s="20" t="n"/>
@@ -38887,7 +38887,7 @@
       </c>
       <c r="B734" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C734" s="18" t="inlineStr">
@@ -38897,13 +38897,13 @@
       </c>
       <c r="D734" s="18" t="inlineStr">
         <is>
-          <t>사용자 지정 오류 페이지를 만들어 개인화된 사용자 환경 표시</t>
+          <t>HTTP를 HTTPS로 리디렉션</t>
         </is>
       </c>
       <c r="E734" s="18" t="n"/>
       <c r="F734" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G734" t="inlineStr">
@@ -38921,7 +38921,7 @@
       <c r="K734" s="19" t="n"/>
       <c r="L734" s="19" t="inlineStr">
         <is>
-          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
+          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
         </is>
       </c>
       <c r="M734" s="20" t="n"/>
@@ -38938,7 +38938,7 @@
       </c>
       <c r="B735" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C735" s="18" t="inlineStr">
@@ -38948,7 +38948,7 @@
       </c>
       <c r="D735" s="18" t="inlineStr">
         <is>
-          <t>HTTP 요청 및 응답 헤더를 편집하여 클라이언트와 서버 간의 라우팅 및 정보 교환을 보다 쉽게 할 수 있습니다.</t>
+          <t>게이트웨이 관리 쿠키를 사용하여 처리를 위해 사용자 세션에서 동일한 서버로 트래픽을 전달합니다.</t>
         </is>
       </c>
       <c r="E735" s="18" t="n"/>
@@ -38972,7 +38972,7 @@
       <c r="K735" s="19" t="n"/>
       <c r="L735" s="19" t="inlineStr">
         <is>
-          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
+          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
         </is>
       </c>
       <c r="M735" s="20" t="n"/>
@@ -38989,7 +38989,7 @@
       </c>
       <c r="B736" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C736" s="18" t="inlineStr">
@@ -38999,13 +38999,13 @@
       </c>
       <c r="D736" s="18" t="inlineStr">
         <is>
-          <t>빠른 글로벌 장애 조치(failover)를 통해 글로벌 웹 트래픽 라우팅 및 최상위 계층 최종 사용자 성능 및 안정성을 최적화하도록 Front Door 구성</t>
+          <t>계획된 서비스 업데이트 중에 연결 드레이닝을 사용하도록 설정하여 백 엔드 풀의 기존 멤버에 대한 연결 손실을 방지합니다.</t>
         </is>
       </c>
       <c r="E736" s="18" t="n"/>
       <c r="F736" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G736" t="inlineStr">
@@ -39023,7 +39023,7 @@
       <c r="K736" s="19" t="n"/>
       <c r="L736" s="19" t="inlineStr">
         <is>
-          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
+          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
         </is>
       </c>
       <c r="M736" s="20" t="n"/>
@@ -39040,7 +39040,7 @@
       </c>
       <c r="B737" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C737" s="18" t="inlineStr">
@@ -39050,13 +39050,13 @@
       </c>
       <c r="D737" s="18" t="inlineStr">
         <is>
-          <t>전송 계층 부하 분산 사용Use transport layer load balancing</t>
+          <t>사용자 지정 오류 페이지를 만들어 개인화된 사용자 환경 표시</t>
         </is>
       </c>
       <c r="E737" s="18" t="n"/>
       <c r="F737" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G737" t="inlineStr">
@@ -39074,7 +39074,7 @@
       <c r="K737" s="19" t="n"/>
       <c r="L737" s="19" t="inlineStr">
         <is>
-          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
+          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
         </is>
       </c>
       <c r="M737" s="20" t="n"/>
@@ -39101,7 +39101,7 @@
       </c>
       <c r="D738" s="18" t="inlineStr">
         <is>
-          <t>단일 게이트웨이에서 여러 웹 응용 프로그램에 대한 호스트 또는 도메인 이름을 기반으로 라우팅 구성Configure routing based on host or domain name for multiple web applications on a single gateway</t>
+          <t>HTTP 요청 및 응답 헤더를 편집하여 클라이언트와 서버 간의 라우팅 및 정보 교환을 보다 쉽게 할 수 있습니다.</t>
         </is>
       </c>
       <c r="E738" s="18" t="n"/>
@@ -39125,7 +39125,7 @@
       <c r="K738" s="19" t="n"/>
       <c r="L738" s="19" t="inlineStr">
         <is>
-          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
+          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
         </is>
       </c>
       <c r="M738" s="20" t="n"/>
@@ -39142,7 +39142,7 @@
       </c>
       <c r="B739" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C739" s="18" t="inlineStr">
@@ -39152,7 +39152,7 @@
       </c>
       <c r="D739" s="18" t="inlineStr">
         <is>
-          <t>SSL 인증서 관리를 중앙 집중화하여 백엔드 서버 팜의 암호화 및 암호 해독 오버헤드를 줄입니다.</t>
+          <t>빠른 글로벌 장애 조치(failover)를 통해 글로벌 웹 트래픽 라우팅 및 최상위 계층 최종 사용자 성능 및 안정성을 최적화하도록 Front Door 구성</t>
         </is>
       </c>
       <c r="E739" s="18" t="n"/>
@@ -39176,7 +39176,7 @@
       <c r="K739" s="19" t="n"/>
       <c r="L739" s="19" t="inlineStr">
         <is>
-          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
+          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
         </is>
       </c>
       <c r="M739" s="20" t="n"/>
@@ -39193,7 +39193,7 @@
       </c>
       <c r="B740" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C740" s="18" t="inlineStr">
@@ -39203,13 +39203,13 @@
       </c>
       <c r="D740" s="18" t="inlineStr">
         <is>
-          <t>WebSocket 및 HTTP/2 프로토콜에 대한 기본 지원을 위해 Application Gateway 사용</t>
+          <t>전송 계층 부하 분산 사용Use transport layer load balancing</t>
         </is>
       </c>
       <c r="E740" s="18" t="n"/>
       <c r="F740" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G740" t="inlineStr">
@@ -39227,7 +39227,7 @@
       <c r="K740" s="19" t="n"/>
       <c r="L740" s="19" t="inlineStr">
         <is>
-          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
+          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
         </is>
       </c>
       <c r="M740" s="20" t="n"/>
@@ -39239,26 +39239,30 @@
     <row r="741">
       <c r="A741" s="18" t="inlineStr">
         <is>
-          <t>Cost Optimization Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B741" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C741" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D741" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor -https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-rule-overview 의 데이터 수집 규칙</t>
+          <t>단일 게이트웨이에서 여러 웹 응용 프로그램에 대한 호스트 또는 도메인 이름을 기반으로 라우팅 구성Configure routing based on host or domain name for multiple web applications on a single gateway</t>
         </is>
       </c>
       <c r="E741" s="18" t="n"/>
-      <c r="F741" s="18" t="n"/>
+      <c r="F741" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="G741" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -39270,15 +39274,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J741" s="31" t="inlineStr">
-        <is>
-          <t>https://azure.microsoft.com/pricing/reservations/</t>
-        </is>
-      </c>
+      <c r="J741" s="13" t="n"/>
       <c r="K741" s="19" t="n"/>
       <c r="L741" s="19" t="inlineStr">
         <is>
-          <t>a95b86ad-8840-48e3-9273-4b875ba18f20</t>
+          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
         </is>
       </c>
       <c r="M741" s="20" t="n"/>
@@ -39290,26 +39290,30 @@
     <row r="742">
       <c r="A742" s="18" t="inlineStr">
         <is>
-          <t>Cost Optimization Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B742" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C742" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D742" s="18" t="inlineStr">
         <is>
-          <t>기본 데이터 원본을 찾을 수 없는 백업 인스턴스 확인</t>
+          <t>SSL 인증서 관리를 중앙 집중화하여 백엔드 서버 팜의 암호화 및 암호 해독 오버헤드를 줄입니다.</t>
         </is>
       </c>
       <c r="E742" s="18" t="n"/>
-      <c r="F742" s="18" t="n"/>
+      <c r="F742" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="G742" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -39325,7 +39329,7 @@
       <c r="K742" s="19" t="n"/>
       <c r="L742" s="19" t="inlineStr">
         <is>
-          <t>45901365-d38e-443f-abcb-d868266abca2</t>
+          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
         </is>
       </c>
       <c r="M742" s="20" t="n"/>
@@ -39337,26 +39341,30 @@
     <row r="743">
       <c r="A743" s="18" t="inlineStr">
         <is>
-          <t>Cost Optimization Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B743" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C743" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D743" s="18" t="inlineStr">
         <is>
-          <t>연결되지 않은 서비스(디스크, NIC, IP 주소 등) 삭제 또는 보관</t>
+          <t>WebSocket 및 HTTP/2 프로토콜에 대한 기본 지원을 위해 Application Gateway 사용</t>
         </is>
       </c>
       <c r="E743" s="18" t="n"/>
-      <c r="F743" s="18" t="n"/>
+      <c r="F743" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
       <c r="G743" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -39372,7 +39380,7 @@
       <c r="K743" s="19" t="n"/>
       <c r="L743" s="19" t="inlineStr">
         <is>
-          <t>64f9a19a-f29c-495d-94c6-c7919ca0f6c5</t>
+          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
         </is>
       </c>
       <c r="M743" s="20" t="n"/>
@@ -39394,12 +39402,12 @@
       </c>
       <c r="C744" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup</t>
+          <t>Azure Monitor</t>
         </is>
       </c>
       <c r="D744" s="18" t="inlineStr">
         <is>
-          <t>중요 업무용 응용 프로그램에 대한 Site Recovery 저장소와 백업 간의 적절한 균형을 고려합니다.</t>
+          <t>Azure Monitor -https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-rule-overview 의 데이터 수집 규칙</t>
         </is>
       </c>
       <c r="E744" s="18" t="n"/>
@@ -39415,11 +39423,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J744" s="13" t="n"/>
+      <c r="J744" s="31" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/pricing/reservations/</t>
+        </is>
+      </c>
       <c r="K744" s="19" t="n"/>
       <c r="L744" s="19" t="inlineStr">
         <is>
-          <t>69bad37a-ad53-4cc7-ae1d-76667357c449</t>
+          <t>a95b86ad-8840-48e3-9273-4b875ba18f20</t>
         </is>
       </c>
       <c r="M744" s="20" t="n"/>
@@ -39441,12 +39453,12 @@
       </c>
       <c r="C745" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor</t>
+          <t>Azure Backup</t>
         </is>
       </c>
       <c r="D745" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">40개의 서로 다른 로그 분석 작업 영역 간의 지출 및 절감 기회 확인 - 비프로덕션 작업 영역에 대해 서로 다른 보존 및 데이터 수집 사용-인식 및 계층 크기 조정을 위한 일일 한도 만들기 - 일일 한도를 설정하는 경우 한도에 도달할 때 경고를 만드는 것 외에도 특정 비율(예: 90%)에 도달했을 때 알림을 받을 경고 규칙도 만들어야 합니다. - 가능한 경우 작업 영역 변환 고려 - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
+          <t>기본 데이터 원본을 찾을 수 없는 백업 인스턴스 확인</t>
         </is>
       </c>
       <c r="E745" s="18" t="n"/>
@@ -39462,15 +39474,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J745" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/understand-work-scopes</t>
-        </is>
-      </c>
+      <c r="J745" s="13" t="n"/>
       <c r="K745" s="19" t="n"/>
       <c r="L745" s="19" t="inlineStr">
         <is>
-          <t>674b5ed8-5a85-49c7-933b-e2a1a27b765a</t>
+          <t>45901365-d38e-443f-abcb-d868266abca2</t>
         </is>
       </c>
       <c r="M745" s="20" t="n"/>
@@ -39492,12 +39500,12 @@
       </c>
       <c r="C746" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D746" s="18" t="inlineStr">
         <is>
-          <t>제거 로그 정책 및 자동화 적용(필요한 경우 로그를 콜드 스토리지로 이동할 수 있음)</t>
+          <t>연결되지 않은 서비스(디스크, NIC, IP 주소 등) 삭제 또는 보관</t>
         </is>
       </c>
       <c r="E746" s="18" t="n"/>
@@ -39513,15 +39521,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J746" s="31" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=nHQYcYGKuyw</t>
-        </is>
-      </c>
+      <c r="J746" s="13" t="n"/>
       <c r="K746" s="19" t="n"/>
       <c r="L746" s="19" t="inlineStr">
         <is>
-          <t>91be1f38-8ef3-494c-8bd4-63cbbac75819</t>
+          <t>64f9a19a-f29c-495d-94c6-c7919ca0f6c5</t>
         </is>
       </c>
       <c r="M746" s="20" t="n"/>
@@ -39543,12 +39547,12 @@
       </c>
       <c r="C747" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Azure Backup</t>
         </is>
       </c>
       <c r="D747" s="18" t="inlineStr">
         <is>
-          <t>디스크가 실제로 필요한지 확인하고, 그렇지 않은 경우 삭제하십시오. 필요한 경우 더 낮은 스토리지 계층을 찾거나 백업을 사용합니다.</t>
+          <t>중요 업무용 응용 프로그램에 대한 Site Recovery 저장소와 백업 간의 적절한 균형을 고려합니다.</t>
         </is>
       </c>
       <c r="E747" s="18" t="n"/>
@@ -39564,15 +39568,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J747" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/manage-automation</t>
-        </is>
-      </c>
+      <c r="J747" s="13" t="n"/>
       <c r="K747" s="19" t="n"/>
       <c r="L747" s="19" t="inlineStr">
         <is>
-          <t>6aae01e6-a84d-4e5d-b36d-1d92881a1bd5</t>
+          <t>69bad37a-ad53-4cc7-ae1d-76667357c449</t>
         </is>
       </c>
       <c r="M747" s="20" t="n"/>
@@ -39594,12 +39594,12 @@
       </c>
       <c r="C748" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Azure Monitor</t>
         </is>
       </c>
       <c r="D748" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">사용자 지정 규칙을 사용하여 사용하지 않는 스토리지를 하위 계층으로 이동하는 것이 좋습니다 - https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure  </t>
+          <t xml:space="preserve">40개의 서로 다른 로그 분석 작업 영역 간의 지출 및 절감 기회 확인 - 비프로덕션 작업 영역에 대해 서로 다른 보존 및 데이터 수집 사용-인식 및 계층 크기 조정을 위한 일일 한도 만들기 - 일일 한도를 설정하는 경우 한도에 도달할 때 경고를 만드는 것 외에도 특정 비율(예: 90%)에 도달했을 때 알림을 받을 경고 규칙도 만들어야 합니다. - 가능한 경우 작업 영역 변환 고려 - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
         </is>
       </c>
       <c r="E748" s="18" t="n"/>
@@ -39617,13 +39617,13 @@
       </c>
       <c r="J748" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/understand-work-scopes</t>
         </is>
       </c>
       <c r="K748" s="19" t="n"/>
       <c r="L748" s="19" t="inlineStr">
         <is>
-          <t>d1e44a19-659d-4395-afd7-7289b835556d</t>
+          <t>674b5ed8-5a85-49c7-933b-e2a1a27b765a</t>
         </is>
       </c>
       <c r="M748" s="20" t="n"/>
@@ -39645,12 +39645,12 @@
       </c>
       <c r="C749" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Azure Monitor</t>
         </is>
       </c>
       <c r="D749" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Advisor가 VM 올바른 크기 조정에 대해 구성되어 있는지 확인합니다. </t>
+          <t>제거 로그 정책 및 자동화 적용(필요한 경우 로그를 콜드 스토리지로 이동할 수 있음)</t>
         </is>
       </c>
       <c r="E749" s="18" t="n"/>
@@ -39666,11 +39666,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J749" s="13" t="n"/>
+      <c r="J749" s="31" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=nHQYcYGKuyw</t>
+        </is>
+      </c>
       <c r="K749" s="19" t="n"/>
       <c r="L749" s="19" t="inlineStr">
         <is>
-          <t>d0102cac-6aae-401e-9a84-de5de36d1d92</t>
+          <t>91be1f38-8ef3-494c-8bd4-63cbbac75819</t>
         </is>
       </c>
       <c r="M749" s="20" t="n"/>
@@ -39697,14 +39701,10 @@
       </c>
       <c r="D750" s="18" t="inlineStr">
         <is>
-          <t>모든 Windows VM에서 스크립트 실행 https://learn.microsoft.com/azure/virtual-machines/windows/hybrid-use-benefit-licensing?ref=andrewmatveychuk.com#convert-an-existing-vm-using-azure-hybrid-benefit-for-windows-server- Windows VM을 자주 만드는 경우 정책 구현을 고려합니다.</t>
-        </is>
-      </c>
-      <c r="E750" s="18" t="inlineStr">
-        <is>
-          <t>Cost analysys에서 Meter Category Licenses를 검색하여 확인합니다.</t>
-        </is>
-      </c>
+          <t>디스크가 실제로 필요한지 확인하고, 그렇지 않은 경우 삭제하십시오. 필요한 경우 더 낮은 스토리지 계층을 찾거나 백업을 사용합니다.</t>
+        </is>
+      </c>
+      <c r="E750" s="18" t="n"/>
       <c r="F750" s="18" t="n"/>
       <c r="G750" t="inlineStr">
         <is>
@@ -39717,11 +39717,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J750" s="13" t="n"/>
+      <c r="J750" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/manage-automation</t>
+        </is>
+      </c>
       <c r="K750" s="19" t="n"/>
       <c r="L750" s="19" t="inlineStr">
         <is>
-          <t>59ae568b-a38d-4498-9e22-13dbd7bb012f</t>
+          <t>6aae01e6-a84d-4e5d-b36d-1d92881a1bd5</t>
         </is>
       </c>
       <c r="M750" s="20" t="n"/>
@@ -39743,12 +39747,12 @@
       </c>
       <c r="C751" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D751" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 이미 라이선스가 있는 경우 AHUB에 넣을 수도 https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
+          <t xml:space="preserve">사용자 지정 규칙을 사용하여 사용하지 않는 스토리지를 하위 계층으로 이동하는 것이 좋습니다 - https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure  </t>
         </is>
       </c>
       <c r="E751" s="18" t="n"/>
@@ -39764,11 +39768,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J751" s="13" t="n"/>
+      <c r="J751" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+        </is>
+      </c>
       <c r="K751" s="19" t="n"/>
       <c r="L751" s="19" t="inlineStr">
         <is>
-          <t>7b95e06e-158e-42ea-9992-c2de6e2065b3</t>
+          <t>d1e44a19-659d-4395-afd7-7289b835556d</t>
         </is>
       </c>
       <c r="M751" s="20" t="n"/>
@@ -39795,7 +39803,7 @@
       </c>
       <c r="D752" s="18" t="inlineStr">
         <is>
-          <t>유연성 옵션을 사용하여 예약된 VM 제품군 통합(4-5개 이하의 제품군)</t>
+          <t xml:space="preserve">Advisor가 VM 올바른 크기 조정에 대해 구성되어 있는지 확인합니다. </t>
         </is>
       </c>
       <c r="E752" s="18" t="n"/>
@@ -39811,15 +39819,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J752" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management</t>
-        </is>
-      </c>
+      <c r="J752" s="13" t="n"/>
       <c r="K752" s="19" t="n"/>
       <c r="L752" s="19" t="inlineStr">
         <is>
-          <t>75c1e945-b459-4837-bf7a-e7c6d3b475a5</t>
+          <t>d0102cac-6aae-401e-9a84-de5de36d1d92</t>
         </is>
       </c>
       <c r="M752" s="20" t="n"/>
@@ -39846,10 +39850,14 @@
       </c>
       <c r="D753" s="18" t="inlineStr">
         <is>
-          <t>Azure Reserved Instances 활용: 이 기능을 사용하면 1년 또는 3년 동안 VM을 예약할 수 있으므로 PAYG 가격에 비해 상당한 비용 절감 효과를 얻을 수 있습니다.</t>
-        </is>
-      </c>
-      <c r="E753" s="18" t="n"/>
+          <t>모든 Windows VM에서 스크립트 실행 https://learn.microsoft.com/azure/virtual-machines/windows/hybrid-use-benefit-licensing?ref=andrewmatveychuk.com#convert-an-existing-vm-using-azure-hybrid-benefit-for-windows-server- Windows VM을 자주 만드는 경우 정책 구현을 고려합니다.</t>
+        </is>
+      </c>
+      <c r="E753" s="18" t="inlineStr">
+        <is>
+          <t>Cost analysys에서 Meter Category Licenses를 검색하여 확인합니다.</t>
+        </is>
+      </c>
       <c r="F753" s="18" t="n"/>
       <c r="G753" t="inlineStr">
         <is>
@@ -39866,7 +39874,7 @@
       <c r="K753" s="19" t="n"/>
       <c r="L753" s="19" t="inlineStr">
         <is>
-          <t>c7acbe49-bbe6-44dd-a9f2-e87778468d55</t>
+          <t>59ae568b-a38d-4498-9e22-13dbd7bb012f</t>
         </is>
       </c>
       <c r="M753" s="20" t="n"/>
@@ -39893,7 +39901,7 @@
       </c>
       <c r="D754" s="18" t="inlineStr">
         <is>
-          <t>더 큰 디스크만 예약할 수 있습니다 =&gt; 1TiB -</t>
+          <t xml:space="preserve"> 이미 라이선스가 있는 경우 AHUB에 넣을 수도 https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
         </is>
       </c>
       <c r="E754" s="18" t="n"/>
@@ -39913,7 +39921,7 @@
       <c r="K754" s="19" t="n"/>
       <c r="L754" s="19" t="inlineStr">
         <is>
-          <t>a6bcca2b-4fea-41db-b3dd-95d48c7c891d</t>
+          <t>7b95e06e-158e-42ea-9992-c2de6e2065b3</t>
         </is>
       </c>
       <c r="M754" s="20" t="n"/>
@@ -39940,7 +39948,7 @@
       </c>
       <c r="D755" s="18" t="inlineStr">
         <is>
-          <t>적절한 크기 최적화 후</t>
+          <t>유연성 옵션을 사용하여 예약된 VM 제품군 통합(4-5개 이하의 제품군)</t>
         </is>
       </c>
       <c r="E755" s="18" t="n"/>
@@ -39956,11 +39964,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J755" s="13" t="n"/>
+      <c r="J755" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management</t>
+        </is>
+      </c>
       <c r="K755" s="19" t="n"/>
       <c r="L755" s="19" t="inlineStr">
         <is>
-          <t>cb1f7d57-59ae-4568-aa38-d4985e2213db</t>
+          <t>75c1e945-b459-4837-bf7a-e7c6d3b475a5</t>
         </is>
       </c>
       <c r="M755" s="20" t="n"/>
@@ -39982,12 +39994,12 @@
       </c>
       <c r="C756" s="18" t="inlineStr">
         <is>
-          <t>Azure SQL</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D756" s="18" t="inlineStr">
         <is>
-          <t>적용 가능한 경우 확인 및 정책/변경 https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations 시행</t>
+          <t>Azure Reserved Instances 활용: 이 기능을 사용하면 1년 또는 3년 동안 VM을 예약할 수 있으므로 PAYG 가격에 비해 상당한 비용 절감 효과를 얻을 수 있습니다.</t>
         </is>
       </c>
       <c r="E756" s="18" t="n"/>
@@ -40007,7 +40019,7 @@
       <c r="K756" s="19" t="n"/>
       <c r="L756" s="19" t="inlineStr">
         <is>
-          <t>d7bb012f-7b95-4e06-b158-e2ea3992c2de</t>
+          <t>c7acbe49-bbe6-44dd-a9f2-e87778468d55</t>
         </is>
       </c>
       <c r="M756" s="20" t="n"/>
@@ -40034,7 +40046,7 @@
       </c>
       <c r="D757" s="18" t="inlineStr">
         <is>
-          <t>VM + 라이선스 부분 할인(ahub + 3YRI)은 약 70% 할인입니다.</t>
+          <t>더 큰 디스크만 예약할 수 있습니다 =&gt; 1TiB -</t>
         </is>
       </c>
       <c r="E757" s="18" t="n"/>
@@ -40054,7 +40066,7 @@
       <c r="K757" s="19" t="n"/>
       <c r="L757" s="19" t="inlineStr">
         <is>
-          <t>6e2065b3-a76a-4f4a-991e-8839ada46667</t>
+          <t>a6bcca2b-4fea-41db-b3dd-95d48c7c891d</t>
         </is>
       </c>
       <c r="M757" s="20" t="n"/>
@@ -40081,7 +40093,7 @@
       </c>
       <c r="D758" s="18" t="inlineStr">
         <is>
-          <t>플랫 사이징보다는 VMSS를 사용하여 수요에 맞추는 것이 좋습니다</t>
+          <t>적절한 크기 최적화 후</t>
         </is>
       </c>
       <c r="E758" s="18" t="n"/>
@@ -40101,7 +40113,7 @@
       <c r="K758" s="19" t="n"/>
       <c r="L758" s="19" t="inlineStr">
         <is>
-          <t>ccbd9792-a6bc-4ca2-a4fe-a1dbf3dd95d4</t>
+          <t>cb1f7d57-59ae-4568-aa38-d4985e2213db</t>
         </is>
       </c>
       <c r="M758" s="20" t="n"/>
@@ -40123,12 +40135,12 @@
       </c>
       <c r="C759" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Azure SQL</t>
         </is>
       </c>
       <c r="D759" s="18" t="inlineStr">
         <is>
-          <t>AKS 자동 크기 조정기를 사용하여 클러스터 사용량과 일치시킵니다(Pod 요구 사항이 스케일러와 일치하는지 확인).</t>
+          <t>적용 가능한 경우 확인 및 정책/변경 https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations 시행</t>
         </is>
       </c>
       <c r="E759" s="18" t="n"/>
@@ -40148,7 +40160,7 @@
       <c r="K759" s="19" t="n"/>
       <c r="L759" s="19" t="inlineStr">
         <is>
-          <t>c1b1cd52-1e54-4a29-a9de-39ac0e7c28dc</t>
+          <t>d7bb012f-7b95-4e06-b158-e2ea3992c2de</t>
         </is>
       </c>
       <c r="M759" s="20" t="n"/>
@@ -40170,12 +40182,12 @@
       </c>
       <c r="C760" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D760" s="18" t="inlineStr">
         <is>
-          <t>해당하는 경우 복구 지점을 자격 증명 모음 보관으로 이동(유효성 검사)Move recovery points to vault-archive where applicable (Validate)</t>
+          <t>VM + 라이선스 부분 할인(ahub + 3YRI)은 약 70% 할인입니다.</t>
         </is>
       </c>
       <c r="E760" s="18" t="n"/>
@@ -40191,15 +40203,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J760" s="31" t="inlineStr">
-        <is>
-          <t>https://azure.microsoft.com/pricing/reservations/</t>
-        </is>
-      </c>
+      <c r="J760" s="13" t="n"/>
       <c r="K760" s="19" t="n"/>
       <c r="L760" s="19" t="inlineStr">
         <is>
-          <t>44be3b1a-27f8-4b9e-a1be-1f38df03a822</t>
+          <t>6e2065b3-a76a-4f4a-991e-8839ada46667</t>
         </is>
       </c>
       <c r="M760" s="20" t="n"/>
@@ -40221,12 +40229,12 @@
       </c>
       <c r="C761" s="18" t="inlineStr">
         <is>
-          <t>Databricks</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D761" s="18" t="inlineStr">
         <is>
-          <t>가능한 경우 대체와 함께 스폿 VM을 사용하는 것이 좋습니다. 클러스터의 자동 종료를 고려합니다.</t>
+          <t>플랫 사이징보다는 VMSS를 사용하여 수요에 맞추는 것이 좋습니다</t>
         </is>
       </c>
       <c r="E761" s="18" t="n"/>
@@ -40246,7 +40254,7 @@
       <c r="K761" s="19" t="n"/>
       <c r="L761" s="19" t="inlineStr">
         <is>
-          <t>cd463cbb-bc8a-4c29-aebc-91a43da1dae2</t>
+          <t>ccbd9792-a6bc-4ca2-a4fe-a1dbf3dd95d4</t>
         </is>
       </c>
       <c r="M761" s="20" t="n"/>
@@ -40268,12 +40276,12 @@
       </c>
       <c r="C762" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D762" s="18" t="inlineStr">
         <is>
-          <t>함수 - 연결 재사용</t>
+          <t>AKS 자동 크기 조정기를 사용하여 클러스터 사용량과 일치시킵니다(Pod 요구 사항이 스케일러와 일치하는지 확인).</t>
         </is>
       </c>
       <c r="E762" s="18" t="n"/>
@@ -40289,15 +40297,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J762" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/reservation-apis?toc=%2Fazure%2Fcost-management-billing%2Ftoc.json</t>
-        </is>
-      </c>
+      <c r="J762" s="13" t="n"/>
       <c r="K762" s="19" t="n"/>
       <c r="L762" s="19" t="inlineStr">
         <is>
-          <t>cc881470-607c-41cc-a0e6-14658dd458e9</t>
+          <t>c1b1cd52-1e54-4a29-a9de-39ac0e7c28dc</t>
         </is>
       </c>
       <c r="M762" s="20" t="n"/>
@@ -40319,12 +40323,12 @@
       </c>
       <c r="C763" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Azure Backup</t>
         </is>
       </c>
       <c r="D763" s="18" t="inlineStr">
         <is>
-          <t>함수 - 로컬에 데이터 캐시</t>
+          <t>해당하는 경우 복구 지점을 자격 증명 모음 보관으로 이동(유효성 검사)Move recovery points to vault-archive where applicable (Validate)</t>
         </is>
       </c>
       <c r="E763" s="18" t="n"/>
@@ -40342,13 +40346,13 @@
       </c>
       <c r="J763" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://azure.microsoft.com/pricing/reservations/</t>
         </is>
       </c>
       <c r="K763" s="19" t="n"/>
       <c r="L763" s="19" t="inlineStr">
         <is>
-          <t>27139b82-1102-4dbd-9eaf-11e6f843e52f</t>
+          <t>44be3b1a-27f8-4b9e-a1be-1f38df03a822</t>
         </is>
       </c>
       <c r="M763" s="20" t="n"/>
@@ -40370,12 +40374,12 @@
       </c>
       <c r="C764" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="D764" s="18" t="inlineStr">
         <is>
-          <t>기능 - 콜드 스타트 - '패키지에서 실행' 기능을 사용합니다. 이렇게 하면 코드가 단일 zip 파일로 다운로드됩니다. 예를 들어, 이것은 많은 노드 모듈이 있는 Javascript 함수를 크게 개선할 수 있습니다. 언어별 도구를 사용하여 패키지 크기를 줄입니다(예: 트리 쉐이킹 Javascript 애플리케이션).</t>
+          <t>가능한 경우 대체와 함께 스폿 VM을 사용하는 것이 좋습니다. 클러스터의 자동 종료를 고려합니다.</t>
         </is>
       </c>
       <c r="E764" s="18" t="n"/>
@@ -40391,15 +40395,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J764" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
-        </is>
-      </c>
+      <c r="J764" s="13" t="n"/>
       <c r="K764" s="19" t="n"/>
       <c r="L764" s="19" t="inlineStr">
         <is>
-          <t>4722d928-c1b1-4cd5-81e5-4a29b9de39ac</t>
+          <t>cd463cbb-bc8a-4c29-aebc-91a43da1dae2</t>
         </is>
       </c>
       <c r="M764" s="20" t="n"/>
@@ -40426,7 +40426,7 @@
       </c>
       <c r="D765" s="18" t="inlineStr">
         <is>
-          <t>기능 - 기능을 따뜻하게 유지</t>
+          <t>함수 - 연결 재사용</t>
         </is>
       </c>
       <c r="E765" s="18" t="n"/>
@@ -40444,13 +40444,13 @@
       </c>
       <c r="J765" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/reservation-apis?toc=%2Fazure%2Fcost-management-billing%2Ftoc.json</t>
         </is>
       </c>
       <c r="K765" s="19" t="n"/>
       <c r="L765" s="19" t="inlineStr">
         <is>
-          <t>0e7c28dc-9366-4572-82bf-f4564b0d934a</t>
+          <t>cc881470-607c-41cc-a0e6-14658dd458e9</t>
         </is>
       </c>
       <c r="M765" s="20" t="n"/>
@@ -40477,7 +40477,7 @@
       </c>
       <c r="D766" s="18" t="inlineStr">
         <is>
-          <t>다른 함수와 함께 자동 크기 조정을 사용하는 경우 모든 리소스에 대한 모든 자동 크기 조정을 구동하는 것이 있을 수 있으므로 별도의 소비 계획으로 이동하는 것이 좋습니다(CPU에 대한 더 높은 계획 고려).</t>
+          <t>함수 - 로컬에 데이터 캐시</t>
         </is>
       </c>
       <c r="E766" s="18" t="n"/>
@@ -40493,11 +40493,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J766" s="13" t="n"/>
+      <c r="J766" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="K766" s="19" t="n"/>
       <c r="L766" s="19" t="inlineStr">
         <is>
-          <t>359c363e-7dd6-4162-9a36-4a907ebae38e</t>
+          <t>27139b82-1102-4dbd-9eaf-11e6f843e52f</t>
         </is>
       </c>
       <c r="M766" s="20" t="n"/>
@@ -40524,7 +40528,7 @@
       </c>
       <c r="D767" s="18" t="inlineStr">
         <is>
-          <t>지정된 계획의 함수 앱은 모두 함께 크기가 조정되므로 크기 조정과 관련된 모든 문제는 계획의 모든 앱에 영향을 줄 수 있습니다.</t>
+          <t>기능 - 콜드 스타트 - '패키지에서 실행' 기능을 사용합니다. 이렇게 하면 코드가 단일 zip 파일로 다운로드됩니다. 예를 들어, 이것은 많은 노드 모듈이 있는 Javascript 함수를 크게 개선할 수 있습니다. 언어별 도구를 사용하여 패키지 크기를 줄입니다(예: 트리 쉐이킹 Javascript 애플리케이션).</t>
         </is>
       </c>
       <c r="E767" s="18" t="n"/>
@@ -40540,11 +40544,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J767" s="13" t="n"/>
+      <c r="J767" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+        </is>
+      </c>
       <c r="K767" s="19" t="n"/>
       <c r="L767" s="19" t="inlineStr">
         <is>
-          <t>ad53cc7d-e2e8-4aaa-a357-1549ab9153d8</t>
+          <t>4722d928-c1b1-4cd5-81e5-4a29b9de39ac</t>
         </is>
       </c>
       <c r="M767" s="20" t="n"/>
@@ -40571,7 +40579,7 @@
       </c>
       <c r="D768" s="18" t="inlineStr">
         <is>
-          <t>'대기 시간'에 대한 요금이 청구되나요? 이 질문은 일반적으로 비동기 작업을 수행하고 결과를 기다리는 C # 함수 (예 : await Task.Delay(1000) 또는 await client )의 컨텍스트에서 묻습니다. GetAsync('http://google.com')입니다. 대답은 '예'입니다 - GB 초 계산은 함수의 시작 및 종료 시간과 해당 기간 동안의 메모리 사용량을 기반으로 합니다. CPU 작업 측면에서 해당 시간 동안 실제로 발생하는 일은 계산에 포함되지 않습니다. 이 규칙의 한 가지 예외는 지속성 함수를 사용하는 경우입니다. 오케스트레이터 함수에서 대기하는 데 소요된 시간에 대해서는 요금이 청구되지 않습니다.가능한 경우 수요 형성 기술을 적용합니다(개발 환경?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
+          <t>기능 - 기능을 따뜻하게 유지</t>
         </is>
       </c>
       <c r="E768" s="18" t="n"/>
@@ -40587,11 +40595,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J768" s="13" t="n"/>
+      <c r="J768" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K768" s="19" t="n"/>
       <c r="L768" s="19" t="inlineStr">
         <is>
-          <t>9f89dc7b-44be-43b1-a27f-8b9e91be1f38</t>
+          <t>0e7c28dc-9366-4572-82bf-f4564b0d934a</t>
         </is>
       </c>
       <c r="M768" s="20" t="n"/>
@@ -40613,12 +40625,12 @@
       </c>
       <c r="C769" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D769" s="18" t="inlineStr">
         <is>
-          <t>Frontdoor - 기본 홈페이지 끄기앱의 애플리케이션 설정에서 AzureWebJobsDisableHomepage를 true로 설정합니다. 이렇게 하면 PoP에 204(콘텐츠 없음)가 반환되므로 헤더 데이터만 반환됩니다.</t>
+          <t>다른 함수와 함께 자동 크기 조정을 사용하는 경우 모든 리소스에 대한 모든 자동 크기 조정을 구동하는 것이 있을 수 있으므로 별도의 소비 계획으로 이동하는 것이 좋습니다(CPU에 대한 더 높은 계획 고려).</t>
         </is>
       </c>
       <c r="E769" s="18" t="n"/>
@@ -40638,7 +40650,7 @@
       <c r="K769" s="19" t="n"/>
       <c r="L769" s="19" t="inlineStr">
         <is>
-          <t>3da1dae2-cc88-4147-8607-c1cca0e61465</t>
+          <t>359c363e-7dd6-4162-9a36-4a907ebae38e</t>
         </is>
       </c>
       <c r="M769" s="20" t="n"/>
@@ -40660,12 +40672,12 @@
       </c>
       <c r="C770" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D770" s="18" t="inlineStr">
         <is>
-          <t>Frontdoor 프론트도어 - 아무것도 반환하지 않는 무언가로 라우팅합니다. 함수, 함수 프록시를 설정하거나 WebApp에서 200(정상)을 반환하고 콘텐츠를 보내지 않거나 최소한으로 보내는 경로를 추가합니다. 이것의 장점은 호출될 때 로그아웃할 수 있다는 것입니다.</t>
+          <t>지정된 계획의 함수 앱은 모두 함께 크기가 조정되므로 크기 조정과 관련된 모든 문제는 계획의 모든 앱에 영향을 줄 수 있습니다.</t>
         </is>
       </c>
       <c r="E770" s="18" t="n"/>
@@ -40685,7 +40697,7 @@
       <c r="K770" s="19" t="n"/>
       <c r="L770" s="19" t="inlineStr">
         <is>
-          <t>8dd458e9-2713-49b8-8110-2dbd6eaf11e6</t>
+          <t>ad53cc7d-e2e8-4aaa-a357-1549ab9153d8</t>
         </is>
       </c>
       <c r="M770" s="20" t="n"/>
@@ -40707,12 +40719,12 @@
       </c>
       <c r="C771" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D771" s="18" t="inlineStr">
         <is>
-          <t>덜 사용되는 데이터에 대한 보관 계층 고려</t>
+          <t>'대기 시간'에 대한 요금이 청구되나요? 이 질문은 일반적으로 비동기 작업을 수행하고 결과를 기다리는 C # 함수 (예 : await Task.Delay(1000) 또는 await client )의 컨텍스트에서 묻습니다. GetAsync('http://google.com')입니다. 대답은 '예'입니다 - GB 초 계산은 함수의 시작 및 종료 시간과 해당 기간 동안의 메모리 사용량을 기반으로 합니다. CPU 작업 측면에서 해당 시간 동안 실제로 발생하는 일은 계산에 포함되지 않습니다. 이 규칙의 한 가지 예외는 지속성 함수를 사용하는 경우입니다. 오케스트레이터 함수에서 대기하는 데 소요된 시간에 대해서는 요금이 청구되지 않습니다.가능한 경우 수요 형성 기술을 적용합니다(개발 환경?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
         </is>
       </c>
       <c r="E771" s="18" t="n"/>
@@ -40732,7 +40744,7 @@
       <c r="K771" s="19" t="n"/>
       <c r="L771" s="19" t="inlineStr">
         <is>
-          <t>7e31c67d-68cf-46a6-8a11-94956d697dc3</t>
+          <t>9f89dc7b-44be-43b1-a27f-8b9e91be1f38</t>
         </is>
       </c>
       <c r="M771" s="20" t="n"/>
@@ -40754,12 +40766,12 @@
       </c>
       <c r="C772" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D772" s="18" t="inlineStr">
         <is>
-          <t>크기가 계층과 일치하지 않는 디스크 크기를 확인합니다(예: 513GiB 디스크는 P30(1TiB)를 지불하고 크기 조정을 고려합니다.</t>
+          <t>Frontdoor - 기본 홈페이지 끄기앱의 애플리케이션 설정에서 AzureWebJobsDisableHomepage를 true로 설정합니다. 이렇게 하면 PoP에 204(콘텐츠 없음)가 반환되므로 헤더 데이터만 반환됩니다.</t>
         </is>
       </c>
       <c r="E772" s="18" t="n"/>
@@ -40779,7 +40791,7 @@
       <c r="K772" s="19" t="n"/>
       <c r="L772" s="19" t="inlineStr">
         <is>
-          <t>a2ed27b2-d186-4f1a-8252-bddde68a487c</t>
+          <t>3da1dae2-cc88-4147-8607-c1cca0e61465</t>
         </is>
       </c>
       <c r="M772" s="20" t="n"/>
@@ -40801,12 +40813,12 @@
       </c>
       <c r="C773" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D773" s="18" t="inlineStr">
         <is>
-          <t>가능하면 프리미엄 또는 울트라 대신 표준 SSD를 사용하는 것이 좋습니다.</t>
+          <t>Frontdoor 프론트도어 - 아무것도 반환하지 않는 무언가로 라우팅합니다. 함수, 함수 프록시를 설정하거나 WebApp에서 200(정상)을 반환하고 콘텐츠를 보내지 않거나 최소한으로 보내는 경로를 추가합니다. 이것의 장점은 호출될 때 로그아웃할 수 있다는 것입니다.</t>
         </is>
       </c>
       <c r="E773" s="18" t="n"/>
@@ -40826,7 +40838,7 @@
       <c r="K773" s="19" t="n"/>
       <c r="L773" s="19" t="inlineStr">
         <is>
-          <t>dec4861b-c3bc-410a-b77e-26e4d5a3bec2</t>
+          <t>8dd458e9-2713-49b8-8110-2dbd6eaf11e6</t>
         </is>
       </c>
       <c r="M773" s="20" t="n"/>
@@ -40853,7 +40865,7 @@
       </c>
       <c r="D774" s="18" t="inlineStr">
         <is>
-          <t>스토리지 계정의 경우 선택한 계층이 트랜잭션 요금을 합산하지 않는지 확인합니다(다음 계층으로 이동하는 것이 더 저렴할 수 있음).</t>
+          <t>덜 사용되는 데이터에 대한 보관 계층 고려</t>
         </is>
       </c>
       <c r="E774" s="18" t="n"/>
@@ -40873,7 +40885,7 @@
       <c r="K774" s="19" t="n"/>
       <c r="L774" s="19" t="inlineStr">
         <is>
-          <t>c4e2436b-1336-4db5-9f17-960eee0bdf5c</t>
+          <t>7e31c67d-68cf-46a6-8a11-94956d697dc3</t>
         </is>
       </c>
       <c r="M774" s="20" t="n"/>
@@ -40895,12 +40907,12 @@
       </c>
       <c r="C775" s="18" t="inlineStr">
         <is>
-          <t>Site Recovery</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D775" s="18" t="inlineStr">
         <is>
-          <t>ASR의 경우 RPO/RTO 및 복제 처리량이 허용하는 경우 표준 SSD 디스크를 사용하는 것이 좋습니다</t>
+          <t>크기가 계층과 일치하지 않는 디스크 크기를 확인합니다(예: 513GiB 디스크는 P30(1TiB)를 지불하고 크기 조정을 고려합니다.</t>
         </is>
       </c>
       <c r="E775" s="18" t="n"/>
@@ -40920,7 +40932,7 @@
       <c r="K775" s="19" t="n"/>
       <c r="L775" s="19" t="inlineStr">
         <is>
-          <t>c2efc5d7-61d4-41d2-900b-b47a393a040f</t>
+          <t>a2ed27b2-d186-4f1a-8252-bddde68a487c</t>
         </is>
       </c>
       <c r="M775" s="20" t="n"/>
@@ -40947,7 +40959,7 @@
       </c>
       <c r="D776" s="18" t="inlineStr">
         <is>
-          <t>스토리지 계정: 핫 계층 및/또는 GRS 필요 확인</t>
+          <t>가능하면 프리미엄 또는 울트라 대신 표준 SSD를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E776" s="18" t="n"/>
@@ -40967,7 +40979,7 @@
       <c r="K776" s="19" t="n"/>
       <c r="L776" s="19" t="inlineStr">
         <is>
-          <t>d3294798-b118-48b2-a5a4-6ceb544451e1</t>
+          <t>dec4861b-c3bc-410a-b77e-26e4d5a3bec2</t>
         </is>
       </c>
       <c r="M776" s="20" t="n"/>
@@ -40989,12 +41001,12 @@
       </c>
       <c r="C777" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D777" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">디스크 - 모든 곳에서 프리미엄 SSD 디스크 사용의 유효성을 검사합니다. 예를 들어 비프로덕션은 표준 SSD 또는 주문형 프리미엄 SSD로 교환할 수 있습니다.  </t>
+          <t>스토리지 계정의 경우 선택한 계층이 트랜잭션 요금을 합산하지 않는지 확인합니다(다음 계층으로 이동하는 것이 더 저렴할 수 있음).</t>
         </is>
       </c>
       <c r="E777" s="18" t="n"/>
@@ -41014,7 +41026,7 @@
       <c r="K777" s="19" t="n"/>
       <c r="L777" s="19" t="inlineStr">
         <is>
-          <t>92d34429-3c76-4286-97a5-51c5b04e4f18</t>
+          <t>c4e2436b-1336-4db5-9f17-960eee0bdf5c</t>
         </is>
       </c>
       <c r="M777" s="20" t="n"/>
@@ -41036,12 +41048,12 @@
       </c>
       <c r="C778" s="18" t="inlineStr">
         <is>
-          <t>Synapse</t>
+          <t>Site Recovery</t>
         </is>
       </c>
       <c r="D778" s="18" t="inlineStr">
         <is>
-          <t>예산을 만들어 비용을 관리하고 이해 관계자에게 지출 이상 및 초과 지출 위험을 자동으로 알리는 경고를 만듭니다.</t>
+          <t>ASR의 경우 RPO/RTO 및 복제 처리량이 허용하는 경우 표준 SSD 디스크를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="E778" s="18" t="n"/>
@@ -41061,7 +41073,7 @@
       <c r="K778" s="19" t="n"/>
       <c r="L778" s="19" t="inlineStr">
         <is>
-          <t>54387e5c-ed12-46cd-832a-f5b2fc6998a5</t>
+          <t>c2efc5d7-61d4-41d2-900b-b47a393a040f</t>
         </is>
       </c>
       <c r="M778" s="20" t="n"/>
@@ -41083,12 +41095,12 @@
       </c>
       <c r="C779" s="18" t="inlineStr">
         <is>
-          <t>Synapse</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D779" s="18" t="inlineStr">
         <is>
-          <t>추가 데이터 분석을 위해 비용 데이터를 스토리지 계정으로 내보냅니다.</t>
+          <t>스토리지 계정: 핫 계층 및/또는 GRS 필요 확인</t>
         </is>
       </c>
       <c r="E779" s="18" t="n"/>
@@ -41108,7 +41120,7 @@
       <c r="K779" s="19" t="n"/>
       <c r="L779" s="19" t="inlineStr">
         <is>
-          <t>35e33789-7e31-4c67-b68c-f6a62a119495</t>
+          <t>d3294798-b118-48b2-a5a4-6ceb544451e1</t>
         </is>
       </c>
       <c r="M779" s="20" t="n"/>
@@ -41130,12 +41142,12 @@
       </c>
       <c r="C780" s="18" t="inlineStr">
         <is>
-          <t>Synapse</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D780" s="18" t="inlineStr">
         <is>
-          <t>리소스를 사용하지 않을 때 일시 중지하여 전용 SQL 풀에 대한 비용을 제어합니다.</t>
+          <t xml:space="preserve">디스크 - 모든 곳에서 프리미엄 SSD 디스크 사용의 유효성을 검사합니다. 예를 들어 비프로덕션은 표준 SSD 또는 주문형 프리미엄 SSD로 교환할 수 있습니다.  </t>
         </is>
       </c>
       <c r="E780" s="18" t="n"/>
@@ -41155,7 +41167,7 @@
       <c r="K780" s="19" t="n"/>
       <c r="L780" s="19" t="inlineStr">
         <is>
-          <t>6d697dc3-a2ed-427b-8d18-6f1a1252bddd</t>
+          <t>92d34429-3c76-4286-97a5-51c5b04e4f18</t>
         </is>
       </c>
       <c r="M780" s="20" t="n"/>
@@ -41182,7 +41194,7 @@
       </c>
       <c r="D781" s="18" t="inlineStr">
         <is>
-          <t>서버리스 Apache Spark 자동 일시 중지 기능을 활성화하고 그에 따라 제한 시간 값을 설정합니다.</t>
+          <t>예산을 만들어 비용을 관리하고 이해 관계자에게 지출 이상 및 초과 지출 위험을 자동으로 알리는 경고를 만듭니다.</t>
         </is>
       </c>
       <c r="E781" s="18" t="n"/>
@@ -41202,7 +41214,7 @@
       <c r="K781" s="19" t="n"/>
       <c r="L781" s="19" t="inlineStr">
         <is>
-          <t>e68a487c-dec4-4861-ac3b-c10ae77e26e4</t>
+          <t>54387e5c-ed12-46cd-832a-f5b2fc6998a5</t>
         </is>
       </c>
       <c r="M781" s="20" t="n"/>
@@ -41229,7 +41241,7 @@
       </c>
       <c r="D782" s="18" t="inlineStr">
         <is>
-          <t>다양한 크기의 Apache Spark 풀 정의를 여러 개 만듭니다.</t>
+          <t>추가 데이터 분석을 위해 비용 데이터를 스토리지 계정으로 내보냅니다.</t>
         </is>
       </c>
       <c r="E782" s="18" t="n"/>
@@ -41249,7 +41261,7 @@
       <c r="K782" s="19" t="n"/>
       <c r="L782" s="19" t="inlineStr">
         <is>
-          <t>d5a3bec2-c4e2-4436-a133-6db55f17960e</t>
+          <t>35e33789-7e31-4c67-b68c-f6a62a119495</t>
         </is>
       </c>
       <c r="M782" s="20" t="n"/>
@@ -41276,7 +41288,7 @@
       </c>
       <c r="D783" s="18" t="inlineStr">
         <is>
-          <t>사전 구매 플랜으로 1년 동안 Azure Synapse SCU(커밋 단위)를 구매하여 Azure Synapse Analytics 비용을 절감하세요.</t>
+          <t>리소스를 사용하지 않을 때 일시 중지하여 전용 SQL 풀에 대한 비용을 제어합니다.</t>
         </is>
       </c>
       <c r="E783" s="18" t="n"/>
@@ -41292,15 +41304,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J783" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+      <c r="J783" s="13" t="n"/>
       <c r="K783" s="19" t="n"/>
       <c r="L783" s="19" t="inlineStr">
         <is>
-          <t>ee0bdf5c-c2ef-4c5d-961d-41d2500bb47a</t>
+          <t>6d697dc3-a2ed-427b-8d18-6f1a1252bddd</t>
         </is>
       </c>
       <c r="M783" s="20" t="n"/>
@@ -41322,12 +41330,12 @@
       </c>
       <c r="C784" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Synapse</t>
         </is>
       </c>
       <c r="D784" s="18" t="inlineStr">
         <is>
-          <t>인터럽트 가능한 작업에 스폿 VM 사용: 할인된 가격으로 입찰 및 구매할 수 있는 VM으로, 중요하지 않은 워크로드에 비용 효율적인 솔루션을 제공합니다.</t>
+          <t>서버리스 Apache Spark 자동 일시 중지 기능을 활성화하고 그에 따라 제한 시간 값을 설정합니다.</t>
         </is>
       </c>
       <c r="E784" s="18" t="n"/>
@@ -41343,15 +41351,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J784" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+      <c r="J784" s="13" t="n"/>
       <c r="K784" s="19" t="n"/>
       <c r="L784" s="19" t="inlineStr">
         <is>
-          <t>393a040f-d329-4479-ab11-88b2c5a46ceb</t>
+          <t>e68a487c-dec4-4861-ac3b-c10ae77e26e4</t>
         </is>
       </c>
       <c r="M784" s="20" t="n"/>
@@ -41373,12 +41377,12 @@
       </c>
       <c r="C785" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Synapse</t>
         </is>
       </c>
       <c r="D785" s="18" t="inlineStr">
         <is>
-          <t>모든 VM의 적절한 크기 조정</t>
+          <t>다양한 크기의 Apache Spark 풀 정의를 여러 개 만듭니다.</t>
         </is>
       </c>
       <c r="E785" s="18" t="n"/>
@@ -41398,7 +41402,7 @@
       <c r="K785" s="19" t="n"/>
       <c r="L785" s="19" t="inlineStr">
         <is>
-          <t>544451e1-92d3-4442-a3c7-628637a551c5</t>
+          <t>d5a3bec2-c4e2-4436-a133-6db55f17960e</t>
         </is>
       </c>
       <c r="M785" s="20" t="n"/>
@@ -41420,12 +41424,12 @@
       </c>
       <c r="C786" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Synapse</t>
         </is>
       </c>
       <c r="D786" s="18" t="inlineStr">
         <is>
-          <t>VM 크기를 정규화된 최신 크기로 바꾸기</t>
+          <t>사전 구매 플랜으로 1년 동안 Azure Synapse SCU(커밋 단위)를 구매하여 Azure Synapse Analytics 비용을 절감하세요.</t>
         </is>
       </c>
       <c r="E786" s="18" t="n"/>
@@ -41449,7 +41453,7 @@
       <c r="K786" s="19" t="n"/>
       <c r="L786" s="19" t="inlineStr">
         <is>
-          <t>b04e4f18-5438-47e5-aed1-26cd032af5b2</t>
+          <t>ee0bdf5c-c2ef-4c5d-961d-41d2500bb47a</t>
         </is>
       </c>
       <c r="M786" s="20" t="n"/>
@@ -41476,7 +41480,7 @@
       </c>
       <c r="D787" s="18" t="inlineStr">
         <is>
-          <t>적절한 크기 조정 VM - 사용량을 5% 미만으로 모니터링하는 것으로 시작한 다음 최대 40%까지 작업</t>
+          <t>인터럽트 가능한 작업에 스폿 VM 사용: 할인된 가격으로 입찰 및 구매할 수 있는 VM으로, 중요하지 않은 워크로드에 비용 효율적인 솔루션을 제공합니다.</t>
         </is>
       </c>
       <c r="E787" s="18" t="n"/>
@@ -41500,7 +41504,7 @@
       <c r="K787" s="19" t="n"/>
       <c r="L787" s="19" t="inlineStr">
         <is>
-          <t>fc6998a5-35e3-4378-a7e3-1c67d68cf6a6</t>
+          <t>393a040f-d329-4479-ab11-88b2c5a46ceb</t>
         </is>
       </c>
       <c r="M787" s="20" t="n"/>
@@ -41527,7 +41531,7 @@
       </c>
       <c r="D788" s="18" t="inlineStr">
         <is>
-          <t>애플리케이션을 컨테이너화하면 VM 밀도를 개선하고 확장 비용을 절감할 수 있습니다</t>
+          <t>모든 VM의 적절한 크기 조정</t>
         </is>
       </c>
       <c r="E788" s="18" t="n"/>
@@ -41543,15 +41547,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J788" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J788" s="13" t="n"/>
       <c r="K788" s="19" t="n"/>
       <c r="L788" s="19" t="inlineStr">
         <is>
-          <t>2a119495-6d69-47dc-9a2e-d27b2d186f1a</t>
+          <t>544451e1-92d3-4442-a3c7-628637a551c5</t>
         </is>
       </c>
       <c r="M788" s="20" t="n"/>
@@ -41561,17 +41561,50 @@
       <c r="Q788" s="20" t="n"/>
     </row>
     <row r="789">
-      <c r="A789" s="18" t="n"/>
-      <c r="B789" s="18" t="n"/>
-      <c r="C789" s="18" t="n"/>
-      <c r="D789" s="18" t="n"/>
+      <c r="A789" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B789" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C789" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D789" s="18" t="inlineStr">
+        <is>
+          <t>VM 크기를 정규화된 최신 크기로 바꾸기</t>
+        </is>
+      </c>
       <c r="E789" s="18" t="n"/>
       <c r="F789" s="18" t="n"/>
+      <c r="G789" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H789" s="18" t="n"/>
-      <c r="I789" s="13" t="n"/>
-      <c r="J789" s="13" t="n"/>
+      <c r="I789" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J789" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="K789" s="19" t="n"/>
-      <c r="L789" s="19" t="n"/>
+      <c r="L789" s="19" t="inlineStr">
+        <is>
+          <t>b04e4f18-5438-47e5-aed1-26cd032af5b2</t>
+        </is>
+      </c>
       <c r="M789" s="20" t="n"/>
       <c r="N789" s="20" t="n"/>
       <c r="O789" s="20" t="n"/>
@@ -41579,17 +41612,50 @@
       <c r="Q789" s="20" t="n"/>
     </row>
     <row r="790">
-      <c r="A790" s="18" t="n"/>
-      <c r="B790" s="18" t="n"/>
-      <c r="C790" s="18" t="n"/>
-      <c r="D790" s="18" t="n"/>
+      <c r="A790" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B790" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C790" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D790" s="18" t="inlineStr">
+        <is>
+          <t>적절한 크기 조정 VM - 사용량을 5% 미만으로 모니터링하는 것으로 시작한 다음 최대 40%까지 작업</t>
+        </is>
+      </c>
       <c r="E790" s="18" t="n"/>
       <c r="F790" s="18" t="n"/>
+      <c r="G790" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H790" s="18" t="n"/>
-      <c r="I790" s="13" t="n"/>
-      <c r="J790" s="13" t="n"/>
+      <c r="I790" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J790" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="K790" s="19" t="n"/>
-      <c r="L790" s="19" t="n"/>
+      <c r="L790" s="19" t="inlineStr">
+        <is>
+          <t>fc6998a5-35e3-4378-a7e3-1c67d68cf6a6</t>
+        </is>
+      </c>
       <c r="M790" s="20" t="n"/>
       <c r="N790" s="20" t="n"/>
       <c r="O790" s="20" t="n"/>
@@ -41597,17 +41663,50 @@
       <c r="Q790" s="20" t="n"/>
     </row>
     <row r="791">
-      <c r="A791" s="18" t="n"/>
-      <c r="B791" s="18" t="n"/>
-      <c r="C791" s="18" t="n"/>
-      <c r="D791" s="18" t="n"/>
+      <c r="A791" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B791" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C791" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D791" s="18" t="inlineStr">
+        <is>
+          <t>애플리케이션을 컨테이너화하면 VM 밀도를 개선하고 확장 비용을 절감할 수 있습니다</t>
+        </is>
+      </c>
       <c r="E791" s="18" t="n"/>
       <c r="F791" s="18" t="n"/>
+      <c r="G791" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H791" s="18" t="n"/>
-      <c r="I791" s="13" t="n"/>
-      <c r="J791" s="13" t="n"/>
+      <c r="I791" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J791" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K791" s="19" t="n"/>
-      <c r="L791" s="19" t="n"/>
+      <c r="L791" s="19" t="inlineStr">
+        <is>
+          <t>2a119495-6d69-47dc-9a2e-d27b2d186f1a</t>
+        </is>
+      </c>
       <c r="M791" s="20" t="n"/>
       <c r="N791" s="20" t="n"/>
       <c r="O791" s="20" t="n"/>
@@ -49211,7 +49310,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G789" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G792" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -49893,6 +49992,9 @@
     <hyperlink ref="I786" r:id="rId675"/>
     <hyperlink ref="I787" r:id="rId676"/>
     <hyperlink ref="I788" r:id="rId677"/>
+    <hyperlink ref="I789" r:id="rId678"/>
+    <hyperlink ref="I790" r:id="rId679"/>
+    <hyperlink ref="I791" r:id="rId680"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -7005,7 +7005,7 @@
       </c>
       <c r="J120" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="K120" s="19" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -22624,7 +22624,7 @@
       <c r="K415" s="19" t="n"/>
       <c r="L415" s="19" t="inlineStr">
         <is>
-          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
+          <t>3b7a56de-5020-4642-b3cb-c976e80b6d6d</t>
         </is>
       </c>
       <c r="M415" s="20" t="n"/>
@@ -22675,7 +22675,7 @@
       <c r="K416" s="19" t="n"/>
       <c r="L416" s="19" t="inlineStr">
         <is>
-          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
+          <t>3d7008bd-6bc1-4b03-8aa8-ec2a3b55786a</t>
         </is>
       </c>
       <c r="M416" s="20" t="n"/>
@@ -22726,7 +22726,7 @@
       <c r="K417" s="19" t="n"/>
       <c r="L417" s="19" t="inlineStr">
         <is>
-          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
+          <t>1cda768f-a206-445d-8234-56f6a6e7286e</t>
         </is>
       </c>
       <c r="M417" s="20" t="n"/>
@@ -22777,7 +22777,7 @@
       <c r="K418" s="19" t="n"/>
       <c r="L418" s="19" t="inlineStr">
         <is>
-          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
+          <t>82118ec5-ed6f-4c68-9471-eb0da98a1b34</t>
         </is>
       </c>
       <c r="M418" s="20" t="n"/>
@@ -22828,7 +22828,7 @@
       <c r="K419" s="19" t="n"/>
       <c r="L419" s="19" t="inlineStr">
         <is>
-          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
+          <t>74275fa5-9e08-4c7e-b096-13b538fe1501</t>
         </is>
       </c>
       <c r="M419" s="20" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -37895,7 +37895,7 @@
     <row r="717">
       <c r="A717" s="18" t="inlineStr">
         <is>
-          <t>Azure Bot Service</t>
+          <t>Device Provisioning Service Review</t>
         </is>
       </c>
       <c r="B717" s="18" t="inlineStr">
@@ -37905,18 +37905,18 @@
       </c>
       <c r="C717" s="18" t="inlineStr">
         <is>
-          <t>Bot service</t>
+          <t>IoT Hub DPS</t>
         </is>
       </c>
       <c r="D717" s="18" t="inlineStr">
         <is>
-          <t>Azure Bot Service의 안정성 지원 권장 사항을 따릅니다</t>
+          <t>비즈니스 및 SLO 요구 사항에 따라 올바른 Logic App 호스팅 계획 선택Select the right Logic App hosting plan based on your business &amp; SLO requirements</t>
         </is>
       </c>
       <c r="E717" s="18" t="n"/>
       <c r="F717" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G717" t="inlineStr">
@@ -37934,7 +37934,7 @@
       <c r="K717" s="19" t="n"/>
       <c r="L717" s="19" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a476-ba28fdcf590c</t>
+          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
         </is>
       </c>
       <c r="M717" s="20" t="n"/>
@@ -37946,7 +37946,7 @@
     <row r="718">
       <c r="A718" s="18" t="inlineStr">
         <is>
-          <t>Azure Bot Service</t>
+          <t>Device Provisioning Service Review</t>
         </is>
       </c>
       <c r="B718" s="18" t="inlineStr">
@@ -37956,18 +37956,18 @@
       </c>
       <c r="C718" s="18" t="inlineStr">
         <is>
-          <t>Bot service</t>
+          <t>IoT Hub DPS</t>
         </is>
       </c>
       <c r="D718" s="18" t="inlineStr">
         <is>
-          <t>로컬 데이터 레지던시 및 지역 규정 준수를 통해 봇 배포Deploying bots with local data residency and regional compliance</t>
+          <t>영역 중복 및 가용성 영역을 사용하여 지역 오류로부터 논리 앱 보호Protect logic apps from region failures with zone redundancy and availability zones</t>
         </is>
       </c>
       <c r="E718" s="18" t="n"/>
       <c r="F718" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G718" t="inlineStr">
@@ -37985,7 +37985,7 @@
       <c r="K718" s="19" t="n"/>
       <c r="L718" s="19" t="inlineStr">
         <is>
-          <t>e65de8e1-3f9c-4cbd-9682-66abca264f9a</t>
+          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
         </is>
       </c>
       <c r="M718" s="20" t="n"/>
@@ -37997,7 +37997,7 @@
     <row r="719">
       <c r="A719" s="18" t="inlineStr">
         <is>
-          <t>Azure Bot Service</t>
+          <t>Device Provisioning Service Review</t>
         </is>
       </c>
       <c r="B719" s="18" t="inlineStr">
@@ -38007,18 +38007,18 @@
       </c>
       <c r="C719" s="18" t="inlineStr">
         <is>
-          <t>Bot service</t>
+          <t>IoT Hub DPS</t>
         </is>
       </c>
       <c r="D719" s="18" t="inlineStr">
         <is>
-          <t>Azure Bot Service는 글로벌 및 지역 서비스 모두에 대해 활성-활성 모드로 실행됩니다. 중단이 발생하면 오류를 감지하거나 서비스를 관리할 필요가 없습니다. Azure Bot Service는 다중 지역 지리적 아키텍처에서 자동 장애 조치(failover) 및 자동 복구를 자동으로 수행합니다. EU 봇 지역 서비스의 경우 Azure Bot Service는 중복성을 보장하기 위해 활성/활성 복제가 있는 유럽 내 두 개의 전체 지역을 제공합니다. 글로벌 봇 서비스의 경우 사용 가능한 모든 지역/지역을 글로벌 공간으로 제공할 수 있습니다.</t>
+          <t>중요한 워크로드에 대한 지역 간 DR 전략 고려</t>
         </is>
       </c>
       <c r="E719" s="18" t="n"/>
       <c r="F719" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G719" t="inlineStr">
@@ -38036,7 +38036,7 @@
       <c r="K719" s="19" t="n"/>
       <c r="L719" s="19" t="inlineStr">
         <is>
-          <t>19bfe9d5-5d04-4c3c-9919-ca1b2d1215ae</t>
+          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
         </is>
       </c>
       <c r="M719" s="20" t="n"/>
@@ -38048,7 +38048,7 @@
     <row r="720">
       <c r="A720" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Device Provisioning Service Review</t>
         </is>
       </c>
       <c r="B720" s="18" t="inlineStr">
@@ -38058,18 +38058,18 @@
       </c>
       <c r="C720" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>IoT Hub DPS</t>
         </is>
       </c>
       <c r="D720" s="18" t="inlineStr">
         <is>
-          <t>모범 사례는 기준 고가용성 영역 중복 웹 애플리케이션 아키텍처를 참조하세요.</t>
+          <t>격리된 환경에 배포하는 경우 ASE(App Service Environment) v3을 사용하거나 마이그레이션합니다</t>
         </is>
       </c>
       <c r="E720" s="18" t="n"/>
       <c r="F720" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G720" t="inlineStr">
@@ -38087,7 +38087,7 @@
       <c r="K720" s="19" t="n"/>
       <c r="L720" s="19" t="inlineStr">
         <is>
-          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
+          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
         </is>
       </c>
       <c r="M720" s="20" t="n"/>
@@ -38099,22 +38099,22 @@
     <row r="721">
       <c r="A721" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Device Provisioning Service Review</t>
         </is>
       </c>
       <c r="B721" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C721" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>IoT Hub DPS</t>
         </is>
       </c>
       <c r="D721" s="18" t="inlineStr">
         <is>
-          <t>프리미엄 및 표준 계층을 사용합니다. 이러한 계층은 스테이징 슬롯 및 자동 백업을 지원합니다.</t>
+          <t>Azure DevOps 또는 GitHub를 활용하여 CI/CD를 간소화하고 논리 앱 코드를 보호합니다.</t>
         </is>
       </c>
       <c r="E721" s="18" t="n"/>
@@ -38138,7 +38138,7 @@
       <c r="K721" s="19" t="n"/>
       <c r="L721" s="19" t="inlineStr">
         <is>
-          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
+          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
         </is>
       </c>
       <c r="M721" s="20" t="n"/>
@@ -38150,7 +38150,7 @@
     <row r="722">
       <c r="A722" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Bot Service</t>
         </is>
       </c>
       <c r="B722" s="18" t="inlineStr">
@@ -38160,18 +38160,18 @@
       </c>
       <c r="C722" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Bot service</t>
         </is>
       </c>
       <c r="D722" s="18" t="inlineStr">
         <is>
-          <t>지역적으로 적용 가능한 경우 가용성 영역 활용(프리미엄 v2 또는 v3 계층 필요)</t>
+          <t>Azure Bot Service의 안정성 지원 권장 사항을 따릅니다</t>
         </is>
       </c>
       <c r="E722" s="18" t="n"/>
       <c r="F722" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G722" t="inlineStr">
@@ -38189,7 +38189,7 @@
       <c r="K722" s="19" t="n"/>
       <c r="L722" s="19" t="inlineStr">
         <is>
-          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
+          <t>6ad48408-ee72-4734-a476-ba28fdcf590c</t>
         </is>
       </c>
       <c r="M722" s="20" t="n"/>
@@ -38201,7 +38201,7 @@
     <row r="723">
       <c r="A723" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Bot Service</t>
         </is>
       </c>
       <c r="B723" s="18" t="inlineStr">
@@ -38211,12 +38211,12 @@
       </c>
       <c r="C723" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Bot service</t>
         </is>
       </c>
       <c r="D723" s="18" t="inlineStr">
         <is>
-          <t>상태 확인 구현</t>
+          <t>로컬 데이터 레지던시 및 지역 규정 준수를 통해 봇 배포Deploying bots with local data residency and regional compliance</t>
         </is>
       </c>
       <c r="E723" s="18" t="n"/>
@@ -38240,7 +38240,7 @@
       <c r="K723" s="19" t="n"/>
       <c r="L723" s="19" t="inlineStr">
         <is>
-          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
+          <t>e65de8e1-3f9c-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M723" s="20" t="n"/>
@@ -38252,7 +38252,7 @@
     <row r="724">
       <c r="A724" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Azure Bot Service</t>
         </is>
       </c>
       <c r="B724" s="18" t="inlineStr">
@@ -38262,18 +38262,18 @@
       </c>
       <c r="C724" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Bot service</t>
         </is>
       </c>
       <c r="D724" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service에 대한 백업 및 복원 모범 사례를 참조하세요.</t>
+          <t>Azure Bot Service는 글로벌 및 지역 서비스 모두에 대해 활성-활성 모드로 실행됩니다. 중단이 발생하면 오류를 감지하거나 서비스를 관리할 필요가 없습니다. Azure Bot Service는 다중 지역 지리적 아키텍처에서 자동 장애 조치(failover) 및 자동 복구를 자동으로 수행합니다. EU 봇 지역 서비스의 경우 Azure Bot Service는 중복성을 보장하기 위해 활성/활성 복제가 있는 유럽 내 두 개의 전체 지역을 제공합니다. 글로벌 봇 서비스의 경우 사용 가능한 모든 지역/지역을 글로벌 공간으로 제공할 수 있습니다.</t>
         </is>
       </c>
       <c r="E724" s="18" t="n"/>
       <c r="F724" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G724" t="inlineStr">
@@ -38291,7 +38291,7 @@
       <c r="K724" s="19" t="n"/>
       <c r="L724" s="19" t="inlineStr">
         <is>
-          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
+          <t>19bfe9d5-5d04-4c3c-9919-ca1b2d1215ae</t>
         </is>
       </c>
       <c r="M724" s="20" t="n"/>
@@ -38318,13 +38318,13 @@
       </c>
       <c r="D725" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service 안정성 모범 사례 구현</t>
+          <t>모범 사례는 기준 고가용성 영역 중복 웹 애플리케이션 아키텍처를 참조하세요.</t>
         </is>
       </c>
       <c r="E725" s="18" t="n"/>
       <c r="F725" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G725" t="inlineStr">
@@ -38342,7 +38342,7 @@
       <c r="K725" s="19" t="n"/>
       <c r="L725" s="19" t="inlineStr">
         <is>
-          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
+          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
         </is>
       </c>
       <c r="M725" s="20" t="n"/>
@@ -38369,13 +38369,13 @@
       </c>
       <c r="D726" s="18" t="inlineStr">
         <is>
-          <t>App Service 앱을 다른 지역으로 이동하는 방법을 숙지합니다. 재해가 발생하는 동안</t>
+          <t>프리미엄 및 표준 계층을 사용합니다. 이러한 계층은 스테이징 슬롯 및 자동 백업을 지원합니다.</t>
         </is>
       </c>
       <c r="E726" s="18" t="n"/>
       <c r="F726" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G726" t="inlineStr">
@@ -38393,7 +38393,7 @@
       <c r="K726" s="19" t="n"/>
       <c r="L726" s="19" t="inlineStr">
         <is>
-          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
+          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
         </is>
       </c>
       <c r="M726" s="20" t="n"/>
@@ -38420,7 +38420,7 @@
       </c>
       <c r="D727" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service의 안정성 지원 숙지</t>
+          <t>지역적으로 적용 가능한 경우 가용성 영역 활용(프리미엄 v2 또는 v3 계층 필요)</t>
         </is>
       </c>
       <c r="E727" s="18" t="n"/>
@@ -38444,7 +38444,7 @@
       <c r="K727" s="19" t="n"/>
       <c r="L727" s="19" t="inlineStr">
         <is>
-          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
+          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
         </is>
       </c>
       <c r="M727" s="20" t="n"/>
@@ -38471,7 +38471,7 @@
       </c>
       <c r="D728" s="18" t="inlineStr">
         <is>
-          <t>App Service 계획에서 실행되는 Function Apps에 대해 "Always On"이 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>상태 확인 구현</t>
         </is>
       </c>
       <c r="E728" s="18" t="n"/>
@@ -38495,7 +38495,7 @@
       <c r="K728" s="19" t="n"/>
       <c r="L728" s="19" t="inlineStr">
         <is>
-          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
+          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
         </is>
       </c>
       <c r="M728" s="20" t="n"/>
@@ -38522,13 +38522,13 @@
       </c>
       <c r="D729" s="18" t="inlineStr">
         <is>
-          <t>상태 검사를 사용하여 App Service 인스턴스 모니터링Monitor App Service instances using Health checks</t>
+          <t>Azure App Service에 대한 백업 및 복원 모범 사례를 참조하세요.</t>
         </is>
       </c>
       <c r="E729" s="18" t="n"/>
       <c r="F729" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G729" t="inlineStr">
@@ -38546,7 +38546,7 @@
       <c r="K729" s="19" t="n"/>
       <c r="L729" s="19" t="inlineStr">
         <is>
-          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
+          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
         </is>
       </c>
       <c r="M729" s="20" t="n"/>
@@ -38573,13 +38573,13 @@
       </c>
       <c r="D730" s="18" t="inlineStr">
         <is>
-          <t>Application Insights 가용성 테스트를 사용하여 웹앱 또는 웹 사이트의 가용성 및 응답성 모니터링</t>
+          <t>Azure App Service 안정성 모범 사례 구현</t>
         </is>
       </c>
       <c r="E730" s="18" t="n"/>
       <c r="F730" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G730" t="inlineStr">
@@ -38597,7 +38597,7 @@
       <c r="K730" s="19" t="n"/>
       <c r="L730" s="19" t="inlineStr">
         <is>
-          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
+          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
         </is>
       </c>
       <c r="M730" s="20" t="n"/>
@@ -38624,7 +38624,7 @@
       </c>
       <c r="D731" s="18" t="inlineStr">
         <is>
-          <t>Application Insights 표준 테스트를 사용하여 웹앱 또는 웹 사이트의 가용성 및 응답성 모니터링</t>
+          <t>App Service 앱을 다른 지역으로 이동하는 방법을 숙지합니다. 재해가 발생하는 동안</t>
         </is>
       </c>
       <c r="E731" s="18" t="n"/>
@@ -38648,7 +38648,7 @@
       <c r="K731" s="19" t="n"/>
       <c r="L731" s="19" t="inlineStr">
         <is>
-          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
+          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
         </is>
       </c>
       <c r="M731" s="20" t="n"/>
@@ -38665,7 +38665,7 @@
       </c>
       <c r="B732" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C732" s="18" t="inlineStr">
@@ -38675,14 +38675,10 @@
       </c>
       <c r="D732" s="18" t="inlineStr">
         <is>
-          <t>Key Vault를 사용하여 비밀 저장</t>
-        </is>
-      </c>
-      <c r="E732" s="18" t="inlineStr">
-        <is>
-          <t>Azure Key Vault를 사용하여 애플리케이션에 필요한 모든 비밀을 저장합니다.  Key Vault는 비밀을 저장하기 위한 안전하고 감사된 환경을 제공하며 Key Vault SDK 또는 App Service Key Vault 참조를 통해 App Service와 잘 통합됩니다.</t>
-        </is>
-      </c>
+          <t>Azure App Service의 안정성 지원 숙지</t>
+        </is>
+      </c>
+      <c r="E732" s="18" t="n"/>
       <c r="F732" s="18" t="inlineStr">
         <is>
           <t>높다</t>
@@ -38703,7 +38699,7 @@
       <c r="K732" s="19" t="n"/>
       <c r="L732" s="19" t="inlineStr">
         <is>
-          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
+          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
         </is>
       </c>
       <c r="M732" s="20" t="n"/>
@@ -38720,7 +38716,7 @@
       </c>
       <c r="B733" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C733" s="18" t="inlineStr">
@@ -38730,17 +38726,13 @@
       </c>
       <c r="D733" s="18" t="inlineStr">
         <is>
-          <t>관리 ID를 사용하여 Key Vault에 연결</t>
-        </is>
-      </c>
-      <c r="E733" s="18" t="inlineStr">
-        <is>
-          <t>관리 ID를 사용하여 Key Vault SDK를 사용하거나 App Service Key Vault 참조를 통해 Key Vault에 연결합니다.</t>
-        </is>
-      </c>
+          <t>App Service 계획에서 실행되는 Function Apps에 대해 "Always On"이 사용하도록 설정되어 있는지 확인합니다.</t>
+        </is>
+      </c>
+      <c r="E733" s="18" t="n"/>
       <c r="F733" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G733" t="inlineStr">
@@ -38758,7 +38750,7 @@
       <c r="K733" s="19" t="n"/>
       <c r="L733" s="19" t="inlineStr">
         <is>
-          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
+          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
         </is>
       </c>
       <c r="M733" s="20" t="n"/>
@@ -38775,7 +38767,7 @@
       </c>
       <c r="B734" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C734" s="18" t="inlineStr">
@@ -38785,17 +38777,13 @@
       </c>
       <c r="D734" s="18" t="inlineStr">
         <is>
-          <t>Key Vault를 사용하여 TLS 인증서를 저장합니다.</t>
-        </is>
-      </c>
-      <c r="E734" s="18" t="inlineStr">
-        <is>
-          <t>App Service TLS 인증서를 Key Vault에 저장합니다.</t>
-        </is>
-      </c>
+          <t>상태 검사를 사용하여 App Service 인스턴스 모니터링Monitor App Service instances using Health checks</t>
+        </is>
+      </c>
+      <c r="E734" s="18" t="n"/>
       <c r="F734" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G734" t="inlineStr">
@@ -38813,7 +38801,7 @@
       <c r="K734" s="19" t="n"/>
       <c r="L734" s="19" t="inlineStr">
         <is>
-          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
+          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
         </is>
       </c>
       <c r="M734" s="20" t="n"/>
@@ -38830,7 +38818,7 @@
       </c>
       <c r="B735" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C735" s="18" t="inlineStr">
@@ -38840,14 +38828,10 @@
       </c>
       <c r="D735" s="18" t="inlineStr">
         <is>
-          <t>민감한 정보를 처리하는 시스템 격리</t>
-        </is>
-      </c>
-      <c r="E735" s="18" t="inlineStr">
-        <is>
-          <t>중요한 정보를 처리하는 시스템은 격리해야 합니다.  이렇게 하려면 별도의 App Service 계획 또는 App Service Environment를 사용하고 다른 구독 또는 관리 그룹을 사용하는 것이 좋습니다.</t>
-        </is>
-      </c>
+          <t>Application Insights 가용성 테스트를 사용하여 웹앱 또는 웹 사이트의 가용성 및 응답성 모니터링</t>
+        </is>
+      </c>
+      <c r="E735" s="18" t="n"/>
       <c r="F735" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -38868,7 +38852,7 @@
       <c r="K735" s="19" t="n"/>
       <c r="L735" s="19" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
+          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
         </is>
       </c>
       <c r="M735" s="20" t="n"/>
@@ -38885,7 +38869,7 @@
       </c>
       <c r="B736" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C736" s="18" t="inlineStr">
@@ -38895,17 +38879,13 @@
       </c>
       <c r="D736" s="18" t="inlineStr">
         <is>
-          <t>로컬 디스크에 중요한 데이터를 저장하지 마십시오.</t>
-        </is>
-      </c>
-      <c r="E736" s="18" t="inlineStr">
-        <is>
-          <t>App Service의 로컬 디스크는 암호화되지 않으며 중요한 데이터를 저장해서는 안 됩니다.  (예: D:\\Local and %TMP%).</t>
-        </is>
-      </c>
+          <t>Application Insights 표준 테스트를 사용하여 웹앱 또는 웹 사이트의 가용성 및 응답성 모니터링</t>
+        </is>
+      </c>
+      <c r="E736" s="18" t="n"/>
       <c r="F736" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G736" t="inlineStr">
@@ -38923,7 +38903,7 @@
       <c r="K736" s="19" t="n"/>
       <c r="L736" s="19" t="inlineStr">
         <is>
-          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
+          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
         </is>
       </c>
       <c r="M736" s="20" t="n"/>
@@ -38950,17 +38930,17 @@
       </c>
       <c r="D737" s="18" t="inlineStr">
         <is>
-          <t>인증에 설정된 ID 공급자 사용</t>
+          <t>Key Vault를 사용하여 비밀 저장</t>
         </is>
       </c>
       <c r="E737" s="18" t="inlineStr">
         <is>
-          <t>인증된 웹 애플리케이션의 경우 Azure AD 또는 Azure AD B2C와 같이 잘 설정된 ID 공급자를 사용합니다.  선택한 애플리케이션 프레임워크를 활용하여 이 공급자와 통합하거나 App Service 인증/권한 부여 기능을 사용합니다.</t>
+          <t>Azure Key Vault를 사용하여 애플리케이션에 필요한 모든 비밀을 저장합니다.  Key Vault는 비밀을 저장하기 위한 안전하고 감사된 환경을 제공하며 Key Vault SDK 또는 App Service Key Vault 참조를 통해 App Service와 잘 통합됩니다.</t>
         </is>
       </c>
       <c r="F737" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G737" t="inlineStr">
@@ -38978,7 +38958,7 @@
       <c r="K737" s="19" t="n"/>
       <c r="L737" s="19" t="inlineStr">
         <is>
-          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
+          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
         </is>
       </c>
       <c r="M737" s="20" t="n"/>
@@ -39005,12 +38985,12 @@
       </c>
       <c r="D738" s="18" t="inlineStr">
         <is>
-          <t>신뢰할 수 있는 환경에서 배포</t>
+          <t>관리 ID를 사용하여 Key Vault에 연결</t>
         </is>
       </c>
       <c r="E738" s="18" t="inlineStr">
         <is>
-          <t>잘 관리되고 안전한 DevOps 배포 파이프라인과 같이 제어되고 신뢰할 수 있는 환경에서 App Service에 코드를 배포합니다. 이렇게 하면 버전이 제어되지 않고 악성 호스트에서 배포되는 것으로 확인되지 않은 코드를 방지할 수 있습니다.</t>
+          <t>관리 ID를 사용하여 Key Vault SDK를 사용하거나 App Service Key Vault 참조를 통해 Key Vault에 연결합니다.</t>
         </is>
       </c>
       <c r="F738" s="18" t="inlineStr">
@@ -39033,7 +39013,7 @@
       <c r="K738" s="19" t="n"/>
       <c r="L738" s="19" t="inlineStr">
         <is>
-          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
+          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
         </is>
       </c>
       <c r="M738" s="20" t="n"/>
@@ -39060,12 +39040,12 @@
       </c>
       <c r="D739" s="18" t="inlineStr">
         <is>
-          <t>기본 인증 사용 안 함</t>
+          <t>Key Vault를 사용하여 TLS 인증서를 저장합니다.</t>
         </is>
       </c>
       <c r="E739" s="18" t="inlineStr">
         <is>
-          <t>FTP/FTPS 및 WebDeploy/SCM 모두에 대한 기본 인증을 사용 안함으로 설정합니다.  이렇게 하면 이러한 서비스에 대한 액세스가 비활성화되고 배포에 Azure AD 보안 엔드포인트가 사용됩니다.  SCM 사이트는 Azure AD 자격 증명을 사용하여 열 수도 있습니다.</t>
+          <t>App Service TLS 인증서를 Key Vault에 저장합니다.</t>
         </is>
       </c>
       <c r="F739" s="18" t="inlineStr">
@@ -39088,7 +39068,7 @@
       <c r="K739" s="19" t="n"/>
       <c r="L739" s="19" t="inlineStr">
         <is>
-          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
+          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
         </is>
       </c>
       <c r="M739" s="20" t="n"/>
@@ -39115,17 +39095,17 @@
       </c>
       <c r="D740" s="18" t="inlineStr">
         <is>
-          <t>관리 ID를 사용하여 리소스에 연결</t>
+          <t>민감한 정보를 처리하는 시스템 격리</t>
         </is>
       </c>
       <c r="E740" s="18" t="inlineStr">
         <is>
-          <t>가능한 경우 관리 ID를 사용하여 Azure AD 보안 리소스에 연결합니다.  이렇게 할 수 없는 경우 Key Vault에 비밀을 저장하고 대신 관리 ID를 사용하여 Key Vault에 연결합니다.</t>
+          <t>중요한 정보를 처리하는 시스템은 격리해야 합니다.  이렇게 하려면 별도의 App Service 계획 또는 App Service Environment를 사용하고 다른 구독 또는 관리 그룹을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="F740" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G740" t="inlineStr">
@@ -39143,7 +39123,7 @@
       <c r="K740" s="19" t="n"/>
       <c r="L740" s="19" t="inlineStr">
         <is>
-          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
+          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
         </is>
       </c>
       <c r="M740" s="20" t="n"/>
@@ -39170,17 +39150,17 @@
       </c>
       <c r="D741" s="18" t="inlineStr">
         <is>
-          <t>관리 ID를 사용하여 컨테이너 끌어오기</t>
+          <t>로컬 디스크에 중요한 데이터를 저장하지 마십시오.</t>
         </is>
       </c>
       <c r="E741" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry에 저장된 이미지를 사용하는 경우 관리 ID를 사용하여 끌어옵니다.</t>
+          <t>App Service의 로컬 디스크는 암호화되지 않으며 중요한 데이터를 저장해서는 안 됩니다.  (예: D:\\Local and %TMP%).</t>
         </is>
       </c>
       <c r="F741" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G741" t="inlineStr">
@@ -39198,7 +39178,7 @@
       <c r="K741" s="19" t="n"/>
       <c r="L741" s="19" t="inlineStr">
         <is>
-          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
+          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M741" s="20" t="n"/>
@@ -39225,12 +39205,12 @@
       </c>
       <c r="D742" s="18" t="inlineStr">
         <is>
-          <t>Log Analytics에 App Service 런타임 로그 보내기Send App Service runtime logs to Log Analytics</t>
+          <t>인증에 설정된 ID 공급자 사용</t>
         </is>
       </c>
       <c r="E742" s="18" t="inlineStr">
         <is>
-          <t>App Service의 진단 설정을 구성하면 모든 원격 분석을 로깅 및 모니터링의 중앙 대상으로 Log Analytics에 보낼 수 있습니다. 이를 통해 HTTP 로그, 애플리케이션 로그, 플랫폼 로그 등과 같은 App Service의 런타임 활동을 모니터링할 수 있습니다.</t>
+          <t>인증된 웹 애플리케이션의 경우 Azure AD 또는 Azure AD B2C와 같이 잘 설정된 ID 공급자를 사용합니다.  선택한 애플리케이션 프레임워크를 활용하여 이 공급자와 통합하거나 App Service 인증/권한 부여 기능을 사용합니다.</t>
         </is>
       </c>
       <c r="F742" s="18" t="inlineStr">
@@ -39253,7 +39233,7 @@
       <c r="K742" s="19" t="n"/>
       <c r="L742" s="19" t="inlineStr">
         <is>
-          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
+          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
         </is>
       </c>
       <c r="M742" s="20" t="n"/>
@@ -39280,17 +39260,17 @@
       </c>
       <c r="D743" s="18" t="inlineStr">
         <is>
-          <t>Log Analytics에 App Service 활동 로그 보내기Send App Service activity logs to Log Analytics</t>
+          <t>신뢰할 수 있는 환경에서 배포</t>
         </is>
       </c>
       <c r="E743" s="18" t="inlineStr">
         <is>
-          <t>활동 로그를 Log Analytics에 로깅 및 모니터링의 중앙 대상으로 보내도록 진단 설정을 지정합니다. 이렇게 하면 App Service 리소스 자체에서 컨트롤 플레인 작업을 모니터링할 수 있습니다.</t>
+          <t>잘 관리되고 안전한 DevOps 배포 파이프라인과 같이 제어되고 신뢰할 수 있는 환경에서 App Service에 코드를 배포합니다. 이렇게 하면 버전이 제어되지 않고 악성 호스트에서 배포되는 것으로 확인되지 않은 코드를 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="F743" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G743" t="inlineStr">
@@ -39308,7 +39288,7 @@
       <c r="K743" s="19" t="n"/>
       <c r="L743" s="19" t="inlineStr">
         <is>
-          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
+          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
         </is>
       </c>
       <c r="M743" s="20" t="n"/>
@@ -39335,17 +39315,17 @@
       </c>
       <c r="D744" s="18" t="inlineStr">
         <is>
-          <t>아웃바운드 네트워크 액세스를 제어해야 함</t>
+          <t>기본 인증 사용 안 함</t>
         </is>
       </c>
       <c r="E744" s="18" t="inlineStr">
         <is>
-          <t>지역 VNet 통합, 네트워크 보안 그룹 및 UDR의 조합을 사용하여 아웃바운드 네트워크 액세스를 제어합니다.  트래픽은 Azure Firewall과 같은 NVA로 라우팅되어야 합니다.  방화벽의 로그를 모니터링해야 합니다.</t>
+          <t>FTP/FTPS 및 WebDeploy/SCM 모두에 대한 기본 인증을 사용 안함으로 설정합니다.  이렇게 하면 이러한 서비스에 대한 액세스가 비활성화되고 배포에 Azure AD 보안 엔드포인트가 사용됩니다.  SCM 사이트는 Azure AD 자격 증명을 사용하여 열 수도 있습니다.</t>
         </is>
       </c>
       <c r="F744" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G744" t="inlineStr">
@@ -39363,7 +39343,7 @@
       <c r="K744" s="19" t="n"/>
       <c r="L744" s="19" t="inlineStr">
         <is>
-          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
+          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
         </is>
       </c>
       <c r="M744" s="20" t="n"/>
@@ -39390,17 +39370,17 @@
       </c>
       <c r="D745" s="18" t="inlineStr">
         <is>
-          <t>인터넷 주소에 대한 아웃바운드 통신을 위한 안정적인 IP 보장</t>
+          <t>관리 ID를 사용하여 리소스에 연결</t>
         </is>
       </c>
       <c r="E745" s="18" t="inlineStr">
         <is>
-          <t>VNet 통합을 사용하고 VNet NAT Gateway 또는 NVA와 같은 Azure Firewall을 사용하여 안정적인 아웃바운드 IP를 제공할 수 있습니다.  이렇게 하면 필요한 경우 수신 당사자가 IP를 기반으로 허용 목록을 만들 수 있습니다.  Azure 서비스에 대한 통신의 경우 IP 주소에 의존할 필요가 없는 경우가 많으며 서비스 엔드포인트와 같은 메커니즘을 대신 사용해야 합니다.  (또한 수신 끝에서 프라이빗 엔드포인트를 사용하면 SNAT가 발생하지 않고 안정적인 아웃바운드 IP 범위를 제공합니다.)</t>
+          <t>가능한 경우 관리 ID를 사용하여 Azure AD 보안 리소스에 연결합니다.  이렇게 할 수 없는 경우 Key Vault에 비밀을 저장하고 대신 관리 ID를 사용하여 Key Vault에 연결합니다.</t>
         </is>
       </c>
       <c r="F745" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G745" t="inlineStr">
@@ -39418,7 +39398,7 @@
       <c r="K745" s="19" t="n"/>
       <c r="L745" s="19" t="inlineStr">
         <is>
-          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
+          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
         </is>
       </c>
       <c r="M745" s="20" t="n"/>
@@ -39445,12 +39425,12 @@
       </c>
       <c r="D746" s="18" t="inlineStr">
         <is>
-          <t>인바운드 네트워크 액세스를 제어해야 합니다.</t>
+          <t>관리 ID를 사용하여 컨테이너 끌어오기</t>
         </is>
       </c>
       <c r="E746" s="18" t="inlineStr">
         <is>
-          <t>App Service 액세스 제한, 서비스 엔드포인트 또는 프라이빗 엔드포인트의 조합을 사용하여 인바운드 네트워크 액세스를 제어합니다. 웹앱 자체 및 SCM 사이트에 대해 서로 다른 액세스 제한이 필요하고 구성될 수 있습니다.</t>
+          <t>Azure Container Registry에 저장된 이미지를 사용하는 경우 관리 ID를 사용하여 끌어옵니다.</t>
         </is>
       </c>
       <c r="F746" s="18" t="inlineStr">
@@ -39473,7 +39453,7 @@
       <c r="K746" s="19" t="n"/>
       <c r="L746" s="19" t="inlineStr">
         <is>
-          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
+          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
         </is>
       </c>
       <c r="M746" s="20" t="n"/>
@@ -39500,17 +39480,17 @@
       </c>
       <c r="D747" s="18" t="inlineStr">
         <is>
-          <t>App Service 앞에서 WAF 사용Use a WAF in front of App Service</t>
+          <t>Log Analytics에 App Service 런타임 로그 보내기Send App Service runtime logs to Log Analytics</t>
         </is>
       </c>
       <c r="E747" s="18" t="inlineStr">
         <is>
-          <t>Application Gateway 또는 Azure Front Door와 같은 Web Application Firewall을 사용하여 악의적인 인바운드 트래픽으로부터 보호합니다.  WAF의 로그를 모니터링해야 합니다.</t>
+          <t>App Service의 진단 설정을 구성하면 모든 원격 분석을 로깅 및 모니터링의 중앙 대상으로 Log Analytics에 보낼 수 있습니다. 이를 통해 HTTP 로그, 애플리케이션 로그, 플랫폼 로그 등과 같은 App Service의 런타임 활동을 모니터링할 수 있습니다.</t>
         </is>
       </c>
       <c r="F747" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G747" t="inlineStr">
@@ -39528,7 +39508,7 @@
       <c r="K747" s="19" t="n"/>
       <c r="L747" s="19" t="inlineStr">
         <is>
-          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
+          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
         </is>
       </c>
       <c r="M747" s="20" t="n"/>
@@ -39555,17 +39535,17 @@
       </c>
       <c r="D748" s="18" t="inlineStr">
         <is>
-          <t>WAF가 우회되지 않도록 방지</t>
+          <t>Log Analytics에 App Service 활동 로그 보내기Send App Service activity logs to Log Analytics</t>
         </is>
       </c>
       <c r="E748" s="18" t="inlineStr">
         <is>
-          <t>WAF에 대한 액세스만 잠궈 WAF를 우회할 수 없는지 확인합니다.  액세스 제한, 서비스 엔드포인트 및 프라이빗 엔드포인트의 조합을 사용합니다.</t>
+          <t>활동 로그를 Log Analytics에 로깅 및 모니터링의 중앙 대상으로 보내도록 진단 설정을 지정합니다. 이렇게 하면 App Service 리소스 자체에서 컨트롤 플레인 작업을 모니터링할 수 있습니다.</t>
         </is>
       </c>
       <c r="F748" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G748" t="inlineStr">
@@ -39583,7 +39563,7 @@
       <c r="K748" s="19" t="n"/>
       <c r="L748" s="19" t="inlineStr">
         <is>
-          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
+          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
         </is>
       </c>
       <c r="M748" s="20" t="n"/>
@@ -39610,12 +39590,12 @@
       </c>
       <c r="D749" s="18" t="inlineStr">
         <is>
-          <t>최소 TLS 정책을 1.2로 설정합니다.</t>
+          <t>아웃바운드 네트워크 액세스를 제어해야 함</t>
         </is>
       </c>
       <c r="E749" s="18" t="inlineStr">
         <is>
-          <t>App Service 구성에서 최소 TLS 정책을 1.2로 설정합니다.</t>
+          <t>지역 VNet 통합, 네트워크 보안 그룹 및 UDR의 조합을 사용하여 아웃바운드 네트워크 액세스를 제어합니다.  트래픽은 Azure Firewall과 같은 NVA로 라우팅되어야 합니다.  방화벽의 로그를 모니터링해야 합니다.</t>
         </is>
       </c>
       <c r="F749" s="18" t="inlineStr">
@@ -39635,14 +39615,10 @@
         </is>
       </c>
       <c r="J749" s="13" t="n"/>
-      <c r="K749" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K749" s="19" t="n"/>
       <c r="L749" s="19" t="inlineStr">
         <is>
-          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
+          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
         </is>
       </c>
       <c r="M749" s="20" t="n"/>
@@ -39669,17 +39645,17 @@
       </c>
       <c r="D750" s="18" t="inlineStr">
         <is>
-          <t>HTTPS만 사용</t>
+          <t>인터넷 주소에 대한 아웃바운드 통신을 위한 안정적인 IP 보장</t>
         </is>
       </c>
       <c r="E750" s="18" t="inlineStr">
         <is>
-          <t>HTTPS만 사용하도록 App Service를 구성합니다.  이로 인해 App Service가 HTTP에서 HTTPS로 리디렉션됩니다.  코드 또는 WAF에서 HSTS(HTTP Strict Transport Security)를 사용하여 HTTPS를 통해서만 사이트에 액세스해야 함을 브라우저에 알리는 것이 좋습니다.</t>
+          <t>VNet 통합을 사용하고 VNet NAT Gateway 또는 NVA와 같은 Azure Firewall을 사용하여 안정적인 아웃바운드 IP를 제공할 수 있습니다.  이렇게 하면 필요한 경우 수신 당사자가 IP를 기반으로 허용 목록을 만들 수 있습니다.  Azure 서비스에 대한 통신의 경우 IP 주소에 의존할 필요가 없는 경우가 많으며 서비스 엔드포인트와 같은 메커니즘을 대신 사용해야 합니다.  (또한 수신 끝에서 프라이빗 엔드포인트를 사용하면 SNAT가 발생하지 않고 안정적인 아웃바운드 IP 범위를 제공합니다.)</t>
         </is>
       </c>
       <c r="F750" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G750" t="inlineStr">
@@ -39694,14 +39670,10 @@
         </is>
       </c>
       <c r="J750" s="13" t="n"/>
-      <c r="K750" s="19" t="inlineStr">
-        <is>
-          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K750" s="19" t="n"/>
       <c r="L750" s="19" t="inlineStr">
         <is>
-          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
+          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
         </is>
       </c>
       <c r="M750" s="20" t="n"/>
@@ -39728,12 +39700,12 @@
       </c>
       <c r="D751" s="18" t="inlineStr">
         <is>
-          <t>와일드카드는 CORS에 사용할 수 없습니다.</t>
+          <t>인바운드 네트워크 액세스를 제어해야 합니다.</t>
         </is>
       </c>
       <c r="E751" s="18" t="inlineStr">
         <is>
-          <t>CORS 구성에서 와일드카드를 사용하면 모든 원본이 서비스에 액세스할 수 있으므로 CORS의 목적에 어긋나므로 사용하지 마세요. 특히 서비스에 액세스할 수 있을 것으로 예상되는 원본만 허용합니다.</t>
+          <t>App Service 액세스 제한, 서비스 엔드포인트 또는 프라이빗 엔드포인트의 조합을 사용하여 인바운드 네트워크 액세스를 제어합니다. 웹앱 자체 및 SCM 사이트에 대해 서로 다른 액세스 제한이 필요하고 구성될 수 있습니다.</t>
         </is>
       </c>
       <c r="F751" s="18" t="inlineStr">
@@ -39756,7 +39728,7 @@
       <c r="K751" s="19" t="n"/>
       <c r="L751" s="19" t="inlineStr">
         <is>
-          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
+          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
         </is>
       </c>
       <c r="M751" s="20" t="n"/>
@@ -39783,12 +39755,12 @@
       </c>
       <c r="D752" s="18" t="inlineStr">
         <is>
-          <t>원격 디버깅 끄기</t>
+          <t>App Service 앞에서 WAF 사용Use a WAF in front of App Service</t>
         </is>
       </c>
       <c r="E752" s="18" t="inlineStr">
         <is>
-          <t>원격 디버깅은 서비스에서 추가 포트를 열어 공격 노출 영역을 증가시키므로 프로덕션에서 켜면 안 됩니다. 서비스는 48시간 후에 자동으로 원격 디버깅을 설정합니다.</t>
+          <t>Application Gateway 또는 Azure Front Door와 같은 Web Application Firewall을 사용하여 악의적인 인바운드 트래픽으로부터 보호합니다.  WAF의 로그를 모니터링해야 합니다.</t>
         </is>
       </c>
       <c r="F752" s="18" t="inlineStr">
@@ -39808,14 +39780,10 @@
         </is>
       </c>
       <c r="J752" s="13" t="n"/>
-      <c r="K752" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K752" s="19" t="n"/>
       <c r="L752" s="19" t="inlineStr">
         <is>
-          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
+          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
         </is>
       </c>
       <c r="M752" s="20" t="n"/>
@@ -39842,17 +39810,17 @@
       </c>
       <c r="D753" s="18" t="inlineStr">
         <is>
-          <t>클라우드용 Defender 사용 - App Service용 Defender</t>
+          <t>WAF가 우회되지 않도록 방지</t>
         </is>
       </c>
       <c r="E753" s="18" t="inlineStr">
         <is>
-          <t>App Service용 Defender를 사용하도록 설정합니다.  이는 다른 위협 중에서도 알려진 악성 IP 주소에 대한 통신을 탐지합니다.  작업의 일부로 App Service용 Defender의 권장 사항을 검토합니다.</t>
+          <t>WAF에 대한 액세스만 잠궈 WAF를 우회할 수 없는지 확인합니다.  액세스 제한, 서비스 엔드포인트 및 프라이빗 엔드포인트의 조합을 사용합니다.</t>
         </is>
       </c>
       <c r="F753" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G753" t="inlineStr">
@@ -39870,7 +39838,7 @@
       <c r="K753" s="19" t="n"/>
       <c r="L753" s="19" t="inlineStr">
         <is>
-          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
+          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
         </is>
       </c>
       <c r="M753" s="20" t="n"/>
@@ -39897,12 +39865,12 @@
       </c>
       <c r="D754" s="18" t="inlineStr">
         <is>
-          <t>WAF VNet에서 DDOS 보호 표준 사용Enable DDOS Protection Standard on the WAF VNet</t>
+          <t>최소 TLS 정책을 1.2로 설정합니다.</t>
         </is>
       </c>
       <c r="E754" s="18" t="inlineStr">
         <is>
-          <t>Azure는 네트워크에서 DDoS 기본 보호를 제공하며, 정상적인 트래픽 패턴을 학습하고 비정상적인 동작을 감지할 수 있는 지능형 DDoS 표준 기능으로 개선할 수 있습니다. DDoS 표준은 Virtual Network에 적용되므로 Application Gateway 또는 NVA와 같은 앱 앞의 네트워크 리소스에 대해 구성해야 합니다.</t>
+          <t>App Service 구성에서 최소 TLS 정책을 1.2로 설정합니다.</t>
         </is>
       </c>
       <c r="F754" s="18" t="inlineStr">
@@ -39922,10 +39890,14 @@
         </is>
       </c>
       <c r="J754" s="13" t="n"/>
-      <c r="K754" s="19" t="n"/>
+      <c r="K754" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L754" s="19" t="inlineStr">
         <is>
-          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
+          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
         </is>
       </c>
       <c r="M754" s="20" t="n"/>
@@ -39952,17 +39924,17 @@
       </c>
       <c r="D755" s="18" t="inlineStr">
         <is>
-          <t>Virtual Network를 통해 컨테이너 끌어오기</t>
+          <t>HTTPS만 사용</t>
         </is>
       </c>
       <c r="E755" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry에 저장된 이미지를 사용하는 경우 프라이빗 엔드포인트 및 앱 설정 'WEBSITE_PULL_IMAGE_OVER_VNET'를 사용하여 Azure Container Registry에서 가상 네트워크를 통해 끌어옵니다.</t>
+          <t>HTTPS만 사용하도록 App Service를 구성합니다.  이로 인해 App Service가 HTTP에서 HTTPS로 리디렉션됩니다.  코드 또는 WAF에서 HSTS(HTTP Strict Transport Security)를 사용하여 HTTPS를 통해서만 사이트에 액세스해야 함을 브라우저에 알리는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="F755" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G755" t="inlineStr">
@@ -39977,10 +39949,14 @@
         </is>
       </c>
       <c r="J755" s="13" t="n"/>
-      <c r="K755" s="19" t="n"/>
+      <c r="K755" s="19" t="inlineStr">
+        <is>
+          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L755" s="19" t="inlineStr">
         <is>
-          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
+          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
         </is>
       </c>
       <c r="M755" s="20" t="n"/>
@@ -40007,17 +39983,17 @@
       </c>
       <c r="D756" s="18" t="inlineStr">
         <is>
-          <t>침투 테스트 수행</t>
+          <t>와일드카드는 CORS에 사용할 수 없습니다.</t>
         </is>
       </c>
       <c r="E756" s="18" t="inlineStr">
         <is>
-          <t>참여의 침투 테스트 규칙에 따라 웹 응용 프로그램에 대한 침투 테스트를 수행합니다.</t>
+          <t>CORS 구성에서 와일드카드를 사용하면 모든 원본이 서비스에 액세스할 수 있으므로 CORS의 목적에 어긋나므로 사용하지 마세요. 특히 서비스에 액세스할 수 있을 것으로 예상되는 원본만 허용합니다.</t>
         </is>
       </c>
       <c r="F756" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G756" t="inlineStr">
@@ -40035,7 +40011,7 @@
       <c r="K756" s="19" t="n"/>
       <c r="L756" s="19" t="inlineStr">
         <is>
-          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
+          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
         </is>
       </c>
       <c r="M756" s="20" t="n"/>
@@ -40062,17 +40038,17 @@
       </c>
       <c r="D757" s="18" t="inlineStr">
         <is>
-          <t>유효성이 검사된 코드 배포</t>
+          <t>원격 디버깅 끄기</t>
         </is>
       </c>
       <c r="E757" s="18" t="inlineStr">
         <is>
-          <t>DevSecOps 사례에 따라 취약성을 검증하고 검사한 신뢰할 수 있는 코드를 배포합니다.</t>
+          <t>원격 디버깅은 서비스에서 추가 포트를 열어 공격 노출 영역을 증가시키므로 프로덕션에서 켜면 안 됩니다. 서비스는 48시간 후에 자동으로 원격 디버깅을 설정합니다.</t>
         </is>
       </c>
       <c r="F757" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G757" t="inlineStr">
@@ -40087,10 +40063,14 @@
         </is>
       </c>
       <c r="J757" s="13" t="n"/>
-      <c r="K757" s="19" t="n"/>
+      <c r="K757" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L757" s="19" t="inlineStr">
         <is>
-          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
         </is>
       </c>
       <c r="M757" s="20" t="n"/>
@@ -40117,17 +40097,17 @@
       </c>
       <c r="D758" s="18" t="inlineStr">
         <is>
-          <t>최신 플랫폼, 언어, 프로토콜 및 프레임워크 사용</t>
+          <t>클라우드용 Defender 사용 - App Service용 Defender</t>
         </is>
       </c>
       <c r="E758" s="18" t="inlineStr">
         <is>
-          <t>지원되는 플랫폼, 프로그래밍 언어, 프로토콜 및 프레임워크의 최신 버전을 사용합니다.</t>
+          <t>App Service용 Defender를 사용하도록 설정합니다.  이는 다른 위협 중에서도 알려진 악성 IP 주소에 대한 통신을 탐지합니다.  작업의 일부로 App Service용 Defender의 권장 사항을 검토합니다.</t>
         </is>
       </c>
       <c r="F758" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G758" t="inlineStr">
@@ -40145,7 +40125,7 @@
       <c r="K758" s="19" t="n"/>
       <c r="L758" s="19" t="inlineStr">
         <is>
-          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
         </is>
       </c>
       <c r="M758" s="20" t="n"/>
@@ -40157,26 +40137,34 @@
     <row r="759">
       <c r="A759" s="18" t="inlineStr">
         <is>
-          <t>Cost Optimization Checklist</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B759" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C759" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D759" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor -https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-rule-overview 의 데이터 수집 규칙</t>
-        </is>
-      </c>
-      <c r="E759" s="18" t="n"/>
-      <c r="F759" s="18" t="n"/>
+          <t>WAF VNet에서 DDOS 보호 표준 사용Enable DDOS Protection Standard on the WAF VNet</t>
+        </is>
+      </c>
+      <c r="E759" s="18" t="inlineStr">
+        <is>
+          <t>Azure는 네트워크에서 DDoS 기본 보호를 제공하며, 정상적인 트래픽 패턴을 학습하고 비정상적인 동작을 감지할 수 있는 지능형 DDoS 표준 기능으로 개선할 수 있습니다. DDoS 표준은 Virtual Network에 적용되므로 Application Gateway 또는 NVA와 같은 앱 앞의 네트워크 리소스에 대해 구성해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F759" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="G759" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -40188,15 +40176,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J759" s="31" t="inlineStr">
-        <is>
-          <t>https://azure.microsoft.com/pricing/reservations/</t>
-        </is>
-      </c>
+      <c r="J759" s="13" t="n"/>
       <c r="K759" s="19" t="n"/>
       <c r="L759" s="19" t="inlineStr">
         <is>
-          <t>a95b86ad-8840-48e3-9273-4b875ba18f20</t>
+          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
         </is>
       </c>
       <c r="M759" s="20" t="n"/>
@@ -40208,26 +40192,34 @@
     <row r="760">
       <c r="A760" s="18" t="inlineStr">
         <is>
-          <t>Cost Optimization Checklist</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B760" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C760" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D760" s="18" t="inlineStr">
         <is>
-          <t>기본 데이터 원본을 찾을 수 없는 백업 인스턴스 확인</t>
-        </is>
-      </c>
-      <c r="E760" s="18" t="n"/>
-      <c r="F760" s="18" t="n"/>
+          <t>Virtual Network를 통해 컨테이너 끌어오기</t>
+        </is>
+      </c>
+      <c r="E760" s="18" t="inlineStr">
+        <is>
+          <t>Azure Container Registry에 저장된 이미지를 사용하는 경우 프라이빗 엔드포인트 및 앱 설정 'WEBSITE_PULL_IMAGE_OVER_VNET'를 사용하여 Azure Container Registry에서 가상 네트워크를 통해 끌어옵니다.</t>
+        </is>
+      </c>
+      <c r="F760" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="G760" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -40243,7 +40235,7 @@
       <c r="K760" s="19" t="n"/>
       <c r="L760" s="19" t="inlineStr">
         <is>
-          <t>45901365-d38e-443f-abcb-d868266abca2</t>
+          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
         </is>
       </c>
       <c r="M760" s="20" t="n"/>
@@ -40255,26 +40247,34 @@
     <row r="761">
       <c r="A761" s="18" t="inlineStr">
         <is>
-          <t>Cost Optimization Checklist</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B761" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C761" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D761" s="18" t="inlineStr">
         <is>
-          <t>연결되지 않은 서비스(디스크, NIC, IP 주소 등) 삭제 또는 보관</t>
-        </is>
-      </c>
-      <c r="E761" s="18" t="n"/>
-      <c r="F761" s="18" t="n"/>
+          <t>침투 테스트 수행</t>
+        </is>
+      </c>
+      <c r="E761" s="18" t="inlineStr">
+        <is>
+          <t>참여의 침투 테스트 규칙에 따라 웹 응용 프로그램에 대한 침투 테스트를 수행합니다.</t>
+        </is>
+      </c>
+      <c r="F761" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="G761" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -40290,7 +40290,7 @@
       <c r="K761" s="19" t="n"/>
       <c r="L761" s="19" t="inlineStr">
         <is>
-          <t>64f9a19a-f29c-495d-94c6-c7919ca0f6c5</t>
+          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
         </is>
       </c>
       <c r="M761" s="20" t="n"/>
@@ -40302,26 +40302,34 @@
     <row r="762">
       <c r="A762" s="18" t="inlineStr">
         <is>
-          <t>Cost Optimization Checklist</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B762" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C762" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D762" s="18" t="inlineStr">
         <is>
-          <t>중요 업무용 응용 프로그램에 대한 Site Recovery 저장소와 백업 간의 적절한 균형을 고려합니다.</t>
-        </is>
-      </c>
-      <c r="E762" s="18" t="n"/>
-      <c r="F762" s="18" t="n"/>
+          <t>유효성이 검사된 코드 배포</t>
+        </is>
+      </c>
+      <c r="E762" s="18" t="inlineStr">
+        <is>
+          <t>DevSecOps 사례에 따라 취약성을 검증하고 검사한 신뢰할 수 있는 코드를 배포합니다.</t>
+        </is>
+      </c>
+      <c r="F762" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
       <c r="G762" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -40337,7 +40345,7 @@
       <c r="K762" s="19" t="n"/>
       <c r="L762" s="19" t="inlineStr">
         <is>
-          <t>69bad37a-ad53-4cc7-ae1d-76667357c449</t>
+          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
         </is>
       </c>
       <c r="M762" s="20" t="n"/>
@@ -40349,26 +40357,34 @@
     <row r="763">
       <c r="A763" s="18" t="inlineStr">
         <is>
-          <t>Cost Optimization Checklist</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B763" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C763" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D763" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">40개의 서로 다른 로그 분석 작업 영역 간의 지출 및 절감 기회 확인 - 비프로덕션 작업 영역에 대해 서로 다른 보존 및 데이터 수집 사용-인식 및 계층 크기 조정을 위한 일일 한도 만들기 - 일일 한도를 설정하는 경우 한도에 도달할 때 경고를 만드는 것 외에도 특정 비율(예: 90%)에 도달했을 때 알림을 받을 경고 규칙도 만들어야 합니다. - 가능한 경우 작업 영역 변환 고려 - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
-        </is>
-      </c>
-      <c r="E763" s="18" t="n"/>
-      <c r="F763" s="18" t="n"/>
+          <t>최신 플랫폼, 언어, 프로토콜 및 프레임워크 사용</t>
+        </is>
+      </c>
+      <c r="E763" s="18" t="inlineStr">
+        <is>
+          <t>지원되는 플랫폼, 프로그래밍 언어, 프로토콜 및 프레임워크의 최신 버전을 사용합니다.</t>
+        </is>
+      </c>
+      <c r="F763" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
       <c r="G763" t="inlineStr">
         <is>
           <t>확인되지 않음</t>
@@ -40380,15 +40396,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J763" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/understand-work-scopes</t>
-        </is>
-      </c>
+      <c r="J763" s="13" t="n"/>
       <c r="K763" s="19" t="n"/>
       <c r="L763" s="19" t="inlineStr">
         <is>
-          <t>674b5ed8-5a85-49c7-933b-e2a1a27b765a</t>
+          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
         </is>
       </c>
       <c r="M763" s="20" t="n"/>
@@ -40415,7 +40427,7 @@
       </c>
       <c r="D764" s="18" t="inlineStr">
         <is>
-          <t>제거 로그 정책 및 자동화 적용(필요한 경우 로그를 콜드 스토리지로 이동할 수 있음)</t>
+          <t>Azure Monitor -https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-rule-overview 의 데이터 수집 규칙</t>
         </is>
       </c>
       <c r="E764" s="18" t="n"/>
@@ -40433,13 +40445,13 @@
       </c>
       <c r="J764" s="31" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=nHQYcYGKuyw</t>
+          <t>https://azure.microsoft.com/pricing/reservations/</t>
         </is>
       </c>
       <c r="K764" s="19" t="n"/>
       <c r="L764" s="19" t="inlineStr">
         <is>
-          <t>91be1f38-8ef3-494c-8bd4-63cbbac75819</t>
+          <t>a95b86ad-8840-48e3-9273-4b875ba18f20</t>
         </is>
       </c>
       <c r="M764" s="20" t="n"/>
@@ -40461,12 +40473,12 @@
       </c>
       <c r="C765" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Azure Backup</t>
         </is>
       </c>
       <c r="D765" s="18" t="inlineStr">
         <is>
-          <t>디스크가 실제로 필요한지 확인하고, 그렇지 않은 경우 삭제하십시오. 필요한 경우 더 낮은 스토리지 계층을 찾거나 백업을 사용합니다.</t>
+          <t>기본 데이터 원본을 찾을 수 없는 백업 인스턴스 확인</t>
         </is>
       </c>
       <c r="E765" s="18" t="n"/>
@@ -40482,15 +40494,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J765" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/manage-automation</t>
-        </is>
-      </c>
+      <c r="J765" s="13" t="n"/>
       <c r="K765" s="19" t="n"/>
       <c r="L765" s="19" t="inlineStr">
         <is>
-          <t>6aae01e6-a84d-4e5d-b36d-1d92881a1bd5</t>
+          <t>45901365-d38e-443f-abcb-d868266abca2</t>
         </is>
       </c>
       <c r="M765" s="20" t="n"/>
@@ -40512,12 +40520,12 @@
       </c>
       <c r="C766" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D766" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">사용자 지정 규칙을 사용하여 사용하지 않는 스토리지를 하위 계층으로 이동하는 것이 좋습니다 - https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure  </t>
+          <t>연결되지 않은 서비스(디스크, NIC, IP 주소 등) 삭제 또는 보관</t>
         </is>
       </c>
       <c r="E766" s="18" t="n"/>
@@ -40533,15 +40541,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J766" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
-        </is>
-      </c>
+      <c r="J766" s="13" t="n"/>
       <c r="K766" s="19" t="n"/>
       <c r="L766" s="19" t="inlineStr">
         <is>
-          <t>d1e44a19-659d-4395-afd7-7289b835556d</t>
+          <t>64f9a19a-f29c-495d-94c6-c7919ca0f6c5</t>
         </is>
       </c>
       <c r="M766" s="20" t="n"/>
@@ -40563,12 +40567,12 @@
       </c>
       <c r="C767" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Azure Backup</t>
         </is>
       </c>
       <c r="D767" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Advisor가 VM 올바른 크기 조정에 대해 구성되어 있는지 확인합니다. </t>
+          <t>중요 업무용 응용 프로그램에 대한 Site Recovery 저장소와 백업 간의 적절한 균형을 고려합니다.</t>
         </is>
       </c>
       <c r="E767" s="18" t="n"/>
@@ -40588,7 +40592,7 @@
       <c r="K767" s="19" t="n"/>
       <c r="L767" s="19" t="inlineStr">
         <is>
-          <t>d0102cac-6aae-401e-9a84-de5de36d1d92</t>
+          <t>69bad37a-ad53-4cc7-ae1d-76667357c449</t>
         </is>
       </c>
       <c r="M767" s="20" t="n"/>
@@ -40610,19 +40614,15 @@
       </c>
       <c r="C768" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Azure Monitor</t>
         </is>
       </c>
       <c r="D768" s="18" t="inlineStr">
         <is>
-          <t>모든 Windows VM에서 스크립트 실행 https://learn.microsoft.com/azure/virtual-machines/windows/hybrid-use-benefit-licensing?ref=andrewmatveychuk.com#convert-an-existing-vm-using-azure-hybrid-benefit-for-windows-server- Windows VM을 자주 만드는 경우 정책 구현을 고려합니다.</t>
-        </is>
-      </c>
-      <c r="E768" s="18" t="inlineStr">
-        <is>
-          <t>Cost analysys에서 Meter Category Licenses를 검색하여 확인합니다.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">40개의 서로 다른 로그 분석 작업 영역 간의 지출 및 절감 기회 확인 - 비프로덕션 작업 영역에 대해 서로 다른 보존 및 데이터 수집 사용-인식 및 계층 크기 조정을 위한 일일 한도 만들기 - 일일 한도를 설정하는 경우 한도에 도달할 때 경고를 만드는 것 외에도 특정 비율(예: 90%)에 도달했을 때 알림을 받을 경고 규칙도 만들어야 합니다. - 가능한 경우 작업 영역 변환 고려 - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
+        </is>
+      </c>
+      <c r="E768" s="18" t="n"/>
       <c r="F768" s="18" t="n"/>
       <c r="G768" t="inlineStr">
         <is>
@@ -40635,11 +40635,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J768" s="13" t="n"/>
+      <c r="J768" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/understand-work-scopes</t>
+        </is>
+      </c>
       <c r="K768" s="19" t="n"/>
       <c r="L768" s="19" t="inlineStr">
         <is>
-          <t>59ae568b-a38d-4498-9e22-13dbd7bb012f</t>
+          <t>674b5ed8-5a85-49c7-933b-e2a1a27b765a</t>
         </is>
       </c>
       <c r="M768" s="20" t="n"/>
@@ -40661,12 +40665,12 @@
       </c>
       <c r="C769" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Azure Monitor</t>
         </is>
       </c>
       <c r="D769" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 이미 라이선스가 있는 경우 AHUB에 넣을 수도 https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
+          <t>제거 로그 정책 및 자동화 적용(필요한 경우 로그를 콜드 스토리지로 이동할 수 있음)</t>
         </is>
       </c>
       <c r="E769" s="18" t="n"/>
@@ -40682,11 +40686,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J769" s="13" t="n"/>
+      <c r="J769" s="31" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=nHQYcYGKuyw</t>
+        </is>
+      </c>
       <c r="K769" s="19" t="n"/>
       <c r="L769" s="19" t="inlineStr">
         <is>
-          <t>7b95e06e-158e-42ea-9992-c2de6e2065b3</t>
+          <t>91be1f38-8ef3-494c-8bd4-63cbbac75819</t>
         </is>
       </c>
       <c r="M769" s="20" t="n"/>
@@ -40713,7 +40721,7 @@
       </c>
       <c r="D770" s="18" t="inlineStr">
         <is>
-          <t>유연성 옵션을 사용하여 예약된 VM 제품군 통합(4-5개 이하의 제품군)</t>
+          <t>디스크가 실제로 필요한지 확인하고, 그렇지 않은 경우 삭제하십시오. 필요한 경우 더 낮은 스토리지 계층을 찾거나 백업을 사용합니다.</t>
         </is>
       </c>
       <c r="E770" s="18" t="n"/>
@@ -40731,13 +40739,13 @@
       </c>
       <c r="J770" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/manage-automation</t>
         </is>
       </c>
       <c r="K770" s="19" t="n"/>
       <c r="L770" s="19" t="inlineStr">
         <is>
-          <t>75c1e945-b459-4837-bf7a-e7c6d3b475a5</t>
+          <t>6aae01e6-a84d-4e5d-b36d-1d92881a1bd5</t>
         </is>
       </c>
       <c r="M770" s="20" t="n"/>
@@ -40759,12 +40767,12 @@
       </c>
       <c r="C771" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D771" s="18" t="inlineStr">
         <is>
-          <t>Azure Reserved Instances 활용: 이 기능을 사용하면 1년 또는 3년 동안 VM을 예약할 수 있으므로 PAYG 가격에 비해 상당한 비용 절감 효과를 얻을 수 있습니다.</t>
+          <t xml:space="preserve">사용자 지정 규칙을 사용하여 사용하지 않는 스토리지를 하위 계층으로 이동하는 것이 좋습니다 - https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure  </t>
         </is>
       </c>
       <c r="E771" s="18" t="n"/>
@@ -40780,11 +40788,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J771" s="13" t="n"/>
+      <c r="J771" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+        </is>
+      </c>
       <c r="K771" s="19" t="n"/>
       <c r="L771" s="19" t="inlineStr">
         <is>
-          <t>c7acbe49-bbe6-44dd-a9f2-e87778468d55</t>
+          <t>d1e44a19-659d-4395-afd7-7289b835556d</t>
         </is>
       </c>
       <c r="M771" s="20" t="n"/>
@@ -40811,7 +40823,7 @@
       </c>
       <c r="D772" s="18" t="inlineStr">
         <is>
-          <t>더 큰 디스크만 예약할 수 있습니다 =&gt; 1TiB -</t>
+          <t xml:space="preserve">Advisor가 VM 올바른 크기 조정에 대해 구성되어 있는지 확인합니다. </t>
         </is>
       </c>
       <c r="E772" s="18" t="n"/>
@@ -40831,7 +40843,7 @@
       <c r="K772" s="19" t="n"/>
       <c r="L772" s="19" t="inlineStr">
         <is>
-          <t>a6bcca2b-4fea-41db-b3dd-95d48c7c891d</t>
+          <t>d0102cac-6aae-401e-9a84-de5de36d1d92</t>
         </is>
       </c>
       <c r="M772" s="20" t="n"/>
@@ -40858,10 +40870,14 @@
       </c>
       <c r="D773" s="18" t="inlineStr">
         <is>
-          <t>적절한 크기 최적화 후</t>
-        </is>
-      </c>
-      <c r="E773" s="18" t="n"/>
+          <t>모든 Windows VM에서 스크립트 실행 https://learn.microsoft.com/azure/virtual-machines/windows/hybrid-use-benefit-licensing?ref=andrewmatveychuk.com#convert-an-existing-vm-using-azure-hybrid-benefit-for-windows-server- Windows VM을 자주 만드는 경우 정책 구현을 고려합니다.</t>
+        </is>
+      </c>
+      <c r="E773" s="18" t="inlineStr">
+        <is>
+          <t>Cost analysys에서 Meter Category Licenses를 검색하여 확인합니다.</t>
+        </is>
+      </c>
       <c r="F773" s="18" t="n"/>
       <c r="G773" t="inlineStr">
         <is>
@@ -40878,7 +40894,7 @@
       <c r="K773" s="19" t="n"/>
       <c r="L773" s="19" t="inlineStr">
         <is>
-          <t>cb1f7d57-59ae-4568-aa38-d4985e2213db</t>
+          <t>59ae568b-a38d-4498-9e22-13dbd7bb012f</t>
         </is>
       </c>
       <c r="M773" s="20" t="n"/>
@@ -40900,12 +40916,12 @@
       </c>
       <c r="C774" s="18" t="inlineStr">
         <is>
-          <t>Azure SQL</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D774" s="18" t="inlineStr">
         <is>
-          <t>적용 가능한 경우 확인 및 정책/변경 https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations 시행</t>
+          <t xml:space="preserve"> 이미 라이선스가 있는 경우 AHUB에 넣을 수도 https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
         </is>
       </c>
       <c r="E774" s="18" t="n"/>
@@ -40925,7 +40941,7 @@
       <c r="K774" s="19" t="n"/>
       <c r="L774" s="19" t="inlineStr">
         <is>
-          <t>d7bb012f-7b95-4e06-b158-e2ea3992c2de</t>
+          <t>7b95e06e-158e-42ea-9992-c2de6e2065b3</t>
         </is>
       </c>
       <c r="M774" s="20" t="n"/>
@@ -40952,7 +40968,7 @@
       </c>
       <c r="D775" s="18" t="inlineStr">
         <is>
-          <t>VM + 라이선스 부분 할인(ahub + 3YRI)은 약 70% 할인입니다.</t>
+          <t>유연성 옵션을 사용하여 예약된 VM 제품군 통합(4-5개 이하의 제품군)</t>
         </is>
       </c>
       <c r="E775" s="18" t="n"/>
@@ -40968,11 +40984,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J775" s="13" t="n"/>
+      <c r="J775" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management</t>
+        </is>
+      </c>
       <c r="K775" s="19" t="n"/>
       <c r="L775" s="19" t="inlineStr">
         <is>
-          <t>6e2065b3-a76a-4f4a-991e-8839ada46667</t>
+          <t>75c1e945-b459-4837-bf7a-e7c6d3b475a5</t>
         </is>
       </c>
       <c r="M775" s="20" t="n"/>
@@ -40999,7 +41019,7 @@
       </c>
       <c r="D776" s="18" t="inlineStr">
         <is>
-          <t>플랫 사이징보다는 VMSS를 사용하여 수요에 맞추는 것이 좋습니다</t>
+          <t>Azure Reserved Instances 활용: 이 기능을 사용하면 1년 또는 3년 동안 VM을 예약할 수 있으므로 PAYG 가격에 비해 상당한 비용 절감 효과를 얻을 수 있습니다.</t>
         </is>
       </c>
       <c r="E776" s="18" t="n"/>
@@ -41019,7 +41039,7 @@
       <c r="K776" s="19" t="n"/>
       <c r="L776" s="19" t="inlineStr">
         <is>
-          <t>ccbd9792-a6bc-4ca2-a4fe-a1dbf3dd95d4</t>
+          <t>c7acbe49-bbe6-44dd-a9f2-e87778468d55</t>
         </is>
       </c>
       <c r="M776" s="20" t="n"/>
@@ -41041,12 +41061,12 @@
       </c>
       <c r="C777" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D777" s="18" t="inlineStr">
         <is>
-          <t>AKS 자동 크기 조정기를 사용하여 클러스터 사용량과 일치시킵니다(Pod 요구 사항이 스케일러와 일치하는지 확인).</t>
+          <t>더 큰 디스크만 예약할 수 있습니다 =&gt; 1TiB -</t>
         </is>
       </c>
       <c r="E777" s="18" t="n"/>
@@ -41066,7 +41086,7 @@
       <c r="K777" s="19" t="n"/>
       <c r="L777" s="19" t="inlineStr">
         <is>
-          <t>c1b1cd52-1e54-4a29-a9de-39ac0e7c28dc</t>
+          <t>a6bcca2b-4fea-41db-b3dd-95d48c7c891d</t>
         </is>
       </c>
       <c r="M777" s="20" t="n"/>
@@ -41088,12 +41108,12 @@
       </c>
       <c r="C778" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D778" s="18" t="inlineStr">
         <is>
-          <t>해당하는 경우 복구 지점을 자격 증명 모음 보관으로 이동(유효성 검사)Move recovery points to vault-archive where applicable (Validate)</t>
+          <t>적절한 크기 최적화 후</t>
         </is>
       </c>
       <c r="E778" s="18" t="n"/>
@@ -41109,15 +41129,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J778" s="31" t="inlineStr">
-        <is>
-          <t>https://azure.microsoft.com/pricing/reservations/</t>
-        </is>
-      </c>
+      <c r="J778" s="13" t="n"/>
       <c r="K778" s="19" t="n"/>
       <c r="L778" s="19" t="inlineStr">
         <is>
-          <t>44be3b1a-27f8-4b9e-a1be-1f38df03a822</t>
+          <t>cb1f7d57-59ae-4568-aa38-d4985e2213db</t>
         </is>
       </c>
       <c r="M778" s="20" t="n"/>
@@ -41139,12 +41155,12 @@
       </c>
       <c r="C779" s="18" t="inlineStr">
         <is>
-          <t>Databricks</t>
+          <t>Azure SQL</t>
         </is>
       </c>
       <c r="D779" s="18" t="inlineStr">
         <is>
-          <t>가능한 경우 대체와 함께 스폿 VM을 사용하는 것이 좋습니다. 클러스터의 자동 종료를 고려합니다.</t>
+          <t>적용 가능한 경우 확인 및 정책/변경 https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations 시행</t>
         </is>
       </c>
       <c r="E779" s="18" t="n"/>
@@ -41164,7 +41180,7 @@
       <c r="K779" s="19" t="n"/>
       <c r="L779" s="19" t="inlineStr">
         <is>
-          <t>cd463cbb-bc8a-4c29-aebc-91a43da1dae2</t>
+          <t>d7bb012f-7b95-4e06-b158-e2ea3992c2de</t>
         </is>
       </c>
       <c r="M779" s="20" t="n"/>
@@ -41186,12 +41202,12 @@
       </c>
       <c r="C780" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D780" s="18" t="inlineStr">
         <is>
-          <t>함수 - 연결 재사용</t>
+          <t>VM + 라이선스 부분 할인(ahub + 3YRI)은 약 70% 할인입니다.</t>
         </is>
       </c>
       <c r="E780" s="18" t="n"/>
@@ -41207,15 +41223,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J780" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/reservation-apis?toc=%2Fazure%2Fcost-management-billing%2Ftoc.json</t>
-        </is>
-      </c>
+      <c r="J780" s="13" t="n"/>
       <c r="K780" s="19" t="n"/>
       <c r="L780" s="19" t="inlineStr">
         <is>
-          <t>cc881470-607c-41cc-a0e6-14658dd458e9</t>
+          <t>6e2065b3-a76a-4f4a-991e-8839ada46667</t>
         </is>
       </c>
       <c r="M780" s="20" t="n"/>
@@ -41237,12 +41249,12 @@
       </c>
       <c r="C781" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D781" s="18" t="inlineStr">
         <is>
-          <t>함수 - 로컬에 데이터 캐시</t>
+          <t>플랫 사이징보다는 VMSS를 사용하여 수요에 맞추는 것이 좋습니다</t>
         </is>
       </c>
       <c r="E781" s="18" t="n"/>
@@ -41258,15 +41270,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J781" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
-        </is>
-      </c>
+      <c r="J781" s="13" t="n"/>
       <c r="K781" s="19" t="n"/>
       <c r="L781" s="19" t="inlineStr">
         <is>
-          <t>27139b82-1102-4dbd-9eaf-11e6f843e52f</t>
+          <t>ccbd9792-a6bc-4ca2-a4fe-a1dbf3dd95d4</t>
         </is>
       </c>
       <c r="M781" s="20" t="n"/>
@@ -41288,12 +41296,12 @@
       </c>
       <c r="C782" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D782" s="18" t="inlineStr">
         <is>
-          <t>기능 - 콜드 스타트 - '패키지에서 실행' 기능을 사용합니다. 이렇게 하면 코드가 단일 zip 파일로 다운로드됩니다. 예를 들어, 이것은 많은 노드 모듈이 있는 Javascript 함수를 크게 개선할 수 있습니다. 언어별 도구를 사용하여 패키지 크기를 줄입니다(예: 트리 쉐이킹 Javascript 애플리케이션).</t>
+          <t>AKS 자동 크기 조정기를 사용하여 클러스터 사용량과 일치시킵니다(Pod 요구 사항이 스케일러와 일치하는지 확인).</t>
         </is>
       </c>
       <c r="E782" s="18" t="n"/>
@@ -41309,15 +41317,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J782" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
-        </is>
-      </c>
+      <c r="J782" s="13" t="n"/>
       <c r="K782" s="19" t="n"/>
       <c r="L782" s="19" t="inlineStr">
         <is>
-          <t>4722d928-c1b1-4cd5-81e5-4a29b9de39ac</t>
+          <t>c1b1cd52-1e54-4a29-a9de-39ac0e7c28dc</t>
         </is>
       </c>
       <c r="M782" s="20" t="n"/>
@@ -41339,12 +41343,12 @@
       </c>
       <c r="C783" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Azure Backup</t>
         </is>
       </c>
       <c r="D783" s="18" t="inlineStr">
         <is>
-          <t>기능 - 기능을 따뜻하게 유지</t>
+          <t>해당하는 경우 복구 지점을 자격 증명 모음 보관으로 이동(유효성 검사)Move recovery points to vault-archive where applicable (Validate)</t>
         </is>
       </c>
       <c r="E783" s="18" t="n"/>
@@ -41362,13 +41366,13 @@
       </c>
       <c r="J783" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://azure.microsoft.com/pricing/reservations/</t>
         </is>
       </c>
       <c r="K783" s="19" t="n"/>
       <c r="L783" s="19" t="inlineStr">
         <is>
-          <t>0e7c28dc-9366-4572-82bf-f4564b0d934a</t>
+          <t>44be3b1a-27f8-4b9e-a1be-1f38df03a822</t>
         </is>
       </c>
       <c r="M783" s="20" t="n"/>
@@ -41390,12 +41394,12 @@
       </c>
       <c r="C784" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="D784" s="18" t="inlineStr">
         <is>
-          <t>다른 함수와 함께 자동 크기 조정을 사용하는 경우 모든 리소스에 대한 모든 자동 크기 조정을 구동하는 것이 있을 수 있으므로 별도의 소비 계획으로 이동하는 것이 좋습니다(CPU에 대한 더 높은 계획 고려).</t>
+          <t>가능한 경우 대체와 함께 스폿 VM을 사용하는 것이 좋습니다. 클러스터의 자동 종료를 고려합니다.</t>
         </is>
       </c>
       <c r="E784" s="18" t="n"/>
@@ -41415,7 +41419,7 @@
       <c r="K784" s="19" t="n"/>
       <c r="L784" s="19" t="inlineStr">
         <is>
-          <t>359c363e-7dd6-4162-9a36-4a907ebae38e</t>
+          <t>cd463cbb-bc8a-4c29-aebc-91a43da1dae2</t>
         </is>
       </c>
       <c r="M784" s="20" t="n"/>
@@ -41442,7 +41446,7 @@
       </c>
       <c r="D785" s="18" t="inlineStr">
         <is>
-          <t>지정된 계획의 함수 앱은 모두 함께 크기가 조정되므로 크기 조정과 관련된 모든 문제는 계획의 모든 앱에 영향을 줄 수 있습니다.</t>
+          <t>함수 - 연결 재사용</t>
         </is>
       </c>
       <c r="E785" s="18" t="n"/>
@@ -41458,11 +41462,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J785" s="13" t="n"/>
+      <c r="J785" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/reservation-apis?toc=%2Fazure%2Fcost-management-billing%2Ftoc.json</t>
+        </is>
+      </c>
       <c r="K785" s="19" t="n"/>
       <c r="L785" s="19" t="inlineStr">
         <is>
-          <t>ad53cc7d-e2e8-4aaa-a357-1549ab9153d8</t>
+          <t>cc881470-607c-41cc-a0e6-14658dd458e9</t>
         </is>
       </c>
       <c r="M785" s="20" t="n"/>
@@ -41489,7 +41497,7 @@
       </c>
       <c r="D786" s="18" t="inlineStr">
         <is>
-          <t>'대기 시간'에 대한 요금이 청구되나요? 이 질문은 일반적으로 비동기 작업을 수행하고 결과를 기다리는 C # 함수 (예 : await Task.Delay(1000) 또는 await client )의 컨텍스트에서 묻습니다. GetAsync('http://google.com')입니다. 대답은 '예'입니다 - GB 초 계산은 함수의 시작 및 종료 시간과 해당 기간 동안의 메모리 사용량을 기반으로 합니다. CPU 작업 측면에서 해당 시간 동안 실제로 발생하는 일은 계산에 포함되지 않습니다. 이 규칙의 한 가지 예외는 지속성 함수를 사용하는 경우입니다. 오케스트레이터 함수에서 대기하는 데 소요된 시간에 대해서는 요금이 청구되지 않습니다.가능한 경우 수요 형성 기술을 적용합니다(개발 환경?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
+          <t>함수 - 로컬에 데이터 캐시</t>
         </is>
       </c>
       <c r="E786" s="18" t="n"/>
@@ -41505,11 +41513,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J786" s="13" t="n"/>
+      <c r="J786" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="K786" s="19" t="n"/>
       <c r="L786" s="19" t="inlineStr">
         <is>
-          <t>9f89dc7b-44be-43b1-a27f-8b9e91be1f38</t>
+          <t>27139b82-1102-4dbd-9eaf-11e6f843e52f</t>
         </is>
       </c>
       <c r="M786" s="20" t="n"/>
@@ -41531,12 +41543,12 @@
       </c>
       <c r="C787" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D787" s="18" t="inlineStr">
         <is>
-          <t>Frontdoor - 기본 홈페이지 끄기앱의 애플리케이션 설정에서 AzureWebJobsDisableHomepage를 true로 설정합니다. 이렇게 하면 PoP에 204(콘텐츠 없음)가 반환되므로 헤더 데이터만 반환됩니다.</t>
+          <t>기능 - 콜드 스타트 - '패키지에서 실행' 기능을 사용합니다. 이렇게 하면 코드가 단일 zip 파일로 다운로드됩니다. 예를 들어, 이것은 많은 노드 모듈이 있는 Javascript 함수를 크게 개선할 수 있습니다. 언어별 도구를 사용하여 패키지 크기를 줄입니다(예: 트리 쉐이킹 Javascript 애플리케이션).</t>
         </is>
       </c>
       <c r="E787" s="18" t="n"/>
@@ -41552,11 +41564,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J787" s="13" t="n"/>
+      <c r="J787" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+        </is>
+      </c>
       <c r="K787" s="19" t="n"/>
       <c r="L787" s="19" t="inlineStr">
         <is>
-          <t>3da1dae2-cc88-4147-8607-c1cca0e61465</t>
+          <t>4722d928-c1b1-4cd5-81e5-4a29b9de39ac</t>
         </is>
       </c>
       <c r="M787" s="20" t="n"/>
@@ -41578,12 +41594,12 @@
       </c>
       <c r="C788" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D788" s="18" t="inlineStr">
         <is>
-          <t>Frontdoor 프론트도어 - 아무것도 반환하지 않는 무언가로 라우팅합니다. 함수, 함수 프록시를 설정하거나 WebApp에서 200(정상)을 반환하고 콘텐츠를 보내지 않거나 최소한으로 보내는 경로를 추가합니다. 이것의 장점은 호출될 때 로그아웃할 수 있다는 것입니다.</t>
+          <t>기능 - 기능을 따뜻하게 유지</t>
         </is>
       </c>
       <c r="E788" s="18" t="n"/>
@@ -41599,11 +41615,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J788" s="13" t="n"/>
+      <c r="J788" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K788" s="19" t="n"/>
       <c r="L788" s="19" t="inlineStr">
         <is>
-          <t>8dd458e9-2713-49b8-8110-2dbd6eaf11e6</t>
+          <t>0e7c28dc-9366-4572-82bf-f4564b0d934a</t>
         </is>
       </c>
       <c r="M788" s="20" t="n"/>
@@ -41625,12 +41645,12 @@
       </c>
       <c r="C789" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D789" s="18" t="inlineStr">
         <is>
-          <t>덜 사용되는 데이터에 대한 보관 계층 고려</t>
+          <t>다른 함수와 함께 자동 크기 조정을 사용하는 경우 모든 리소스에 대한 모든 자동 크기 조정을 구동하는 것이 있을 수 있으므로 별도의 소비 계획으로 이동하는 것이 좋습니다(CPU에 대한 더 높은 계획 고려).</t>
         </is>
       </c>
       <c r="E789" s="18" t="n"/>
@@ -41650,7 +41670,7 @@
       <c r="K789" s="19" t="n"/>
       <c r="L789" s="19" t="inlineStr">
         <is>
-          <t>7e31c67d-68cf-46a6-8a11-94956d697dc3</t>
+          <t>359c363e-7dd6-4162-9a36-4a907ebae38e</t>
         </is>
       </c>
       <c r="M789" s="20" t="n"/>
@@ -41672,12 +41692,12 @@
       </c>
       <c r="C790" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D790" s="18" t="inlineStr">
         <is>
-          <t>크기가 계층과 일치하지 않는 디스크 크기를 확인합니다(예: 513GiB 디스크는 P30(1TiB)를 지불하고 크기 조정을 고려합니다.</t>
+          <t>지정된 계획의 함수 앱은 모두 함께 크기가 조정되므로 크기 조정과 관련된 모든 문제는 계획의 모든 앱에 영향을 줄 수 있습니다.</t>
         </is>
       </c>
       <c r="E790" s="18" t="n"/>
@@ -41697,7 +41717,7 @@
       <c r="K790" s="19" t="n"/>
       <c r="L790" s="19" t="inlineStr">
         <is>
-          <t>a2ed27b2-d186-4f1a-8252-bddde68a487c</t>
+          <t>ad53cc7d-e2e8-4aaa-a357-1549ab9153d8</t>
         </is>
       </c>
       <c r="M790" s="20" t="n"/>
@@ -41719,12 +41739,12 @@
       </c>
       <c r="C791" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D791" s="18" t="inlineStr">
         <is>
-          <t>가능하면 프리미엄 또는 울트라 대신 표준 SSD를 사용하는 것이 좋습니다.</t>
+          <t>'대기 시간'에 대한 요금이 청구되나요? 이 질문은 일반적으로 비동기 작업을 수행하고 결과를 기다리는 C # 함수 (예 : await Task.Delay(1000) 또는 await client )의 컨텍스트에서 묻습니다. GetAsync('http://google.com')입니다. 대답은 '예'입니다 - GB 초 계산은 함수의 시작 및 종료 시간과 해당 기간 동안의 메모리 사용량을 기반으로 합니다. CPU 작업 측면에서 해당 시간 동안 실제로 발생하는 일은 계산에 포함되지 않습니다. 이 규칙의 한 가지 예외는 지속성 함수를 사용하는 경우입니다. 오케스트레이터 함수에서 대기하는 데 소요된 시간에 대해서는 요금이 청구되지 않습니다.가능한 경우 수요 형성 기술을 적용합니다(개발 환경?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
         </is>
       </c>
       <c r="E791" s="18" t="n"/>
@@ -41744,7 +41764,7 @@
       <c r="K791" s="19" t="n"/>
       <c r="L791" s="19" t="inlineStr">
         <is>
-          <t>dec4861b-c3bc-410a-b77e-26e4d5a3bec2</t>
+          <t>9f89dc7b-44be-43b1-a27f-8b9e91be1f38</t>
         </is>
       </c>
       <c r="M791" s="20" t="n"/>
@@ -41766,12 +41786,12 @@
       </c>
       <c r="C792" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D792" s="18" t="inlineStr">
         <is>
-          <t>스토리지 계정의 경우 선택한 계층이 트랜잭션 요금을 합산하지 않는지 확인합니다(다음 계층으로 이동하는 것이 더 저렴할 수 있음).</t>
+          <t>Frontdoor - 기본 홈페이지 끄기앱의 애플리케이션 설정에서 AzureWebJobsDisableHomepage를 true로 설정합니다. 이렇게 하면 PoP에 204(콘텐츠 없음)가 반환되므로 헤더 데이터만 반환됩니다.</t>
         </is>
       </c>
       <c r="E792" s="18" t="n"/>
@@ -41791,7 +41811,7 @@
       <c r="K792" s="19" t="n"/>
       <c r="L792" s="19" t="inlineStr">
         <is>
-          <t>c4e2436b-1336-4db5-9f17-960eee0bdf5c</t>
+          <t>3da1dae2-cc88-4147-8607-c1cca0e61465</t>
         </is>
       </c>
       <c r="M792" s="20" t="n"/>
@@ -41813,12 +41833,12 @@
       </c>
       <c r="C793" s="18" t="inlineStr">
         <is>
-          <t>Site Recovery</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D793" s="18" t="inlineStr">
         <is>
-          <t>ASR의 경우 RPO/RTO 및 복제 처리량이 허용하는 경우 표준 SSD 디스크를 사용하는 것이 좋습니다</t>
+          <t>Frontdoor 프론트도어 - 아무것도 반환하지 않는 무언가로 라우팅합니다. 함수, 함수 프록시를 설정하거나 WebApp에서 200(정상)을 반환하고 콘텐츠를 보내지 않거나 최소한으로 보내는 경로를 추가합니다. 이것의 장점은 호출될 때 로그아웃할 수 있다는 것입니다.</t>
         </is>
       </c>
       <c r="E793" s="18" t="n"/>
@@ -41838,7 +41858,7 @@
       <c r="K793" s="19" t="n"/>
       <c r="L793" s="19" t="inlineStr">
         <is>
-          <t>c2efc5d7-61d4-41d2-900b-b47a393a040f</t>
+          <t>8dd458e9-2713-49b8-8110-2dbd6eaf11e6</t>
         </is>
       </c>
       <c r="M793" s="20" t="n"/>
@@ -41865,7 +41885,7 @@
       </c>
       <c r="D794" s="18" t="inlineStr">
         <is>
-          <t>스토리지 계정: 핫 계층 및/또는 GRS 필요 확인</t>
+          <t>덜 사용되는 데이터에 대한 보관 계층 고려</t>
         </is>
       </c>
       <c r="E794" s="18" t="n"/>
@@ -41885,7 +41905,7 @@
       <c r="K794" s="19" t="n"/>
       <c r="L794" s="19" t="inlineStr">
         <is>
-          <t>d3294798-b118-48b2-a5a4-6ceb544451e1</t>
+          <t>7e31c67d-68cf-46a6-8a11-94956d697dc3</t>
         </is>
       </c>
       <c r="M794" s="20" t="n"/>
@@ -41912,7 +41932,7 @@
       </c>
       <c r="D795" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">디스크 - 모든 곳에서 프리미엄 SSD 디스크 사용의 유효성을 검사합니다. 예를 들어 비프로덕션은 표준 SSD 또는 주문형 프리미엄 SSD로 교환할 수 있습니다.  </t>
+          <t>크기가 계층과 일치하지 않는 디스크 크기를 확인합니다(예: 513GiB 디스크는 P30(1TiB)를 지불하고 크기 조정을 고려합니다.</t>
         </is>
       </c>
       <c r="E795" s="18" t="n"/>
@@ -41932,7 +41952,7 @@
       <c r="K795" s="19" t="n"/>
       <c r="L795" s="19" t="inlineStr">
         <is>
-          <t>92d34429-3c76-4286-97a5-51c5b04e4f18</t>
+          <t>a2ed27b2-d186-4f1a-8252-bddde68a487c</t>
         </is>
       </c>
       <c r="M795" s="20" t="n"/>
@@ -41954,12 +41974,12 @@
       </c>
       <c r="C796" s="18" t="inlineStr">
         <is>
-          <t>Synapse</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D796" s="18" t="inlineStr">
         <is>
-          <t>예산을 만들어 비용을 관리하고 이해 관계자에게 지출 이상 및 초과 지출 위험을 자동으로 알리는 경고를 만듭니다.</t>
+          <t>가능하면 프리미엄 또는 울트라 대신 표준 SSD를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E796" s="18" t="n"/>
@@ -41979,7 +41999,7 @@
       <c r="K796" s="19" t="n"/>
       <c r="L796" s="19" t="inlineStr">
         <is>
-          <t>54387e5c-ed12-46cd-832a-f5b2fc6998a5</t>
+          <t>dec4861b-c3bc-410a-b77e-26e4d5a3bec2</t>
         </is>
       </c>
       <c r="M796" s="20" t="n"/>
@@ -42001,12 +42021,12 @@
       </c>
       <c r="C797" s="18" t="inlineStr">
         <is>
-          <t>Synapse</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D797" s="18" t="inlineStr">
         <is>
-          <t>추가 데이터 분석을 위해 비용 데이터를 스토리지 계정으로 내보냅니다.</t>
+          <t>스토리지 계정의 경우 선택한 계층이 트랜잭션 요금을 합산하지 않는지 확인합니다(다음 계층으로 이동하는 것이 더 저렴할 수 있음).</t>
         </is>
       </c>
       <c r="E797" s="18" t="n"/>
@@ -42026,7 +42046,7 @@
       <c r="K797" s="19" t="n"/>
       <c r="L797" s="19" t="inlineStr">
         <is>
-          <t>35e33789-7e31-4c67-b68c-f6a62a119495</t>
+          <t>c4e2436b-1336-4db5-9f17-960eee0bdf5c</t>
         </is>
       </c>
       <c r="M797" s="20" t="n"/>
@@ -42048,12 +42068,12 @@
       </c>
       <c r="C798" s="18" t="inlineStr">
         <is>
-          <t>Synapse</t>
+          <t>Site Recovery</t>
         </is>
       </c>
       <c r="D798" s="18" t="inlineStr">
         <is>
-          <t>리소스를 사용하지 않을 때 일시 중지하여 전용 SQL 풀에 대한 비용을 제어합니다.</t>
+          <t>ASR의 경우 RPO/RTO 및 복제 처리량이 허용하는 경우 표준 SSD 디스크를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="E798" s="18" t="n"/>
@@ -42073,7 +42093,7 @@
       <c r="K798" s="19" t="n"/>
       <c r="L798" s="19" t="inlineStr">
         <is>
-          <t>6d697dc3-a2ed-427b-8d18-6f1a1252bddd</t>
+          <t>c2efc5d7-61d4-41d2-900b-b47a393a040f</t>
         </is>
       </c>
       <c r="M798" s="20" t="n"/>
@@ -42095,12 +42115,12 @@
       </c>
       <c r="C799" s="18" t="inlineStr">
         <is>
-          <t>Synapse</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D799" s="18" t="inlineStr">
         <is>
-          <t>서버리스 Apache Spark 자동 일시 중지 기능을 활성화하고 그에 따라 제한 시간 값을 설정합니다.</t>
+          <t>스토리지 계정: 핫 계층 및/또는 GRS 필요 확인</t>
         </is>
       </c>
       <c r="E799" s="18" t="n"/>
@@ -42120,7 +42140,7 @@
       <c r="K799" s="19" t="n"/>
       <c r="L799" s="19" t="inlineStr">
         <is>
-          <t>e68a487c-dec4-4861-ac3b-c10ae77e26e4</t>
+          <t>d3294798-b118-48b2-a5a4-6ceb544451e1</t>
         </is>
       </c>
       <c r="M799" s="20" t="n"/>
@@ -42142,12 +42162,12 @@
       </c>
       <c r="C800" s="18" t="inlineStr">
         <is>
-          <t>Synapse</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D800" s="18" t="inlineStr">
         <is>
-          <t>다양한 크기의 Apache Spark 풀 정의를 여러 개 만듭니다.</t>
+          <t xml:space="preserve">디스크 - 모든 곳에서 프리미엄 SSD 디스크 사용의 유효성을 검사합니다. 예를 들어 비프로덕션은 표준 SSD 또는 주문형 프리미엄 SSD로 교환할 수 있습니다.  </t>
         </is>
       </c>
       <c r="E800" s="18" t="n"/>
@@ -42167,7 +42187,7 @@
       <c r="K800" s="19" t="n"/>
       <c r="L800" s="19" t="inlineStr">
         <is>
-          <t>d5a3bec2-c4e2-4436-a133-6db55f17960e</t>
+          <t>92d34429-3c76-4286-97a5-51c5b04e4f18</t>
         </is>
       </c>
       <c r="M800" s="20" t="n"/>
@@ -42194,7 +42214,7 @@
       </c>
       <c r="D801" s="18" t="inlineStr">
         <is>
-          <t>사전 구매 플랜으로 1년 동안 Azure Synapse SCU(커밋 단위)를 구매하여 Azure Synapse Analytics 비용을 절감하세요.</t>
+          <t>예산을 만들어 비용을 관리하고 이해 관계자에게 지출 이상 및 초과 지출 위험을 자동으로 알리는 경고를 만듭니다.</t>
         </is>
       </c>
       <c r="E801" s="18" t="n"/>
@@ -42210,15 +42230,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J801" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+      <c r="J801" s="13" t="n"/>
       <c r="K801" s="19" t="n"/>
       <c r="L801" s="19" t="inlineStr">
         <is>
-          <t>ee0bdf5c-c2ef-4c5d-961d-41d2500bb47a</t>
+          <t>54387e5c-ed12-46cd-832a-f5b2fc6998a5</t>
         </is>
       </c>
       <c r="M801" s="20" t="n"/>
@@ -42240,12 +42256,12 @@
       </c>
       <c r="C802" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Synapse</t>
         </is>
       </c>
       <c r="D802" s="18" t="inlineStr">
         <is>
-          <t>인터럽트 가능한 작업에 스폿 VM 사용: 할인된 가격으로 입찰 및 구매할 수 있는 VM으로, 중요하지 않은 워크로드에 비용 효율적인 솔루션을 제공합니다.</t>
+          <t>추가 데이터 분석을 위해 비용 데이터를 스토리지 계정으로 내보냅니다.</t>
         </is>
       </c>
       <c r="E802" s="18" t="n"/>
@@ -42261,15 +42277,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J802" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+      <c r="J802" s="13" t="n"/>
       <c r="K802" s="19" t="n"/>
       <c r="L802" s="19" t="inlineStr">
         <is>
-          <t>393a040f-d329-4479-ab11-88b2c5a46ceb</t>
+          <t>35e33789-7e31-4c67-b68c-f6a62a119495</t>
         </is>
       </c>
       <c r="M802" s="20" t="n"/>
@@ -42291,12 +42303,12 @@
       </c>
       <c r="C803" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Synapse</t>
         </is>
       </c>
       <c r="D803" s="18" t="inlineStr">
         <is>
-          <t>모든 VM의 적절한 크기 조정</t>
+          <t>리소스를 사용하지 않을 때 일시 중지하여 전용 SQL 풀에 대한 비용을 제어합니다.</t>
         </is>
       </c>
       <c r="E803" s="18" t="n"/>
@@ -42316,7 +42328,7 @@
       <c r="K803" s="19" t="n"/>
       <c r="L803" s="19" t="inlineStr">
         <is>
-          <t>544451e1-92d3-4442-a3c7-628637a551c5</t>
+          <t>6d697dc3-a2ed-427b-8d18-6f1a1252bddd</t>
         </is>
       </c>
       <c r="M803" s="20" t="n"/>
@@ -42338,12 +42350,12 @@
       </c>
       <c r="C804" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Synapse</t>
         </is>
       </c>
       <c r="D804" s="18" t="inlineStr">
         <is>
-          <t>VM 크기를 정규화된 최신 크기로 바꾸기</t>
+          <t>서버리스 Apache Spark 자동 일시 중지 기능을 활성화하고 그에 따라 제한 시간 값을 설정합니다.</t>
         </is>
       </c>
       <c r="E804" s="18" t="n"/>
@@ -42359,15 +42371,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J804" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+      <c r="J804" s="13" t="n"/>
       <c r="K804" s="19" t="n"/>
       <c r="L804" s="19" t="inlineStr">
         <is>
-          <t>b04e4f18-5438-47e5-aed1-26cd032af5b2</t>
+          <t>e68a487c-dec4-4861-ac3b-c10ae77e26e4</t>
         </is>
       </c>
       <c r="M804" s="20" t="n"/>
@@ -42389,12 +42397,12 @@
       </c>
       <c r="C805" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Synapse</t>
         </is>
       </c>
       <c r="D805" s="18" t="inlineStr">
         <is>
-          <t>적절한 크기 조정 VM - 사용량을 5% 미만으로 모니터링하는 것으로 시작한 다음 최대 40%까지 작업</t>
+          <t>다양한 크기의 Apache Spark 풀 정의를 여러 개 만듭니다.</t>
         </is>
       </c>
       <c r="E805" s="18" t="n"/>
@@ -42410,15 +42418,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J805" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+      <c r="J805" s="13" t="n"/>
       <c r="K805" s="19" t="n"/>
       <c r="L805" s="19" t="inlineStr">
         <is>
-          <t>fc6998a5-35e3-4378-a7e3-1c67d68cf6a6</t>
+          <t>d5a3bec2-c4e2-4436-a133-6db55f17960e</t>
         </is>
       </c>
       <c r="M805" s="20" t="n"/>
@@ -42440,12 +42444,12 @@
       </c>
       <c r="C806" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Synapse</t>
         </is>
       </c>
       <c r="D806" s="18" t="inlineStr">
         <is>
-          <t>애플리케이션을 컨테이너화하면 VM 밀도를 개선하고 확장 비용을 절감할 수 있습니다</t>
+          <t>사전 구매 플랜으로 1년 동안 Azure Synapse SCU(커밋 단위)를 구매하여 Azure Synapse Analytics 비용을 절감하세요.</t>
         </is>
       </c>
       <c r="E806" s="18" t="n"/>
@@ -42463,13 +42467,13 @@
       </c>
       <c r="J806" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="K806" s="19" t="n"/>
       <c r="L806" s="19" t="inlineStr">
         <is>
-          <t>2a119495-6d69-47dc-9a2e-d27b2d186f1a</t>
+          <t>ee0bdf5c-c2ef-4c5d-961d-41d2500bb47a</t>
         </is>
       </c>
       <c r="M806" s="20" t="n"/>
@@ -42479,17 +42483,50 @@
       <c r="Q806" s="20" t="n"/>
     </row>
     <row r="807">
-      <c r="A807" s="18" t="n"/>
-      <c r="B807" s="18" t="n"/>
-      <c r="C807" s="18" t="n"/>
-      <c r="D807" s="18" t="n"/>
+      <c r="A807" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B807" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C807" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D807" s="18" t="inlineStr">
+        <is>
+          <t>인터럽트 가능한 작업에 스폿 VM 사용: 할인된 가격으로 입찰 및 구매할 수 있는 VM으로, 중요하지 않은 워크로드에 비용 효율적인 솔루션을 제공합니다.</t>
+        </is>
+      </c>
       <c r="E807" s="18" t="n"/>
       <c r="F807" s="18" t="n"/>
+      <c r="G807" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H807" s="18" t="n"/>
-      <c r="I807" s="13" t="n"/>
-      <c r="J807" s="13" t="n"/>
+      <c r="I807" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J807" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="K807" s="19" t="n"/>
-      <c r="L807" s="19" t="n"/>
+      <c r="L807" s="19" t="inlineStr">
+        <is>
+          <t>393a040f-d329-4479-ab11-88b2c5a46ceb</t>
+        </is>
+      </c>
       <c r="M807" s="20" t="n"/>
       <c r="N807" s="20" t="n"/>
       <c r="O807" s="20" t="n"/>
@@ -42497,17 +42534,46 @@
       <c r="Q807" s="20" t="n"/>
     </row>
     <row r="808">
-      <c r="A808" s="18" t="n"/>
-      <c r="B808" s="18" t="n"/>
-      <c r="C808" s="18" t="n"/>
-      <c r="D808" s="18" t="n"/>
+      <c r="A808" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B808" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C808" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D808" s="18" t="inlineStr">
+        <is>
+          <t>모든 VM의 적절한 크기 조정</t>
+        </is>
+      </c>
       <c r="E808" s="18" t="n"/>
       <c r="F808" s="18" t="n"/>
+      <c r="G808" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H808" s="18" t="n"/>
-      <c r="I808" s="13" t="n"/>
+      <c r="I808" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J808" s="13" t="n"/>
       <c r="K808" s="19" t="n"/>
-      <c r="L808" s="19" t="n"/>
+      <c r="L808" s="19" t="inlineStr">
+        <is>
+          <t>544451e1-92d3-4442-a3c7-628637a551c5</t>
+        </is>
+      </c>
       <c r="M808" s="20" t="n"/>
       <c r="N808" s="20" t="n"/>
       <c r="O808" s="20" t="n"/>
@@ -42515,17 +42581,50 @@
       <c r="Q808" s="20" t="n"/>
     </row>
     <row r="809">
-      <c r="A809" s="18" t="n"/>
-      <c r="B809" s="18" t="n"/>
-      <c r="C809" s="18" t="n"/>
-      <c r="D809" s="18" t="n"/>
+      <c r="A809" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B809" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C809" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D809" s="18" t="inlineStr">
+        <is>
+          <t>VM 크기를 정규화된 최신 크기로 바꾸기</t>
+        </is>
+      </c>
       <c r="E809" s="18" t="n"/>
       <c r="F809" s="18" t="n"/>
+      <c r="G809" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H809" s="18" t="n"/>
-      <c r="I809" s="13" t="n"/>
-      <c r="J809" s="13" t="n"/>
+      <c r="I809" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J809" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="K809" s="19" t="n"/>
-      <c r="L809" s="19" t="n"/>
+      <c r="L809" s="19" t="inlineStr">
+        <is>
+          <t>b04e4f18-5438-47e5-aed1-26cd032af5b2</t>
+        </is>
+      </c>
       <c r="M809" s="20" t="n"/>
       <c r="N809" s="20" t="n"/>
       <c r="O809" s="20" t="n"/>
@@ -42533,17 +42632,50 @@
       <c r="Q809" s="20" t="n"/>
     </row>
     <row r="810">
-      <c r="A810" s="18" t="n"/>
-      <c r="B810" s="18" t="n"/>
-      <c r="C810" s="18" t="n"/>
-      <c r="D810" s="18" t="n"/>
+      <c r="A810" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B810" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C810" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D810" s="18" t="inlineStr">
+        <is>
+          <t>적절한 크기 조정 VM - 사용량을 5% 미만으로 모니터링하는 것으로 시작한 다음 최대 40%까지 작업</t>
+        </is>
+      </c>
       <c r="E810" s="18" t="n"/>
       <c r="F810" s="18" t="n"/>
+      <c r="G810" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H810" s="18" t="n"/>
-      <c r="I810" s="13" t="n"/>
-      <c r="J810" s="13" t="n"/>
+      <c r="I810" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J810" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="K810" s="19" t="n"/>
-      <c r="L810" s="19" t="n"/>
+      <c r="L810" s="19" t="inlineStr">
+        <is>
+          <t>fc6998a5-35e3-4378-a7e3-1c67d68cf6a6</t>
+        </is>
+      </c>
       <c r="M810" s="20" t="n"/>
       <c r="N810" s="20" t="n"/>
       <c r="O810" s="20" t="n"/>
@@ -42551,17 +42683,50 @@
       <c r="Q810" s="20" t="n"/>
     </row>
     <row r="811">
-      <c r="A811" s="18" t="n"/>
-      <c r="B811" s="18" t="n"/>
-      <c r="C811" s="18" t="n"/>
-      <c r="D811" s="18" t="n"/>
+      <c r="A811" s="18" t="inlineStr">
+        <is>
+          <t>Cost Optimization Checklist</t>
+        </is>
+      </c>
+      <c r="B811" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C811" s="18" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="D811" s="18" t="inlineStr">
+        <is>
+          <t>애플리케이션을 컨테이너화하면 VM 밀도를 개선하고 확장 비용을 절감할 수 있습니다</t>
+        </is>
+      </c>
       <c r="E811" s="18" t="n"/>
       <c r="F811" s="18" t="n"/>
+      <c r="G811" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H811" s="18" t="n"/>
-      <c r="I811" s="13" t="n"/>
-      <c r="J811" s="13" t="n"/>
+      <c r="I811" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J811" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K811" s="19" t="n"/>
-      <c r="L811" s="19" t="n"/>
+      <c r="L811" s="19" t="inlineStr">
+        <is>
+          <t>2a119495-6d69-47dc-9a2e-d27b2d186f1a</t>
+        </is>
+      </c>
       <c r="M811" s="20" t="n"/>
       <c r="N811" s="20" t="n"/>
       <c r="O811" s="20" t="n"/>
@@ -49805,7 +49970,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G807" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G812" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -50505,6 +50670,11 @@
     <hyperlink ref="I804" r:id="rId693"/>
     <hyperlink ref="I805" r:id="rId694"/>
     <hyperlink ref="I806" r:id="rId695"/>
+    <hyperlink ref="I807" r:id="rId696"/>
+    <hyperlink ref="I808" r:id="rId697"/>
+    <hyperlink ref="I809" r:id="rId698"/>
+    <hyperlink ref="I810" r:id="rId699"/>
+    <hyperlink ref="I811" r:id="rId700"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -5654,7 +5654,7 @@
       </c>
       <c r="B95" s="18" t="inlineStr">
         <is>
-          <t>모니터</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C95" s="18" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="B96" s="18" t="inlineStr">
         <is>
-          <t>모니터</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C96" s="18" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D12" s="18" t="inlineStr">
         <is>
-          <t>테넌트 전체 계정 잠금을 방지하기 위해 긴급 액세스 또는 비상 계정을 구현합니다</t>
+          <t>클라우드 운영 모델에 맞는 RBAC 모델을 적용합니다. 관리 그룹 및 구독에서 범위 지정 및 할당Scope and Assign across Management Groups and Subscriptions.</t>
         </is>
       </c>
       <c r="E12" s="18" t="n"/>
@@ -1169,13 +1169,13 @@
       </c>
       <c r="J12" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="K12" s="19" t="n"/>
       <c r="L12" s="19" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M12" s="20" t="n"/>
@@ -1202,13 +1202,13 @@
       </c>
       <c r="D13" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 로그를 플랫폼 중앙 Azure Monitor와 통합합니다. Azure Monitor를 사용하면 Azure의 로그 및 모니터링 데이터에 대한 단일 정보 원본을 사용할 수 있으므로 조직에 로그 수집 및 보존에 대한 요구 사항을 충족할 수 있는 클라우드 네이티브 옵션을 제공합니다.</t>
+          <t>모든 계정 유형에 대해 인증 유형 회사 또는 학교 계정만 사용합니다. Microsoft 계정 사용 금지</t>
         </is>
       </c>
       <c r="E13" s="18" t="n"/>
       <c r="F13" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1222,11 +1222,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J13" s="13" t="n"/>
+      <c r="J13" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+        </is>
+      </c>
       <c r="K13" s="19" t="n"/>
       <c r="L13" s="19" t="inlineStr">
         <is>
-          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M13" s="20" t="n"/>
@@ -1253,13 +1257,13 @@
       </c>
       <c r="D14" s="18" t="inlineStr">
         <is>
-          <t>클라우드 운영 모델에 맞는 RBAC 모델을 적용합니다. 관리 그룹 및 구독에서 범위 지정 및 할당Scope and Assign across Management Groups and Subscriptions.</t>
+          <t>그룹만 사용하여 권한을 할당합니다. 그룹 관리 시스템이 이미 있는 경우 Entra ID 전용 그룹에 온-프레미스 그룹을 추가합니다.</t>
         </is>
       </c>
       <c r="E14" s="18" t="n"/>
       <c r="F14" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1275,13 +1279,13 @@
       </c>
       <c r="J14" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="K14" s="19" t="n"/>
       <c r="L14" s="19" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M14" s="20" t="n"/>
@@ -1473,13 +1477,13 @@
       </c>
       <c r="D18" s="18" t="inlineStr">
         <is>
-          <t>모든 계정 유형에 대해 인증 유형 회사 또는 학교 계정만 사용합니다. Microsoft 계정 사용 금지</t>
+          <t>Active Directory 도메인 서비스에서 Entra 도메인 서비스로 전환하려는 경우 모든 워크로드의 호환성을 평가합니다</t>
         </is>
       </c>
       <c r="E18" s="18" t="n"/>
       <c r="F18" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1495,13 +1499,13 @@
       </c>
       <c r="J18" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="K18" s="19" t="n"/>
       <c r="L18" s="19" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M18" s="20" t="n"/>
@@ -1528,7 +1532,7 @@
       </c>
       <c r="D19" s="18" t="inlineStr">
         <is>
-          <t>그룹만 사용하여 권한을 할당합니다. 그룹 관리 시스템이 이미 있는 경우 Entra ID 전용 그룹에 온-프레미스 그룹을 추가합니다.</t>
+          <t>Microsoft Entra ID 로그를 플랫폼 중앙 Azure Monitor와 통합합니다. Azure Monitor를 사용하면 Azure의 로그 및 모니터링 데이터에 대한 단일 정보 원본을 사용할 수 있으므로 조직에 로그 수집 및 보존에 대한 요구 사항을 충족할 수 있는 클라우드 네이티브 옵션을 제공합니다.</t>
         </is>
       </c>
       <c r="E19" s="18" t="n"/>
@@ -1548,15 +1552,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J19" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
+      <c r="J19" s="13" t="n"/>
       <c r="K19" s="19" t="n"/>
       <c r="L19" s="19" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
         </is>
       </c>
       <c r="M19" s="20" t="n"/>
@@ -1583,13 +1583,13 @@
       </c>
       <c r="D20" s="18" t="inlineStr">
         <is>
-          <t>Active Directory 도메인 서비스에서 Entra 도메인 서비스로 전환하려는 경우 모든 워크로드의 호환성을 평가합니다</t>
+          <t>테넌트 전체 계정 잠금을 방지하기 위해 긴급 액세스 또는 비상 계정을 구현합니다</t>
         </is>
       </c>
       <c r="E20" s="18" t="n"/>
       <c r="F20" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1605,13 +1605,13 @@
       </c>
       <c r="J20" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="K20" s="19" t="n"/>
       <c r="L20" s="19" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M20" s="20" t="n"/>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="D21" s="18" t="inlineStr">
         <is>
-          <t>필요한 경우 Microsoft Entra ID 애플리케이션 프록시를 사용하여 원격 사용자에게 내부 애플리케이션(클라우드 또는 온-프레미스에서 호스트됨)에 대한 안전하고 인증된 액세스를 제공합니다.</t>
+          <t>Microsoft Entra ID 역할 할당에 온-프레미스 동기화된 계정을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="E21" s="18" t="n"/>
@@ -1660,13 +1660,13 @@
       </c>
       <c r="J21" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="K21" s="19" t="n"/>
       <c r="L21" s="19" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M21" s="20" t="n"/>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="D22" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 역할 할당에 온-프레미스 동기화된 계정을 사용하지 마세요.</t>
+          <t>필요한 경우 Microsoft Entra ID 애플리케이션 프록시를 사용하여 원격 사용자에게 내부 애플리케이션(클라우드 또는 온-프레미스에서 호스트됨)에 대한 안전하고 인증된 액세스를 제공합니다.</t>
         </is>
       </c>
       <c r="E22" s="18" t="n"/>
@@ -1715,13 +1715,13 @@
       </c>
       <c r="J22" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="K22" s="19" t="n"/>
       <c r="L22" s="19" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M22" s="20" t="n"/>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="D23" s="18" t="inlineStr">
         <is>
-          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
+          <t>최대한의 유연성이 필요한 네트워크 시나리오를 위해 기존의 허브 앤 스포크(hub-and-spoke) 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 활용합니다.</t>
         </is>
       </c>
       <c r="E23" s="18" t="n"/>
@@ -1770,13 +1770,13 @@
       </c>
       <c r="J23" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K23" s="19" t="n"/>
       <c r="L23" s="19" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M23" s="20" t="n"/>
@@ -1793,23 +1793,23 @@
       </c>
       <c r="B24" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C24" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D24" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 흐름에서 이 암호화를 보여 줍니다.</t>
+          <t>ExpressRoute 게이트웨이, VPN 게이트웨이 및 Azure Firewall 또는 중앙 허브 가상 네트워크의 파트너 NVA를 포함한 공유 네트워킹 서비스를 확인합니다. 필요한 경우 DNS 서버도 배포합니다.</t>
         </is>
       </c>
       <c r="E24" s="18" t="n"/>
       <c r="F24" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1827,7 +1827,7 @@
       <c r="K24" s="19" t="n"/>
       <c r="L24" s="19" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M24" s="20" t="n"/>
@@ -1849,18 +1849,18 @@
       </c>
       <c r="C25" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D25" s="18" t="inlineStr">
         <is>
-          <t>MACsec을 사용할 수 없는 시나리오(예: ExpressRoute Direct를 사용하지 않는 경우)의 경우 VPN Gateway를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다.</t>
+          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
         </is>
       </c>
       <c r="E25" s="18" t="n"/>
       <c r="F25" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1876,13 +1876,13 @@
       </c>
       <c r="J25" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K25" s="19" t="n"/>
       <c r="L25" s="19" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M25" s="20" t="n"/>
@@ -1899,17 +1899,17 @@
       </c>
       <c r="B26" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C26" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>NVA</t>
         </is>
       </c>
       <c r="D26" s="18" t="inlineStr">
         <is>
-          <t>최대한의 유연성이 필요한 네트워크 시나리오를 위해 기존의 허브 앤 스포크(hub-and-spoke) 네트워크 토폴로지를 기반으로 하는 네트워크 설계를 활용합니다.</t>
+          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따릅니다</t>
         </is>
       </c>
       <c r="E26" s="18" t="n"/>
@@ -1929,15 +1929,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J26" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J26" s="13" t="n"/>
       <c r="K26" s="19" t="n"/>
       <c r="L26" s="19" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M26" s="20" t="n"/>
@@ -1954,23 +1950,23 @@
       </c>
       <c r="B27" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C27" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D27" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute 게이트웨이, VPN 게이트웨이 및 Azure Firewall 또는 중앙 허브 가상 네트워크의 파트너 NVA를 포함한 공유 네트워킹 서비스를 확인합니다. 필요한 경우 DNS 서버도 배포합니다.</t>
+          <t>허브 및 스포크 시나리오에서 ExpressRoute와 VPN 게이트웨이 간의 전송이 필요한 경우 Azure Route Server를 사용합니다.</t>
         </is>
       </c>
       <c r="E27" s="18" t="n"/>
       <c r="F27" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1988,7 +1984,7 @@
       <c r="K27" s="19" t="n"/>
       <c r="L27" s="19" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M27" s="20" t="n"/>
@@ -2005,23 +2001,23 @@
       </c>
       <c r="B28" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C28" s="18" t="inlineStr">
         <is>
-          <t>NVA</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="D28" s="18" t="inlineStr">
         <is>
-          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따릅니다</t>
+          <t>Route Server를 사용하는 경우 Route Server 서브넷에 /27 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="E28" s="18" t="n"/>
       <c r="F28" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2036,10 +2032,14 @@
         </is>
       </c>
       <c r="J28" s="13" t="n"/>
-      <c r="K28" s="19" t="n"/>
+      <c r="K28" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L28" s="19" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M28" s="20" t="n"/>
@@ -2056,23 +2056,23 @@
       </c>
       <c r="B29" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C29" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D29" s="18" t="inlineStr">
         <is>
-          <t>허브 및 스포크 시나리오에서 ExpressRoute와 VPN 게이트웨이 간의 전송이 필요한 경우 Azure Route Server를 사용합니다.</t>
+          <t>Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간에 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다.</t>
         </is>
       </c>
       <c r="E29" s="18" t="n"/>
       <c r="F29" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2086,11 +2086,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J29" s="13" t="n"/>
+      <c r="J29" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K29" s="19" t="n"/>
       <c r="L29" s="19" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M29" s="20" t="n"/>
@@ -2107,23 +2111,23 @@
       </c>
       <c r="B30" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C30" s="18" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D30" s="18" t="inlineStr">
         <is>
-          <t>Route Server를 사용하는 경우 Route Server 서브넷에 /27 접두사를 사용합니다.</t>
+          <t>네트워크용 Azure Monitor를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
         </is>
       </c>
       <c r="E30" s="18" t="n"/>
       <c r="F30" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2137,15 +2141,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J30" s="13" t="n"/>
-      <c r="K30" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J30" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
+      <c r="K30" s="19" t="n"/>
       <c r="L30" s="19" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M30" s="20" t="n"/>
@@ -2162,7 +2166,7 @@
       </c>
       <c r="B31" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C31" s="18" t="inlineStr">
@@ -2172,7 +2176,7 @@
       </c>
       <c r="D31" s="18" t="inlineStr">
         <is>
-          <t>Azure 지역에 걸쳐 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간에 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다.</t>
+          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 ExpressRoute를 통해 보급할 수 있는 최대 접두사 수(1000)인 VNet 피어링 제한(500)을 고려합니다</t>
         </is>
       </c>
       <c r="E31" s="18" t="n"/>
@@ -2192,15 +2196,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J31" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
-      <c r="K31" s="19" t="n"/>
+      <c r="J31" s="13" t="n"/>
+      <c r="K31" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L31" s="19" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M31" s="20" t="n"/>
@@ -2217,7 +2221,7 @@
       </c>
       <c r="B32" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C32" s="18" t="inlineStr">
@@ -2227,7 +2231,7 @@
       </c>
       <c r="D32" s="18" t="inlineStr">
         <is>
-          <t>네트워크용 Azure Monitor를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
+          <t>경로 테이블당 경로 제한(400)을 고려합니다.</t>
         </is>
       </c>
       <c r="E32" s="18" t="n"/>
@@ -2247,15 +2251,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J32" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
-      <c r="K32" s="19" t="n"/>
+      <c r="J32" s="13" t="n"/>
+      <c r="K32" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L32" s="19" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M32" s="20" t="n"/>
@@ -2282,13 +2286,13 @@
       </c>
       <c r="D33" s="18" t="inlineStr">
         <is>
-          <t>스포크 가상 네트워크를 중앙 허브 가상 네트워크에 연결할 때 ExpressRoute를 통해 보급할 수 있는 최대 접두사 수(1000)인 VNet 피어링 제한(500)을 고려합니다</t>
+          <t>VNet 피어링을 구성할 때 '원격 가상 네트워크에 대한 트래픽 허용' 설정을 사용합니다</t>
         </is>
       </c>
       <c r="E33" s="18" t="n"/>
       <c r="F33" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2305,12 +2309,12 @@
       <c r="J33" s="13" t="n"/>
       <c r="K33" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
         </is>
       </c>
       <c r="L33" s="19" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M33" s="20" t="n"/>
@@ -2327,17 +2331,17 @@
       </c>
       <c r="B34" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C34" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D34" s="18" t="inlineStr">
         <is>
-          <t>경로 테이블당 경로 제한(400)을 고려합니다.</t>
+          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 흐름에서 이 암호화를 보여 줍니다.</t>
         </is>
       </c>
       <c r="E34" s="18" t="n"/>
@@ -2358,14 +2362,10 @@
         </is>
       </c>
       <c r="J34" s="13" t="n"/>
-      <c r="K34" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K34" s="19" t="n"/>
       <c r="L34" s="19" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M34" s="20" t="n"/>
@@ -2382,23 +2382,23 @@
       </c>
       <c r="B35" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C35" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D35" s="18" t="inlineStr">
         <is>
-          <t>VNet 피어링을 구성할 때 '원격 가상 네트워크에 대한 트래픽 허용' 설정을 사용합니다</t>
+          <t>MACsec을 사용할 수 없는 시나리오(예: ExpressRoute Direct를 사용하지 않는 경우)의 경우 VPN Gateway를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다.</t>
         </is>
       </c>
       <c r="E35" s="18" t="n"/>
       <c r="F35" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2412,15 +2412,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
-        </is>
-      </c>
+      <c r="J35" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
+      <c r="K35" s="19" t="n"/>
       <c r="L35" s="19" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M35" s="20" t="n"/>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B36" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C36" s="18" t="inlineStr">
@@ -2447,13 +2447,13 @@
       </c>
       <c r="D36" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute를 Azure에 대한 기본 연결로 사용할 수 있는지 조사했는지 확인합니다.</t>
+          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="E36" s="18" t="n"/>
       <c r="F36" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2469,13 +2469,13 @@
       </c>
       <c r="J36" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K36" s="19" t="n"/>
       <c r="L36" s="19" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M36" s="20" t="n"/>
@@ -2492,27 +2492,23 @@
       </c>
       <c r="B37" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C37" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D37" s="18" t="inlineStr">
         <is>
-          <t>여러 ExpressRoute 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로를 선호하는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
-        </is>
-      </c>
-      <c r="E37" s="18" t="inlineStr">
-        <is>
-          <t>AS-path 접두사 및 연결 가중치를 사용하여 Azure에서 온-프레미스로의 트래픽에 영향을 주고, 자체 라우터의 전체 BGP 특성 범위를 사용하여 온-프레미스에서 Azure로의 트래픽에 영향을 줄 수 있습니다.</t>
-        </is>
-      </c>
+          <t>개인 인터넷에 대한 주소 할당 범위의 IP 주소를 사용합니다(RFC 1918).</t>
+        </is>
+      </c>
+      <c r="E37" s="18" t="n"/>
       <c r="F37" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2528,13 +2524,17 @@
       </c>
       <c r="J37" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K37" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K37" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
+        </is>
+      </c>
       <c r="L37" s="19" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M37" s="20" t="n"/>
@@ -2556,18 +2556,18 @@
       </c>
       <c r="C38" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D38" s="18" t="inlineStr">
         <is>
-          <t>대역폭 및 성능 요구 사항에 따라 ExpressRoute/VPN 게이트웨이에 적합한 SKU를 사용하고 있는지 확인합니다.</t>
+          <t>IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요.</t>
         </is>
       </c>
       <c r="E38" s="18" t="n"/>
       <c r="F38" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2583,17 +2583,17 @@
       </c>
       <c r="J38" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K38" s="19" t="inlineStr">
         <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
         </is>
       </c>
       <c r="L38" s="19" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M38" s="20" t="n"/>
@@ -2610,17 +2610,17 @@
       </c>
       <c r="B39" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C39" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D39" s="18" t="inlineStr">
         <is>
-          <t>비용을 정당화하는 대역폭에 도달하는 경우에만 무제한 데이터 ExpressRoute 회로를 사용해야 합니다.</t>
+          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
         </is>
       </c>
       <c r="E39" s="18" t="n"/>
@@ -2640,15 +2640,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J39" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
+      <c r="K39" s="19" t="n"/>
       <c r="L39" s="19" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M39" s="20" t="n"/>
@@ -2665,23 +2665,23 @@
       </c>
       <c r="B40" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C40" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D40" s="18" t="inlineStr">
         <is>
-          <t>회로의 피어링 위치가 로컬 SKU에 대한 Azure 지역을 지원하는 경우 ExpressRoute의 로컬 SKU를 활용하여 회로 비용을 줄입니다.</t>
+          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 사용하여 확인을 위해 Azure 프라이빗 DNS를 사용합니다.</t>
         </is>
       </c>
       <c r="E40" s="18" t="n"/>
       <c r="F40" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2695,15 +2695,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
-        </is>
-      </c>
+      <c r="J40" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
+      <c r="K40" s="19" t="n"/>
       <c r="L40" s="19" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M40" s="20" t="n"/>
@@ -2720,17 +2720,17 @@
       </c>
       <c r="B41" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C41" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D41" s="18" t="inlineStr">
         <is>
-          <t>지원되는 Azure 지역에 영역 중복 ExpressRoute 게이트웨이를 배포합니다.</t>
+          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E41" s="18" t="n"/>
@@ -2752,17 +2752,13 @@
       </c>
       <c r="J41" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K41" s="19" t="inlineStr">
-        <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+        </is>
+      </c>
+      <c r="K41" s="19" t="n"/>
       <c r="L41" s="19" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M41" s="20" t="n"/>
@@ -2779,23 +2775,23 @@
       </c>
       <c r="B42" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C42" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D42" s="18" t="inlineStr">
         <is>
-          <t>10Gbps보다 높은 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 ExpressRoute Direct를 사용합니다.</t>
+          <t>자체 DNS(예: Red Hat OpenShift)를 요구하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="E42" s="18" t="n"/>
       <c r="F42" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2809,15 +2805,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J42" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+      <c r="J42" s="13" t="n"/>
       <c r="K42" s="19" t="n"/>
       <c r="L42" s="19" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M42" s="20" t="n"/>
@@ -2834,23 +2826,23 @@
       </c>
       <c r="B43" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C43" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D43" s="18" t="inlineStr">
         <is>
-          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath를 사용하여 데이터 경로에서 ExpressRoute 게이트웨이를 우회합니다.</t>
+          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
         </is>
       </c>
       <c r="E43" s="18" t="n"/>
       <c r="F43" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2866,13 +2858,13 @@
       </c>
       <c r="J43" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="K43" s="19" t="n"/>
       <c r="L43" s="19" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M43" s="20" t="n"/>
@@ -2889,17 +2881,17 @@
       </c>
       <c r="B44" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C44" s="18" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D44" s="18" t="inlineStr">
         <is>
-          <t>영역 중복 VPN Gateway를 사용하여 분기 또는 원격 위치를 Azure(사용 가능한 경우)에 연결합니다.</t>
+          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E44" s="18" t="n"/>
@@ -2919,19 +2911,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J44" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
-        </is>
-      </c>
-      <c r="K44" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J44" s="13" t="n"/>
+      <c r="K44" s="19" t="n"/>
       <c r="L44" s="19" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M44" s="20" t="n"/>
@@ -2948,17 +2932,17 @@
       </c>
       <c r="B45" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C45" s="18" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D45" s="18" t="inlineStr">
         <is>
-          <t>온-프레미스에서 중복 VPN 어플라이언스(활성/활성 또는 활성/수동)를 사용합니다.</t>
+          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
         </is>
       </c>
       <c r="E45" s="18" t="n"/>
@@ -2978,15 +2962,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J45" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
-        </is>
-      </c>
-      <c r="K45" s="19" t="n"/>
+      <c r="J45" s="13" t="n"/>
+      <c r="K45" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L45" s="19" t="inlineStr">
         <is>
-          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M45" s="20" t="n"/>
@@ -3003,23 +2987,23 @@
       </c>
       <c r="B46" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C46" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D46" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 비용을 절감하기 위해 로컬 Azure 지역에 대한 ExpressRoute 로컬 회로를 사용하는 것이 좋습니다</t>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="E46" s="18" t="n"/>
       <c r="F46" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3035,13 +3019,13 @@
       </c>
       <c r="J46" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="K46" s="19" t="n"/>
       <c r="L46" s="19" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M46" s="20" t="n"/>
@@ -3063,18 +3047,18 @@
       </c>
       <c r="C47" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D47" s="18" t="inlineStr">
         <is>
-          <t>트래픽 격리 또는 전용 대역폭이 필요한 경우(예: 프로덕션 환경과 비프로덕션 환경을 분리하기 위해) 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="E47" s="18" t="n"/>
       <c r="F47" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3090,13 +3074,13 @@
       </c>
       <c r="J47" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="K47" s="19" t="n"/>
       <c r="L47" s="19" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M47" s="20" t="n"/>
@@ -3113,23 +3097,23 @@
       </c>
       <c r="B48" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C48" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D48" s="18" t="inlineStr">
         <is>
-          <t>기본 제공 Express Route Insights를 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
+          <t>WAF 및 기타 역방향 프록시 배포는 인바운드 HTTP/S 연결에 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
         </is>
       </c>
       <c r="E48" s="18" t="n"/>
       <c r="F48" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3145,13 +3129,13 @@
       </c>
       <c r="J48" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K48" s="19" t="n"/>
       <c r="L48" s="19" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M48" s="20" t="n"/>
@@ -3168,23 +3152,23 @@
       </c>
       <c r="B49" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C49" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D49" s="18" t="inlineStr">
         <is>
-          <t>네트워크 전체, 특히 온-프레미스와 Azure 간의 연결을 모니터링하려면 연결 모니터를 사용합니다.</t>
+          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="E49" s="18" t="n"/>
       <c r="F49" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3200,13 +3184,13 @@
       </c>
       <c r="J49" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K49" s="19" t="n"/>
       <c r="L49" s="19" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M49" s="20" t="n"/>
@@ -3228,18 +3212,18 @@
       </c>
       <c r="C50" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D50" s="18" t="inlineStr">
         <is>
-          <t>중복성을 위해 서로 다른 피어링 위치의 ExpressRoute 회로를 사용합니다.</t>
+          <t>예정된 호환성이 손상되는 변경 전에 네트워크 아웃바운드 트래픽 구성 및 전략을 평가하고 검토합니다. 2025년 9월 30일에 새 배포에 대한 기본 아웃바운드 액세스가 사용 중지되고 명시적 액세스 구성만 허용됩니다</t>
         </is>
       </c>
       <c r="E50" s="18" t="n"/>
       <c r="F50" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3253,19 +3237,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J50" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K50" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
-        </is>
-      </c>
+      <c r="J50" s="13" t="n"/>
+      <c r="K50" s="19" t="n"/>
       <c r="L50" s="19" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M50" s="20" t="n"/>
@@ -3282,23 +3258,23 @@
       </c>
       <c r="B51" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C51" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D51" s="18" t="inlineStr">
         <is>
-          <t>특히 단일 ExpressRoute 회로만 사용하는 경우 사이트 간 VPN을 ExpressRoute의 장애 조치(failover)로 사용합니다.</t>
+          <t>보호된 모든 공용 IP 주소(DDoS IP 또는 네트워크 보호)에 대한 DDoS 관련 로그를 저장하는 진단 설정을 추가합니다.</t>
         </is>
       </c>
       <c r="E51" s="18" t="n"/>
       <c r="F51" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3312,11 +3288,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J51" s="13" t="n"/>
+      <c r="J51" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K51" s="19" t="n"/>
       <c r="L51" s="19" t="inlineStr">
         <is>
-          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M51" s="20" t="n"/>
@@ -3333,7 +3313,7 @@
       </c>
       <c r="B52" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C52" s="18" t="inlineStr">
@@ -3343,13 +3323,13 @@
       </c>
       <c r="D52" s="18" t="inlineStr">
         <is>
-          <t>GatewaySubnet에서 경로 테이블을 사용하는 경우 게이트웨이 경로가 전파되었는지 확인합니다.</t>
+          <t>ExpressRoute를 Azure에 대한 기본 연결로 사용할 수 있는지 조사했는지 확인합니다.</t>
         </is>
       </c>
       <c r="E52" s="18" t="n"/>
       <c r="F52" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3363,15 +3343,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
-        </is>
-      </c>
+      <c r="J52" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K52" s="19" t="n"/>
       <c r="L52" s="19" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M52" s="20" t="n"/>
@@ -3398,13 +3378,17 @@
       </c>
       <c r="D53" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute를 사용하는 경우 온-프레미스 라우팅은 동적이어야 하며, 연결 오류가 발생할 경우 회로의 나머지 연결로 수렴되어야 합니다. 로드는 두 연결 모두에서 이상적으로는 액티브/액티브로 공유되어야 하지만 액티브/패시브도 지원됩니다.</t>
-        </is>
-      </c>
-      <c r="E53" s="18" t="n"/>
+          <t>여러 ExpressRoute 회로 또는 여러 온-프레미스 위치를 사용하는 경우 특정 경로를 선호하는 경우 BGP 특성을 사용하여 라우팅을 최적화해야 합니다.</t>
+        </is>
+      </c>
+      <c r="E53" s="18" t="inlineStr">
+        <is>
+          <t>AS-path 접두사 및 연결 가중치를 사용하여 Azure에서 온-프레미스로의 트래픽에 영향을 주고, 자체 라우터의 전체 BGP 특성 범위를 사용하여 온-프레미스에서 Azure로의 트래픽에 영향을 줄 수 있습니다.</t>
+        </is>
+      </c>
       <c r="F53" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3418,11 +3402,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J53" s="13" t="n"/>
+      <c r="J53" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K53" s="19" t="n"/>
       <c r="L53" s="19" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M53" s="20" t="n"/>
@@ -3439,7 +3427,7 @@
       </c>
       <c r="B54" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C54" s="18" t="inlineStr">
@@ -3449,7 +3437,7 @@
       </c>
       <c r="D54" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute 회로의 두 물리적 링크가 네트워크에 있는 두 개의 고유한 에지 디바이스에 연결되어 있는지 확인합니다.</t>
+          <t>대역폭 및 성능 요구 사항에 따라 ExpressRoute/VPN 게이트웨이에 적합한 SKU를 사용하고 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E54" s="18" t="n"/>
@@ -3474,10 +3462,14 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K54" s="19" t="n"/>
+      <c r="K54" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
+        </is>
+      </c>
       <c r="L54" s="19" t="inlineStr">
         <is>
-          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M54" s="20" t="n"/>
@@ -3494,7 +3486,7 @@
       </c>
       <c r="B55" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C55" s="18" t="inlineStr">
@@ -3504,13 +3496,13 @@
       </c>
       <c r="D55" s="18" t="inlineStr">
         <is>
-          <t>BFD(Bidirectional Forwarding Detection)가 고객 또는 프로바이더 에지 라우팅 디바이스에서 활성화되고 구성되도록 보장합니다.</t>
+          <t>비용을 정당화하는 대역폭에 도달하는 경우에만 무제한 데이터 ExpressRoute 회로를 사용해야 합니다.</t>
         </is>
       </c>
       <c r="E55" s="18" t="n"/>
       <c r="F55" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3524,15 +3516,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J55" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K55" s="19" t="n"/>
+      <c r="J55" s="13" t="n"/>
+      <c r="K55" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L55" s="19" t="inlineStr">
         <is>
-          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M55" s="20" t="n"/>
@@ -3549,7 +3541,7 @@
       </c>
       <c r="B56" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C56" s="18" t="inlineStr">
@@ -3559,7 +3551,7 @@
       </c>
       <c r="D56" s="18" t="inlineStr">
         <is>
-          <t>복원력을 높이기 위해 서로 다른 피어링 위치에서 둘 이상의 회로에 ExpressRoute 게이트웨이를 연결합니다.</t>
+          <t>회로의 피어링 위치가 로컬 SKU에 대한 Azure 지역을 지원하는 경우 ExpressRoute의 로컬 SKU를 활용하여 회로 비용을 줄입니다.</t>
         </is>
       </c>
       <c r="E56" s="18" t="n"/>
@@ -3579,15 +3571,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J56" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K56" s="19" t="n"/>
+      <c r="J56" s="13" t="n"/>
+      <c r="K56" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
+        </is>
+      </c>
       <c r="L56" s="19" t="inlineStr">
         <is>
-          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M56" s="20" t="n"/>
@@ -3604,7 +3596,7 @@
       </c>
       <c r="B57" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C57" s="18" t="inlineStr">
@@ -3614,7 +3606,7 @@
       </c>
       <c r="D57" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute 가상 네트워크 게이트웨이에 대한 진단 로그 및 경고를 구성합니다.</t>
+          <t>지원되는 Azure 지역에 영역 중복 ExpressRoute 게이트웨이를 배포합니다.</t>
         </is>
       </c>
       <c r="E57" s="18" t="n"/>
@@ -3639,10 +3631,14 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K57" s="19" t="n"/>
+      <c r="K57" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
+        </is>
+      </c>
       <c r="L57" s="19" t="inlineStr">
         <is>
-          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M57" s="20" t="n"/>
@@ -3669,7 +3665,7 @@
       </c>
       <c r="D58" s="18" t="inlineStr">
         <is>
-          <t>VNet 간 통신에 ExpressRoute 회로를 사용하지 마세요.</t>
+          <t>10Gbps보다 높은 대역폭 또는 전용 10/100Gbps 포트가 필요한 시나리오의 경우 ExpressRoute Direct를 사용합니다.</t>
         </is>
       </c>
       <c r="E58" s="18" t="n"/>
@@ -3697,7 +3693,7 @@
       <c r="K58" s="19" t="n"/>
       <c r="L58" s="19" t="inlineStr">
         <is>
-          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M58" s="20" t="n"/>
@@ -3714,7 +3710,7 @@
       </c>
       <c r="B59" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C59" s="18" t="inlineStr">
@@ -3724,13 +3720,13 @@
       </c>
       <c r="D59" s="18" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
+          <t>짧은 대기 시간이 필요하거나 온-프레미스에서 Azure로의 처리량이 10Gbps보다 커야 하는 경우 FastPath를 사용하여 데이터 경로에서 ExpressRoute 게이트웨이를 우회합니다.</t>
         </is>
       </c>
       <c r="E59" s="18" t="n"/>
       <c r="F59" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3746,13 +3742,13 @@
       </c>
       <c r="J59" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K59" s="19" t="n"/>
       <c r="L59" s="19" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M59" s="20" t="n"/>
@@ -3769,23 +3765,23 @@
       </c>
       <c r="B60" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C60" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D60" s="18" t="inlineStr">
         <is>
-          <t>개인 인터넷에 대한 주소 할당 범위의 IP 주소를 사용합니다(RFC 1918).</t>
+          <t>영역 중복 VPN Gateway를 사용하여 분기 또는 원격 위치를 Azure(사용 가능한 경우)에 연결합니다.</t>
         </is>
       </c>
       <c r="E60" s="18" t="n"/>
       <c r="F60" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3801,17 +3797,17 @@
       </c>
       <c r="J60" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="K60" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
+          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
         </is>
       </c>
       <c r="L60" s="19" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M60" s="20" t="n"/>
@@ -3828,23 +3824,23 @@
       </c>
       <c r="B61" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C61" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D61" s="18" t="inlineStr">
         <is>
-          <t>IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요.</t>
+          <t>온-프레미스에서 중복 VPN 어플라이언스(활성/활성 또는 활성/수동)를 사용합니다.</t>
         </is>
       </c>
       <c r="E61" s="18" t="n"/>
       <c r="F61" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3860,17 +3856,13 @@
       </c>
       <c r="J61" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K61" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+        </is>
+      </c>
+      <c r="K61" s="19" t="n"/>
       <c r="L61" s="19" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
         </is>
       </c>
       <c r="M61" s="20" t="n"/>
@@ -3887,17 +3879,17 @@
       </c>
       <c r="B62" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C62" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D62" s="18" t="inlineStr">
         <is>
-          <t>프로덕션 및 DR 사이트에 겹치는 IP 주소 범위를 사용하지 마십시오.</t>
+          <t>ExpressRoute Direct를 사용하는 경우 비용을 절감하기 위해 로컬 Azure 지역에 대한 ExpressRoute 로컬 회로를 사용하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="E62" s="18" t="n"/>
@@ -3919,13 +3911,13 @@
       </c>
       <c r="J62" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K62" s="19" t="n"/>
       <c r="L62" s="19" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M62" s="20" t="n"/>
@@ -3942,17 +3934,17 @@
       </c>
       <c r="B63" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C63" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D63" s="18" t="inlineStr">
         <is>
-          <t>Azure에서 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 사용하여 확인을 위해 Azure 프라이빗 DNS를 사용합니다.</t>
+          <t>트래픽 격리 또는 전용 대역폭이 필요한 경우(예: 프로덕션 환경과 비프로덕션 환경을 분리하기 위해) 다른 ExpressRoute 회로를 사용합니다. 격리된 라우팅 도메인을 보장하고 시끄러운 이웃 위험을 완화하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="E63" s="18" t="n"/>
@@ -3974,13 +3966,13 @@
       </c>
       <c r="J63" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K63" s="19" t="n"/>
       <c r="L63" s="19" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M63" s="20" t="n"/>
@@ -3997,17 +3989,17 @@
       </c>
       <c r="B64" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C64" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D64" s="18" t="inlineStr">
         <is>
-          <t>Azure 및 온-프레미스에서 이름 확인이 필요한 환경의 경우 Azure DNS Private Resolver를 사용하는 것이 좋습니다.</t>
+          <t>기본 제공 Express Route Insights를 사용하여 ExpressRoute 가용성 및 사용률을 모니터링합니다.</t>
         </is>
       </c>
       <c r="E64" s="18" t="n"/>
@@ -4029,13 +4021,13 @@
       </c>
       <c r="J64" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K64" s="19" t="n"/>
       <c r="L64" s="19" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M64" s="20" t="n"/>
@@ -4057,18 +4049,18 @@
       </c>
       <c r="C65" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D65" s="18" t="inlineStr">
         <is>
-          <t>자체 DNS(예: Red Hat OpenShift)를 요구하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
+          <t>네트워크 전체, 특히 온-프레미스와 Azure 간의 연결을 모니터링하려면 연결 모니터를 사용합니다.</t>
         </is>
       </c>
       <c r="E65" s="18" t="n"/>
       <c r="F65" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4082,11 +4074,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J65" s="13" t="n"/>
+      <c r="J65" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K65" s="19" t="n"/>
       <c r="L65" s="19" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M65" s="20" t="n"/>
@@ -4103,23 +4099,23 @@
       </c>
       <c r="B66" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C66" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D66" s="18" t="inlineStr">
         <is>
-          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
+          <t>중복성을 위해 서로 다른 피어링 위치의 ExpressRoute 회로를 사용합니다.</t>
         </is>
       </c>
       <c r="E66" s="18" t="n"/>
       <c r="F66" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4135,13 +4131,17 @@
       </c>
       <c r="J66" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
-      <c r="K66" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K66" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
+        </is>
+      </c>
       <c r="L66" s="19" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M66" s="20" t="n"/>
@@ -4158,17 +4158,17 @@
       </c>
       <c r="B67" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C67" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D67" s="18" t="inlineStr">
         <is>
-          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결하는 것이 좋습니다.</t>
+          <t>특히 단일 ExpressRoute 회로만 사용하는 경우 사이트 간 VPN을 ExpressRoute의 장애 조치(failover)로 사용합니다.</t>
         </is>
       </c>
       <c r="E67" s="18" t="n"/>
@@ -4192,7 +4192,7 @@
       <c r="K67" s="19" t="n"/>
       <c r="L67" s="19" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
         </is>
       </c>
       <c r="M67" s="20" t="n"/>
@@ -4209,23 +4209,23 @@
       </c>
       <c r="B68" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C68" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D68" s="18" t="inlineStr">
         <is>
-          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
+          <t>GatewaySubnet에서 경로 테이블을 사용하는 경우 게이트웨이 경로가 전파되었는지 확인합니다.</t>
         </is>
       </c>
       <c r="E68" s="18" t="n"/>
       <c r="F68" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4242,12 +4242,12 @@
       <c r="J68" s="13" t="n"/>
       <c r="K68" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
         </is>
       </c>
       <c r="L68" s="19" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M68" s="20" t="n"/>
@@ -4264,23 +4264,23 @@
       </c>
       <c r="B69" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C69" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D69" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역에서 전역 보호를 제공합니다.</t>
+          <t>ExpressRoute를 사용하는 경우 온-프레미스 라우팅은 동적이어야 하며, 연결 오류가 발생할 경우 회로의 나머지 연결로 수렴되어야 합니다. 로드는 두 연결 모두에서 이상적으로는 액티브/액티브로 공유되어야 하지만 액티브/패시브도 지원됩니다.</t>
         </is>
       </c>
       <c r="E69" s="18" t="n"/>
       <c r="F69" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4294,15 +4294,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J69" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+      <c r="J69" s="13" t="n"/>
       <c r="K69" s="19" t="n"/>
       <c r="L69" s="19" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M69" s="20" t="n"/>
@@ -4319,23 +4315,23 @@
       </c>
       <c r="B70" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C70" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D70" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
+          <t>ExpressRoute 회로의 두 물리적 링크가 네트워크에 있는 두 개의 고유한 에지 디바이스에 연결되어 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E70" s="18" t="n"/>
       <c r="F70" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4351,13 +4347,13 @@
       </c>
       <c r="J70" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K70" s="19" t="n"/>
       <c r="L70" s="19" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
         </is>
       </c>
       <c r="M70" s="20" t="n"/>
@@ -4374,23 +4370,23 @@
       </c>
       <c r="B71" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C71" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D71" s="18" t="inlineStr">
         <is>
-          <t>WAF 및 기타 역방향 프록시 배포는 인바운드 HTTP/S 연결에 필요하며, 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
+          <t>BFD(Bidirectional Forwarding Detection)가 고객 또는 프로바이더 에지 라우팅 디바이스에서 활성화되고 구성되도록 보장합니다.</t>
         </is>
       </c>
       <c r="E71" s="18" t="n"/>
       <c r="F71" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4406,13 +4402,13 @@
       </c>
       <c r="J71" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K71" s="19" t="n"/>
       <c r="L71" s="19" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
         </is>
       </c>
       <c r="M71" s="20" t="n"/>
@@ -4429,17 +4425,17 @@
       </c>
       <c r="B72" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C72" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D72" s="18" t="inlineStr">
         <is>
-          <t>Azure DDoS 네트워크 또는 IP 보호 계획을 사용하여 가상 네트워크 내에서 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
+          <t>복원력을 높이기 위해 서로 다른 피어링 위치에서 둘 이상의 회로에 ExpressRoute 게이트웨이를 연결합니다.</t>
         </is>
       </c>
       <c r="E72" s="18" t="n"/>
@@ -4461,13 +4457,13 @@
       </c>
       <c r="J72" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K72" s="19" t="n"/>
       <c r="L72" s="19" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
         </is>
       </c>
       <c r="M72" s="20" t="n"/>
@@ -4484,23 +4480,23 @@
       </c>
       <c r="B73" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C73" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D73" s="18" t="inlineStr">
         <is>
-          <t>예정된 호환성이 손상되는 변경 전에 네트워크 아웃바운드 트래픽 구성 및 전략을 평가하고 검토합니다. 2025년 9월 30일에 새 배포에 대한 기본 아웃바운드 액세스가 사용 중지되고 명시적 액세스 구성만 허용됩니다</t>
+          <t>ExpressRoute 가상 네트워크 게이트웨이에 대한 진단 로그 및 경고를 구성합니다.</t>
         </is>
       </c>
       <c r="E73" s="18" t="n"/>
       <c r="F73" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4514,11 +4510,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J73" s="13" t="n"/>
+      <c r="J73" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K73" s="19" t="n"/>
       <c r="L73" s="19" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
         </is>
       </c>
       <c r="M73" s="20" t="n"/>
@@ -4535,23 +4535,23 @@
       </c>
       <c r="B74" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C74" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D74" s="18" t="inlineStr">
         <is>
-          <t>보호된 모든 공용 IP 주소(DDoS IP 또는 네트워크 보호)에 대한 DDoS 관련 로그를 저장하는 진단 설정을 추가합니다.</t>
+          <t>VNet 간 통신에 ExpressRoute 회로를 사용하지 마세요.</t>
         </is>
       </c>
       <c r="E74" s="18" t="n"/>
       <c r="F74" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4567,13 +4567,13 @@
       </c>
       <c r="J74" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K74" s="19" t="n"/>
       <c r="L74" s="19" t="inlineStr">
         <is>
-          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
+          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
         </is>
       </c>
       <c r="M74" s="20" t="n"/>
@@ -7512,18 +7512,18 @@
       </c>
       <c r="C130" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D130" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 WAF 로그를 저장하는 진단 설정을 추가합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
+          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
         </is>
       </c>
       <c r="E130" s="18" t="n"/>
       <c r="F130" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -7537,11 +7537,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J130" s="13" t="n"/>
+      <c r="J130" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="K130" s="19" t="n"/>
       <c r="L130" s="19" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M130" s="20" t="n"/>
@@ -7563,12 +7567,12 @@
       </c>
       <c r="C131" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D131" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 Microsoft Sentinel로 WAF 로그를 보냅니다. 공격을 감지하고 WAF 원격 분석을 전체 Azure 환경에 통합합니다.</t>
+          <t>로그 보존 요구 사항이 12년을 초과하는 경우 로그를 Azure Storage로 내보냅니다. 변경 불가능한 스토리지를 한 번 쓰기, 여러 번 읽기 정책과 함께 사용하여 사용자가 지정한 간격 동안 데이터를 지우거나 수정할 수 없도록 합니다.</t>
         </is>
       </c>
       <c r="E131" s="18" t="n"/>
@@ -7588,11 +7592,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J131" s="13" t="n"/>
+      <c r="J131" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="K131" s="19" t="n"/>
       <c r="L131" s="19" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M131" s="20" t="n"/>
@@ -7609,17 +7617,17 @@
       </c>
       <c r="B132" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C132" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D132" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup을 사용하는 경우 기본 설정은 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
+          <t>Azure Policy를 사용하여 OS 수준 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 Azure Automanage Machine Configuration 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="E132" s="18" t="n"/>
@@ -7639,11 +7647,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J132" s="13" t="n"/>
+      <c r="J132" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K132" s="19" t="n"/>
       <c r="L132" s="19" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M132" s="20" t="n"/>
@@ -7665,12 +7677,12 @@
       </c>
       <c r="C133" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D133" s="18" t="inlineStr">
         <is>
-          <t>Azure RBAC(Azure 역할 기반 액세스 제어), 데이터 주권 요구 사항 또는 데이터 보존 정책에 별도의 작업 영역이 필요한 경우를 제외하고 단일 모니터 로그 작업 영역을 사용하여 플랫폼을 중앙에서 관리합니다.</t>
+          <t>Azure에서 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다.</t>
         </is>
       </c>
       <c r="E133" s="18" t="n"/>
@@ -7692,13 +7704,13 @@
       </c>
       <c r="J133" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="K133" s="19" t="n"/>
       <c r="L133" s="19" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M133" s="20" t="n"/>
@@ -7720,12 +7732,12 @@
       </c>
       <c r="C134" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D134" s="18" t="inlineStr">
         <is>
-          <t>로그 보존 요구 사항이 12년을 초과하는 경우 로그를 Azure Storage로 내보냅니다. 변경 불가능한 스토리지를 한 번 쓰기, 여러 번 읽기 정책과 함께 사용하여 사용자가 지정한 간격 동안 데이터를 지우거나 수정할 수 없도록 합니다.</t>
+          <t>Azure Arc를 사용하여 Azure 외부의 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다.</t>
         </is>
       </c>
       <c r="E134" s="18" t="n"/>
@@ -7747,13 +7759,13 @@
       </c>
       <c r="J134" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="K134" s="19" t="n"/>
       <c r="L134" s="19" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M134" s="20" t="n"/>
@@ -7775,12 +7787,12 @@
       </c>
       <c r="C135" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Network Watcher</t>
         </is>
       </c>
       <c r="D135" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 OS 수준 VM(가상 머신) 구성 드리프트를 모니터링합니다. 정책을 통해 Azure Automanage Machine Configuration 감사 기능을 사용하도록 설정하면 애플리케이션 팀 워크로드가 적은 노력으로 기능 기능을 즉시 사용할 수 있습니다.</t>
+          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
         </is>
       </c>
       <c r="E135" s="18" t="n"/>
@@ -7802,13 +7814,13 @@
       </c>
       <c r="J135" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="K135" s="19" t="n"/>
       <c r="L135" s="19" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M135" s="20" t="n"/>
@@ -7830,12 +7842,12 @@
       </c>
       <c r="C136" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D136" s="18" t="inlineStr">
         <is>
-          <t>Azure에서 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다.</t>
+          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
         </is>
       </c>
       <c r="E136" s="18" t="n"/>
@@ -7855,15 +7867,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J136" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
+      <c r="J136" s="13" t="n"/>
       <c r="K136" s="19" t="n"/>
       <c r="L136" s="19" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M136" s="20" t="n"/>
@@ -7885,12 +7893,12 @@
       </c>
       <c r="C137" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D137" s="18" t="inlineStr">
         <is>
-          <t>Azure Arc를 사용하여 Azure 외부의 Windows 및 Linux VM에 대한 패치 메커니즘으로 Azure Update Manager를 사용합니다.</t>
+          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
         </is>
       </c>
       <c r="E137" s="18" t="n"/>
@@ -7910,15 +7918,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J137" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
+      <c r="J137" s="13" t="n"/>
       <c r="K137" s="19" t="n"/>
       <c r="L137" s="19" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="20" t="n"/>
@@ -7940,12 +7944,12 @@
       </c>
       <c r="C138" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D138" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher를 사용하여 트래픽 흐름을 사전에 모니터링</t>
+          <t>Azure Automation 계정을 통해 변경 및 인벤토리 추적을 사용하는 경우 Log Analytics 작업 영역과 자동화 계정을 함께 연결하기 위해 지원되는 지역을 선택했는지 확인합니다.</t>
         </is>
       </c>
       <c r="E138" s="18" t="n"/>
@@ -7965,15 +7969,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J138" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
-        </is>
-      </c>
+      <c r="J138" s="13" t="n"/>
       <c r="K138" s="19" t="n"/>
       <c r="L138" s="19" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M138" s="20" t="n"/>
@@ -7990,17 +7990,17 @@
       </c>
       <c r="B139" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C139" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D139" s="18" t="inlineStr">
         <is>
-          <t>인사이트 및 보고를 위해 Azure Monitor 로그를 사용합니다.</t>
+          <t>Azure Backup을 사용하는 경우 기본 설정은 GRS이므로 다양한 백업 유형(GRS, ZRS &amp; LRS)을 고려합니다</t>
         </is>
       </c>
       <c r="E139" s="18" t="n"/>
@@ -8024,7 +8024,7 @@
       <c r="K139" s="19" t="n"/>
       <c r="L139" s="19" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M139" s="20" t="n"/>
@@ -8041,17 +8041,17 @@
       </c>
       <c r="B140" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C140" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D140" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor 경고를 사용하여 운영 경고를 생성합니다.</t>
+          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
         </is>
       </c>
       <c r="E140" s="18" t="n"/>
@@ -8075,7 +8075,7 @@
       <c r="K140" s="19" t="n"/>
       <c r="L140" s="19" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M140" s="20" t="n"/>
@@ -8092,20 +8092,24 @@
       </c>
       <c r="B141" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C141" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D141" s="18" t="inlineStr">
         <is>
-          <t>Azure Automation 계정을 통해 변경 및 인벤토리 추적을 사용하는 경우 Log Analytics 작업 영역과 자동화 계정을 함께 연결하기 위해 지원되는 지역을 선택했는지 확인합니다.</t>
-        </is>
-      </c>
-      <c r="E141" s="18" t="n"/>
+          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
+        </is>
+      </c>
+      <c r="E141" s="18" t="inlineStr">
+        <is>
+          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="F141" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -8126,7 +8130,7 @@
       <c r="K141" s="19" t="n"/>
       <c r="L141" s="19" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M141" s="20" t="n"/>
@@ -8143,7 +8147,7 @@
       </c>
       <c r="B142" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C142" s="18" t="inlineStr">
@@ -8153,7 +8157,7 @@
       </c>
       <c r="D142" s="18" t="inlineStr">
         <is>
-          <t>Azure 정책을 사용하여 VM 확장을 통해 소프트웨어 구성을 자동으로 배포하고 규격 기준 VM 구성을 적용합니다.</t>
+          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
         </is>
       </c>
       <c r="E142" s="18" t="n"/>
@@ -8177,7 +8181,7 @@
       <c r="K142" s="19" t="n"/>
       <c r="L142" s="19" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M142" s="20" t="n"/>
@@ -8194,24 +8198,20 @@
       </c>
       <c r="B143" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C143" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D143" s="18" t="inlineStr">
         <is>
-          <t>Azure Policy를 통해 VM 보안 구성 드리프트를 모니터링합니다.</t>
-        </is>
-      </c>
-      <c r="E143" s="18" t="inlineStr">
-        <is>
-          <t>Azure Policy의 게스트 구성 기능은 컴퓨터 설정(예: OS, 애플리케이션, 환경)을 감사하고 수정하여 리소스가 예상 구성에 맞는지 확인할 수 있으며, 업데이트 관리는 VM에 대한 패치 관리를 적용할 수 있습니다.</t>
-        </is>
-      </c>
+          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
+        </is>
+      </c>
+      <c r="E143" s="18" t="n"/>
       <c r="F143" s="18" t="inlineStr">
         <is>
           <t>보통</t>
@@ -8232,7 +8232,7 @@
       <c r="K143" s="19" t="n"/>
       <c r="L143" s="19" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M143" s="20" t="n"/>
@@ -8249,7 +8249,7 @@
       </c>
       <c r="B144" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C144" s="18" t="inlineStr">
@@ -8259,13 +8259,13 @@
       </c>
       <c r="D144" s="18" t="inlineStr">
         <is>
-          <t>Azure-Azure Virtual Machines 재해 복구 시나리오에 Azure Site Recovery를 사용합니다. 이렇게 하면 지역 간에 워크로드를 복제할 수 있습니다.</t>
+          <t>VM이 지원되는 지역에서 VM에 대한 가용성 영역을 활용합니다.</t>
         </is>
       </c>
       <c r="E144" s="18" t="n"/>
       <c r="F144" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -8283,7 +8283,7 @@
       <c r="K144" s="19" t="n"/>
       <c r="L144" s="19" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M144" s="20" t="n"/>
@@ -8300,23 +8300,23 @@
       </c>
       <c r="B145" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C145" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D145" s="18" t="inlineStr">
         <is>
-          <t>Azure 네이티브 백업 기능 또는 Azure 호환 제3자 백업 솔루션을 사용합니다.</t>
+          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
         </is>
       </c>
       <c r="E145" s="18" t="n"/>
       <c r="F145" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -8334,7 +8334,7 @@
       <c r="K145" s="19" t="n"/>
       <c r="L145" s="19" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M145" s="20" t="n"/>
@@ -8361,13 +8361,13 @@
       </c>
       <c r="D146" s="18" t="inlineStr">
         <is>
-          <t>VM이 지원되는 지역에서 VM에 대한 가용성 영역을 활용합니다.</t>
+          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
         </is>
       </c>
       <c r="E146" s="18" t="n"/>
       <c r="F146" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -8385,7 +8385,7 @@
       <c r="K146" s="19" t="n"/>
       <c r="L146" s="19" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M146" s="20" t="n"/>
@@ -8402,17 +8402,17 @@
       </c>
       <c r="B147" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C147" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D147" s="18" t="inlineStr">
         <is>
-          <t>단일 VM에서 프로덕션 워크로드를 실행하지 마세요.</t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 WAF 로그를 저장하는 진단 설정을 추가합니다. 로그를 정기적으로 검토하여 공격 및 가양성 탐지를 확인합니다.</t>
         </is>
       </c>
       <c r="E147" s="18" t="n"/>
@@ -8436,7 +8436,7 @@
       <c r="K147" s="19" t="n"/>
       <c r="L147" s="19" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M147" s="20" t="n"/>
@@ -8453,17 +8453,17 @@
       </c>
       <c r="B148" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C148" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D148" s="18" t="inlineStr">
         <is>
-          <t>Azure Load Balancer 및 Application Gateway는 들어오는 네트워크 트래픽을 여러 리소스에 분산합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway와 같은 애플리케이션 배달 서비스에서 Microsoft Sentinel로 WAF 로그를 보냅니다. 공격을 감지하고 WAF 원격 분석을 전체 Azure 환경에 통합합니다.</t>
         </is>
       </c>
       <c r="E148" s="18" t="n"/>
@@ -8487,7 +8487,7 @@
       <c r="K148" s="19" t="n"/>
       <c r="L148" s="19" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M148" s="20" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -17223,7 +17223,7 @@
       </c>
       <c r="D312" s="18" t="inlineStr">
         <is>
-          <t>Azure Load Balancer에 대한 내부 배포가 DSR(Direct Server Return)을 사용하도록 설정되어 있는지 확인합니다. 이 설정은 내부 부하 분산 장치 구성이 DBMS 계층의 고가용성 구성에 사용될 때 대기 시간을 줄입니다.</t>
+          <t>Azure Load Balancer에 대한 내부 배포가 DSR(Direct Server Return)을 사용하도록 설정되어 있는지 확인합니다. 이 설정(유동 IP 사용)은 DBMS 계층의 고가용성 구성에 내부 부하 분산 장치 구성을 사용할 때 대기 시간을 줄입니다.</t>
         </is>
       </c>
       <c r="E312" s="18" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -281,7 +281,7 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -18039,7 +18039,7 @@
       </c>
       <c r="B338" s="18" t="inlineStr">
         <is>
-          <t>운영 엑셀런스</t>
+          <t>운영 우수성</t>
         </is>
       </c>
       <c r="C338" s="18" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -49126,28 +49126,28 @@
     <row r="930">
       <c r="A930" s="18" t="inlineStr">
         <is>
-          <t>Azure Function Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B930" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C930" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D930" s="18" t="inlineStr">
         <is>
-          <t>비즈니스 및 SLO 요구 사항에 따라 올바른 기능 호스팅 계획을 선택하십시오.</t>
+          <t>Azure Front Door에서 고객 관리형 TLS 인증서를 사용하는 경우 '최신' 인증서 버전을 사용합니다. 수동 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
         </is>
       </c>
       <c r="E930" s="18" t="n"/>
       <c r="F930" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G930" t="inlineStr">
@@ -49165,7 +49165,7 @@
       <c r="K930" s="19" t="n"/>
       <c r="L930" s="19" t="inlineStr">
         <is>
-          <t>4238f409-2ea0-43be-a06b-2a993c98aa7b</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M930" s="20" t="n"/>
@@ -49177,28 +49177,28 @@
     <row r="931">
       <c r="A931" s="18" t="inlineStr">
         <is>
-          <t>Azure Function Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B931" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C931" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D931" s="18" t="inlineStr">
         <is>
-          <t>지역적으로 적용 가능한 가용성 영역 활용(소비 계층에는 사용할 수 없음)</t>
+          <t>WAF 정책과 함께 Azure Front Door를 사용하여 여러 Azure 지역에 걸쳐 있는 글로벌 HTTP/S 앱을 제공하고 보호할 수 있습니다.</t>
         </is>
       </c>
       <c r="E931" s="18" t="n"/>
       <c r="F931" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G931" t="inlineStr">
@@ -49212,11 +49212,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J931" s="13" t="n"/>
+      <c r="J931" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K931" s="19" t="n"/>
       <c r="L931" s="19" t="inlineStr">
         <is>
-          <t>a9808100-d640-4f77-ac56-1ec0600f6752</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M931" s="20" t="n"/>
@@ -49228,22 +49232,22 @@
     <row r="932">
       <c r="A932" s="18" t="inlineStr">
         <is>
-          <t>Azure Function Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B932" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C932" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D932" s="18" t="inlineStr">
         <is>
-          <t>중요한 워크로드에 대한 지역 간 DR 전략 고려</t>
+          <t>Front Door 및 Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Front Door에서 WAF 정책을 사용합니다. Front Door에서만 트래픽을 수신하도록 Application Gateway를 잠급니다.</t>
         </is>
       </c>
       <c r="E932" s="18" t="n"/>
@@ -49263,11 +49267,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J932" s="13" t="n"/>
+      <c r="J932" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K932" s="19" t="n"/>
       <c r="L932" s="19" t="inlineStr">
         <is>
-          <t>5969d03e-eacf-4042-b127-73c55e3575fa</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M932" s="20" t="n"/>
@@ -49279,22 +49287,22 @@
     <row r="933">
       <c r="A933" s="18" t="inlineStr">
         <is>
-          <t>Azure Function Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B933" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C933" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D933" s="18" t="inlineStr">
         <is>
-          <t>격리된 환경에 배포하는 경우 ASE(App Service Environment) v3을 사용하거나 마이그레이션합니다</t>
+          <t>Web Application Firewall이 트래픽을 허용하거나 거부하기 위해 적절한 조치를 취할 수 있도록 Front Door에 대한 WAF 정책을 '방지' 모드'에 배포합니다.</t>
         </is>
       </c>
       <c r="E933" s="18" t="n"/>
@@ -49315,10 +49323,14 @@
         </is>
       </c>
       <c r="J933" s="13" t="n"/>
-      <c r="K933" s="19" t="n"/>
+      <c r="K933" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+        </is>
+      </c>
       <c r="L933" s="19" t="inlineStr">
         <is>
-          <t>47a0aae0-d8a0-43b1-9791-e934dee3754c</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M933" s="20" t="n"/>
@@ -49330,22 +49342,22 @@
     <row r="934">
       <c r="A934" s="18" t="inlineStr">
         <is>
-          <t>Azure Function Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B934" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C934" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D934" s="18" t="inlineStr">
         <is>
-          <t>App Service 계획에서 실행되는 모든 함수 앱에 대해 'Always On'이 사용하도록 설정되어 있는지 확인합니다.</t>
+          <t>Traffic Manager를 Front Door 뒤에 배치하지 마세요.</t>
         </is>
       </c>
       <c r="E934" s="18" t="n"/>
@@ -49366,10 +49378,14 @@
         </is>
       </c>
       <c r="J934" s="13" t="n"/>
-      <c r="K934" s="19" t="n"/>
+      <c r="K934" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend compliant = properties['hostName'] !endswith '.trafficmanager.net' | project compliant, id=frontDoorId</t>
+        </is>
+      </c>
       <c r="L934" s="19" t="inlineStr">
         <is>
-          <t>17232891-f89f-4eaa-90f1-3b34bf798ed5</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M934" s="20" t="n"/>
@@ -49381,28 +49397,28 @@
     <row r="935">
       <c r="A935" s="18" t="inlineStr">
         <is>
-          <t>Azure Function Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B935" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C935" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D935" s="18" t="inlineStr">
         <is>
-          <t>함수 앱을 자체 스토리지 계정에 페어링합니다. 긴밀하게 결합되지 않는 한 함수 앱에 대한 스토리지 계정을 다시 사용하지 마세요</t>
+          <t>Azure Front Door 및 원본에서 동일한 도메인 이름을 사용합니다. 호스트 이름이 일치하지 않으면 미묘한 버그가 발생할 수 있습니다.</t>
         </is>
       </c>
       <c r="E935" s="18" t="n"/>
       <c r="F935" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G935" t="inlineStr">
@@ -49420,7 +49436,7 @@
       <c r="K935" s="19" t="n"/>
       <c r="L935" s="19" t="inlineStr">
         <is>
-          <t>40a325c2-7c0e-49e6-86d8-c273b4dc21ba</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M935" s="20" t="n"/>
@@ -49432,28 +49448,28 @@
     <row r="936">
       <c r="A936" s="18" t="inlineStr">
         <is>
-          <t>Azure Function Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B936" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C936" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D936" s="18" t="inlineStr">
         <is>
-          <t>Azure DevOps 또는 GitHub를 활용하여 CI/CD를 간소화하고 함수 앱 코드를 보호합니다.</t>
+          <t>Azure Front Door 원본 그룹에 원본이 하나만 있는 경우 상태 프로브를 사용하지 않도록 설정합니다.</t>
         </is>
       </c>
       <c r="E936" s="18" t="n"/>
       <c r="F936" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G936" t="inlineStr">
@@ -49468,10 +49484,14 @@
         </is>
       </c>
       <c r="J936" s="13" t="n"/>
-      <c r="K936" s="19" t="n"/>
+      <c r="K936" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L936" s="19" t="inlineStr">
         <is>
-          <t>bb42650c-257d-4cb0-822a-131138b8e6f0</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M936" s="20" t="n"/>
@@ -49483,7 +49503,7 @@
     <row r="937">
       <c r="A937" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B937" s="18" t="inlineStr">
@@ -49493,18 +49513,18 @@
       </c>
       <c r="C937" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D937" s="18" t="inlineStr">
         <is>
-          <t>비즈니스 및 SLO 요구 사항에 따라 올바른 Logic App 호스팅 계획 선택Select the right Logic App hosting plan based on your business &amp; SLO requirements</t>
+          <t>Azure Front Door에 대한 양호한 상태 프로브 엔드포인트를 선택합니다. 애플리케이션의 모든 종속성을 확인하는 상태 엔드포인트를 구축하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E937" s="18" t="n"/>
       <c r="F937" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G937" t="inlineStr">
@@ -49522,7 +49542,7 @@
       <c r="K937" s="19" t="n"/>
       <c r="L937" s="19" t="inlineStr">
         <is>
-          <t>3b7a56de-5020-4642-b3cb-c976e80b6d6d</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M937" s="20" t="n"/>
@@ -49534,28 +49554,28 @@
     <row r="938">
       <c r="A938" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B938" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C938" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D938" s="18" t="inlineStr">
         <is>
-          <t>영역 중복 및 가용성 영역을 사용하여 지역 오류로부터 논리 앱 보호Protect logic apps from region failures with zone redundancy and availability zones</t>
+          <t>Azure Front Door와 함께 HEAD 상태 프로브를 사용하여 Front Door가 애플리케이션으로 보내는 트래픽을 줄입니다.</t>
         </is>
       </c>
       <c r="E938" s="18" t="n"/>
       <c r="F938" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G938" t="inlineStr">
@@ -49570,10 +49590,14 @@
         </is>
       </c>
       <c r="J938" s="13" t="n"/>
-      <c r="K938" s="19" t="n"/>
+      <c r="K938" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
+        </is>
+      </c>
       <c r="L938" s="19" t="inlineStr">
         <is>
-          <t>3d7008bd-6bc1-4b03-8aa8-ec2a3b55786a</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M938" s="20" t="n"/>
@@ -49585,22 +49609,22 @@
     <row r="939">
       <c r="A939" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B939" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C939" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D939" s="18" t="inlineStr">
         <is>
-          <t>중요한 워크로드에 대한 지역 간 DR 전략 고려</t>
+          <t>Azure Front Door에서 관리형 TLS 인증서를 사용합니다. 운영 비용을 줄이고 인증서 갱신으로 인한 중단 위험을 줄입니다.</t>
         </is>
       </c>
       <c r="E939" s="18" t="n"/>
@@ -49621,10 +49645,14 @@
         </is>
       </c>
       <c r="J939" s="13" t="n"/>
-      <c r="K939" s="19" t="n"/>
+      <c r="K939" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
+        </is>
+      </c>
       <c r="L939" s="19" t="inlineStr">
         <is>
-          <t>1cda768f-a206-445d-8234-56f6a6e7286e</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M939" s="20" t="n"/>
@@ -49636,28 +49664,28 @@
     <row r="940">
       <c r="A940" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B940" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C940" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D940" s="18" t="inlineStr">
         <is>
-          <t>격리된 환경에 배포하는 경우 ASE(App Service Environment) v3을 사용하거나 마이그레이션합니다</t>
+          <t>Azure Front Door WAF 구성을 코드로 정의합니다. 코드를 사용하면 새 규칙 집합 버전을 보다 쉽게 채택하고 추가 보호를 얻을 수 있습니다.</t>
         </is>
       </c>
       <c r="E940" s="18" t="n"/>
       <c r="F940" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G940" t="inlineStr">
@@ -49675,7 +49703,7 @@
       <c r="K940" s="19" t="n"/>
       <c r="L940" s="19" t="inlineStr">
         <is>
-          <t>82118ec5-ed6f-4c68-9471-eb0da98a1b34</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M940" s="20" t="n"/>
@@ -49687,28 +49715,28 @@
     <row r="941">
       <c r="A941" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B941" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C941" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D941" s="18" t="inlineStr">
         <is>
-          <t>Azure DevOps 또는 GitHub를 활용하여 CI/CD를 간소화하고 논리 앱 코드를 보호합니다.</t>
+          <t>Azure Front Door에서 엔드투엔드 TLS를 사용합니다. 클라이언트에서 Front Door로, Front Door에서 원본으로의 연결에 TLS를 사용합니다.</t>
         </is>
       </c>
       <c r="E941" s="18" t="n"/>
       <c r="F941" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G941" t="inlineStr">
@@ -49723,10 +49751,14 @@
         </is>
       </c>
       <c r="J941" s="13" t="n"/>
-      <c r="K941" s="19" t="n"/>
+      <c r="K941" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type == 'microsoft.cdn/profiles/afdendpoints/routes' | extend frontDoorId = substring(id, 0, indexof(id, '/afdendpoints')) | extend forwardingProtocol=tostring(properties.forwardingProtocol),supportedProtocols=properties.supportedProtocols,httpsRedirect=properties.httpsRedirect | extend compliant = forwardingProtocol =~ 'httpsonly' and (supportedProtocols has 'https' or httpsRedirect =~ 'enabled') | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L941" s="19" t="inlineStr">
         <is>
-          <t>74275fa5-9e08-4c7e-b096-13b538fe1501</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M941" s="20" t="n"/>
@@ -49738,22 +49770,22 @@
     <row r="942">
       <c r="A942" s="18" t="inlineStr">
         <is>
-          <t>MySQL Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B942" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C942" s="18" t="inlineStr">
         <is>
-          <t>Azure MySQL</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D942" s="18" t="inlineStr">
         <is>
-          <t>유연한 서버 활용</t>
+          <t>Azure Front Door에서 HTTP를 HTTPS로 리디렉션을 사용합니다. 이전 클라이언트를 HTTPS 요청으로 자동으로 리디렉션하여 지원합니다.</t>
         </is>
       </c>
       <c r="E942" s="18" t="n"/>
@@ -49774,10 +49806,14 @@
         </is>
       </c>
       <c r="J942" s="13" t="n"/>
-      <c r="K942" s="19" t="n"/>
+      <c r="K942" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type == 'microsoft.cdn/profiles/afdendpoints/routes' | extend frontDoorId = substring(id, 0, indexof(id, '/afdendpoints')) | extend forwardingProtocol=tostring(properties.forwardingProtocol),supportedProtocols=properties.supportedProtocols,httpsRedirect=properties.httpsRedirect | extend compliant = httpsRedirect =~ 'enabled' | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L942" s="19" t="inlineStr">
         <is>
-          <t>388c3e25-e800-4ad2-9df3-f3d6ae1050b7</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M942" s="20" t="n"/>
@@ -49789,22 +49825,22 @@
     <row r="943">
       <c r="A943" s="18" t="inlineStr">
         <is>
-          <t>MySQL Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B943" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C943" s="18" t="inlineStr">
         <is>
-          <t>Azure MySQL</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D943" s="18" t="inlineStr">
         <is>
-          <t>지역적으로 적용 가능한 경우 가용 영역 활용Leverage Availability Zones where regionally applicable</t>
+          <t>Azure Front Door WAF를 사용하도록 설정합니다. 다양한 공격으로부터 애플리케이션을 보호합니다.</t>
         </is>
       </c>
       <c r="E943" s="18" t="n"/>
@@ -49828,7 +49864,7 @@
       <c r="K943" s="19" t="n"/>
       <c r="L943" s="19" t="inlineStr">
         <is>
-          <t>de3aad1e-8c38-4ec9-9666-7313c005674b</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M943" s="20" t="n"/>
@@ -49840,28 +49876,28 @@
     <row r="944">
       <c r="A944" s="18" t="inlineStr">
         <is>
-          <t>MySQL Review Checklist</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B944" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C944" s="18" t="inlineStr">
         <is>
-          <t>Azure MySQL</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D944" s="18" t="inlineStr">
         <is>
-          <t>지역 간 DR 시나리오에 입력 데이터 복제 활용</t>
+          <t>검색 모드에서 WAF를 구성하여 워크로드에 맞게 Azure Front Door WAF를 조정하여 가양성 검색을 줄이고 수정합니다.</t>
         </is>
       </c>
       <c r="E944" s="18" t="n"/>
       <c r="F944" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G944" t="inlineStr">
@@ -49879,7 +49915,7 @@
       <c r="K944" s="19" t="n"/>
       <c r="L944" s="19" t="inlineStr">
         <is>
-          <t>1e944a45-9c37-43e7-bd61-623b365a917e</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M944" s="20" t="n"/>
@@ -49889,17 +49925,50 @@
       <c r="Q944" s="20" t="n"/>
     </row>
     <row r="945">
-      <c r="A945" s="18" t="n"/>
-      <c r="B945" s="18" t="n"/>
-      <c r="C945" s="18" t="n"/>
-      <c r="D945" s="18" t="n"/>
+      <c r="A945" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B945" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C945" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D945" s="18" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF 정책에서 요청 본문 검사 기능을 사용하도록 설정합니다.</t>
+        </is>
+      </c>
       <c r="E945" s="18" t="n"/>
-      <c r="F945" s="18" t="n"/>
+      <c r="F945" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G945" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H945" s="18" t="n"/>
-      <c r="I945" s="13" t="n"/>
+      <c r="I945" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J945" s="13" t="n"/>
       <c r="K945" s="19" t="n"/>
-      <c r="L945" s="19" t="n"/>
+      <c r="L945" s="19" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M945" s="20" t="n"/>
       <c r="N945" s="20" t="n"/>
       <c r="O945" s="20" t="n"/>
@@ -49907,17 +49976,50 @@
       <c r="Q945" s="20" t="n"/>
     </row>
     <row r="946">
-      <c r="A946" s="18" t="n"/>
-      <c r="B946" s="18" t="n"/>
-      <c r="C946" s="18" t="n"/>
-      <c r="D946" s="18" t="n"/>
+      <c r="A946" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B946" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C946" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D946" s="18" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF 기본 규칙 집합을 사용하도록 설정합니다. 기본 규칙 집합은 일반적인 공격을 탐지하고 차단합니다.</t>
+        </is>
+      </c>
       <c r="E946" s="18" t="n"/>
-      <c r="F946" s="18" t="n"/>
+      <c r="F946" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G946" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H946" s="18" t="n"/>
-      <c r="I946" s="13" t="n"/>
+      <c r="I946" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J946" s="13" t="n"/>
       <c r="K946" s="19" t="n"/>
-      <c r="L946" s="19" t="n"/>
+      <c r="L946" s="19" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M946" s="20" t="n"/>
       <c r="N946" s="20" t="n"/>
       <c r="O946" s="20" t="n"/>
@@ -49925,17 +50027,50 @@
       <c r="Q946" s="20" t="n"/>
     </row>
     <row r="947">
-      <c r="A947" s="18" t="n"/>
-      <c r="B947" s="18" t="n"/>
-      <c r="C947" s="18" t="n"/>
-      <c r="D947" s="18" t="n"/>
+      <c r="A947" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B947" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C947" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D947" s="18" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF 봇 보호 규칙 집합을 사용하도록 설정합니다. 봇 규칙은 좋은 봇과 나쁜 봇을 감지합니다.</t>
+        </is>
+      </c>
       <c r="E947" s="18" t="n"/>
-      <c r="F947" s="18" t="n"/>
+      <c r="F947" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G947" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H947" s="18" t="n"/>
-      <c r="I947" s="13" t="n"/>
+      <c r="I947" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J947" s="13" t="n"/>
       <c r="K947" s="19" t="n"/>
-      <c r="L947" s="19" t="n"/>
+      <c r="L947" s="19" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M947" s="20" t="n"/>
       <c r="N947" s="20" t="n"/>
       <c r="O947" s="20" t="n"/>
@@ -49943,17 +50078,50 @@
       <c r="Q947" s="20" t="n"/>
     </row>
     <row r="948">
-      <c r="A948" s="18" t="n"/>
-      <c r="B948" s="18" t="n"/>
-      <c r="C948" s="18" t="n"/>
-      <c r="D948" s="18" t="n"/>
+      <c r="A948" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B948" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C948" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D948" s="18" t="inlineStr">
+        <is>
+          <t>최신 Azure Front Door WAF 규칙 집합 버전을 사용합니다. 규칙 집합 업데이트는 현재 위협 환경을 고려하기 위해 정기적으로 업데이트됩니다.</t>
+        </is>
+      </c>
       <c r="E948" s="18" t="n"/>
-      <c r="F948" s="18" t="n"/>
+      <c r="F948" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G948" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H948" s="18" t="n"/>
-      <c r="I948" s="13" t="n"/>
+      <c r="I948" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J948" s="13" t="n"/>
       <c r="K948" s="19" t="n"/>
-      <c r="L948" s="19" t="n"/>
+      <c r="L948" s="19" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M948" s="20" t="n"/>
       <c r="N948" s="20" t="n"/>
       <c r="O948" s="20" t="n"/>
@@ -49961,17 +50129,50 @@
       <c r="Q948" s="20" t="n"/>
     </row>
     <row r="949">
-      <c r="A949" s="18" t="n"/>
-      <c r="B949" s="18" t="n"/>
-      <c r="C949" s="18" t="n"/>
-      <c r="D949" s="18" t="n"/>
+      <c r="A949" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B949" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C949" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D949" s="18" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF에 속도 제한을 추가합니다. 속도 제한은 클라이언트가 실수로 또는 의도적으로 단기간에 많은 양의 트래픽을 보내는 것을 차단합니다.</t>
+        </is>
+      </c>
       <c r="E949" s="18" t="n"/>
-      <c r="F949" s="18" t="n"/>
+      <c r="F949" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G949" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H949" s="18" t="n"/>
-      <c r="I949" s="13" t="n"/>
+      <c r="I949" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J949" s="13" t="n"/>
       <c r="K949" s="19" t="n"/>
-      <c r="L949" s="19" t="n"/>
+      <c r="L949" s="19" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M949" s="20" t="n"/>
       <c r="N949" s="20" t="n"/>
       <c r="O949" s="20" t="n"/>
@@ -49979,17 +50180,50 @@
       <c r="Q949" s="20" t="n"/>
     </row>
     <row r="950">
-      <c r="A950" s="18" t="n"/>
-      <c r="B950" s="18" t="n"/>
-      <c r="C950" s="18" t="n"/>
-      <c r="D950" s="18" t="n"/>
+      <c r="A950" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B950" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C950" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D950" s="18" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF 속도 제한에 높은 임계값을 사용합니다. 높은 속도 제한 임계값은 합법적인 트래픽 차단을 방지하는 동시에 인프라를 압도할 수 있는 매우 많은 수의 요청에 대한 보호를 제공합니다.</t>
+        </is>
+      </c>
       <c r="E950" s="18" t="n"/>
-      <c r="F950" s="18" t="n"/>
+      <c r="F950" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G950" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H950" s="18" t="n"/>
-      <c r="I950" s="13" t="n"/>
+      <c r="I950" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J950" s="13" t="n"/>
       <c r="K950" s="19" t="n"/>
-      <c r="L950" s="19" t="n"/>
+      <c r="L950" s="19" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M950" s="20" t="n"/>
       <c r="N950" s="20" t="n"/>
       <c r="O950" s="20" t="n"/>
@@ -49997,17 +50231,50 @@
       <c r="Q950" s="20" t="n"/>
     </row>
     <row r="951">
-      <c r="A951" s="18" t="n"/>
-      <c r="B951" s="18" t="n"/>
-      <c r="C951" s="18" t="n"/>
-      <c r="D951" s="18" t="n"/>
+      <c r="A951" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B951" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C951" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D951" s="18" t="inlineStr">
+        <is>
+          <t>모든 지역에서 트래픽이 발생할 것으로 예상되지 않는 경우 지역 필터를 사용하여 예상하지 못한 국가의 트래픽을 차단합니다.</t>
+        </is>
+      </c>
       <c r="E951" s="18" t="n"/>
-      <c r="F951" s="18" t="n"/>
+      <c r="F951" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G951" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H951" s="18" t="n"/>
-      <c r="I951" s="13" t="n"/>
+      <c r="I951" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J951" s="13" t="n"/>
       <c r="K951" s="19" t="n"/>
-      <c r="L951" s="19" t="n"/>
+      <c r="L951" s="19" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M951" s="20" t="n"/>
       <c r="N951" s="20" t="n"/>
       <c r="O951" s="20" t="n"/>
@@ -50015,17 +50282,50 @@
       <c r="Q951" s="20" t="n"/>
     </row>
     <row r="952">
-      <c r="A952" s="18" t="n"/>
-      <c r="B952" s="18" t="n"/>
-      <c r="C952" s="18" t="n"/>
-      <c r="D952" s="18" t="n"/>
+      <c r="A952" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B952" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C952" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D952" s="18" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF를 사용하여 트래픽을 지리적으로 필터링할 때 알 수 없는(ZZ) 위치를 지정합니다. IP 주소를 지리적으로 일치시킬 수 없는 경우 합법적인 요청을 실수로 차단하지 마세요.</t>
+        </is>
+      </c>
       <c r="E952" s="18" t="n"/>
-      <c r="F952" s="18" t="n"/>
+      <c r="F952" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H952" s="18" t="n"/>
-      <c r="I952" s="13" t="n"/>
+      <c r="I952" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J952" s="13" t="n"/>
       <c r="K952" s="19" t="n"/>
-      <c r="L952" s="19" t="n"/>
+      <c r="L952" s="19" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M952" s="20" t="n"/>
       <c r="N952" s="20" t="n"/>
       <c r="O952" s="20" t="n"/>
@@ -50033,17 +50333,50 @@
       <c r="Q952" s="20" t="n"/>
     </row>
     <row r="953">
-      <c r="A953" s="18" t="n"/>
-      <c r="B953" s="18" t="n"/>
-      <c r="C953" s="18" t="n"/>
-      <c r="D953" s="18" t="n"/>
+      <c r="A953" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B953" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C953" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D953" s="18" t="inlineStr">
+        <is>
+          <t>Diagnostic Settings(진단 설정)를 켜서 로그 및 메트릭을 캡처합니다. 리소스 활동 로그, 액세스 로그, 상태 프로브 로그 및 WAF 로그를 포함합니다. 알림을 설정합니다.</t>
+        </is>
+      </c>
       <c r="E953" s="18" t="n"/>
-      <c r="F953" s="18" t="n"/>
+      <c r="F953" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H953" s="18" t="n"/>
-      <c r="I953" s="13" t="n"/>
+      <c r="I953" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J953" s="13" t="n"/>
       <c r="K953" s="19" t="n"/>
-      <c r="L953" s="19" t="n"/>
+      <c r="L953" s="19" t="inlineStr">
+        <is>
+          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
+        </is>
+      </c>
       <c r="M953" s="20" t="n"/>
       <c r="N953" s="20" t="n"/>
       <c r="O953" s="20" t="n"/>
@@ -50051,17 +50384,50 @@
       <c r="Q953" s="20" t="n"/>
     </row>
     <row r="954">
-      <c r="A954" s="18" t="n"/>
-      <c r="B954" s="18" t="n"/>
-      <c r="C954" s="18" t="n"/>
-      <c r="D954" s="18" t="n"/>
+      <c r="A954" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B954" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C954" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D954" s="18" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF 로그를 Microsoft Sentinel로 보냅니다.</t>
+        </is>
+      </c>
       <c r="E954" s="18" t="n"/>
-      <c r="F954" s="18" t="n"/>
+      <c r="F954" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G954" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H954" s="18" t="n"/>
-      <c r="I954" s="13" t="n"/>
+      <c r="I954" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J954" s="13" t="n"/>
       <c r="K954" s="19" t="n"/>
-      <c r="L954" s="19" t="n"/>
+      <c r="L954" s="19" t="inlineStr">
+        <is>
+          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
+        </is>
+      </c>
       <c r="M954" s="20" t="n"/>
       <c r="N954" s="20" t="n"/>
       <c r="O954" s="20" t="n"/>
@@ -50069,17 +50435,50 @@
       <c r="Q954" s="20" t="n"/>
     </row>
     <row r="955">
-      <c r="A955" s="18" t="n"/>
-      <c r="B955" s="18" t="n"/>
-      <c r="C955" s="18" t="n"/>
-      <c r="D955" s="18" t="n"/>
+      <c r="A955" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B955" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C955" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D955" s="18" t="inlineStr">
+        <is>
+          <t>배포 전략을 지원하는 라우팅 방법을 선택합니다. 구성된 가중치 계수에 따라 트래픽을 분산하는 가중치 방법은 액티브-액티브 모델을 지원합니다. 모든 트래픽을 수신하고 보조 지역으로 트래픽을 백업으로 보내도록 주 지역을 구성하는 우선 순위 기반 값은 활성-수동 모델을 지원합니다. 앞의 방법을 지연 시간과 결합하여 지연 시간이 가장 낮은 오리진이 트래픽을 수신하도록 합니다.</t>
+        </is>
+      </c>
       <c r="E955" s="18" t="n"/>
-      <c r="F955" s="18" t="n"/>
+      <c r="F955" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G955" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H955" s="18" t="n"/>
-      <c r="I955" s="13" t="n"/>
+      <c r="I955" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J955" s="13" t="n"/>
       <c r="K955" s="19" t="n"/>
-      <c r="L955" s="19" t="n"/>
+      <c r="L955" s="19" t="inlineStr">
+        <is>
+          <t>3bb0a854-ea3d-4212-bd8e-3f0cb7792b02</t>
+        </is>
+      </c>
       <c r="M955" s="20" t="n"/>
       <c r="N955" s="20" t="n"/>
       <c r="O955" s="20" t="n"/>
@@ -50087,17 +50486,54 @@
       <c r="Q955" s="20" t="n"/>
     </row>
     <row r="956">
-      <c r="A956" s="18" t="n"/>
-      <c r="B956" s="18" t="n"/>
-      <c r="C956" s="18" t="n"/>
-      <c r="D956" s="18" t="n"/>
+      <c r="A956" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B956" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C956" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D956" s="18" t="inlineStr">
+        <is>
+          <t>하나 이상의 백 엔드 풀에 여러 원본을 두어 중복성을 지원합니다. 항상 응용 프로그램의 중복 인스턴스를 가지고 있으며 각 인스턴스가 끝점 또는 원본을 노출하는지 확인하십시오. 이러한 원본을 하나 이상의 백 엔드 풀에 배치할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E956" s="18" t="n"/>
-      <c r="F956" s="18" t="n"/>
+      <c r="F956" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G956" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H956" s="18" t="n"/>
-      <c r="I956" s="13" t="n"/>
+      <c r="I956" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J956" s="13" t="n"/>
-      <c r="K956" s="19" t="n"/>
-      <c r="L956" s="19" t="n"/>
+      <c r="K956" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend healthprobe=tostring(properties.healthProbeSettings) | project origingroupname=name, id, tags, resourceGroup, subscriptionId, healthprobe, frontDoorId | join ( cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/Origins' | extend origingroupname = tostring(properties.originGroupName) ) on origingroupname | summarize origincount=count(), enabledhealthprobecount=countif(healthprobe != '') by origingroupname, id, tostring(tags), resourceGroup, subscriptionId, frontDoorId | extend compliant = origincount &gt; 1 | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
+      <c r="L956" s="19" t="inlineStr">
+        <is>
+          <t>c3a769e4-cc78-40a9-b36a-f9bcab19ec2d</t>
+        </is>
+      </c>
       <c r="M956" s="20" t="n"/>
       <c r="N956" s="20" t="n"/>
       <c r="O956" s="20" t="n"/>
@@ -50105,17 +50541,50 @@
       <c r="Q956" s="20" t="n"/>
     </row>
     <row r="957">
-      <c r="A957" s="18" t="n"/>
-      <c r="B957" s="18" t="n"/>
-      <c r="C957" s="18" t="n"/>
-      <c r="D957" s="18" t="n"/>
+      <c r="A957" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B957" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C957" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D957" s="18" t="inlineStr">
+        <is>
+          <t>백 엔드에 대한 요청 전달에 대한 시간 제한을 설정합니다. 엔드포인트의 필요에 따라 시간 제한 설정을 조정합니다. 그렇지 않으면 원본이 응답을 보내기 전에 Azure Front Door가 연결을 닫을 수 있습니다. 모든 원본의 시간 제한이 더 짧은 경우 Azure Front Door의 기본 시간 제한을 낮출 수도 있습니다.</t>
+        </is>
+      </c>
       <c r="E957" s="18" t="n"/>
-      <c r="F957" s="18" t="n"/>
+      <c r="F957" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H957" s="18" t="n"/>
-      <c r="I957" s="13" t="n"/>
+      <c r="I957" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J957" s="13" t="n"/>
       <c r="K957" s="19" t="n"/>
-      <c r="L957" s="19" t="n"/>
+      <c r="L957" s="19" t="inlineStr">
+        <is>
+          <t>999852be-2137-4179-8fc3-30d1df6fed1d</t>
+        </is>
+      </c>
       <c r="M957" s="20" t="n"/>
       <c r="N957" s="20" t="n"/>
       <c r="O957" s="20" t="n"/>
@@ -50123,17 +50592,50 @@
       <c r="Q957" s="20" t="n"/>
     </row>
     <row r="958">
-      <c r="A958" s="18" t="n"/>
-      <c r="B958" s="18" t="n"/>
-      <c r="C958" s="18" t="n"/>
-      <c r="D958" s="18" t="n"/>
+      <c r="A958" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B958" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C958" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D958" s="18" t="inlineStr">
+        <is>
+          <t>응용 프로그램에 세션 선호도가 필요한지 여부를 결정합니다. 높은 안정성 요구 사항이 있는 경우 세션 선호도를 사용하지 않도록 설정하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E958" s="18" t="n"/>
-      <c r="F958" s="18" t="n"/>
+      <c r="F958" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H958" s="18" t="n"/>
-      <c r="I958" s="13" t="n"/>
+      <c r="I958" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J958" s="13" t="n"/>
       <c r="K958" s="19" t="n"/>
-      <c r="L958" s="19" t="n"/>
+      <c r="L958" s="19" t="inlineStr">
+        <is>
+          <t>17bf6351-3e5e-41f1-87bb-d5ad0b4e3de6</t>
+        </is>
+      </c>
       <c r="M958" s="20" t="n"/>
       <c r="N958" s="20" t="n"/>
       <c r="O958" s="20" t="n"/>
@@ -50141,17 +50643,50 @@
       <c r="Q958" s="20" t="n"/>
     </row>
     <row r="959">
-      <c r="A959" s="18" t="n"/>
-      <c r="B959" s="18" t="n"/>
-      <c r="C959" s="18" t="n"/>
-      <c r="D959" s="18" t="n"/>
+      <c r="A959" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B959" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C959" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D959" s="18" t="inlineStr">
+        <is>
+          <t>호스트 헤더를 백 엔드로 보냅니다. 백 엔드 서비스는 해당 호스트의 트래픽만 허용하는 규칙을 만들 수 있도록 호스트 이름을 인식해야 합니다.</t>
+        </is>
+      </c>
       <c r="E959" s="18" t="n"/>
-      <c r="F959" s="18" t="n"/>
+      <c r="F959" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G959" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H959" s="18" t="n"/>
-      <c r="I959" s="13" t="n"/>
+      <c r="I959" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J959" s="13" t="n"/>
       <c r="K959" s="19" t="n"/>
-      <c r="L959" s="19" t="n"/>
+      <c r="L959" s="19" t="inlineStr">
+        <is>
+          <t>425bfb31-94c4-4007-b9ae-46da9fe57cc7</t>
+        </is>
+      </c>
       <c r="M959" s="20" t="n"/>
       <c r="N959" s="20" t="n"/>
       <c r="O959" s="20" t="n"/>
@@ -50159,17 +50694,50 @@
       <c r="Q959" s="20" t="n"/>
     </row>
     <row r="960">
-      <c r="A960" s="18" t="n"/>
-      <c r="B960" s="18" t="n"/>
-      <c r="C960" s="18" t="n"/>
-      <c r="D960" s="18" t="n"/>
+      <c r="A960" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B960" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C960" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D960" s="18" t="inlineStr">
+        <is>
+          <t>캐싱을 지원하는 엔드포인트에 대해 캐싱을 사용합니다.</t>
+        </is>
+      </c>
       <c r="E960" s="18" t="n"/>
-      <c r="F960" s="18" t="n"/>
+      <c r="F960" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G960" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H960" s="18" t="n"/>
-      <c r="I960" s="13" t="n"/>
+      <c r="I960" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J960" s="13" t="n"/>
       <c r="K960" s="19" t="n"/>
-      <c r="L960" s="19" t="n"/>
+      <c r="L960" s="19" t="inlineStr">
+        <is>
+          <t>81a5398a-2414-450f-9fc3-e048bc65784c</t>
+        </is>
+      </c>
       <c r="M960" s="20" t="n"/>
       <c r="N960" s="20" t="n"/>
       <c r="O960" s="20" t="n"/>
@@ -50177,17 +50745,54 @@
       <c r="Q960" s="20" t="n"/>
     </row>
     <row r="961">
-      <c r="A961" s="18" t="n"/>
-      <c r="B961" s="18" t="n"/>
-      <c r="C961" s="18" t="n"/>
-      <c r="D961" s="18" t="n"/>
+      <c r="A961" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B961" s="18" t="inlineStr">
+        <is>
+          <t>비용</t>
+        </is>
+      </c>
+      <c r="C961" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D961" s="18" t="inlineStr">
+        <is>
+          <t>단일 백 엔드 풀에서 상태 검사를 사용하지 않도록 설정합니다. Azure Front Door 원본 그룹에 원본이 하나만 구성된 경우 이러한 호출이 필요하지 않습니다. 이는 엔드포인트에 여러 원본을 가질 수 없는 경우에만 권장됩니다.</t>
+        </is>
+      </c>
       <c r="E961" s="18" t="n"/>
-      <c r="F961" s="18" t="n"/>
+      <c r="F961" s="18" t="inlineStr">
+        <is>
+          <t>낮다</t>
+        </is>
+      </c>
+      <c r="G961" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H961" s="18" t="n"/>
-      <c r="I961" s="13" t="n"/>
+      <c r="I961" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J961" s="13" t="n"/>
-      <c r="K961" s="19" t="n"/>
-      <c r="L961" s="19" t="n"/>
+      <c r="K961" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend healthprobe=tostring(properties.healthProbeSettings) | project origingroupname=name, id, tags, resourceGroup, subscriptionId, healthprobe, frontDoorId | join ( cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/Origins' | extend origingroupname = tostring(properties.originGroupName) ) on origingroupname | summarize origincount=count(), enabledhealthprobecount=countif(healthprobe != '') by origingroupname, id, tostring(tags), resourceGroup, subscriptionId, frontDoorId | extend compliant = origincount &gt; 1 or (origincount == 1 and enabledhealthprobecount == 0) | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
+      <c r="L961" s="19" t="inlineStr">
+        <is>
+          <t>34069d73-e4de-46c5-a36f-625f87575a56</t>
+        </is>
+      </c>
       <c r="M961" s="20" t="n"/>
       <c r="N961" s="20" t="n"/>
       <c r="O961" s="20" t="n"/>
@@ -50195,17 +50800,50 @@
       <c r="Q961" s="20" t="n"/>
     </row>
     <row r="962">
-      <c r="A962" s="18" t="n"/>
-      <c r="B962" s="18" t="n"/>
-      <c r="C962" s="18" t="n"/>
-      <c r="D962" s="18" t="n"/>
+      <c r="A962" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B962" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C962" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D962" s="18" t="inlineStr">
+        <is>
+          <t>보안 보고서를 활용하기 위해 프리미엄 계층을 사용하는 것이 좋지만 표준 Azure Front Door 프로필은 기본 제공 분석/보고서에서 트래픽 보고서만 제공합니다.</t>
+        </is>
+      </c>
       <c r="E962" s="18" t="n"/>
-      <c r="F962" s="18" t="n"/>
+      <c r="F962" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H962" s="18" t="n"/>
-      <c r="I962" s="13" t="n"/>
+      <c r="I962" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J962" s="13" t="n"/>
       <c r="K962" s="19" t="n"/>
-      <c r="L962" s="19" t="n"/>
+      <c r="L962" s="19" t="inlineStr">
+        <is>
+          <t>c92d6786-cdd1-444d-9cad-934a192a276a</t>
+        </is>
+      </c>
       <c r="M962" s="20" t="n"/>
       <c r="N962" s="20" t="n"/>
       <c r="O962" s="20" t="n"/>
@@ -50213,17 +50851,50 @@
       <c r="Q962" s="20" t="n"/>
     </row>
     <row r="963">
-      <c r="A963" s="18" t="n"/>
-      <c r="B963" s="18" t="n"/>
-      <c r="C963" s="18" t="n"/>
-      <c r="D963" s="18" t="n"/>
+      <c r="A963" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B963" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C963" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D963" s="18" t="inlineStr">
+        <is>
+          <t>가능한 경우 와일드카드 TLS 인증서를 사용합니다.</t>
+        </is>
+      </c>
       <c r="E963" s="18" t="n"/>
-      <c r="F963" s="18" t="n"/>
+      <c r="F963" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H963" s="18" t="n"/>
-      <c r="I963" s="13" t="n"/>
+      <c r="I963" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J963" s="13" t="n"/>
       <c r="K963" s="19" t="n"/>
-      <c r="L963" s="19" t="n"/>
+      <c r="L963" s="19" t="inlineStr">
+        <is>
+          <t>440cf7de-30a1-4550-ab50-c9f6eac140cd</t>
+        </is>
+      </c>
       <c r="M963" s="20" t="n"/>
       <c r="N963" s="20" t="n"/>
       <c r="O963" s="20" t="n"/>
@@ -50231,17 +50902,50 @@
       <c r="Q963" s="20" t="n"/>
     </row>
     <row r="964">
-      <c r="A964" s="18" t="n"/>
-      <c r="B964" s="18" t="n"/>
-      <c r="C964" s="18" t="n"/>
-      <c r="D964" s="18" t="n"/>
+      <c r="A964" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B964" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C964" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D964" s="18" t="inlineStr">
+        <is>
+          <t>캐싱을 위해 응용 프로그램 쿼리 문자열을 최적화합니다. 순전히 정적인 콘텐츠의 경우 쿼리 문자열을 무시하여 캐시 사용을 최대화합니다. 응용 프로그램에서 쿼리 문자열을 사용하는 경우 캐시 키에 포함하는 것이 좋습니다. 캐시 키에 쿼리 문자열을 포함하면 Azure Front Door가 구성에 따라 캐시된 응답 또는 기타 응답을 제공할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="E964" s="18" t="n"/>
-      <c r="F964" s="18" t="n"/>
+      <c r="F964" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G964" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H964" s="18" t="n"/>
-      <c r="I964" s="13" t="n"/>
+      <c r="I964" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J964" s="13" t="n"/>
       <c r="K964" s="19" t="n"/>
-      <c r="L964" s="19" t="n"/>
+      <c r="L964" s="19" t="inlineStr">
+        <is>
+          <t>556e2733-6ca9-4edd-9cc7-26de66d46c2e</t>
+        </is>
+      </c>
       <c r="M964" s="20" t="n"/>
       <c r="N964" s="20" t="n"/>
       <c r="O964" s="20" t="n"/>
@@ -50249,17 +50953,50 @@
       <c r="Q964" s="20" t="n"/>
     </row>
     <row r="965">
-      <c r="A965" s="18" t="n"/>
-      <c r="B965" s="18" t="n"/>
-      <c r="C965" s="18" t="n"/>
-      <c r="D965" s="18" t="n"/>
+      <c r="A965" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B965" s="18" t="inlineStr">
+        <is>
+          <t>공연</t>
+        </is>
+      </c>
+      <c r="C965" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D965" s="18" t="inlineStr">
+        <is>
+          <t>다운로드 가능한 콘텐츠에 액세스할 때 파일 압축을 사용합니다.</t>
+        </is>
+      </c>
       <c r="E965" s="18" t="n"/>
-      <c r="F965" s="18" t="n"/>
+      <c r="F965" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G965" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H965" s="18" t="n"/>
-      <c r="I965" s="13" t="n"/>
+      <c r="I965" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J965" s="13" t="n"/>
       <c r="K965" s="19" t="n"/>
-      <c r="L965" s="19" t="n"/>
+      <c r="L965" s="19" t="inlineStr">
+        <is>
+          <t>c0b7e55e-fcab-4e66-bdae-bd0290f6aece</t>
+        </is>
+      </c>
       <c r="M965" s="20" t="n"/>
       <c r="N965" s="20" t="n"/>
       <c r="O965" s="20" t="n"/>
@@ -50267,17 +51004,54 @@
       <c r="Q965" s="20" t="n"/>
     </row>
     <row r="966">
-      <c r="A966" s="18" t="n"/>
-      <c r="B966" s="18" t="n"/>
-      <c r="C966" s="18" t="n"/>
-      <c r="D966" s="18" t="n"/>
+      <c r="A966" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B966" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C966" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D966" s="18" t="inlineStr">
+        <is>
+          <t>클래식 Azure Front Door는 2027년 3월까지 더 이상 사용되지 않으므로 현재 클래식 Azure Front Door를 사용하는 경우 표준 또는 프리미엄 SKU로 마이그레이션하는 것이 좋습니다.</t>
+        </is>
+      </c>
       <c r="E966" s="18" t="n"/>
-      <c r="F966" s="18" t="n"/>
+      <c r="F966" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G966" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H966" s="18" t="n"/>
-      <c r="I966" s="13" t="n"/>
+      <c r="I966" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J966" s="13" t="n"/>
-      <c r="K966" s="19" t="n"/>
-      <c r="L966" s="19" t="n"/>
+      <c r="K966" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/frontdoors' and properties['resourceState'] !~ 'migrated' | extend compliant = false | project id, compliant</t>
+        </is>
+      </c>
+      <c r="L966" s="19" t="inlineStr">
+        <is>
+          <t>cb8eb8c0-aa73-4a26-a495-6eba8dc4a243</t>
+        </is>
+      </c>
       <c r="M966" s="20" t="n"/>
       <c r="N966" s="20" t="n"/>
       <c r="O966" s="20" t="n"/>
@@ -50285,17 +51059,50 @@
       <c r="Q966" s="20" t="n"/>
     </row>
     <row r="967">
-      <c r="A967" s="18" t="n"/>
-      <c r="B967" s="18" t="n"/>
-      <c r="C967" s="18" t="n"/>
-      <c r="D967" s="18" t="n"/>
+      <c r="A967" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B967" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C967" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D967" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">중요 업무용 고가용성 시나리오의 경우 Traffic Manager 부하 분산 Azure Front Door 및 타사 CDN 공급자 CDN 프로필을 사용하는 것이 좋습니다. </t>
+        </is>
+      </c>
       <c r="E967" s="18" t="n"/>
-      <c r="F967" s="18" t="n"/>
+      <c r="F967" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G967" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H967" s="18" t="n"/>
-      <c r="I967" s="13" t="n"/>
+      <c r="I967" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J967" s="13" t="n"/>
       <c r="K967" s="19" t="n"/>
-      <c r="L967" s="19" t="n"/>
+      <c r="L967" s="19" t="inlineStr">
+        <is>
+          <t>67c33697-15b1-4752-aeee-0b9b588defc4</t>
+        </is>
+      </c>
       <c r="M967" s="20" t="n"/>
       <c r="N967" s="20" t="n"/>
       <c r="O967" s="20" t="n"/>
@@ -50303,17 +51110,50 @@
       <c r="Q967" s="20" t="n"/>
     </row>
     <row r="968">
-      <c r="A968" s="18" t="n"/>
-      <c r="B968" s="18" t="n"/>
-      <c r="C968" s="18" t="n"/>
-      <c r="D968" s="18" t="n"/>
+      <c r="A968" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B968" s="18" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C968" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D968" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">원본과 함께 Front Door를 App Services로 사용하는 경우 액세스 제한을 사용하여 Azure Front Door를 통해서만 앱 서비스에 대한 트래픽을 잠그는 것이 좋습니다. </t>
+        </is>
+      </c>
       <c r="E968" s="18" t="n"/>
-      <c r="F968" s="18" t="n"/>
+      <c r="F968" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G968" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H968" s="18" t="n"/>
-      <c r="I968" s="13" t="n"/>
+      <c r="I968" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J968" s="13" t="n"/>
       <c r="K968" s="19" t="n"/>
-      <c r="L968" s="19" t="n"/>
+      <c r="L968" s="19" t="inlineStr">
+        <is>
+          <t>972cd4cd-25b0-4b70-96e9-eab4bfd32907</t>
+        </is>
+      </c>
       <c r="M968" s="20" t="n"/>
       <c r="N968" s="20" t="n"/>
       <c r="O968" s="20" t="n"/>
@@ -50321,17 +51161,50 @@
       <c r="Q968" s="20" t="n"/>
     </row>
     <row r="969">
-      <c r="A969" s="18" t="n"/>
-      <c r="B969" s="18" t="n"/>
-      <c r="C969" s="18" t="n"/>
-      <c r="D969" s="18" t="n"/>
+      <c r="A969" s="18" t="inlineStr">
+        <is>
+          <t>Azure Function Review</t>
+        </is>
+      </c>
+      <c r="B969" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C969" s="18" t="inlineStr">
+        <is>
+          <t>Azure Functions</t>
+        </is>
+      </c>
+      <c r="D969" s="18" t="inlineStr">
+        <is>
+          <t>비즈니스 및 SLO 요구 사항에 따라 올바른 기능 호스팅 계획을 선택하십시오.</t>
+        </is>
+      </c>
       <c r="E969" s="18" t="n"/>
-      <c r="F969" s="18" t="n"/>
+      <c r="F969" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G969" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H969" s="18" t="n"/>
-      <c r="I969" s="13" t="n"/>
+      <c r="I969" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J969" s="13" t="n"/>
       <c r="K969" s="19" t="n"/>
-      <c r="L969" s="19" t="n"/>
+      <c r="L969" s="19" t="inlineStr">
+        <is>
+          <t>4238f409-2ea0-43be-a06b-2a993c98aa7b</t>
+        </is>
+      </c>
       <c r="M969" s="20" t="n"/>
       <c r="N969" s="20" t="n"/>
       <c r="O969" s="20" t="n"/>
@@ -50339,17 +51212,50 @@
       <c r="Q969" s="20" t="n"/>
     </row>
     <row r="970">
-      <c r="A970" s="18" t="n"/>
-      <c r="B970" s="18" t="n"/>
-      <c r="C970" s="18" t="n"/>
-      <c r="D970" s="18" t="n"/>
+      <c r="A970" s="18" t="inlineStr">
+        <is>
+          <t>Azure Function Review</t>
+        </is>
+      </c>
+      <c r="B970" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C970" s="18" t="inlineStr">
+        <is>
+          <t>Azure Functions</t>
+        </is>
+      </c>
+      <c r="D970" s="18" t="inlineStr">
+        <is>
+          <t>지역적으로 적용 가능한 가용성 영역 활용(소비 계층에는 사용할 수 없음)</t>
+        </is>
+      </c>
       <c r="E970" s="18" t="n"/>
-      <c r="F970" s="18" t="n"/>
+      <c r="F970" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G970" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H970" s="18" t="n"/>
-      <c r="I970" s="13" t="n"/>
+      <c r="I970" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J970" s="13" t="n"/>
       <c r="K970" s="19" t="n"/>
-      <c r="L970" s="19" t="n"/>
+      <c r="L970" s="19" t="inlineStr">
+        <is>
+          <t>a9808100-d640-4f77-ac56-1ec0600f6752</t>
+        </is>
+      </c>
       <c r="M970" s="20" t="n"/>
       <c r="N970" s="20" t="n"/>
       <c r="O970" s="20" t="n"/>
@@ -50357,17 +51263,50 @@
       <c r="Q970" s="20" t="n"/>
     </row>
     <row r="971">
-      <c r="A971" s="18" t="n"/>
-      <c r="B971" s="18" t="n"/>
-      <c r="C971" s="18" t="n"/>
-      <c r="D971" s="18" t="n"/>
+      <c r="A971" s="18" t="inlineStr">
+        <is>
+          <t>Azure Function Review</t>
+        </is>
+      </c>
+      <c r="B971" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C971" s="18" t="inlineStr">
+        <is>
+          <t>Azure Functions</t>
+        </is>
+      </c>
+      <c r="D971" s="18" t="inlineStr">
+        <is>
+          <t>중요한 워크로드에 대한 지역 간 DR 전략 고려</t>
+        </is>
+      </c>
       <c r="E971" s="18" t="n"/>
-      <c r="F971" s="18" t="n"/>
+      <c r="F971" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G971" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H971" s="18" t="n"/>
-      <c r="I971" s="13" t="n"/>
+      <c r="I971" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J971" s="13" t="n"/>
       <c r="K971" s="19" t="n"/>
-      <c r="L971" s="19" t="n"/>
+      <c r="L971" s="19" t="inlineStr">
+        <is>
+          <t>5969d03e-eacf-4042-b127-73c55e3575fa</t>
+        </is>
+      </c>
       <c r="M971" s="20" t="n"/>
       <c r="N971" s="20" t="n"/>
       <c r="O971" s="20" t="n"/>
@@ -50375,17 +51314,50 @@
       <c r="Q971" s="20" t="n"/>
     </row>
     <row r="972">
-      <c r="A972" s="18" t="n"/>
-      <c r="B972" s="18" t="n"/>
-      <c r="C972" s="18" t="n"/>
-      <c r="D972" s="18" t="n"/>
+      <c r="A972" s="18" t="inlineStr">
+        <is>
+          <t>Azure Function Review</t>
+        </is>
+      </c>
+      <c r="B972" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C972" s="18" t="inlineStr">
+        <is>
+          <t>Azure Functions</t>
+        </is>
+      </c>
+      <c r="D972" s="18" t="inlineStr">
+        <is>
+          <t>격리된 환경에 배포하는 경우 ASE(App Service Environment) v3을 사용하거나 마이그레이션합니다</t>
+        </is>
+      </c>
       <c r="E972" s="18" t="n"/>
-      <c r="F972" s="18" t="n"/>
+      <c r="F972" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G972" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H972" s="18" t="n"/>
-      <c r="I972" s="13" t="n"/>
+      <c r="I972" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J972" s="13" t="n"/>
       <c r="K972" s="19" t="n"/>
-      <c r="L972" s="19" t="n"/>
+      <c r="L972" s="19" t="inlineStr">
+        <is>
+          <t>47a0aae0-d8a0-43b1-9791-e934dee3754c</t>
+        </is>
+      </c>
       <c r="M972" s="20" t="n"/>
       <c r="N972" s="20" t="n"/>
       <c r="O972" s="20" t="n"/>
@@ -50393,17 +51365,50 @@
       <c r="Q972" s="20" t="n"/>
     </row>
     <row r="973">
-      <c r="A973" s="18" t="n"/>
-      <c r="B973" s="18" t="n"/>
-      <c r="C973" s="18" t="n"/>
-      <c r="D973" s="18" t="n"/>
+      <c r="A973" s="18" t="inlineStr">
+        <is>
+          <t>Azure Function Review</t>
+        </is>
+      </c>
+      <c r="B973" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C973" s="18" t="inlineStr">
+        <is>
+          <t>Azure Functions</t>
+        </is>
+      </c>
+      <c r="D973" s="18" t="inlineStr">
+        <is>
+          <t>App Service 계획에서 실행되는 모든 함수 앱에 대해 'Always On'이 사용하도록 설정되어 있는지 확인합니다.</t>
+        </is>
+      </c>
       <c r="E973" s="18" t="n"/>
-      <c r="F973" s="18" t="n"/>
+      <c r="F973" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H973" s="18" t="n"/>
-      <c r="I973" s="13" t="n"/>
+      <c r="I973" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J973" s="13" t="n"/>
       <c r="K973" s="19" t="n"/>
-      <c r="L973" s="19" t="n"/>
+      <c r="L973" s="19" t="inlineStr">
+        <is>
+          <t>17232891-f89f-4eaa-90f1-3b34bf798ed5</t>
+        </is>
+      </c>
       <c r="M973" s="20" t="n"/>
       <c r="N973" s="20" t="n"/>
       <c r="O973" s="20" t="n"/>
@@ -50411,17 +51416,50 @@
       <c r="Q973" s="20" t="n"/>
     </row>
     <row r="974">
-      <c r="A974" s="18" t="n"/>
-      <c r="B974" s="18" t="n"/>
-      <c r="C974" s="18" t="n"/>
-      <c r="D974" s="18" t="n"/>
+      <c r="A974" s="18" t="inlineStr">
+        <is>
+          <t>Azure Function Review</t>
+        </is>
+      </c>
+      <c r="B974" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C974" s="18" t="inlineStr">
+        <is>
+          <t>Azure Functions</t>
+        </is>
+      </c>
+      <c r="D974" s="18" t="inlineStr">
+        <is>
+          <t>함수 앱을 자체 스토리지 계정에 페어링합니다. 긴밀하게 결합되지 않는 한 함수 앱에 대한 스토리지 계정을 다시 사용하지 마세요</t>
+        </is>
+      </c>
       <c r="E974" s="18" t="n"/>
-      <c r="F974" s="18" t="n"/>
+      <c r="F974" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G974" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H974" s="18" t="n"/>
-      <c r="I974" s="13" t="n"/>
+      <c r="I974" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J974" s="13" t="n"/>
       <c r="K974" s="19" t="n"/>
-      <c r="L974" s="19" t="n"/>
+      <c r="L974" s="19" t="inlineStr">
+        <is>
+          <t>40a325c2-7c0e-49e6-86d8-c273b4dc21ba</t>
+        </is>
+      </c>
       <c r="M974" s="20" t="n"/>
       <c r="N974" s="20" t="n"/>
       <c r="O974" s="20" t="n"/>
@@ -50429,17 +51467,50 @@
       <c r="Q974" s="20" t="n"/>
     </row>
     <row r="975">
-      <c r="A975" s="18" t="n"/>
-      <c r="B975" s="18" t="n"/>
-      <c r="C975" s="18" t="n"/>
-      <c r="D975" s="18" t="n"/>
+      <c r="A975" s="18" t="inlineStr">
+        <is>
+          <t>Azure Function Review</t>
+        </is>
+      </c>
+      <c r="B975" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C975" s="18" t="inlineStr">
+        <is>
+          <t>Azure Functions</t>
+        </is>
+      </c>
+      <c r="D975" s="18" t="inlineStr">
+        <is>
+          <t>Azure DevOps 또는 GitHub를 활용하여 CI/CD를 간소화하고 함수 앱 코드를 보호합니다.</t>
+        </is>
+      </c>
       <c r="E975" s="18" t="n"/>
-      <c r="F975" s="18" t="n"/>
+      <c r="F975" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G975" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H975" s="18" t="n"/>
-      <c r="I975" s="13" t="n"/>
+      <c r="I975" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J975" s="13" t="n"/>
       <c r="K975" s="19" t="n"/>
-      <c r="L975" s="19" t="n"/>
+      <c r="L975" s="19" t="inlineStr">
+        <is>
+          <t>bb42650c-257d-4cb0-822a-131138b8e6f0</t>
+        </is>
+      </c>
       <c r="M975" s="20" t="n"/>
       <c r="N975" s="20" t="n"/>
       <c r="O975" s="20" t="n"/>
@@ -50447,17 +51518,50 @@
       <c r="Q975" s="20" t="n"/>
     </row>
     <row r="976">
-      <c r="A976" s="18" t="n"/>
-      <c r="B976" s="18" t="n"/>
-      <c r="C976" s="18" t="n"/>
-      <c r="D976" s="18" t="n"/>
+      <c r="A976" s="18" t="inlineStr">
+        <is>
+          <t>Logic Apps checklist</t>
+        </is>
+      </c>
+      <c r="B976" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C976" s="18" t="inlineStr">
+        <is>
+          <t>Logic Apps</t>
+        </is>
+      </c>
+      <c r="D976" s="18" t="inlineStr">
+        <is>
+          <t>비즈니스 및 SLO 요구 사항에 따라 올바른 Logic App 호스팅 계획 선택Select the right Logic App hosting plan based on your business &amp; SLO requirements</t>
+        </is>
+      </c>
       <c r="E976" s="18" t="n"/>
-      <c r="F976" s="18" t="n"/>
+      <c r="F976" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H976" s="18" t="n"/>
-      <c r="I976" s="13" t="n"/>
+      <c r="I976" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J976" s="13" t="n"/>
       <c r="K976" s="19" t="n"/>
-      <c r="L976" s="19" t="n"/>
+      <c r="L976" s="19" t="inlineStr">
+        <is>
+          <t>3b7a56de-5020-4642-b3cb-c976e80b6d6d</t>
+        </is>
+      </c>
       <c r="M976" s="20" t="n"/>
       <c r="N976" s="20" t="n"/>
       <c r="O976" s="20" t="n"/>
@@ -50465,17 +51569,50 @@
       <c r="Q976" s="20" t="n"/>
     </row>
     <row r="977">
-      <c r="A977" s="18" t="n"/>
-      <c r="B977" s="18" t="n"/>
-      <c r="C977" s="18" t="n"/>
-      <c r="D977" s="18" t="n"/>
+      <c r="A977" s="18" t="inlineStr">
+        <is>
+          <t>Logic Apps checklist</t>
+        </is>
+      </c>
+      <c r="B977" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C977" s="18" t="inlineStr">
+        <is>
+          <t>Logic Apps</t>
+        </is>
+      </c>
+      <c r="D977" s="18" t="inlineStr">
+        <is>
+          <t>영역 중복 및 가용성 영역을 사용하여 지역 오류로부터 논리 앱 보호Protect logic apps from region failures with zone redundancy and availability zones</t>
+        </is>
+      </c>
       <c r="E977" s="18" t="n"/>
-      <c r="F977" s="18" t="n"/>
+      <c r="F977" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G977" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H977" s="18" t="n"/>
-      <c r="I977" s="13" t="n"/>
+      <c r="I977" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J977" s="13" t="n"/>
       <c r="K977" s="19" t="n"/>
-      <c r="L977" s="19" t="n"/>
+      <c r="L977" s="19" t="inlineStr">
+        <is>
+          <t>3d7008bd-6bc1-4b03-8aa8-ec2a3b55786a</t>
+        </is>
+      </c>
       <c r="M977" s="20" t="n"/>
       <c r="N977" s="20" t="n"/>
       <c r="O977" s="20" t="n"/>
@@ -50483,17 +51620,50 @@
       <c r="Q977" s="20" t="n"/>
     </row>
     <row r="978">
-      <c r="A978" s="18" t="n"/>
-      <c r="B978" s="18" t="n"/>
-      <c r="C978" s="18" t="n"/>
-      <c r="D978" s="18" t="n"/>
+      <c r="A978" s="18" t="inlineStr">
+        <is>
+          <t>Logic Apps checklist</t>
+        </is>
+      </c>
+      <c r="B978" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C978" s="18" t="inlineStr">
+        <is>
+          <t>Logic Apps</t>
+        </is>
+      </c>
+      <c r="D978" s="18" t="inlineStr">
+        <is>
+          <t>중요한 워크로드에 대한 지역 간 DR 전략 고려</t>
+        </is>
+      </c>
       <c r="E978" s="18" t="n"/>
-      <c r="F978" s="18" t="n"/>
+      <c r="F978" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H978" s="18" t="n"/>
-      <c r="I978" s="13" t="n"/>
+      <c r="I978" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J978" s="13" t="n"/>
       <c r="K978" s="19" t="n"/>
-      <c r="L978" s="19" t="n"/>
+      <c r="L978" s="19" t="inlineStr">
+        <is>
+          <t>1cda768f-a206-445d-8234-56f6a6e7286e</t>
+        </is>
+      </c>
       <c r="M978" s="20" t="n"/>
       <c r="N978" s="20" t="n"/>
       <c r="O978" s="20" t="n"/>
@@ -50501,17 +51671,50 @@
       <c r="Q978" s="20" t="n"/>
     </row>
     <row r="979">
-      <c r="A979" s="18" t="n"/>
-      <c r="B979" s="18" t="n"/>
-      <c r="C979" s="18" t="n"/>
-      <c r="D979" s="18" t="n"/>
+      <c r="A979" s="18" t="inlineStr">
+        <is>
+          <t>Logic Apps checklist</t>
+        </is>
+      </c>
+      <c r="B979" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C979" s="18" t="inlineStr">
+        <is>
+          <t>Logic Apps</t>
+        </is>
+      </c>
+      <c r="D979" s="18" t="inlineStr">
+        <is>
+          <t>격리된 환경에 배포하는 경우 ASE(App Service Environment) v3을 사용하거나 마이그레이션합니다</t>
+        </is>
+      </c>
       <c r="E979" s="18" t="n"/>
-      <c r="F979" s="18" t="n"/>
+      <c r="F979" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H979" s="18" t="n"/>
-      <c r="I979" s="13" t="n"/>
+      <c r="I979" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J979" s="13" t="n"/>
       <c r="K979" s="19" t="n"/>
-      <c r="L979" s="19" t="n"/>
+      <c r="L979" s="19" t="inlineStr">
+        <is>
+          <t>82118ec5-ed6f-4c68-9471-eb0da98a1b34</t>
+        </is>
+      </c>
       <c r="M979" s="20" t="n"/>
       <c r="N979" s="20" t="n"/>
       <c r="O979" s="20" t="n"/>
@@ -50519,17 +51722,50 @@
       <c r="Q979" s="20" t="n"/>
     </row>
     <row r="980">
-      <c r="A980" s="18" t="n"/>
-      <c r="B980" s="18" t="n"/>
-      <c r="C980" s="18" t="n"/>
-      <c r="D980" s="18" t="n"/>
+      <c r="A980" s="18" t="inlineStr">
+        <is>
+          <t>Logic Apps checklist</t>
+        </is>
+      </c>
+      <c r="B980" s="18" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="C980" s="18" t="inlineStr">
+        <is>
+          <t>Logic Apps</t>
+        </is>
+      </c>
+      <c r="D980" s="18" t="inlineStr">
+        <is>
+          <t>Azure DevOps 또는 GitHub를 활용하여 CI/CD를 간소화하고 논리 앱 코드를 보호합니다.</t>
+        </is>
+      </c>
       <c r="E980" s="18" t="n"/>
-      <c r="F980" s="18" t="n"/>
+      <c r="F980" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G980" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H980" s="18" t="n"/>
-      <c r="I980" s="13" t="n"/>
+      <c r="I980" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J980" s="13" t="n"/>
       <c r="K980" s="19" t="n"/>
-      <c r="L980" s="19" t="n"/>
+      <c r="L980" s="19" t="inlineStr">
+        <is>
+          <t>74275fa5-9e08-4c7e-b096-13b538fe1501</t>
+        </is>
+      </c>
       <c r="M980" s="20" t="n"/>
       <c r="N980" s="20" t="n"/>
       <c r="O980" s="20" t="n"/>
@@ -50537,17 +51773,50 @@
       <c r="Q980" s="20" t="n"/>
     </row>
     <row r="981">
-      <c r="A981" s="18" t="n"/>
-      <c r="B981" s="18" t="n"/>
-      <c r="C981" s="18" t="n"/>
-      <c r="D981" s="18" t="n"/>
+      <c r="A981" s="18" t="inlineStr">
+        <is>
+          <t>MySQL Review Checklist</t>
+        </is>
+      </c>
+      <c r="B981" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C981" s="18" t="inlineStr">
+        <is>
+          <t>Azure MySQL</t>
+        </is>
+      </c>
+      <c r="D981" s="18" t="inlineStr">
+        <is>
+          <t>유연한 서버 활용</t>
+        </is>
+      </c>
       <c r="E981" s="18" t="n"/>
-      <c r="F981" s="18" t="n"/>
+      <c r="F981" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G981" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H981" s="18" t="n"/>
-      <c r="I981" s="13" t="n"/>
+      <c r="I981" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J981" s="13" t="n"/>
       <c r="K981" s="19" t="n"/>
-      <c r="L981" s="19" t="n"/>
+      <c r="L981" s="19" t="inlineStr">
+        <is>
+          <t>388c3e25-e800-4ad2-9df3-f3d6ae1050b7</t>
+        </is>
+      </c>
       <c r="M981" s="20" t="n"/>
       <c r="N981" s="20" t="n"/>
       <c r="O981" s="20" t="n"/>
@@ -50555,17 +51824,50 @@
       <c r="Q981" s="20" t="n"/>
     </row>
     <row r="982">
-      <c r="A982" s="18" t="n"/>
-      <c r="B982" s="18" t="n"/>
-      <c r="C982" s="18" t="n"/>
-      <c r="D982" s="18" t="n"/>
+      <c r="A982" s="18" t="inlineStr">
+        <is>
+          <t>MySQL Review Checklist</t>
+        </is>
+      </c>
+      <c r="B982" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C982" s="18" t="inlineStr">
+        <is>
+          <t>Azure MySQL</t>
+        </is>
+      </c>
+      <c r="D982" s="18" t="inlineStr">
+        <is>
+          <t>지역적으로 적용 가능한 경우 가용 영역 활용Leverage Availability Zones where regionally applicable</t>
+        </is>
+      </c>
       <c r="E982" s="18" t="n"/>
-      <c r="F982" s="18" t="n"/>
+      <c r="F982" s="18" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="G982" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H982" s="18" t="n"/>
-      <c r="I982" s="13" t="n"/>
+      <c r="I982" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J982" s="13" t="n"/>
       <c r="K982" s="19" t="n"/>
-      <c r="L982" s="19" t="n"/>
+      <c r="L982" s="19" t="inlineStr">
+        <is>
+          <t>de3aad1e-8c38-4ec9-9666-7313c005674b</t>
+        </is>
+      </c>
       <c r="M982" s="20" t="n"/>
       <c r="N982" s="20" t="n"/>
       <c r="O982" s="20" t="n"/>
@@ -50573,17 +51875,50 @@
       <c r="Q982" s="20" t="n"/>
     </row>
     <row r="983">
-      <c r="A983" s="18" t="n"/>
-      <c r="B983" s="18" t="n"/>
-      <c r="C983" s="18" t="n"/>
-      <c r="D983" s="18" t="n"/>
+      <c r="A983" s="18" t="inlineStr">
+        <is>
+          <t>MySQL Review Checklist</t>
+        </is>
+      </c>
+      <c r="B983" s="18" t="inlineStr">
+        <is>
+          <t>신뢰도</t>
+        </is>
+      </c>
+      <c r="C983" s="18" t="inlineStr">
+        <is>
+          <t>Azure MySQL</t>
+        </is>
+      </c>
+      <c r="D983" s="18" t="inlineStr">
+        <is>
+          <t>지역 간 DR 시나리오에 입력 데이터 복제 활용</t>
+        </is>
+      </c>
       <c r="E983" s="18" t="n"/>
-      <c r="F983" s="18" t="n"/>
+      <c r="F983" s="18" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="G983" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="H983" s="18" t="n"/>
-      <c r="I983" s="13" t="n"/>
+      <c r="I983" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J983" s="13" t="n"/>
       <c r="K983" s="19" t="n"/>
-      <c r="L983" s="19" t="n"/>
+      <c r="L983" s="19" t="inlineStr">
+        <is>
+          <t>1e944a45-9c37-43e7-bd61-623b365a917e</t>
+        </is>
+      </c>
       <c r="M983" s="20" t="n"/>
       <c r="N983" s="20" t="n"/>
       <c r="O983" s="20" t="n"/>
@@ -54731,7 +56066,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G945" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G984" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -55559,6 +56894,45 @@
     <hyperlink ref="I942" r:id="rId821"/>
     <hyperlink ref="I943" r:id="rId822"/>
     <hyperlink ref="I944" r:id="rId823"/>
+    <hyperlink ref="I945" r:id="rId824"/>
+    <hyperlink ref="I946" r:id="rId825"/>
+    <hyperlink ref="I947" r:id="rId826"/>
+    <hyperlink ref="I948" r:id="rId827"/>
+    <hyperlink ref="I949" r:id="rId828"/>
+    <hyperlink ref="I950" r:id="rId829"/>
+    <hyperlink ref="I951" r:id="rId830"/>
+    <hyperlink ref="I952" r:id="rId831"/>
+    <hyperlink ref="I953" r:id="rId832"/>
+    <hyperlink ref="I954" r:id="rId833"/>
+    <hyperlink ref="I955" r:id="rId834"/>
+    <hyperlink ref="I956" r:id="rId835"/>
+    <hyperlink ref="I957" r:id="rId836"/>
+    <hyperlink ref="I958" r:id="rId837"/>
+    <hyperlink ref="I959" r:id="rId838"/>
+    <hyperlink ref="I960" r:id="rId839"/>
+    <hyperlink ref="I961" r:id="rId840"/>
+    <hyperlink ref="I962" r:id="rId841"/>
+    <hyperlink ref="I963" r:id="rId842"/>
+    <hyperlink ref="I964" r:id="rId843"/>
+    <hyperlink ref="I965" r:id="rId844"/>
+    <hyperlink ref="I966" r:id="rId845"/>
+    <hyperlink ref="I967" r:id="rId846"/>
+    <hyperlink ref="I968" r:id="rId847"/>
+    <hyperlink ref="I969" r:id="rId848"/>
+    <hyperlink ref="I970" r:id="rId849"/>
+    <hyperlink ref="I971" r:id="rId850"/>
+    <hyperlink ref="I972" r:id="rId851"/>
+    <hyperlink ref="I973" r:id="rId852"/>
+    <hyperlink ref="I974" r:id="rId853"/>
+    <hyperlink ref="I975" r:id="rId854"/>
+    <hyperlink ref="I976" r:id="rId855"/>
+    <hyperlink ref="I977" r:id="rId856"/>
+    <hyperlink ref="I978" r:id="rId857"/>
+    <hyperlink ref="I979" r:id="rId858"/>
+    <hyperlink ref="I980" r:id="rId859"/>
+    <hyperlink ref="I981" r:id="rId860"/>
+    <hyperlink ref="I982" r:id="rId861"/>
+    <hyperlink ref="I983" r:id="rId862"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ko.xlsx
@@ -43709,7 +43709,7 @@
       </c>
       <c r="D834" s="18" t="inlineStr">
         <is>
-          <t>클라우드 운영 모델에 맞는 RBAC 모델을 적용합니다. Scope and Assign across Management Groups and Subscriptions.</t>
+          <t>클라우드 운영 모델에 맞는 RBAC 모델을 적용합니다. 관리 그룹 및 구독에서 범위를 지정하고 할당합니다.</t>
         </is>
       </c>
       <c r="E834" s="18" t="n"/>
@@ -43929,7 +43929,7 @@
       </c>
       <c r="D838" s="18" t="inlineStr">
         <is>
-          <t>Azure 환경에 대한 권한이 있는 모든 사용자에 대해 Multi-Factor Authentication을 적용합니다.</t>
+          <t>Azure 환경에 대한 권한이 있는 모든 사용자에 대해 다단계 인증을 적용합니다.</t>
         </is>
       </c>
       <c r="E838" s="18" t="n"/>
@@ -44084,7 +44084,7 @@
       </c>
       <c r="B841" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C841" s="18" t="inlineStr">
@@ -44094,7 +44094,7 @@
       </c>
       <c r="D841" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 로그를 플랫폼 중앙 Azure Monitor와 통합합니다. Azure Monitor는 Azure의 로그 및 모니터링 데이터에 대한 단일 정보 소스를 허용하여 조직에 로그 수집 및 보존에 대한 요구 사항을 충족하는 클라우드 네이티브 옵션을 제공합니다.</t>
+          <t xml:space="preserve">Microsoft Entra Domain Services를 사용하는 경우 복제본 세트를 사용합니다. 복제본 세트는 관리되는 도메인의 복원력을 향상시키고 추가 지역에 배포할 수 있도록 합니다. </t>
         </is>
       </c>
       <c r="E841" s="18" t="n"/>
@@ -44116,13 +44116,17 @@
       </c>
       <c r="J841" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/entra/identity/monitoring-health/howto-integrate-activity-logs-with-azure-monitor-logs</t>
-        </is>
-      </c>
-      <c r="K841" s="19" t="n"/>
+          <t>https://learn.microsoft.com/training/modules/understand-azure-active-directory/6-examine-azure-domain-services</t>
+        </is>
+      </c>
+      <c r="K841" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.aad/domainservices' | extend replicaSets = properties.replicaSets | where array_length(replicaSets) &lt; 2 | project name=name, id=id, tags=tags, param1=strcat('replicaSetLocation:', replicaSets[0].location)</t>
+        </is>
+      </c>
       <c r="L841" s="19" t="inlineStr">
         <is>
-          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
+          <t>0dd4e625-9c4b-4a56-b54a-4357bac12761</t>
         </is>
       </c>
       <c r="M841" s="20" t="n"/>
@@ -44149,13 +44153,13 @@
       </c>
       <c r="D842" s="18" t="inlineStr">
         <is>
-          <t>응급 액세스 또는 비상 계정을 구현하여 테넌트 전체 계정 잠금을 방지합니다.</t>
+          <t>Microsoft Entra ID 로그를 플랫폼 중앙 Azure Monitor와 통합합니다. Azure Monitor는 Azure의 로그 및 모니터링 데이터에 대한 단일 정보 소스를 허용하여 조직에 로그 수집 및 보존에 대한 요구 사항을 충족할 수 있는 클라우드 네이티브 옵션을 제공합니다.</t>
         </is>
       </c>
       <c r="E842" s="18" t="n"/>
       <c r="F842" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G842" t="inlineStr">
@@ -44171,13 +44175,13 @@
       </c>
       <c r="J842" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/entra/identity/monitoring-health/howto-integrate-activity-logs-with-azure-monitor-logs</t>
         </is>
       </c>
       <c r="K842" s="19" t="n"/>
       <c r="L842" s="19" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
         </is>
       </c>
       <c r="M842" s="20" t="n"/>
@@ -44204,13 +44208,13 @@
       </c>
       <c r="D843" s="18" t="inlineStr">
         <is>
-          <t>특별히 필요한 시나리오가 없는 한 Microsoft Entra ID 역할 할당에 온-프레미스 동기화 계정을 사용하지 마세요.</t>
+          <t>응급 액세스 또는 비상 계정을 구현하여 테넌트 전체 계정 잠금을 방지합니다.</t>
         </is>
       </c>
       <c r="E843" s="18" t="n"/>
       <c r="F843" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G843" t="inlineStr">
@@ -44226,13 +44230,13 @@
       </c>
       <c r="J843" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="K843" s="19" t="n"/>
       <c r="L843" s="19" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M843" s="20" t="n"/>
@@ -44259,7 +44263,7 @@
       </c>
       <c r="D844" s="18" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 애플리케이션 프록시를 사용하여 원격 사용자에게 애플리케이션에 대한 액세스 권한을 부여하는 경우 테넌트당 하나의 인스턴스만 가질 수 있으므로 플랫폼 리소스로 관리합니다.</t>
+          <t>특별히 필요한 시나리오가 없는 한 Microsoft Entra ID 역할 할당에 온-프레미스 동기화 계정을 사용하지 마세요.</t>
         </is>
       </c>
       <c r="E844" s="18" t="n"/>
@@ -44281,13 +44285,13 @@
       </c>
       <c r="J844" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="K844" s="19" t="n"/>
       <c r="L844" s="19" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M844" s="20" t="n"/>
@@ -44309,12 +44313,12 @@
       </c>
       <c r="C845" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D845" s="18" t="inlineStr">
         <is>
-          <t>최대한의 유연성이 필요한 네트워크 시나리오에는 허브 및 스포크(hub-and-spoke) 네트워크 토폴로지를 사용합니다.</t>
+          <t>Microsoft Entra ID 애플리케이션 프록시를 사용하여 원격 사용자에게 애플리케이션에 대한 액세스 권한을 부여하는 경우 테넌트당 하나의 인스턴스만 가질 수 있으므로 플랫폼 리소스로 관리합니다.</t>
         </is>
       </c>
       <c r="E845" s="18" t="n"/>
@@ -44336,13 +44340,13 @@
       </c>
       <c r="J845" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="K845" s="19" t="n"/>
       <c r="L845" s="19" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M845" s="20" t="n"/>
@@ -44359,7 +44363,7 @@
       </c>
       <c r="B846" s="18" t="inlineStr">
         <is>
-          <t>비용</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C846" s="18" t="inlineStr">
@@ -44369,13 +44373,13 @@
       </c>
       <c r="D846" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute 게이트웨이, VPN 게이트웨이 및 Azure Firewall 또는 파트너 NVA를 포함한 공유 네트워킹 서비스를 중앙 허브 가상 네트워크에 배포합니다. 필요한 경우 DNS 서비스도 배포합니다.</t>
+          <t>최대한의 유연성이 필요한 네트워크 시나리오에는 허브 및 스포크(hub-and-spoke) 네트워크 토폴로지를 사용합니다.</t>
         </is>
       </c>
       <c r="E846" s="18" t="n"/>
       <c r="F846" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G846" t="inlineStr">
@@ -44391,13 +44395,13 @@
       </c>
       <c r="J846" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K846" s="19" t="n"/>
       <c r="L846" s="19" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M846" s="20" t="n"/>
@@ -44414,7 +44418,7 @@
       </c>
       <c r="B847" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>비용</t>
         </is>
       </c>
       <c r="C847" s="18" t="inlineStr">
@@ -44424,7 +44428,7 @@
       </c>
       <c r="D847" s="18" t="inlineStr">
         <is>
-          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
+          <t>ExpressRoute 게이트웨이, VPN 게이트웨이 및 Azure Firewall 또는 파트너 NVA를 포함한 공유 네트워킹 서비스를 중앙 허브 가상 네트워크에 배포합니다. 필요한 경우 DNS 서비스도 배포합니다.</t>
         </is>
       </c>
       <c r="E847" s="18" t="n"/>
@@ -44446,13 +44450,13 @@
       </c>
       <c r="J847" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
         </is>
       </c>
       <c r="K847" s="19" t="n"/>
       <c r="L847" s="19" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M847" s="20" t="n"/>
@@ -44469,23 +44473,23 @@
       </c>
       <c r="B848" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C848" s="18" t="inlineStr">
         <is>
-          <t>NVA</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D848" s="18" t="inlineStr">
         <is>
-          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따릅니다.</t>
+          <t>애플리케이션 랜딩 존의 모든 공용 IP 주소에 대해 DDoS 네트워크 또는 IP 보호 계획을 사용합니다.</t>
         </is>
       </c>
       <c r="E848" s="18" t="n"/>
       <c r="F848" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G848" t="inlineStr">
@@ -44499,11 +44503,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J848" s="13" t="n"/>
+      <c r="J848" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K848" s="19" t="n"/>
       <c r="L848" s="19" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M848" s="20" t="n"/>
@@ -44520,23 +44528,23 @@
       </c>
       <c r="B849" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C849" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>NVA</t>
         </is>
       </c>
       <c r="D849" s="18" t="inlineStr">
         <is>
-          <t>허브 및 스포크 시나리오에서 ExpressRoute와 VPN 게이트웨이 간의 전송이 필요한 경우 Azure Route Server를 사용합니다.</t>
+          <t>파트너 네트워킹 기술 또는 NVA를 배포할 때 파트너 공급업체의 지침을 따릅니다.</t>
         </is>
       </c>
       <c r="E849" s="18" t="n"/>
       <c r="F849" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G849" t="inlineStr">
@@ -44550,15 +44558,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J849" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
-        </is>
-      </c>
+      <c r="J849" s="13" t="n"/>
       <c r="K849" s="19" t="n"/>
       <c r="L849" s="19" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M849" s="20" t="n"/>
@@ -44580,12 +44584,12 @@
       </c>
       <c r="C850" s="18" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D850" s="18" t="inlineStr">
         <is>
-          <t>Route Server를 사용하는 경우 Route Server 서브넷에 /27 접두사를 사용합니다.</t>
+          <t>허브 및 스포크 시나리오에서 ExpressRoute와 VPN 게이트웨이 간의 전송이 필요한 경우 Azure Route Server를 사용합니다.</t>
         </is>
       </c>
       <c r="E850" s="18" t="n"/>
@@ -44610,14 +44614,10 @@
           <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
         </is>
       </c>
-      <c r="K850" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K850" s="19" t="n"/>
       <c r="L850" s="19" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M850" s="20" t="n"/>
@@ -44634,23 +44634,23 @@
       </c>
       <c r="B851" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C851" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="D851" s="18" t="inlineStr">
         <is>
-          <t>Azure 지역 간에 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간의 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다.</t>
+          <t>Route Server를 사용하는 경우 Route Server 서브넷에 /27 접두사를 사용합니다.</t>
         </is>
       </c>
       <c r="E851" s="18" t="n"/>
       <c r="F851" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G851" t="inlineStr">
@@ -44666,13 +44666,17 @@
       </c>
       <c r="J851" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
-      <c r="K851" s="19" t="n"/>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
+        </is>
+      </c>
+      <c r="K851" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L851" s="19" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M851" s="20" t="n"/>
@@ -44689,7 +44693,7 @@
       </c>
       <c r="B852" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C852" s="18" t="inlineStr">
@@ -44699,7 +44703,7 @@
       </c>
       <c r="D852" s="18" t="inlineStr">
         <is>
-          <t>네트워크용 Azure Monitor를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
+          <t>Azure 지역 간에 여러 허브 및 스포크 토폴로지가 있는 네트워크 아키텍처의 경우 허브 VNet 간의 글로벌 가상 네트워크 피어링을 사용하여 지역을 서로 연결합니다.</t>
         </is>
       </c>
       <c r="E852" s="18" t="n"/>
@@ -44721,13 +44725,13 @@
       </c>
       <c r="J852" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="K852" s="19" t="n"/>
       <c r="L852" s="19" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M852" s="20" t="n"/>
@@ -44744,7 +44748,7 @@
       </c>
       <c r="B853" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C853" s="18" t="inlineStr">
@@ -44754,7 +44758,7 @@
       </c>
       <c r="D853" s="18" t="inlineStr">
         <is>
-          <t>한 지역에 400개 이상의 스포크 네트워크가 있는 경우 VNet 피어링 제한(500) 및 ExpressRoute를 통해 보급할 수 있는 최대 접두사 수(1000)를 우회하기 위해 추가 허브를 배포합니다.</t>
+          <t>네트워크용 Azure Monitor를 사용하여 Azure에서 네트워크의 엔드투엔드 상태를 모니터링합니다.</t>
         </is>
       </c>
       <c r="E853" s="18" t="n"/>
@@ -44776,17 +44780,13 @@
       </c>
       <c r="J853" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
-        </is>
-      </c>
-      <c r="K853" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
+      <c r="K853" s="19" t="n"/>
       <c r="L853" s="19" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M853" s="20" t="n"/>
@@ -44813,7 +44813,7 @@
       </c>
       <c r="D854" s="18" t="inlineStr">
         <is>
-          <t>경로 테이블당 경로 수를 400개로 제한합니다.</t>
+          <t>한 지역에 400개 이상의 스포크 네트워크가 있는 경우 VNet 피어링 제한(500) 및 ExpressRoute를 통해 보급할 수 있는 최대 접두사 수(1000)를 우회하기 위해 추가 허브를 배포합니다.</t>
         </is>
       </c>
       <c r="E854" s="18" t="n"/>
@@ -44840,12 +44840,12 @@
       </c>
       <c r="K854" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L854" s="19" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M854" s="20" t="n"/>
@@ -44872,13 +44872,13 @@
       </c>
       <c r="D855" s="18" t="inlineStr">
         <is>
-          <t>VNet 피어링을 구성할 때 '원격 가상 네트워크에 대한 트래픽 허용' 설정을 사용합니다.</t>
+          <t>경로 테이블당 경로 수를 400개로 제한합니다.</t>
         </is>
       </c>
       <c r="E855" s="18" t="n"/>
       <c r="F855" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G855" t="inlineStr">
@@ -44899,12 +44899,12 @@
       </c>
       <c r="K855" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
+          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L855" s="19" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M855" s="20" t="n"/>
@@ -44921,23 +44921,23 @@
       </c>
       <c r="B856" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C856" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D856" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 레벨에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 흐름에서 이 암호화를 보여 줍니다.</t>
+          <t>VNet 피어링을 구성할 때 '원격 가상 네트워크에 대한 트래픽 허용' 설정을 사용합니다.</t>
         </is>
       </c>
       <c r="E856" s="18" t="n"/>
       <c r="F856" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G856" t="inlineStr">
@@ -44953,13 +44953,17 @@
       </c>
       <c r="J856" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K856" s="19" t="n"/>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
+      <c r="K856" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
+        </is>
+      </c>
       <c r="L856" s="19" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M856" s="20" t="n"/>
@@ -44976,23 +44980,23 @@
       </c>
       <c r="B857" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C857" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Load Balancers</t>
         </is>
       </c>
       <c r="D857" s="18" t="inlineStr">
         <is>
-          <t>MACsec을 사용할 수 없는 시나리오(예: ExpressRoute Direct를 사용하지 않음)의 경우 VPN 게이트웨이를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다.</t>
+          <t>영역 중복 배포와 함께 표준 Load Balancer SKU를 사용하는 경우 표준 SKU Load Balancer를 선택하면 가용성 영역 및 영역 복원력을 통해 안정성이 향상되어 배포가 영역 및 지역 오류를 견딜 수 있습니다. Basic과 달리 전역 부하 분산을 지원하고 SLA를 제공합니다.</t>
         </is>
       </c>
       <c r="E857" s="18" t="n"/>
       <c r="F857" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G857" t="inlineStr">
@@ -45006,15 +45010,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J857" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
-      <c r="K857" s="19" t="n"/>
+      <c r="J857" s="13" t="n"/>
+      <c r="K857" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/loadbalancers' | where tolower(sku.name) != 'basic' | mv-expand feIPconfigs = properties.frontendIPConfigurations | extend feConfigName = (feIPconfigs.name), PrivateSubnetId = toupper(feIPconfigs.properties.subnet.id), PrivateIPZones = feIPconfigs.zones, PIPid = toupper(feIPconfigs.properties.publicIPAddress.id), JoinID = toupper(id) | where isnotempty(PrivateSubnetId) | where isnull(PrivateIPZones) or array_length(PrivateIPZones) &lt; 2 | project name, feConfigName, id | union (resources | where type == 'microsoft.network/loadbalancers' | where tolower(sku.name) != 'basic' | mv-expand feIPconfigs = properties.frontendIPConfigurations | extend feConfigName = (feIPconfigs.name), PIPid = toupper(feIPconfigs.properties.publicIPAddress.id), JoinID = toupper(id) | where isnotempty(PIPid) | join kind=innerunique ( resources | where type == 'microsoft.network/publicipaddresses' | where isnull(zones) or array_length(zones) &lt; 2 | extend LBid = toupper(substring(properties.ipConfiguration.id, 0, indexof(properties.ipConfiguration.id, '/frontendIPConfigurations'))), InnerID = toupper(id) ) on $left.PIPid == $right.InnerID) | project name, id, tags, param1='Zones: No Zone or Zonal', param2=strcat('Frontend IP Configuration:', ' ', feConfigName)</t>
+        </is>
+      </c>
       <c r="L857" s="19" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>9dcd6250-9c4a-4382-aa9b-5b84c64fc1fe</t>
         </is>
       </c>
       <c r="M857" s="20" t="n"/>
@@ -45031,17 +45035,17 @@
       </c>
       <c r="B858" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C858" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Load Balancers</t>
         </is>
       </c>
       <c r="D858" s="18" t="inlineStr">
         <is>
-          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
+          <t>부하 분산 장치 백 엔드 풀에 두 개 이상의 인스턴스가 포함되어 있는지 확인하고, 백 엔드에 두 개 이상의 인스턴스를 사용하여 Azure Load Balancer를 배포하면 단일 실패 지점을 방지하고 확장성을 지원할 수 있습니다.</t>
         </is>
       </c>
       <c r="E858" s="18" t="n"/>
@@ -45061,15 +45065,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J858" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K858" s="19" t="n"/>
+      <c r="J858" s="13" t="n"/>
+      <c r="K858" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'Microsoft.Network/loadBalancers' | extend bep = properties.backendAddressPools | extend BackEndPools = array_length(bep) | where BackEndPools == 0 | project name, id, Param1='backendPools', Param2=toint(0), tags | union (resources | where type =~ 'Microsoft.Network/loadBalancers' | where sku.name == 'Standard' | extend bep = properties.backendAddressPools | extend BackEndPools = toint(array_length(bep)) | mv-expand bip = properties.backendAddressPools | extend BackendAddresses = array_length(bip.properties.loadBalancerBackendAddresses) | where toint(BackendAddresses) &lt;= 1 | project name, id, tags, Param1='backendAddresses', Param2=toint(BackendAddresses)) | union ( resources | where type =~ 'Microsoft.Network/loadBalancers' | where sku.name == 'Basic' | mv-expand properties.backendAddressPools | extend backendPoolId = properties_backendAddressPools.id | project id, name, tags, tostring(backendPoolId), Param1='BackEndPools' | join kind = leftouter ( resources | where type =~ 'Microsoft.Network/networkInterfaces' | mv-expand properties.ipConfigurations | mv-expand properties_ipConfigurations.properties.loadBalancerBackendAddressPools | extend backendPoolId = tostring(properties_ipConfigurations_properties_loadBalancerBackendAddressPools.id) | summarize poolMembers = count() by backendPoolId | project tostring(backendPoolId), poolMembers ) on backendPoolId | where toint(poolMembers) &lt;= 1 | extend BackendAddresses = poolMembers | project id, name, tags, Param1='backendAddresses', Param2=toint(BackendAddresses))</t>
+        </is>
+      </c>
       <c r="L858" s="19" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>48682fb1-1e86-4458-a686-518ebd47393d</t>
         </is>
       </c>
       <c r="M858" s="20" t="n"/>
@@ -45091,12 +45095,12 @@
       </c>
       <c r="C859" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D859" s="18" t="inlineStr">
         <is>
-          <t>개인 인터넷(RFC 1918)에 대한 주소 할당 범위의 IP 주소를 사용합니다.</t>
+          <t>ExpressRoute Direct를 사용하는 경우 조직의 라우터와 MSEE 간의 계층 2 수준에서 트래픽을 암호화하도록 MACsec을 구성합니다. 다이어그램은 흐름에서 이 암호화를 보여 줍니다.</t>
         </is>
       </c>
       <c r="E859" s="18" t="n"/>
@@ -45118,17 +45122,13 @@
       </c>
       <c r="J859" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K859" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K859" s="19" t="n"/>
       <c r="L859" s="19" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M859" s="20" t="n"/>
@@ -45145,23 +45145,23 @@
       </c>
       <c r="B860" s="18" t="inlineStr">
         <is>
-          <t>공연</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C860" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D860" s="18" t="inlineStr">
         <is>
-          <t>IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요.</t>
+          <t>MACsec을 사용할 수 없는 시나리오(예: ExpressRoute Direct를 사용하지 않음)의 경우 VPN Gateway를 사용하여 ExpressRoute 개인 피어링을 통해 IPsec 터널을 설정합니다.</t>
         </is>
       </c>
       <c r="E860" s="18" t="n"/>
       <c r="F860" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G860" t="inlineStr">
@@ -45177,17 +45177,13 @@
       </c>
       <c r="J860" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K860" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
+      <c r="K860" s="19" t="n"/>
       <c r="L860" s="19" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M860" s="20" t="n"/>
@@ -45204,17 +45200,17 @@
       </c>
       <c r="B861" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C861" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D861" s="18" t="inlineStr">
         <is>
-          <t>프로덕션 및 재해 복구 사이트에 대해 겹치는 IP 주소 범위를 사용하지 마세요.</t>
+          <t>Azure 지역 및 온-프레미스 위치에서 겹치는 IP 주소 공간이 사용되지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="E861" s="18" t="n"/>
@@ -45236,13 +45232,13 @@
       </c>
       <c r="J861" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K861" s="19" t="n"/>
       <c r="L861" s="19" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M861" s="20" t="n"/>
@@ -45259,17 +45255,17 @@
       </c>
       <c r="B862" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C862" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D862" s="18" t="inlineStr">
         <is>
-          <t>Azure의 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 사용하여 확인을 위해 Azure 프라이빗 DNS를 사용합니다.</t>
+          <t>개인 인터넷(RFC 1918)에 대한 주소 할당 범위의 IP 주소를 사용합니다.</t>
         </is>
       </c>
       <c r="E862" s="18" t="n"/>
@@ -45291,13 +45287,17 @@
       </c>
       <c r="J862" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
-      <c r="K862" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K862" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
+        </is>
+      </c>
       <c r="L862" s="19" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M862" s="20" t="n"/>
@@ -45314,23 +45314,23 @@
       </c>
       <c r="B863" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>공연</t>
         </is>
       </c>
       <c r="C863" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D863" s="18" t="inlineStr">
         <is>
-          <t>Azure 및 온-프레미스에서 이름 확인이 필요하고 Active Directory와 같은 기존 엔터프라이즈 DNS 서비스가 없는 환경의 경우 Azure DNS Private Resolver를 사용하여 DNS 요청을 Azure 또는 온-프레미스 DNS 서버로 라우팅합니다.</t>
+          <t>IP 주소 공간이 낭비되지 않는지 확인하고 불필요하게 큰 가상 네트워크(예: /16)를 만들지 마세요.</t>
         </is>
       </c>
       <c r="E863" s="18" t="n"/>
       <c r="F863" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G863" t="inlineStr">
@@ -45346,13 +45346,17 @@
       </c>
       <c r="J863" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
-        </is>
-      </c>
-      <c r="K863" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K863" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
+        </is>
+      </c>
       <c r="L863" s="19" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M863" s="20" t="n"/>
@@ -45369,23 +45373,23 @@
       </c>
       <c r="B864" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C864" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D864" s="18" t="inlineStr">
         <is>
-          <t>자체 DNS(예: Red Hat OpenShift)가 필요하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
+          <t>프로덕션 및 재해 복구 사이트에 대해 겹치는 IP 주소 범위를 사용하지 마세요.</t>
         </is>
       </c>
       <c r="E864" s="18" t="n"/>
       <c r="F864" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G864" t="inlineStr">
@@ -45401,13 +45405,13 @@
       </c>
       <c r="J864" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/courses/az-700t00</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="K864" s="19" t="n"/>
       <c r="L864" s="19" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M864" s="20" t="n"/>
@@ -45424,17 +45428,17 @@
       </c>
       <c r="B865" s="18" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>신뢰도</t>
         </is>
       </c>
       <c r="C865" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Public IP Addresses</t>
         </is>
       </c>
       <c r="D865" s="18" t="inlineStr">
         <is>
-          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
+          <t xml:space="preserve">해당하는 경우 표준 SKU 및 영역 중복 IP를 사용하며, Azure의 공용 IP 주소는 비영역, 영역 또는 영역 중복으로 사용할 수 있는 표준 SKU일 수 있습니다. 영역 중복 IP는 모든 영역에서 액세스할 수 있으므로 단일 영역 오류에 저항하여 더 높은 복원력을 제공합니다. </t>
         </is>
       </c>
       <c r="E865" s="18" t="n"/>
@@ -45456,13 +45460,17 @@
       </c>
       <c r="J865" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
-      <c r="K865" s="19" t="n"/>
+          <t>https://learn.microsoft.com/en-gb/training/modules/configure-virtual-networks/6-create-public-ip-addressing</t>
+        </is>
+      </c>
+      <c r="K865" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'Microsoft.Network/publicIPAddresses' and sku.tier =~ 'Regional' | where isempty(zones) or array_length(zones) &lt;= 1 | extend az = case(isempty(zones), 'Non-zonal', array_length(zones) &lt;= 1, strcat('Zonal (', strcat_array(zones, ','), ')'), zones) | project name, id, tags, param1 = strcat('sku: ', sku.name), param2 = strcat('availabilityZone: ', az)</t>
+        </is>
+      </c>
       <c r="L865" s="19" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>0c47f486-656d-4699-8c30-edef5b8a93c4</t>
         </is>
       </c>
       <c r="M865" s="20" t="n"/>
@@ -45479,17 +45487,17 @@
       </c>
       <c r="B866" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C866" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D866" s="18" t="inlineStr">
         <is>
-          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결합니다.</t>
+          <t>Azure의 이름 확인만 필요한 환경의 경우 이름 확인을 위해 위임된 영역(예: 'azure.contoso.com')을 사용하여 Azure 프라이빗 DNS를 확인합니다.</t>
         </is>
       </c>
       <c r="E866" s="18" t="n"/>
@@ -45511,13 +45519,13 @@
       </c>
       <c r="J866" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="K866" s="19" t="n"/>
       <c r="L866" s="19" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M866" s="20" t="n"/>
@@ -45539,12 +45547,12 @@
       </c>
       <c r="C867" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D867" s="18" t="inlineStr">
         <is>
-          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
+          <t>Azure 및 온-프레미스에서 이름 확인이 필요하고 Active Directory와 같은 기존 엔터프라이즈 DNS 서비스가 없는 환경의 경우 Azure DNS Private Resolver를 사용하여 DNS 요청을 Azure 또는 온-프레미스 DNS 서버로 라우팅합니다.</t>
         </is>
       </c>
       <c r="E867" s="18" t="n"/>
@@ -45566,17 +45574,13 @@
       </c>
       <c r="J867" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
-        </is>
-      </c>
-      <c r="K867" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+        </is>
+      </c>
+      <c r="K867" s="19" t="n"/>
       <c r="L867" s="19" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M867" s="20" t="n"/>
@@ -45593,23 +45597,23 @@
       </c>
       <c r="B868" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C868" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D868" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역 전체에서 전역 보호를 제공합니다.</t>
+          <t>자체 DNS(예: Red Hat OpenShift)를 요구하고 배포하는 특수 워크로드는 선호하는 DNS 솔루션을 사용해야 합니다.</t>
         </is>
       </c>
       <c r="E868" s="18" t="n"/>
       <c r="F868" s="18" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="G868" t="inlineStr">
@@ -45625,13 +45629,13 @@
       </c>
       <c r="J868" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/training/courses/az-700t00</t>
         </is>
       </c>
       <c r="K868" s="19" t="n"/>
       <c r="L868" s="19" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M868" s="20" t="n"/>
@@ -45648,23 +45652,23 @@
       </c>
       <c r="B869" s="18" t="inlineStr">
         <is>
-          <t>안전</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="C869" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D869" s="18" t="inlineStr">
         <is>
-          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
+          <t>Azure DNS에 대한 자동 등록을 사용하도록 설정하여 가상 네트워크 내에 배포된 가상 머신에 대한 DNS 레코드의 수명 주기를 자동으로 관리합니다.</t>
         </is>
       </c>
       <c r="E869" s="18" t="n"/>
       <c r="F869" s="18" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="G869" t="inlineStr">
@@ -45680,13 +45684,13 @@
       </c>
       <c r="J869" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="K869" s="19" t="n"/>
       <c r="L869" s="19" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M869" s="20" t="n"/>
@@ -45708,18 +45712,18 @@
       </c>
       <c r="C870" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D870" s="18" t="inlineStr">
         <is>
-          <t>인바운드 HTTP/S 연결에 WAF 및 기타 역방향 프록시가 필요한 경우 랜딩 존 가상 네트워크 내에 배포하고 보호하고 인터넷에 노출하는 앱과 함께 배포합니다.</t>
+          <t>Azure Bastion을 사용하여 네트워크에 안전하게 연결합니다.</t>
         </is>
       </c>
       <c r="E870" s="18" t="n"/>
       <c r="F870" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G870" t="inlineStr">
@@ -45735,13 +45739,13 @@
       </c>
       <c r="J870" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
         </is>
       </c>
       <c r="K870" s="19" t="n"/>
       <c r="L870" s="19" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M870" s="20" t="n"/>
@@ -45763,18 +45767,18 @@
       </c>
       <c r="C871" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D871" s="18" t="inlineStr">
         <is>
-          <t>Azure DDoS 네트워크 또는 IP 보호 플랜을 사용하여 가상 네트워크 내의 공용 IP 주소 엔드포인트를 보호할 수 있습니다.</t>
+          <t>서브넷 /26 이상에서 Azure Bastion을 사용합니다.</t>
         </is>
       </c>
       <c r="E871" s="18" t="n"/>
       <c r="F871" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G871" t="inlineStr">
@@ -45790,13 +45794,17 @@
       </c>
       <c r="J871" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K871" s="19" t="n"/>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
+        </is>
+      </c>
+      <c r="K871" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L871" s="19" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M871" s="20" t="n"/>
@@ -45813,23 +45821,23 @@
       </c>
       <c r="B872" s="18" t="inlineStr">
         <is>
-          <t>신뢰도</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C872" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D872" s="18" t="inlineStr">
         <is>
-          <t>예정된 호환성이 손상되는 변경 전에 네트워크 아웃바운드 트래픽 구성 및 전략을 관리하는 방법을 계획합니다. 2025년 9월 30일에 새 배포에 대한 기본 아웃바운드 액세스가 사용 중지되고 명시적 액세스 구성만 허용됩니다.</t>
+          <t>Azure Front Door 및 WAF 정책을 사용하여 랜딩 존에 대한 인바운드 HTTP/S 연결을 위해 Azure 지역 전체에서 글로벌 보호를 제공합니다.</t>
         </is>
       </c>
       <c r="E872" s="18" t="n"/>
       <c r="F872" s="18" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="G872" t="inlineStr">
@@ -45845,13 +45853,13 @@
       </c>
       <c r="J872" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="K872" s="19" t="n"/>
       <c r="L872" s="19" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M872" s="20" t="n"/>
@@ -45873,18 +45881,18 @@
       </c>
       <c r="C873" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D873" s="18" t="inlineStr">
         <is>
-          <t>보호된 모든 공용 IP 주소(DDoS IP 또는 네트워크 보호)에 대한 DDoS 관련 로그를 저장하는 진단 설정을 추가합니다.</t>
+          <t>Azure Front Door 및 Azure Application Gateway를 사용하여 HTTP/S 앱을 보호하는 경우 Azure Front Door에서 WAF 정책을 사용합니다. Azure Front Door에서만 트래픽을 수신하도록 Azure Application Gateway를 잠급니다.</t>
         </is>
       </c>
 